--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -5,20 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\clash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054AFCD4-3817-40CA-9361-482F622D3396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7733C71-1D2A-4D08-9F5F-E0ACF29CDBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B27E2D7-7E1F-4830-8A43-C634E6A715E0}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{2B27E2D7-7E1F-4830-8A43-C634E6A715E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="clan games" sheetId="5" r:id="rId1"/>
-    <sheet name="CLAN CAPITAL" sheetId="6" r:id="rId2"/>
+    <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
+    <sheet name="CWL 2" sheetId="2" r:id="rId2"/>
     <sheet name="avv" sheetId="7" r:id="rId3"/>
-    <sheet name="CWL 1" sheetId="1" r:id="rId4"/>
-    <sheet name="CWL 2" sheetId="2" r:id="rId5"/>
-    <sheet name="partecipanti" sheetId="3" r:id="rId6"/>
+    <sheet name="partecipanti" sheetId="3" r:id="rId4"/>
+    <sheet name="wars" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="158">
   <si>
     <t>nome</t>
   </si>
@@ -238,18 +237,6 @@
     <t>lord pucci</t>
   </si>
   <si>
-    <t>MEDIA</t>
-  </si>
-  <si>
-    <t>TOTALE</t>
-  </si>
-  <si>
-    <t>CC MEAN</t>
-  </si>
-  <si>
-    <t>carfi</t>
-  </si>
-  <si>
     <t>ottimo attacco</t>
   </si>
   <si>
@@ -268,19 +255,271 @@
     <t>CWL2</t>
   </si>
   <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>NOME</t>
+    <t>Colonna9</t>
+  </si>
+  <si>
+    <t>Colonna10</t>
+  </si>
+  <si>
+    <t>Colonna11</t>
+  </si>
+  <si>
+    <t>Colonna12</t>
+  </si>
+  <si>
+    <t>Colonna13</t>
+  </si>
+  <si>
+    <t>Colonna14</t>
+  </si>
+  <si>
+    <t>Colonna15</t>
+  </si>
+  <si>
+    <t>Colonna16</t>
+  </si>
+  <si>
+    <t>Colonna17</t>
+  </si>
+  <si>
+    <t>Colonna18</t>
+  </si>
+  <si>
+    <t>Colonna19</t>
+  </si>
+  <si>
+    <t>Colonna20</t>
+  </si>
+  <si>
+    <t>Colonna21</t>
+  </si>
+  <si>
+    <t>Colonna22</t>
+  </si>
+  <si>
+    <t>Colonna23</t>
+  </si>
+  <si>
+    <t>Colonna24</t>
+  </si>
+  <si>
+    <t>Colonna25</t>
+  </si>
+  <si>
+    <t>Colonna26</t>
+  </si>
+  <si>
+    <t>Colonna27</t>
+  </si>
+  <si>
+    <t>Colonna28</t>
+  </si>
+  <si>
+    <t>Colonna29</t>
+  </si>
+  <si>
+    <t>Colonna30</t>
+  </si>
+  <si>
+    <t>Colonna31</t>
+  </si>
+  <si>
+    <t>Colonna32</t>
+  </si>
+  <si>
+    <t>Colonna33</t>
+  </si>
+  <si>
+    <t>Colonna34</t>
+  </si>
+  <si>
+    <t>Colonna35</t>
+  </si>
+  <si>
+    <t>Colonna36</t>
+  </si>
+  <si>
+    <t>Colonna37</t>
+  </si>
+  <si>
+    <t>Colonna38</t>
+  </si>
+  <si>
+    <t>Colonna39</t>
+  </si>
+  <si>
+    <t>Colonna40</t>
+  </si>
+  <si>
+    <t>Colonna41</t>
+  </si>
+  <si>
+    <t>Colonna42</t>
+  </si>
+  <si>
+    <t>Colonna43</t>
+  </si>
+  <si>
+    <t>Colonna44</t>
+  </si>
+  <si>
+    <t>Colonna45</t>
+  </si>
+  <si>
+    <t>Colonna46</t>
+  </si>
+  <si>
+    <t>Colonna47</t>
+  </si>
+  <si>
+    <t>Colonna48</t>
+  </si>
+  <si>
+    <t>Colonna49</t>
+  </si>
+  <si>
+    <t>Colonna50</t>
+  </si>
+  <si>
+    <t>Colonna51</t>
+  </si>
+  <si>
+    <t>Colonna52</t>
+  </si>
+  <si>
+    <t>Colonna53</t>
+  </si>
+  <si>
+    <t>Colonna54</t>
+  </si>
+  <si>
+    <t>Colonna55</t>
+  </si>
+  <si>
+    <t>Colonna56</t>
+  </si>
+  <si>
+    <t>Colonna57</t>
+  </si>
+  <si>
+    <t>Colonna58</t>
+  </si>
+  <si>
+    <t>Colonna59</t>
+  </si>
+  <si>
+    <t>Colonna60</t>
+  </si>
+  <si>
+    <t>Colonna61</t>
+  </si>
+  <si>
+    <t>Colonna62</t>
+  </si>
+  <si>
+    <t>Colonna63</t>
+  </si>
+  <si>
+    <t>Colonna64</t>
+  </si>
+  <si>
+    <t>Colonna65</t>
+  </si>
+  <si>
+    <t>Colonna66</t>
+  </si>
+  <si>
+    <t>Colonna67</t>
+  </si>
+  <si>
+    <t>Colonna68</t>
+  </si>
+  <si>
+    <t>Colonna69</t>
+  </si>
+  <si>
+    <t>Colonna70</t>
+  </si>
+  <si>
+    <t>Colonna71</t>
+  </si>
+  <si>
+    <t>Colonna72</t>
+  </si>
+  <si>
+    <t>Colonna73</t>
+  </si>
+  <si>
+    <t>Colonna74</t>
+  </si>
+  <si>
+    <t>Colonna75</t>
+  </si>
+  <si>
+    <t>Colonna76</t>
+  </si>
+  <si>
+    <t>Colonna77</t>
+  </si>
+  <si>
+    <t>Colonna78</t>
+  </si>
+  <si>
+    <t>Colonna79</t>
+  </si>
+  <si>
+    <t>Colonna80</t>
+  </si>
+  <si>
+    <t>Colonna81</t>
+  </si>
+  <si>
+    <t>Colonna82</t>
+  </si>
+  <si>
+    <t>Colonna83</t>
+  </si>
+  <si>
+    <t>Colonna84</t>
+  </si>
+  <si>
+    <t>Colonna85</t>
+  </si>
+  <si>
+    <t>Colonna86</t>
+  </si>
+  <si>
+    <t>Colonna87</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ATK SKIP</t>
+  </si>
+  <si>
+    <t>TOTAL WARS</t>
+  </si>
+  <si>
+    <t>TOTAL STARS</t>
+  </si>
+  <si>
+    <t>AVG STAR</t>
+  </si>
+  <si>
+    <t>WAR 1 (2)</t>
+  </si>
+  <si>
+    <t>WAR 1 (1)</t>
+  </si>
+  <si>
+    <t>WAR BOTH SKIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,7 +551,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,12 +608,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -493,11 +726,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,19 +884,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -680,35 +944,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -716,16 +989,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,14 +998,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,22 +1010,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,24 +1019,280 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -802,6 +1303,102 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F423CFF4-9977-426D-8642-F003DBBACCED}" name="Tabella2" displayName="Tabella2" ref="A1:CI51" totalsRowShown="0">
+  <autoFilter ref="A1:CI51" xr:uid="{F423CFF4-9977-426D-8642-F003DBBACCED}"/>
+  <tableColumns count="87">
+    <tableColumn id="1" xr3:uid="{0EF2E770-1752-4641-85BA-AF768F96EB2C}" name="NAME" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{7700FB12-63EA-4ABA-AB95-731E7ECAAC7D}" name="ATK SKIP" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{D973E7BC-5474-455A-8D23-F3E7679E3DAE}" name="WAR BOTH SKIP" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{332DFDF5-E2C0-4E6A-9D28-6CA5CF7E8D3E}" name="TOTAL WARS" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{3922FF77-05B3-4852-BC79-4460D5A13091}" name="TOTAL STARS"/>
+    <tableColumn id="6" xr3:uid="{0F6B5768-3F32-468D-B833-303BD4179BD2}" name="AVG STAR" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{376A0512-F474-4CFF-8C69-D521A2E8282B}" name="WAR 1 (1)" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{E37E47C7-4EDE-43BC-8ED9-2D2AE2F9E63B}" name="WAR 1 (2)" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{6DBCEF93-512C-45A9-B082-1851EC958F4B}" name="Colonna9" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{91DE97F5-8BA7-4331-8862-54D3FBDB73EA}" name="Colonna10" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{EC532579-06C4-4FF2-82FC-307D86BB24BD}" name="Colonna11" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{5BD5FC70-A326-4310-BEE3-FA83ACEF5E0E}" name="Colonna12" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{290FE366-F9C2-47A9-8560-3E43AC71D7BD}" name="Colonna13" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{3761D2F3-C126-4E7A-9184-8769ACAD7414}" name="Colonna14" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{1DE69A51-8060-4FE2-9A7F-B25F0B656AFC}" name="Colonna15" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{C8D3533A-AF90-4393-AD46-CDE8FB2E9E71}" name="Colonna16" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{A352C3C5-F8A8-4B54-BCB4-C5B00F5DA941}" name="Colonna17" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{FC8D5AC5-A191-4BDE-8BED-4858577379BC}" name="Colonna18" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{108D4001-D141-4CD5-9507-C1358BFC8B5A}" name="Colonna19" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{A80AF7DF-5078-4F70-9C8A-F1DBDB344EE2}" name="Colonna20" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{6DFF097C-5E78-42C7-802F-25FD85BF34EB}" name="Colonna21" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{360AFEF1-7881-473A-A5FB-6703D940E7BF}" name="Colonna22" dataDxfId="0"/>
+    <tableColumn id="23" xr3:uid="{FC402F78-186F-40BE-87B9-A4A8DFF11E14}" name="Colonna23"/>
+    <tableColumn id="24" xr3:uid="{87677C85-73FC-4035-A4D8-122A91554F53}" name="Colonna24"/>
+    <tableColumn id="25" xr3:uid="{B3DB419E-5602-416B-B7F9-E376441BEB88}" name="Colonna25"/>
+    <tableColumn id="26" xr3:uid="{7995E8D9-B284-4793-A16C-E6F5A85B87F7}" name="Colonna26"/>
+    <tableColumn id="27" xr3:uid="{C8EFA8C1-99BB-4F34-8AD3-8537A15CEA13}" name="Colonna27"/>
+    <tableColumn id="28" xr3:uid="{F9CF1DF5-D3FC-4CD2-9BE5-4610806C9BBB}" name="Colonna28"/>
+    <tableColumn id="29" xr3:uid="{6F0EFA45-DD34-4A6A-A928-263B3F3B42E4}" name="Colonna29"/>
+    <tableColumn id="30" xr3:uid="{CB559727-A40B-4944-9D52-7649F5FAF1EA}" name="Colonna30"/>
+    <tableColumn id="31" xr3:uid="{701EA7E0-95E0-47FC-8D0E-4F262430A37D}" name="Colonna31"/>
+    <tableColumn id="32" xr3:uid="{A933180B-2642-4730-B753-229145E1EF41}" name="Colonna32"/>
+    <tableColumn id="33" xr3:uid="{3573333E-9754-4F23-8CDC-D1306F9BF268}" name="Colonna33"/>
+    <tableColumn id="34" xr3:uid="{EC47DFDD-5E7A-4620-B3BB-AFB992D52395}" name="Colonna34"/>
+    <tableColumn id="35" xr3:uid="{AA21E8AB-AB7F-42D5-96D3-B74237A2014C}" name="Colonna35"/>
+    <tableColumn id="36" xr3:uid="{C9FB4DCF-BF28-4AE1-A7CF-8ABB51DB12CE}" name="Colonna36"/>
+    <tableColumn id="37" xr3:uid="{E034E0DF-52D6-4B2B-8593-89C7BD38C5D2}" name="Colonna37"/>
+    <tableColumn id="38" xr3:uid="{693B6181-DA2C-4B2F-9889-532878D25528}" name="Colonna38"/>
+    <tableColumn id="39" xr3:uid="{3502DF4E-4ED6-41A7-969E-88CCC7B187AF}" name="Colonna39"/>
+    <tableColumn id="40" xr3:uid="{F2354E38-61A3-4D8B-AD7A-925179F7CB6D}" name="Colonna40"/>
+    <tableColumn id="41" xr3:uid="{89374DDF-FC75-4E39-8FA9-B58FCCDE25EE}" name="Colonna41"/>
+    <tableColumn id="42" xr3:uid="{F270E42D-CD1C-4E23-AC89-B8C21EC3F3E0}" name="Colonna42"/>
+    <tableColumn id="43" xr3:uid="{F957FB97-E69A-4AF2-B828-BC36EFBAF1C7}" name="Colonna43"/>
+    <tableColumn id="44" xr3:uid="{8AA72C31-4181-4378-8207-491062F0E3EC}" name="Colonna44"/>
+    <tableColumn id="45" xr3:uid="{69E342D7-7C24-4442-A6D5-BE116FD22054}" name="Colonna45"/>
+    <tableColumn id="46" xr3:uid="{6B2864A9-B388-4422-9440-AD11780FCDD6}" name="Colonna46"/>
+    <tableColumn id="47" xr3:uid="{19B5D526-813F-4596-A72A-AB90941FB1D7}" name="Colonna47"/>
+    <tableColumn id="48" xr3:uid="{DBF1BD23-6353-412A-8662-485BEBB03F86}" name="Colonna48"/>
+    <tableColumn id="49" xr3:uid="{27E8288F-06CF-49EB-B94E-3FEBCA7B0510}" name="Colonna49"/>
+    <tableColumn id="50" xr3:uid="{06E74F8A-60BC-49D6-B40F-E720C8B2041D}" name="Colonna50"/>
+    <tableColumn id="51" xr3:uid="{73FA2BF0-26B2-4E2F-AEA3-E3B5405F15BE}" name="Colonna51"/>
+    <tableColumn id="52" xr3:uid="{4EB236AA-EF57-461D-B29F-9035D272A5EA}" name="Colonna52"/>
+    <tableColumn id="53" xr3:uid="{7899778E-7F35-4B84-B1F7-1E247FA55D25}" name="Colonna53"/>
+    <tableColumn id="54" xr3:uid="{E9D49300-A3C5-47CE-9A98-A85CC8C75A45}" name="Colonna54"/>
+    <tableColumn id="55" xr3:uid="{0613756B-161C-409C-9A6A-25B7A080F421}" name="Colonna55"/>
+    <tableColumn id="56" xr3:uid="{99C2FE99-EDAE-4F01-9ED2-95512B4574FB}" name="Colonna56"/>
+    <tableColumn id="57" xr3:uid="{638F506F-0426-4DFD-A87B-A28ED31AA260}" name="Colonna57"/>
+    <tableColumn id="58" xr3:uid="{C8F66985-EBBC-4FCF-8032-822832F3D172}" name="Colonna58"/>
+    <tableColumn id="59" xr3:uid="{4562A6FD-B85F-48C6-8B32-BA77AD4A14D8}" name="Colonna59"/>
+    <tableColumn id="60" xr3:uid="{D92EC79F-EAE1-4A25-804B-68F6930EEFE5}" name="Colonna60"/>
+    <tableColumn id="61" xr3:uid="{791651E5-73FF-4074-962D-F43959D5F41A}" name="Colonna61"/>
+    <tableColumn id="62" xr3:uid="{1BFBA69A-C5FC-4265-8BA7-EDB124FA5A0A}" name="Colonna62"/>
+    <tableColumn id="63" xr3:uid="{8669ADEA-97BF-4D3C-920C-9D9F7C8FE5C2}" name="Colonna63"/>
+    <tableColumn id="64" xr3:uid="{1BF95B64-FD6F-48E0-AC27-27D6221F83B4}" name="Colonna64"/>
+    <tableColumn id="65" xr3:uid="{E0264749-1CCC-4AFF-B977-38799E20CA23}" name="Colonna65"/>
+    <tableColumn id="66" xr3:uid="{0ED1D8E5-7EB4-4E03-BFFF-0B72D797EC14}" name="Colonna66"/>
+    <tableColumn id="67" xr3:uid="{0F841082-A00A-434F-B65F-3136819F147C}" name="Colonna67"/>
+    <tableColumn id="68" xr3:uid="{D7928FB1-1585-494F-9111-6040D63F5A29}" name="Colonna68"/>
+    <tableColumn id="69" xr3:uid="{5CDA26B7-B4C7-4DE8-B8E2-661989279FF5}" name="Colonna69"/>
+    <tableColumn id="70" xr3:uid="{C4F959F7-EEA6-4053-8D43-8E6B1205DAEE}" name="Colonna70"/>
+    <tableColumn id="71" xr3:uid="{E57CD1EB-9AF1-433E-830E-0F73F9059F3A}" name="Colonna71"/>
+    <tableColumn id="72" xr3:uid="{81E2AC05-08A6-483C-914B-2E9E13AC4D01}" name="Colonna72"/>
+    <tableColumn id="73" xr3:uid="{B1C1244D-DCE4-46D9-AE7F-34A915048A93}" name="Colonna73"/>
+    <tableColumn id="74" xr3:uid="{CBAAB737-C8D4-4339-AF0E-0EC58F323145}" name="Colonna74"/>
+    <tableColumn id="75" xr3:uid="{C70D1860-9EE7-4E1C-90F4-E810D54107A8}" name="Colonna75"/>
+    <tableColumn id="76" xr3:uid="{0B6A33C3-907A-4774-93B5-0C9E4884751B}" name="Colonna76"/>
+    <tableColumn id="77" xr3:uid="{857AE10B-66C6-471D-941F-F1117F0AC515}" name="Colonna77"/>
+    <tableColumn id="78" xr3:uid="{32C0A9AF-5789-4DD8-A354-A95C845455C4}" name="Colonna78"/>
+    <tableColumn id="79" xr3:uid="{BAEF2E76-0B19-42F6-A6FD-2A37EF87A7F1}" name="Colonna79"/>
+    <tableColumn id="80" xr3:uid="{B512BE24-AF4D-413E-905E-42EC63649C9B}" name="Colonna80"/>
+    <tableColumn id="81" xr3:uid="{B4798D7F-B4F4-4EF5-8AF2-C227BF6BEAFB}" name="Colonna81"/>
+    <tableColumn id="82" xr3:uid="{8EF937F7-D8CE-4C15-B756-8A5185D15582}" name="Colonna82"/>
+    <tableColumn id="83" xr3:uid="{0EDC6303-87C8-4535-B252-CDEC7B0A6A3D}" name="Colonna83"/>
+    <tableColumn id="84" xr3:uid="{AEBF63B5-CCB3-489D-8B08-5DAE5C9889F6}" name="Colonna84"/>
+    <tableColumn id="85" xr3:uid="{D4C6970E-B9D7-46F8-8725-98E40168F42C}" name="Colonna85"/>
+    <tableColumn id="86" xr3:uid="{E552D410-AE16-4D07-8EC7-90BF77D8C599}" name="Colonna86"/>
+    <tableColumn id="87" xr3:uid="{625DFEFC-1B10-427B-AD94-94B948B67603}" name="Colonna87"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1120,1980 +1717,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320C5475-58D1-4CA7-BB04-00C11E8E7FA7}">
-  <dimension ref="A1:M30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="36"/>
-    <col min="4" max="4" width="9.140625" style="37"/>
-    <col min="5" max="5" width="9.140625" style="38"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="104" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="36">
-        <f t="shared" ref="C2:C30" si="0">AVERAGE(F2:AB2)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="37">
-        <f t="shared" ref="D2:D30" si="1">SUM(F2:AB2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D3" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="36">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="D6" s="37">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="G6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="36">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="D7" s="37">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="G7">
-        <v>450</v>
-      </c>
-      <c r="M7" s="94"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="36">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="D8" s="37">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="F8">
-        <v>1000</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="36">
-        <f t="shared" si="0"/>
-        <v>1975</v>
-      </c>
-      <c r="D9" s="37">
-        <f t="shared" si="1"/>
-        <v>3950</v>
-      </c>
-      <c r="F9">
-        <v>1500</v>
-      </c>
-      <c r="G9">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="36">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="D10" s="37">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="F10">
-        <v>4000</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="36">
-        <f t="shared" si="0"/>
-        <v>2250</v>
-      </c>
-      <c r="D11" s="37">
-        <f t="shared" si="1"/>
-        <v>2250</v>
-      </c>
-      <c r="G11">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="36">
-        <f t="shared" si="0"/>
-        <v>3050</v>
-      </c>
-      <c r="D12" s="37">
-        <f t="shared" si="1"/>
-        <v>6100</v>
-      </c>
-      <c r="F12">
-        <v>4000</v>
-      </c>
-      <c r="G12">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D13" s="37">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="G13">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D14" s="37">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="G14">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D15" s="37">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="G15">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D16" s="37">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="G16">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D17" s="37">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="G17">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D18" s="37">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="G18">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D19" s="37">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="G19">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D20" s="37">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="G20">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D21" s="37">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="G21">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D22" s="37">
-        <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="F22">
-        <v>4000</v>
-      </c>
-      <c r="G22">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D23" s="37">
-        <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="F23">
-        <v>4000</v>
-      </c>
-      <c r="G23">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D24" s="37">
-        <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="F24">
-        <v>4000</v>
-      </c>
-      <c r="G24">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D25" s="37">
-        <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="F25">
-        <v>4000</v>
-      </c>
-      <c r="G25">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D26" s="37">
-        <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="F26">
-        <v>4000</v>
-      </c>
-      <c r="G26">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D27" s="37">
-        <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="F27">
-        <v>4000</v>
-      </c>
-      <c r="G27">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D28" s="37">
-        <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="F28">
-        <v>4000</v>
-      </c>
-      <c r="G28">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D29" s="37">
-        <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="F29">
-        <v>4000</v>
-      </c>
-      <c r="G29">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="36">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D30" s="37">
-        <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="F30">
-        <v>4000</v>
-      </c>
-      <c r="G30">
-        <v>4000</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H30">
-    <sortCondition ref="C2:C30"/>
-    <sortCondition ref="D2:D30"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C42643D-148F-4FF6-BF17-1FF17607D810}">
-  <dimension ref="A1:F33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="92" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C2" s="86">
-        <f t="shared" ref="C2:C31" si="0">AVERAGE(D2:AA2)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C3" s="86">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C4" s="86">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C5" s="86">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C6" s="86">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C7" s="86">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C8" s="86">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D8" s="4">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C9" s="86">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C10" s="86">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D10" s="4">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C11" s="86">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D11" s="4">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C12" s="86">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>6</v>
-      </c>
-      <c r="F12" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C13" s="86">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D13" s="4">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4">
-        <v>6</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C14" s="86">
-        <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C15" s="86">
-        <f t="shared" si="0"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="D15" s="4">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C16" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D16" s="4">
-        <v>6</v>
-      </c>
-      <c r="E16" s="4">
-        <v>6</v>
-      </c>
-      <c r="F16" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C17" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D17" s="4">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4">
-        <v>6</v>
-      </c>
-      <c r="F17" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C18" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E18" s="4">
-        <v>6</v>
-      </c>
-      <c r="F18" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C19" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D19" s="4">
-        <v>6</v>
-      </c>
-      <c r="E19" s="4">
-        <v>6</v>
-      </c>
-      <c r="F19" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C20" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D20" s="4">
-        <v>6</v>
-      </c>
-      <c r="E20" s="4">
-        <v>6</v>
-      </c>
-      <c r="F20" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C21" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D21" s="4">
-        <v>6</v>
-      </c>
-      <c r="E21" s="4">
-        <v>6</v>
-      </c>
-      <c r="F21" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C22" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D22" s="4">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4">
-        <v>6</v>
-      </c>
-      <c r="F22" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C23" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D23" s="4">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C24" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D24" s="4">
-        <v>6</v>
-      </c>
-      <c r="E24" s="4">
-        <v>6</v>
-      </c>
-      <c r="F24" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C25" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D25" s="4">
-        <v>6</v>
-      </c>
-      <c r="E25" s="4">
-        <v>6</v>
-      </c>
-      <c r="F25" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C26" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D26" s="4">
-        <v>6</v>
-      </c>
-      <c r="E26" s="4">
-        <v>6</v>
-      </c>
-      <c r="F26" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C27" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D27" s="4">
-        <v>6</v>
-      </c>
-      <c r="E27" s="4">
-        <v>6</v>
-      </c>
-      <c r="F27" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C28" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D28" s="4">
-        <v>6</v>
-      </c>
-      <c r="E28" s="4">
-        <v>6</v>
-      </c>
-      <c r="F28" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C29" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D29" s="4">
-        <v>6</v>
-      </c>
-      <c r="E29" s="4">
-        <v>6</v>
-      </c>
-      <c r="F29" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C30" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D30" s="4">
-        <v>6</v>
-      </c>
-      <c r="E30" s="4">
-        <v>6</v>
-      </c>
-      <c r="F30" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="93">
-        <v>46004</v>
-      </c>
-      <c r="C31" s="86">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E31" s="4">
-        <v>6</v>
-      </c>
-      <c r="F31" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="90"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="86"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F33">
-    <sortCondition ref="C2:C33"/>
-    <sortCondition ref="A2:A33"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B1E3B6-9616-466B-B38C-BD48994D8318}">
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="78"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="78">
-        <v>15</v>
-      </c>
-      <c r="B1" s="78">
-        <v>18</v>
-      </c>
-      <c r="C1" s="78">
-        <v>18</v>
-      </c>
-      <c r="D1" s="78">
-        <v>17</v>
-      </c>
-      <c r="E1" s="78">
-        <v>17</v>
-      </c>
-      <c r="F1" s="78">
-        <v>16</v>
-      </c>
-      <c r="G1" s="78">
-        <v>15</v>
-      </c>
-      <c r="H1" s="87"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="78">
-        <v>15</v>
-      </c>
-      <c r="B2" s="78">
-        <v>16</v>
-      </c>
-      <c r="C2" s="78">
-        <v>17</v>
-      </c>
-      <c r="D2" s="78">
-        <v>16</v>
-      </c>
-      <c r="E2" s="78">
-        <v>17</v>
-      </c>
-      <c r="F2" s="78">
-        <v>16</v>
-      </c>
-      <c r="G2" s="78">
-        <v>15</v>
-      </c>
-      <c r="H2" s="87"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
-        <v>15</v>
-      </c>
-      <c r="B3" s="78">
-        <v>15</v>
-      </c>
-      <c r="C3" s="78">
-        <v>17</v>
-      </c>
-      <c r="D3" s="78">
-        <v>15</v>
-      </c>
-      <c r="E3" s="78">
-        <v>17</v>
-      </c>
-      <c r="F3" s="78">
-        <v>15</v>
-      </c>
-      <c r="G3" s="78">
-        <v>14</v>
-      </c>
-      <c r="H3" s="87"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="78">
-        <v>15</v>
-      </c>
-      <c r="B4" s="78">
-        <v>15</v>
-      </c>
-      <c r="C4" s="78">
-        <v>17</v>
-      </c>
-      <c r="D4" s="78">
-        <v>15</v>
-      </c>
-      <c r="E4" s="78">
-        <v>15</v>
-      </c>
-      <c r="F4" s="78">
-        <v>15</v>
-      </c>
-      <c r="G4" s="78">
-        <v>14</v>
-      </c>
-      <c r="H4" s="87"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="78">
-        <v>14</v>
-      </c>
-      <c r="B5" s="78">
-        <v>15</v>
-      </c>
-      <c r="C5" s="78">
-        <v>15</v>
-      </c>
-      <c r="D5" s="78">
-        <v>15</v>
-      </c>
-      <c r="E5" s="78">
-        <v>15</v>
-      </c>
-      <c r="F5" s="78">
-        <v>15</v>
-      </c>
-      <c r="G5" s="78">
-        <v>14</v>
-      </c>
-      <c r="H5" s="87"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="78">
-        <v>14</v>
-      </c>
-      <c r="B6" s="78">
-        <v>15</v>
-      </c>
-      <c r="C6" s="78">
-        <v>15</v>
-      </c>
-      <c r="D6" s="78">
-        <v>15</v>
-      </c>
-      <c r="E6" s="78">
-        <v>13</v>
-      </c>
-      <c r="F6" s="78">
-        <v>15</v>
-      </c>
-      <c r="G6" s="78">
-        <v>13</v>
-      </c>
-      <c r="H6" s="87"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
-        <v>14</v>
-      </c>
-      <c r="B7" s="78">
-        <v>15</v>
-      </c>
-      <c r="C7" s="78">
-        <v>15</v>
-      </c>
-      <c r="D7" s="78">
-        <v>15</v>
-      </c>
-      <c r="E7" s="78">
-        <v>13</v>
-      </c>
-      <c r="F7" s="78">
-        <v>15</v>
-      </c>
-      <c r="G7" s="78">
-        <v>13</v>
-      </c>
-      <c r="H7" s="87"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
-        <v>13</v>
-      </c>
-      <c r="B8" s="78">
-        <v>15</v>
-      </c>
-      <c r="C8" s="78">
-        <v>14</v>
-      </c>
-      <c r="D8" s="78">
-        <v>15</v>
-      </c>
-      <c r="E8" s="78">
-        <v>13</v>
-      </c>
-      <c r="F8" s="78">
-        <v>15</v>
-      </c>
-      <c r="G8" s="78">
-        <v>13</v>
-      </c>
-      <c r="H8" s="87"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
-        <v>12</v>
-      </c>
-      <c r="B9" s="78">
-        <v>14</v>
-      </c>
-      <c r="C9" s="78">
-        <v>14</v>
-      </c>
-      <c r="D9" s="78">
-        <v>14</v>
-      </c>
-      <c r="E9" s="78">
-        <v>12</v>
-      </c>
-      <c r="F9" s="78">
-        <v>15</v>
-      </c>
-      <c r="G9" s="78">
-        <v>13</v>
-      </c>
-      <c r="H9" s="87"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
-        <v>12</v>
-      </c>
-      <c r="B10" s="78">
-        <v>14</v>
-      </c>
-      <c r="C10" s="78">
-        <v>14</v>
-      </c>
-      <c r="D10" s="78">
-        <v>14</v>
-      </c>
-      <c r="E10" s="78">
-        <v>12</v>
-      </c>
-      <c r="F10" s="78">
-        <v>14</v>
-      </c>
-      <c r="G10" s="78">
-        <v>13</v>
-      </c>
-      <c r="H10" s="87"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
-        <v>11</v>
-      </c>
-      <c r="B11" s="78">
-        <v>13</v>
-      </c>
-      <c r="C11" s="78">
-        <v>13</v>
-      </c>
-      <c r="D11" s="78">
-        <v>14</v>
-      </c>
-      <c r="E11" s="78">
-        <v>12</v>
-      </c>
-      <c r="F11" s="78">
-        <v>14</v>
-      </c>
-      <c r="G11" s="78">
-        <v>13</v>
-      </c>
-      <c r="H11" s="87"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
-        <v>11</v>
-      </c>
-      <c r="B12" s="78">
-        <v>13</v>
-      </c>
-      <c r="C12" s="78">
-        <v>13</v>
-      </c>
-      <c r="D12" s="78">
-        <v>14</v>
-      </c>
-      <c r="E12" s="78">
-        <v>12</v>
-      </c>
-      <c r="F12" s="78">
-        <v>14</v>
-      </c>
-      <c r="G12" s="78">
-        <v>13</v>
-      </c>
-      <c r="H12" s="87"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="78">
-        <v>11</v>
-      </c>
-      <c r="B13" s="78">
-        <v>13</v>
-      </c>
-      <c r="C13" s="78">
-        <v>13</v>
-      </c>
-      <c r="D13" s="78">
-        <v>14</v>
-      </c>
-      <c r="E13" s="78">
-        <v>12</v>
-      </c>
-      <c r="F13" s="78">
-        <v>13</v>
-      </c>
-      <c r="G13" s="78">
-        <v>13</v>
-      </c>
-      <c r="H13" s="87"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
-        <v>11</v>
-      </c>
-      <c r="B14" s="78">
-        <v>13</v>
-      </c>
-      <c r="C14" s="78">
-        <v>13</v>
-      </c>
-      <c r="D14" s="78">
-        <v>14</v>
-      </c>
-      <c r="E14" s="78">
-        <v>12</v>
-      </c>
-      <c r="F14" s="78">
-        <v>13</v>
-      </c>
-      <c r="G14" s="78">
-        <v>13</v>
-      </c>
-      <c r="H14" s="87"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
-        <v>11</v>
-      </c>
-      <c r="B15" s="78">
-        <v>13</v>
-      </c>
-      <c r="C15" s="78">
-        <v>13</v>
-      </c>
-      <c r="D15" s="78">
-        <v>14</v>
-      </c>
-      <c r="E15" s="78">
-        <v>12</v>
-      </c>
-      <c r="F15" s="78">
-        <v>13</v>
-      </c>
-      <c r="G15" s="78">
-        <v>13</v>
-      </c>
-      <c r="H15" s="87"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="78">
-        <v>11</v>
-      </c>
-      <c r="B16" s="78">
-        <v>13</v>
-      </c>
-      <c r="C16" s="78">
-        <v>12</v>
-      </c>
-      <c r="D16" s="78">
-        <v>13</v>
-      </c>
-      <c r="E16" s="78">
-        <v>12</v>
-      </c>
-      <c r="F16" s="78">
-        <v>13</v>
-      </c>
-      <c r="G16" s="78">
-        <v>13</v>
-      </c>
-      <c r="H16" s="87"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="78">
-        <v>11</v>
-      </c>
-      <c r="B17" s="78">
-        <v>13</v>
-      </c>
-      <c r="C17" s="78">
-        <v>12</v>
-      </c>
-      <c r="D17" s="78">
-        <v>13</v>
-      </c>
-      <c r="E17" s="78">
-        <v>12</v>
-      </c>
-      <c r="F17" s="78">
-        <v>13</v>
-      </c>
-      <c r="G17" s="78">
-        <v>13</v>
-      </c>
-      <c r="H17" s="87"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
-        <v>11</v>
-      </c>
-      <c r="B18" s="78">
-        <v>13</v>
-      </c>
-      <c r="C18" s="78">
-        <v>12</v>
-      </c>
-      <c r="D18" s="78">
-        <v>13</v>
-      </c>
-      <c r="E18" s="78">
-        <v>12</v>
-      </c>
-      <c r="F18" s="78">
-        <v>13</v>
-      </c>
-      <c r="G18" s="78">
-        <v>13</v>
-      </c>
-      <c r="H18" s="87"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
-        <v>11</v>
-      </c>
-      <c r="B19" s="78">
-        <v>12</v>
-      </c>
-      <c r="C19" s="78">
-        <v>12</v>
-      </c>
-      <c r="D19" s="78">
-        <v>13</v>
-      </c>
-      <c r="E19" s="78">
-        <v>12</v>
-      </c>
-      <c r="F19" s="78">
-        <v>13</v>
-      </c>
-      <c r="G19" s="78">
-        <v>13</v>
-      </c>
-      <c r="H19" s="87"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="78">
-        <v>10</v>
-      </c>
-      <c r="B20" s="78">
-        <v>12</v>
-      </c>
-      <c r="C20" s="78">
-        <v>12</v>
-      </c>
-      <c r="D20" s="78">
-        <v>13</v>
-      </c>
-      <c r="E20" s="78">
-        <v>12</v>
-      </c>
-      <c r="F20" s="78">
-        <v>12</v>
-      </c>
-      <c r="G20" s="78">
-        <v>13</v>
-      </c>
-      <c r="H20" s="87"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="78">
-        <v>10</v>
-      </c>
-      <c r="B21" s="78">
-        <v>12</v>
-      </c>
-      <c r="C21" s="78">
-        <v>12</v>
-      </c>
-      <c r="D21" s="78">
-        <v>13</v>
-      </c>
-      <c r="E21" s="78">
-        <v>11</v>
-      </c>
-      <c r="F21" s="78">
-        <v>12</v>
-      </c>
-      <c r="G21" s="78">
-        <v>13</v>
-      </c>
-      <c r="H21" s="87"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="78">
-        <v>10</v>
-      </c>
-      <c r="B22" s="78">
-        <v>12</v>
-      </c>
-      <c r="C22" s="78">
-        <v>11</v>
-      </c>
-      <c r="D22" s="78">
-        <v>12</v>
-      </c>
-      <c r="E22" s="78">
-        <v>11</v>
-      </c>
-      <c r="F22" s="78">
-        <v>12</v>
-      </c>
-      <c r="G22" s="78">
-        <v>13</v>
-      </c>
-      <c r="H22" s="87"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
-        <v>10</v>
-      </c>
-      <c r="B23" s="78">
-        <v>12</v>
-      </c>
-      <c r="C23" s="78">
-        <v>11</v>
-      </c>
-      <c r="D23" s="78">
-        <v>12</v>
-      </c>
-      <c r="E23" s="78">
-        <v>11</v>
-      </c>
-      <c r="F23" s="78">
-        <v>12</v>
-      </c>
-      <c r="G23" s="78">
-        <v>13</v>
-      </c>
-      <c r="H23" s="87"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="78">
-        <v>10</v>
-      </c>
-      <c r="B24" s="78">
-        <v>12</v>
-      </c>
-      <c r="C24" s="78">
-        <v>11</v>
-      </c>
-      <c r="D24" s="78">
-        <v>12</v>
-      </c>
-      <c r="E24" s="78">
-        <v>11</v>
-      </c>
-      <c r="F24" s="78">
-        <v>12</v>
-      </c>
-      <c r="G24" s="78">
-        <v>12</v>
-      </c>
-      <c r="H24" s="87"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="78">
-        <v>10</v>
-      </c>
-      <c r="B25" s="78">
-        <v>11</v>
-      </c>
-      <c r="C25" s="78">
-        <v>11</v>
-      </c>
-      <c r="D25" s="78">
-        <v>12</v>
-      </c>
-      <c r="E25" s="78">
-        <v>11</v>
-      </c>
-      <c r="F25" s="78">
-        <v>12</v>
-      </c>
-      <c r="G25" s="78">
-        <v>12</v>
-      </c>
-      <c r="H25" s="87"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="78">
-        <v>10</v>
-      </c>
-      <c r="B26" s="78">
-        <v>11</v>
-      </c>
-      <c r="C26" s="78">
-        <v>11</v>
-      </c>
-      <c r="D26" s="78">
-        <v>12</v>
-      </c>
-      <c r="E26" s="78">
-        <v>11</v>
-      </c>
-      <c r="F26" s="78">
-        <v>11</v>
-      </c>
-      <c r="G26" s="78">
-        <v>12</v>
-      </c>
-      <c r="H26" s="87"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="78">
-        <v>10</v>
-      </c>
-      <c r="B27" s="78">
-        <v>11</v>
-      </c>
-      <c r="C27" s="78">
-        <v>11</v>
-      </c>
-      <c r="D27" s="78">
-        <v>12</v>
-      </c>
-      <c r="E27" s="78">
-        <v>11</v>
-      </c>
-      <c r="F27" s="78">
-        <v>11</v>
-      </c>
-      <c r="G27" s="78">
-        <v>12</v>
-      </c>
-      <c r="H27" s="87"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="78">
-        <v>10</v>
-      </c>
-      <c r="B28" s="78">
-        <v>9</v>
-      </c>
-      <c r="C28" s="78">
-        <v>11</v>
-      </c>
-      <c r="D28" s="78">
-        <v>12</v>
-      </c>
-      <c r="E28" s="78">
-        <v>11</v>
-      </c>
-      <c r="F28" s="78">
-        <v>11</v>
-      </c>
-      <c r="G28" s="78">
-        <v>12</v>
-      </c>
-      <c r="H28" s="87"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="78">
-        <v>10</v>
-      </c>
-      <c r="B29" s="78">
-        <v>8</v>
-      </c>
-      <c r="C29" s="78">
-        <v>11</v>
-      </c>
-      <c r="D29" s="78">
-        <v>11</v>
-      </c>
-      <c r="E29" s="78">
-        <v>11</v>
-      </c>
-      <c r="F29" s="78">
-        <v>10</v>
-      </c>
-      <c r="G29" s="78">
-        <v>12</v>
-      </c>
-      <c r="H29" s="87"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="78">
-        <v>10</v>
-      </c>
-      <c r="B30" s="78">
-        <v>7</v>
-      </c>
-      <c r="C30" s="78">
-        <v>10</v>
-      </c>
-      <c r="D30" s="78">
-        <v>10</v>
-      </c>
-      <c r="E30" s="78">
-        <v>8</v>
-      </c>
-      <c r="F30" s="78">
-        <v>10</v>
-      </c>
-      <c r="G30" s="78">
-        <v>9</v>
-      </c>
-      <c r="H30" s="87"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="87"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="97"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A32:H32"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27067D6F-05AA-42C5-8EB4-3439484454C4}">
   <dimension ref="A1:AI47"/>
   <sheetViews>
@@ -5105,7 +3728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FD0103-8B83-425B-8825-6ADA101A7570}">
   <dimension ref="A1:AC43"/>
   <sheetViews>
@@ -5115,2193 +3738,2193 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="49"/>
-    <col min="2" max="2" width="22" style="49" customWidth="1"/>
-    <col min="3" max="20" width="9.140625" style="49" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9.140625" style="50" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="49" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="51" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="22" style="42" customWidth="1"/>
+    <col min="3" max="20" width="9.140625" style="42" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9.140625" style="43" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="42" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="44" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="71"/>
-      <c r="C1" s="98">
-        <v>1</v>
-      </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="98">
-        <v>2</v>
-      </c>
-      <c r="G1" s="99"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="98">
-        <v>3</v>
-      </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="98">
+      <c r="B1" s="64"/>
+      <c r="C1" s="84">
+        <v>1</v>
+      </c>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="84">
+        <v>2</v>
+      </c>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="84">
+        <v>3</v>
+      </c>
+      <c r="J1" s="85"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="84">
         <v>4</v>
       </c>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="98">
+      <c r="M1" s="85"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="84">
         <v>5</v>
       </c>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="98">
+      <c r="P1" s="85"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="84">
         <v>6</v>
       </c>
-      <c r="S1" s="99"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="98">
+      <c r="S1" s="85"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="84">
         <v>7</v>
       </c>
-      <c r="V1" s="99"/>
-      <c r="W1" s="100"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="86"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="47" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="46" t="s">
+      <c r="T2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="47" t="s">
+      <c r="U2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="48" t="s">
+      <c r="W2" s="41" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="49">
+      <c r="A3" s="42">
         <v>16</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="49">
+      <c r="B3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="42">
         <f>avv!A1-A3</f>
         <v>-1</v>
       </c>
-      <c r="E3" s="64">
-        <v>3</v>
-      </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="49">
+      <c r="E3" s="57">
+        <v>3</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="42">
         <f>avv!B1-A3</f>
         <v>2</v>
       </c>
-      <c r="H3" s="51">
-        <v>3</v>
-      </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="49">
+      <c r="H3" s="44">
+        <v>3</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="42">
         <f>avv!C1-A3</f>
         <v>2</v>
       </c>
-      <c r="K3" s="51">
-        <v>2</v>
-      </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="49">
+      <c r="K3" s="44">
+        <v>2</v>
+      </c>
+      <c r="L3" s="43"/>
+      <c r="M3" s="42">
         <f>avv!D1-A3</f>
         <v>1</v>
       </c>
-      <c r="N3" s="51">
-        <v>3</v>
-      </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="49">
+      <c r="N3" s="44">
+        <v>3</v>
+      </c>
+      <c r="O3" s="43"/>
+      <c r="P3" s="42">
         <f>avv!E1-A3</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="51">
-        <v>3</v>
-      </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="49">
+      <c r="Q3" s="44">
+        <v>3</v>
+      </c>
+      <c r="R3" s="43"/>
+      <c r="S3" s="42">
         <f>avv!F1-A3</f>
         <v>0</v>
       </c>
-      <c r="T3" s="49">
-        <v>3</v>
-      </c>
-      <c r="V3" s="49">
+      <c r="T3" s="42">
+        <v>3</v>
+      </c>
+      <c r="V3" s="42">
         <f>avv!G1-A3</f>
         <v>-1</v>
       </c>
-      <c r="W3" s="51">
+      <c r="W3" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="49">
+      <c r="A4" s="42">
         <v>15</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="49">
+      <c r="C4" s="43"/>
+      <c r="D4" s="42">
         <f>avv!A2-A4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="64">
-        <v>3</v>
-      </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="49">
+      <c r="E4" s="57">
+        <v>3</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="42">
         <f>avv!B2-A4</f>
         <v>1</v>
       </c>
-      <c r="H4" s="51">
-        <v>2</v>
-      </c>
-      <c r="I4" s="50"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="49">
+      <c r="H4" s="44">
+        <v>2</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="42">
         <f>avv!E2-A4</f>
         <v>2</v>
       </c>
-      <c r="Q4" s="51">
-        <v>2</v>
-      </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="49">
+      <c r="Q4" s="44">
+        <v>2</v>
+      </c>
+      <c r="R4" s="43"/>
+      <c r="S4" s="42">
         <f>avv!F2-A4</f>
         <v>1</v>
       </c>
-      <c r="T4" s="49">
-        <v>2</v>
-      </c>
-      <c r="V4" s="49">
+      <c r="T4" s="42">
+        <v>2</v>
+      </c>
+      <c r="V4" s="42">
         <f>avv!G2-A4</f>
         <v>0</v>
       </c>
-      <c r="W4" s="51">
+      <c r="W4" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+      <c r="A5" s="42">
         <v>15</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="49">
+      <c r="B5" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="42">
         <f>avv!A3-A5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="64">
-        <v>3</v>
-      </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="49">
+      <c r="E5" s="57">
+        <v>3</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="42">
         <f>avv!B3-A5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="51">
-        <v>3</v>
-      </c>
-      <c r="I5" s="50"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="49">
+      <c r="H5" s="44">
+        <v>3</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="42">
         <f>avv!D3-A5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="51">
-        <v>3</v>
-      </c>
-      <c r="O5" s="50"/>
-      <c r="P5" s="49">
+      <c r="N5" s="44">
+        <v>3</v>
+      </c>
+      <c r="O5" s="43"/>
+      <c r="P5" s="42">
         <f>avv!E4-A5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="51">
-        <v>3</v>
-      </c>
-      <c r="R5" s="50"/>
-      <c r="S5" s="49">
+      <c r="Q5" s="44">
+        <v>3</v>
+      </c>
+      <c r="R5" s="43"/>
+      <c r="S5" s="42">
         <f>avv!F3-A5</f>
         <v>0</v>
       </c>
-      <c r="T5" s="49">
-        <v>1</v>
-      </c>
-      <c r="V5" s="49">
+      <c r="T5" s="42">
+        <v>1</v>
+      </c>
+      <c r="V5" s="42">
         <f>avv!G3-A5</f>
         <v>-1</v>
       </c>
-      <c r="W5" s="51">
+      <c r="W5" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+      <c r="A6" s="42">
         <v>13</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="49">
+      <c r="C6" s="56"/>
+      <c r="D6" s="42">
         <f>avv!A4-A6</f>
         <v>2</v>
       </c>
-      <c r="E6" s="64">
-        <v>3</v>
-      </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="49">
+      <c r="E6" s="57">
+        <v>3</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="42">
         <f>avv!C4-A6</f>
         <v>4</v>
       </c>
-      <c r="K6" s="51">
-        <v>1</v>
-      </c>
-      <c r="L6" s="50"/>
-      <c r="M6" s="49">
+      <c r="K6" s="44">
+        <v>1</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="42">
         <f>avv!D4-A6</f>
         <v>2</v>
       </c>
-      <c r="N6" s="51">
-        <v>1</v>
-      </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="49">
+      <c r="N6" s="44">
+        <v>1</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="42">
         <f>avv!F4-A6</f>
         <v>2</v>
       </c>
-      <c r="T6" s="49">
-        <v>0</v>
-      </c>
-      <c r="V6" s="49">
+      <c r="T6" s="42">
+        <v>0</v>
+      </c>
+      <c r="V6" s="42">
         <f>avv!G4-A6</f>
         <v>1</v>
       </c>
-      <c r="W6" s="51">
+      <c r="W6" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
+      <c r="A7" s="42">
         <v>13</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="49">
+      <c r="C7" s="43"/>
+      <c r="D7" s="42">
         <f>avv!A7-A7</f>
         <v>1</v>
       </c>
-      <c r="E7" s="64">
-        <v>3</v>
-      </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="49">
+      <c r="E7" s="57">
+        <v>3</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="42">
         <f>avv!B10-A7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="51">
-        <v>3</v>
-      </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="49">
+      <c r="H7" s="44">
+        <v>3</v>
+      </c>
+      <c r="I7" s="56"/>
+      <c r="J7" s="42">
         <f>avv!C7-A7</f>
         <v>2</v>
       </c>
-      <c r="K7" s="51">
-        <v>3</v>
-      </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="49">
+      <c r="K7" s="44">
+        <v>3</v>
+      </c>
+      <c r="L7" s="43"/>
+      <c r="M7" s="42">
         <f>avv!D5-A7</f>
         <v>2</v>
       </c>
-      <c r="N7" s="51">
-        <v>3</v>
-      </c>
-      <c r="O7" s="50"/>
-      <c r="P7" s="49">
+      <c r="N7" s="44">
+        <v>3</v>
+      </c>
+      <c r="O7" s="43"/>
+      <c r="P7" s="42">
         <f>avv!E5-A7</f>
         <v>2</v>
       </c>
-      <c r="Q7" s="51">
-        <v>3</v>
-      </c>
-      <c r="R7" s="50"/>
-      <c r="S7" s="49">
+      <c r="Q7" s="44">
+        <v>3</v>
+      </c>
+      <c r="R7" s="43"/>
+      <c r="S7" s="42">
         <f>avv!F22-A7</f>
         <v>-1</v>
       </c>
-      <c r="T7" s="49">
-        <v>3</v>
-      </c>
-      <c r="V7" s="49">
+      <c r="T7" s="42">
+        <v>3</v>
+      </c>
+      <c r="V7" s="42">
         <f>avv!G5-A7</f>
         <v>1</v>
       </c>
-      <c r="W7" s="51">
+      <c r="W7" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+      <c r="A8" s="42">
         <v>13</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="54">
         <v>-6</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="42">
         <f>avv!A12-A8</f>
         <v>-2</v>
       </c>
-      <c r="E8" s="64">
-        <v>3</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="49">
+      <c r="E8" s="57">
+        <v>3</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="42">
         <f>avv!B7-A8</f>
         <v>2</v>
       </c>
-      <c r="H8" s="51">
-        <v>2</v>
-      </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="49">
+      <c r="H8" s="44">
+        <v>2</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="42">
         <f>avv!C5-A8</f>
         <v>2</v>
       </c>
-      <c r="K8" s="51">
-        <v>1</v>
-      </c>
-      <c r="L8" s="50"/>
-      <c r="M8" s="49">
+      <c r="K8" s="44">
+        <v>1</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="42">
         <f>avv!D6-A8</f>
         <v>2</v>
       </c>
-      <c r="N8" s="51">
-        <v>2</v>
-      </c>
-      <c r="O8" s="50"/>
-      <c r="P8" s="49">
+      <c r="N8" s="44">
+        <v>2</v>
+      </c>
+      <c r="O8" s="43"/>
+      <c r="P8" s="42">
         <f>avv!E6-A8</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="51">
-        <v>2</v>
-      </c>
-      <c r="R8" s="50"/>
-      <c r="S8" s="49">
+      <c r="Q8" s="44">
+        <v>2</v>
+      </c>
+      <c r="R8" s="43"/>
+      <c r="S8" s="42">
         <f>avv!F6-A8</f>
         <v>2</v>
       </c>
-      <c r="T8" s="49">
-        <v>1</v>
-      </c>
-      <c r="V8" s="49">
+      <c r="T8" s="42">
+        <v>1</v>
+      </c>
+      <c r="V8" s="42">
         <f>avv!G6-A8</f>
         <v>0</v>
       </c>
-      <c r="W8" s="51">
+      <c r="W8" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
+      <c r="A9" s="42">
         <v>13</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="65">
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="58">
         <f>avv!F7-A9</f>
         <v>2</v>
       </c>
-      <c r="V9" s="49">
+      <c r="V9" s="42">
         <f>avv!G7-A9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="49">
+      <c r="A10" s="42">
         <v>13</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="49">
+      <c r="C10" s="43"/>
+      <c r="D10" s="42">
         <f>avv!A8-A10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="64">
-        <v>2</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="49">
+      <c r="E10" s="57">
+        <v>2</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="42">
         <f>avv!B8-A10</f>
         <v>2</v>
       </c>
-      <c r="H10" s="51">
-        <v>1</v>
-      </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="49">
+      <c r="H10" s="44">
+        <v>1</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="42">
         <f>avv!C8-A10</f>
         <v>1</v>
       </c>
-      <c r="K10" s="51">
-        <v>3</v>
-      </c>
-      <c r="L10" s="50"/>
-      <c r="M10" s="49">
+      <c r="K10" s="44">
+        <v>3</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="42">
         <f>avv!D8-A10</f>
         <v>2</v>
       </c>
-      <c r="N10" s="51">
-        <v>2</v>
-      </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="49">
+      <c r="N10" s="44">
+        <v>2</v>
+      </c>
+      <c r="O10" s="43"/>
+      <c r="P10" s="42">
         <f>avv!E10-A10</f>
         <v>-1</v>
       </c>
-      <c r="Q10" s="51">
-        <v>3</v>
-      </c>
-      <c r="R10" s="50"/>
-      <c r="S10" s="49">
+      <c r="Q10" s="44">
+        <v>3</v>
+      </c>
+      <c r="R10" s="43"/>
+      <c r="S10" s="42">
         <f>avv!F8-A10</f>
         <v>2</v>
       </c>
-      <c r="T10" s="49">
-        <v>2</v>
-      </c>
-      <c r="V10" s="49">
+      <c r="T10" s="42">
+        <v>2</v>
+      </c>
+      <c r="V10" s="42">
         <f>avv!G8-A10</f>
         <v>0</v>
       </c>
-      <c r="W10" s="51">
+      <c r="W10" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+      <c r="A11" s="42">
         <v>13</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="49">
+      <c r="C11" s="43"/>
+      <c r="D11" s="42">
         <f>avv!A9-A11</f>
         <v>-1</v>
       </c>
-      <c r="E11" s="64">
-        <v>3</v>
-      </c>
-      <c r="G11" s="49">
+      <c r="E11" s="57">
+        <v>3</v>
+      </c>
+      <c r="G11" s="42">
         <f>avv!B9-A11</f>
         <v>1</v>
       </c>
-      <c r="H11" s="49">
-        <v>2</v>
-      </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="49">
+      <c r="H11" s="42">
+        <v>2</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="42">
         <f>avv!C9-A11</f>
         <v>1</v>
       </c>
-      <c r="K11" s="51">
-        <v>2</v>
-      </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="49">
+      <c r="K11" s="44">
+        <v>2</v>
+      </c>
+      <c r="L11" s="43"/>
+      <c r="M11" s="42">
         <f>avv!D9-A11</f>
         <v>1</v>
       </c>
-      <c r="N11" s="80">
-        <v>1</v>
-      </c>
-      <c r="O11" s="50"/>
-      <c r="P11" s="49">
+      <c r="N11" s="73">
+        <v>1</v>
+      </c>
+      <c r="O11" s="43"/>
+      <c r="P11" s="42">
         <f>avv!E9-A11</f>
         <v>-1</v>
       </c>
-      <c r="Q11" s="51">
-        <v>3</v>
-      </c>
-      <c r="R11" s="50"/>
-      <c r="S11" s="49">
+      <c r="Q11" s="44">
+        <v>3</v>
+      </c>
+      <c r="R11" s="43"/>
+      <c r="S11" s="42">
         <f>avv!F9-A11</f>
         <v>2</v>
       </c>
-      <c r="T11" s="49">
-        <v>2</v>
-      </c>
-      <c r="V11" s="49">
+      <c r="T11" s="42">
+        <v>2</v>
+      </c>
+      <c r="V11" s="42">
         <f>avv!G9-A11</f>
         <v>0</v>
       </c>
-      <c r="W11" s="51">
+      <c r="W11" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+      <c r="A12" s="42">
         <v>13</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="49">
+      <c r="C12" s="43"/>
+      <c r="D12" s="42">
         <f>avv!A10-A12</f>
         <v>-1</v>
       </c>
-      <c r="E12" s="62">
-        <v>2</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="50"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="49">
+      <c r="E12" s="55">
+        <v>2</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="43"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="42">
         <f>avv!D28-A12</f>
         <v>-1</v>
       </c>
-      <c r="N12" s="51">
-        <v>3</v>
-      </c>
-      <c r="O12" s="50"/>
-      <c r="P12" s="49">
+      <c r="N12" s="44">
+        <v>3</v>
+      </c>
+      <c r="O12" s="43"/>
+      <c r="P12" s="42">
         <f>avv!E10-A12</f>
         <v>-1</v>
       </c>
-      <c r="Q12" s="51">
-        <v>2</v>
-      </c>
-      <c r="R12" s="50"/>
-      <c r="S12" s="49">
+      <c r="Q12" s="44">
+        <v>2</v>
+      </c>
+      <c r="R12" s="43"/>
+      <c r="S12" s="42">
         <f>avv!F24-A12</f>
         <v>-1</v>
       </c>
-      <c r="T12" s="49">
-        <v>3</v>
-      </c>
-      <c r="V12" s="49">
+      <c r="T12" s="42">
+        <v>3</v>
+      </c>
+      <c r="V12" s="42">
         <f>avv!G10-A12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="49">
-        <v>12</v>
-      </c>
-      <c r="B13" s="79" t="s">
+      <c r="A13" s="42">
+        <v>12</v>
+      </c>
+      <c r="B13" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="49">
+      <c r="C13" s="43"/>
+      <c r="D13" s="42">
         <f>avv!A20-A13</f>
         <v>-2</v>
       </c>
-      <c r="E13" s="64">
-        <v>3</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="49">
+      <c r="E13" s="57">
+        <v>3</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="42">
         <f>avv!B11-A13</f>
         <v>1</v>
       </c>
-      <c r="H13" s="51">
-        <v>2</v>
-      </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="49">
+      <c r="H13" s="44">
+        <v>2</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="42">
         <f>avv!C11-A13</f>
         <v>1</v>
       </c>
-      <c r="K13" s="80">
-        <v>1</v>
-      </c>
-      <c r="L13" s="50"/>
-      <c r="M13" s="49">
+      <c r="K13" s="73">
+        <v>1</v>
+      </c>
+      <c r="L13" s="43"/>
+      <c r="M13" s="42">
         <f>avv!D11-A13</f>
         <v>2</v>
       </c>
-      <c r="N13" s="51">
-        <v>2</v>
-      </c>
-      <c r="O13" s="50"/>
-      <c r="P13" s="49">
+      <c r="N13" s="44">
+        <v>2</v>
+      </c>
+      <c r="O13" s="43"/>
+      <c r="P13" s="42">
         <f>avv!E12-A13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="51">
-        <v>3</v>
-      </c>
-      <c r="R13" s="50"/>
-      <c r="S13" s="49">
+      <c r="Q13" s="44">
+        <v>3</v>
+      </c>
+      <c r="R13" s="43"/>
+      <c r="S13" s="42">
         <f>avv!F11-A13</f>
         <v>2</v>
       </c>
-      <c r="T13" s="49">
-        <v>2</v>
-      </c>
-      <c r="V13" s="49">
+      <c r="T13" s="42">
+        <v>2</v>
+      </c>
+      <c r="V13" s="42">
         <f>avv!G11-A13</f>
         <v>1</v>
       </c>
-      <c r="W13" s="51">
+      <c r="W13" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="49">
-        <v>12</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="49">
+      <c r="A14" s="42">
+        <v>12</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="42">
         <f>avv!A6-A14</f>
         <v>2</v>
       </c>
-      <c r="E14" s="64">
-        <v>2</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="49">
+      <c r="E14" s="57">
+        <v>2</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42">
         <f>avv!B12-A14</f>
         <v>1</v>
       </c>
-      <c r="H14" s="51">
-        <v>2</v>
-      </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="49">
+      <c r="H14" s="44">
+        <v>2</v>
+      </c>
+      <c r="I14" s="56"/>
+      <c r="J14" s="42">
         <f>avv!C12-A14</f>
         <v>1</v>
       </c>
-      <c r="K14" s="51">
-        <v>3</v>
-      </c>
-      <c r="L14" s="50"/>
-      <c r="M14" s="49">
+      <c r="K14" s="44">
+        <v>3</v>
+      </c>
+      <c r="L14" s="43"/>
+      <c r="M14" s="42">
         <f>avv!D12-A14</f>
         <v>2</v>
       </c>
-      <c r="N14" s="51">
-        <v>2</v>
-      </c>
-      <c r="O14" s="50"/>
-      <c r="P14" s="49">
+      <c r="N14" s="44">
+        <v>2</v>
+      </c>
+      <c r="O14" s="43"/>
+      <c r="P14" s="42">
         <f>avv!E13-A14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="51">
-        <v>3</v>
-      </c>
-      <c r="R14" s="50"/>
-      <c r="S14" s="49">
+      <c r="Q14" s="44">
+        <v>3</v>
+      </c>
+      <c r="R14" s="43"/>
+      <c r="S14" s="42">
         <f>avv!F12-A14</f>
         <v>2</v>
       </c>
-      <c r="T14" s="49">
-        <v>2</v>
-      </c>
-      <c r="V14" s="49">
+      <c r="T14" s="42">
+        <v>2</v>
+      </c>
+      <c r="V14" s="42">
         <f>avv!G12-A14</f>
         <v>1</v>
       </c>
-      <c r="W14" s="51">
+      <c r="W14" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
-        <v>12</v>
-      </c>
-      <c r="B15" s="72" t="s">
+      <c r="A15" s="42">
+        <v>12</v>
+      </c>
+      <c r="B15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="49">
+      <c r="C15" s="43"/>
+      <c r="D15" s="42">
         <f>avv!A13-A15</f>
         <v>-1</v>
       </c>
-      <c r="E15" s="64">
-        <v>3</v>
-      </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="49">
+      <c r="E15" s="57">
+        <v>3</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="42">
         <f>avv!B13-A15</f>
         <v>1</v>
       </c>
-      <c r="H15" s="51">
-        <v>3</v>
-      </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="49">
+      <c r="H15" s="44">
+        <v>3</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="42">
         <f>avv!C13-A15</f>
         <v>1</v>
       </c>
-      <c r="K15" s="51">
-        <v>2</v>
-      </c>
-      <c r="L15" s="50"/>
-      <c r="M15" s="49">
+      <c r="K15" s="44">
+        <v>2</v>
+      </c>
+      <c r="L15" s="43"/>
+      <c r="M15" s="42">
         <f>avv!D13-A15</f>
         <v>2</v>
       </c>
-      <c r="N15" s="51">
-        <v>2</v>
-      </c>
-      <c r="O15" s="50"/>
-      <c r="P15" s="49">
+      <c r="N15" s="44">
+        <v>2</v>
+      </c>
+      <c r="O15" s="43"/>
+      <c r="P15" s="42">
         <f>avv!E17-A15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="51">
-        <v>3</v>
-      </c>
-      <c r="R15" s="50"/>
-      <c r="S15" s="49">
+      <c r="Q15" s="44">
+        <v>3</v>
+      </c>
+      <c r="R15" s="43"/>
+      <c r="S15" s="42">
         <f>avv!F13-A15</f>
         <v>1</v>
       </c>
-      <c r="T15" s="49">
-        <v>1</v>
-      </c>
-      <c r="V15" s="49">
+      <c r="T15" s="42">
+        <v>1</v>
+      </c>
+      <c r="V15" s="42">
         <f>avv!G13-A15</f>
         <v>1</v>
       </c>
-      <c r="W15" s="51">
+      <c r="W15" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
+      <c r="A16" s="42">
         <v>13</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="49">
+      <c r="C16" s="43"/>
+      <c r="D16" s="42">
         <f>avv!A15-A16</f>
         <v>-2</v>
       </c>
-      <c r="E16" s="64">
-        <v>3</v>
-      </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="49">
+      <c r="E16" s="57">
+        <v>3</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42">
         <f>avv!B14-A16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="51">
-        <v>3</v>
-      </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="49">
+      <c r="H16" s="44">
+        <v>3</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="42">
         <f>avv!C15-A16</f>
         <v>0</v>
       </c>
-      <c r="K16" s="62">
-        <v>1</v>
-      </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="49">
+      <c r="K16" s="55">
+        <v>1</v>
+      </c>
+      <c r="L16" s="43"/>
+      <c r="M16" s="42">
         <f>avv!D14-A16</f>
         <v>1</v>
       </c>
-      <c r="N16" s="51">
-        <v>1</v>
-      </c>
-      <c r="O16" s="50"/>
-      <c r="P16" s="49">
+      <c r="N16" s="44">
+        <v>1</v>
+      </c>
+      <c r="O16" s="43"/>
+      <c r="P16" s="42">
         <f>avv!E14-A16</f>
         <v>-1</v>
       </c>
-      <c r="Q16" s="62">
-        <v>2</v>
-      </c>
-      <c r="R16" s="50"/>
-      <c r="S16" s="49">
+      <c r="Q16" s="55">
+        <v>2</v>
+      </c>
+      <c r="R16" s="43"/>
+      <c r="S16" s="42">
         <f>avv!F14-A16</f>
         <v>0</v>
       </c>
-      <c r="T16" s="49">
-        <v>2</v>
-      </c>
-      <c r="V16" s="49">
+      <c r="T16" s="42">
+        <v>2</v>
+      </c>
+      <c r="V16" s="42">
         <f>avv!G14-A16</f>
         <v>0</v>
       </c>
-      <c r="W16" s="51">
+      <c r="W16" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
-        <v>12</v>
-      </c>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="42">
+        <v>12</v>
+      </c>
+      <c r="B17" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="49">
+      <c r="C17" s="43"/>
+      <c r="D17" s="42">
         <f>avv!A14-A17</f>
         <v>-1</v>
       </c>
-      <c r="E17" s="64">
-        <v>3</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="49">
+      <c r="E17" s="57">
+        <v>3</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42">
         <f>avv!B16-A17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="51">
-        <v>3</v>
-      </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="49">
+      <c r="H17" s="44">
+        <v>3</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="42">
         <f>avv!C14-A17</f>
         <v>1</v>
       </c>
-      <c r="K17" s="51">
-        <v>3</v>
-      </c>
-      <c r="L17" s="50"/>
-      <c r="M17" s="49">
+      <c r="K17" s="44">
+        <v>3</v>
+      </c>
+      <c r="L17" s="43"/>
+      <c r="M17" s="42">
         <f>avv!D15-A17</f>
         <v>2</v>
       </c>
-      <c r="N17" s="51">
-        <v>2</v>
-      </c>
-      <c r="O17" s="50"/>
-      <c r="P17" s="49">
+      <c r="N17" s="44">
+        <v>2</v>
+      </c>
+      <c r="O17" s="43"/>
+      <c r="P17" s="42">
         <f>avv!E15-A17</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="51">
-        <v>3</v>
-      </c>
-      <c r="R17" s="50"/>
-      <c r="S17" s="49">
+      <c r="Q17" s="44">
+        <v>3</v>
+      </c>
+      <c r="R17" s="43"/>
+      <c r="S17" s="42">
         <f>avv!F15-A17</f>
         <v>1</v>
       </c>
-      <c r="T17" s="49">
-        <v>2</v>
-      </c>
-      <c r="V17" s="49">
+      <c r="T17" s="42">
+        <v>2</v>
+      </c>
+      <c r="V17" s="42">
         <f>avv!G15-A17</f>
         <v>1</v>
       </c>
-      <c r="W17" s="51">
+      <c r="W17" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
-        <v>12</v>
-      </c>
-      <c r="B18" s="79" t="s">
+      <c r="A18" s="42">
+        <v>12</v>
+      </c>
+      <c r="B18" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="49">
+      <c r="C18" s="43"/>
+      <c r="D18" s="42">
         <f>avv!A16-A18</f>
         <v>-1</v>
       </c>
-      <c r="E18" s="64">
-        <v>3</v>
-      </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="49">
+      <c r="E18" s="57">
+        <v>3</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42">
         <f>avv!B17-A18</f>
         <v>1</v>
       </c>
-      <c r="H18" s="51">
-        <v>3</v>
-      </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="49">
+      <c r="H18" s="44">
+        <v>3</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="42">
         <f>avv!C16-A18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="51">
-        <v>3</v>
-      </c>
-      <c r="L18" s="50"/>
-      <c r="M18" s="49">
+      <c r="K18" s="44">
+        <v>3</v>
+      </c>
+      <c r="L18" s="43"/>
+      <c r="M18" s="42">
         <f>avv!D16-A18</f>
         <v>1</v>
       </c>
-      <c r="N18" s="51">
-        <v>2</v>
-      </c>
-      <c r="O18" s="50"/>
-      <c r="P18" s="49">
+      <c r="N18" s="44">
+        <v>2</v>
+      </c>
+      <c r="O18" s="43"/>
+      <c r="P18" s="42">
         <f>avv!E16-A18</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="51">
-        <v>3</v>
-      </c>
-      <c r="R18" s="50"/>
-      <c r="S18" s="49">
+      <c r="Q18" s="44">
+        <v>3</v>
+      </c>
+      <c r="R18" s="43"/>
+      <c r="S18" s="42">
         <f>avv!F16-A18</f>
         <v>1</v>
       </c>
-      <c r="T18" s="79">
-        <v>1</v>
-      </c>
-      <c r="V18" s="49">
+      <c r="T18" s="72">
+        <v>1</v>
+      </c>
+      <c r="V18" s="42">
         <f>avv!G16-A18</f>
         <v>1</v>
       </c>
-      <c r="W18" s="51">
+      <c r="W18" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
-        <v>12</v>
-      </c>
-      <c r="B19" s="73" t="s">
+      <c r="A19" s="42">
+        <v>12</v>
+      </c>
+      <c r="B19" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="49">
+      <c r="C19" s="77"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="42">
         <f>avv!E28-A19</f>
         <v>-1</v>
       </c>
-      <c r="Q19" s="51">
-        <v>1</v>
-      </c>
-      <c r="R19" s="50"/>
-      <c r="S19" s="49">
+      <c r="Q19" s="44">
+        <v>1</v>
+      </c>
+      <c r="R19" s="43"/>
+      <c r="S19" s="42">
         <f>avv!F28-A19</f>
         <v>-1</v>
       </c>
-      <c r="T19" s="49">
-        <v>1</v>
-      </c>
-      <c r="V19" s="49">
+      <c r="T19" s="42">
+        <v>1</v>
+      </c>
+      <c r="V19" s="42">
         <f>avv!G17-A19</f>
         <v>1</v>
       </c>
-      <c r="W19" s="51">
+      <c r="W19" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
-        <v>12</v>
-      </c>
-      <c r="B20" s="79" t="s">
+      <c r="A20" s="42">
+        <v>12</v>
+      </c>
+      <c r="B20" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="49">
+      <c r="C20" s="43"/>
+      <c r="D20" s="42">
         <f>avv!A17-A20</f>
         <v>-1</v>
       </c>
-      <c r="E20" s="64">
-        <v>3</v>
-      </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="49">
+      <c r="E20" s="57">
+        <v>3</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="42">
         <f>avv!B18-A20</f>
         <v>1</v>
       </c>
-      <c r="H20" s="80">
-        <v>1</v>
-      </c>
-      <c r="J20" s="49">
+      <c r="H20" s="73">
+        <v>1</v>
+      </c>
+      <c r="J20" s="42">
         <f>avv!C17-A20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="49">
-        <v>3</v>
-      </c>
-      <c r="L20" s="50"/>
-      <c r="M20" s="49">
+      <c r="K20" s="42">
+        <v>3</v>
+      </c>
+      <c r="L20" s="43"/>
+      <c r="M20" s="42">
         <f>avv!D17-A20</f>
         <v>1</v>
       </c>
-      <c r="N20" s="51">
-        <v>2</v>
-      </c>
-      <c r="P20" s="49">
+      <c r="N20" s="44">
+        <v>2</v>
+      </c>
+      <c r="P20" s="42">
         <f>avv!E17-A20</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="49">
-        <v>3</v>
-      </c>
-      <c r="R20" s="50"/>
-      <c r="S20" s="49">
+      <c r="Q20" s="42">
+        <v>3</v>
+      </c>
+      <c r="R20" s="43"/>
+      <c r="S20" s="42">
         <f>avv!F17-A20</f>
         <v>1</v>
       </c>
-      <c r="T20" s="49">
-        <v>1</v>
-      </c>
-      <c r="V20" s="49">
+      <c r="T20" s="42">
+        <v>1</v>
+      </c>
+      <c r="V20" s="42">
         <f>avv!G18-A20</f>
         <v>1</v>
       </c>
-      <c r="W20" s="51">
+      <c r="W20" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
-        <v>12</v>
-      </c>
-      <c r="B21" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="49">
+      <c r="A21" s="42">
+        <v>12</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="42">
         <f>avv!C19-A21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="51">
-        <v>2</v>
-      </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="49">
+      <c r="K21" s="44">
+        <v>2</v>
+      </c>
+      <c r="L21" s="43"/>
+      <c r="M21" s="42">
         <f>avv!D19-A21</f>
         <v>1</v>
       </c>
-      <c r="N21" s="51">
-        <v>3</v>
-      </c>
-      <c r="O21" s="50"/>
-      <c r="P21" s="49">
+      <c r="N21" s="44">
+        <v>3</v>
+      </c>
+      <c r="O21" s="43"/>
+      <c r="P21" s="42">
         <f>avv!E19-A21</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="51">
-        <v>3</v>
-      </c>
-      <c r="R21" s="50"/>
-      <c r="S21" s="49">
+      <c r="Q21" s="44">
+        <v>3</v>
+      </c>
+      <c r="R21" s="43"/>
+      <c r="S21" s="42">
         <f>avv!F19-A21</f>
         <v>1</v>
       </c>
-      <c r="T21" s="49">
-        <v>3</v>
-      </c>
-      <c r="V21" s="49">
+      <c r="T21" s="42">
+        <v>3</v>
+      </c>
+      <c r="V21" s="42">
         <f>avv!G19-A21</f>
         <v>1</v>
       </c>
-      <c r="W21" s="51">
+      <c r="W21" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
-        <v>12</v>
-      </c>
-      <c r="B22" s="79" t="s">
+      <c r="A22" s="42">
+        <v>12</v>
+      </c>
+      <c r="B22" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="49">
+      <c r="C22" s="43"/>
+      <c r="D22" s="42">
         <f>avv!A18-A22</f>
         <v>-1</v>
       </c>
-      <c r="E22" s="64">
-        <v>3</v>
-      </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="49">
+      <c r="E22" s="57">
+        <v>3</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42">
         <f>avv!B19-A22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="51">
-        <v>3</v>
-      </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="49">
+      <c r="H22" s="44">
+        <v>3</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="42">
         <f>avv!C18-A22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="51">
-        <v>3</v>
-      </c>
-      <c r="L22" s="50"/>
-      <c r="M22" s="49">
+      <c r="K22" s="44">
+        <v>3</v>
+      </c>
+      <c r="L22" s="43"/>
+      <c r="M22" s="42">
         <f>avv!D18-A22</f>
         <v>1</v>
       </c>
-      <c r="N22" s="80">
-        <v>1</v>
-      </c>
-      <c r="O22" s="50"/>
-      <c r="P22" s="49">
+      <c r="N22" s="73">
+        <v>1</v>
+      </c>
+      <c r="O22" s="43"/>
+      <c r="P22" s="42">
         <f>avv!E18-A22</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="51">
-        <v>3</v>
-      </c>
-      <c r="R22" s="50"/>
-      <c r="S22" s="49">
+      <c r="Q22" s="44">
+        <v>3</v>
+      </c>
+      <c r="R22" s="43"/>
+      <c r="S22" s="42">
         <f>avv!F18-A22</f>
         <v>1</v>
       </c>
-      <c r="T22" s="49">
-        <v>3</v>
-      </c>
-      <c r="V22" s="49">
+      <c r="T22" s="42">
+        <v>3</v>
+      </c>
+      <c r="V22" s="42">
         <f>avv!G20-A22</f>
         <v>1</v>
       </c>
-      <c r="W22" s="51">
+      <c r="W22" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
-        <v>12</v>
-      </c>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="42">
+        <v>12</v>
+      </c>
+      <c r="B23" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="49">
+      <c r="C23" s="43"/>
+      <c r="D23" s="42">
         <f>avv!A19-A23</f>
         <v>-1</v>
       </c>
-      <c r="E23" s="64">
-        <v>3</v>
-      </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="49">
+      <c r="E23" s="57">
+        <v>3</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42">
         <f>avv!B20-A23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="51">
-        <v>3</v>
-      </c>
-      <c r="I23" s="50"/>
-      <c r="J23" s="49">
+      <c r="H23" s="44">
+        <v>3</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="42">
         <f>avv!C20-A23</f>
         <v>0</v>
       </c>
-      <c r="K23" s="52">
-        <v>3</v>
-      </c>
-      <c r="L23" s="50"/>
-      <c r="M23" s="49">
+      <c r="K23" s="45">
+        <v>3</v>
+      </c>
+      <c r="L23" s="43"/>
+      <c r="M23" s="42">
         <f>avv!D20-A23</f>
         <v>1</v>
       </c>
-      <c r="N23" s="51">
-        <v>3</v>
-      </c>
-      <c r="O23" s="50"/>
-      <c r="P23" s="49">
+      <c r="N23" s="44">
+        <v>3</v>
+      </c>
+      <c r="O23" s="43"/>
+      <c r="P23" s="42">
         <f>avv!E22-A23</f>
         <v>-1</v>
       </c>
-      <c r="Q23" s="52">
-        <v>3</v>
-      </c>
-      <c r="R23" s="50"/>
-      <c r="S23" s="49">
+      <c r="Q23" s="45">
+        <v>3</v>
+      </c>
+      <c r="R23" s="43"/>
+      <c r="S23" s="42">
         <f>avv!F20-A23</f>
         <v>0</v>
       </c>
-      <c r="T23" s="49">
-        <v>3</v>
-      </c>
-      <c r="V23" s="49">
+      <c r="T23" s="42">
+        <v>3</v>
+      </c>
+      <c r="V23" s="42">
         <f>avv!G21-A23</f>
         <v>1</v>
       </c>
-      <c r="W23" s="52">
+      <c r="W23" s="45">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
-        <v>12</v>
-      </c>
-      <c r="B24" s="76" t="s">
+      <c r="A24" s="42">
+        <v>12</v>
+      </c>
+      <c r="B24" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="49">
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="42">
         <f>avv!D22-A24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="51">
-        <v>3</v>
-      </c>
-      <c r="O24" s="50"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="65">
+      <c r="N24" s="44">
+        <v>3</v>
+      </c>
+      <c r="O24" s="43"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="58">
         <f>avv!F22-A24</f>
         <v>0</v>
       </c>
-      <c r="V24" s="49">
+      <c r="V24" s="42">
         <f>avv!G22-A24</f>
         <v>1</v>
       </c>
-      <c r="W24" s="51">
+      <c r="W24" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
-        <v>12</v>
-      </c>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="42">
+        <v>12</v>
+      </c>
+      <c r="B25" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="49">
+      <c r="C25" s="54"/>
+      <c r="D25" s="42">
         <f>avv!A29-A25</f>
         <v>-2</v>
       </c>
-      <c r="E25" s="64">
-        <v>3</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="49">
+      <c r="E25" s="57">
+        <v>3</v>
+      </c>
+      <c r="F25" s="54"/>
+      <c r="G25" s="42">
         <f>avv!B27-A25</f>
         <v>-1</v>
       </c>
-      <c r="H25" s="62">
-        <v>2</v>
-      </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="49">
+      <c r="H25" s="55">
+        <v>2</v>
+      </c>
+      <c r="I25" s="54"/>
+      <c r="J25" s="42">
         <f>avv!C21-A25</f>
         <v>0</v>
       </c>
-      <c r="K25" s="51">
-        <v>3</v>
-      </c>
-      <c r="L25" s="50"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="49">
+      <c r="K25" s="44">
+        <v>3</v>
+      </c>
+      <c r="L25" s="43"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="42">
         <f>avv!E22-A25</f>
         <v>-1</v>
       </c>
-      <c r="Q25" s="62">
-        <v>0</v>
-      </c>
-      <c r="R25" s="50"/>
-      <c r="S25" s="65">
+      <c r="Q25" s="55">
+        <v>0</v>
+      </c>
+      <c r="R25" s="43"/>
+      <c r="S25" s="58">
         <f>avv!F21-A25</f>
         <v>0</v>
       </c>
-      <c r="V25" s="49">
+      <c r="V25" s="42">
         <f>avv!G23-A25</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
-        <v>12</v>
-      </c>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="42">
+        <v>12</v>
+      </c>
+      <c r="B26" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="49">
+      <c r="C26" s="43"/>
+      <c r="D26" s="42">
         <f>avv!A22-A26</f>
         <v>-2</v>
       </c>
-      <c r="E26" s="64">
-        <v>3</v>
-      </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="49">
+      <c r="E26" s="57">
+        <v>3</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42">
         <f>avv!B23-A26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="51">
-        <v>3</v>
-      </c>
-      <c r="I26" s="50"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="49">
+      <c r="H26" s="44">
+        <v>3</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="42">
         <f>avv!D23-A26</f>
         <v>0</v>
       </c>
-      <c r="N26" s="51">
-        <v>2</v>
-      </c>
-      <c r="O26" s="50"/>
-      <c r="P26" s="49">
+      <c r="N26" s="44">
+        <v>2</v>
+      </c>
+      <c r="O26" s="43"/>
+      <c r="P26" s="42">
         <f>avv!E23-A26</f>
         <v>-1</v>
       </c>
-      <c r="Q26" s="51">
-        <v>3</v>
-      </c>
-      <c r="R26" s="50"/>
-      <c r="S26" s="65">
+      <c r="Q26" s="44">
+        <v>3</v>
+      </c>
+      <c r="R26" s="43"/>
+      <c r="S26" s="58">
         <f>avv!F23-A26</f>
         <v>0</v>
       </c>
-      <c r="V26" s="49">
+      <c r="V26" s="42">
         <f>avv!G24-A26</f>
         <v>0</v>
       </c>
-      <c r="W26" s="51">
+      <c r="W26" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
-        <v>12</v>
-      </c>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="42">
+        <v>12</v>
+      </c>
+      <c r="B27" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="49">
+      <c r="C27" s="43"/>
+      <c r="D27" s="42">
         <f>avv!A23-A27</f>
         <v>-2</v>
       </c>
-      <c r="E27" s="64">
-        <v>3</v>
-      </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="49">
+      <c r="E27" s="57">
+        <v>3</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="42">
         <f>avv!B24-A27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="51">
-        <v>3</v>
-      </c>
-      <c r="J27" s="49">
+      <c r="H27" s="44">
+        <v>3</v>
+      </c>
+      <c r="J27" s="42">
         <f>avv!C24-A27</f>
         <v>-1</v>
       </c>
-      <c r="K27" s="49">
-        <v>3</v>
-      </c>
-      <c r="L27" s="50"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="51"/>
-      <c r="P27" s="49">
+      <c r="K27" s="42">
+        <v>3</v>
+      </c>
+      <c r="L27" s="43"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="44"/>
+      <c r="P27" s="42">
         <f>avv!E25-A27</f>
         <v>-1</v>
       </c>
-      <c r="Q27" s="49">
-        <v>3</v>
-      </c>
-      <c r="R27" s="50"/>
-      <c r="S27" s="49">
+      <c r="Q27" s="42">
+        <v>3</v>
+      </c>
+      <c r="R27" s="43"/>
+      <c r="S27" s="42">
         <f>avv!F24-A27</f>
         <v>0</v>
       </c>
-      <c r="T27" s="49">
-        <v>3</v>
-      </c>
-      <c r="V27" s="49">
+      <c r="T27" s="42">
+        <v>3</v>
+      </c>
+      <c r="V27" s="42">
         <f>avv!G25-A27</f>
         <v>0</v>
       </c>
-      <c r="W27" s="51">
+      <c r="W27" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="49">
-        <v>12</v>
-      </c>
-      <c r="B28" s="49" t="s">
+      <c r="A28" s="42">
+        <v>12</v>
+      </c>
+      <c r="B28" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="49">
+      <c r="C28" s="43"/>
+      <c r="D28" s="42">
         <f>avv!A24-A28</f>
         <v>-2</v>
       </c>
-      <c r="E28" s="64">
-        <v>3</v>
-      </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="49">
+      <c r="E28" s="57">
+        <v>3</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="42">
         <f>avv!B26-A28</f>
         <v>-1</v>
       </c>
-      <c r="H28" s="51">
-        <v>3</v>
-      </c>
-      <c r="I28" s="50"/>
-      <c r="J28" s="49">
+      <c r="H28" s="44">
+        <v>3</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="42">
         <f>avv!C25-A28</f>
         <v>-1</v>
       </c>
-      <c r="K28" s="51">
-        <v>3</v>
-      </c>
-      <c r="L28" s="50"/>
-      <c r="M28" s="49">
+      <c r="K28" s="44">
+        <v>3</v>
+      </c>
+      <c r="L28" s="43"/>
+      <c r="M28" s="42">
         <f>avv!D25-A28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="51">
-        <v>3</v>
-      </c>
-      <c r="O28" s="50"/>
-      <c r="P28" s="49">
+      <c r="N28" s="44">
+        <v>3</v>
+      </c>
+      <c r="O28" s="43"/>
+      <c r="P28" s="42">
         <f>avv!E25-A28</f>
         <v>-1</v>
       </c>
-      <c r="Q28" s="51">
-        <v>3</v>
-      </c>
-      <c r="R28" s="50"/>
-      <c r="S28" s="49">
+      <c r="Q28" s="44">
+        <v>3</v>
+      </c>
+      <c r="R28" s="43"/>
+      <c r="S28" s="42">
         <f>avv!F25-A28</f>
         <v>0</v>
       </c>
-      <c r="T28" s="49">
-        <v>3</v>
-      </c>
-      <c r="V28" s="49">
+      <c r="T28" s="42">
+        <v>3</v>
+      </c>
+      <c r="V28" s="42">
         <f>avv!G26-A28</f>
         <v>0</v>
       </c>
-      <c r="W28" s="51">
+      <c r="W28" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="49">
-        <v>12</v>
-      </c>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="42">
+        <v>12</v>
+      </c>
+      <c r="B29" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="49">
+      <c r="C29" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="42">
         <f>avv!A11-A29</f>
         <v>-1</v>
       </c>
-      <c r="E29" s="64">
-        <v>3</v>
-      </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="49">
+      <c r="E29" s="57">
+        <v>3</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="42">
         <f>avv!B30-A29</f>
         <v>-5</v>
       </c>
-      <c r="H29" s="51">
-        <v>3</v>
-      </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="49">
+      <c r="H29" s="44">
+        <v>3</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="42">
         <f>avv!C30-A29</f>
         <v>-2</v>
       </c>
-      <c r="K29" s="51">
-        <v>3</v>
-      </c>
-      <c r="L29" s="50"/>
-      <c r="M29" s="49">
+      <c r="K29" s="44">
+        <v>3</v>
+      </c>
+      <c r="L29" s="43"/>
+      <c r="M29" s="42">
         <f>avv!D26-A29</f>
         <v>0</v>
       </c>
-      <c r="N29" s="62">
-        <v>1</v>
-      </c>
-      <c r="O29" s="50"/>
-      <c r="P29" s="49">
+      <c r="N29" s="55">
+        <v>1</v>
+      </c>
+      <c r="O29" s="43"/>
+      <c r="P29" s="42">
         <f>avv!E27-A29</f>
         <v>-1</v>
       </c>
-      <c r="Q29" s="51">
-        <v>3</v>
-      </c>
-      <c r="R29" s="50"/>
-      <c r="S29" s="49">
+      <c r="Q29" s="44">
+        <v>3</v>
+      </c>
+      <c r="R29" s="43"/>
+      <c r="S29" s="42">
         <f>avv!F26-A29</f>
         <v>-1</v>
       </c>
-      <c r="T29" s="49">
-        <v>3</v>
-      </c>
-      <c r="V29" s="49">
+      <c r="T29" s="42">
+        <v>3</v>
+      </c>
+      <c r="V29" s="42">
         <f>avv!G27-A29</f>
         <v>0</v>
       </c>
-      <c r="W29" s="51">
+      <c r="W29" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="49">
-        <v>12</v>
-      </c>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="42">
+        <v>12</v>
+      </c>
+      <c r="B30" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="49">
+      <c r="C30" s="43"/>
+      <c r="D30" s="42">
         <f>avv!A25-A30</f>
         <v>-2</v>
       </c>
-      <c r="E30" s="64">
-        <v>3</v>
-      </c>
-      <c r="F30" s="50">
-        <v>1</v>
-      </c>
-      <c r="G30" s="49">
+      <c r="E30" s="57">
+        <v>3</v>
+      </c>
+      <c r="F30" s="43">
+        <v>1</v>
+      </c>
+      <c r="G30" s="42">
         <f>avv!B25-A30</f>
         <v>-1</v>
       </c>
-      <c r="H30" s="51">
-        <v>3</v>
-      </c>
-      <c r="I30" s="50"/>
-      <c r="J30" s="49">
+      <c r="H30" s="44">
+        <v>3</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="42">
         <f>avv!C26-A30</f>
         <v>-1</v>
       </c>
-      <c r="K30" s="51">
-        <v>3</v>
-      </c>
-      <c r="L30" s="50"/>
-      <c r="M30" s="49">
+      <c r="K30" s="44">
+        <v>3</v>
+      </c>
+      <c r="L30" s="43"/>
+      <c r="M30" s="42">
         <f>avv!D27-A30</f>
         <v>0</v>
       </c>
-      <c r="N30" s="51">
-        <v>3</v>
-      </c>
-      <c r="O30" s="50"/>
-      <c r="P30" s="49">
+      <c r="N30" s="44">
+        <v>3</v>
+      </c>
+      <c r="O30" s="43"/>
+      <c r="P30" s="42">
         <f>avv!E28-A30</f>
         <v>-1</v>
       </c>
-      <c r="Q30" s="51">
-        <v>3</v>
-      </c>
-      <c r="R30" s="50"/>
-      <c r="S30" s="49">
+      <c r="Q30" s="44">
+        <v>3</v>
+      </c>
+      <c r="R30" s="43"/>
+      <c r="S30" s="42">
         <f>avv!F27-A30</f>
         <v>-1</v>
       </c>
-      <c r="T30" s="49">
-        <v>3</v>
-      </c>
-      <c r="V30" s="49">
+      <c r="T30" s="42">
+        <v>3</v>
+      </c>
+      <c r="V30" s="42">
         <f>avv!G28-A30</f>
         <v>0</v>
       </c>
-      <c r="W30" s="51">
+      <c r="W30" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="49">
-        <v>12</v>
-      </c>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="42">
+        <v>12</v>
+      </c>
+      <c r="B31" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="49">
+      <c r="C31" s="43"/>
+      <c r="D31" s="42">
         <f>avv!A28-A31</f>
         <v>-2</v>
       </c>
-      <c r="E31" s="64">
-        <v>3</v>
-      </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="49">
+      <c r="E31" s="57">
+        <v>3</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="42">
         <f>avv!B28-A31</f>
         <v>-3</v>
       </c>
-      <c r="H31" s="51">
-        <v>3</v>
-      </c>
-      <c r="I31" s="50"/>
-      <c r="J31" s="49">
+      <c r="H31" s="44">
+        <v>3</v>
+      </c>
+      <c r="I31" s="43"/>
+      <c r="J31" s="42">
         <f>avv!C28-A31</f>
         <v>-1</v>
       </c>
-      <c r="K31" s="51">
-        <v>3</v>
-      </c>
-      <c r="L31" s="50"/>
-      <c r="M31" s="49">
+      <c r="K31" s="44">
+        <v>3</v>
+      </c>
+      <c r="L31" s="43"/>
+      <c r="M31" s="42">
         <f>avv!D29-A31</f>
         <v>-1</v>
       </c>
-      <c r="N31" s="51">
-        <v>3</v>
-      </c>
-      <c r="O31" s="50"/>
-      <c r="P31" s="49">
+      <c r="N31" s="44">
+        <v>3</v>
+      </c>
+      <c r="O31" s="43"/>
+      <c r="P31" s="42">
         <f>avv!E29-A31</f>
         <v>-1</v>
       </c>
-      <c r="Q31" s="51">
-        <v>3</v>
-      </c>
-      <c r="R31" s="50"/>
-      <c r="S31" s="49">
+      <c r="Q31" s="44">
+        <v>3</v>
+      </c>
+      <c r="R31" s="43"/>
+      <c r="S31" s="42">
         <f>avv!F29-A31</f>
         <v>-2</v>
       </c>
-      <c r="T31" s="49">
-        <v>3</v>
-      </c>
-      <c r="V31" s="49">
+      <c r="T31" s="42">
+        <v>3</v>
+      </c>
+      <c r="V31" s="42">
         <f>avv!G29-A31</f>
         <v>0</v>
       </c>
-      <c r="W31" s="88">
+      <c r="W31" s="80">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49">
-        <v>12</v>
-      </c>
-      <c r="B32" s="65" t="s">
+      <c r="A32" s="42">
+        <v>12</v>
+      </c>
+      <c r="B32" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="49">
+      <c r="C32" s="43"/>
+      <c r="D32" s="42">
         <f>avv!A27-A32</f>
         <v>-2</v>
       </c>
-      <c r="E32" s="64">
-        <v>3</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="49">
+      <c r="E32" s="57">
+        <v>3</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="42">
         <f>avv!B29-A32</f>
         <v>-4</v>
       </c>
-      <c r="H32" s="51">
-        <v>3</v>
-      </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="49">
+      <c r="H32" s="44">
+        <v>3</v>
+      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="42">
         <f>avv!C29-A32</f>
         <v>-1</v>
       </c>
-      <c r="K32" s="51">
-        <v>3</v>
-      </c>
-      <c r="L32" s="50"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="49">
+      <c r="K32" s="44">
+        <v>3</v>
+      </c>
+      <c r="L32" s="43"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="42">
         <f>avv!F30-A32</f>
         <v>-2</v>
       </c>
-      <c r="T32" s="49">
-        <v>3</v>
-      </c>
-      <c r="V32" s="49">
+      <c r="T32" s="42">
+        <v>3</v>
+      </c>
+      <c r="V32" s="42">
         <f>avv!G30-A32</f>
         <v>-3</v>
       </c>
-      <c r="W32" s="51">
+      <c r="W32" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="83"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="53"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
     </row>
     <row r="34" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49">
-        <v>12</v>
-      </c>
-      <c r="B34" s="65" t="s">
+      <c r="A34" s="42">
+        <v>12</v>
+      </c>
+      <c r="B34" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="49">
+      <c r="C34" s="43"/>
+      <c r="D34" s="42">
         <f>avv!A30-A34</f>
         <v>-2</v>
       </c>
-      <c r="E34" s="64">
-        <v>3</v>
-      </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="50"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="49">
+      <c r="E34" s="57">
+        <v>3</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="43"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="42">
         <f>avv!E32-A34</f>
         <v>-12</v>
       </c>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="49">
+      <c r="Q34" s="44"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="42">
         <f>avv!F32-A34</f>
         <v>-12</v>
       </c>
-      <c r="V34" s="49">
+      <c r="V34" s="42">
         <f>avv!G32-A34</f>
         <v>-12</v>
       </c>
     </row>
     <row r="35" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49">
+      <c r="A35" s="42">
         <v>13</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="50"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="50"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="50"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="50"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="43"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="43"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="43"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="43"/>
     </row>
     <row r="36" spans="1:29" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49">
-        <v>12</v>
-      </c>
-      <c r="B36" s="65" t="s">
+      <c r="A36" s="42">
+        <v>12</v>
+      </c>
+      <c r="B36" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="50"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="50"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="50"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="50"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="43"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="43"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="43"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="43"/>
     </row>
     <row r="37" spans="1:29" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="82"/>
-      <c r="U37" s="83"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="53"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55" t="s">
+      <c r="A38" s="47"/>
+      <c r="B38" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="82"/>
-      <c r="U38" s="83"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="76"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="46"/>
     </row>
     <row r="39" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="56"/>
-      <c r="B39" s="55" t="s">
+      <c r="A39" s="49"/>
+      <c r="B39" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="83"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="76"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
     </row>
     <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="57"/>
-      <c r="B40" s="55" t="s">
+      <c r="A40" s="50"/>
+      <c r="B40" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="83"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="76"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="46"/>
     </row>
     <row r="41" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="82"/>
-      <c r="U41" s="83"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="53"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="76"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
+      <c r="AA41" s="46"/>
+      <c r="AB41" s="46"/>
+      <c r="AC41" s="46"/>
     </row>
     <row r="42" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
-      <c r="B42" s="55" t="s">
+      <c r="A42" s="52"/>
+      <c r="B42" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="46"/>
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="46"/>
+    </row>
+    <row r="43" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="74"/>
+      <c r="B43" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="82"/>
-      <c r="U42" s="83"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
-    </row>
-    <row r="43" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="81"/>
-      <c r="B43" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="83"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="53"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="75"/>
+      <c r="U43" s="76"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="46"/>
+      <c r="AA43" s="46"/>
+      <c r="AB43" s="46"/>
+      <c r="AC43" s="46"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B30">
@@ -7320,7 +5943,770 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B1E3B6-9616-466B-B38C-BD48994D8318}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="71">
+        <v>15</v>
+      </c>
+      <c r="B1" s="71">
+        <v>18</v>
+      </c>
+      <c r="C1" s="71">
+        <v>18</v>
+      </c>
+      <c r="D1" s="71">
+        <v>17</v>
+      </c>
+      <c r="E1" s="71">
+        <v>17</v>
+      </c>
+      <c r="F1" s="71">
+        <v>16</v>
+      </c>
+      <c r="G1" s="71">
+        <v>15</v>
+      </c>
+      <c r="H1" s="79"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="71">
+        <v>15</v>
+      </c>
+      <c r="B2" s="71">
+        <v>16</v>
+      </c>
+      <c r="C2" s="71">
+        <v>17</v>
+      </c>
+      <c r="D2" s="71">
+        <v>16</v>
+      </c>
+      <c r="E2" s="71">
+        <v>17</v>
+      </c>
+      <c r="F2" s="71">
+        <v>16</v>
+      </c>
+      <c r="G2" s="71">
+        <v>15</v>
+      </c>
+      <c r="H2" s="79"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="71">
+        <v>15</v>
+      </c>
+      <c r="B3" s="71">
+        <v>15</v>
+      </c>
+      <c r="C3" s="71">
+        <v>17</v>
+      </c>
+      <c r="D3" s="71">
+        <v>15</v>
+      </c>
+      <c r="E3" s="71">
+        <v>17</v>
+      </c>
+      <c r="F3" s="71">
+        <v>15</v>
+      </c>
+      <c r="G3" s="71">
+        <v>14</v>
+      </c>
+      <c r="H3" s="79"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="71">
+        <v>15</v>
+      </c>
+      <c r="B4" s="71">
+        <v>15</v>
+      </c>
+      <c r="C4" s="71">
+        <v>17</v>
+      </c>
+      <c r="D4" s="71">
+        <v>15</v>
+      </c>
+      <c r="E4" s="71">
+        <v>15</v>
+      </c>
+      <c r="F4" s="71">
+        <v>15</v>
+      </c>
+      <c r="G4" s="71">
+        <v>14</v>
+      </c>
+      <c r="H4" s="79"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="71">
+        <v>14</v>
+      </c>
+      <c r="B5" s="71">
+        <v>15</v>
+      </c>
+      <c r="C5" s="71">
+        <v>15</v>
+      </c>
+      <c r="D5" s="71">
+        <v>15</v>
+      </c>
+      <c r="E5" s="71">
+        <v>15</v>
+      </c>
+      <c r="F5" s="71">
+        <v>15</v>
+      </c>
+      <c r="G5" s="71">
+        <v>14</v>
+      </c>
+      <c r="H5" s="79"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="71">
+        <v>14</v>
+      </c>
+      <c r="B6" s="71">
+        <v>15</v>
+      </c>
+      <c r="C6" s="71">
+        <v>15</v>
+      </c>
+      <c r="D6" s="71">
+        <v>15</v>
+      </c>
+      <c r="E6" s="71">
+        <v>13</v>
+      </c>
+      <c r="F6" s="71">
+        <v>15</v>
+      </c>
+      <c r="G6" s="71">
+        <v>13</v>
+      </c>
+      <c r="H6" s="79"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="71">
+        <v>14</v>
+      </c>
+      <c r="B7" s="71">
+        <v>15</v>
+      </c>
+      <c r="C7" s="71">
+        <v>15</v>
+      </c>
+      <c r="D7" s="71">
+        <v>15</v>
+      </c>
+      <c r="E7" s="71">
+        <v>13</v>
+      </c>
+      <c r="F7" s="71">
+        <v>15</v>
+      </c>
+      <c r="G7" s="71">
+        <v>13</v>
+      </c>
+      <c r="H7" s="79"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="71">
+        <v>13</v>
+      </c>
+      <c r="B8" s="71">
+        <v>15</v>
+      </c>
+      <c r="C8" s="71">
+        <v>14</v>
+      </c>
+      <c r="D8" s="71">
+        <v>15</v>
+      </c>
+      <c r="E8" s="71">
+        <v>13</v>
+      </c>
+      <c r="F8" s="71">
+        <v>15</v>
+      </c>
+      <c r="G8" s="71">
+        <v>13</v>
+      </c>
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="71">
+        <v>12</v>
+      </c>
+      <c r="B9" s="71">
+        <v>14</v>
+      </c>
+      <c r="C9" s="71">
+        <v>14</v>
+      </c>
+      <c r="D9" s="71">
+        <v>14</v>
+      </c>
+      <c r="E9" s="71">
+        <v>12</v>
+      </c>
+      <c r="F9" s="71">
+        <v>15</v>
+      </c>
+      <c r="G9" s="71">
+        <v>13</v>
+      </c>
+      <c r="H9" s="79"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="71">
+        <v>12</v>
+      </c>
+      <c r="B10" s="71">
+        <v>14</v>
+      </c>
+      <c r="C10" s="71">
+        <v>14</v>
+      </c>
+      <c r="D10" s="71">
+        <v>14</v>
+      </c>
+      <c r="E10" s="71">
+        <v>12</v>
+      </c>
+      <c r="F10" s="71">
+        <v>14</v>
+      </c>
+      <c r="G10" s="71">
+        <v>13</v>
+      </c>
+      <c r="H10" s="79"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="71">
+        <v>11</v>
+      </c>
+      <c r="B11" s="71">
+        <v>13</v>
+      </c>
+      <c r="C11" s="71">
+        <v>13</v>
+      </c>
+      <c r="D11" s="71">
+        <v>14</v>
+      </c>
+      <c r="E11" s="71">
+        <v>12</v>
+      </c>
+      <c r="F11" s="71">
+        <v>14</v>
+      </c>
+      <c r="G11" s="71">
+        <v>13</v>
+      </c>
+      <c r="H11" s="79"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="71">
+        <v>11</v>
+      </c>
+      <c r="B12" s="71">
+        <v>13</v>
+      </c>
+      <c r="C12" s="71">
+        <v>13</v>
+      </c>
+      <c r="D12" s="71">
+        <v>14</v>
+      </c>
+      <c r="E12" s="71">
+        <v>12</v>
+      </c>
+      <c r="F12" s="71">
+        <v>14</v>
+      </c>
+      <c r="G12" s="71">
+        <v>13</v>
+      </c>
+      <c r="H12" s="79"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="71">
+        <v>11</v>
+      </c>
+      <c r="B13" s="71">
+        <v>13</v>
+      </c>
+      <c r="C13" s="71">
+        <v>13</v>
+      </c>
+      <c r="D13" s="71">
+        <v>14</v>
+      </c>
+      <c r="E13" s="71">
+        <v>12</v>
+      </c>
+      <c r="F13" s="71">
+        <v>13</v>
+      </c>
+      <c r="G13" s="71">
+        <v>13</v>
+      </c>
+      <c r="H13" s="79"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="71">
+        <v>11</v>
+      </c>
+      <c r="B14" s="71">
+        <v>13</v>
+      </c>
+      <c r="C14" s="71">
+        <v>13</v>
+      </c>
+      <c r="D14" s="71">
+        <v>14</v>
+      </c>
+      <c r="E14" s="71">
+        <v>12</v>
+      </c>
+      <c r="F14" s="71">
+        <v>13</v>
+      </c>
+      <c r="G14" s="71">
+        <v>13</v>
+      </c>
+      <c r="H14" s="79"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="71">
+        <v>11</v>
+      </c>
+      <c r="B15" s="71">
+        <v>13</v>
+      </c>
+      <c r="C15" s="71">
+        <v>13</v>
+      </c>
+      <c r="D15" s="71">
+        <v>14</v>
+      </c>
+      <c r="E15" s="71">
+        <v>12</v>
+      </c>
+      <c r="F15" s="71">
+        <v>13</v>
+      </c>
+      <c r="G15" s="71">
+        <v>13</v>
+      </c>
+      <c r="H15" s="79"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="71">
+        <v>11</v>
+      </c>
+      <c r="B16" s="71">
+        <v>13</v>
+      </c>
+      <c r="C16" s="71">
+        <v>12</v>
+      </c>
+      <c r="D16" s="71">
+        <v>13</v>
+      </c>
+      <c r="E16" s="71">
+        <v>12</v>
+      </c>
+      <c r="F16" s="71">
+        <v>13</v>
+      </c>
+      <c r="G16" s="71">
+        <v>13</v>
+      </c>
+      <c r="H16" s="79"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="71">
+        <v>11</v>
+      </c>
+      <c r="B17" s="71">
+        <v>13</v>
+      </c>
+      <c r="C17" s="71">
+        <v>12</v>
+      </c>
+      <c r="D17" s="71">
+        <v>13</v>
+      </c>
+      <c r="E17" s="71">
+        <v>12</v>
+      </c>
+      <c r="F17" s="71">
+        <v>13</v>
+      </c>
+      <c r="G17" s="71">
+        <v>13</v>
+      </c>
+      <c r="H17" s="79"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="71">
+        <v>11</v>
+      </c>
+      <c r="B18" s="71">
+        <v>13</v>
+      </c>
+      <c r="C18" s="71">
+        <v>12</v>
+      </c>
+      <c r="D18" s="71">
+        <v>13</v>
+      </c>
+      <c r="E18" s="71">
+        <v>12</v>
+      </c>
+      <c r="F18" s="71">
+        <v>13</v>
+      </c>
+      <c r="G18" s="71">
+        <v>13</v>
+      </c>
+      <c r="H18" s="79"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="71">
+        <v>11</v>
+      </c>
+      <c r="B19" s="71">
+        <v>12</v>
+      </c>
+      <c r="C19" s="71">
+        <v>12</v>
+      </c>
+      <c r="D19" s="71">
+        <v>13</v>
+      </c>
+      <c r="E19" s="71">
+        <v>12</v>
+      </c>
+      <c r="F19" s="71">
+        <v>13</v>
+      </c>
+      <c r="G19" s="71">
+        <v>13</v>
+      </c>
+      <c r="H19" s="79"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="71">
+        <v>10</v>
+      </c>
+      <c r="B20" s="71">
+        <v>12</v>
+      </c>
+      <c r="C20" s="71">
+        <v>12</v>
+      </c>
+      <c r="D20" s="71">
+        <v>13</v>
+      </c>
+      <c r="E20" s="71">
+        <v>12</v>
+      </c>
+      <c r="F20" s="71">
+        <v>12</v>
+      </c>
+      <c r="G20" s="71">
+        <v>13</v>
+      </c>
+      <c r="H20" s="79"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="71">
+        <v>10</v>
+      </c>
+      <c r="B21" s="71">
+        <v>12</v>
+      </c>
+      <c r="C21" s="71">
+        <v>12</v>
+      </c>
+      <c r="D21" s="71">
+        <v>13</v>
+      </c>
+      <c r="E21" s="71">
+        <v>11</v>
+      </c>
+      <c r="F21" s="71">
+        <v>12</v>
+      </c>
+      <c r="G21" s="71">
+        <v>13</v>
+      </c>
+      <c r="H21" s="79"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="71">
+        <v>10</v>
+      </c>
+      <c r="B22" s="71">
+        <v>12</v>
+      </c>
+      <c r="C22" s="71">
+        <v>11</v>
+      </c>
+      <c r="D22" s="71">
+        <v>12</v>
+      </c>
+      <c r="E22" s="71">
+        <v>11</v>
+      </c>
+      <c r="F22" s="71">
+        <v>12</v>
+      </c>
+      <c r="G22" s="71">
+        <v>13</v>
+      </c>
+      <c r="H22" s="79"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="71">
+        <v>10</v>
+      </c>
+      <c r="B23" s="71">
+        <v>12</v>
+      </c>
+      <c r="C23" s="71">
+        <v>11</v>
+      </c>
+      <c r="D23" s="71">
+        <v>12</v>
+      </c>
+      <c r="E23" s="71">
+        <v>11</v>
+      </c>
+      <c r="F23" s="71">
+        <v>12</v>
+      </c>
+      <c r="G23" s="71">
+        <v>13</v>
+      </c>
+      <c r="H23" s="79"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="71">
+        <v>10</v>
+      </c>
+      <c r="B24" s="71">
+        <v>12</v>
+      </c>
+      <c r="C24" s="71">
+        <v>11</v>
+      </c>
+      <c r="D24" s="71">
+        <v>12</v>
+      </c>
+      <c r="E24" s="71">
+        <v>11</v>
+      </c>
+      <c r="F24" s="71">
+        <v>12</v>
+      </c>
+      <c r="G24" s="71">
+        <v>12</v>
+      </c>
+      <c r="H24" s="79"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="71">
+        <v>10</v>
+      </c>
+      <c r="B25" s="71">
+        <v>11</v>
+      </c>
+      <c r="C25" s="71">
+        <v>11</v>
+      </c>
+      <c r="D25" s="71">
+        <v>12</v>
+      </c>
+      <c r="E25" s="71">
+        <v>11</v>
+      </c>
+      <c r="F25" s="71">
+        <v>12</v>
+      </c>
+      <c r="G25" s="71">
+        <v>12</v>
+      </c>
+      <c r="H25" s="79"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="71">
+        <v>10</v>
+      </c>
+      <c r="B26" s="71">
+        <v>11</v>
+      </c>
+      <c r="C26" s="71">
+        <v>11</v>
+      </c>
+      <c r="D26" s="71">
+        <v>12</v>
+      </c>
+      <c r="E26" s="71">
+        <v>11</v>
+      </c>
+      <c r="F26" s="71">
+        <v>11</v>
+      </c>
+      <c r="G26" s="71">
+        <v>12</v>
+      </c>
+      <c r="H26" s="79"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="71">
+        <v>10</v>
+      </c>
+      <c r="B27" s="71">
+        <v>11</v>
+      </c>
+      <c r="C27" s="71">
+        <v>11</v>
+      </c>
+      <c r="D27" s="71">
+        <v>12</v>
+      </c>
+      <c r="E27" s="71">
+        <v>11</v>
+      </c>
+      <c r="F27" s="71">
+        <v>11</v>
+      </c>
+      <c r="G27" s="71">
+        <v>12</v>
+      </c>
+      <c r="H27" s="79"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="71">
+        <v>10</v>
+      </c>
+      <c r="B28" s="71">
+        <v>9</v>
+      </c>
+      <c r="C28" s="71">
+        <v>11</v>
+      </c>
+      <c r="D28" s="71">
+        <v>12</v>
+      </c>
+      <c r="E28" s="71">
+        <v>11</v>
+      </c>
+      <c r="F28" s="71">
+        <v>11</v>
+      </c>
+      <c r="G28" s="71">
+        <v>12</v>
+      </c>
+      <c r="H28" s="79"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="71">
+        <v>10</v>
+      </c>
+      <c r="B29" s="71">
+        <v>8</v>
+      </c>
+      <c r="C29" s="71">
+        <v>11</v>
+      </c>
+      <c r="D29" s="71">
+        <v>11</v>
+      </c>
+      <c r="E29" s="71">
+        <v>11</v>
+      </c>
+      <c r="F29" s="71">
+        <v>10</v>
+      </c>
+      <c r="G29" s="71">
+        <v>12</v>
+      </c>
+      <c r="H29" s="79"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="71">
+        <v>10</v>
+      </c>
+      <c r="B30" s="71">
+        <v>7</v>
+      </c>
+      <c r="C30" s="71">
+        <v>10</v>
+      </c>
+      <c r="D30" s="71">
+        <v>10</v>
+      </c>
+      <c r="E30" s="71">
+        <v>8</v>
+      </c>
+      <c r="F30" s="71">
+        <v>10</v>
+      </c>
+      <c r="G30" s="71">
+        <v>9</v>
+      </c>
+      <c r="H30" s="79"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A32:H32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6F01F9-5167-499B-96C3-486CFF0E784F}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -7661,4 +7047,310 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AEE678-7544-4914-B64E-AF6ACA09986D}">
+  <dimension ref="A1:CI1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="91" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="37" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="36" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="37" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="36" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="37" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="36" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="37" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="36" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="37" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="36" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="37" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="36" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="37" customWidth="1"/>
+    <col min="23" max="87" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="W1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>148</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7733C71-1D2A-4D08-9F5F-E0ACF29CDBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD9DD9B-29D7-4D83-9C0E-F6C379C46251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{2B27E2D7-7E1F-4830-8A43-C634E6A715E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2B27E2D7-7E1F-4830-8A43-C634E6A715E0}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="194">
   <si>
     <t>nome</t>
   </si>
@@ -255,12 +255,6 @@
     <t>CWL2</t>
   </si>
   <si>
-    <t>Colonna9</t>
-  </si>
-  <si>
-    <t>Colonna10</t>
-  </si>
-  <si>
     <t>Colonna11</t>
   </si>
   <si>
@@ -498,22 +492,136 @@
     <t>ATK SKIP</t>
   </si>
   <si>
-    <t>TOTAL WARS</t>
-  </si>
-  <si>
-    <t>TOTAL STARS</t>
-  </si>
-  <si>
     <t>AVG STAR</t>
   </si>
   <si>
-    <t>WAR 1 (2)</t>
-  </si>
-  <si>
-    <t>WAR 1 (1)</t>
-  </si>
-  <si>
-    <t>WAR BOTH SKIP</t>
+    <t>ER DANDI 1927</t>
+  </si>
+  <si>
+    <t>Chabby</t>
+  </si>
+  <si>
+    <t>Luigi</t>
+  </si>
+  <si>
+    <t>Brazo</t>
+  </si>
+  <si>
+    <t>Valh</t>
+  </si>
+  <si>
+    <t>Matty7_</t>
+  </si>
+  <si>
+    <t>Stentaaa</t>
+  </si>
+  <si>
+    <t>RobbyCV</t>
+  </si>
+  <si>
+    <t>GiornoBrando</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>xbladze</t>
+  </si>
+  <si>
+    <t>Simone</t>
+  </si>
+  <si>
+    <t>HikariNoRob</t>
+  </si>
+  <si>
+    <t>EdoDodo</t>
+  </si>
+  <si>
+    <t>BigMc23</t>
+  </si>
+  <si>
+    <t>Sub.WayGud</t>
+  </si>
+  <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>Luxor</t>
+  </si>
+  <si>
+    <t>D 011</t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>Floky23</t>
+  </si>
+  <si>
+    <t>Roberta</t>
+  </si>
+  <si>
+    <t>CARFI</t>
+  </si>
+  <si>
+    <t>shark</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>dux104</t>
+  </si>
+  <si>
+    <t>th4nos</t>
+  </si>
+  <si>
+    <t>R1cky_boffo</t>
+  </si>
+  <si>
+    <t>tustrunz</t>
+  </si>
+  <si>
+    <t>sidcu js</t>
+  </si>
+  <si>
+    <t>Alaa</t>
+  </si>
+  <si>
+    <t>buff x-bow</t>
+  </si>
+  <si>
+    <t>SubOhm</t>
+  </si>
+  <si>
+    <t>P.E.K.K.A</t>
+  </si>
+  <si>
+    <t>LELE11GAM3R</t>
+  </si>
+  <si>
+    <t>TOT WARS</t>
+  </si>
+  <si>
+    <t>TOT STARS</t>
+  </si>
+  <si>
+    <t>WAR-1 (1)</t>
+  </si>
+  <si>
+    <t>WAR-1 (2)</t>
+  </si>
+  <si>
+    <t>WAR-2 (1)</t>
+  </si>
+  <si>
+    <t>WAR-2 (2)</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>ZERO WAR  ATK</t>
   </si>
 </sst>
 </file>
@@ -881,9 +989,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1010,6 +1115,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,26 +1139,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="89">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -1046,240 +1172,425 @@
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1288,8 +1599,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -1306,96 +1615,103 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F423CFF4-9977-426D-8642-F003DBBACCED}" name="Tabella2" displayName="Tabella2" ref="A1:CI51" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F423CFF4-9977-426D-8642-F003DBBACCED}" name="Tabella2" displayName="Tabella2" ref="A1:CI51" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:CI51" xr:uid="{F423CFF4-9977-426D-8642-F003DBBACCED}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CI51">
+    <sortCondition descending="1" ref="B1:B51"/>
+  </sortState>
   <tableColumns count="87">
-    <tableColumn id="1" xr3:uid="{0EF2E770-1752-4641-85BA-AF768F96EB2C}" name="NAME" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{7700FB12-63EA-4ABA-AB95-731E7ECAAC7D}" name="ATK SKIP" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{D973E7BC-5474-455A-8D23-F3E7679E3DAE}" name="WAR BOTH SKIP" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{332DFDF5-E2C0-4E6A-9D28-6CA5CF7E8D3E}" name="TOTAL WARS" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{3922FF77-05B3-4852-BC79-4460D5A13091}" name="TOTAL STARS"/>
-    <tableColumn id="6" xr3:uid="{0F6B5768-3F32-468D-B833-303BD4179BD2}" name="AVG STAR" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{376A0512-F474-4CFF-8C69-D521A2E8282B}" name="WAR 1 (1)" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{E37E47C7-4EDE-43BC-8ED9-2D2AE2F9E63B}" name="WAR 1 (2)" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{6DBCEF93-512C-45A9-B082-1851EC958F4B}" name="Colonna9" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{91DE97F5-8BA7-4331-8862-54D3FBDB73EA}" name="Colonna10" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{EC532579-06C4-4FF2-82FC-307D86BB24BD}" name="Colonna11" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{5BD5FC70-A326-4310-BEE3-FA83ACEF5E0E}" name="Colonna12" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{290FE366-F9C2-47A9-8560-3E43AC71D7BD}" name="Colonna13" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{3761D2F3-C126-4E7A-9184-8769ACAD7414}" name="Colonna14" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{1DE69A51-8060-4FE2-9A7F-B25F0B656AFC}" name="Colonna15" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{C8D3533A-AF90-4393-AD46-CDE8FB2E9E71}" name="Colonna16" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{A352C3C5-F8A8-4B54-BCB4-C5B00F5DA941}" name="Colonna17" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{FC8D5AC5-A191-4BDE-8BED-4858577379BC}" name="Colonna18" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{108D4001-D141-4CD5-9507-C1358BFC8B5A}" name="Colonna19" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{A80AF7DF-5078-4F70-9C8A-F1DBDB344EE2}" name="Colonna20" dataDxfId="2"/>
-    <tableColumn id="21" xr3:uid="{6DFF097C-5E78-42C7-802F-25FD85BF34EB}" name="Colonna21" dataDxfId="1"/>
-    <tableColumn id="22" xr3:uid="{360AFEF1-7881-473A-A5FB-6703D940E7BF}" name="Colonna22" dataDxfId="0"/>
-    <tableColumn id="23" xr3:uid="{FC402F78-186F-40BE-87B9-A4A8DFF11E14}" name="Colonna23"/>
-    <tableColumn id="24" xr3:uid="{87677C85-73FC-4035-A4D8-122A91554F53}" name="Colonna24"/>
-    <tableColumn id="25" xr3:uid="{B3DB419E-5602-416B-B7F9-E376441BEB88}" name="Colonna25"/>
-    <tableColumn id="26" xr3:uid="{7995E8D9-B284-4793-A16C-E6F5A85B87F7}" name="Colonna26"/>
-    <tableColumn id="27" xr3:uid="{C8EFA8C1-99BB-4F34-8AD3-8537A15CEA13}" name="Colonna27"/>
-    <tableColumn id="28" xr3:uid="{F9CF1DF5-D3FC-4CD2-9BE5-4610806C9BBB}" name="Colonna28"/>
-    <tableColumn id="29" xr3:uid="{6F0EFA45-DD34-4A6A-A928-263B3F3B42E4}" name="Colonna29"/>
-    <tableColumn id="30" xr3:uid="{CB559727-A40B-4944-9D52-7649F5FAF1EA}" name="Colonna30"/>
-    <tableColumn id="31" xr3:uid="{701EA7E0-95E0-47FC-8D0E-4F262430A37D}" name="Colonna31"/>
-    <tableColumn id="32" xr3:uid="{A933180B-2642-4730-B753-229145E1EF41}" name="Colonna32"/>
-    <tableColumn id="33" xr3:uid="{3573333E-9754-4F23-8CDC-D1306F9BF268}" name="Colonna33"/>
-    <tableColumn id="34" xr3:uid="{EC47DFDD-5E7A-4620-B3BB-AFB992D52395}" name="Colonna34"/>
-    <tableColumn id="35" xr3:uid="{AA21E8AB-AB7F-42D5-96D3-B74237A2014C}" name="Colonna35"/>
-    <tableColumn id="36" xr3:uid="{C9FB4DCF-BF28-4AE1-A7CF-8ABB51DB12CE}" name="Colonna36"/>
-    <tableColumn id="37" xr3:uid="{E034E0DF-52D6-4B2B-8593-89C7BD38C5D2}" name="Colonna37"/>
-    <tableColumn id="38" xr3:uid="{693B6181-DA2C-4B2F-9889-532878D25528}" name="Colonna38"/>
-    <tableColumn id="39" xr3:uid="{3502DF4E-4ED6-41A7-969E-88CCC7B187AF}" name="Colonna39"/>
-    <tableColumn id="40" xr3:uid="{F2354E38-61A3-4D8B-AD7A-925179F7CB6D}" name="Colonna40"/>
-    <tableColumn id="41" xr3:uid="{89374DDF-FC75-4E39-8FA9-B58FCCDE25EE}" name="Colonna41"/>
-    <tableColumn id="42" xr3:uid="{F270E42D-CD1C-4E23-AC89-B8C21EC3F3E0}" name="Colonna42"/>
-    <tableColumn id="43" xr3:uid="{F957FB97-E69A-4AF2-B828-BC36EFBAF1C7}" name="Colonna43"/>
-    <tableColumn id="44" xr3:uid="{8AA72C31-4181-4378-8207-491062F0E3EC}" name="Colonna44"/>
-    <tableColumn id="45" xr3:uid="{69E342D7-7C24-4442-A6D5-BE116FD22054}" name="Colonna45"/>
-    <tableColumn id="46" xr3:uid="{6B2864A9-B388-4422-9440-AD11780FCDD6}" name="Colonna46"/>
-    <tableColumn id="47" xr3:uid="{19B5D526-813F-4596-A72A-AB90941FB1D7}" name="Colonna47"/>
-    <tableColumn id="48" xr3:uid="{DBF1BD23-6353-412A-8662-485BEBB03F86}" name="Colonna48"/>
-    <tableColumn id="49" xr3:uid="{27E8288F-06CF-49EB-B94E-3FEBCA7B0510}" name="Colonna49"/>
-    <tableColumn id="50" xr3:uid="{06E74F8A-60BC-49D6-B40F-E720C8B2041D}" name="Colonna50"/>
-    <tableColumn id="51" xr3:uid="{73FA2BF0-26B2-4E2F-AEA3-E3B5405F15BE}" name="Colonna51"/>
-    <tableColumn id="52" xr3:uid="{4EB236AA-EF57-461D-B29F-9035D272A5EA}" name="Colonna52"/>
-    <tableColumn id="53" xr3:uid="{7899778E-7F35-4B84-B1F7-1E247FA55D25}" name="Colonna53"/>
-    <tableColumn id="54" xr3:uid="{E9D49300-A3C5-47CE-9A98-A85CC8C75A45}" name="Colonna54"/>
-    <tableColumn id="55" xr3:uid="{0613756B-161C-409C-9A6A-25B7A080F421}" name="Colonna55"/>
-    <tableColumn id="56" xr3:uid="{99C2FE99-EDAE-4F01-9ED2-95512B4574FB}" name="Colonna56"/>
-    <tableColumn id="57" xr3:uid="{638F506F-0426-4DFD-A87B-A28ED31AA260}" name="Colonna57"/>
-    <tableColumn id="58" xr3:uid="{C8F66985-EBBC-4FCF-8032-822832F3D172}" name="Colonna58"/>
-    <tableColumn id="59" xr3:uid="{4562A6FD-B85F-48C6-8B32-BA77AD4A14D8}" name="Colonna59"/>
-    <tableColumn id="60" xr3:uid="{D92EC79F-EAE1-4A25-804B-68F6930EEFE5}" name="Colonna60"/>
-    <tableColumn id="61" xr3:uid="{791651E5-73FF-4074-962D-F43959D5F41A}" name="Colonna61"/>
-    <tableColumn id="62" xr3:uid="{1BFBA69A-C5FC-4265-8BA7-EDB124FA5A0A}" name="Colonna62"/>
-    <tableColumn id="63" xr3:uid="{8669ADEA-97BF-4D3C-920C-9D9F7C8FE5C2}" name="Colonna63"/>
-    <tableColumn id="64" xr3:uid="{1BF95B64-FD6F-48E0-AC27-27D6221F83B4}" name="Colonna64"/>
-    <tableColumn id="65" xr3:uid="{E0264749-1CCC-4AFF-B977-38799E20CA23}" name="Colonna65"/>
-    <tableColumn id="66" xr3:uid="{0ED1D8E5-7EB4-4E03-BFFF-0B72D797EC14}" name="Colonna66"/>
-    <tableColumn id="67" xr3:uid="{0F841082-A00A-434F-B65F-3136819F147C}" name="Colonna67"/>
-    <tableColumn id="68" xr3:uid="{D7928FB1-1585-494F-9111-6040D63F5A29}" name="Colonna68"/>
-    <tableColumn id="69" xr3:uid="{5CDA26B7-B4C7-4DE8-B8E2-661989279FF5}" name="Colonna69"/>
-    <tableColumn id="70" xr3:uid="{C4F959F7-EEA6-4053-8D43-8E6B1205DAEE}" name="Colonna70"/>
-    <tableColumn id="71" xr3:uid="{E57CD1EB-9AF1-433E-830E-0F73F9059F3A}" name="Colonna71"/>
-    <tableColumn id="72" xr3:uid="{81E2AC05-08A6-483C-914B-2E9E13AC4D01}" name="Colonna72"/>
-    <tableColumn id="73" xr3:uid="{B1C1244D-DCE4-46D9-AE7F-34A915048A93}" name="Colonna73"/>
-    <tableColumn id="74" xr3:uid="{CBAAB737-C8D4-4339-AF0E-0EC58F323145}" name="Colonna74"/>
-    <tableColumn id="75" xr3:uid="{C70D1860-9EE7-4E1C-90F4-E810D54107A8}" name="Colonna75"/>
-    <tableColumn id="76" xr3:uid="{0B6A33C3-907A-4774-93B5-0C9E4884751B}" name="Colonna76"/>
-    <tableColumn id="77" xr3:uid="{857AE10B-66C6-471D-941F-F1117F0AC515}" name="Colonna77"/>
-    <tableColumn id="78" xr3:uid="{32C0A9AF-5789-4DD8-A354-A95C845455C4}" name="Colonna78"/>
-    <tableColumn id="79" xr3:uid="{BAEF2E76-0B19-42F6-A6FD-2A37EF87A7F1}" name="Colonna79"/>
-    <tableColumn id="80" xr3:uid="{B512BE24-AF4D-413E-905E-42EC63649C9B}" name="Colonna80"/>
-    <tableColumn id="81" xr3:uid="{B4798D7F-B4F4-4EF5-8AF2-C227BF6BEAFB}" name="Colonna81"/>
-    <tableColumn id="82" xr3:uid="{8EF937F7-D8CE-4C15-B756-8A5185D15582}" name="Colonna82"/>
-    <tableColumn id="83" xr3:uid="{0EDC6303-87C8-4535-B252-CDEC7B0A6A3D}" name="Colonna83"/>
-    <tableColumn id="84" xr3:uid="{AEBF63B5-CCB3-489D-8B08-5DAE5C9889F6}" name="Colonna84"/>
-    <tableColumn id="85" xr3:uid="{D4C6970E-B9D7-46F8-8725-98E40168F42C}" name="Colonna85"/>
-    <tableColumn id="86" xr3:uid="{E552D410-AE16-4D07-8EC7-90BF77D8C599}" name="Colonna86"/>
-    <tableColumn id="87" xr3:uid="{625DFEFC-1B10-427B-AD94-94B948B67603}" name="Colonna87"/>
+    <tableColumn id="1" xr3:uid="{0EF2E770-1752-4641-85BA-AF768F96EB2C}" name="NAME" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{7700FB12-63EA-4ABA-AB95-731E7ECAAC7D}" name="ATK SKIP" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{D973E7BC-5474-455A-8D23-F3E7679E3DAE}" name="ZERO WAR  ATK" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{332DFDF5-E2C0-4E6A-9D28-6CA5CF7E8D3E}" name="TOT WARS" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{3922FF77-05B3-4852-BC79-4460D5A13091}" name="TOT STARS" dataDxfId="1">
+      <calculatedColumnFormula>SUM(G2:M2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{0F6B5768-3F32-468D-B833-303BD4179BD2}" name="AVG STAR" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(G2:M2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{376A0512-F474-4CFF-8C69-D521A2E8282B}" name="WAR-1 (1)" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{E37E47C7-4EDE-43BC-8ED9-2D2AE2F9E63B}" name="WAR-1 (2)" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{6DBCEF93-512C-45A9-B082-1851EC958F4B}" name="WAR-2 (1)" dataDxfId="82"/>
+    <tableColumn id="10" xr3:uid="{91DE97F5-8BA7-4331-8862-54D3FBDB73EA}" name="WAR-2 (2)" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{EC532579-06C4-4FF2-82FC-307D86BB24BD}" name="Colonna11" dataDxfId="80"/>
+    <tableColumn id="12" xr3:uid="{5BD5FC70-A326-4310-BEE3-FA83ACEF5E0E}" name="Colonna12" dataDxfId="79"/>
+    <tableColumn id="13" xr3:uid="{290FE366-F9C2-47A9-8560-3E43AC71D7BD}" name="Colonna13" dataDxfId="78"/>
+    <tableColumn id="14" xr3:uid="{3761D2F3-C126-4E7A-9184-8769ACAD7414}" name="Colonna14" dataDxfId="77"/>
+    <tableColumn id="15" xr3:uid="{1DE69A51-8060-4FE2-9A7F-B25F0B656AFC}" name="Colonna15" dataDxfId="76"/>
+    <tableColumn id="16" xr3:uid="{C8D3533A-AF90-4393-AD46-CDE8FB2E9E71}" name="Colonna16" dataDxfId="75"/>
+    <tableColumn id="17" xr3:uid="{A352C3C5-F8A8-4B54-BCB4-C5B00F5DA941}" name="Colonna17" dataDxfId="74"/>
+    <tableColumn id="18" xr3:uid="{FC8D5AC5-A191-4BDE-8BED-4858577379BC}" name="Colonna18" dataDxfId="73"/>
+    <tableColumn id="19" xr3:uid="{108D4001-D141-4CD5-9507-C1358BFC8B5A}" name="Colonna19" dataDxfId="72"/>
+    <tableColumn id="20" xr3:uid="{A80AF7DF-5078-4F70-9C8A-F1DBDB344EE2}" name="Colonna20" dataDxfId="71"/>
+    <tableColumn id="21" xr3:uid="{6DFF097C-5E78-42C7-802F-25FD85BF34EB}" name="Colonna21" dataDxfId="70"/>
+    <tableColumn id="22" xr3:uid="{360AFEF1-7881-473A-A5FB-6703D940E7BF}" name="Colonna22" dataDxfId="69"/>
+    <tableColumn id="23" xr3:uid="{FC402F78-186F-40BE-87B9-A4A8DFF11E14}" name="Colonna23" dataDxfId="68"/>
+    <tableColumn id="24" xr3:uid="{87677C85-73FC-4035-A4D8-122A91554F53}" name="Colonna24" dataDxfId="67"/>
+    <tableColumn id="25" xr3:uid="{B3DB419E-5602-416B-B7F9-E376441BEB88}" name="Colonna25" dataDxfId="66"/>
+    <tableColumn id="26" xr3:uid="{7995E8D9-B284-4793-A16C-E6F5A85B87F7}" name="Colonna26" dataDxfId="65"/>
+    <tableColumn id="27" xr3:uid="{C8EFA8C1-99BB-4F34-8AD3-8537A15CEA13}" name="Colonna27" dataDxfId="64"/>
+    <tableColumn id="28" xr3:uid="{F9CF1DF5-D3FC-4CD2-9BE5-4610806C9BBB}" name="Colonna28" dataDxfId="63"/>
+    <tableColumn id="29" xr3:uid="{6F0EFA45-DD34-4A6A-A928-263B3F3B42E4}" name="Colonna29" dataDxfId="62"/>
+    <tableColumn id="30" xr3:uid="{CB559727-A40B-4944-9D52-7649F5FAF1EA}" name="Colonna30" dataDxfId="61"/>
+    <tableColumn id="31" xr3:uid="{701EA7E0-95E0-47FC-8D0E-4F262430A37D}" name="Colonna31" dataDxfId="60"/>
+    <tableColumn id="32" xr3:uid="{A933180B-2642-4730-B753-229145E1EF41}" name="Colonna32" dataDxfId="59"/>
+    <tableColumn id="33" xr3:uid="{3573333E-9754-4F23-8CDC-D1306F9BF268}" name="Colonna33" dataDxfId="58"/>
+    <tableColumn id="34" xr3:uid="{EC47DFDD-5E7A-4620-B3BB-AFB992D52395}" name="Colonna34" dataDxfId="57"/>
+    <tableColumn id="35" xr3:uid="{AA21E8AB-AB7F-42D5-96D3-B74237A2014C}" name="Colonna35" dataDxfId="56"/>
+    <tableColumn id="36" xr3:uid="{C9FB4DCF-BF28-4AE1-A7CF-8ABB51DB12CE}" name="Colonna36" dataDxfId="55"/>
+    <tableColumn id="37" xr3:uid="{E034E0DF-52D6-4B2B-8593-89C7BD38C5D2}" name="Colonna37" dataDxfId="54"/>
+    <tableColumn id="38" xr3:uid="{693B6181-DA2C-4B2F-9889-532878D25528}" name="Colonna38" dataDxfId="53"/>
+    <tableColumn id="39" xr3:uid="{3502DF4E-4ED6-41A7-969E-88CCC7B187AF}" name="Colonna39" dataDxfId="52"/>
+    <tableColumn id="40" xr3:uid="{F2354E38-61A3-4D8B-AD7A-925179F7CB6D}" name="Colonna40" dataDxfId="51"/>
+    <tableColumn id="41" xr3:uid="{89374DDF-FC75-4E39-8FA9-B58FCCDE25EE}" name="Colonna41" dataDxfId="50"/>
+    <tableColumn id="42" xr3:uid="{F270E42D-CD1C-4E23-AC89-B8C21EC3F3E0}" name="Colonna42" dataDxfId="49"/>
+    <tableColumn id="43" xr3:uid="{F957FB97-E69A-4AF2-B828-BC36EFBAF1C7}" name="Colonna43" dataDxfId="48"/>
+    <tableColumn id="44" xr3:uid="{8AA72C31-4181-4378-8207-491062F0E3EC}" name="Colonna44" dataDxfId="47"/>
+    <tableColumn id="45" xr3:uid="{69E342D7-7C24-4442-A6D5-BE116FD22054}" name="Colonna45" dataDxfId="46"/>
+    <tableColumn id="46" xr3:uid="{6B2864A9-B388-4422-9440-AD11780FCDD6}" name="Colonna46" dataDxfId="45"/>
+    <tableColumn id="47" xr3:uid="{19B5D526-813F-4596-A72A-AB90941FB1D7}" name="Colonna47" dataDxfId="44"/>
+    <tableColumn id="48" xr3:uid="{DBF1BD23-6353-412A-8662-485BEBB03F86}" name="Colonna48" dataDxfId="43"/>
+    <tableColumn id="49" xr3:uid="{27E8288F-06CF-49EB-B94E-3FEBCA7B0510}" name="Colonna49" dataDxfId="42"/>
+    <tableColumn id="50" xr3:uid="{06E74F8A-60BC-49D6-B40F-E720C8B2041D}" name="Colonna50" dataDxfId="41"/>
+    <tableColumn id="51" xr3:uid="{73FA2BF0-26B2-4E2F-AEA3-E3B5405F15BE}" name="Colonna51" dataDxfId="40"/>
+    <tableColumn id="52" xr3:uid="{4EB236AA-EF57-461D-B29F-9035D272A5EA}" name="Colonna52" dataDxfId="39"/>
+    <tableColumn id="53" xr3:uid="{7899778E-7F35-4B84-B1F7-1E247FA55D25}" name="Colonna53" dataDxfId="38"/>
+    <tableColumn id="54" xr3:uid="{E9D49300-A3C5-47CE-9A98-A85CC8C75A45}" name="Colonna54" dataDxfId="37"/>
+    <tableColumn id="55" xr3:uid="{0613756B-161C-409C-9A6A-25B7A080F421}" name="Colonna55" dataDxfId="36"/>
+    <tableColumn id="56" xr3:uid="{99C2FE99-EDAE-4F01-9ED2-95512B4574FB}" name="Colonna56" dataDxfId="35"/>
+    <tableColumn id="57" xr3:uid="{638F506F-0426-4DFD-A87B-A28ED31AA260}" name="Colonna57" dataDxfId="34"/>
+    <tableColumn id="58" xr3:uid="{C8F66985-EBBC-4FCF-8032-822832F3D172}" name="Colonna58" dataDxfId="33"/>
+    <tableColumn id="59" xr3:uid="{4562A6FD-B85F-48C6-8B32-BA77AD4A14D8}" name="Colonna59" dataDxfId="32"/>
+    <tableColumn id="60" xr3:uid="{D92EC79F-EAE1-4A25-804B-68F6930EEFE5}" name="Colonna60" dataDxfId="31"/>
+    <tableColumn id="61" xr3:uid="{791651E5-73FF-4074-962D-F43959D5F41A}" name="Colonna61" dataDxfId="30"/>
+    <tableColumn id="62" xr3:uid="{1BFBA69A-C5FC-4265-8BA7-EDB124FA5A0A}" name="Colonna62" dataDxfId="29"/>
+    <tableColumn id="63" xr3:uid="{8669ADEA-97BF-4D3C-920C-9D9F7C8FE5C2}" name="Colonna63" dataDxfId="28"/>
+    <tableColumn id="64" xr3:uid="{1BF95B64-FD6F-48E0-AC27-27D6221F83B4}" name="Colonna64" dataDxfId="27"/>
+    <tableColumn id="65" xr3:uid="{E0264749-1CCC-4AFF-B977-38799E20CA23}" name="Colonna65" dataDxfId="26"/>
+    <tableColumn id="66" xr3:uid="{0ED1D8E5-7EB4-4E03-BFFF-0B72D797EC14}" name="Colonna66" dataDxfId="25"/>
+    <tableColumn id="67" xr3:uid="{0F841082-A00A-434F-B65F-3136819F147C}" name="Colonna67" dataDxfId="24"/>
+    <tableColumn id="68" xr3:uid="{D7928FB1-1585-494F-9111-6040D63F5A29}" name="Colonna68" dataDxfId="23"/>
+    <tableColumn id="69" xr3:uid="{5CDA26B7-B4C7-4DE8-B8E2-661989279FF5}" name="Colonna69" dataDxfId="22"/>
+    <tableColumn id="70" xr3:uid="{C4F959F7-EEA6-4053-8D43-8E6B1205DAEE}" name="Colonna70" dataDxfId="21"/>
+    <tableColumn id="71" xr3:uid="{E57CD1EB-9AF1-433E-830E-0F73F9059F3A}" name="Colonna71" dataDxfId="20"/>
+    <tableColumn id="72" xr3:uid="{81E2AC05-08A6-483C-914B-2E9E13AC4D01}" name="Colonna72" dataDxfId="19"/>
+    <tableColumn id="73" xr3:uid="{B1C1244D-DCE4-46D9-AE7F-34A915048A93}" name="Colonna73" dataDxfId="18"/>
+    <tableColumn id="74" xr3:uid="{CBAAB737-C8D4-4339-AF0E-0EC58F323145}" name="Colonna74" dataDxfId="17"/>
+    <tableColumn id="75" xr3:uid="{C70D1860-9EE7-4E1C-90F4-E810D54107A8}" name="Colonna75" dataDxfId="16"/>
+    <tableColumn id="76" xr3:uid="{0B6A33C3-907A-4774-93B5-0C9E4884751B}" name="Colonna76" dataDxfId="15"/>
+    <tableColumn id="77" xr3:uid="{857AE10B-66C6-471D-941F-F1117F0AC515}" name="Colonna77" dataDxfId="14"/>
+    <tableColumn id="78" xr3:uid="{32C0A9AF-5789-4DD8-A354-A95C845455C4}" name="Colonna78" dataDxfId="13"/>
+    <tableColumn id="79" xr3:uid="{BAEF2E76-0B19-42F6-A6FD-2A37EF87A7F1}" name="Colonna79" dataDxfId="12"/>
+    <tableColumn id="80" xr3:uid="{B512BE24-AF4D-413E-905E-42EC63649C9B}" name="Colonna80" dataDxfId="11"/>
+    <tableColumn id="81" xr3:uid="{B4798D7F-B4F4-4EF5-8AF2-C227BF6BEAFB}" name="Colonna81" dataDxfId="10"/>
+    <tableColumn id="82" xr3:uid="{8EF937F7-D8CE-4C15-B756-8A5185D15582}" name="Colonna82" dataDxfId="9"/>
+    <tableColumn id="83" xr3:uid="{0EDC6303-87C8-4535-B252-CDEC7B0A6A3D}" name="Colonna83" dataDxfId="8"/>
+    <tableColumn id="84" xr3:uid="{AEBF63B5-CCB3-489D-8B08-5DAE5C9889F6}" name="Colonna84" dataDxfId="7"/>
+    <tableColumn id="85" xr3:uid="{D4C6970E-B9D7-46F8-8725-98E40168F42C}" name="Colonna85" dataDxfId="6"/>
+    <tableColumn id="86" xr3:uid="{E552D410-AE16-4D07-8EC7-90BF77D8C599}" name="Colonna86" dataDxfId="5"/>
+    <tableColumn id="87" xr3:uid="{625DFEFC-1B10-427B-AD94-94B948B67603}" name="Colonna87" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3738,2193 +4054,2193 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="42"/>
-    <col min="2" max="2" width="22" style="42" customWidth="1"/>
-    <col min="3" max="20" width="9.140625" style="42" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9.140625" style="43" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="42" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="44" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="9.140625" style="39"/>
+    <col min="2" max="2" width="22" style="39" customWidth="1"/>
+    <col min="3" max="20" width="9.140625" style="39" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9.140625" style="40" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="39" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="41" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="64"/>
-      <c r="C1" s="84">
-        <v>1</v>
-      </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="84">
-        <v>2</v>
-      </c>
-      <c r="G1" s="85"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="84">
-        <v>3</v>
-      </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="84">
+      <c r="B1" s="61"/>
+      <c r="C1" s="80">
+        <v>1</v>
+      </c>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="80">
+        <v>2</v>
+      </c>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="80">
+        <v>3</v>
+      </c>
+      <c r="J1" s="81"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="80">
         <v>4</v>
       </c>
-      <c r="M1" s="85"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="84">
+      <c r="M1" s="81"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="80">
         <v>5</v>
       </c>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="84">
+      <c r="P1" s="81"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="80">
         <v>6</v>
       </c>
-      <c r="S1" s="85"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="84">
+      <c r="S1" s="81"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="80">
         <v>7</v>
       </c>
-      <c r="V1" s="85"/>
-      <c r="W1" s="86"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="82"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="40" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="U2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
+      <c r="A3" s="39">
         <v>16</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="42">
+      <c r="B3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="39">
         <f>avv!A1-A3</f>
         <v>-1</v>
       </c>
-      <c r="E3" s="57">
-        <v>3</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="42">
+      <c r="E3" s="54">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="39">
         <f>avv!B1-A3</f>
         <v>2</v>
       </c>
-      <c r="H3" s="44">
-        <v>3</v>
-      </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="42">
+      <c r="H3" s="41">
+        <v>3</v>
+      </c>
+      <c r="I3" s="40"/>
+      <c r="J3" s="39">
         <f>avv!C1-A3</f>
         <v>2</v>
       </c>
-      <c r="K3" s="44">
-        <v>2</v>
-      </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="42">
+      <c r="K3" s="41">
+        <v>2</v>
+      </c>
+      <c r="L3" s="40"/>
+      <c r="M3" s="39">
         <f>avv!D1-A3</f>
         <v>1</v>
       </c>
-      <c r="N3" s="44">
-        <v>3</v>
-      </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="42">
+      <c r="N3" s="41">
+        <v>3</v>
+      </c>
+      <c r="O3" s="40"/>
+      <c r="P3" s="39">
         <f>avv!E1-A3</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="44">
-        <v>3</v>
-      </c>
-      <c r="R3" s="43"/>
-      <c r="S3" s="42">
+      <c r="Q3" s="41">
+        <v>3</v>
+      </c>
+      <c r="R3" s="40"/>
+      <c r="S3" s="39">
         <f>avv!F1-A3</f>
         <v>0</v>
       </c>
-      <c r="T3" s="42">
-        <v>3</v>
-      </c>
-      <c r="V3" s="42">
+      <c r="T3" s="39">
+        <v>3</v>
+      </c>
+      <c r="V3" s="39">
         <f>avv!G1-A3</f>
         <v>-1</v>
       </c>
-      <c r="W3" s="44">
+      <c r="W3" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
+      <c r="A4" s="39">
         <v>15</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="42">
+      <c r="C4" s="40"/>
+      <c r="D4" s="39">
         <f>avv!A2-A4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="57">
-        <v>3</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="42">
+      <c r="E4" s="54">
+        <v>3</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="39">
         <f>avv!B2-A4</f>
         <v>1</v>
       </c>
-      <c r="H4" s="44">
-        <v>2</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="42">
+      <c r="H4" s="41">
+        <v>2</v>
+      </c>
+      <c r="I4" s="40"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="39">
         <f>avv!E2-A4</f>
         <v>2</v>
       </c>
-      <c r="Q4" s="44">
-        <v>2</v>
-      </c>
-      <c r="R4" s="43"/>
-      <c r="S4" s="42">
+      <c r="Q4" s="41">
+        <v>2</v>
+      </c>
+      <c r="R4" s="40"/>
+      <c r="S4" s="39">
         <f>avv!F2-A4</f>
         <v>1</v>
       </c>
-      <c r="T4" s="42">
-        <v>2</v>
-      </c>
-      <c r="V4" s="42">
+      <c r="T4" s="39">
+        <v>2</v>
+      </c>
+      <c r="V4" s="39">
         <f>avv!G2-A4</f>
         <v>0</v>
       </c>
-      <c r="W4" s="44">
+      <c r="W4" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="A5" s="39">
         <v>15</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="42">
+      <c r="B5" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="39">
         <f>avv!A3-A5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="57">
-        <v>3</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="42">
+      <c r="E5" s="54">
+        <v>3</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="39">
         <f>avv!B3-A5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="44">
-        <v>3</v>
-      </c>
-      <c r="I5" s="43"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="42">
+      <c r="H5" s="41">
+        <v>3</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="39">
         <f>avv!D3-A5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="44">
-        <v>3</v>
-      </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="42">
+      <c r="N5" s="41">
+        <v>3</v>
+      </c>
+      <c r="O5" s="40"/>
+      <c r="P5" s="39">
         <f>avv!E4-A5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="44">
-        <v>3</v>
-      </c>
-      <c r="R5" s="43"/>
-      <c r="S5" s="42">
+      <c r="Q5" s="41">
+        <v>3</v>
+      </c>
+      <c r="R5" s="40"/>
+      <c r="S5" s="39">
         <f>avv!F3-A5</f>
         <v>0</v>
       </c>
-      <c r="T5" s="42">
-        <v>1</v>
-      </c>
-      <c r="V5" s="42">
+      <c r="T5" s="39">
+        <v>1</v>
+      </c>
+      <c r="V5" s="39">
         <f>avv!G3-A5</f>
         <v>-1</v>
       </c>
-      <c r="W5" s="44">
+      <c r="W5" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
+      <c r="A6" s="39">
         <v>13</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="42">
+      <c r="C6" s="53"/>
+      <c r="D6" s="39">
         <f>avv!A4-A6</f>
         <v>2</v>
       </c>
-      <c r="E6" s="57">
-        <v>3</v>
-      </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="42">
+      <c r="E6" s="54">
+        <v>3</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="39">
         <f>avv!C4-A6</f>
         <v>4</v>
       </c>
-      <c r="K6" s="44">
-        <v>1</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="42">
+      <c r="K6" s="41">
+        <v>1</v>
+      </c>
+      <c r="L6" s="40"/>
+      <c r="M6" s="39">
         <f>avv!D4-A6</f>
         <v>2</v>
       </c>
-      <c r="N6" s="44">
-        <v>1</v>
-      </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="42">
+      <c r="N6" s="41">
+        <v>1</v>
+      </c>
+      <c r="O6" s="40"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="39">
         <f>avv!F4-A6</f>
         <v>2</v>
       </c>
-      <c r="T6" s="42">
-        <v>0</v>
-      </c>
-      <c r="V6" s="42">
+      <c r="T6" s="39">
+        <v>0</v>
+      </c>
+      <c r="V6" s="39">
         <f>avv!G4-A6</f>
         <v>1</v>
       </c>
-      <c r="W6" s="44">
+      <c r="W6" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
+      <c r="A7" s="39">
         <v>13</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="42">
+      <c r="C7" s="40"/>
+      <c r="D7" s="39">
         <f>avv!A7-A7</f>
         <v>1</v>
       </c>
-      <c r="E7" s="57">
-        <v>3</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="42">
+      <c r="E7" s="54">
+        <v>3</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39">
         <f>avv!B10-A7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="44">
-        <v>3</v>
-      </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="42">
+      <c r="H7" s="41">
+        <v>3</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="39">
         <f>avv!C7-A7</f>
         <v>2</v>
       </c>
-      <c r="K7" s="44">
-        <v>3</v>
-      </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="42">
+      <c r="K7" s="41">
+        <v>3</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="39">
         <f>avv!D5-A7</f>
         <v>2</v>
       </c>
-      <c r="N7" s="44">
-        <v>3</v>
-      </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="42">
+      <c r="N7" s="41">
+        <v>3</v>
+      </c>
+      <c r="O7" s="40"/>
+      <c r="P7" s="39">
         <f>avv!E5-A7</f>
         <v>2</v>
       </c>
-      <c r="Q7" s="44">
-        <v>3</v>
-      </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="42">
+      <c r="Q7" s="41">
+        <v>3</v>
+      </c>
+      <c r="R7" s="40"/>
+      <c r="S7" s="39">
         <f>avv!F22-A7</f>
         <v>-1</v>
       </c>
-      <c r="T7" s="42">
-        <v>3</v>
-      </c>
-      <c r="V7" s="42">
+      <c r="T7" s="39">
+        <v>3</v>
+      </c>
+      <c r="V7" s="39">
         <f>avv!G5-A7</f>
         <v>1</v>
       </c>
-      <c r="W7" s="44">
+      <c r="W7" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
+      <c r="A8" s="39">
         <v>13</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="51">
         <v>-6</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="39">
         <f>avv!A12-A8</f>
         <v>-2</v>
       </c>
-      <c r="E8" s="57">
-        <v>3</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="42">
+      <c r="E8" s="54">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="39">
         <f>avv!B7-A8</f>
         <v>2</v>
       </c>
-      <c r="H8" s="44">
-        <v>2</v>
-      </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="42">
+      <c r="H8" s="41">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40"/>
+      <c r="J8" s="39">
         <f>avv!C5-A8</f>
         <v>2</v>
       </c>
-      <c r="K8" s="44">
-        <v>1</v>
-      </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="42">
+      <c r="K8" s="41">
+        <v>1</v>
+      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="39">
         <f>avv!D6-A8</f>
         <v>2</v>
       </c>
-      <c r="N8" s="44">
-        <v>2</v>
-      </c>
-      <c r="O8" s="43"/>
-      <c r="P8" s="42">
+      <c r="N8" s="41">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="39">
         <f>avv!E6-A8</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="44">
-        <v>2</v>
-      </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="42">
+      <c r="Q8" s="41">
+        <v>2</v>
+      </c>
+      <c r="R8" s="40"/>
+      <c r="S8" s="39">
         <f>avv!F6-A8</f>
         <v>2</v>
       </c>
-      <c r="T8" s="42">
-        <v>1</v>
-      </c>
-      <c r="V8" s="42">
+      <c r="T8" s="39">
+        <v>1</v>
+      </c>
+      <c r="V8" s="39">
         <f>avv!G6-A8</f>
         <v>0</v>
       </c>
-      <c r="W8" s="44">
+      <c r="W8" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
+      <c r="A9" s="39">
         <v>13</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="58">
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="55">
         <f>avv!F7-A9</f>
         <v>2</v>
       </c>
-      <c r="V9" s="42">
+      <c r="V9" s="39">
         <f>avv!G7-A9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
+      <c r="A10" s="39">
         <v>13</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42">
+      <c r="C10" s="40"/>
+      <c r="D10" s="39">
         <f>avv!A8-A10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="57">
-        <v>2</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="42">
+      <c r="E10" s="54">
+        <v>2</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="39">
         <f>avv!B8-A10</f>
         <v>2</v>
       </c>
-      <c r="H10" s="44">
-        <v>1</v>
-      </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="42">
+      <c r="H10" s="41">
+        <v>1</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="39">
         <f>avv!C8-A10</f>
         <v>1</v>
       </c>
-      <c r="K10" s="44">
-        <v>3</v>
-      </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="42">
+      <c r="K10" s="41">
+        <v>3</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="39">
         <f>avv!D8-A10</f>
         <v>2</v>
       </c>
-      <c r="N10" s="44">
-        <v>2</v>
-      </c>
-      <c r="O10" s="43"/>
-      <c r="P10" s="42">
+      <c r="N10" s="41">
+        <v>2</v>
+      </c>
+      <c r="O10" s="40"/>
+      <c r="P10" s="39">
         <f>avv!E10-A10</f>
         <v>-1</v>
       </c>
-      <c r="Q10" s="44">
-        <v>3</v>
-      </c>
-      <c r="R10" s="43"/>
-      <c r="S10" s="42">
+      <c r="Q10" s="41">
+        <v>3</v>
+      </c>
+      <c r="R10" s="40"/>
+      <c r="S10" s="39">
         <f>avv!F8-A10</f>
         <v>2</v>
       </c>
-      <c r="T10" s="42">
-        <v>2</v>
-      </c>
-      <c r="V10" s="42">
+      <c r="T10" s="39">
+        <v>2</v>
+      </c>
+      <c r="V10" s="39">
         <f>avv!G8-A10</f>
         <v>0</v>
       </c>
-      <c r="W10" s="44">
+      <c r="W10" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
+      <c r="A11" s="39">
         <v>13</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="42">
+      <c r="C11" s="40"/>
+      <c r="D11" s="39">
         <f>avv!A9-A11</f>
         <v>-1</v>
       </c>
-      <c r="E11" s="57">
-        <v>3</v>
-      </c>
-      <c r="G11" s="42">
+      <c r="E11" s="54">
+        <v>3</v>
+      </c>
+      <c r="G11" s="39">
         <f>avv!B9-A11</f>
         <v>1</v>
       </c>
-      <c r="H11" s="42">
-        <v>2</v>
-      </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="42">
+      <c r="H11" s="39">
+        <v>2</v>
+      </c>
+      <c r="I11" s="40"/>
+      <c r="J11" s="39">
         <f>avv!C9-A11</f>
         <v>1</v>
       </c>
-      <c r="K11" s="44">
-        <v>2</v>
-      </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="42">
+      <c r="K11" s="41">
+        <v>2</v>
+      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="39">
         <f>avv!D9-A11</f>
         <v>1</v>
       </c>
-      <c r="N11" s="73">
-        <v>1</v>
-      </c>
-      <c r="O11" s="43"/>
-      <c r="P11" s="42">
+      <c r="N11" s="70">
+        <v>1</v>
+      </c>
+      <c r="O11" s="40"/>
+      <c r="P11" s="39">
         <f>avv!E9-A11</f>
         <v>-1</v>
       </c>
-      <c r="Q11" s="44">
-        <v>3</v>
-      </c>
-      <c r="R11" s="43"/>
-      <c r="S11" s="42">
+      <c r="Q11" s="41">
+        <v>3</v>
+      </c>
+      <c r="R11" s="40"/>
+      <c r="S11" s="39">
         <f>avv!F9-A11</f>
         <v>2</v>
       </c>
-      <c r="T11" s="42">
-        <v>2</v>
-      </c>
-      <c r="V11" s="42">
+      <c r="T11" s="39">
+        <v>2</v>
+      </c>
+      <c r="V11" s="39">
         <f>avv!G9-A11</f>
         <v>0</v>
       </c>
-      <c r="W11" s="44">
+      <c r="W11" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
+      <c r="A12" s="39">
         <v>13</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="42">
+      <c r="C12" s="40"/>
+      <c r="D12" s="39">
         <f>avv!A10-A12</f>
         <v>-1</v>
       </c>
-      <c r="E12" s="55">
-        <v>2</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="43"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="42">
+      <c r="E12" s="52">
+        <v>2</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="40"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="39">
         <f>avv!D28-A12</f>
         <v>-1</v>
       </c>
-      <c r="N12" s="44">
-        <v>3</v>
-      </c>
-      <c r="O12" s="43"/>
-      <c r="P12" s="42">
+      <c r="N12" s="41">
+        <v>3</v>
+      </c>
+      <c r="O12" s="40"/>
+      <c r="P12" s="39">
         <f>avv!E10-A12</f>
         <v>-1</v>
       </c>
-      <c r="Q12" s="44">
-        <v>2</v>
-      </c>
-      <c r="R12" s="43"/>
-      <c r="S12" s="42">
+      <c r="Q12" s="41">
+        <v>2</v>
+      </c>
+      <c r="R12" s="40"/>
+      <c r="S12" s="39">
         <f>avv!F24-A12</f>
         <v>-1</v>
       </c>
-      <c r="T12" s="42">
-        <v>3</v>
-      </c>
-      <c r="V12" s="42">
+      <c r="T12" s="39">
+        <v>3</v>
+      </c>
+      <c r="V12" s="39">
         <f>avv!G10-A12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
-        <v>12</v>
-      </c>
-      <c r="B13" s="72" t="s">
+      <c r="A13" s="39">
+        <v>12</v>
+      </c>
+      <c r="B13" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="42">
+      <c r="C13" s="40"/>
+      <c r="D13" s="39">
         <f>avv!A20-A13</f>
         <v>-2</v>
       </c>
-      <c r="E13" s="57">
-        <v>3</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="42">
+      <c r="E13" s="54">
+        <v>3</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39">
         <f>avv!B11-A13</f>
         <v>1</v>
       </c>
-      <c r="H13" s="44">
-        <v>2</v>
-      </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="42">
+      <c r="H13" s="41">
+        <v>2</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" s="39">
         <f>avv!C11-A13</f>
         <v>1</v>
       </c>
-      <c r="K13" s="73">
-        <v>1</v>
-      </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="42">
+      <c r="K13" s="70">
+        <v>1</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="39">
         <f>avv!D11-A13</f>
         <v>2</v>
       </c>
-      <c r="N13" s="44">
-        <v>2</v>
-      </c>
-      <c r="O13" s="43"/>
-      <c r="P13" s="42">
+      <c r="N13" s="41">
+        <v>2</v>
+      </c>
+      <c r="O13" s="40"/>
+      <c r="P13" s="39">
         <f>avv!E12-A13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="44">
-        <v>3</v>
-      </c>
-      <c r="R13" s="43"/>
-      <c r="S13" s="42">
+      <c r="Q13" s="41">
+        <v>3</v>
+      </c>
+      <c r="R13" s="40"/>
+      <c r="S13" s="39">
         <f>avv!F11-A13</f>
         <v>2</v>
       </c>
-      <c r="T13" s="42">
-        <v>2</v>
-      </c>
-      <c r="V13" s="42">
+      <c r="T13" s="39">
+        <v>2</v>
+      </c>
+      <c r="V13" s="39">
         <f>avv!G11-A13</f>
         <v>1</v>
       </c>
-      <c r="W13" s="44">
+      <c r="W13" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="42">
-        <v>12</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="42">
+      <c r="A14" s="39">
+        <v>12</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="39">
         <f>avv!A6-A14</f>
         <v>2</v>
       </c>
-      <c r="E14" s="57">
-        <v>2</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="42">
+      <c r="E14" s="54">
+        <v>2</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="39">
         <f>avv!B12-A14</f>
         <v>1</v>
       </c>
-      <c r="H14" s="44">
-        <v>2</v>
-      </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="42">
+      <c r="H14" s="41">
+        <v>2</v>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="39">
         <f>avv!C12-A14</f>
         <v>1</v>
       </c>
-      <c r="K14" s="44">
-        <v>3</v>
-      </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="42">
+      <c r="K14" s="41">
+        <v>3</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="39">
         <f>avv!D12-A14</f>
         <v>2</v>
       </c>
-      <c r="N14" s="44">
-        <v>2</v>
-      </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="42">
+      <c r="N14" s="41">
+        <v>2</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="39">
         <f>avv!E13-A14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="44">
-        <v>3</v>
-      </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="42">
+      <c r="Q14" s="41">
+        <v>3</v>
+      </c>
+      <c r="R14" s="40"/>
+      <c r="S14" s="39">
         <f>avv!F12-A14</f>
         <v>2</v>
       </c>
-      <c r="T14" s="42">
-        <v>2</v>
-      </c>
-      <c r="V14" s="42">
+      <c r="T14" s="39">
+        <v>2</v>
+      </c>
+      <c r="V14" s="39">
         <f>avv!G12-A14</f>
         <v>1</v>
       </c>
-      <c r="W14" s="44">
+      <c r="W14" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
-        <v>12</v>
-      </c>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="39">
+        <v>12</v>
+      </c>
+      <c r="B15" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="42">
+      <c r="C15" s="40"/>
+      <c r="D15" s="39">
         <f>avv!A13-A15</f>
         <v>-1</v>
       </c>
-      <c r="E15" s="57">
-        <v>3</v>
-      </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="42">
+      <c r="E15" s="54">
+        <v>3</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="39">
         <f>avv!B13-A15</f>
         <v>1</v>
       </c>
-      <c r="H15" s="44">
-        <v>3</v>
-      </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="42">
+      <c r="H15" s="41">
+        <v>3</v>
+      </c>
+      <c r="I15" s="40"/>
+      <c r="J15" s="39">
         <f>avv!C13-A15</f>
         <v>1</v>
       </c>
-      <c r="K15" s="44">
-        <v>2</v>
-      </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="42">
+      <c r="K15" s="41">
+        <v>2</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="39">
         <f>avv!D13-A15</f>
         <v>2</v>
       </c>
-      <c r="N15" s="44">
-        <v>2</v>
-      </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="42">
+      <c r="N15" s="41">
+        <v>2</v>
+      </c>
+      <c r="O15" s="40"/>
+      <c r="P15" s="39">
         <f>avv!E17-A15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="44">
-        <v>3</v>
-      </c>
-      <c r="R15" s="43"/>
-      <c r="S15" s="42">
+      <c r="Q15" s="41">
+        <v>3</v>
+      </c>
+      <c r="R15" s="40"/>
+      <c r="S15" s="39">
         <f>avv!F13-A15</f>
         <v>1</v>
       </c>
-      <c r="T15" s="42">
-        <v>1</v>
-      </c>
-      <c r="V15" s="42">
+      <c r="T15" s="39">
+        <v>1</v>
+      </c>
+      <c r="V15" s="39">
         <f>avv!G13-A15</f>
         <v>1</v>
       </c>
-      <c r="W15" s="44">
+      <c r="W15" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="42">
+      <c r="A16" s="39">
         <v>13</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="42">
+      <c r="C16" s="40"/>
+      <c r="D16" s="39">
         <f>avv!A15-A16</f>
         <v>-2</v>
       </c>
-      <c r="E16" s="57">
-        <v>3</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="42">
+      <c r="E16" s="54">
+        <v>3</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="39">
         <f>avv!B14-A16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="44">
-        <v>3</v>
-      </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="42">
+      <c r="H16" s="41">
+        <v>3</v>
+      </c>
+      <c r="I16" s="40"/>
+      <c r="J16" s="39">
         <f>avv!C15-A16</f>
         <v>0</v>
       </c>
-      <c r="K16" s="55">
-        <v>1</v>
-      </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="42">
+      <c r="K16" s="52">
+        <v>1</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="39">
         <f>avv!D14-A16</f>
         <v>1</v>
       </c>
-      <c r="N16" s="44">
-        <v>1</v>
-      </c>
-      <c r="O16" s="43"/>
-      <c r="P16" s="42">
+      <c r="N16" s="41">
+        <v>1</v>
+      </c>
+      <c r="O16" s="40"/>
+      <c r="P16" s="39">
         <f>avv!E14-A16</f>
         <v>-1</v>
       </c>
-      <c r="Q16" s="55">
-        <v>2</v>
-      </c>
-      <c r="R16" s="43"/>
-      <c r="S16" s="42">
+      <c r="Q16" s="52">
+        <v>2</v>
+      </c>
+      <c r="R16" s="40"/>
+      <c r="S16" s="39">
         <f>avv!F14-A16</f>
         <v>0</v>
       </c>
-      <c r="T16" s="42">
-        <v>2</v>
-      </c>
-      <c r="V16" s="42">
+      <c r="T16" s="39">
+        <v>2</v>
+      </c>
+      <c r="V16" s="39">
         <f>avv!G14-A16</f>
         <v>0</v>
       </c>
-      <c r="W16" s="44">
+      <c r="W16" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="42">
-        <v>12</v>
-      </c>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="39">
+        <v>12</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="42">
+      <c r="C17" s="40"/>
+      <c r="D17" s="39">
         <f>avv!A14-A17</f>
         <v>-1</v>
       </c>
-      <c r="E17" s="57">
-        <v>3</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="42">
+      <c r="E17" s="54">
+        <v>3</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="39">
         <f>avv!B16-A17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="44">
-        <v>3</v>
-      </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="42">
+      <c r="H17" s="41">
+        <v>3</v>
+      </c>
+      <c r="I17" s="40"/>
+      <c r="J17" s="39">
         <f>avv!C14-A17</f>
         <v>1</v>
       </c>
-      <c r="K17" s="44">
-        <v>3</v>
-      </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="42">
+      <c r="K17" s="41">
+        <v>3</v>
+      </c>
+      <c r="L17" s="40"/>
+      <c r="M17" s="39">
         <f>avv!D15-A17</f>
         <v>2</v>
       </c>
-      <c r="N17" s="44">
-        <v>2</v>
-      </c>
-      <c r="O17" s="43"/>
-      <c r="P17" s="42">
+      <c r="N17" s="41">
+        <v>2</v>
+      </c>
+      <c r="O17" s="40"/>
+      <c r="P17" s="39">
         <f>avv!E15-A17</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="44">
-        <v>3</v>
-      </c>
-      <c r="R17" s="43"/>
-      <c r="S17" s="42">
+      <c r="Q17" s="41">
+        <v>3</v>
+      </c>
+      <c r="R17" s="40"/>
+      <c r="S17" s="39">
         <f>avv!F15-A17</f>
         <v>1</v>
       </c>
-      <c r="T17" s="42">
-        <v>2</v>
-      </c>
-      <c r="V17" s="42">
+      <c r="T17" s="39">
+        <v>2</v>
+      </c>
+      <c r="V17" s="39">
         <f>avv!G15-A17</f>
         <v>1</v>
       </c>
-      <c r="W17" s="44">
+      <c r="W17" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="42">
-        <v>12</v>
-      </c>
-      <c r="B18" s="72" t="s">
+      <c r="A18" s="39">
+        <v>12</v>
+      </c>
+      <c r="B18" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="42">
+      <c r="C18" s="40"/>
+      <c r="D18" s="39">
         <f>avv!A16-A18</f>
         <v>-1</v>
       </c>
-      <c r="E18" s="57">
-        <v>3</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="42">
+      <c r="E18" s="54">
+        <v>3</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="39">
         <f>avv!B17-A18</f>
         <v>1</v>
       </c>
-      <c r="H18" s="44">
-        <v>3</v>
-      </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="42">
+      <c r="H18" s="41">
+        <v>3</v>
+      </c>
+      <c r="I18" s="40"/>
+      <c r="J18" s="39">
         <f>avv!C16-A18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="44">
-        <v>3</v>
-      </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="42">
+      <c r="K18" s="41">
+        <v>3</v>
+      </c>
+      <c r="L18" s="40"/>
+      <c r="M18" s="39">
         <f>avv!D16-A18</f>
         <v>1</v>
       </c>
-      <c r="N18" s="44">
-        <v>2</v>
-      </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="42">
+      <c r="N18" s="41">
+        <v>2</v>
+      </c>
+      <c r="O18" s="40"/>
+      <c r="P18" s="39">
         <f>avv!E16-A18</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="44">
-        <v>3</v>
-      </c>
-      <c r="R18" s="43"/>
-      <c r="S18" s="42">
+      <c r="Q18" s="41">
+        <v>3</v>
+      </c>
+      <c r="R18" s="40"/>
+      <c r="S18" s="39">
         <f>avv!F16-A18</f>
         <v>1</v>
       </c>
-      <c r="T18" s="72">
-        <v>1</v>
-      </c>
-      <c r="V18" s="42">
+      <c r="T18" s="69">
+        <v>1</v>
+      </c>
+      <c r="V18" s="39">
         <f>avv!G16-A18</f>
         <v>1</v>
       </c>
-      <c r="W18" s="44">
+      <c r="W18" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
-        <v>12</v>
-      </c>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="39">
+        <v>12</v>
+      </c>
+      <c r="B19" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="42">
+      <c r="C19" s="74"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="39">
         <f>avv!E28-A19</f>
         <v>-1</v>
       </c>
-      <c r="Q19" s="44">
-        <v>1</v>
-      </c>
-      <c r="R19" s="43"/>
-      <c r="S19" s="42">
+      <c r="Q19" s="41">
+        <v>1</v>
+      </c>
+      <c r="R19" s="40"/>
+      <c r="S19" s="39">
         <f>avv!F28-A19</f>
         <v>-1</v>
       </c>
-      <c r="T19" s="42">
-        <v>1</v>
-      </c>
-      <c r="V19" s="42">
+      <c r="T19" s="39">
+        <v>1</v>
+      </c>
+      <c r="V19" s="39">
         <f>avv!G17-A19</f>
         <v>1</v>
       </c>
-      <c r="W19" s="44">
+      <c r="W19" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="42">
-        <v>12</v>
-      </c>
-      <c r="B20" s="72" t="s">
+      <c r="A20" s="39">
+        <v>12</v>
+      </c>
+      <c r="B20" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="42">
+      <c r="C20" s="40"/>
+      <c r="D20" s="39">
         <f>avv!A17-A20</f>
         <v>-1</v>
       </c>
-      <c r="E20" s="57">
-        <v>3</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="42">
+      <c r="E20" s="54">
+        <v>3</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39">
         <f>avv!B18-A20</f>
         <v>1</v>
       </c>
-      <c r="H20" s="73">
-        <v>1</v>
-      </c>
-      <c r="J20" s="42">
+      <c r="H20" s="70">
+        <v>1</v>
+      </c>
+      <c r="J20" s="39">
         <f>avv!C17-A20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="42">
-        <v>3</v>
-      </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="42">
+      <c r="K20" s="39">
+        <v>3</v>
+      </c>
+      <c r="L20" s="40"/>
+      <c r="M20" s="39">
         <f>avv!D17-A20</f>
         <v>1</v>
       </c>
-      <c r="N20" s="44">
-        <v>2</v>
-      </c>
-      <c r="P20" s="42">
+      <c r="N20" s="41">
+        <v>2</v>
+      </c>
+      <c r="P20" s="39">
         <f>avv!E17-A20</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="42">
-        <v>3</v>
-      </c>
-      <c r="R20" s="43"/>
-      <c r="S20" s="42">
+      <c r="Q20" s="39">
+        <v>3</v>
+      </c>
+      <c r="R20" s="40"/>
+      <c r="S20" s="39">
         <f>avv!F17-A20</f>
         <v>1</v>
       </c>
-      <c r="T20" s="42">
-        <v>1</v>
-      </c>
-      <c r="V20" s="42">
+      <c r="T20" s="39">
+        <v>1</v>
+      </c>
+      <c r="V20" s="39">
         <f>avv!G18-A20</f>
         <v>1</v>
       </c>
-      <c r="W20" s="44">
+      <c r="W20" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="42">
-        <v>12</v>
-      </c>
-      <c r="B21" s="66" t="s">
+      <c r="A21" s="39">
+        <v>12</v>
+      </c>
+      <c r="B21" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="42">
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="39">
         <f>avv!C19-A21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="44">
-        <v>2</v>
-      </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="42">
+      <c r="K21" s="41">
+        <v>2</v>
+      </c>
+      <c r="L21" s="40"/>
+      <c r="M21" s="39">
         <f>avv!D19-A21</f>
         <v>1</v>
       </c>
-      <c r="N21" s="44">
-        <v>3</v>
-      </c>
-      <c r="O21" s="43"/>
-      <c r="P21" s="42">
+      <c r="N21" s="41">
+        <v>3</v>
+      </c>
+      <c r="O21" s="40"/>
+      <c r="P21" s="39">
         <f>avv!E19-A21</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="44">
-        <v>3</v>
-      </c>
-      <c r="R21" s="43"/>
-      <c r="S21" s="42">
+      <c r="Q21" s="41">
+        <v>3</v>
+      </c>
+      <c r="R21" s="40"/>
+      <c r="S21" s="39">
         <f>avv!F19-A21</f>
         <v>1</v>
       </c>
-      <c r="T21" s="42">
-        <v>3</v>
-      </c>
-      <c r="V21" s="42">
+      <c r="T21" s="39">
+        <v>3</v>
+      </c>
+      <c r="V21" s="39">
         <f>avv!G19-A21</f>
         <v>1</v>
       </c>
-      <c r="W21" s="44">
+      <c r="W21" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="42">
-        <v>12</v>
-      </c>
-      <c r="B22" s="72" t="s">
+      <c r="A22" s="39">
+        <v>12</v>
+      </c>
+      <c r="B22" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="42">
+      <c r="C22" s="40"/>
+      <c r="D22" s="39">
         <f>avv!A18-A22</f>
         <v>-1</v>
       </c>
-      <c r="E22" s="57">
-        <v>3</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="42">
+      <c r="E22" s="54">
+        <v>3</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="39">
         <f>avv!B19-A22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="44">
-        <v>3</v>
-      </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="42">
+      <c r="H22" s="41">
+        <v>3</v>
+      </c>
+      <c r="I22" s="40"/>
+      <c r="J22" s="39">
         <f>avv!C18-A22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="44">
-        <v>3</v>
-      </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="42">
+      <c r="K22" s="41">
+        <v>3</v>
+      </c>
+      <c r="L22" s="40"/>
+      <c r="M22" s="39">
         <f>avv!D18-A22</f>
         <v>1</v>
       </c>
-      <c r="N22" s="73">
-        <v>1</v>
-      </c>
-      <c r="O22" s="43"/>
-      <c r="P22" s="42">
+      <c r="N22" s="70">
+        <v>1</v>
+      </c>
+      <c r="O22" s="40"/>
+      <c r="P22" s="39">
         <f>avv!E18-A22</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="44">
-        <v>3</v>
-      </c>
-      <c r="R22" s="43"/>
-      <c r="S22" s="42">
+      <c r="Q22" s="41">
+        <v>3</v>
+      </c>
+      <c r="R22" s="40"/>
+      <c r="S22" s="39">
         <f>avv!F18-A22</f>
         <v>1</v>
       </c>
-      <c r="T22" s="42">
-        <v>3</v>
-      </c>
-      <c r="V22" s="42">
+      <c r="T22" s="39">
+        <v>3</v>
+      </c>
+      <c r="V22" s="39">
         <f>avv!G20-A22</f>
         <v>1</v>
       </c>
-      <c r="W22" s="44">
+      <c r="W22" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="42">
-        <v>12</v>
-      </c>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="39">
+        <v>12</v>
+      </c>
+      <c r="B23" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="42">
+      <c r="C23" s="40"/>
+      <c r="D23" s="39">
         <f>avv!A19-A23</f>
         <v>-1</v>
       </c>
-      <c r="E23" s="57">
-        <v>3</v>
-      </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="42">
+      <c r="E23" s="54">
+        <v>3</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="39">
         <f>avv!B20-A23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="44">
-        <v>3</v>
-      </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="42">
+      <c r="H23" s="41">
+        <v>3</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="J23" s="39">
         <f>avv!C20-A23</f>
         <v>0</v>
       </c>
-      <c r="K23" s="45">
-        <v>3</v>
-      </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="42">
+      <c r="K23" s="42">
+        <v>3</v>
+      </c>
+      <c r="L23" s="40"/>
+      <c r="M23" s="39">
         <f>avv!D20-A23</f>
         <v>1</v>
       </c>
-      <c r="N23" s="44">
-        <v>3</v>
-      </c>
-      <c r="O23" s="43"/>
-      <c r="P23" s="42">
+      <c r="N23" s="41">
+        <v>3</v>
+      </c>
+      <c r="O23" s="40"/>
+      <c r="P23" s="39">
         <f>avv!E22-A23</f>
         <v>-1</v>
       </c>
-      <c r="Q23" s="45">
-        <v>3</v>
-      </c>
-      <c r="R23" s="43"/>
-      <c r="S23" s="42">
+      <c r="Q23" s="42">
+        <v>3</v>
+      </c>
+      <c r="R23" s="40"/>
+      <c r="S23" s="39">
         <f>avv!F20-A23</f>
         <v>0</v>
       </c>
-      <c r="T23" s="42">
-        <v>3</v>
-      </c>
-      <c r="V23" s="42">
+      <c r="T23" s="39">
+        <v>3</v>
+      </c>
+      <c r="V23" s="39">
         <f>avv!G21-A23</f>
         <v>1</v>
       </c>
-      <c r="W23" s="45">
+      <c r="W23" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="42">
-        <v>12</v>
-      </c>
-      <c r="B24" s="69" t="s">
+      <c r="A24" s="39">
+        <v>12</v>
+      </c>
+      <c r="B24" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="42">
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="39">
         <f>avv!D22-A24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="44">
-        <v>3</v>
-      </c>
-      <c r="O24" s="43"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="58">
+      <c r="N24" s="41">
+        <v>3</v>
+      </c>
+      <c r="O24" s="40"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="55">
         <f>avv!F22-A24</f>
         <v>0</v>
       </c>
-      <c r="V24" s="42">
+      <c r="V24" s="39">
         <f>avv!G22-A24</f>
         <v>1</v>
       </c>
-      <c r="W24" s="44">
+      <c r="W24" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="42">
-        <v>12</v>
-      </c>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="39">
+        <v>12</v>
+      </c>
+      <c r="B25" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="42">
+      <c r="C25" s="51"/>
+      <c r="D25" s="39">
         <f>avv!A29-A25</f>
         <v>-2</v>
       </c>
-      <c r="E25" s="57">
-        <v>3</v>
-      </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="42">
+      <c r="E25" s="54">
+        <v>3</v>
+      </c>
+      <c r="F25" s="51"/>
+      <c r="G25" s="39">
         <f>avv!B27-A25</f>
         <v>-1</v>
       </c>
-      <c r="H25" s="55">
-        <v>2</v>
-      </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="42">
+      <c r="H25" s="52">
+        <v>2</v>
+      </c>
+      <c r="I25" s="51"/>
+      <c r="J25" s="39">
         <f>avv!C21-A25</f>
         <v>0</v>
       </c>
-      <c r="K25" s="44">
-        <v>3</v>
-      </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="42">
+      <c r="K25" s="41">
+        <v>3</v>
+      </c>
+      <c r="L25" s="40"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="39">
         <f>avv!E22-A25</f>
         <v>-1</v>
       </c>
-      <c r="Q25" s="55">
-        <v>0</v>
-      </c>
-      <c r="R25" s="43"/>
-      <c r="S25" s="58">
+      <c r="Q25" s="52">
+        <v>0</v>
+      </c>
+      <c r="R25" s="40"/>
+      <c r="S25" s="55">
         <f>avv!F21-A25</f>
         <v>0</v>
       </c>
-      <c r="V25" s="42">
+      <c r="V25" s="39">
         <f>avv!G23-A25</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="42">
-        <v>12</v>
-      </c>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="39">
+        <v>12</v>
+      </c>
+      <c r="B26" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="42">
+      <c r="C26" s="40"/>
+      <c r="D26" s="39">
         <f>avv!A22-A26</f>
         <v>-2</v>
       </c>
-      <c r="E26" s="57">
-        <v>3</v>
-      </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="42">
+      <c r="E26" s="54">
+        <v>3</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="39">
         <f>avv!B23-A26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="44">
-        <v>3</v>
-      </c>
-      <c r="I26" s="43"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="42">
+      <c r="H26" s="41">
+        <v>3</v>
+      </c>
+      <c r="I26" s="40"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="39">
         <f>avv!D23-A26</f>
         <v>0</v>
       </c>
-      <c r="N26" s="44">
-        <v>2</v>
-      </c>
-      <c r="O26" s="43"/>
-      <c r="P26" s="42">
+      <c r="N26" s="41">
+        <v>2</v>
+      </c>
+      <c r="O26" s="40"/>
+      <c r="P26" s="39">
         <f>avv!E23-A26</f>
         <v>-1</v>
       </c>
-      <c r="Q26" s="44">
-        <v>3</v>
-      </c>
-      <c r="R26" s="43"/>
-      <c r="S26" s="58">
+      <c r="Q26" s="41">
+        <v>3</v>
+      </c>
+      <c r="R26" s="40"/>
+      <c r="S26" s="55">
         <f>avv!F23-A26</f>
         <v>0</v>
       </c>
-      <c r="V26" s="42">
+      <c r="V26" s="39">
         <f>avv!G24-A26</f>
         <v>0</v>
       </c>
-      <c r="W26" s="44">
+      <c r="W26" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="42">
-        <v>12</v>
-      </c>
-      <c r="B27" s="58" t="s">
+      <c r="A27" s="39">
+        <v>12</v>
+      </c>
+      <c r="B27" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="42">
+      <c r="C27" s="40"/>
+      <c r="D27" s="39">
         <f>avv!A23-A27</f>
         <v>-2</v>
       </c>
-      <c r="E27" s="57">
-        <v>3</v>
-      </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="42">
+      <c r="E27" s="54">
+        <v>3</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="39">
         <f>avv!B24-A27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="44">
-        <v>3</v>
-      </c>
-      <c r="J27" s="42">
+      <c r="H27" s="41">
+        <v>3</v>
+      </c>
+      <c r="J27" s="39">
         <f>avv!C24-A27</f>
         <v>-1</v>
       </c>
-      <c r="K27" s="42">
-        <v>3</v>
-      </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="44"/>
-      <c r="P27" s="42">
+      <c r="K27" s="39">
+        <v>3</v>
+      </c>
+      <c r="L27" s="40"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="41"/>
+      <c r="P27" s="39">
         <f>avv!E25-A27</f>
         <v>-1</v>
       </c>
-      <c r="Q27" s="42">
-        <v>3</v>
-      </c>
-      <c r="R27" s="43"/>
-      <c r="S27" s="42">
+      <c r="Q27" s="39">
+        <v>3</v>
+      </c>
+      <c r="R27" s="40"/>
+      <c r="S27" s="39">
         <f>avv!F24-A27</f>
         <v>0</v>
       </c>
-      <c r="T27" s="42">
-        <v>3</v>
-      </c>
-      <c r="V27" s="42">
+      <c r="T27" s="39">
+        <v>3</v>
+      </c>
+      <c r="V27" s="39">
         <f>avv!G25-A27</f>
         <v>0</v>
       </c>
-      <c r="W27" s="44">
+      <c r="W27" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="42">
-        <v>12</v>
-      </c>
-      <c r="B28" s="42" t="s">
+      <c r="A28" s="39">
+        <v>12</v>
+      </c>
+      <c r="B28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="42">
+      <c r="C28" s="40"/>
+      <c r="D28" s="39">
         <f>avv!A24-A28</f>
         <v>-2</v>
       </c>
-      <c r="E28" s="57">
-        <v>3</v>
-      </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="42">
+      <c r="E28" s="54">
+        <v>3</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="39">
         <f>avv!B26-A28</f>
         <v>-1</v>
       </c>
-      <c r="H28" s="44">
-        <v>3</v>
-      </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="42">
+      <c r="H28" s="41">
+        <v>3</v>
+      </c>
+      <c r="I28" s="40"/>
+      <c r="J28" s="39">
         <f>avv!C25-A28</f>
         <v>-1</v>
       </c>
-      <c r="K28" s="44">
-        <v>3</v>
-      </c>
-      <c r="L28" s="43"/>
-      <c r="M28" s="42">
+      <c r="K28" s="41">
+        <v>3</v>
+      </c>
+      <c r="L28" s="40"/>
+      <c r="M28" s="39">
         <f>avv!D25-A28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="44">
-        <v>3</v>
-      </c>
-      <c r="O28" s="43"/>
-      <c r="P28" s="42">
+      <c r="N28" s="41">
+        <v>3</v>
+      </c>
+      <c r="O28" s="40"/>
+      <c r="P28" s="39">
         <f>avv!E25-A28</f>
         <v>-1</v>
       </c>
-      <c r="Q28" s="44">
-        <v>3</v>
-      </c>
-      <c r="R28" s="43"/>
-      <c r="S28" s="42">
+      <c r="Q28" s="41">
+        <v>3</v>
+      </c>
+      <c r="R28" s="40"/>
+      <c r="S28" s="39">
         <f>avv!F25-A28</f>
         <v>0</v>
       </c>
-      <c r="T28" s="42">
-        <v>3</v>
-      </c>
-      <c r="V28" s="42">
+      <c r="T28" s="39">
+        <v>3</v>
+      </c>
+      <c r="V28" s="39">
         <f>avv!G26-A28</f>
         <v>0</v>
       </c>
-      <c r="W28" s="44">
+      <c r="W28" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="42">
-        <v>12</v>
-      </c>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="39">
+        <v>12</v>
+      </c>
+      <c r="B29" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="39">
         <f>avv!A11-A29</f>
         <v>-1</v>
       </c>
-      <c r="E29" s="57">
-        <v>3</v>
-      </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="42">
+      <c r="E29" s="54">
+        <v>3</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="39">
         <f>avv!B30-A29</f>
         <v>-5</v>
       </c>
-      <c r="H29" s="44">
-        <v>3</v>
-      </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="42">
+      <c r="H29" s="41">
+        <v>3</v>
+      </c>
+      <c r="I29" s="40"/>
+      <c r="J29" s="39">
         <f>avv!C30-A29</f>
         <v>-2</v>
       </c>
-      <c r="K29" s="44">
-        <v>3</v>
-      </c>
-      <c r="L29" s="43"/>
-      <c r="M29" s="42">
+      <c r="K29" s="41">
+        <v>3</v>
+      </c>
+      <c r="L29" s="40"/>
+      <c r="M29" s="39">
         <f>avv!D26-A29</f>
         <v>0</v>
       </c>
-      <c r="N29" s="55">
-        <v>1</v>
-      </c>
-      <c r="O29" s="43"/>
-      <c r="P29" s="42">
+      <c r="N29" s="52">
+        <v>1</v>
+      </c>
+      <c r="O29" s="40"/>
+      <c r="P29" s="39">
         <f>avv!E27-A29</f>
         <v>-1</v>
       </c>
-      <c r="Q29" s="44">
-        <v>3</v>
-      </c>
-      <c r="R29" s="43"/>
-      <c r="S29" s="42">
+      <c r="Q29" s="41">
+        <v>3</v>
+      </c>
+      <c r="R29" s="40"/>
+      <c r="S29" s="39">
         <f>avv!F26-A29</f>
         <v>-1</v>
       </c>
-      <c r="T29" s="42">
-        <v>3</v>
-      </c>
-      <c r="V29" s="42">
+      <c r="T29" s="39">
+        <v>3</v>
+      </c>
+      <c r="V29" s="39">
         <f>avv!G27-A29</f>
         <v>0</v>
       </c>
-      <c r="W29" s="44">
+      <c r="W29" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="42">
-        <v>12</v>
-      </c>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="39">
+        <v>12</v>
+      </c>
+      <c r="B30" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42">
+      <c r="C30" s="40"/>
+      <c r="D30" s="39">
         <f>avv!A25-A30</f>
         <v>-2</v>
       </c>
-      <c r="E30" s="57">
-        <v>3</v>
-      </c>
-      <c r="F30" s="43">
-        <v>1</v>
-      </c>
-      <c r="G30" s="42">
+      <c r="E30" s="54">
+        <v>3</v>
+      </c>
+      <c r="F30" s="40">
+        <v>1</v>
+      </c>
+      <c r="G30" s="39">
         <f>avv!B25-A30</f>
         <v>-1</v>
       </c>
-      <c r="H30" s="44">
-        <v>3</v>
-      </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="42">
+      <c r="H30" s="41">
+        <v>3</v>
+      </c>
+      <c r="I30" s="40"/>
+      <c r="J30" s="39">
         <f>avv!C26-A30</f>
         <v>-1</v>
       </c>
-      <c r="K30" s="44">
-        <v>3</v>
-      </c>
-      <c r="L30" s="43"/>
-      <c r="M30" s="42">
+      <c r="K30" s="41">
+        <v>3</v>
+      </c>
+      <c r="L30" s="40"/>
+      <c r="M30" s="39">
         <f>avv!D27-A30</f>
         <v>0</v>
       </c>
-      <c r="N30" s="44">
-        <v>3</v>
-      </c>
-      <c r="O30" s="43"/>
-      <c r="P30" s="42">
+      <c r="N30" s="41">
+        <v>3</v>
+      </c>
+      <c r="O30" s="40"/>
+      <c r="P30" s="39">
         <f>avv!E28-A30</f>
         <v>-1</v>
       </c>
-      <c r="Q30" s="44">
-        <v>3</v>
-      </c>
-      <c r="R30" s="43"/>
-      <c r="S30" s="42">
+      <c r="Q30" s="41">
+        <v>3</v>
+      </c>
+      <c r="R30" s="40"/>
+      <c r="S30" s="39">
         <f>avv!F27-A30</f>
         <v>-1</v>
       </c>
-      <c r="T30" s="42">
-        <v>3</v>
-      </c>
-      <c r="V30" s="42">
+      <c r="T30" s="39">
+        <v>3</v>
+      </c>
+      <c r="V30" s="39">
         <f>avv!G28-A30</f>
         <v>0</v>
       </c>
-      <c r="W30" s="44">
+      <c r="W30" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="42">
-        <v>12</v>
-      </c>
-      <c r="B31" s="42" t="s">
+      <c r="A31" s="39">
+        <v>12</v>
+      </c>
+      <c r="B31" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42">
+      <c r="C31" s="40"/>
+      <c r="D31" s="39">
         <f>avv!A28-A31</f>
         <v>-2</v>
       </c>
-      <c r="E31" s="57">
-        <v>3</v>
-      </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="42">
+      <c r="E31" s="54">
+        <v>3</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="39">
         <f>avv!B28-A31</f>
         <v>-3</v>
       </c>
-      <c r="H31" s="44">
-        <v>3</v>
-      </c>
-      <c r="I31" s="43"/>
-      <c r="J31" s="42">
+      <c r="H31" s="41">
+        <v>3</v>
+      </c>
+      <c r="I31" s="40"/>
+      <c r="J31" s="39">
         <f>avv!C28-A31</f>
         <v>-1</v>
       </c>
-      <c r="K31" s="44">
-        <v>3</v>
-      </c>
-      <c r="L31" s="43"/>
-      <c r="M31" s="42">
+      <c r="K31" s="41">
+        <v>3</v>
+      </c>
+      <c r="L31" s="40"/>
+      <c r="M31" s="39">
         <f>avv!D29-A31</f>
         <v>-1</v>
       </c>
-      <c r="N31" s="44">
-        <v>3</v>
-      </c>
-      <c r="O31" s="43"/>
-      <c r="P31" s="42">
+      <c r="N31" s="41">
+        <v>3</v>
+      </c>
+      <c r="O31" s="40"/>
+      <c r="P31" s="39">
         <f>avv!E29-A31</f>
         <v>-1</v>
       </c>
-      <c r="Q31" s="44">
-        <v>3</v>
-      </c>
-      <c r="R31" s="43"/>
-      <c r="S31" s="42">
+      <c r="Q31" s="41">
+        <v>3</v>
+      </c>
+      <c r="R31" s="40"/>
+      <c r="S31" s="39">
         <f>avv!F29-A31</f>
         <v>-2</v>
       </c>
-      <c r="T31" s="42">
-        <v>3</v>
-      </c>
-      <c r="V31" s="42">
+      <c r="T31" s="39">
+        <v>3</v>
+      </c>
+      <c r="V31" s="39">
         <f>avv!G29-A31</f>
         <v>0</v>
       </c>
-      <c r="W31" s="80">
+      <c r="W31" s="77">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42">
-        <v>12</v>
-      </c>
-      <c r="B32" s="58" t="s">
+      <c r="A32" s="39">
+        <v>12</v>
+      </c>
+      <c r="B32" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42">
+      <c r="C32" s="40"/>
+      <c r="D32" s="39">
         <f>avv!A27-A32</f>
         <v>-2</v>
       </c>
-      <c r="E32" s="57">
-        <v>3</v>
-      </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="42">
+      <c r="E32" s="54">
+        <v>3</v>
+      </c>
+      <c r="F32" s="40"/>
+      <c r="G32" s="39">
         <f>avv!B29-A32</f>
         <v>-4</v>
       </c>
-      <c r="H32" s="44">
-        <v>3</v>
-      </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="42">
+      <c r="H32" s="41">
+        <v>3</v>
+      </c>
+      <c r="I32" s="40"/>
+      <c r="J32" s="39">
         <f>avv!C29-A32</f>
         <v>-1</v>
       </c>
-      <c r="K32" s="44">
-        <v>3</v>
-      </c>
-      <c r="L32" s="43"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="42">
+      <c r="K32" s="41">
+        <v>3</v>
+      </c>
+      <c r="L32" s="40"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="39">
         <f>avv!F30-A32</f>
         <v>-2</v>
       </c>
-      <c r="T32" s="42">
-        <v>3</v>
-      </c>
-      <c r="V32" s="42">
+      <c r="T32" s="39">
+        <v>3</v>
+      </c>
+      <c r="V32" s="39">
         <f>avv!G30-A32</f>
         <v>-3</v>
       </c>
-      <c r="W32" s="44">
+      <c r="W32" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="75"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
     </row>
     <row r="34" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42">
-        <v>12</v>
-      </c>
-      <c r="B34" s="58" t="s">
+      <c r="A34" s="39">
+        <v>12</v>
+      </c>
+      <c r="B34" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42">
+      <c r="C34" s="40"/>
+      <c r="D34" s="39">
         <f>avv!A30-A34</f>
         <v>-2</v>
       </c>
-      <c r="E34" s="57">
-        <v>3</v>
-      </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="43"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="42">
+      <c r="E34" s="54">
+        <v>3</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="40"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="39">
         <f>avv!E32-A34</f>
         <v>-12</v>
       </c>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="42">
+      <c r="Q34" s="41"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="39">
         <f>avv!F32-A34</f>
         <v>-12</v>
       </c>
-      <c r="V34" s="42">
+      <c r="V34" s="39">
         <f>avv!G32-A34</f>
         <v>-12</v>
       </c>
     </row>
     <row r="35" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42">
+      <c r="A35" s="39">
         <v>13</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="43"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="43"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="43"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="43"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="40"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="40"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="40"/>
     </row>
     <row r="36" spans="1:29" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42">
-        <v>12</v>
-      </c>
-      <c r="B36" s="58" t="s">
+      <c r="A36" s="39">
+        <v>12</v>
+      </c>
+      <c r="B36" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="43"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="43"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="43"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="43"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="40"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="40"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="40"/>
     </row>
     <row r="37" spans="1:29" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="43"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47"/>
-      <c r="B38" s="48" t="s">
+      <c r="A38" s="44"/>
+      <c r="B38" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="76"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
     </row>
     <row r="39" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
-      <c r="B39" s="48" t="s">
+      <c r="A39" s="46"/>
+      <c r="B39" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="75"/>
-      <c r="U39" s="76"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
     </row>
     <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
-      <c r="B40" s="48" t="s">
+      <c r="A40" s="47"/>
+      <c r="B40" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="75"/>
-      <c r="U40" s="76"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="46"/>
-      <c r="Z40" s="46"/>
-      <c r="AA40" s="46"/>
-      <c r="AB40" s="46"/>
-      <c r="AC40" s="46"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
     </row>
     <row r="41" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="51"/>
-      <c r="B41" s="48" t="s">
+      <c r="A41" s="48"/>
+      <c r="B41" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="75"/>
-      <c r="U41" s="76"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="46"/>
-      <c r="AB41" s="46"/>
-      <c r="AC41" s="46"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
     </row>
     <row r="42" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="52"/>
-      <c r="B42" s="48" t="s">
+      <c r="A42" s="49"/>
+      <c r="B42" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="75"/>
-      <c r="U42" s="76"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="46"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="46"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="43"/>
     </row>
     <row r="43" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="74"/>
-      <c r="B43" s="48" t="s">
+      <c r="A43" s="71"/>
+      <c r="B43" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="75"/>
-      <c r="U43" s="76"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="46"/>
-      <c r="Z43" s="46"/>
-      <c r="AA43" s="46"/>
-      <c r="AB43" s="46"/>
-      <c r="AC43" s="46"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="43"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B30">
@@ -5953,750 +6269,750 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="71"/>
+    <col min="1" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="71">
+      <c r="A1" s="68">
         <v>15</v>
       </c>
-      <c r="B1" s="71">
+      <c r="B1" s="68">
         <v>18</v>
       </c>
-      <c r="C1" s="71">
+      <c r="C1" s="68">
         <v>18</v>
       </c>
-      <c r="D1" s="71">
+      <c r="D1" s="68">
         <v>17</v>
       </c>
-      <c r="E1" s="71">
+      <c r="E1" s="68">
         <v>17</v>
       </c>
-      <c r="F1" s="71">
+      <c r="F1" s="68">
         <v>16</v>
       </c>
-      <c r="G1" s="71">
+      <c r="G1" s="68">
         <v>15</v>
       </c>
-      <c r="H1" s="79"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="71">
+      <c r="A2" s="68">
         <v>15</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="68">
         <v>16</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="68">
         <v>17</v>
       </c>
-      <c r="D2" s="71">
+      <c r="D2" s="68">
         <v>16</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="68">
         <v>17</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="68">
         <v>16</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="68">
         <v>15</v>
       </c>
-      <c r="H2" s="79"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="71">
+      <c r="A3" s="68">
         <v>15</v>
       </c>
-      <c r="B3" s="71">
+      <c r="B3" s="68">
         <v>15</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="68">
         <v>17</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="68">
         <v>15</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="68">
         <v>17</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="68">
         <v>15</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="68">
         <v>14</v>
       </c>
-      <c r="H3" s="79"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="71">
+      <c r="A4" s="68">
         <v>15</v>
       </c>
-      <c r="B4" s="71">
+      <c r="B4" s="68">
         <v>15</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="68">
         <v>17</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="68">
         <v>15</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="68">
         <v>15</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="68">
         <v>15</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="68">
         <v>14</v>
       </c>
-      <c r="H4" s="79"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="71">
+      <c r="A5" s="68">
         <v>14</v>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="68">
         <v>15</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="68">
         <v>15</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="68">
         <v>15</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="68">
         <v>15</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="68">
         <v>15</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="68">
         <v>14</v>
       </c>
-      <c r="H5" s="79"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="71">
+      <c r="A6" s="68">
         <v>14</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="68">
         <v>15</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="68">
         <v>15</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="68">
         <v>15</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="68">
         <v>13</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="68">
         <v>15</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="68">
         <v>13</v>
       </c>
-      <c r="H6" s="79"/>
+      <c r="H6" s="76"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="71">
+      <c r="A7" s="68">
         <v>14</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="68">
         <v>15</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="68">
         <v>15</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="68">
         <v>15</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="68">
         <v>13</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="68">
         <v>15</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="68">
         <v>13</v>
       </c>
-      <c r="H7" s="79"/>
+      <c r="H7" s="76"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="71">
+      <c r="A8" s="68">
         <v>13</v>
       </c>
-      <c r="B8" s="71">
+      <c r="B8" s="68">
         <v>15</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="68">
         <v>14</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="68">
         <v>15</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="68">
         <v>13</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="68">
         <v>15</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="68">
         <v>13</v>
       </c>
-      <c r="H8" s="79"/>
+      <c r="H8" s="76"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="71">
-        <v>12</v>
-      </c>
-      <c r="B9" s="71">
+      <c r="A9" s="68">
+        <v>12</v>
+      </c>
+      <c r="B9" s="68">
         <v>14</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="68">
         <v>14</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="68">
         <v>14</v>
       </c>
-      <c r="E9" s="71">
-        <v>12</v>
-      </c>
-      <c r="F9" s="71">
+      <c r="E9" s="68">
+        <v>12</v>
+      </c>
+      <c r="F9" s="68">
         <v>15</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="68">
         <v>13</v>
       </c>
-      <c r="H9" s="79"/>
+      <c r="H9" s="76"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="71">
-        <v>12</v>
-      </c>
-      <c r="B10" s="71">
+      <c r="A10" s="68">
+        <v>12</v>
+      </c>
+      <c r="B10" s="68">
         <v>14</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="68">
         <v>14</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="68">
         <v>14</v>
       </c>
-      <c r="E10" s="71">
-        <v>12</v>
-      </c>
-      <c r="F10" s="71">
+      <c r="E10" s="68">
+        <v>12</v>
+      </c>
+      <c r="F10" s="68">
         <v>14</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="68">
         <v>13</v>
       </c>
-      <c r="H10" s="79"/>
+      <c r="H10" s="76"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="71">
+      <c r="A11" s="68">
         <v>11</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="68">
         <v>13</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="68">
         <v>13</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="68">
         <v>14</v>
       </c>
-      <c r="E11" s="71">
-        <v>12</v>
-      </c>
-      <c r="F11" s="71">
+      <c r="E11" s="68">
+        <v>12</v>
+      </c>
+      <c r="F11" s="68">
         <v>14</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="68">
         <v>13</v>
       </c>
-      <c r="H11" s="79"/>
+      <c r="H11" s="76"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="71">
+      <c r="A12" s="68">
         <v>11</v>
       </c>
-      <c r="B12" s="71">
+      <c r="B12" s="68">
         <v>13</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="68">
         <v>13</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="68">
         <v>14</v>
       </c>
-      <c r="E12" s="71">
-        <v>12</v>
-      </c>
-      <c r="F12" s="71">
+      <c r="E12" s="68">
+        <v>12</v>
+      </c>
+      <c r="F12" s="68">
         <v>14</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="68">
         <v>13</v>
       </c>
-      <c r="H12" s="79"/>
+      <c r="H12" s="76"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
+      <c r="A13" s="68">
         <v>11</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="68">
         <v>13</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="68">
         <v>13</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="68">
         <v>14</v>
       </c>
-      <c r="E13" s="71">
-        <v>12</v>
-      </c>
-      <c r="F13" s="71">
+      <c r="E13" s="68">
+        <v>12</v>
+      </c>
+      <c r="F13" s="68">
         <v>13</v>
       </c>
-      <c r="G13" s="71">
+      <c r="G13" s="68">
         <v>13</v>
       </c>
-      <c r="H13" s="79"/>
+      <c r="H13" s="76"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="71">
+      <c r="A14" s="68">
         <v>11</v>
       </c>
-      <c r="B14" s="71">
+      <c r="B14" s="68">
         <v>13</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="68">
         <v>13</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="68">
         <v>14</v>
       </c>
-      <c r="E14" s="71">
-        <v>12</v>
-      </c>
-      <c r="F14" s="71">
+      <c r="E14" s="68">
+        <v>12</v>
+      </c>
+      <c r="F14" s="68">
         <v>13</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="68">
         <v>13</v>
       </c>
-      <c r="H14" s="79"/>
+      <c r="H14" s="76"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="71">
+      <c r="A15" s="68">
         <v>11</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="68">
         <v>13</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="68">
         <v>13</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="68">
         <v>14</v>
       </c>
-      <c r="E15" s="71">
-        <v>12</v>
-      </c>
-      <c r="F15" s="71">
+      <c r="E15" s="68">
+        <v>12</v>
+      </c>
+      <c r="F15" s="68">
         <v>13</v>
       </c>
-      <c r="G15" s="71">
+      <c r="G15" s="68">
         <v>13</v>
       </c>
-      <c r="H15" s="79"/>
+      <c r="H15" s="76"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
+      <c r="A16" s="68">
         <v>11</v>
       </c>
-      <c r="B16" s="71">
+      <c r="B16" s="68">
         <v>13</v>
       </c>
-      <c r="C16" s="71">
-        <v>12</v>
-      </c>
-      <c r="D16" s="71">
+      <c r="C16" s="68">
+        <v>12</v>
+      </c>
+      <c r="D16" s="68">
         <v>13</v>
       </c>
-      <c r="E16" s="71">
-        <v>12</v>
-      </c>
-      <c r="F16" s="71">
+      <c r="E16" s="68">
+        <v>12</v>
+      </c>
+      <c r="F16" s="68">
         <v>13</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="68">
         <v>13</v>
       </c>
-      <c r="H16" s="79"/>
+      <c r="H16" s="76"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="71">
+      <c r="A17" s="68">
         <v>11</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="68">
         <v>13</v>
       </c>
-      <c r="C17" s="71">
-        <v>12</v>
-      </c>
-      <c r="D17" s="71">
+      <c r="C17" s="68">
+        <v>12</v>
+      </c>
+      <c r="D17" s="68">
         <v>13</v>
       </c>
-      <c r="E17" s="71">
-        <v>12</v>
-      </c>
-      <c r="F17" s="71">
+      <c r="E17" s="68">
+        <v>12</v>
+      </c>
+      <c r="F17" s="68">
         <v>13</v>
       </c>
-      <c r="G17" s="71">
+      <c r="G17" s="68">
         <v>13</v>
       </c>
-      <c r="H17" s="79"/>
+      <c r="H17" s="76"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="71">
+      <c r="A18" s="68">
         <v>11</v>
       </c>
-      <c r="B18" s="71">
+      <c r="B18" s="68">
         <v>13</v>
       </c>
-      <c r="C18" s="71">
-        <v>12</v>
-      </c>
-      <c r="D18" s="71">
+      <c r="C18" s="68">
+        <v>12</v>
+      </c>
+      <c r="D18" s="68">
         <v>13</v>
       </c>
-      <c r="E18" s="71">
-        <v>12</v>
-      </c>
-      <c r="F18" s="71">
+      <c r="E18" s="68">
+        <v>12</v>
+      </c>
+      <c r="F18" s="68">
         <v>13</v>
       </c>
-      <c r="G18" s="71">
+      <c r="G18" s="68">
         <v>13</v>
       </c>
-      <c r="H18" s="79"/>
+      <c r="H18" s="76"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="71">
+      <c r="A19" s="68">
         <v>11</v>
       </c>
-      <c r="B19" s="71">
-        <v>12</v>
-      </c>
-      <c r="C19" s="71">
-        <v>12</v>
-      </c>
-      <c r="D19" s="71">
+      <c r="B19" s="68">
+        <v>12</v>
+      </c>
+      <c r="C19" s="68">
+        <v>12</v>
+      </c>
+      <c r="D19" s="68">
         <v>13</v>
       </c>
-      <c r="E19" s="71">
-        <v>12</v>
-      </c>
-      <c r="F19" s="71">
+      <c r="E19" s="68">
+        <v>12</v>
+      </c>
+      <c r="F19" s="68">
         <v>13</v>
       </c>
-      <c r="G19" s="71">
+      <c r="G19" s="68">
         <v>13</v>
       </c>
-      <c r="H19" s="79"/>
+      <c r="H19" s="76"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="71">
+      <c r="A20" s="68">
         <v>10</v>
       </c>
-      <c r="B20" s="71">
-        <v>12</v>
-      </c>
-      <c r="C20" s="71">
-        <v>12</v>
-      </c>
-      <c r="D20" s="71">
+      <c r="B20" s="68">
+        <v>12</v>
+      </c>
+      <c r="C20" s="68">
+        <v>12</v>
+      </c>
+      <c r="D20" s="68">
         <v>13</v>
       </c>
-      <c r="E20" s="71">
-        <v>12</v>
-      </c>
-      <c r="F20" s="71">
-        <v>12</v>
-      </c>
-      <c r="G20" s="71">
+      <c r="E20" s="68">
+        <v>12</v>
+      </c>
+      <c r="F20" s="68">
+        <v>12</v>
+      </c>
+      <c r="G20" s="68">
         <v>13</v>
       </c>
-      <c r="H20" s="79"/>
+      <c r="H20" s="76"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="71">
+      <c r="A21" s="68">
         <v>10</v>
       </c>
-      <c r="B21" s="71">
-        <v>12</v>
-      </c>
-      <c r="C21" s="71">
-        <v>12</v>
-      </c>
-      <c r="D21" s="71">
+      <c r="B21" s="68">
+        <v>12</v>
+      </c>
+      <c r="C21" s="68">
+        <v>12</v>
+      </c>
+      <c r="D21" s="68">
         <v>13</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="68">
         <v>11</v>
       </c>
-      <c r="F21" s="71">
-        <v>12</v>
-      </c>
-      <c r="G21" s="71">
+      <c r="F21" s="68">
+        <v>12</v>
+      </c>
+      <c r="G21" s="68">
         <v>13</v>
       </c>
-      <c r="H21" s="79"/>
+      <c r="H21" s="76"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="71">
+      <c r="A22" s="68">
         <v>10</v>
       </c>
-      <c r="B22" s="71">
-        <v>12</v>
-      </c>
-      <c r="C22" s="71">
+      <c r="B22" s="68">
+        <v>12</v>
+      </c>
+      <c r="C22" s="68">
         <v>11</v>
       </c>
-      <c r="D22" s="71">
-        <v>12</v>
-      </c>
-      <c r="E22" s="71">
+      <c r="D22" s="68">
+        <v>12</v>
+      </c>
+      <c r="E22" s="68">
         <v>11</v>
       </c>
-      <c r="F22" s="71">
-        <v>12</v>
-      </c>
-      <c r="G22" s="71">
+      <c r="F22" s="68">
+        <v>12</v>
+      </c>
+      <c r="G22" s="68">
         <v>13</v>
       </c>
-      <c r="H22" s="79"/>
+      <c r="H22" s="76"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="71">
+      <c r="A23" s="68">
         <v>10</v>
       </c>
-      <c r="B23" s="71">
-        <v>12</v>
-      </c>
-      <c r="C23" s="71">
+      <c r="B23" s="68">
+        <v>12</v>
+      </c>
+      <c r="C23" s="68">
         <v>11</v>
       </c>
-      <c r="D23" s="71">
-        <v>12</v>
-      </c>
-      <c r="E23" s="71">
+      <c r="D23" s="68">
+        <v>12</v>
+      </c>
+      <c r="E23" s="68">
         <v>11</v>
       </c>
-      <c r="F23" s="71">
-        <v>12</v>
-      </c>
-      <c r="G23" s="71">
+      <c r="F23" s="68">
+        <v>12</v>
+      </c>
+      <c r="G23" s="68">
         <v>13</v>
       </c>
-      <c r="H23" s="79"/>
+      <c r="H23" s="76"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="71">
+      <c r="A24" s="68">
         <v>10</v>
       </c>
-      <c r="B24" s="71">
-        <v>12</v>
-      </c>
-      <c r="C24" s="71">
+      <c r="B24" s="68">
+        <v>12</v>
+      </c>
+      <c r="C24" s="68">
         <v>11</v>
       </c>
-      <c r="D24" s="71">
-        <v>12</v>
-      </c>
-      <c r="E24" s="71">
+      <c r="D24" s="68">
+        <v>12</v>
+      </c>
+      <c r="E24" s="68">
         <v>11</v>
       </c>
-      <c r="F24" s="71">
-        <v>12</v>
-      </c>
-      <c r="G24" s="71">
-        <v>12</v>
-      </c>
-      <c r="H24" s="79"/>
+      <c r="F24" s="68">
+        <v>12</v>
+      </c>
+      <c r="G24" s="68">
+        <v>12</v>
+      </c>
+      <c r="H24" s="76"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="71">
+      <c r="A25" s="68">
         <v>10</v>
       </c>
-      <c r="B25" s="71">
+      <c r="B25" s="68">
         <v>11</v>
       </c>
-      <c r="C25" s="71">
+      <c r="C25" s="68">
         <v>11</v>
       </c>
-      <c r="D25" s="71">
-        <v>12</v>
-      </c>
-      <c r="E25" s="71">
+      <c r="D25" s="68">
+        <v>12</v>
+      </c>
+      <c r="E25" s="68">
         <v>11</v>
       </c>
-      <c r="F25" s="71">
-        <v>12</v>
-      </c>
-      <c r="G25" s="71">
-        <v>12</v>
-      </c>
-      <c r="H25" s="79"/>
+      <c r="F25" s="68">
+        <v>12</v>
+      </c>
+      <c r="G25" s="68">
+        <v>12</v>
+      </c>
+      <c r="H25" s="76"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="71">
+      <c r="A26" s="68">
         <v>10</v>
       </c>
-      <c r="B26" s="71">
+      <c r="B26" s="68">
         <v>11</v>
       </c>
-      <c r="C26" s="71">
+      <c r="C26" s="68">
         <v>11</v>
       </c>
-      <c r="D26" s="71">
-        <v>12</v>
-      </c>
-      <c r="E26" s="71">
+      <c r="D26" s="68">
+        <v>12</v>
+      </c>
+      <c r="E26" s="68">
         <v>11</v>
       </c>
-      <c r="F26" s="71">
+      <c r="F26" s="68">
         <v>11</v>
       </c>
-      <c r="G26" s="71">
-        <v>12</v>
-      </c>
-      <c r="H26" s="79"/>
+      <c r="G26" s="68">
+        <v>12</v>
+      </c>
+      <c r="H26" s="76"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="71">
+      <c r="A27" s="68">
         <v>10</v>
       </c>
-      <c r="B27" s="71">
+      <c r="B27" s="68">
         <v>11</v>
       </c>
-      <c r="C27" s="71">
+      <c r="C27" s="68">
         <v>11</v>
       </c>
-      <c r="D27" s="71">
-        <v>12</v>
-      </c>
-      <c r="E27" s="71">
+      <c r="D27" s="68">
+        <v>12</v>
+      </c>
+      <c r="E27" s="68">
         <v>11</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="68">
         <v>11</v>
       </c>
-      <c r="G27" s="71">
-        <v>12</v>
-      </c>
-      <c r="H27" s="79"/>
+      <c r="G27" s="68">
+        <v>12</v>
+      </c>
+      <c r="H27" s="76"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="71">
+      <c r="A28" s="68">
         <v>10</v>
       </c>
-      <c r="B28" s="71">
+      <c r="B28" s="68">
         <v>9</v>
       </c>
-      <c r="C28" s="71">
+      <c r="C28" s="68">
         <v>11</v>
       </c>
-      <c r="D28" s="71">
-        <v>12</v>
-      </c>
-      <c r="E28" s="71">
+      <c r="D28" s="68">
+        <v>12</v>
+      </c>
+      <c r="E28" s="68">
         <v>11</v>
       </c>
-      <c r="F28" s="71">
+      <c r="F28" s="68">
         <v>11</v>
       </c>
-      <c r="G28" s="71">
-        <v>12</v>
-      </c>
-      <c r="H28" s="79"/>
+      <c r="G28" s="68">
+        <v>12</v>
+      </c>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="71">
+      <c r="A29" s="68">
         <v>10</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="68">
         <v>8</v>
       </c>
-      <c r="C29" s="71">
+      <c r="C29" s="68">
         <v>11</v>
       </c>
-      <c r="D29" s="71">
+      <c r="D29" s="68">
         <v>11</v>
       </c>
-      <c r="E29" s="71">
+      <c r="E29" s="68">
         <v>11</v>
       </c>
-      <c r="F29" s="71">
+      <c r="F29" s="68">
         <v>10</v>
       </c>
-      <c r="G29" s="71">
-        <v>12</v>
-      </c>
-      <c r="H29" s="79"/>
+      <c r="G29" s="68">
+        <v>12</v>
+      </c>
+      <c r="H29" s="76"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="71">
+      <c r="A30" s="68">
         <v>10</v>
       </c>
-      <c r="B30" s="71">
+      <c r="B30" s="68">
         <v>7</v>
       </c>
-      <c r="C30" s="71">
+      <c r="C30" s="68">
         <v>10</v>
       </c>
-      <c r="D30" s="71">
+      <c r="D30" s="68">
         <v>10</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="68">
         <v>8</v>
       </c>
-      <c r="F30" s="71">
+      <c r="F30" s="68">
         <v>10</v>
       </c>
-      <c r="G30" s="71">
+      <c r="G30" s="68">
         <v>9</v>
       </c>
-      <c r="H30" s="79"/>
+      <c r="H30" s="76"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7051,7 +7367,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AEE678-7544-4914-B64E-AF6ACA09986D}">
-  <dimension ref="A1:CI1"/>
+  <dimension ref="A1:CI51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -7059,292 +7375,1604 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="91" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="37" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="36" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="37" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="36" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="37" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="36" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="37" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="36" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="37" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="36" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="37" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="36" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="37" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="36" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="37" customWidth="1"/>
-    <col min="23" max="87" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="79" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="89" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="90" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="89" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="68" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="90" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="89" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="90" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="89" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="90" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="89" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="90" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="89" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="90" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="89" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="90" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="89" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="90" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="89" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="90" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="89" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="90" customWidth="1"/>
+    <col min="23" max="87" width="12.5703125" style="68" customWidth="1"/>
+    <col min="88" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="G1" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="87" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA1" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB1" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD1" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE1" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF1" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG1" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH1" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI1" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ1" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK1" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL1" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM1" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN1" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO1" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP1" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ1" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR1" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS1" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT1" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU1" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV1" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW1" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX1" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY1" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ1" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA1" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB1" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC1" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD1" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE1" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF1" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG1" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH1" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI1" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ1" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK1" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL1" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM1" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN1" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO1" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP1" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ1" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="BR1" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="BS1" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT1" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="BU1" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV1" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="BW1" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="BX1" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="BY1" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="BZ1" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA1" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="CB1" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="CC1" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD1" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="CE1" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="CF1" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="CG1" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="CH1" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="CI1" s="68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="89">
+        <v>2</v>
+      </c>
+      <c r="C2" s="90">
+        <v>1</v>
+      </c>
+      <c r="D2" s="89">
+        <v>1</v>
+      </c>
+      <c r="E2" s="68">
+        <f>SUM(G2:M2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="90" t="e">
+        <f>AVERAGE(G2:M2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="89">
+        <v>2</v>
+      </c>
+      <c r="C3" s="90">
+        <v>1</v>
+      </c>
+      <c r="D3" s="89">
+        <v>2</v>
+      </c>
+      <c r="E3" s="68">
+        <f>SUM(G3:M3)</f>
+        <v>6</v>
+      </c>
+      <c r="F3" s="90">
+        <f>AVERAGE(G3:M3)</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="89">
+        <v>3</v>
+      </c>
+      <c r="J3" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="89">
+        <v>2</v>
+      </c>
+      <c r="C4" s="90">
+        <v>1</v>
+      </c>
+      <c r="D4" s="89">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68">
+        <f>SUM(G4:M4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="90" t="e">
+        <f>AVERAGE(G4:M4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="89">
+        <v>2</v>
+      </c>
+      <c r="C5" s="90">
+        <v>0</v>
+      </c>
+      <c r="D5" s="89">
+        <v>2</v>
+      </c>
+      <c r="E5" s="68">
+        <f>SUM(G5:M5)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="90">
+        <f>AVERAGE(G5:M5)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="89">
+        <v>1</v>
+      </c>
+      <c r="H5" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="89">
+        <v>1</v>
+      </c>
+      <c r="J5" s="90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="B6" s="89">
+        <v>1</v>
+      </c>
+      <c r="C6" s="90">
+        <v>0</v>
+      </c>
+      <c r="D6" s="89">
+        <v>1</v>
+      </c>
+      <c r="E6" s="68">
+        <f>SUM(G6:M6)</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="90">
+        <f>AVERAGE(G6:M6)</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="89">
+        <v>2</v>
+      </c>
+      <c r="J6" s="90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="89">
+        <v>1</v>
+      </c>
+      <c r="C7" s="90">
+        <v>0</v>
+      </c>
+      <c r="D7" s="89">
+        <v>1</v>
+      </c>
+      <c r="E7" s="68">
+        <f>SUM(G7:M7)</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="90">
+        <f>AVERAGE(G7:M7)</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="89">
+        <v>2</v>
+      </c>
+      <c r="J7" s="90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="89">
+        <v>1</v>
+      </c>
+      <c r="C8" s="90">
+        <v>1</v>
+      </c>
+      <c r="D8" s="89">
+        <v>1</v>
+      </c>
+      <c r="E8" s="68">
+        <f>SUM(G8:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="90" t="e">
+        <f>AVERAGE(G8:M8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="J8" s="90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="89">
+        <v>0</v>
+      </c>
+      <c r="C9" s="90">
+        <v>0</v>
+      </c>
+      <c r="D9" s="89">
+        <v>0</v>
+      </c>
+      <c r="E9" s="68">
+        <f>SUM(G9:M9)</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="90">
+        <f>AVERAGE(G9:M9)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="89">
+        <v>2</v>
+      </c>
+      <c r="J9" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="89">
+        <v>0</v>
+      </c>
+      <c r="C10" s="90">
+        <v>0</v>
+      </c>
+      <c r="D10" s="89">
+        <v>0</v>
+      </c>
+      <c r="E10" s="68">
+        <f>SUM(G10:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="90" t="e">
+        <f>AVERAGE(G10:M10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="89">
+        <v>0</v>
+      </c>
+      <c r="C11" s="90">
+        <v>0</v>
+      </c>
+      <c r="D11" s="89">
+        <v>0</v>
+      </c>
+      <c r="E11" s="68">
+        <f>SUM(G11:M11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="90" t="e">
+        <f>AVERAGE(G11:M11)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="89">
+        <v>0</v>
+      </c>
+      <c r="C12" s="90">
+        <v>0</v>
+      </c>
+      <c r="D12" s="89">
+        <v>0</v>
+      </c>
+      <c r="E12" s="68">
+        <f>SUM(G12:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="90" t="e">
+        <f>AVERAGE(G12:M12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A13" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="89">
+        <v>0</v>
+      </c>
+      <c r="C13" s="90">
+        <v>0</v>
+      </c>
+      <c r="D13" s="89">
+        <v>0</v>
+      </c>
+      <c r="E13" s="68">
+        <f>SUM(G13:M13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="90" t="e">
+        <f>AVERAGE(G13:M13)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A14" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="89">
+        <v>0</v>
+      </c>
+      <c r="C14" s="90">
+        <v>0</v>
+      </c>
+      <c r="D14" s="89">
+        <v>0</v>
+      </c>
+      <c r="E14" s="68">
+        <f>SUM(G14:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="90" t="e">
+        <f>AVERAGE(G14:M14)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A15" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="89">
+        <v>0</v>
+      </c>
+      <c r="C15" s="90">
+        <v>0</v>
+      </c>
+      <c r="D15" s="89">
+        <v>0</v>
+      </c>
+      <c r="E15" s="68">
+        <f>SUM(G15:M15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="90" t="e">
+        <f>AVERAGE(G15:M15)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A16" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="89">
+        <v>0</v>
+      </c>
+      <c r="C16" s="90">
+        <v>0</v>
+      </c>
+      <c r="D16" s="89">
+        <v>1</v>
+      </c>
+      <c r="E16" s="68">
+        <f>SUM(G16:M16)</f>
+        <v>4</v>
+      </c>
+      <c r="F16" s="90">
+        <f>AVERAGE(G16:M16)</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="89">
+        <v>3</v>
+      </c>
+      <c r="J16" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="89">
+        <v>0</v>
+      </c>
+      <c r="C17" s="90">
+        <v>0</v>
+      </c>
+      <c r="D17" s="89">
+        <v>0</v>
+      </c>
+      <c r="E17" s="68">
+        <f>SUM(G17:M17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="90" t="e">
+        <f>AVERAGE(G17:M17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="89">
+        <v>0</v>
+      </c>
+      <c r="C18" s="90">
+        <v>0</v>
+      </c>
+      <c r="D18" s="89">
+        <v>0</v>
+      </c>
+      <c r="E18" s="68">
+        <f>SUM(G18:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="90" t="e">
+        <f>AVERAGE(G18:M18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="89">
+        <v>0</v>
+      </c>
+      <c r="C19" s="90">
+        <v>0</v>
+      </c>
+      <c r="D19" s="89">
+        <v>0</v>
+      </c>
+      <c r="E19" s="68">
+        <f>SUM(G19:M19)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="90" t="e">
+        <f>AVERAGE(G19:M19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="89">
+        <v>0</v>
+      </c>
+      <c r="C20" s="90">
+        <v>0</v>
+      </c>
+      <c r="D20" s="89">
+        <v>1</v>
+      </c>
+      <c r="E20" s="68">
+        <f>SUM(G20:M20)</f>
+        <v>4</v>
+      </c>
+      <c r="F20" s="90">
+        <f>AVERAGE(G20:M20)</f>
+        <v>2</v>
+      </c>
+      <c r="I20" s="89">
+        <v>3</v>
+      </c>
+      <c r="J20" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="89">
+        <v>0</v>
+      </c>
+      <c r="C21" s="90">
+        <v>0</v>
+      </c>
+      <c r="D21" s="89">
+        <v>0</v>
+      </c>
+      <c r="E21" s="68">
+        <f>SUM(G21:M21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="90" t="e">
+        <f>AVERAGE(G21:M21)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="89">
+        <v>0</v>
+      </c>
+      <c r="C22" s="90">
+        <v>0</v>
+      </c>
+      <c r="D22" s="89">
+        <v>0</v>
+      </c>
+      <c r="E22" s="68">
+        <f>SUM(G22:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="90" t="e">
+        <f>AVERAGE(G22:M22)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="89">
+        <v>0</v>
+      </c>
+      <c r="C23" s="90">
+        <v>0</v>
+      </c>
+      <c r="D23" s="89">
+        <v>0</v>
+      </c>
+      <c r="E23" s="68">
+        <f>SUM(G23:M23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="90" t="e">
+        <f>AVERAGE(G23:M23)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="89">
+        <v>0</v>
+      </c>
+      <c r="C24" s="90">
+        <v>0</v>
+      </c>
+      <c r="D24" s="89">
+        <v>0</v>
+      </c>
+      <c r="E24" s="68">
+        <f>SUM(G24:M24)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="90" t="e">
+        <f>AVERAGE(G24:M24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="89">
+        <v>0</v>
+      </c>
+      <c r="C25" s="90">
+        <v>0</v>
+      </c>
+      <c r="D25" s="89">
+        <v>0</v>
+      </c>
+      <c r="E25" s="68">
+        <f>SUM(G25:M25)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="90" t="e">
+        <f>AVERAGE(G25:M25)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="89">
+        <v>0</v>
+      </c>
+      <c r="C26" s="90">
+        <v>0</v>
+      </c>
+      <c r="D26" s="89">
+        <v>0</v>
+      </c>
+      <c r="E26" s="68">
+        <f>SUM(G26:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="90" t="e">
+        <f>AVERAGE(G26:M26)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="89">
+        <v>0</v>
+      </c>
+      <c r="C27" s="90">
+        <v>0</v>
+      </c>
+      <c r="D27" s="89">
+        <v>0</v>
+      </c>
+      <c r="E27" s="68">
+        <f>SUM(G27:M27)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="90" t="e">
+        <f>AVERAGE(G27:M27)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="89">
+        <v>0</v>
+      </c>
+      <c r="C28" s="90">
+        <v>0</v>
+      </c>
+      <c r="D28" s="89">
+        <v>0</v>
+      </c>
+      <c r="E28" s="68">
+        <f>SUM(G28:M28)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="90" t="e">
+        <f>AVERAGE(G28:M28)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="89">
+        <v>0</v>
+      </c>
+      <c r="C29" s="90">
+        <v>0</v>
+      </c>
+      <c r="D29" s="89">
+        <v>1</v>
+      </c>
+      <c r="E29" s="68">
+        <f>SUM(G29:M29)</f>
+        <v>6</v>
+      </c>
+      <c r="F29" s="90">
+        <f>AVERAGE(G29:M29)</f>
+        <v>3</v>
+      </c>
+      <c r="I29" s="89">
+        <v>3</v>
+      </c>
+      <c r="J29" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="89">
+        <v>0</v>
+      </c>
+      <c r="C30" s="90">
+        <v>0</v>
+      </c>
+      <c r="D30" s="89">
+        <v>0</v>
+      </c>
+      <c r="E30" s="68">
+        <f>SUM(G30:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="90" t="e">
+        <f>AVERAGE(G30:M30)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="89">
+        <v>0</v>
+      </c>
+      <c r="C31" s="90">
+        <v>0</v>
+      </c>
+      <c r="D31" s="89">
+        <v>0</v>
+      </c>
+      <c r="E31" s="68">
+        <f>SUM(G31:M31)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="90" t="e">
+        <f>AVERAGE(G31:M31)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="89">
+        <v>0</v>
+      </c>
+      <c r="C32" s="90">
+        <v>0</v>
+      </c>
+      <c r="D32" s="89">
+        <v>0</v>
+      </c>
+      <c r="E32" s="68">
+        <f>SUM(G32:M32)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="90" t="e">
+        <f>AVERAGE(G32:M32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="91"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="89">
+        <v>0</v>
+      </c>
+      <c r="C33" s="90">
+        <v>0</v>
+      </c>
+      <c r="D33" s="89">
+        <v>0</v>
+      </c>
+      <c r="E33" s="68">
+        <f>SUM(G33:M33)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="90" t="e">
+        <f>AVERAGE(G33:M33)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="89">
+        <v>0</v>
+      </c>
+      <c r="C34" s="90">
+        <v>0</v>
+      </c>
+      <c r="D34" s="89">
+        <v>0</v>
+      </c>
+      <c r="E34" s="68">
+        <f>SUM(G34:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="90" t="e">
+        <f>AVERAGE(G34:M34)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="89">
+        <v>0</v>
+      </c>
+      <c r="C35" s="90">
+        <v>0</v>
+      </c>
+      <c r="D35" s="89">
+        <v>0</v>
+      </c>
+      <c r="E35" s="68">
+        <f>SUM(G35:M35)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="90" t="e">
+        <f>AVERAGE(G35:M35)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="89">
+        <v>0</v>
+      </c>
+      <c r="C36" s="90">
+        <v>0</v>
+      </c>
+      <c r="D36" s="89">
+        <v>0</v>
+      </c>
+      <c r="E36" s="68">
+        <f>SUM(G36:M36)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="90" t="e">
+        <f>AVERAGE(G36:M36)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="89">
+        <v>0</v>
+      </c>
+      <c r="C37" s="90">
+        <v>0</v>
+      </c>
+      <c r="D37" s="89">
+        <v>0</v>
+      </c>
+      <c r="E37" s="68">
+        <f>SUM(G37:M37)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="90" t="e">
+        <f>AVERAGE(G37:M37)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="89">
+        <v>0</v>
+      </c>
+      <c r="C38" s="90">
+        <v>0</v>
+      </c>
+      <c r="D38" s="89">
+        <v>0</v>
+      </c>
+      <c r="E38" s="68">
+        <f>SUM(G38:M38)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="90" t="e">
+        <f>AVERAGE(G38:M38)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="89">
+        <v>0</v>
+      </c>
+      <c r="C39" s="90">
+        <v>0</v>
+      </c>
+      <c r="D39" s="89">
+        <v>0</v>
+      </c>
+      <c r="E39" s="68">
+        <f>SUM(G39:M39)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="90" t="e">
+        <f>AVERAGE(G39:M39)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="89">
+        <v>0</v>
+      </c>
+      <c r="C40" s="90">
+        <v>0</v>
+      </c>
+      <c r="D40" s="89">
+        <v>1</v>
+      </c>
+      <c r="E40" s="68">
+        <f>SUM(G40:M40)</f>
+        <v>6</v>
+      </c>
+      <c r="F40" s="90">
+        <f>AVERAGE(G40:M40)</f>
+        <v>3</v>
+      </c>
+      <c r="G40" s="89">
+        <v>3</v>
+      </c>
+      <c r="H40" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="89">
+        <v>0</v>
+      </c>
+      <c r="C41" s="90">
+        <v>0</v>
+      </c>
+      <c r="D41" s="89">
+        <v>2</v>
+      </c>
+      <c r="E41" s="68">
+        <f>SUM(G41:M41)</f>
+        <v>11</v>
+      </c>
+      <c r="F41" s="90">
+        <f>AVERAGE(G41:M41)</f>
+        <v>2.75</v>
+      </c>
+      <c r="G41" s="89">
+        <v>3</v>
+      </c>
+      <c r="H41" s="90">
+        <v>3</v>
+      </c>
+      <c r="I41" s="89">
+        <v>3</v>
+      </c>
+      <c r="J41" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="89">
+        <v>0</v>
+      </c>
+      <c r="C42" s="90">
+        <v>0</v>
+      </c>
+      <c r="D42" s="89">
+        <v>1</v>
+      </c>
+      <c r="E42" s="68">
+        <f>SUM(G42:M42)</f>
+        <v>6</v>
+      </c>
+      <c r="F42" s="90">
+        <f>AVERAGE(G42:M42)</f>
+        <v>3</v>
+      </c>
+      <c r="G42" s="89">
+        <v>3</v>
+      </c>
+      <c r="H42" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="89">
+        <v>0</v>
+      </c>
+      <c r="C43" s="90">
+        <v>0</v>
+      </c>
+      <c r="D43" s="89">
+        <v>2</v>
+      </c>
+      <c r="E43" s="68">
+        <f>SUM(G43:M43)</f>
+        <v>11</v>
+      </c>
+      <c r="F43" s="90">
+        <f>AVERAGE(G43:M43)</f>
+        <v>2.75</v>
+      </c>
+      <c r="G43" s="89">
+        <v>3</v>
+      </c>
+      <c r="H43" s="90">
+        <v>3</v>
+      </c>
+      <c r="I43" s="89">
+        <v>2</v>
+      </c>
+      <c r="J43" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="89">
+        <v>0</v>
+      </c>
+      <c r="C44" s="90">
+        <v>0</v>
+      </c>
+      <c r="D44" s="89">
+        <v>2</v>
+      </c>
+      <c r="E44" s="68">
+        <f>SUM(G44:M44)</f>
+        <v>11</v>
+      </c>
+      <c r="F44" s="90">
+        <f>AVERAGE(G44:M44)</f>
+        <v>2.75</v>
+      </c>
+      <c r="G44" s="89">
+        <v>3</v>
+      </c>
+      <c r="H44" s="90">
+        <v>3</v>
+      </c>
+      <c r="I44" s="89">
+        <v>2</v>
+      </c>
+      <c r="J44" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="T1" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="U1" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="V1" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="W1" t="s">
-        <v>85</v>
-      </c>
-      <c r="X1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>142</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>143</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>146</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>148</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>149</v>
+      <c r="B45" s="89">
+        <v>0</v>
+      </c>
+      <c r="C45" s="90">
+        <v>0</v>
+      </c>
+      <c r="D45" s="89">
+        <v>2</v>
+      </c>
+      <c r="E45" s="68">
+        <f>SUM(G45:M45)</f>
+        <v>7</v>
+      </c>
+      <c r="F45" s="90">
+        <f>AVERAGE(G45:M45)</f>
+        <v>1.75</v>
+      </c>
+      <c r="G45" s="89">
+        <v>2</v>
+      </c>
+      <c r="H45" s="90">
+        <v>3</v>
+      </c>
+      <c r="I45" s="89">
+        <v>1</v>
+      </c>
+      <c r="J45" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="89">
+        <v>0</v>
+      </c>
+      <c r="C46" s="90">
+        <v>0</v>
+      </c>
+      <c r="D46" s="89">
+        <v>2</v>
+      </c>
+      <c r="E46" s="68">
+        <f>SUM(G46:M46)</f>
+        <v>10</v>
+      </c>
+      <c r="F46" s="90">
+        <f>AVERAGE(G46:M46)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G46" s="89">
+        <v>2</v>
+      </c>
+      <c r="H46" s="90">
+        <v>3</v>
+      </c>
+      <c r="I46" s="89">
+        <v>2</v>
+      </c>
+      <c r="J46" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="89">
+        <v>0</v>
+      </c>
+      <c r="C47" s="90">
+        <v>0</v>
+      </c>
+      <c r="D47" s="89">
+        <v>2</v>
+      </c>
+      <c r="E47" s="68">
+        <f>SUM(G47:M47)</f>
+        <v>10</v>
+      </c>
+      <c r="F47" s="90">
+        <f>AVERAGE(G47:M47)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G47" s="89">
+        <v>3</v>
+      </c>
+      <c r="H47" s="90">
+        <v>1</v>
+      </c>
+      <c r="I47" s="89">
+        <v>3</v>
+      </c>
+      <c r="J47" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="89">
+        <v>0</v>
+      </c>
+      <c r="C48" s="90">
+        <v>0</v>
+      </c>
+      <c r="D48" s="89">
+        <v>2</v>
+      </c>
+      <c r="E48" s="68">
+        <f>SUM(G48:M48)</f>
+        <v>10</v>
+      </c>
+      <c r="F48" s="90">
+        <f>AVERAGE(G48:M48)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G48" s="89">
+        <v>1</v>
+      </c>
+      <c r="H48" s="90">
+        <v>3</v>
+      </c>
+      <c r="I48" s="89">
+        <v>3</v>
+      </c>
+      <c r="J48" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="89">
+        <v>0</v>
+      </c>
+      <c r="C49" s="90">
+        <v>0</v>
+      </c>
+      <c r="D49" s="89">
+        <v>2</v>
+      </c>
+      <c r="E49" s="68">
+        <f>SUM(G49:M49)</f>
+        <v>3</v>
+      </c>
+      <c r="F49" s="90">
+        <f>AVERAGE(G49:M49)</f>
+        <v>0.75</v>
+      </c>
+      <c r="G49" s="89">
+        <v>2</v>
+      </c>
+      <c r="H49" s="90">
+        <v>1</v>
+      </c>
+      <c r="I49" s="89">
+        <v>0</v>
+      </c>
+      <c r="J49" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="89">
+        <v>0</v>
+      </c>
+      <c r="C50" s="90">
+        <v>0</v>
+      </c>
+      <c r="D50" s="89">
+        <v>2</v>
+      </c>
+      <c r="E50" s="68">
+        <f>SUM(G50:M50)</f>
+        <v>7</v>
+      </c>
+      <c r="F50" s="90">
+        <f>AVERAGE(G50:M50)</f>
+        <v>1.75</v>
+      </c>
+      <c r="G50" s="89">
+        <v>1</v>
+      </c>
+      <c r="H50" s="90">
+        <v>2</v>
+      </c>
+      <c r="I50" s="89">
+        <v>1</v>
+      </c>
+      <c r="J50" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="89">
+        <v>0</v>
+      </c>
+      <c r="C51" s="90">
+        <v>0</v>
+      </c>
+      <c r="D51" s="89">
+        <v>2</v>
+      </c>
+      <c r="E51" s="68">
+        <f>SUM(G51:M51)</f>
+        <v>9</v>
+      </c>
+      <c r="F51" s="90">
+        <f>AVERAGE(G51:M51)</f>
+        <v>2.25</v>
+      </c>
+      <c r="G51" s="89">
+        <v>1</v>
+      </c>
+      <c r="H51" s="90">
+        <v>2</v>
+      </c>
+      <c r="I51" s="89">
+        <v>3</v>
+      </c>
+      <c r="J51" s="90">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -2,28 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD9DD9B-29D7-4D83-9C0E-F6C379C46251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2E08E522-AC73-44F4-8A19-01068265BE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2B27E2D7-7E1F-4830-8A43-C634E6A715E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
     <sheet name="CWL 2" sheetId="2" r:id="rId2"/>
-    <sheet name="avv" sheetId="7" r:id="rId3"/>
-    <sheet name="partecipanti" sheetId="3" r:id="rId4"/>
-    <sheet name="wars" sheetId="8" r:id="rId5"/>
+    <sheet name="avv" sheetId="3" r:id="rId3"/>
+    <sheet name="partecipanti" sheetId="4" r:id="rId4"/>
+    <sheet name="wars" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -40,11 +38,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="193">
   <si>
     <t>nome</t>
   </si>
   <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>stelle</t>
+  </si>
+  <si>
     <t>xblade</t>
   </si>
   <si>
@@ -60,6 +67,9 @@
     <t>luigi01</t>
   </si>
   <si>
+    <t>12 13</t>
+  </si>
+  <si>
     <t>piegian99</t>
   </si>
   <si>
@@ -75,6 +85,9 @@
     <t>cleopatra</t>
   </si>
   <si>
+    <t>11 12</t>
+  </si>
+  <si>
     <t>haha</t>
   </si>
   <si>
@@ -132,27 +145,12 @@
     <t>dio animale</t>
   </si>
   <si>
+    <t>10 11</t>
+  </si>
+  <si>
     <t>simone</t>
   </si>
   <si>
-    <t>stelle</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>12 13</t>
-  </si>
-  <si>
-    <t>11 12</t>
-  </si>
-  <si>
-    <t>10 11</t>
-  </si>
-  <si>
     <t>attacco basso</t>
   </si>
   <si>
@@ -165,100 +163,130 @@
     <t>assegnazione forzata</t>
   </si>
   <si>
+    <t>marcojk007</t>
+  </si>
+  <si>
+    <t>chabby</t>
+  </si>
+  <si>
+    <t>zombra</t>
+  </si>
+  <si>
+    <t>buff-x-bow</t>
+  </si>
+  <si>
     <t>pigiamone99</t>
   </si>
   <si>
+    <t>d 011</t>
+  </si>
+  <si>
     <t>sono io lakaka</t>
   </si>
   <si>
+    <t>sidcu</t>
+  </si>
+  <si>
+    <t>18+ pos</t>
+  </si>
+  <si>
+    <t>kakko garau</t>
+  </si>
+  <si>
+    <t>serena</t>
+  </si>
+  <si>
+    <t>di gio</t>
+  </si>
+  <si>
+    <t>heloo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> attacco ok</t>
+  </si>
+  <si>
+    <t>ottimo attacco</t>
+  </si>
+  <si>
+    <t>attacco meh</t>
+  </si>
+  <si>
+    <t>CWL2</t>
+  </si>
+  <si>
+    <t>maikol_lix</t>
+  </si>
+  <si>
+    <t>gionny</t>
+  </si>
+  <si>
+    <t>ajejebrazorf</t>
+  </si>
+  <si>
+    <t>dela</t>
+  </si>
+  <si>
+    <t>edododo</t>
+  </si>
+  <si>
+    <t>nik</t>
+  </si>
+  <si>
+    <t>buff x bow</t>
+  </si>
+  <si>
+    <t>christian</t>
+  </si>
+  <si>
+    <t>fabio</t>
+  </si>
+  <si>
+    <t>daniele</t>
+  </si>
+  <si>
     <t>serra</t>
   </si>
   <si>
-    <t>chabby</t>
-  </si>
-  <si>
-    <t>sidcu</t>
-  </si>
-  <si>
-    <t>di gio</t>
-  </si>
-  <si>
-    <t>d 011</t>
-  </si>
-  <si>
-    <t>zombra</t>
-  </si>
-  <si>
-    <t>kakko garau</t>
-  </si>
-  <si>
-    <t>serena</t>
-  </si>
-  <si>
-    <t>heloo</t>
-  </si>
-  <si>
-    <t>maikol_lix</t>
-  </si>
-  <si>
-    <t>ajejebrazorf</t>
-  </si>
-  <si>
-    <t>edododo</t>
-  </si>
-  <si>
-    <t>marcojk007</t>
-  </si>
-  <si>
-    <t>gionny</t>
-  </si>
-  <si>
-    <t>dela</t>
-  </si>
-  <si>
-    <t>nik</t>
-  </si>
-  <si>
-    <t>buff x bow</t>
-  </si>
-  <si>
-    <t>christian</t>
-  </si>
-  <si>
-    <t>fabio</t>
-  </si>
-  <si>
-    <t>daniele</t>
-  </si>
-  <si>
     <t>federico99</t>
   </si>
   <si>
     <t>lord pucci</t>
   </si>
   <si>
-    <t>ottimo attacco</t>
-  </si>
-  <si>
-    <t>18+ pos</t>
-  </si>
-  <si>
-    <t>buff-x-bow</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> attacco ok</t>
-  </si>
-  <si>
-    <t>attacco meh</t>
-  </si>
-  <si>
-    <t>CWL2</t>
-  </si>
-  <si>
-    <t>Colonna11</t>
-  </si>
-  <si>
-    <t>Colonna12</t>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ATK SKIP</t>
+  </si>
+  <si>
+    <t>ZERO WAR  ATK</t>
+  </si>
+  <si>
+    <t>TOT WARS</t>
+  </si>
+  <si>
+    <t>TOT STARS</t>
+  </si>
+  <si>
+    <t>AVG STAR</t>
+  </si>
+  <si>
+    <t>WAR-1 (1)</t>
+  </si>
+  <si>
+    <t>WAR-1 (2)</t>
+  </si>
+  <si>
+    <t>WAR-2 (1)</t>
+  </si>
+  <si>
+    <t>WAR-2 (2)</t>
+  </si>
+  <si>
+    <t>WAR-3 (1)</t>
+  </si>
+  <si>
+    <t>WAR-3 (2)</t>
   </si>
   <si>
     <t>Colonna13</t>
@@ -486,142 +514,109 @@
     <t>Colonna87</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>ATK SKIP</t>
-  </si>
-  <si>
-    <t>AVG STAR</t>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Luxor</t>
+  </si>
+  <si>
+    <t>sidcu js</t>
   </si>
   <si>
     <t>ER DANDI 1927</t>
   </si>
   <si>
+    <t>Luigi</t>
+  </si>
+  <si>
+    <t>RobbyCV</t>
+  </si>
+  <si>
+    <t>Alaa</t>
+  </si>
+  <si>
+    <t>buff x-bow</t>
+  </si>
+  <si>
+    <t>CARFI</t>
+  </si>
+  <si>
     <t>Chabby</t>
   </si>
   <si>
-    <t>Luigi</t>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>D 011</t>
+  </si>
+  <si>
+    <t>dux104</t>
+  </si>
+  <si>
+    <t>EdoDodo</t>
+  </si>
+  <si>
+    <t>Floky23</t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>GiornoBrando</t>
+  </si>
+  <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>LELE11GAM3R</t>
+  </si>
+  <si>
+    <t>Matty7_</t>
+  </si>
+  <si>
+    <t>P.E.K.K.A</t>
+  </si>
+  <si>
+    <t>R1cky_boffo</t>
+  </si>
+  <si>
+    <t>Roberta</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>shark</t>
+  </si>
+  <si>
+    <t>Sub.WayGud</t>
+  </si>
+  <si>
+    <t>SubOhm</t>
+  </si>
+  <si>
+    <t>th4nos</t>
+  </si>
+  <si>
+    <t>Valh</t>
   </si>
   <si>
     <t>Brazo</t>
   </si>
   <si>
-    <t>Valh</t>
-  </si>
-  <si>
-    <t>Matty7_</t>
+    <t>Simone</t>
   </si>
   <si>
     <t>Stentaaa</t>
   </si>
   <si>
-    <t>RobbyCV</t>
-  </si>
-  <si>
-    <t>GiornoBrando</t>
-  </si>
-  <si>
-    <t>Rosario</t>
-  </si>
-  <si>
     <t>xbladze</t>
   </si>
   <si>
-    <t>Simone</t>
+    <t>BigMc23</t>
   </si>
   <si>
     <t>HikariNoRob</t>
-  </si>
-  <si>
-    <t>EdoDodo</t>
-  </si>
-  <si>
-    <t>BigMc23</t>
-  </si>
-  <si>
-    <t>Sub.WayGud</t>
-  </si>
-  <si>
-    <t>king</t>
-  </si>
-  <si>
-    <t>Luxor</t>
-  </si>
-  <si>
-    <t>D 011</t>
-  </si>
-  <si>
-    <t>gh</t>
-  </si>
-  <si>
-    <t>Floky23</t>
-  </si>
-  <si>
-    <t>Roberta</t>
-  </si>
-  <si>
-    <t>CARFI</t>
-  </si>
-  <si>
-    <t>shark</t>
-  </si>
-  <si>
-    <t>Cleopatra</t>
-  </si>
-  <si>
-    <t>dux104</t>
-  </si>
-  <si>
-    <t>th4nos</t>
-  </si>
-  <si>
-    <t>R1cky_boffo</t>
-  </si>
-  <si>
-    <t>tustrunz</t>
-  </si>
-  <si>
-    <t>sidcu js</t>
-  </si>
-  <si>
-    <t>Alaa</t>
-  </si>
-  <si>
-    <t>buff x-bow</t>
-  </si>
-  <si>
-    <t>SubOhm</t>
-  </si>
-  <si>
-    <t>P.E.K.K.A</t>
-  </si>
-  <si>
-    <t>LELE11GAM3R</t>
-  </si>
-  <si>
-    <t>TOT WARS</t>
-  </si>
-  <si>
-    <t>TOT STARS</t>
-  </si>
-  <si>
-    <t>WAR-1 (1)</t>
-  </si>
-  <si>
-    <t>WAR-1 (2)</t>
-  </si>
-  <si>
-    <t>WAR-2 (1)</t>
-  </si>
-  <si>
-    <t>WAR-2 (2)</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>ZERO WAR  ATK</t>
   </si>
 </sst>
 </file>
@@ -882,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1121,24 +1116,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,7 +1131,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1162,22 +1147,6 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="89">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1381,7 +1350,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -1392,7 +1361,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1403,7 +1372,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -1414,7 +1383,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1425,7 +1394,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -1436,7 +1405,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1447,7 +1416,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -1458,7 +1427,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1469,7 +1438,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -1480,7 +1449,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1491,7 +1460,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -1502,7 +1471,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1513,7 +1482,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -1524,7 +1493,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1535,7 +1504,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -1546,7 +1515,34 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1557,7 +1553,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1568,29 +1575,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1615,103 +1600,103 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F423CFF4-9977-426D-8642-F003DBBACCED}" name="Tabella2" displayName="Tabella2" ref="A1:CI51" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:CI51" xr:uid="{F423CFF4-9977-426D-8642-F003DBBACCED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella2" displayName="Tabella2" ref="A1:CI51" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:CI51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CI51">
     <sortCondition descending="1" ref="B1:B51"/>
   </sortState>
   <tableColumns count="87">
-    <tableColumn id="1" xr3:uid="{0EF2E770-1752-4641-85BA-AF768F96EB2C}" name="NAME" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{7700FB12-63EA-4ABA-AB95-731E7ECAAC7D}" name="ATK SKIP" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{D973E7BC-5474-455A-8D23-F3E7679E3DAE}" name="ZERO WAR  ATK" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{332DFDF5-E2C0-4E6A-9D28-6CA5CF7E8D3E}" name="TOT WARS" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{3922FF77-05B3-4852-BC79-4460D5A13091}" name="TOT STARS" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NAME" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATK SKIP" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ZERO WAR  ATK" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TOT WARS" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TOT STARS" dataDxfId="84">
       <calculatedColumnFormula>SUM(G2:M2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0F6B5768-3F32-468D-B833-303BD4179BD2}" name="AVG STAR" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="AVG STAR" dataDxfId="83">
       <calculatedColumnFormula>AVERAGE(G2:M2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{376A0512-F474-4CFF-8C69-D521A2E8282B}" name="WAR-1 (1)" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{E37E47C7-4EDE-43BC-8ED9-2D2AE2F9E63B}" name="WAR-1 (2)" dataDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{6DBCEF93-512C-45A9-B082-1851EC958F4B}" name="WAR-2 (1)" dataDxfId="82"/>
-    <tableColumn id="10" xr3:uid="{91DE97F5-8BA7-4331-8862-54D3FBDB73EA}" name="WAR-2 (2)" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{EC532579-06C4-4FF2-82FC-307D86BB24BD}" name="Colonna11" dataDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{5BD5FC70-A326-4310-BEE3-FA83ACEF5E0E}" name="Colonna12" dataDxfId="79"/>
-    <tableColumn id="13" xr3:uid="{290FE366-F9C2-47A9-8560-3E43AC71D7BD}" name="Colonna13" dataDxfId="78"/>
-    <tableColumn id="14" xr3:uid="{3761D2F3-C126-4E7A-9184-8769ACAD7414}" name="Colonna14" dataDxfId="77"/>
-    <tableColumn id="15" xr3:uid="{1DE69A51-8060-4FE2-9A7F-B25F0B656AFC}" name="Colonna15" dataDxfId="76"/>
-    <tableColumn id="16" xr3:uid="{C8D3533A-AF90-4393-AD46-CDE8FB2E9E71}" name="Colonna16" dataDxfId="75"/>
-    <tableColumn id="17" xr3:uid="{A352C3C5-F8A8-4B54-BCB4-C5B00F5DA941}" name="Colonna17" dataDxfId="74"/>
-    <tableColumn id="18" xr3:uid="{FC8D5AC5-A191-4BDE-8BED-4858577379BC}" name="Colonna18" dataDxfId="73"/>
-    <tableColumn id="19" xr3:uid="{108D4001-D141-4CD5-9507-C1358BFC8B5A}" name="Colonna19" dataDxfId="72"/>
-    <tableColumn id="20" xr3:uid="{A80AF7DF-5078-4F70-9C8A-F1DBDB344EE2}" name="Colonna20" dataDxfId="71"/>
-    <tableColumn id="21" xr3:uid="{6DFF097C-5E78-42C7-802F-25FD85BF34EB}" name="Colonna21" dataDxfId="70"/>
-    <tableColumn id="22" xr3:uid="{360AFEF1-7881-473A-A5FB-6703D940E7BF}" name="Colonna22" dataDxfId="69"/>
-    <tableColumn id="23" xr3:uid="{FC402F78-186F-40BE-87B9-A4A8DFF11E14}" name="Colonna23" dataDxfId="68"/>
-    <tableColumn id="24" xr3:uid="{87677C85-73FC-4035-A4D8-122A91554F53}" name="Colonna24" dataDxfId="67"/>
-    <tableColumn id="25" xr3:uid="{B3DB419E-5602-416B-B7F9-E376441BEB88}" name="Colonna25" dataDxfId="66"/>
-    <tableColumn id="26" xr3:uid="{7995E8D9-B284-4793-A16C-E6F5A85B87F7}" name="Colonna26" dataDxfId="65"/>
-    <tableColumn id="27" xr3:uid="{C8EFA8C1-99BB-4F34-8AD3-8537A15CEA13}" name="Colonna27" dataDxfId="64"/>
-    <tableColumn id="28" xr3:uid="{F9CF1DF5-D3FC-4CD2-9BE5-4610806C9BBB}" name="Colonna28" dataDxfId="63"/>
-    <tableColumn id="29" xr3:uid="{6F0EFA45-DD34-4A6A-A928-263B3F3B42E4}" name="Colonna29" dataDxfId="62"/>
-    <tableColumn id="30" xr3:uid="{CB559727-A40B-4944-9D52-7649F5FAF1EA}" name="Colonna30" dataDxfId="61"/>
-    <tableColumn id="31" xr3:uid="{701EA7E0-95E0-47FC-8D0E-4F262430A37D}" name="Colonna31" dataDxfId="60"/>
-    <tableColumn id="32" xr3:uid="{A933180B-2642-4730-B753-229145E1EF41}" name="Colonna32" dataDxfId="59"/>
-    <tableColumn id="33" xr3:uid="{3573333E-9754-4F23-8CDC-D1306F9BF268}" name="Colonna33" dataDxfId="58"/>
-    <tableColumn id="34" xr3:uid="{EC47DFDD-5E7A-4620-B3BB-AFB992D52395}" name="Colonna34" dataDxfId="57"/>
-    <tableColumn id="35" xr3:uid="{AA21E8AB-AB7F-42D5-96D3-B74237A2014C}" name="Colonna35" dataDxfId="56"/>
-    <tableColumn id="36" xr3:uid="{C9FB4DCF-BF28-4AE1-A7CF-8ABB51DB12CE}" name="Colonna36" dataDxfId="55"/>
-    <tableColumn id="37" xr3:uid="{E034E0DF-52D6-4B2B-8593-89C7BD38C5D2}" name="Colonna37" dataDxfId="54"/>
-    <tableColumn id="38" xr3:uid="{693B6181-DA2C-4B2F-9889-532878D25528}" name="Colonna38" dataDxfId="53"/>
-    <tableColumn id="39" xr3:uid="{3502DF4E-4ED6-41A7-969E-88CCC7B187AF}" name="Colonna39" dataDxfId="52"/>
-    <tableColumn id="40" xr3:uid="{F2354E38-61A3-4D8B-AD7A-925179F7CB6D}" name="Colonna40" dataDxfId="51"/>
-    <tableColumn id="41" xr3:uid="{89374DDF-FC75-4E39-8FA9-B58FCCDE25EE}" name="Colonna41" dataDxfId="50"/>
-    <tableColumn id="42" xr3:uid="{F270E42D-CD1C-4E23-AC89-B8C21EC3F3E0}" name="Colonna42" dataDxfId="49"/>
-    <tableColumn id="43" xr3:uid="{F957FB97-E69A-4AF2-B828-BC36EFBAF1C7}" name="Colonna43" dataDxfId="48"/>
-    <tableColumn id="44" xr3:uid="{8AA72C31-4181-4378-8207-491062F0E3EC}" name="Colonna44" dataDxfId="47"/>
-    <tableColumn id="45" xr3:uid="{69E342D7-7C24-4442-A6D5-BE116FD22054}" name="Colonna45" dataDxfId="46"/>
-    <tableColumn id="46" xr3:uid="{6B2864A9-B388-4422-9440-AD11780FCDD6}" name="Colonna46" dataDxfId="45"/>
-    <tableColumn id="47" xr3:uid="{19B5D526-813F-4596-A72A-AB90941FB1D7}" name="Colonna47" dataDxfId="44"/>
-    <tableColumn id="48" xr3:uid="{DBF1BD23-6353-412A-8662-485BEBB03F86}" name="Colonna48" dataDxfId="43"/>
-    <tableColumn id="49" xr3:uid="{27E8288F-06CF-49EB-B94E-3FEBCA7B0510}" name="Colonna49" dataDxfId="42"/>
-    <tableColumn id="50" xr3:uid="{06E74F8A-60BC-49D6-B40F-E720C8B2041D}" name="Colonna50" dataDxfId="41"/>
-    <tableColumn id="51" xr3:uid="{73FA2BF0-26B2-4E2F-AEA3-E3B5405F15BE}" name="Colonna51" dataDxfId="40"/>
-    <tableColumn id="52" xr3:uid="{4EB236AA-EF57-461D-B29F-9035D272A5EA}" name="Colonna52" dataDxfId="39"/>
-    <tableColumn id="53" xr3:uid="{7899778E-7F35-4B84-B1F7-1E247FA55D25}" name="Colonna53" dataDxfId="38"/>
-    <tableColumn id="54" xr3:uid="{E9D49300-A3C5-47CE-9A98-A85CC8C75A45}" name="Colonna54" dataDxfId="37"/>
-    <tableColumn id="55" xr3:uid="{0613756B-161C-409C-9A6A-25B7A080F421}" name="Colonna55" dataDxfId="36"/>
-    <tableColumn id="56" xr3:uid="{99C2FE99-EDAE-4F01-9ED2-95512B4574FB}" name="Colonna56" dataDxfId="35"/>
-    <tableColumn id="57" xr3:uid="{638F506F-0426-4DFD-A87B-A28ED31AA260}" name="Colonna57" dataDxfId="34"/>
-    <tableColumn id="58" xr3:uid="{C8F66985-EBBC-4FCF-8032-822832F3D172}" name="Colonna58" dataDxfId="33"/>
-    <tableColumn id="59" xr3:uid="{4562A6FD-B85F-48C6-8B32-BA77AD4A14D8}" name="Colonna59" dataDxfId="32"/>
-    <tableColumn id="60" xr3:uid="{D92EC79F-EAE1-4A25-804B-68F6930EEFE5}" name="Colonna60" dataDxfId="31"/>
-    <tableColumn id="61" xr3:uid="{791651E5-73FF-4074-962D-F43959D5F41A}" name="Colonna61" dataDxfId="30"/>
-    <tableColumn id="62" xr3:uid="{1BFBA69A-C5FC-4265-8BA7-EDB124FA5A0A}" name="Colonna62" dataDxfId="29"/>
-    <tableColumn id="63" xr3:uid="{8669ADEA-97BF-4D3C-920C-9D9F7C8FE5C2}" name="Colonna63" dataDxfId="28"/>
-    <tableColumn id="64" xr3:uid="{1BF95B64-FD6F-48E0-AC27-27D6221F83B4}" name="Colonna64" dataDxfId="27"/>
-    <tableColumn id="65" xr3:uid="{E0264749-1CCC-4AFF-B977-38799E20CA23}" name="Colonna65" dataDxfId="26"/>
-    <tableColumn id="66" xr3:uid="{0ED1D8E5-7EB4-4E03-BFFF-0B72D797EC14}" name="Colonna66" dataDxfId="25"/>
-    <tableColumn id="67" xr3:uid="{0F841082-A00A-434F-B65F-3136819F147C}" name="Colonna67" dataDxfId="24"/>
-    <tableColumn id="68" xr3:uid="{D7928FB1-1585-494F-9111-6040D63F5A29}" name="Colonna68" dataDxfId="23"/>
-    <tableColumn id="69" xr3:uid="{5CDA26B7-B4C7-4DE8-B8E2-661989279FF5}" name="Colonna69" dataDxfId="22"/>
-    <tableColumn id="70" xr3:uid="{C4F959F7-EEA6-4053-8D43-8E6B1205DAEE}" name="Colonna70" dataDxfId="21"/>
-    <tableColumn id="71" xr3:uid="{E57CD1EB-9AF1-433E-830E-0F73F9059F3A}" name="Colonna71" dataDxfId="20"/>
-    <tableColumn id="72" xr3:uid="{81E2AC05-08A6-483C-914B-2E9E13AC4D01}" name="Colonna72" dataDxfId="19"/>
-    <tableColumn id="73" xr3:uid="{B1C1244D-DCE4-46D9-AE7F-34A915048A93}" name="Colonna73" dataDxfId="18"/>
-    <tableColumn id="74" xr3:uid="{CBAAB737-C8D4-4339-AF0E-0EC58F323145}" name="Colonna74" dataDxfId="17"/>
-    <tableColumn id="75" xr3:uid="{C70D1860-9EE7-4E1C-90F4-E810D54107A8}" name="Colonna75" dataDxfId="16"/>
-    <tableColumn id="76" xr3:uid="{0B6A33C3-907A-4774-93B5-0C9E4884751B}" name="Colonna76" dataDxfId="15"/>
-    <tableColumn id="77" xr3:uid="{857AE10B-66C6-471D-941F-F1117F0AC515}" name="Colonna77" dataDxfId="14"/>
-    <tableColumn id="78" xr3:uid="{32C0A9AF-5789-4DD8-A354-A95C845455C4}" name="Colonna78" dataDxfId="13"/>
-    <tableColumn id="79" xr3:uid="{BAEF2E76-0B19-42F6-A6FD-2A37EF87A7F1}" name="Colonna79" dataDxfId="12"/>
-    <tableColumn id="80" xr3:uid="{B512BE24-AF4D-413E-905E-42EC63649C9B}" name="Colonna80" dataDxfId="11"/>
-    <tableColumn id="81" xr3:uid="{B4798D7F-B4F4-4EF5-8AF2-C227BF6BEAFB}" name="Colonna81" dataDxfId="10"/>
-    <tableColumn id="82" xr3:uid="{8EF937F7-D8CE-4C15-B756-8A5185D15582}" name="Colonna82" dataDxfId="9"/>
-    <tableColumn id="83" xr3:uid="{0EDC6303-87C8-4535-B252-CDEC7B0A6A3D}" name="Colonna83" dataDxfId="8"/>
-    <tableColumn id="84" xr3:uid="{AEBF63B5-CCB3-489D-8B08-5DAE5C9889F6}" name="Colonna84" dataDxfId="7"/>
-    <tableColumn id="85" xr3:uid="{D4C6970E-B9D7-46F8-8725-98E40168F42C}" name="Colonna85" dataDxfId="6"/>
-    <tableColumn id="86" xr3:uid="{E552D410-AE16-4D07-8EC7-90BF77D8C599}" name="Colonna86" dataDxfId="5"/>
-    <tableColumn id="87" xr3:uid="{625DFEFC-1B10-427B-AD94-94B948B67603}" name="Colonna87" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="WAR-1 (1)" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="WAR-1 (2)" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="WAR-2 (1)" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="WAR-2 (2)" dataDxfId="79"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Colonna11" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Colonna12" dataDxfId="77"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Colonna13" dataDxfId="76"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Colonna14" dataDxfId="75"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colonna15" dataDxfId="74"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Colonna16" dataDxfId="73"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Colonna17" dataDxfId="72"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Colonna18" dataDxfId="71"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Colonna19" dataDxfId="70"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Colonna20" dataDxfId="69"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Colonna21" dataDxfId="68"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Colonna22" dataDxfId="67"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Colonna23" dataDxfId="66"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Colonna24" dataDxfId="65"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Colonna25" dataDxfId="64"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Colonna26" dataDxfId="63"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Colonna27" dataDxfId="62"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Colonna28" dataDxfId="61"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Colonna29" dataDxfId="60"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Colonna30" dataDxfId="59"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Colonna31" dataDxfId="58"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Colonna32" dataDxfId="57"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Colonna33" dataDxfId="56"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Colonna34" dataDxfId="55"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Colonna35" dataDxfId="54"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Colonna36" dataDxfId="53"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Colonna37" dataDxfId="52"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Colonna38" dataDxfId="51"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Colonna39" dataDxfId="50"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Colonna40" dataDxfId="49"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Colonna41" dataDxfId="48"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Colonna42" dataDxfId="47"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Colonna43" dataDxfId="46"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Colonna44" dataDxfId="45"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Colonna45" dataDxfId="44"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Colonna46" dataDxfId="43"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Colonna47" dataDxfId="42"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Colonna48" dataDxfId="41"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Colonna49" dataDxfId="40"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Colonna50" dataDxfId="39"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Colonna51" dataDxfId="38"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Colonna52" dataDxfId="37"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Colonna53" dataDxfId="36"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Colonna54" dataDxfId="35"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Colonna55" dataDxfId="34"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Colonna56" dataDxfId="33"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Colonna57" dataDxfId="32"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Colonna58" dataDxfId="31"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Colonna59" dataDxfId="30"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Colonna60" dataDxfId="29"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Colonna61" dataDxfId="28"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Colonna62" dataDxfId="27"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Colonna63" dataDxfId="26"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="Colonna64" dataDxfId="25"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Colonna65" dataDxfId="24"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Colonna66" dataDxfId="23"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="Colonna67" dataDxfId="22"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Colonna68" dataDxfId="21"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="Colonna69" dataDxfId="20"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Colonna70" dataDxfId="19"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Colonna71" dataDxfId="18"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Colonna72" dataDxfId="17"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Colonna73" dataDxfId="16"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Colonna74" dataDxfId="15"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Colonna75" dataDxfId="14"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Colonna76" dataDxfId="13"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Colonna77" dataDxfId="12"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Colonna78" dataDxfId="11"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Colonna79" dataDxfId="10"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="Colonna80" dataDxfId="9"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="Colonna81" dataDxfId="8"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="Colonna82" dataDxfId="7"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" name="Colonna83" dataDxfId="6"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="Colonna84" dataDxfId="5"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" name="Colonna85" dataDxfId="4"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" name="Colonna86" dataDxfId="3"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="Colonna87" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2033,131 +2018,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27067D6F-05AA-42C5-8EB4-3439484454C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="23.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" style="5" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="4" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" style="4" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="7.85546875" style="5" customWidth="1"/>
-    <col min="28" max="28" width="5.7109375" style="4" customWidth="1"/>
-    <col min="29" max="29" width="8.28515625" style="6" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="7.88671875" style="5" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="7.88671875" style="5" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="7.88671875" style="5" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="8.33203125" style="6" customWidth="1"/>
+    <col min="30" max="30" width="9.109375" style="4" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="AD1" s="23"/>
       <c r="AE1" s="23"/>
@@ -2166,12 +2152,12 @@
       <c r="AH1" s="23"/>
       <c r="AI1" s="23"/>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>16</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -2219,12 +2205,12 @@
       <c r="AH2" s="23"/>
       <c r="AI2" s="23"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>15</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
@@ -2266,12 +2252,12 @@
       <c r="AH3" s="23"/>
       <c r="AI3" s="23"/>
     </row>
-    <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>15</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -2307,12 +2293,12 @@
       <c r="AH4" s="23"/>
       <c r="AI4" s="23"/>
     </row>
-    <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>13</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5">
         <v>-1</v>
@@ -2348,12 +2334,12 @@
       <c r="AH5" s="23"/>
       <c r="AI5" s="23"/>
     </row>
-    <row r="6" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>12</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -2407,12 +2393,12 @@
       <c r="AH6" s="23"/>
       <c r="AI6" s="23"/>
     </row>
-    <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
@@ -2448,12 +2434,12 @@
       <c r="AH7" s="23"/>
       <c r="AI7" s="23"/>
     </row>
-    <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>12</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -2489,12 +2475,12 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
     </row>
-    <row r="9" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>12</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -2530,12 +2516,12 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="23"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>12</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -2571,12 +2557,12 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="23"/>
     </row>
-    <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>12</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
@@ -2612,12 +2598,12 @@
       <c r="AH11" s="23"/>
       <c r="AI11" s="23"/>
     </row>
-    <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
@@ -2653,12 +2639,12 @@
       <c r="AH12" s="23"/>
       <c r="AI12" s="23"/>
     </row>
-    <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
@@ -2694,12 +2680,12 @@
       <c r="AH13" s="23"/>
       <c r="AI13" s="23"/>
     </row>
-    <row r="14" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -2735,12 +2721,12 @@
       <c r="AH14" s="23"/>
       <c r="AI14" s="23"/>
     </row>
-    <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
@@ -2788,12 +2774,12 @@
       <c r="AH15" s="23"/>
       <c r="AI15" s="23"/>
     </row>
-    <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>11</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -2829,12 +2815,12 @@
       <c r="AH16" s="23"/>
       <c r="AI16" s="23"/>
     </row>
-    <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>11</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
@@ -2876,12 +2862,12 @@
       <c r="AH17" s="23"/>
       <c r="AI17" s="23"/>
     </row>
-    <row r="18" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -2917,12 +2903,12 @@
       <c r="AH18" s="23"/>
       <c r="AI18" s="23"/>
     </row>
-    <row r="19" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>11</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
@@ -2958,12 +2944,12 @@
       <c r="AH19" s="23"/>
       <c r="AI19" s="23"/>
     </row>
-    <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>11</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
@@ -3005,12 +2991,12 @@
       <c r="AH20" s="23"/>
       <c r="AI20" s="23"/>
     </row>
-    <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>11</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
@@ -3058,12 +3044,12 @@
       <c r="AH21" s="23"/>
       <c r="AI21" s="23"/>
     </row>
-    <row r="22" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>11</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3099,12 +3085,12 @@
       <c r="AH22" s="23"/>
       <c r="AI22" s="23"/>
     </row>
-    <row r="23" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>11</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -3140,12 +3126,12 @@
       <c r="AH23" s="23"/>
       <c r="AI23" s="23"/>
     </row>
-    <row r="24" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>11</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
@@ -3181,12 +3167,12 @@
       <c r="AH24" s="23"/>
       <c r="AI24" s="23"/>
     </row>
-    <row r="25" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>11</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C25" s="5">
         <v>-3</v>
@@ -3222,12 +3208,12 @@
       <c r="AH25" s="23"/>
       <c r="AI25" s="23"/>
     </row>
-    <row r="26" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>11</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="5">
         <v>0</v>
@@ -3275,12 +3261,12 @@
       <c r="AH26" s="23"/>
       <c r="AI26" s="23"/>
     </row>
-    <row r="27" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>11</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5">
         <v>0</v>
@@ -3316,12 +3302,12 @@
       <c r="AH27" s="23"/>
       <c r="AI27" s="23"/>
     </row>
-    <row r="28" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>11</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
@@ -3357,12 +3343,12 @@
       <c r="AH28" s="23"/>
       <c r="AI28" s="23"/>
     </row>
-    <row r="29" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>11</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C29" s="5">
         <v>3</v>
@@ -3398,12 +3384,12 @@
       <c r="AH29" s="23"/>
       <c r="AI29" s="23"/>
     </row>
-    <row r="30" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>11</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -3439,12 +3425,12 @@
       <c r="AH30" s="23"/>
       <c r="AI30" s="23"/>
     </row>
-    <row r="31" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
@@ -3480,7 +3466,7 @@
       <c r="AH31" s="23"/>
       <c r="AI31" s="23"/>
     </row>
-    <row r="32" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -3517,7 +3503,7 @@
       <c r="AH32" s="23"/>
       <c r="AI32" s="23"/>
     </row>
-    <row r="33" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -3554,7 +3540,7 @@
       <c r="AH33" s="23"/>
       <c r="AI33" s="23"/>
     </row>
-    <row r="34" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="29"/>
       <c r="B34" s="28" t="s">
         <v>37</v>
@@ -3593,7 +3579,7 @@
       <c r="AH34" s="23"/>
       <c r="AI34" s="23"/>
     </row>
-    <row r="35" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="30"/>
       <c r="B35" s="28" t="s">
         <v>38</v>
@@ -3632,7 +3618,7 @@
       <c r="AH35" s="23"/>
       <c r="AI35" s="23"/>
     </row>
-    <row r="36" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18"/>
       <c r="B36" s="28" t="s">
         <v>39</v>
@@ -3671,7 +3657,7 @@
       <c r="AH36" s="23"/>
       <c r="AI36" s="23"/>
     </row>
-    <row r="37" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
       <c r="B37" s="28" t="s">
         <v>40</v>
@@ -3710,7 +3696,7 @@
       <c r="AH37" s="23"/>
       <c r="AI37" s="23"/>
     </row>
-    <row r="38" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="32"/>
       <c r="B38" s="28"/>
       <c r="C38" s="23"/>
@@ -3747,7 +3733,7 @@
       <c r="AH38" s="23"/>
       <c r="AI38" s="23"/>
     </row>
-    <row r="39" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -3784,7 +3770,7 @@
       <c r="AH39" s="23"/>
       <c r="AI39" s="23"/>
     </row>
-    <row r="40" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -3816,7 +3802,7 @@
       <c r="AC40" s="23"/>
       <c r="AD40" s="23"/>
     </row>
-    <row r="41" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -3848,7 +3834,7 @@
       <c r="AC41" s="23"/>
       <c r="AD41" s="23"/>
     </row>
-    <row r="42" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -3880,7 +3866,7 @@
       <c r="AC42" s="23"/>
       <c r="AD42" s="23"/>
     </row>
-    <row r="43" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -3912,7 +3898,7 @@
       <c r="AC43" s="23"/>
       <c r="AD43" s="23"/>
     </row>
-    <row r="44" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -3943,7 +3929,7 @@
       <c r="AB44" s="23"/>
       <c r="AC44" s="23"/>
     </row>
-    <row r="45" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -3974,7 +3960,7 @@
       <c r="AB45" s="23"/>
       <c r="AC45" s="23"/>
     </row>
-    <row r="46" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -4005,7 +3991,7 @@
       <c r="AB46" s="23"/>
       <c r="AC46" s="23"/>
     </row>
-    <row r="47" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -4038,144 +4024,142 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A7" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FD0103-8B83-425B-8825-6ADA101A7570}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="39"/>
+    <col min="1" max="1" width="9.109375" style="39" customWidth="1"/>
     <col min="2" max="2" width="22" style="39" customWidth="1"/>
-    <col min="3" max="20" width="9.140625" style="39" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9.140625" style="40" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="39" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="41" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="39"/>
+    <col min="3" max="20" width="9.109375" style="39" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9.109375" style="40" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="39" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" style="41" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" style="39" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="61"/>
-      <c r="C1" s="80">
-        <v>1</v>
-      </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="80">
-        <v>2</v>
-      </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="80">
-        <v>3</v>
-      </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="80">
+      <c r="C1" s="85">
+        <v>1</v>
+      </c>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="85">
+        <v>2</v>
+      </c>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="85">
+        <v>3</v>
+      </c>
+      <c r="J1" s="86"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="85">
         <v>4</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="80">
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="85">
         <v>5</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="80">
+      <c r="P1" s="86"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="85">
         <v>6</v>
       </c>
-      <c r="S1" s="81"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="80">
+      <c r="S1" s="86"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="85">
         <v>7</v>
       </c>
-      <c r="V1" s="81"/>
-      <c r="W1" s="82"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V1" s="86"/>
+      <c r="W1" s="87"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="36"/>
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="38" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="S2" s="36" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="T2" s="36" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="U2" s="37" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="V2" s="36" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="W2" s="38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="39">
         <v>16</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="39">
@@ -4233,12 +4217,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="39">
         <v>15</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="39">
@@ -4285,12 +4269,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="39">
         <v>15</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="39">
@@ -4342,12 +4326,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="39">
         <v>13</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="39">
@@ -4395,12 +4379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="39">
         <v>13</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="39">
@@ -4458,12 +4442,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="39">
         <v>13</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" s="51">
         <v>-6</v>
@@ -4523,12 +4507,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="39">
         <v>13</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="66"/>
@@ -4555,12 +4539,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="39">
         <v>13</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="39">
@@ -4618,12 +4602,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="39">
         <v>13</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="39">
@@ -4680,12 +4664,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="39">
         <v>13</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="39">
@@ -4729,12 +4713,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
         <v>12</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="39">
@@ -4792,12 +4776,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
         <v>12</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="39">
@@ -4855,12 +4839,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="39">
         <v>12</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="39">
@@ -4918,12 +4902,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <v>13</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="39">
@@ -4981,12 +4965,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
         <v>12</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="39">
@@ -5044,12 +5028,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <v>12</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="39">
@@ -5107,12 +5091,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <v>12</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C19" s="74"/>
       <c r="D19" s="63"/>
@@ -5150,12 +5134,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
         <v>12</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="39">
@@ -5211,12 +5195,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="39">
         <v>12</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="57"/>
@@ -5264,12 +5248,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <v>12</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="39">
@@ -5327,12 +5311,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="39">
         <v>12</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="39">
@@ -5390,12 +5374,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
         <v>12</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="66"/>
@@ -5430,12 +5414,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="39">
         <v>12</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="39">
@@ -5482,12 +5466,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="39">
@@ -5536,12 +5520,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <v>12</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="39">
@@ -5592,12 +5576,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="39">
         <v>12</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="39">
@@ -5655,15 +5639,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
         <v>12</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D29" s="39">
         <f>avv!A11-A29</f>
@@ -5720,12 +5704,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <v>12</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="39">
@@ -5785,12 +5769,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
         <v>12</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="39">
@@ -5848,12 +5832,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="39">
         <v>12</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="39">
@@ -5901,7 +5885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -5932,12 +5916,12 @@
       <c r="AB33" s="43"/>
       <c r="AC33" s="43"/>
     </row>
-    <row r="34" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39">
         <v>12</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="39">
@@ -5971,12 +5955,12 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="35" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39">
         <v>13</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="55"/>
@@ -5992,12 +5976,12 @@
       <c r="Q35" s="41"/>
       <c r="R35" s="40"/>
     </row>
-    <row r="36" spans="1:29" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="39">
         <v>12</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="55"/>
@@ -6013,7 +5997,7 @@
       <c r="Q36" s="41"/>
       <c r="R36" s="40"/>
     </row>
-    <row r="37" spans="1:29" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
@@ -6044,7 +6028,7 @@
       <c r="AB37" s="43"/>
       <c r="AC37" s="43"/>
     </row>
-    <row r="38" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="44"/>
       <c r="B38" s="45" t="s">
         <v>37</v>
@@ -6077,7 +6061,7 @@
       <c r="AB38" s="43"/>
       <c r="AC38" s="43"/>
     </row>
-    <row r="39" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="46"/>
       <c r="B39" s="45" t="s">
         <v>38</v>
@@ -6110,7 +6094,7 @@
       <c r="AB39" s="43"/>
       <c r="AC39" s="43"/>
     </row>
-    <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="47"/>
       <c r="B40" s="45" t="s">
         <v>39</v>
@@ -6143,10 +6127,10 @@
       <c r="AB40" s="43"/>
       <c r="AC40" s="43"/>
     </row>
-    <row r="41" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="48"/>
       <c r="B41" s="45" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -6176,10 +6160,10 @@
       <c r="AB41" s="43"/>
       <c r="AC41" s="43"/>
     </row>
-    <row r="42" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="49"/>
       <c r="B42" s="45" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -6209,10 +6193,10 @@
       <c r="AB42" s="43"/>
       <c r="AC42" s="43"/>
     </row>
-    <row r="43" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="71"/>
       <c r="B43" s="45" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
@@ -6243,36 +6227,34 @@
       <c r="AC43" s="43"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B30">
-    <sortCondition descending="1" ref="A3:A30"/>
-  </sortState>
   <mergeCells count="7">
-    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B1E3B6-9616-466B-B38C-BD48994D8318}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="68"/>
+    <col min="1" max="1" width="9.109375" style="68" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="68">
         <v>15</v>
       </c>
@@ -6296,7 +6278,7 @@
       </c>
       <c r="H1" s="76"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="68">
         <v>15</v>
       </c>
@@ -6320,7 +6302,7 @@
       </c>
       <c r="H2" s="76"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="68">
         <v>15</v>
       </c>
@@ -6344,7 +6326,7 @@
       </c>
       <c r="H3" s="76"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="68">
         <v>15</v>
       </c>
@@ -6368,7 +6350,7 @@
       </c>
       <c r="H4" s="76"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="68">
         <v>14</v>
       </c>
@@ -6392,7 +6374,7 @@
       </c>
       <c r="H5" s="76"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="68">
         <v>14</v>
       </c>
@@ -6416,7 +6398,7 @@
       </c>
       <c r="H6" s="76"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="68">
         <v>14</v>
       </c>
@@ -6440,7 +6422,7 @@
       </c>
       <c r="H7" s="76"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="68">
         <v>13</v>
       </c>
@@ -6464,7 +6446,7 @@
       </c>
       <c r="H8" s="76"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="68">
         <v>12</v>
       </c>
@@ -6488,7 +6470,7 @@
       </c>
       <c r="H9" s="76"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="68">
         <v>12</v>
       </c>
@@ -6512,7 +6494,7 @@
       </c>
       <c r="H10" s="76"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="68">
         <v>11</v>
       </c>
@@ -6536,7 +6518,7 @@
       </c>
       <c r="H11" s="76"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="68">
         <v>11</v>
       </c>
@@ -6560,7 +6542,7 @@
       </c>
       <c r="H12" s="76"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="68">
         <v>11</v>
       </c>
@@ -6584,7 +6566,7 @@
       </c>
       <c r="H13" s="76"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="68">
         <v>11</v>
       </c>
@@ -6608,7 +6590,7 @@
       </c>
       <c r="H14" s="76"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="68">
         <v>11</v>
       </c>
@@ -6632,7 +6614,7 @@
       </c>
       <c r="H15" s="76"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="68">
         <v>11</v>
       </c>
@@ -6656,7 +6638,7 @@
       </c>
       <c r="H16" s="76"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="68">
         <v>11</v>
       </c>
@@ -6680,7 +6662,7 @@
       </c>
       <c r="H17" s="76"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="68">
         <v>11</v>
       </c>
@@ -6704,7 +6686,7 @@
       </c>
       <c r="H18" s="76"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="68">
         <v>11</v>
       </c>
@@ -6728,7 +6710,7 @@
       </c>
       <c r="H19" s="76"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="68">
         <v>10</v>
       </c>
@@ -6752,7 +6734,7 @@
       </c>
       <c r="H20" s="76"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="68">
         <v>10</v>
       </c>
@@ -6776,7 +6758,7 @@
       </c>
       <c r="H21" s="76"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="68">
         <v>10</v>
       </c>
@@ -6800,7 +6782,7 @@
       </c>
       <c r="H22" s="76"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="68">
         <v>10</v>
       </c>
@@ -6824,7 +6806,7 @@
       </c>
       <c r="H23" s="76"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="68">
         <v>10</v>
       </c>
@@ -6848,7 +6830,7 @@
       </c>
       <c r="H24" s="76"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="68">
         <v>10</v>
       </c>
@@ -6872,7 +6854,7 @@
       </c>
       <c r="H25" s="76"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="68">
         <v>10</v>
       </c>
@@ -6896,7 +6878,7 @@
       </c>
       <c r="H26" s="76"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="68">
         <v>10</v>
       </c>
@@ -6920,7 +6902,7 @@
       </c>
       <c r="H27" s="76"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="68">
         <v>10</v>
       </c>
@@ -6944,7 +6926,7 @@
       </c>
       <c r="H28" s="76"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="68">
         <v>10</v>
       </c>
@@ -6968,7 +6950,7 @@
       </c>
       <c r="H29" s="76"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="68">
         <v>10</v>
       </c>
@@ -6992,7 +6974,7 @@
       </c>
       <c r="H30" s="76"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="76"/>
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
@@ -7002,17 +6984,17 @@
       <c r="G31" s="76"/>
       <c r="H31" s="76"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="85"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7023,1955 +7005,2021 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6F01F9-5167-499B-96C3-486CFF0E784F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I4">
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I5">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I9">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I11">
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I12">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I14">
         <v>12</v>
       </c>
       <c r="J14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15">
-        <v>12</v>
-      </c>
-      <c r="J15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I17">
         <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18">
         <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I19">
         <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
       <c r="B20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B30">
-    <sortCondition descending="1" ref="A1:A30"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AEE678-7544-4914-B64E-AF6ACA09986D}">
-  <dimension ref="A1:CI51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:CI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="79" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="89" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="90" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="89" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="68" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="90" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="89" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="90" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="89" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="90" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="89" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="90" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="89" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="90" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="89" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="90" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="89" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="90" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="89" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="90" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="89" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="90" customWidth="1"/>
-    <col min="23" max="87" width="12.5703125" style="68" customWidth="1"/>
-    <col min="88" max="16384" width="9.140625" style="68"/>
+    <col min="1" max="1" width="16.44140625" style="79" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="83" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="84" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="83" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="68" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="84" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="83" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="84" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="83" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="84" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="83" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="84" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="83" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" style="84" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="83" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="84" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" style="83" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" style="84" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="83" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" style="84" customWidth="1"/>
+    <col min="21" max="21" width="12.5546875" style="83" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" style="84" customWidth="1"/>
+    <col min="23" max="87" width="12.5546875" style="68" customWidth="1"/>
+    <col min="88" max="88" width="9.109375" style="68" customWidth="1"/>
+    <col min="89" max="16384" width="9.109375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA1" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB1" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC1" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD1" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE1" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG1" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH1" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ1" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK1" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM1" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN1" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO1" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP1" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ1" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR1" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS1" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT1" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU1" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV1" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW1" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX1" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY1" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ1" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA1" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB1" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC1" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD1" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE1" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF1" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG1" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="BH1" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI1" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ1" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK1" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="BL1" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="BM1" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN1" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO1" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP1" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ1" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR1" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="BS1" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT1" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="BU1" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="BV1" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="BW1" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="BX1" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY1" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="BZ1" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="CA1" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="87" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="87" t="s">
+      <c r="CB1" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="H1" s="87" t="s">
-        <v>189</v>
-      </c>
-      <c r="I1" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="J1" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="W1" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="X1" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA1" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB1" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC1" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD1" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE1" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF1" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG1" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH1" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI1" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ1" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK1" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL1" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM1" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN1" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO1" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP1" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ1" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR1" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS1" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT1" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU1" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV1" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW1" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX1" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY1" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ1" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="BA1" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB1" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC1" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="BD1" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="BE1" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF1" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="BG1" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="BH1" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="BI1" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ1" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="BK1" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL1" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM1" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="BN1" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="BO1" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP1" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ1" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="BR1" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="BS1" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="BT1" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="BU1" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="BV1" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="BW1" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="BX1" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="BY1" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="BZ1" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="CA1" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="CB1" s="68" t="s">
-        <v>140</v>
-      </c>
       <c r="CC1" s="68" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="CD1" s="68" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="CE1" s="68" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="CF1" s="68" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="CG1" s="68" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="CH1" s="68" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="CI1" s="68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="89">
-        <v>2</v>
-      </c>
-      <c r="C2" s="90">
-        <v>1</v>
-      </c>
-      <c r="D2" s="89">
+        <v>70</v>
+      </c>
+      <c r="B2" s="83">
+        <v>2</v>
+      </c>
+      <c r="C2" s="84">
+        <v>1</v>
+      </c>
+      <c r="D2" s="83">
         <v>1</v>
       </c>
       <c r="E2" s="68">
         <f>SUM(G2:M2)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="90" t="e">
+      <c r="F2" s="84" t="e">
         <f>AVERAGE(G2:M2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I2" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="J2" s="90" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="I2" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="89">
-        <v>2</v>
-      </c>
-      <c r="C3" s="90">
-        <v>1</v>
-      </c>
-      <c r="D3" s="89">
-        <v>2</v>
+        <v>159</v>
+      </c>
+      <c r="B3" s="83">
+        <v>2</v>
+      </c>
+      <c r="C3" s="84">
+        <v>1</v>
+      </c>
+      <c r="D3" s="83">
+        <v>3</v>
       </c>
       <c r="E3" s="68">
-        <f>SUM(G3:M3)</f>
-        <v>6</v>
-      </c>
-      <c r="F3" s="90">
-        <f>AVERAGE(G3:M3)</f>
-        <v>3</v>
-      </c>
-      <c r="G3" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" s="89">
-        <v>3</v>
-      </c>
-      <c r="J3" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
+        <f>SUM(G3:L3)</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="84">
+        <f>ROUND(AVERAGE(G3:L3),1)</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="83">
+        <v>3</v>
+      </c>
+      <c r="J3" s="84">
+        <v>3</v>
+      </c>
+      <c r="K3" s="68">
+        <v>3</v>
+      </c>
+      <c r="L3" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="89">
-        <v>2</v>
-      </c>
-      <c r="C4" s="90">
-        <v>1</v>
-      </c>
-      <c r="D4" s="89">
+        <v>43</v>
+      </c>
+      <c r="B4" s="83">
+        <v>2</v>
+      </c>
+      <c r="C4" s="84">
+        <v>1</v>
+      </c>
+      <c r="D4" s="83">
         <v>1</v>
       </c>
       <c r="E4" s="68">
         <f>SUM(G4:M4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="90" t="e">
-        <f>AVERAGE(G4:M4)</f>
+      <c r="F4" s="84" t="e">
+        <f t="shared" ref="F4:F50" si="0">ROUND(AVERAGE(G4:L4),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" s="90" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="G4" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A5" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="89">
-        <v>2</v>
-      </c>
-      <c r="C5" s="90">
-        <v>0</v>
-      </c>
-      <c r="D5" s="89">
-        <v>2</v>
+        <v>160</v>
+      </c>
+      <c r="B5" s="83">
+        <v>4</v>
+      </c>
+      <c r="C5" s="84">
+        <v>1</v>
+      </c>
+      <c r="D5" s="83">
+        <v>5</v>
       </c>
       <c r="E5" s="68">
-        <f>SUM(G5:M5)</f>
-        <v>2</v>
-      </c>
-      <c r="F5" s="90">
-        <f>AVERAGE(G5:M5)</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="89">
-        <v>1</v>
-      </c>
-      <c r="H5" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="I5" s="89">
-        <v>1</v>
-      </c>
-      <c r="J5" s="90" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
+        <f>SUM(G5:L5)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="84">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="83">
+        <v>1</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="83">
+        <v>1</v>
+      </c>
+      <c r="J5" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A6" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="89">
-        <v>1</v>
-      </c>
-      <c r="C6" s="90">
-        <v>0</v>
-      </c>
-      <c r="D6" s="89">
+        <v>161</v>
+      </c>
+      <c r="B6" s="83">
+        <v>1</v>
+      </c>
+      <c r="C6" s="84">
+        <v>0</v>
+      </c>
+      <c r="D6" s="83">
         <v>1</v>
       </c>
       <c r="E6" s="68">
         <f>SUM(G6:M6)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="90">
-        <f>AVERAGE(G6:M6)</f>
-        <v>2</v>
-      </c>
-      <c r="I6" s="89">
-        <v>2</v>
-      </c>
-      <c r="J6" s="90" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="F6" s="84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="83">
+        <v>2</v>
+      </c>
+      <c r="J6" s="84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="89">
-        <v>1</v>
-      </c>
-      <c r="C7" s="90">
-        <v>0</v>
-      </c>
-      <c r="D7" s="89">
+        <v>162</v>
+      </c>
+      <c r="B7" s="83">
+        <v>1</v>
+      </c>
+      <c r="C7" s="84">
+        <v>0</v>
+      </c>
+      <c r="D7" s="83">
         <v>1</v>
       </c>
       <c r="E7" s="68">
         <f>SUM(G7:M7)</f>
         <v>2</v>
       </c>
-      <c r="F7" s="90">
-        <f>AVERAGE(G7:M7)</f>
-        <v>2</v>
-      </c>
-      <c r="I7" s="89">
-        <v>2</v>
-      </c>
-      <c r="J7" s="90" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="F7" s="84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="83">
+        <v>2</v>
+      </c>
+      <c r="J7" s="84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A8" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="83">
+        <v>1</v>
+      </c>
+      <c r="C8" s="84">
+        <v>1</v>
+      </c>
+      <c r="D8" s="83">
+        <v>2</v>
+      </c>
+      <c r="E8" s="68">
+        <f>SUM(G8:L8)</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I8" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="89">
-        <v>1</v>
-      </c>
-      <c r="C8" s="90">
-        <v>1</v>
-      </c>
-      <c r="D8" s="89">
-        <v>1</v>
-      </c>
-      <c r="E8" s="68">
-        <f>SUM(G8:M8)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="90" t="e">
-        <f>AVERAGE(G8:M8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="J8" s="90" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="J8" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="K8" s="68">
+        <v>3</v>
+      </c>
+      <c r="L8" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A9" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="89">
-        <v>0</v>
-      </c>
-      <c r="C9" s="90">
-        <v>0</v>
-      </c>
-      <c r="D9" s="89">
+        <v>60</v>
+      </c>
+      <c r="B9" s="83">
+        <v>0</v>
+      </c>
+      <c r="C9" s="84">
+        <v>0</v>
+      </c>
+      <c r="D9" s="83">
         <v>0</v>
       </c>
       <c r="E9" s="68">
         <f>SUM(G9:M9)</f>
         <v>3</v>
       </c>
-      <c r="F9" s="90">
-        <f>AVERAGE(G9:M9)</f>
+      <c r="F9" s="84">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="I9" s="89">
-        <v>2</v>
-      </c>
-      <c r="J9" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="I9" s="83">
+        <v>2</v>
+      </c>
+      <c r="J9" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A10" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="89">
-        <v>0</v>
-      </c>
-      <c r="C10" s="90">
-        <v>0</v>
-      </c>
-      <c r="D10" s="89">
+        <v>164</v>
+      </c>
+      <c r="B10" s="83">
+        <v>0</v>
+      </c>
+      <c r="C10" s="84">
+        <v>0</v>
+      </c>
+      <c r="D10" s="83">
         <v>0</v>
       </c>
       <c r="E10" s="68">
         <f>SUM(G10:M10)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="90" t="e">
-        <f>AVERAGE(G10:M10)</f>
+      <c r="F10" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A11" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="B11" s="89">
-        <v>0</v>
-      </c>
-      <c r="C11" s="90">
-        <v>0</v>
-      </c>
-      <c r="D11" s="89">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="B11" s="83">
+        <v>0</v>
+      </c>
+      <c r="C11" s="84">
+        <v>0</v>
+      </c>
+      <c r="D11" s="83">
+        <v>1</v>
       </c>
       <c r="E11" s="68">
-        <f>SUM(G11:M11)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="90" t="e">
-        <f>AVERAGE(G11:M11)</f>
+        <f>SUM(G11:L11)</f>
+        <v>6</v>
+      </c>
+      <c r="F11" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="68">
+        <v>3</v>
+      </c>
+      <c r="L11" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A12" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="83">
+        <v>0</v>
+      </c>
+      <c r="C12" s="84">
+        <v>0</v>
+      </c>
+      <c r="D12" s="83">
+        <v>0</v>
+      </c>
+      <c r="E12" s="68">
+        <f t="shared" ref="E12:E19" si="1">SUM(G12:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="89">
-        <v>0</v>
-      </c>
-      <c r="C12" s="90">
-        <v>0</v>
-      </c>
-      <c r="D12" s="89">
-        <v>0</v>
-      </c>
-      <c r="E12" s="68">
-        <f>SUM(G12:M12)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="90" t="e">
-        <f>AVERAGE(G12:M12)</f>
+    <row r="13" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A13" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="83">
+        <v>0</v>
+      </c>
+      <c r="C13" s="84">
+        <v>0</v>
+      </c>
+      <c r="D13" s="83">
+        <v>0</v>
+      </c>
+      <c r="E13" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="89">
-        <v>0</v>
-      </c>
-      <c r="C13" s="90">
-        <v>0</v>
-      </c>
-      <c r="D13" s="89">
-        <v>0</v>
-      </c>
-      <c r="E13" s="68">
-        <f>SUM(G13:M13)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="90" t="e">
-        <f>AVERAGE(G13:M13)</f>
+    <row r="14" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A14" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="83">
+        <v>0</v>
+      </c>
+      <c r="C14" s="84">
+        <v>0</v>
+      </c>
+      <c r="D14" s="83">
+        <v>0</v>
+      </c>
+      <c r="E14" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="89">
-        <v>0</v>
-      </c>
-      <c r="C14" s="90">
-        <v>0</v>
-      </c>
-      <c r="D14" s="89">
-        <v>0</v>
-      </c>
-      <c r="E14" s="68">
-        <f>SUM(G14:M14)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="90" t="e">
-        <f>AVERAGE(G14:M14)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A15" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="89">
-        <v>0</v>
-      </c>
-      <c r="C15" s="90">
-        <v>0</v>
-      </c>
-      <c r="D15" s="89">
+      <c r="B15" s="83">
+        <v>0</v>
+      </c>
+      <c r="C15" s="84">
+        <v>0</v>
+      </c>
+      <c r="D15" s="83">
         <v>0</v>
       </c>
       <c r="E15" s="68">
-        <f>SUM(G15:M15)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="90" t="e">
-        <f>AVERAGE(G15:M15)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A16" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="83">
+        <v>0</v>
+      </c>
+      <c r="C16" s="84">
+        <v>0</v>
+      </c>
+      <c r="D16" s="83">
+        <v>1</v>
+      </c>
+      <c r="E16" s="68">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="83">
+        <v>3</v>
+      </c>
+      <c r="J16" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="83">
+        <v>0</v>
+      </c>
+      <c r="C17" s="84">
+        <v>0</v>
+      </c>
+      <c r="D17" s="83">
+        <v>0</v>
+      </c>
+      <c r="E17" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="83">
+        <v>0</v>
+      </c>
+      <c r="C18" s="84">
+        <v>0</v>
+      </c>
+      <c r="D18" s="83">
+        <v>0</v>
+      </c>
+      <c r="E18" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="83">
+        <v>0</v>
+      </c>
+      <c r="C19" s="84">
+        <v>0</v>
+      </c>
+      <c r="D19" s="83">
+        <v>0</v>
+      </c>
+      <c r="E19" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="89"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="83">
+        <v>0</v>
+      </c>
+      <c r="C20" s="84">
+        <v>0</v>
+      </c>
+      <c r="D20" s="83">
+        <v>1</v>
+      </c>
+      <c r="E20" s="68">
+        <f>SUM(G20:L20)</f>
+        <v>10</v>
+      </c>
+      <c r="F20" s="84">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I20" s="83">
+        <v>3</v>
+      </c>
+      <c r="J20" s="84">
+        <v>1</v>
+      </c>
+      <c r="K20" s="68">
+        <v>3</v>
+      </c>
+      <c r="L20" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="83">
+        <v>0</v>
+      </c>
+      <c r="C21" s="84">
+        <v>0</v>
+      </c>
+      <c r="D21" s="83">
+        <v>0</v>
+      </c>
+      <c r="E21" s="68">
+        <f t="shared" ref="E21:E29" si="2">SUM(G21:M21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="83">
+        <v>0</v>
+      </c>
+      <c r="C22" s="84">
+        <v>0</v>
+      </c>
+      <c r="D22" s="83">
+        <v>0</v>
+      </c>
+      <c r="E22" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="84" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="89">
-        <v>0</v>
-      </c>
-      <c r="C16" s="90">
-        <v>0</v>
-      </c>
-      <c r="D16" s="89">
-        <v>1</v>
-      </c>
-      <c r="E16" s="68">
-        <f>SUM(G16:M16)</f>
-        <v>4</v>
-      </c>
-      <c r="F16" s="90">
-        <f>AVERAGE(G16:M16)</f>
-        <v>2</v>
-      </c>
-      <c r="I16" s="89">
-        <v>3</v>
-      </c>
-      <c r="J16" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="89">
-        <v>0</v>
-      </c>
-      <c r="C17" s="90">
-        <v>0</v>
-      </c>
-      <c r="D17" s="89">
-        <v>0</v>
-      </c>
-      <c r="E17" s="68">
-        <f>SUM(G17:M17)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="90" t="e">
-        <f>AVERAGE(G17:M17)</f>
+      <c r="B23" s="83">
+        <v>0</v>
+      </c>
+      <c r="C23" s="84">
+        <v>0</v>
+      </c>
+      <c r="D23" s="83">
+        <v>0</v>
+      </c>
+      <c r="E23" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="89">
-        <v>0</v>
-      </c>
-      <c r="C18" s="90">
-        <v>0</v>
-      </c>
-      <c r="D18" s="89">
-        <v>0</v>
-      </c>
-      <c r="E18" s="68">
-        <f>SUM(G18:M18)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="90" t="e">
-        <f>AVERAGE(G18:M18)</f>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="83">
+        <v>0</v>
+      </c>
+      <c r="C24" s="84">
+        <v>0</v>
+      </c>
+      <c r="D24" s="83">
+        <v>0</v>
+      </c>
+      <c r="E24" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="89">
-        <v>0</v>
-      </c>
-      <c r="C19" s="90">
-        <v>0</v>
-      </c>
-      <c r="D19" s="89">
-        <v>0</v>
-      </c>
-      <c r="E19" s="68">
-        <f>SUM(G19:M19)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="90" t="e">
-        <f>AVERAGE(G19:M19)</f>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="83">
+        <v>0</v>
+      </c>
+      <c r="C25" s="84">
+        <v>0</v>
+      </c>
+      <c r="D25" s="83">
+        <v>0</v>
+      </c>
+      <c r="E25" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="89">
-        <v>0</v>
-      </c>
-      <c r="C20" s="90">
-        <v>0</v>
-      </c>
-      <c r="D20" s="89">
-        <v>1</v>
-      </c>
-      <c r="E20" s="68">
-        <f>SUM(G20:M20)</f>
-        <v>4</v>
-      </c>
-      <c r="F20" s="90">
-        <f>AVERAGE(G20:M20)</f>
-        <v>2</v>
-      </c>
-      <c r="I20" s="89">
-        <v>3</v>
-      </c>
-      <c r="J20" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="89">
-        <v>0</v>
-      </c>
-      <c r="C21" s="90">
-        <v>0</v>
-      </c>
-      <c r="D21" s="89">
-        <v>0</v>
-      </c>
-      <c r="E21" s="68">
-        <f>SUM(G21:M21)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="90" t="e">
-        <f>AVERAGE(G21:M21)</f>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="83">
+        <v>0</v>
+      </c>
+      <c r="C26" s="84">
+        <v>0</v>
+      </c>
+      <c r="D26" s="83">
+        <v>0</v>
+      </c>
+      <c r="E26" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="89">
-        <v>0</v>
-      </c>
-      <c r="C22" s="90">
-        <v>0</v>
-      </c>
-      <c r="D22" s="89">
-        <v>0</v>
-      </c>
-      <c r="E22" s="68">
-        <f>SUM(G22:M22)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="90" t="e">
-        <f>AVERAGE(G22:M22)</f>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="83">
+        <v>0</v>
+      </c>
+      <c r="C27" s="84">
+        <v>0</v>
+      </c>
+      <c r="D27" s="83">
+        <v>0</v>
+      </c>
+      <c r="E27" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="89">
-        <v>0</v>
-      </c>
-      <c r="C23" s="90">
-        <v>0</v>
-      </c>
-      <c r="D23" s="89">
-        <v>0</v>
-      </c>
-      <c r="E23" s="68">
-        <f>SUM(G23:M23)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="90" t="e">
-        <f>AVERAGE(G23:M23)</f>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="83">
+        <v>0</v>
+      </c>
+      <c r="C28" s="84">
+        <v>0</v>
+      </c>
+      <c r="D28" s="83">
+        <v>0</v>
+      </c>
+      <c r="E28" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="89">
-        <v>0</v>
-      </c>
-      <c r="C24" s="90">
-        <v>0</v>
-      </c>
-      <c r="D24" s="89">
-        <v>0</v>
-      </c>
-      <c r="E24" s="68">
-        <f>SUM(G24:M24)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="90" t="e">
-        <f>AVERAGE(G24:M24)</f>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="83">
+        <v>0</v>
+      </c>
+      <c r="C29" s="84">
+        <v>0</v>
+      </c>
+      <c r="D29" s="83">
+        <v>1</v>
+      </c>
+      <c r="E29" s="68">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F29" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I29" s="83">
+        <v>3</v>
+      </c>
+      <c r="J29" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="83">
+        <v>2</v>
+      </c>
+      <c r="C30" s="84">
+        <v>1</v>
+      </c>
+      <c r="D30" s="83">
+        <v>3</v>
+      </c>
+      <c r="E30" s="68">
+        <f>SUM(G30:L30)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="89">
-        <v>0</v>
-      </c>
-      <c r="C25" s="90">
-        <v>0</v>
-      </c>
-      <c r="D25" s="89">
-        <v>0</v>
-      </c>
-      <c r="E25" s="68">
-        <f>SUM(G25:M25)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="90" t="e">
-        <f>AVERAGE(G25:M25)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="89">
-        <v>0</v>
-      </c>
-      <c r="C26" s="90">
-        <v>0</v>
-      </c>
-      <c r="D26" s="89">
-        <v>0</v>
-      </c>
-      <c r="E26" s="68">
-        <f>SUM(G26:M26)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="90" t="e">
-        <f>AVERAGE(G26:M26)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" s="89">
-        <v>0</v>
-      </c>
-      <c r="C27" s="90">
-        <v>0</v>
-      </c>
-      <c r="D27" s="89">
-        <v>0</v>
-      </c>
-      <c r="E27" s="68">
-        <f>SUM(G27:M27)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="90" t="e">
-        <f>AVERAGE(G27:M27)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" s="89">
-        <v>0</v>
-      </c>
-      <c r="C28" s="90">
-        <v>0</v>
-      </c>
-      <c r="D28" s="89">
-        <v>0</v>
-      </c>
-      <c r="E28" s="68">
-        <f>SUM(G28:M28)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="90" t="e">
-        <f>AVERAGE(G28:M28)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="89">
-        <v>0</v>
-      </c>
-      <c r="C29" s="90">
-        <v>0</v>
-      </c>
-      <c r="D29" s="89">
-        <v>1</v>
-      </c>
-      <c r="E29" s="68">
-        <f>SUM(G29:M29)</f>
-        <v>6</v>
-      </c>
-      <c r="F29" s="90">
-        <f>AVERAGE(G29:M29)</f>
-        <v>3</v>
-      </c>
-      <c r="I29" s="89">
-        <v>3</v>
-      </c>
-      <c r="J29" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="89">
-        <v>0</v>
-      </c>
-      <c r="C30" s="90">
-        <v>0</v>
-      </c>
-      <c r="D30" s="89">
-        <v>0</v>
-      </c>
-      <c r="E30" s="68">
-        <f>SUM(G30:M30)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="90" t="e">
-        <f>AVERAGE(G30:M30)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="L30" s="68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="89">
-        <v>0</v>
-      </c>
-      <c r="C31" s="90">
-        <v>0</v>
-      </c>
-      <c r="D31" s="89">
+        <v>180</v>
+      </c>
+      <c r="B31" s="83">
+        <v>0</v>
+      </c>
+      <c r="C31" s="84">
+        <v>0</v>
+      </c>
+      <c r="D31" s="83">
         <v>0</v>
       </c>
       <c r="E31" s="68">
         <f>SUM(G31:M31)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="90" t="e">
-        <f>AVERAGE(G31:M31)</f>
+      <c r="F31" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="89">
-        <v>0</v>
-      </c>
-      <c r="C32" s="90">
-        <v>0</v>
-      </c>
-      <c r="D32" s="89">
+        <v>181</v>
+      </c>
+      <c r="B32" s="83">
+        <v>0</v>
+      </c>
+      <c r="C32" s="84">
+        <v>0</v>
+      </c>
+      <c r="D32" s="83">
         <v>0</v>
       </c>
       <c r="E32" s="68">
         <f>SUM(G32:M32)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="90" t="e">
-        <f>AVERAGE(G32:M32)</f>
+      <c r="F32" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="91"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="89">
-        <v>0</v>
-      </c>
-      <c r="C33" s="90">
-        <v>0</v>
-      </c>
-      <c r="D33" s="89">
+        <v>182</v>
+      </c>
+      <c r="B33" s="83">
+        <v>0</v>
+      </c>
+      <c r="C33" s="84">
+        <v>0</v>
+      </c>
+      <c r="D33" s="83">
         <v>0</v>
       </c>
       <c r="E33" s="68">
         <f>SUM(G33:M33)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="90" t="e">
-        <f>AVERAGE(G33:M33)</f>
+      <c r="F33" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="89">
-        <v>0</v>
-      </c>
-      <c r="C34" s="90">
-        <v>0</v>
-      </c>
-      <c r="D34" s="89">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="83">
+        <v>0</v>
+      </c>
+      <c r="C34" s="84">
+        <v>0</v>
+      </c>
+      <c r="D34" s="83">
+        <v>1</v>
       </c>
       <c r="E34" s="68">
-        <f>SUM(G34:M34)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="90" t="e">
-        <f>AVERAGE(G34:M34)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <f>SUM(G34:L34)</f>
+        <v>2</v>
+      </c>
+      <c r="F34" s="84">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="68">
+        <v>1</v>
+      </c>
+      <c r="L34" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="89">
-        <v>0</v>
-      </c>
-      <c r="C35" s="90">
-        <v>0</v>
-      </c>
-      <c r="D35" s="89">
+        <v>183</v>
+      </c>
+      <c r="B35" s="83">
+        <v>0</v>
+      </c>
+      <c r="C35" s="84">
+        <v>0</v>
+      </c>
+      <c r="D35" s="83">
         <v>0</v>
       </c>
       <c r="E35" s="68">
         <f>SUM(G35:M35)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="90" t="e">
-        <f>AVERAGE(G35:M35)</f>
+      <c r="F35" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="B36" s="89">
-        <v>0</v>
-      </c>
-      <c r="C36" s="90">
-        <v>0</v>
-      </c>
-      <c r="D36" s="89">
+        <v>184</v>
+      </c>
+      <c r="B36" s="83">
+        <v>0</v>
+      </c>
+      <c r="C36" s="84">
+        <v>0</v>
+      </c>
+      <c r="D36" s="83">
         <v>0</v>
       </c>
       <c r="E36" s="68">
         <f>SUM(G36:M36)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="90" t="e">
-        <f>AVERAGE(G36:M36)</f>
+      <c r="F36" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="89">
-        <v>0</v>
-      </c>
-      <c r="C37" s="90">
-        <v>0</v>
-      </c>
-      <c r="D37" s="89">
+        <v>185</v>
+      </c>
+      <c r="B37" s="83">
+        <v>0</v>
+      </c>
+      <c r="C37" s="84">
+        <v>0</v>
+      </c>
+      <c r="D37" s="83">
         <v>0</v>
       </c>
       <c r="E37" s="68">
         <f>SUM(G37:M37)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="90" t="e">
-        <f>AVERAGE(G37:M37)</f>
+      <c r="F37" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38" s="89">
-        <v>0</v>
-      </c>
-      <c r="C38" s="90">
-        <v>0</v>
-      </c>
-      <c r="D38" s="89">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="B38" s="83">
+        <v>2</v>
+      </c>
+      <c r="C38" s="84">
+        <v>1</v>
+      </c>
+      <c r="D38" s="83">
+        <v>3</v>
       </c>
       <c r="E38" s="68">
-        <f>SUM(G38:M38)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="90" t="e">
-        <f>AVERAGE(G38:M38)</f>
+        <f>SUM(G38:L38)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="84" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="L38" s="68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" s="89">
-        <v>0</v>
-      </c>
-      <c r="C39" s="90">
-        <v>0</v>
-      </c>
-      <c r="D39" s="89">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="B39" s="83">
+        <v>0</v>
+      </c>
+      <c r="C39" s="84">
+        <v>0</v>
+      </c>
+      <c r="D39" s="83">
+        <v>1</v>
       </c>
       <c r="E39" s="68">
-        <f>SUM(G39:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="90" t="e">
-        <f>AVERAGE(G39:M39)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <f>SUM(G40:M40)</f>
+        <v>16</v>
+      </c>
+      <c r="F39" s="84">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G39" s="83">
+        <v>3</v>
+      </c>
+      <c r="H39" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="B40" s="89">
-        <v>0</v>
-      </c>
-      <c r="C40" s="90">
-        <v>0</v>
-      </c>
-      <c r="D40" s="89">
+        <v>6</v>
+      </c>
+      <c r="B40" s="83">
+        <v>0</v>
+      </c>
+      <c r="C40" s="84">
+        <v>0</v>
+      </c>
+      <c r="D40" s="83">
         <v>1</v>
       </c>
       <c r="E40" s="68">
-        <f>SUM(G40:M40)</f>
+        <f>SUM(G40:L40)</f>
+        <v>16</v>
+      </c>
+      <c r="F40" s="84">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="G40" s="83">
+        <v>3</v>
+      </c>
+      <c r="H40" s="84">
+        <v>3</v>
+      </c>
+      <c r="I40" s="83">
+        <v>3</v>
+      </c>
+      <c r="J40" s="84">
+        <v>2</v>
+      </c>
+      <c r="K40" s="68">
+        <v>2</v>
+      </c>
+      <c r="L40" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="83">
+        <v>0</v>
+      </c>
+      <c r="C41" s="84">
+        <v>0</v>
+      </c>
+      <c r="D41" s="83">
+        <v>1</v>
+      </c>
+      <c r="E41" s="68">
+        <f>SUM(G41:L41)</f>
+        <v>10</v>
+      </c>
+      <c r="F41" s="84">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G41" s="83">
+        <v>3</v>
+      </c>
+      <c r="H41" s="84">
+        <v>3</v>
+      </c>
+      <c r="K41" s="68">
+        <v>2</v>
+      </c>
+      <c r="L41" s="68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="83">
+        <v>0</v>
+      </c>
+      <c r="C42" s="84">
+        <v>0</v>
+      </c>
+      <c r="D42" s="83">
+        <v>1</v>
+      </c>
+      <c r="E42" s="68">
+        <f>SUM(G42:L42)</f>
+        <v>17</v>
+      </c>
+      <c r="F42" s="84">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="G42" s="83">
+        <v>3</v>
+      </c>
+      <c r="H42" s="84">
+        <v>3</v>
+      </c>
+      <c r="I42" s="83">
+        <v>2</v>
+      </c>
+      <c r="J42" s="84">
+        <v>3</v>
+      </c>
+      <c r="K42" s="68">
+        <v>3</v>
+      </c>
+      <c r="L42" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="83">
+        <v>0</v>
+      </c>
+      <c r="C43" s="84">
+        <v>0</v>
+      </c>
+      <c r="D43" s="83">
+        <v>2</v>
+      </c>
+      <c r="E43" s="68">
+        <f>SUM(G44:M44)</f>
+        <v>12</v>
+      </c>
+      <c r="F43" s="84">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="G43" s="83">
+        <v>3</v>
+      </c>
+      <c r="H43" s="84">
+        <v>3</v>
+      </c>
+      <c r="I43" s="83">
+        <v>2</v>
+      </c>
+      <c r="J43" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="83">
+        <v>0</v>
+      </c>
+      <c r="C44" s="84">
+        <v>0</v>
+      </c>
+      <c r="D44" s="83">
+        <v>1</v>
+      </c>
+      <c r="E44" s="68">
+        <f>SUM(G44:L44)</f>
+        <v>12</v>
+      </c>
+      <c r="F44" s="84">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G44" s="83">
+        <v>2</v>
+      </c>
+      <c r="H44" s="84">
+        <v>3</v>
+      </c>
+      <c r="I44" s="83">
+        <v>1</v>
+      </c>
+      <c r="J44" s="84">
+        <v>1</v>
+      </c>
+      <c r="K44" s="68">
+        <v>3</v>
+      </c>
+      <c r="L44" s="68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="83">
+        <v>2</v>
+      </c>
+      <c r="C45" s="84">
+        <v>1</v>
+      </c>
+      <c r="D45" s="83">
+        <v>3</v>
+      </c>
+      <c r="E45" s="68">
+        <f>SUM(G45:L45)</f>
+        <v>10</v>
+      </c>
+      <c r="F45" s="84">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G45" s="83">
+        <v>2</v>
+      </c>
+      <c r="H45" s="84">
+        <v>3</v>
+      </c>
+      <c r="I45" s="83">
+        <v>2</v>
+      </c>
+      <c r="J45" s="84">
+        <v>3</v>
+      </c>
+      <c r="K45" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="L45" s="68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="83">
+        <v>0</v>
+      </c>
+      <c r="C46" s="84">
+        <v>0</v>
+      </c>
+      <c r="D46" s="83">
+        <v>2</v>
+      </c>
+      <c r="E46" s="68">
+        <f>SUM(G47:M47)</f>
+        <v>14</v>
+      </c>
+      <c r="F46" s="84">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G46" s="83">
+        <v>3</v>
+      </c>
+      <c r="H46" s="84">
+        <v>1</v>
+      </c>
+      <c r="I46" s="83">
+        <v>3</v>
+      </c>
+      <c r="J46" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="83">
+        <v>0</v>
+      </c>
+      <c r="C47" s="84">
+        <v>0</v>
+      </c>
+      <c r="D47" s="83">
+        <v>1</v>
+      </c>
+      <c r="E47" s="68">
+        <f>SUM(G47:L47)</f>
+        <v>14</v>
+      </c>
+      <c r="F47" s="84">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G47" s="83">
+        <v>1</v>
+      </c>
+      <c r="H47" s="84">
+        <v>3</v>
+      </c>
+      <c r="I47" s="83">
+        <v>3</v>
+      </c>
+      <c r="J47" s="84">
+        <v>3</v>
+      </c>
+      <c r="K47" s="68">
+        <v>1</v>
+      </c>
+      <c r="L47" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="83">
+        <v>0</v>
+      </c>
+      <c r="C48" s="84">
+        <v>0</v>
+      </c>
+      <c r="D48" s="83">
+        <v>1</v>
+      </c>
+      <c r="E48" s="68">
+        <f>SUM(G48:L48)</f>
         <v>6</v>
       </c>
-      <c r="F40" s="90">
-        <f>AVERAGE(G40:M40)</f>
-        <v>3</v>
-      </c>
-      <c r="G40" s="89">
-        <v>3</v>
-      </c>
-      <c r="H40" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="89">
-        <v>0</v>
-      </c>
-      <c r="C41" s="90">
-        <v>0</v>
-      </c>
-      <c r="D41" s="89">
-        <v>2</v>
-      </c>
-      <c r="E41" s="68">
-        <f>SUM(G41:M41)</f>
-        <v>11</v>
-      </c>
-      <c r="F41" s="90">
-        <f>AVERAGE(G41:M41)</f>
-        <v>2.75</v>
-      </c>
-      <c r="G41" s="89">
-        <v>3</v>
-      </c>
-      <c r="H41" s="90">
-        <v>3</v>
-      </c>
-      <c r="I41" s="89">
-        <v>3</v>
-      </c>
-      <c r="J41" s="90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="89">
-        <v>0</v>
-      </c>
-      <c r="C42" s="90">
-        <v>0</v>
-      </c>
-      <c r="D42" s="89">
-        <v>1</v>
-      </c>
-      <c r="E42" s="68">
-        <f>SUM(G42:M42)</f>
-        <v>6</v>
-      </c>
-      <c r="F42" s="90">
-        <f>AVERAGE(G42:M42)</f>
-        <v>3</v>
-      </c>
-      <c r="G42" s="89">
-        <v>3</v>
-      </c>
-      <c r="H42" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="89">
-        <v>0</v>
-      </c>
-      <c r="C43" s="90">
-        <v>0</v>
-      </c>
-      <c r="D43" s="89">
-        <v>2</v>
-      </c>
-      <c r="E43" s="68">
-        <f>SUM(G43:M43)</f>
-        <v>11</v>
-      </c>
-      <c r="F43" s="90">
-        <f>AVERAGE(G43:M43)</f>
-        <v>2.75</v>
-      </c>
-      <c r="G43" s="89">
-        <v>3</v>
-      </c>
-      <c r="H43" s="90">
-        <v>3</v>
-      </c>
-      <c r="I43" s="89">
-        <v>2</v>
-      </c>
-      <c r="J43" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="89">
-        <v>0</v>
-      </c>
-      <c r="C44" s="90">
-        <v>0</v>
-      </c>
-      <c r="D44" s="89">
-        <v>2</v>
-      </c>
-      <c r="E44" s="68">
-        <f>SUM(G44:M44)</f>
-        <v>11</v>
-      </c>
-      <c r="F44" s="90">
-        <f>AVERAGE(G44:M44)</f>
-        <v>2.75</v>
-      </c>
-      <c r="G44" s="89">
-        <v>3</v>
-      </c>
-      <c r="H44" s="90">
-        <v>3</v>
-      </c>
-      <c r="I44" s="89">
-        <v>2</v>
-      </c>
-      <c r="J44" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" s="89">
-        <v>0</v>
-      </c>
-      <c r="C45" s="90">
-        <v>0</v>
-      </c>
-      <c r="D45" s="89">
-        <v>2</v>
-      </c>
-      <c r="E45" s="68">
-        <f>SUM(G45:M45)</f>
-        <v>7</v>
-      </c>
-      <c r="F45" s="90">
-        <f>AVERAGE(G45:M45)</f>
-        <v>1.75</v>
-      </c>
-      <c r="G45" s="89">
-        <v>2</v>
-      </c>
-      <c r="H45" s="90">
-        <v>3</v>
-      </c>
-      <c r="I45" s="89">
-        <v>1</v>
-      </c>
-      <c r="J45" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46" s="89">
-        <v>0</v>
-      </c>
-      <c r="C46" s="90">
-        <v>0</v>
-      </c>
-      <c r="D46" s="89">
-        <v>2</v>
-      </c>
-      <c r="E46" s="68">
-        <f>SUM(G46:M46)</f>
-        <v>10</v>
-      </c>
-      <c r="F46" s="90">
-        <f>AVERAGE(G46:M46)</f>
-        <v>2.5</v>
-      </c>
-      <c r="G46" s="89">
-        <v>2</v>
-      </c>
-      <c r="H46" s="90">
-        <v>3</v>
-      </c>
-      <c r="I46" s="89">
-        <v>2</v>
-      </c>
-      <c r="J46" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="89">
-        <v>0</v>
-      </c>
-      <c r="C47" s="90">
-        <v>0</v>
-      </c>
-      <c r="D47" s="89">
-        <v>2</v>
-      </c>
-      <c r="E47" s="68">
-        <f>SUM(G47:M47)</f>
-        <v>10</v>
-      </c>
-      <c r="F47" s="90">
-        <f>AVERAGE(G47:M47)</f>
-        <v>2.5</v>
-      </c>
-      <c r="G47" s="89">
-        <v>3</v>
-      </c>
-      <c r="H47" s="90">
-        <v>1</v>
-      </c>
-      <c r="I47" s="89">
-        <v>3</v>
-      </c>
-      <c r="J47" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="89">
-        <v>0</v>
-      </c>
-      <c r="C48" s="90">
-        <v>0</v>
-      </c>
-      <c r="D48" s="89">
-        <v>2</v>
-      </c>
-      <c r="E48" s="68">
-        <f>SUM(G48:M48)</f>
-        <v>10</v>
-      </c>
-      <c r="F48" s="90">
-        <f>AVERAGE(G48:M48)</f>
-        <v>2.5</v>
-      </c>
-      <c r="G48" s="89">
-        <v>1</v>
-      </c>
-      <c r="H48" s="90">
-        <v>3</v>
-      </c>
-      <c r="I48" s="89">
-        <v>3</v>
-      </c>
-      <c r="J48" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F48" s="84">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="83">
+        <v>2</v>
+      </c>
+      <c r="H48" s="84">
+        <v>1</v>
+      </c>
+      <c r="I48" s="83">
+        <v>0</v>
+      </c>
+      <c r="J48" s="84">
+        <v>0</v>
+      </c>
+      <c r="K48" s="68">
+        <v>2</v>
+      </c>
+      <c r="L48" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49" s="89">
-        <v>0</v>
-      </c>
-      <c r="C49" s="90">
-        <v>0</v>
-      </c>
-      <c r="D49" s="89">
+        <v>59</v>
+      </c>
+      <c r="B49" s="83">
+        <v>0</v>
+      </c>
+      <c r="C49" s="84">
+        <v>0</v>
+      </c>
+      <c r="D49" s="83">
         <v>2</v>
       </c>
       <c r="E49" s="68">
-        <f>SUM(G49:M49)</f>
-        <v>3</v>
-      </c>
-      <c r="F49" s="90">
-        <f>AVERAGE(G49:M49)</f>
-        <v>0.75</v>
-      </c>
-      <c r="G49" s="89">
-        <v>2</v>
-      </c>
-      <c r="H49" s="90">
-        <v>1</v>
-      </c>
-      <c r="I49" s="89">
-        <v>0</v>
-      </c>
-      <c r="J49" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <f>SUM(G50:M50)</f>
+        <v>9</v>
+      </c>
+      <c r="F49" s="84">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="G49" s="83">
+        <v>1</v>
+      </c>
+      <c r="H49" s="84">
+        <v>2</v>
+      </c>
+      <c r="I49" s="83">
+        <v>1</v>
+      </c>
+      <c r="J49" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="89">
-        <v>0</v>
-      </c>
-      <c r="C50" s="90">
-        <v>0</v>
-      </c>
-      <c r="D50" s="89">
+        <v>192</v>
+      </c>
+      <c r="B50" s="83">
+        <v>0</v>
+      </c>
+      <c r="C50" s="84">
+        <v>0</v>
+      </c>
+      <c r="D50" s="83">
         <v>2</v>
       </c>
       <c r="E50" s="68">
-        <f>SUM(G50:M50)</f>
-        <v>7</v>
-      </c>
-      <c r="F50" s="90">
-        <f>AVERAGE(G50:M50)</f>
-        <v>1.75</v>
-      </c>
-      <c r="G50" s="89">
-        <v>1</v>
-      </c>
-      <c r="H50" s="90">
-        <v>2</v>
-      </c>
-      <c r="I50" s="89">
-        <v>1</v>
-      </c>
-      <c r="J50" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" s="89">
-        <v>0</v>
-      </c>
-      <c r="C51" s="90">
-        <v>0</v>
-      </c>
-      <c r="D51" s="89">
-        <v>2</v>
-      </c>
-      <c r="E51" s="68">
         <f>SUM(G51:M51)</f>
-        <v>9</v>
-      </c>
-      <c r="F51" s="90">
-        <f>AVERAGE(G51:M51)</f>
-        <v>2.25</v>
-      </c>
-      <c r="G51" s="89">
-        <v>1</v>
-      </c>
-      <c r="H51" s="90">
-        <v>2</v>
-      </c>
-      <c r="I51" s="89">
-        <v>3</v>
-      </c>
-      <c r="J51" s="90">
+        <v>0</v>
+      </c>
+      <c r="F50" s="84">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G50" s="83">
+        <v>1</v>
+      </c>
+      <c r="H50" s="84">
+        <v>2</v>
+      </c>
+      <c r="I50" s="83">
+        <v>3</v>
+      </c>
+      <c r="J50" s="84">
         <v>3</v>
       </c>
     </row>

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2E08E522-AC73-44F4-8A19-01068265BE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F3FEBA-3DB8-4DB0-96DC-D6E2224365A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="avv" sheetId="3" r:id="rId3"/>
     <sheet name="partecipanti" sheetId="4" r:id="rId4"/>
     <sheet name="wars" sheetId="5" r:id="rId5"/>
+    <sheet name="inatttivi" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="193">
   <si>
     <t>nome</t>
   </si>
@@ -654,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +738,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -877,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1131,6 +1138,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1139,20 +1161,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="89">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1586,6 +1599,12 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1600,103 +1619,103 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella2" displayName="Tabella2" ref="A1:CI51" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella2" displayName="Tabella2" ref="A1:CI51" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
   <autoFilter ref="A1:CI51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CI51">
-    <sortCondition descending="1" ref="B1:B51"/>
+    <sortCondition descending="1" ref="D1:D51"/>
   </sortState>
   <tableColumns count="87">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NAME" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATK SKIP" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ZERO WAR  ATK" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TOT WARS" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TOT STARS" dataDxfId="84">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NAME" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATK SKIP" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ZERO WAR  ATK" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TOT WARS" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TOT STARS" dataDxfId="82">
       <calculatedColumnFormula>SUM(G2:M2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="AVG STAR" dataDxfId="83">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="AVG STAR" dataDxfId="81">
       <calculatedColumnFormula>AVERAGE(G2:M2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="WAR-1 (1)" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="WAR-1 (2)" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="WAR-2 (1)" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="WAR-2 (2)" dataDxfId="79"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Colonna11" dataDxfId="78"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Colonna12" dataDxfId="77"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Colonna13" dataDxfId="76"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Colonna14" dataDxfId="75"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colonna15" dataDxfId="74"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Colonna16" dataDxfId="73"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Colonna17" dataDxfId="72"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Colonna18" dataDxfId="71"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Colonna19" dataDxfId="70"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Colonna20" dataDxfId="69"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Colonna21" dataDxfId="68"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Colonna22" dataDxfId="67"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Colonna23" dataDxfId="66"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Colonna24" dataDxfId="65"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Colonna25" dataDxfId="64"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Colonna26" dataDxfId="63"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Colonna27" dataDxfId="62"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Colonna28" dataDxfId="61"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Colonna29" dataDxfId="60"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Colonna30" dataDxfId="59"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Colonna31" dataDxfId="58"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Colonna32" dataDxfId="57"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Colonna33" dataDxfId="56"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Colonna34" dataDxfId="55"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Colonna35" dataDxfId="54"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Colonna36" dataDxfId="53"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Colonna37" dataDxfId="52"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Colonna38" dataDxfId="51"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Colonna39" dataDxfId="50"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Colonna40" dataDxfId="49"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Colonna41" dataDxfId="48"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Colonna42" dataDxfId="47"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Colonna43" dataDxfId="46"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Colonna44" dataDxfId="45"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Colonna45" dataDxfId="44"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Colonna46" dataDxfId="43"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Colonna47" dataDxfId="42"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Colonna48" dataDxfId="41"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Colonna49" dataDxfId="40"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Colonna50" dataDxfId="39"/>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Colonna51" dataDxfId="38"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Colonna52" dataDxfId="37"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Colonna53" dataDxfId="36"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Colonna54" dataDxfId="35"/>
-    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Colonna55" dataDxfId="34"/>
-    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Colonna56" dataDxfId="33"/>
-    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Colonna57" dataDxfId="32"/>
-    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Colonna58" dataDxfId="31"/>
-    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Colonna59" dataDxfId="30"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Colonna60" dataDxfId="29"/>
-    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Colonna61" dataDxfId="28"/>
-    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Colonna62" dataDxfId="27"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Colonna63" dataDxfId="26"/>
-    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="Colonna64" dataDxfId="25"/>
-    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Colonna65" dataDxfId="24"/>
-    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Colonna66" dataDxfId="23"/>
-    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="Colonna67" dataDxfId="22"/>
-    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Colonna68" dataDxfId="21"/>
-    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="Colonna69" dataDxfId="20"/>
-    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Colonna70" dataDxfId="19"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Colonna71" dataDxfId="18"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Colonna72" dataDxfId="17"/>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Colonna73" dataDxfId="16"/>
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Colonna74" dataDxfId="15"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Colonna75" dataDxfId="14"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Colonna76" dataDxfId="13"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Colonna77" dataDxfId="12"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Colonna78" dataDxfId="11"/>
-    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Colonna79" dataDxfId="10"/>
-    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="Colonna80" dataDxfId="9"/>
-    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="Colonna81" dataDxfId="8"/>
-    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="Colonna82" dataDxfId="7"/>
-    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" name="Colonna83" dataDxfId="6"/>
-    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="Colonna84" dataDxfId="5"/>
-    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" name="Colonna85" dataDxfId="4"/>
-    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" name="Colonna86" dataDxfId="3"/>
-    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="Colonna87" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="WAR-1 (1)" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="WAR-1 (2)" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="WAR-2 (1)" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="WAR-2 (2)" dataDxfId="77"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Colonna11" dataDxfId="76"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Colonna12" dataDxfId="75"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Colonna13" dataDxfId="74"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Colonna14" dataDxfId="73"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colonna15" dataDxfId="72"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Colonna16" dataDxfId="71"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Colonna17" dataDxfId="70"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Colonna18" dataDxfId="69"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Colonna19" dataDxfId="68"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Colonna20" dataDxfId="67"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Colonna21" dataDxfId="66"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Colonna22" dataDxfId="65"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Colonna23" dataDxfId="64"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Colonna24" dataDxfId="63"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Colonna25" dataDxfId="62"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Colonna26" dataDxfId="61"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Colonna27" dataDxfId="60"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Colonna28" dataDxfId="59"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Colonna29" dataDxfId="58"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Colonna30" dataDxfId="57"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Colonna31" dataDxfId="56"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Colonna32" dataDxfId="55"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Colonna33" dataDxfId="54"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Colonna34" dataDxfId="53"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Colonna35" dataDxfId="52"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Colonna36" dataDxfId="51"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Colonna37" dataDxfId="50"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Colonna38" dataDxfId="49"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Colonna39" dataDxfId="48"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Colonna40" dataDxfId="47"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Colonna41" dataDxfId="46"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Colonna42" dataDxfId="45"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Colonna43" dataDxfId="44"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Colonna44" dataDxfId="43"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Colonna45" dataDxfId="42"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Colonna46" dataDxfId="41"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Colonna47" dataDxfId="40"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Colonna48" dataDxfId="39"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Colonna49" dataDxfId="38"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Colonna50" dataDxfId="37"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Colonna51" dataDxfId="36"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Colonna52" dataDxfId="35"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Colonna53" dataDxfId="34"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Colonna54" dataDxfId="33"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Colonna55" dataDxfId="32"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Colonna56" dataDxfId="31"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Colonna57" dataDxfId="30"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Colonna58" dataDxfId="29"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Colonna59" dataDxfId="28"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Colonna60" dataDxfId="27"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Colonna61" dataDxfId="26"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Colonna62" dataDxfId="25"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Colonna63" dataDxfId="24"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="Colonna64" dataDxfId="23"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Colonna65" dataDxfId="22"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Colonna66" dataDxfId="21"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="Colonna67" dataDxfId="20"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Colonna68" dataDxfId="19"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="Colonna69" dataDxfId="18"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Colonna70" dataDxfId="17"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Colonna71" dataDxfId="16"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Colonna72" dataDxfId="15"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Colonna73" dataDxfId="14"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Colonna74" dataDxfId="13"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Colonna75" dataDxfId="12"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Colonna76" dataDxfId="11"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Colonna77" dataDxfId="10"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Colonna78" dataDxfId="9"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Colonna79" dataDxfId="8"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="Colonna80" dataDxfId="7"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="Colonna81" dataDxfId="6"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="Colonna82" dataDxfId="5"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" name="Colonna83" dataDxfId="4"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="Colonna84" dataDxfId="3"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" name="Colonna85" dataDxfId="2"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" name="Colonna86" dataDxfId="1"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="Colonna87" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2025,42 +2044,42 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8.33203125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="7.88671875" style="5" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="8.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="7.88671875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" style="4" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="7.88671875" style="5" customWidth="1"/>
-    <col min="28" max="28" width="5.6640625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="8.33203125" style="6" customWidth="1"/>
-    <col min="30" max="30" width="9.109375" style="4" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" style="5" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="7.85546875" style="5" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" style="4" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="7.85546875" style="5" customWidth="1"/>
+    <col min="28" max="28" width="5.7109375" style="4" customWidth="1"/>
+    <col min="29" max="29" width="8.28515625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="4" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2171,7 @@
       <c r="AH1" s="23"/>
       <c r="AI1" s="23"/>
     </row>
-    <row r="2" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>16</v>
       </c>
@@ -2205,7 +2224,7 @@
       <c r="AH2" s="23"/>
       <c r="AI2" s="23"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>15</v>
       </c>
@@ -2252,7 +2271,7 @@
       <c r="AH3" s="23"/>
       <c r="AI3" s="23"/>
     </row>
-    <row r="4" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>15</v>
       </c>
@@ -2293,7 +2312,7 @@
       <c r="AH4" s="23"/>
       <c r="AI4" s="23"/>
     </row>
-    <row r="5" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>13</v>
       </c>
@@ -2334,7 +2353,7 @@
       <c r="AH5" s="23"/>
       <c r="AI5" s="23"/>
     </row>
-    <row r="6" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>12</v>
       </c>
@@ -2393,7 +2412,7 @@
       <c r="AH6" s="23"/>
       <c r="AI6" s="23"/>
     </row>
-    <row r="7" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
@@ -2434,7 +2453,7 @@
       <c r="AH7" s="23"/>
       <c r="AI7" s="23"/>
     </row>
-    <row r="8" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>12</v>
       </c>
@@ -2475,7 +2494,7 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
     </row>
-    <row r="9" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>12</v>
       </c>
@@ -2516,7 +2535,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="23"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>12</v>
       </c>
@@ -2557,7 +2576,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="23"/>
     </row>
-    <row r="11" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>12</v>
       </c>
@@ -2598,7 +2617,7 @@
       <c r="AH11" s="23"/>
       <c r="AI11" s="23"/>
     </row>
-    <row r="12" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -2639,7 +2658,7 @@
       <c r="AH12" s="23"/>
       <c r="AI12" s="23"/>
     </row>
-    <row r="13" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2680,7 +2699,7 @@
       <c r="AH13" s="23"/>
       <c r="AI13" s="23"/>
     </row>
-    <row r="14" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2721,7 +2740,7 @@
       <c r="AH14" s="23"/>
       <c r="AI14" s="23"/>
     </row>
-    <row r="15" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2774,7 +2793,7 @@
       <c r="AH15" s="23"/>
       <c r="AI15" s="23"/>
     </row>
-    <row r="16" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -2815,7 +2834,7 @@
       <c r="AH16" s="23"/>
       <c r="AI16" s="23"/>
     </row>
-    <row r="17" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>11</v>
       </c>
@@ -2862,7 +2881,7 @@
       <c r="AH17" s="23"/>
       <c r="AI17" s="23"/>
     </row>
-    <row r="18" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>11</v>
       </c>
@@ -2903,7 +2922,7 @@
       <c r="AH18" s="23"/>
       <c r="AI18" s="23"/>
     </row>
-    <row r="19" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>11</v>
       </c>
@@ -2944,7 +2963,7 @@
       <c r="AH19" s="23"/>
       <c r="AI19" s="23"/>
     </row>
-    <row r="20" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>11</v>
       </c>
@@ -2991,7 +3010,7 @@
       <c r="AH20" s="23"/>
       <c r="AI20" s="23"/>
     </row>
-    <row r="21" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>11</v>
       </c>
@@ -3044,7 +3063,7 @@
       <c r="AH21" s="23"/>
       <c r="AI21" s="23"/>
     </row>
-    <row r="22" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>11</v>
       </c>
@@ -3085,7 +3104,7 @@
       <c r="AH22" s="23"/>
       <c r="AI22" s="23"/>
     </row>
-    <row r="23" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>11</v>
       </c>
@@ -3126,7 +3145,7 @@
       <c r="AH23" s="23"/>
       <c r="AI23" s="23"/>
     </row>
-    <row r="24" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>11</v>
       </c>
@@ -3167,7 +3186,7 @@
       <c r="AH24" s="23"/>
       <c r="AI24" s="23"/>
     </row>
-    <row r="25" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>11</v>
       </c>
@@ -3208,7 +3227,7 @@
       <c r="AH25" s="23"/>
       <c r="AI25" s="23"/>
     </row>
-    <row r="26" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>11</v>
       </c>
@@ -3261,7 +3280,7 @@
       <c r="AH26" s="23"/>
       <c r="AI26" s="23"/>
     </row>
-    <row r="27" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -3302,7 +3321,7 @@
       <c r="AH27" s="23"/>
       <c r="AI27" s="23"/>
     </row>
-    <row r="28" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>11</v>
       </c>
@@ -3343,7 +3362,7 @@
       <c r="AH28" s="23"/>
       <c r="AI28" s="23"/>
     </row>
-    <row r="29" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>11</v>
       </c>
@@ -3384,7 +3403,7 @@
       <c r="AH29" s="23"/>
       <c r="AI29" s="23"/>
     </row>
-    <row r="30" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>11</v>
       </c>
@@ -3425,7 +3444,7 @@
       <c r="AH30" s="23"/>
       <c r="AI30" s="23"/>
     </row>
-    <row r="31" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -3466,7 +3485,7 @@
       <c r="AH31" s="23"/>
       <c r="AI31" s="23"/>
     </row>
-    <row r="32" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -3503,7 +3522,7 @@
       <c r="AH32" s="23"/>
       <c r="AI32" s="23"/>
     </row>
-    <row r="33" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -3540,7 +3559,7 @@
       <c r="AH33" s="23"/>
       <c r="AI33" s="23"/>
     </row>
-    <row r="34" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
       <c r="B34" s="28" t="s">
         <v>37</v>
@@ -3579,7 +3598,7 @@
       <c r="AH34" s="23"/>
       <c r="AI34" s="23"/>
     </row>
-    <row r="35" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="28" t="s">
         <v>38</v>
@@ -3618,7 +3637,7 @@
       <c r="AH35" s="23"/>
       <c r="AI35" s="23"/>
     </row>
-    <row r="36" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="28" t="s">
         <v>39</v>
@@ -3657,7 +3676,7 @@
       <c r="AH36" s="23"/>
       <c r="AI36" s="23"/>
     </row>
-    <row r="37" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31"/>
       <c r="B37" s="28" t="s">
         <v>40</v>
@@ -3696,7 +3715,7 @@
       <c r="AH37" s="23"/>
       <c r="AI37" s="23"/>
     </row>
-    <row r="38" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
       <c r="B38" s="28"/>
       <c r="C38" s="23"/>
@@ -3733,7 +3752,7 @@
       <c r="AH38" s="23"/>
       <c r="AI38" s="23"/>
     </row>
-    <row r="39" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -3770,7 +3789,7 @@
       <c r="AH39" s="23"/>
       <c r="AI39" s="23"/>
     </row>
-    <row r="40" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -3802,7 +3821,7 @@
       <c r="AC40" s="23"/>
       <c r="AD40" s="23"/>
     </row>
-    <row r="41" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -3834,7 +3853,7 @@
       <c r="AC41" s="23"/>
       <c r="AD41" s="23"/>
     </row>
-    <row r="42" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -3866,7 +3885,7 @@
       <c r="AC42" s="23"/>
       <c r="AD42" s="23"/>
     </row>
-    <row r="43" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -3898,7 +3917,7 @@
       <c r="AC43" s="23"/>
       <c r="AD43" s="23"/>
     </row>
-    <row r="44" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -3929,7 +3948,7 @@
       <c r="AB44" s="23"/>
       <c r="AC44" s="23"/>
     </row>
-    <row r="45" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -3960,7 +3979,7 @@
       <c r="AB45" s="23"/>
       <c r="AC45" s="23"/>
     </row>
-    <row r="46" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -3991,7 +4010,7 @@
       <c r="AB46" s="23"/>
       <c r="AC46" s="23"/>
     </row>
-    <row r="47" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -4031,61 +4050,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="39" customWidth="1"/>
     <col min="2" max="2" width="22" style="39" customWidth="1"/>
-    <col min="3" max="20" width="9.109375" style="39" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9.109375" style="40" customWidth="1"/>
-    <col min="22" max="22" width="9.109375" style="39" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" style="41" customWidth="1"/>
-    <col min="24" max="24" width="9.109375" style="39" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="39"/>
+    <col min="3" max="20" width="9.140625" style="39" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9.140625" style="40" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="39" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="41" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="39" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="61"/>
-      <c r="C1" s="85">
-        <v>1</v>
-      </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="85">
-        <v>2</v>
-      </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="85">
-        <v>3</v>
-      </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="85">
+      <c r="C1" s="90">
+        <v>1</v>
+      </c>
+      <c r="D1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="90">
+        <v>2</v>
+      </c>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="90">
+        <v>3</v>
+      </c>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="90">
         <v>4</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="85">
+      <c r="M1" s="91"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="90">
         <v>5</v>
       </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="85">
+      <c r="P1" s="91"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="90">
         <v>6</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="85">
+      <c r="S1" s="91"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="90">
         <v>7</v>
       </c>
-      <c r="V1" s="86"/>
-      <c r="W1" s="87"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V1" s="91"/>
+      <c r="W1" s="92"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
       <c r="B2" s="37" t="s">
         <v>0</v>
@@ -4154,7 +4173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>16</v>
       </c>
@@ -4217,7 +4236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>15</v>
       </c>
@@ -4269,7 +4288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>15</v>
       </c>
@@ -4326,7 +4345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>13</v>
       </c>
@@ -4379,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>13</v>
       </c>
@@ -4442,7 +4461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>13</v>
       </c>
@@ -4507,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>13</v>
       </c>
@@ -4539,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>13</v>
       </c>
@@ -4602,7 +4621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>13</v>
       </c>
@@ -4664,7 +4683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>13</v>
       </c>
@@ -4713,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>12</v>
       </c>
@@ -4776,7 +4795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>12</v>
       </c>
@@ -4839,7 +4858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>12</v>
       </c>
@@ -4902,7 +4921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>13</v>
       </c>
@@ -4965,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>12</v>
       </c>
@@ -5028,7 +5047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>12</v>
       </c>
@@ -5091,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>12</v>
       </c>
@@ -5134,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>12</v>
       </c>
@@ -5195,7 +5214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>12</v>
       </c>
@@ -5248,7 +5267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>12</v>
       </c>
@@ -5311,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>12</v>
       </c>
@@ -5374,7 +5393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>12</v>
       </c>
@@ -5414,7 +5433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>12</v>
       </c>
@@ -5466,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>12</v>
       </c>
@@ -5520,7 +5539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>12</v>
       </c>
@@ -5576,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>12</v>
       </c>
@@ -5639,7 +5658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>12</v>
       </c>
@@ -5704,7 +5723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>12</v>
       </c>
@@ -5769,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>12</v>
       </c>
@@ -5832,7 +5851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
         <v>12</v>
       </c>
@@ -5885,7 +5904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -5916,7 +5935,7 @@
       <c r="AB33" s="43"/>
       <c r="AC33" s="43"/>
     </row>
-    <row r="34" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>12</v>
       </c>
@@ -5955,7 +5974,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="35" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>13</v>
       </c>
@@ -5976,7 +5995,7 @@
       <c r="Q35" s="41"/>
       <c r="R35" s="40"/>
     </row>
-    <row r="36" spans="1:29" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
         <v>12</v>
       </c>
@@ -5997,7 +6016,7 @@
       <c r="Q36" s="41"/>
       <c r="R36" s="40"/>
     </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
@@ -6028,7 +6047,7 @@
       <c r="AB37" s="43"/>
       <c r="AC37" s="43"/>
     </row>
-    <row r="38" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="44"/>
       <c r="B38" s="45" t="s">
         <v>37</v>
@@ -6061,7 +6080,7 @@
       <c r="AB38" s="43"/>
       <c r="AC38" s="43"/>
     </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="46"/>
       <c r="B39" s="45" t="s">
         <v>38</v>
@@ -6094,7 +6113,7 @@
       <c r="AB39" s="43"/>
       <c r="AC39" s="43"/>
     </row>
-    <row r="40" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47"/>
       <c r="B40" s="45" t="s">
         <v>39</v>
@@ -6127,7 +6146,7 @@
       <c r="AB40" s="43"/>
       <c r="AC40" s="43"/>
     </row>
-    <row r="41" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="48"/>
       <c r="B41" s="45" t="s">
         <v>54</v>
@@ -6160,7 +6179,7 @@
       <c r="AB41" s="43"/>
       <c r="AC41" s="43"/>
     </row>
-    <row r="42" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="49"/>
       <c r="B42" s="45" t="s">
         <v>55</v>
@@ -6193,7 +6212,7 @@
       <c r="AB42" s="43"/>
       <c r="AC42" s="43"/>
     </row>
-    <row r="43" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="71"/>
       <c r="B43" s="45" t="s">
         <v>56</v>
@@ -6248,13 +6267,13 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="68" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="68"/>
+    <col min="1" max="1" width="9.140625" style="68" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="68">
         <v>15</v>
       </c>
@@ -6278,7 +6297,7 @@
       </c>
       <c r="H1" s="76"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="68">
         <v>15</v>
       </c>
@@ -6302,7 +6321,7 @@
       </c>
       <c r="H2" s="76"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>15</v>
       </c>
@@ -6326,7 +6345,7 @@
       </c>
       <c r="H3" s="76"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>15</v>
       </c>
@@ -6350,7 +6369,7 @@
       </c>
       <c r="H4" s="76"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>14</v>
       </c>
@@ -6374,7 +6393,7 @@
       </c>
       <c r="H5" s="76"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <v>14</v>
       </c>
@@ -6398,7 +6417,7 @@
       </c>
       <c r="H6" s="76"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>14</v>
       </c>
@@ -6422,7 +6441,7 @@
       </c>
       <c r="H7" s="76"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <v>13</v>
       </c>
@@ -6446,7 +6465,7 @@
       </c>
       <c r="H8" s="76"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
         <v>12</v>
       </c>
@@ -6470,7 +6489,7 @@
       </c>
       <c r="H9" s="76"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="68">
         <v>12</v>
       </c>
@@ -6494,7 +6513,7 @@
       </c>
       <c r="H10" s="76"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="68">
         <v>11</v>
       </c>
@@ -6518,7 +6537,7 @@
       </c>
       <c r="H11" s="76"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="68">
         <v>11</v>
       </c>
@@ -6542,7 +6561,7 @@
       </c>
       <c r="H12" s="76"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="68">
         <v>11</v>
       </c>
@@ -6566,7 +6585,7 @@
       </c>
       <c r="H13" s="76"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="68">
         <v>11</v>
       </c>
@@ -6590,7 +6609,7 @@
       </c>
       <c r="H14" s="76"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="68">
         <v>11</v>
       </c>
@@ -6614,7 +6633,7 @@
       </c>
       <c r="H15" s="76"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="68">
         <v>11</v>
       </c>
@@ -6638,7 +6657,7 @@
       </c>
       <c r="H16" s="76"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="68">
         <v>11</v>
       </c>
@@ -6662,7 +6681,7 @@
       </c>
       <c r="H17" s="76"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="68">
         <v>11</v>
       </c>
@@ -6686,7 +6705,7 @@
       </c>
       <c r="H18" s="76"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="68">
         <v>11</v>
       </c>
@@ -6710,7 +6729,7 @@
       </c>
       <c r="H19" s="76"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="68">
         <v>10</v>
       </c>
@@ -6734,7 +6753,7 @@
       </c>
       <c r="H20" s="76"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="68">
         <v>10</v>
       </c>
@@ -6758,7 +6777,7 @@
       </c>
       <c r="H21" s="76"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="68">
         <v>10</v>
       </c>
@@ -6782,7 +6801,7 @@
       </c>
       <c r="H22" s="76"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="68">
         <v>10</v>
       </c>
@@ -6806,7 +6825,7 @@
       </c>
       <c r="H23" s="76"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="68">
         <v>10</v>
       </c>
@@ -6830,7 +6849,7 @@
       </c>
       <c r="H24" s="76"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="68">
         <v>10</v>
       </c>
@@ -6854,7 +6873,7 @@
       </c>
       <c r="H25" s="76"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="68">
         <v>10</v>
       </c>
@@ -6878,7 +6897,7 @@
       </c>
       <c r="H26" s="76"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="68">
         <v>10</v>
       </c>
@@ -6902,7 +6921,7 @@
       </c>
       <c r="H27" s="76"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="68">
         <v>10</v>
       </c>
@@ -6926,7 +6945,7 @@
       </c>
       <c r="H28" s="76"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="68">
         <v>10</v>
       </c>
@@ -6950,7 +6969,7 @@
       </c>
       <c r="H29" s="76"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="68">
         <v>10</v>
       </c>
@@ -6974,7 +6993,7 @@
       </c>
       <c r="H30" s="76"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="76"/>
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
@@ -6984,17 +7003,17 @@
       <c r="G31" s="76"/>
       <c r="H31" s="76"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="88" t="s">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="87"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7008,13 +7027,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>16</v>
       </c>
@@ -7022,7 +7041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15</v>
       </c>
@@ -7030,7 +7049,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
@@ -7044,7 +7063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -7061,7 +7080,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -7078,7 +7097,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
@@ -7095,7 +7114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
@@ -7109,7 +7128,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13</v>
       </c>
@@ -7117,7 +7136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -7131,7 +7150,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -7139,7 +7158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
@@ -7153,7 +7172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -7167,7 +7186,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7181,7 +7200,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7195,7 +7214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -7209,7 +7228,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7217,7 +7236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -7231,7 +7250,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -7245,7 +7264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -7259,7 +7278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -7267,7 +7286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -7275,7 +7294,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -7283,7 +7302,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -7291,7 +7310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -7299,7 +7318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -7307,7 +7326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -7315,7 +7334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
@@ -7323,7 +7342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
@@ -7331,7 +7350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12</v>
       </c>
@@ -7348,40 +7367,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="79" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="83" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="84" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="83" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="68" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="84" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="83" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="84" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="83" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="84" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="83" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" style="84" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="83" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" style="84" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" style="83" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="84" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" style="83" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" style="84" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" style="83" customWidth="1"/>
-    <col min="20" max="20" width="12.5546875" style="84" customWidth="1"/>
-    <col min="21" max="21" width="12.5546875" style="83" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" style="84" customWidth="1"/>
-    <col min="23" max="87" width="12.5546875" style="68" customWidth="1"/>
-    <col min="88" max="88" width="9.109375" style="68" customWidth="1"/>
-    <col min="89" max="16384" width="9.109375" style="68"/>
+    <col min="1" max="1" width="16.42578125" style="79" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="83" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="84" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="83" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="68" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="84" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="83" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="84" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="83" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="84" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="83" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="84" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="83" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="84" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="83" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="84" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="83" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="84" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="83" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="84" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="83" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="84" customWidth="1"/>
+    <col min="23" max="87" width="12.5703125" style="68" customWidth="1"/>
+    <col min="88" max="88" width="9.140625" style="68" customWidth="1"/>
+    <col min="89" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
         <v>71</v>
       </c>
@@ -7644,9 +7663,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="B2" s="83">
         <v>2</v>
@@ -7655,29 +7674,41 @@
         <v>1</v>
       </c>
       <c r="D2" s="83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="68">
-        <f>SUM(G2:M2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="84" t="e">
-        <f>AVERAGE(G2:M2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" s="83" t="s">
+        <f t="shared" ref="E2:E11" si="0">SUM(G2:L2)</f>
+        <v>12</v>
+      </c>
+      <c r="F2" s="84">
+        <f t="shared" ref="F2:F18" si="1">ROUND(AVERAGE(G2:L2),1)</f>
+        <v>3</v>
+      </c>
+      <c r="G2" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="H2" s="84" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="I2" s="83">
+        <v>3</v>
+      </c>
+      <c r="J2" s="84">
+        <v>3</v>
+      </c>
+      <c r="K2" s="83">
+        <v>3</v>
+      </c>
+      <c r="L2" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B3" s="83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="84">
         <v>1</v>
@@ -7686,1341 +7717,1350 @@
         <v>3</v>
       </c>
       <c r="E3" s="68">
-        <f>SUM(G3:L3)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="F3" s="84">
-        <f>ROUND(AVERAGE(G3:L3),1)</f>
-        <v>3</v>
-      </c>
-      <c r="G3" s="83" t="s">
-        <v>158</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="83">
+        <v>1</v>
       </c>
       <c r="H3" s="84" t="s">
         <v>158</v>
       </c>
       <c r="I3" s="83">
-        <v>3</v>
-      </c>
-      <c r="J3" s="84">
-        <v>3</v>
-      </c>
-      <c r="K3" s="68">
-        <v>3</v>
-      </c>
-      <c r="L3" s="68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="83">
+        <v>2</v>
+      </c>
+      <c r="C4" s="84">
+        <v>1</v>
+      </c>
+      <c r="D4" s="83">
+        <v>3</v>
+      </c>
+      <c r="E4" s="68">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F4" s="84">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="83">
+        <v>2</v>
+      </c>
+      <c r="H4" s="84">
+        <v>3</v>
+      </c>
+      <c r="I4" s="83">
+        <v>2</v>
+      </c>
+      <c r="J4" s="84">
+        <v>3</v>
+      </c>
+      <c r="K4" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="83">
+        <v>0</v>
+      </c>
+      <c r="C5" s="84">
+        <v>0</v>
+      </c>
+      <c r="D5" s="83">
+        <v>3</v>
+      </c>
+      <c r="E5" s="68">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F5" s="84">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="G5" s="83">
+        <v>3</v>
+      </c>
+      <c r="H5" s="84">
+        <v>3</v>
+      </c>
+      <c r="I5" s="83">
+        <v>3</v>
+      </c>
+      <c r="J5" s="84">
+        <v>2</v>
+      </c>
+      <c r="K5" s="68">
+        <v>2</v>
+      </c>
+      <c r="L5" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="83">
+        <v>0</v>
+      </c>
+      <c r="C6" s="84">
+        <v>0</v>
+      </c>
+      <c r="D6" s="83">
+        <v>3</v>
+      </c>
+      <c r="E6" s="68">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F6" s="84">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="G6" s="83">
+        <v>3</v>
+      </c>
+      <c r="H6" s="84">
+        <v>3</v>
+      </c>
+      <c r="I6" s="83">
+        <v>2</v>
+      </c>
+      <c r="J6" s="84">
+        <v>3</v>
+      </c>
+      <c r="K6" s="83">
+        <v>3</v>
+      </c>
+      <c r="L6" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="83">
+        <v>0</v>
+      </c>
+      <c r="C7" s="84">
+        <v>0</v>
+      </c>
+      <c r="D7" s="83">
+        <v>3</v>
+      </c>
+      <c r="E7" s="68">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F7" s="84">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="83">
+        <v>2</v>
+      </c>
+      <c r="H7" s="84">
+        <v>3</v>
+      </c>
+      <c r="I7" s="83">
+        <v>1</v>
+      </c>
+      <c r="J7" s="84">
+        <v>1</v>
+      </c>
+      <c r="K7" s="83">
+        <v>3</v>
+      </c>
+      <c r="L7" s="84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="83">
+        <v>0</v>
+      </c>
+      <c r="C8" s="84">
+        <v>0</v>
+      </c>
+      <c r="D8" s="83">
+        <v>3</v>
+      </c>
+      <c r="E8" s="68">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="84">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G8" s="83">
+        <v>1</v>
+      </c>
+      <c r="H8" s="84">
+        <v>3</v>
+      </c>
+      <c r="I8" s="83">
+        <v>3</v>
+      </c>
+      <c r="J8" s="84">
+        <v>3</v>
+      </c>
+      <c r="K8" s="68">
+        <v>1</v>
+      </c>
+      <c r="L8" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="83">
+        <v>0</v>
+      </c>
+      <c r="C9" s="84">
+        <v>0</v>
+      </c>
+      <c r="D9" s="83">
+        <v>3</v>
+      </c>
+      <c r="E9" s="68">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="83">
+        <v>2</v>
+      </c>
+      <c r="H9" s="84">
+        <v>1</v>
+      </c>
+      <c r="I9" s="83">
+        <v>0</v>
+      </c>
+      <c r="J9" s="84">
+        <v>0</v>
+      </c>
+      <c r="K9" s="83">
+        <v>2</v>
+      </c>
+      <c r="L9" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="83">
+        <v>1</v>
+      </c>
+      <c r="C10" s="84">
+        <v>1</v>
+      </c>
+      <c r="D10" s="83">
+        <v>2</v>
+      </c>
+      <c r="E10" s="68">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I10" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="83">
+        <v>3</v>
+      </c>
+      <c r="L10" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="83">
+        <v>0</v>
+      </c>
+      <c r="C11" s="84">
+        <v>0</v>
+      </c>
+      <c r="D11" s="83">
+        <v>2</v>
+      </c>
+      <c r="E11" s="68">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="84">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="I11" s="83">
+        <v>3</v>
+      </c>
+      <c r="J11" s="84">
+        <v>1</v>
+      </c>
+      <c r="K11" s="68">
+        <v>3</v>
+      </c>
+      <c r="L11" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="83">
+        <v>0</v>
+      </c>
+      <c r="C12" s="84">
+        <v>0</v>
+      </c>
+      <c r="D12" s="83">
+        <v>2</v>
+      </c>
+      <c r="E12" s="68">
+        <f>SUM(G13:M13)</f>
+        <v>10</v>
+      </c>
+      <c r="F12" s="84">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="G12" s="83">
+        <v>3</v>
+      </c>
+      <c r="H12" s="84">
+        <v>3</v>
+      </c>
+      <c r="I12" s="83">
+        <v>2</v>
+      </c>
+      <c r="J12" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A13" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="83">
+        <v>0</v>
+      </c>
+      <c r="C13" s="84">
+        <v>0</v>
+      </c>
+      <c r="D13" s="83">
+        <v>2</v>
+      </c>
+      <c r="E13" s="68">
+        <f>SUM(G14:M14)</f>
+        <v>7</v>
+      </c>
+      <c r="F13" s="84">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="83">
+        <v>3</v>
+      </c>
+      <c r="H13" s="84">
+        <v>1</v>
+      </c>
+      <c r="I13" s="83">
+        <v>3</v>
+      </c>
+      <c r="J13" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A14" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="83">
+        <v>0</v>
+      </c>
+      <c r="C14" s="84">
+        <v>0</v>
+      </c>
+      <c r="D14" s="83">
+        <v>2</v>
+      </c>
+      <c r="E14" s="68">
+        <f>SUM(G15:M15)</f>
+        <v>9</v>
+      </c>
+      <c r="F14" s="84">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="G14" s="83">
+        <v>1</v>
+      </c>
+      <c r="H14" s="84">
+        <v>2</v>
+      </c>
+      <c r="I14" s="83">
+        <v>1</v>
+      </c>
+      <c r="J14" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A15" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="83">
+        <v>0</v>
+      </c>
+      <c r="C15" s="84">
+        <v>0</v>
+      </c>
+      <c r="D15" s="83">
+        <v>2</v>
+      </c>
+      <c r="E15" s="68">
+        <f>SUM(G16:M16)</f>
+        <v>10</v>
+      </c>
+      <c r="F15" s="84">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G15" s="83">
+        <v>1</v>
+      </c>
+      <c r="H15" s="84">
+        <v>2</v>
+      </c>
+      <c r="I15" s="83">
+        <v>3</v>
+      </c>
+      <c r="J15" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A16" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="83">
+        <v>0</v>
+      </c>
+      <c r="C16" s="84">
+        <v>0</v>
+      </c>
+      <c r="D16" s="83">
+        <v>2</v>
+      </c>
+      <c r="E16" s="68">
+        <f>SUM(G16:L16)</f>
+        <v>10</v>
+      </c>
+      <c r="F16" s="84">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="G16" s="83">
+        <v>3</v>
+      </c>
+      <c r="H16" s="84">
+        <v>3</v>
+      </c>
+      <c r="K16" s="83">
+        <v>2</v>
+      </c>
+      <c r="L16" s="84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="83">
+        <v>2</v>
+      </c>
+      <c r="C17" s="84">
+        <v>1</v>
+      </c>
+      <c r="D17" s="83">
+        <v>1</v>
+      </c>
+      <c r="E17" s="68">
+        <f>SUM(G17:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="83">
+        <v>2</v>
+      </c>
+      <c r="C18" s="84">
+        <v>1</v>
+      </c>
+      <c r="D18" s="83">
+        <v>1</v>
+      </c>
+      <c r="E18" s="68">
+        <f>SUM(G18:L18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="83">
+        <v>2</v>
+      </c>
+      <c r="C19" s="84">
+        <v>1</v>
+      </c>
+      <c r="D19" s="83">
+        <v>1</v>
+      </c>
+      <c r="E19" s="68">
+        <f>SUM(G19:M19)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="84" t="e">
+        <f>AVERAGE(G19:M19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" s="84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="83">
-        <v>2</v>
-      </c>
-      <c r="C4" s="84">
-        <v>1</v>
-      </c>
-      <c r="D4" s="83">
-        <v>1</v>
-      </c>
-      <c r="E4" s="68">
-        <f>SUM(G4:M4)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="84" t="e">
-        <f t="shared" ref="F4:F50" si="0">ROUND(AVERAGE(G4:L4),1)</f>
+      <c r="B20" s="83">
+        <v>2</v>
+      </c>
+      <c r="C20" s="84">
+        <v>1</v>
+      </c>
+      <c r="D20" s="83">
+        <v>1</v>
+      </c>
+      <c r="E20" s="68">
+        <f>SUM(G20:M20)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="84" t="e">
+        <f t="shared" ref="F20:F50" si="2">ROUND(AVERAGE(G20:L20),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G20" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H20" s="84" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="83">
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="83">
+        <v>1</v>
+      </c>
+      <c r="C21" s="84">
+        <v>0</v>
+      </c>
+      <c r="D21" s="83">
+        <v>1</v>
+      </c>
+      <c r="E21" s="68">
+        <f>SUM(G21:M21)</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="84">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I21" s="83">
+        <v>2</v>
+      </c>
+      <c r="J21" s="84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="83">
+        <v>1</v>
+      </c>
+      <c r="C22" s="84">
+        <v>0</v>
+      </c>
+      <c r="D22" s="83">
+        <v>1</v>
+      </c>
+      <c r="E22" s="68">
+        <f>SUM(G22:M22)</f>
+        <v>2</v>
+      </c>
+      <c r="F22" s="84">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I22" s="83">
+        <v>2</v>
+      </c>
+      <c r="J22" s="84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="83">
+        <v>0</v>
+      </c>
+      <c r="C23" s="84">
+        <v>0</v>
+      </c>
+      <c r="D23" s="83">
+        <v>1</v>
+      </c>
+      <c r="E23" s="68">
+        <f>SUM(G23:M23)</f>
+        <v>3</v>
+      </c>
+      <c r="F23" s="84">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="83">
+        <v>2</v>
+      </c>
+      <c r="J23" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="83">
+        <v>0</v>
+      </c>
+      <c r="C24" s="84">
+        <v>0</v>
+      </c>
+      <c r="D24" s="83">
+        <v>1</v>
+      </c>
+      <c r="E24" s="68">
+        <f>SUM(G24:L24)</f>
+        <v>6</v>
+      </c>
+      <c r="F24" s="84">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K24" s="83">
+        <v>3</v>
+      </c>
+      <c r="L24" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="83">
+        <v>0</v>
+      </c>
+      <c r="C25" s="84">
+        <v>0</v>
+      </c>
+      <c r="D25" s="83">
+        <v>1</v>
+      </c>
+      <c r="E25" s="68">
+        <f>SUM(G25:M25)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="84">
-        <v>1</v>
-      </c>
-      <c r="D5" s="83">
-        <v>5</v>
-      </c>
-      <c r="E5" s="68">
-        <f>SUM(G5:L5)</f>
-        <v>2</v>
-      </c>
-      <c r="F5" s="84">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="83">
-        <v>1</v>
-      </c>
-      <c r="H5" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="I5" s="83">
-        <v>1</v>
-      </c>
-      <c r="J5" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="L5" s="68" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A6" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="83">
-        <v>1</v>
-      </c>
-      <c r="C6" s="84">
-        <v>0</v>
-      </c>
-      <c r="D6" s="83">
-        <v>1</v>
-      </c>
-      <c r="E6" s="68">
-        <f>SUM(G6:M6)</f>
-        <v>2</v>
-      </c>
-      <c r="F6" s="84">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I6" s="83">
-        <v>2</v>
-      </c>
-      <c r="J6" s="84" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="83">
-        <v>1</v>
-      </c>
-      <c r="C7" s="84">
-        <v>0</v>
-      </c>
-      <c r="D7" s="83">
-        <v>1</v>
-      </c>
-      <c r="E7" s="68">
-        <f>SUM(G7:M7)</f>
-        <v>2</v>
-      </c>
-      <c r="F7" s="84">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I7" s="83">
-        <v>2</v>
-      </c>
-      <c r="J7" s="84" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="83">
-        <v>1</v>
-      </c>
-      <c r="C8" s="84">
-        <v>1</v>
-      </c>
-      <c r="D8" s="83">
-        <v>2</v>
-      </c>
-      <c r="E8" s="68">
-        <f>SUM(G8:L8)</f>
+      <c r="F25" s="84">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I25" s="83">
+        <v>3</v>
+      </c>
+      <c r="J25" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="83">
+        <v>0</v>
+      </c>
+      <c r="C26" s="84">
+        <v>0</v>
+      </c>
+      <c r="D26" s="83">
+        <v>1</v>
+      </c>
+      <c r="E26" s="68">
+        <f>SUM(G26:M26)</f>
         <v>6</v>
       </c>
-      <c r="F8" s="84">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I8" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="J8" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="K8" s="68">
-        <v>3</v>
-      </c>
-      <c r="L8" s="68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="83">
-        <v>0</v>
-      </c>
-      <c r="C9" s="84">
-        <v>0</v>
-      </c>
-      <c r="D9" s="83">
-        <v>0</v>
-      </c>
-      <c r="E9" s="68">
-        <f>SUM(G9:M9)</f>
-        <v>3</v>
-      </c>
-      <c r="F9" s="84">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="83">
-        <v>2</v>
-      </c>
-      <c r="J9" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A10" s="79" t="s">
+      <c r="F26" s="84">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I26" s="83">
+        <v>3</v>
+      </c>
+      <c r="J26" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="83">
+        <v>0</v>
+      </c>
+      <c r="C27" s="84">
+        <v>0</v>
+      </c>
+      <c r="D27" s="83">
+        <v>1</v>
+      </c>
+      <c r="E27" s="68">
+        <f>SUM(G27:L27)</f>
+        <v>2</v>
+      </c>
+      <c r="F27" s="84">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="83">
+        <v>1</v>
+      </c>
+      <c r="L27" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="83">
+        <v>0</v>
+      </c>
+      <c r="C28" s="84">
+        <v>0</v>
+      </c>
+      <c r="D28" s="83">
+        <v>1</v>
+      </c>
+      <c r="E28" s="68">
+        <f>SUM(G29:M29)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="84">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G28" s="83">
+        <v>3</v>
+      </c>
+      <c r="H28" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="83">
-        <v>0</v>
-      </c>
-      <c r="C10" s="84">
-        <v>0</v>
-      </c>
-      <c r="D10" s="83">
-        <v>0</v>
-      </c>
-      <c r="E10" s="68">
-        <f>SUM(G10:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="84" t="e">
-        <f t="shared" si="0"/>
+      <c r="B29" s="83">
+        <v>0</v>
+      </c>
+      <c r="C29" s="84">
+        <v>0</v>
+      </c>
+      <c r="D29" s="83">
+        <v>0</v>
+      </c>
+      <c r="E29" s="68">
+        <f t="shared" ref="E29:E50" si="3">SUM(G29:M29)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="84" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A11" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="83">
-        <v>0</v>
-      </c>
-      <c r="C11" s="84">
-        <v>0</v>
-      </c>
-      <c r="D11" s="83">
-        <v>1</v>
-      </c>
-      <c r="E11" s="68">
-        <f>SUM(G11:L11)</f>
-        <v>6</v>
-      </c>
-      <c r="F11" s="84">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K11" s="68">
-        <v>3</v>
-      </c>
-      <c r="L11" s="68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="83">
-        <v>0</v>
-      </c>
-      <c r="C12" s="84">
-        <v>0</v>
-      </c>
-      <c r="D12" s="83">
-        <v>0</v>
-      </c>
-      <c r="E12" s="68">
-        <f t="shared" ref="E12:E19" si="1">SUM(G12:M12)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="84" t="e">
-        <f t="shared" si="0"/>
+      <c r="B30" s="83">
+        <v>0</v>
+      </c>
+      <c r="C30" s="84">
+        <v>0</v>
+      </c>
+      <c r="D30" s="83">
+        <v>0</v>
+      </c>
+      <c r="E30" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="84" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A13" s="79" t="s">
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="83">
-        <v>0</v>
-      </c>
-      <c r="C13" s="84">
-        <v>0</v>
-      </c>
-      <c r="D13" s="83">
-        <v>0</v>
-      </c>
-      <c r="E13" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="84" t="e">
-        <f t="shared" si="0"/>
+      <c r="B31" s="83">
+        <v>0</v>
+      </c>
+      <c r="C31" s="84">
+        <v>0</v>
+      </c>
+      <c r="D31" s="83">
+        <v>0</v>
+      </c>
+      <c r="E31" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="84" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A14" s="79" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="83">
-        <v>0</v>
-      </c>
-      <c r="C14" s="84">
-        <v>0</v>
-      </c>
-      <c r="D14" s="83">
-        <v>0</v>
-      </c>
-      <c r="E14" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="84" t="e">
-        <f t="shared" si="0"/>
+      <c r="B32" s="83">
+        <v>0</v>
+      </c>
+      <c r="C32" s="84">
+        <v>0</v>
+      </c>
+      <c r="D32" s="83">
+        <v>0</v>
+      </c>
+      <c r="E32" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="84" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A15" s="79" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="83">
-        <v>0</v>
-      </c>
-      <c r="C15" s="84">
-        <v>0</v>
-      </c>
-      <c r="D15" s="83">
-        <v>0</v>
-      </c>
-      <c r="E15" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="84" t="e">
-        <f t="shared" si="0"/>
+      <c r="B33" s="83">
+        <v>0</v>
+      </c>
+      <c r="C33" s="84">
+        <v>0</v>
+      </c>
+      <c r="D33" s="83">
+        <v>0</v>
+      </c>
+      <c r="E33" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="84" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.3">
-      <c r="A16" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="83">
-        <v>0</v>
-      </c>
-      <c r="C16" s="84">
-        <v>0</v>
-      </c>
-      <c r="D16" s="83">
-        <v>1</v>
-      </c>
-      <c r="E16" s="68">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F16" s="84">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I16" s="83">
-        <v>3</v>
-      </c>
-      <c r="J16" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="B17" s="83">
-        <v>0</v>
-      </c>
-      <c r="C17" s="84">
-        <v>0</v>
-      </c>
-      <c r="D17" s="83">
-        <v>0</v>
-      </c>
-      <c r="E17" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="84" t="e">
-        <f t="shared" si="0"/>
+      <c r="B34" s="83">
+        <v>0</v>
+      </c>
+      <c r="C34" s="84">
+        <v>0</v>
+      </c>
+      <c r="D34" s="83">
+        <v>0</v>
+      </c>
+      <c r="E34" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="84" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="79" t="s">
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="83">
-        <v>0</v>
-      </c>
-      <c r="C18" s="84">
-        <v>0</v>
-      </c>
-      <c r="D18" s="83">
-        <v>0</v>
-      </c>
-      <c r="E18" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="84" t="e">
-        <f t="shared" si="0"/>
+      <c r="B35" s="83">
+        <v>0</v>
+      </c>
+      <c r="C35" s="84">
+        <v>0</v>
+      </c>
+      <c r="D35" s="83">
+        <v>0</v>
+      </c>
+      <c r="E35" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="84" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="79" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="83">
-        <v>0</v>
-      </c>
-      <c r="C19" s="84">
-        <v>0</v>
-      </c>
-      <c r="D19" s="83">
-        <v>0</v>
-      </c>
-      <c r="E19" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="84" t="e">
-        <f t="shared" si="0"/>
+      <c r="B36" s="83">
+        <v>0</v>
+      </c>
+      <c r="C36" s="84">
+        <v>0</v>
+      </c>
+      <c r="D36" s="83">
+        <v>0</v>
+      </c>
+      <c r="E36" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="84" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="89"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="83">
-        <v>0</v>
-      </c>
-      <c r="C20" s="84">
-        <v>0</v>
-      </c>
-      <c r="D20" s="83">
-        <v>1</v>
-      </c>
-      <c r="E20" s="68">
-        <f>SUM(G20:L20)</f>
-        <v>10</v>
-      </c>
-      <c r="F20" s="84">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="I20" s="83">
-        <v>3</v>
-      </c>
-      <c r="J20" s="84">
-        <v>1</v>
-      </c>
-      <c r="K20" s="68">
-        <v>3</v>
-      </c>
-      <c r="L20" s="68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="83">
-        <v>0</v>
-      </c>
-      <c r="C21" s="84">
-        <v>0</v>
-      </c>
-      <c r="D21" s="83">
-        <v>0</v>
-      </c>
-      <c r="E21" s="68">
-        <f t="shared" ref="E21:E29" si="2">SUM(G21:M21)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="84" t="e">
-        <f t="shared" si="0"/>
+      <c r="B37" s="83">
+        <v>0</v>
+      </c>
+      <c r="C37" s="84">
+        <v>0</v>
+      </c>
+      <c r="D37" s="83">
+        <v>0</v>
+      </c>
+      <c r="E37" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="84" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="79" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="B22" s="83">
-        <v>0</v>
-      </c>
-      <c r="C22" s="84">
-        <v>0</v>
-      </c>
-      <c r="D22" s="83">
-        <v>0</v>
-      </c>
-      <c r="E22" s="68">
+      <c r="B38" s="83">
+        <v>0</v>
+      </c>
+      <c r="C38" s="84">
+        <v>0</v>
+      </c>
+      <c r="D38" s="83">
+        <v>0</v>
+      </c>
+      <c r="E38" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="84" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="84" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="79" t="s">
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="83">
-        <v>0</v>
-      </c>
-      <c r="C23" s="84">
-        <v>0</v>
-      </c>
-      <c r="D23" s="83">
-        <v>0</v>
-      </c>
-      <c r="E23" s="68">
+      <c r="B39" s="83">
+        <v>0</v>
+      </c>
+      <c r="C39" s="84">
+        <v>0</v>
+      </c>
+      <c r="D39" s="83">
+        <v>0</v>
+      </c>
+      <c r="E39" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="84" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="84" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="79" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="83">
-        <v>0</v>
-      </c>
-      <c r="C24" s="84">
-        <v>0</v>
-      </c>
-      <c r="D24" s="83">
-        <v>0</v>
-      </c>
-      <c r="E24" s="68">
+      <c r="B40" s="83">
+        <v>0</v>
+      </c>
+      <c r="C40" s="84">
+        <v>0</v>
+      </c>
+      <c r="D40" s="83">
+        <v>0</v>
+      </c>
+      <c r="E40" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="84" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="84" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="79" t="s">
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="83">
-        <v>0</v>
-      </c>
-      <c r="C25" s="84">
-        <v>0</v>
-      </c>
-      <c r="D25" s="83">
-        <v>0</v>
-      </c>
-      <c r="E25" s="68">
+      <c r="B41" s="83">
+        <v>0</v>
+      </c>
+      <c r="C41" s="84">
+        <v>0</v>
+      </c>
+      <c r="D41" s="83">
+        <v>0</v>
+      </c>
+      <c r="E41" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="84" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="84" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="83">
-        <v>0</v>
-      </c>
-      <c r="C26" s="84">
-        <v>0</v>
-      </c>
-      <c r="D26" s="83">
-        <v>0</v>
-      </c>
-      <c r="E26" s="68">
+      <c r="B42" s="83">
+        <v>0</v>
+      </c>
+      <c r="C42" s="84">
+        <v>0</v>
+      </c>
+      <c r="D42" s="83">
+        <v>0</v>
+      </c>
+      <c r="E42" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="84" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="84" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="79" t="s">
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="83">
-        <v>0</v>
-      </c>
-      <c r="C27" s="84">
-        <v>0</v>
-      </c>
-      <c r="D27" s="83">
-        <v>0</v>
-      </c>
-      <c r="E27" s="68">
+      <c r="B43" s="83">
+        <v>0</v>
+      </c>
+      <c r="C43" s="84">
+        <v>0</v>
+      </c>
+      <c r="D43" s="83">
+        <v>0</v>
+      </c>
+      <c r="E43" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="84" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="84" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="79" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="83">
-        <v>0</v>
-      </c>
-      <c r="C28" s="84">
-        <v>0</v>
-      </c>
-      <c r="D28" s="83">
-        <v>0</v>
-      </c>
-      <c r="E28" s="68">
+      <c r="B44" s="83">
+        <v>0</v>
+      </c>
+      <c r="C44" s="84">
+        <v>0</v>
+      </c>
+      <c r="D44" s="83">
+        <v>0</v>
+      </c>
+      <c r="E44" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="84" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="84" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="83">
-        <v>0</v>
-      </c>
-      <c r="C29" s="84">
-        <v>0</v>
-      </c>
-      <c r="D29" s="83">
-        <v>1</v>
-      </c>
-      <c r="E29" s="68">
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="83">
+        <v>0</v>
+      </c>
+      <c r="C45" s="84">
+        <v>0</v>
+      </c>
+      <c r="D45" s="83">
+        <v>0</v>
+      </c>
+      <c r="E45" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="84" t="e">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F29" s="84">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I29" s="83">
-        <v>3</v>
-      </c>
-      <c r="J29" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" s="83">
-        <v>2</v>
-      </c>
-      <c r="C30" s="84">
-        <v>1</v>
-      </c>
-      <c r="D30" s="83">
-        <v>3</v>
-      </c>
-      <c r="E30" s="68">
-        <f>SUM(G30:L30)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="84" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="L30" s="68" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="83">
-        <v>0</v>
-      </c>
-      <c r="C31" s="84">
-        <v>0</v>
-      </c>
-      <c r="D31" s="83">
-        <v>0</v>
-      </c>
-      <c r="E31" s="68">
-        <f>SUM(G31:M31)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="84" t="e">
-        <f t="shared" si="0"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" s="83">
+        <v>0</v>
+      </c>
+      <c r="C46" s="84">
+        <v>0</v>
+      </c>
+      <c r="D46" s="83">
+        <v>0</v>
+      </c>
+      <c r="E46" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="84" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" s="83">
-        <v>0</v>
-      </c>
-      <c r="C32" s="84">
-        <v>0</v>
-      </c>
-      <c r="D32" s="83">
-        <v>0</v>
-      </c>
-      <c r="E32" s="68">
-        <f>SUM(G32:M32)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="84" t="e">
-        <f t="shared" si="0"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="83">
+        <v>0</v>
+      </c>
+      <c r="C47" s="84">
+        <v>0</v>
+      </c>
+      <c r="D47" s="83">
+        <v>0</v>
+      </c>
+      <c r="E47" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="84" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="B33" s="83">
-        <v>0</v>
-      </c>
-      <c r="C33" s="84">
-        <v>0</v>
-      </c>
-      <c r="D33" s="83">
-        <v>0</v>
-      </c>
-      <c r="E33" s="68">
-        <f>SUM(G33:M33)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="84" t="e">
-        <f t="shared" si="0"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="83">
+        <v>0</v>
+      </c>
+      <c r="C48" s="84">
+        <v>0</v>
+      </c>
+      <c r="D48" s="83">
+        <v>0</v>
+      </c>
+      <c r="E48" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="84" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="83">
-        <v>0</v>
-      </c>
-      <c r="C34" s="84">
-        <v>0</v>
-      </c>
-      <c r="D34" s="83">
-        <v>1</v>
-      </c>
-      <c r="E34" s="68">
-        <f>SUM(G34:L34)</f>
-        <v>2</v>
-      </c>
-      <c r="F34" s="84">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K34" s="68">
-        <v>1</v>
-      </c>
-      <c r="L34" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" s="83">
-        <v>0</v>
-      </c>
-      <c r="C35" s="84">
-        <v>0</v>
-      </c>
-      <c r="D35" s="83">
-        <v>0</v>
-      </c>
-      <c r="E35" s="68">
-        <f>SUM(G35:M35)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="84" t="e">
-        <f t="shared" si="0"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="83">
+        <v>0</v>
+      </c>
+      <c r="C49" s="84">
+        <v>0</v>
+      </c>
+      <c r="D49" s="83">
+        <v>0</v>
+      </c>
+      <c r="E49" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="84" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" s="83">
-        <v>0</v>
-      </c>
-      <c r="C36" s="84">
-        <v>0</v>
-      </c>
-      <c r="D36" s="83">
-        <v>0</v>
-      </c>
-      <c r="E36" s="68">
-        <f>SUM(G36:M36)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="84" t="e">
-        <f t="shared" si="0"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" s="83">
+        <v>0</v>
+      </c>
+      <c r="C50" s="84">
+        <v>0</v>
+      </c>
+      <c r="D50" s="83">
+        <v>0</v>
+      </c>
+      <c r="E50" s="68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="84" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="B37" s="83">
-        <v>0</v>
-      </c>
-      <c r="C37" s="84">
-        <v>0</v>
-      </c>
-      <c r="D37" s="83">
-        <v>0</v>
-      </c>
-      <c r="E37" s="68">
-        <f>SUM(G37:M37)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="B38" s="83">
-        <v>2</v>
-      </c>
-      <c r="C38" s="84">
-        <v>1</v>
-      </c>
-      <c r="D38" s="83">
-        <v>3</v>
-      </c>
-      <c r="E38" s="68">
-        <f>SUM(G38:L38)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="84" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="L38" s="68" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="B39" s="83">
-        <v>0</v>
-      </c>
-      <c r="C39" s="84">
-        <v>0</v>
-      </c>
-      <c r="D39" s="83">
-        <v>1</v>
-      </c>
-      <c r="E39" s="68">
-        <f>SUM(G40:M40)</f>
-        <v>16</v>
-      </c>
-      <c r="F39" s="84">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G39" s="83">
-        <v>3</v>
-      </c>
-      <c r="H39" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="83">
-        <v>0</v>
-      </c>
-      <c r="C40" s="84">
-        <v>0</v>
-      </c>
-      <c r="D40" s="83">
-        <v>1</v>
-      </c>
-      <c r="E40" s="68">
-        <f>SUM(G40:L40)</f>
-        <v>16</v>
-      </c>
-      <c r="F40" s="84">
-        <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-      <c r="G40" s="83">
-        <v>3</v>
-      </c>
-      <c r="H40" s="84">
-        <v>3</v>
-      </c>
-      <c r="I40" s="83">
-        <v>3</v>
-      </c>
-      <c r="J40" s="84">
-        <v>2</v>
-      </c>
-      <c r="K40" s="68">
-        <v>2</v>
-      </c>
-      <c r="L40" s="68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="83">
-        <v>0</v>
-      </c>
-      <c r="C41" s="84">
-        <v>0</v>
-      </c>
-      <c r="D41" s="83">
-        <v>1</v>
-      </c>
-      <c r="E41" s="68">
-        <f>SUM(G41:L41)</f>
-        <v>10</v>
-      </c>
-      <c r="F41" s="84">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G41" s="83">
-        <v>3</v>
-      </c>
-      <c r="H41" s="84">
-        <v>3</v>
-      </c>
-      <c r="K41" s="68">
-        <v>2</v>
-      </c>
-      <c r="L41" s="68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="83">
-        <v>0</v>
-      </c>
-      <c r="C42" s="84">
-        <v>0</v>
-      </c>
-      <c r="D42" s="83">
-        <v>1</v>
-      </c>
-      <c r="E42" s="68">
-        <f>SUM(G42:L42)</f>
-        <v>17</v>
-      </c>
-      <c r="F42" s="84">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="G42" s="83">
-        <v>3</v>
-      </c>
-      <c r="H42" s="84">
-        <v>3</v>
-      </c>
-      <c r="I42" s="83">
-        <v>2</v>
-      </c>
-      <c r="J42" s="84">
-        <v>3</v>
-      </c>
-      <c r="K42" s="68">
-        <v>3</v>
-      </c>
-      <c r="L42" s="68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="83">
-        <v>0</v>
-      </c>
-      <c r="C43" s="84">
-        <v>0</v>
-      </c>
-      <c r="D43" s="83">
-        <v>2</v>
-      </c>
-      <c r="E43" s="68">
-        <f>SUM(G44:M44)</f>
-        <v>12</v>
-      </c>
-      <c r="F43" s="84">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="G43" s="83">
-        <v>3</v>
-      </c>
-      <c r="H43" s="84">
-        <v>3</v>
-      </c>
-      <c r="I43" s="83">
-        <v>2</v>
-      </c>
-      <c r="J43" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" s="83">
-        <v>0</v>
-      </c>
-      <c r="C44" s="84">
-        <v>0</v>
-      </c>
-      <c r="D44" s="83">
-        <v>1</v>
-      </c>
-      <c r="E44" s="68">
-        <f>SUM(G44:L44)</f>
-        <v>12</v>
-      </c>
-      <c r="F44" s="84">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G44" s="83">
-        <v>2</v>
-      </c>
-      <c r="H44" s="84">
-        <v>3</v>
-      </c>
-      <c r="I44" s="83">
-        <v>1</v>
-      </c>
-      <c r="J44" s="84">
-        <v>1</v>
-      </c>
-      <c r="K44" s="68">
-        <v>3</v>
-      </c>
-      <c r="L44" s="68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="B45" s="83">
-        <v>2</v>
-      </c>
-      <c r="C45" s="84">
-        <v>1</v>
-      </c>
-      <c r="D45" s="83">
-        <v>3</v>
-      </c>
-      <c r="E45" s="68">
-        <f>SUM(G45:L45)</f>
-        <v>10</v>
-      </c>
-      <c r="F45" s="84">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G45" s="83">
-        <v>2</v>
-      </c>
-      <c r="H45" s="84">
-        <v>3</v>
-      </c>
-      <c r="I45" s="83">
-        <v>2</v>
-      </c>
-      <c r="J45" s="84">
-        <v>3</v>
-      </c>
-      <c r="K45" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="L45" s="68" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="83">
-        <v>0</v>
-      </c>
-      <c r="C46" s="84">
-        <v>0</v>
-      </c>
-      <c r="D46" s="83">
-        <v>2</v>
-      </c>
-      <c r="E46" s="68">
-        <f>SUM(G47:M47)</f>
-        <v>14</v>
-      </c>
-      <c r="F46" s="84">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G46" s="83">
-        <v>3</v>
-      </c>
-      <c r="H46" s="84">
-        <v>1</v>
-      </c>
-      <c r="I46" s="83">
-        <v>3</v>
-      </c>
-      <c r="J46" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="83">
-        <v>0</v>
-      </c>
-      <c r="C47" s="84">
-        <v>0</v>
-      </c>
-      <c r="D47" s="83">
-        <v>1</v>
-      </c>
-      <c r="E47" s="68">
-        <f>SUM(G47:L47)</f>
-        <v>14</v>
-      </c>
-      <c r="F47" s="84">
-        <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G47" s="83">
-        <v>1</v>
-      </c>
-      <c r="H47" s="84">
-        <v>3</v>
-      </c>
-      <c r="I47" s="83">
-        <v>3</v>
-      </c>
-      <c r="J47" s="84">
-        <v>3</v>
-      </c>
-      <c r="K47" s="68">
-        <v>1</v>
-      </c>
-      <c r="L47" s="68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="83">
-        <v>0</v>
-      </c>
-      <c r="C48" s="84">
-        <v>0</v>
-      </c>
-      <c r="D48" s="83">
-        <v>1</v>
-      </c>
-      <c r="E48" s="68">
-        <f>SUM(G48:L48)</f>
-        <v>6</v>
-      </c>
-      <c r="F48" s="84">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G48" s="83">
-        <v>2</v>
-      </c>
-      <c r="H48" s="84">
-        <v>1</v>
-      </c>
-      <c r="I48" s="83">
-        <v>0</v>
-      </c>
-      <c r="J48" s="84">
-        <v>0</v>
-      </c>
-      <c r="K48" s="68">
-        <v>2</v>
-      </c>
-      <c r="L48" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="83">
-        <v>0</v>
-      </c>
-      <c r="C49" s="84">
-        <v>0</v>
-      </c>
-      <c r="D49" s="83">
-        <v>2</v>
-      </c>
-      <c r="E49" s="68">
-        <f>SUM(G50:M50)</f>
-        <v>9</v>
-      </c>
-      <c r="F49" s="84">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="G49" s="83">
-        <v>1</v>
-      </c>
-      <c r="H49" s="84">
-        <v>2</v>
-      </c>
-      <c r="I49" s="83">
-        <v>1</v>
-      </c>
-      <c r="J49" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="B50" s="83">
-        <v>0</v>
-      </c>
-      <c r="C50" s="84">
-        <v>0</v>
-      </c>
-      <c r="D50" s="83">
-        <v>2</v>
-      </c>
-      <c r="E50" s="68">
-        <f>SUM(G51:M51)</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="84">
-        <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G50" s="83">
-        <v>1</v>
-      </c>
-      <c r="H50" s="84">
-        <v>2</v>
-      </c>
-      <c r="I50" s="83">
-        <v>3</v>
-      </c>
-      <c r="J50" s="84">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9029,4 +9069,158 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96ECBE3-C116-4081-AAF5-C23DF0AE4E41}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="86"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="79"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="87"/>
+      <c r="B11" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="88"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="79"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="88"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="88"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C22">
+    <sortCondition ref="C1:C22"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F3FEBA-3DB8-4DB0-96DC-D6E2224365A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F289E908-83D3-4296-AE08-B7CB434EB9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="200">
   <si>
     <t>nome</t>
   </si>
@@ -618,6 +618,27 @@
   </si>
   <si>
     <t>HikariNoRob</t>
+  </si>
+  <si>
+    <t>Robby</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Giosan</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Staenta</t>
+  </si>
+  <si>
+    <t>Dado</t>
+  </si>
+  <si>
+    <t>Xblade</t>
   </si>
 </sst>
 </file>
@@ -884,7 +905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1159,6 +1180,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1621,8 +1645,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella2" displayName="Tabella2" ref="A1:CI51" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
   <autoFilter ref="A1:CI51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CI51">
-    <sortCondition descending="1" ref="D1:D51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CI50">
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <tableColumns count="87">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NAME" dataDxfId="86"/>
@@ -4050,8 +4074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28:V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7025,31 +7049,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
@@ -7062,8 +7092,11 @@
       <c r="J3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -7079,8 +7112,11 @@
       <c r="J4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -7096,8 +7132,11 @@
       <c r="J5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
@@ -7113,8 +7152,11 @@
       <c r="J6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
@@ -7127,16 +7169,22 @@
       <c r="J7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -7149,16 +7197,22 @@
       <c r="J9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
@@ -7171,8 +7225,11 @@
       <c r="J11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -7185,8 +7242,11 @@
       <c r="J12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7199,8 +7259,11 @@
       <c r="J13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7213,8 +7276,11 @@
       <c r="J14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -7227,16 +7293,22 @@
       <c r="J15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -7249,8 +7321,11 @@
       <c r="J17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -7263,8 +7338,11 @@
       <c r="J18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -7277,16 +7355,22 @@
       <c r="J19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -7294,7 +7378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -7302,7 +7386,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -7310,7 +7394,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -7318,7 +7402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -7326,7 +7410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -7334,7 +7418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
@@ -7342,7 +7426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
@@ -7350,7 +7434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12</v>
       </c>
@@ -7367,8 +7451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CI50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7665,144 +7749,116 @@
     </row>
     <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="B2" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="68">
-        <f t="shared" ref="E2:E11" si="0">SUM(G2:L2)</f>
-        <v>12</v>
+        <f>SUM(G2:M2)</f>
+        <v>3</v>
       </c>
       <c r="F2" s="84">
-        <f t="shared" ref="F2:F18" si="1">ROUND(AVERAGE(G2:L2),1)</f>
-        <v>3</v>
-      </c>
-      <c r="G2" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="84" t="s">
-        <v>158</v>
+        <f>ROUND(AVERAGE(G2:L2),1)</f>
+        <v>1.5</v>
       </c>
       <c r="I2" s="83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="84">
-        <v>3</v>
-      </c>
-      <c r="K2" s="83">
-        <v>3</v>
-      </c>
-      <c r="L2" s="84">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B3" s="83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="68">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F3" s="84">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G3" s="83">
-        <v>1</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" s="83">
-        <v>1</v>
-      </c>
-      <c r="J3" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="K3" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="L3" s="68" t="s">
-        <v>158</v>
-      </c>
+        <f>SUM(G3:M3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="84" t="e">
+        <f>ROUND(AVERAGE(G3:L3),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
     </row>
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B4" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="83">
         <v>3</v>
       </c>
       <c r="E4" s="68">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(G4:L4)</f>
+        <v>6</v>
       </c>
       <c r="F4" s="84">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f>ROUND(AVERAGE(G4:L4),1)</f>
+        <v>1</v>
       </c>
       <c r="G4" s="83">
         <v>2</v>
       </c>
       <c r="H4" s="84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="84">
-        <v>3</v>
-      </c>
-      <c r="K4" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="84" t="s">
-        <v>158</v>
+        <v>0</v>
+      </c>
+      <c r="K4" s="83">
+        <v>2</v>
+      </c>
+      <c r="L4" s="84">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="83">
+        <v>0</v>
+      </c>
+      <c r="C5" s="84">
+        <v>0</v>
+      </c>
+      <c r="D5" s="83">
+        <v>1</v>
+      </c>
+      <c r="E5" s="68">
+        <f>SUM(G6:M6)</f>
         <v>6</v>
       </c>
-      <c r="B5" s="83">
-        <v>0</v>
-      </c>
-      <c r="C5" s="84">
-        <v>0</v>
-      </c>
-      <c r="D5" s="83">
-        <v>3</v>
-      </c>
-      <c r="E5" s="68">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
       <c r="F5" s="84">
-        <f t="shared" si="1"/>
-        <v>2.7</v>
+        <f>ROUND(AVERAGE(G5:L5),1)</f>
+        <v>3</v>
       </c>
       <c r="G5" s="83">
         <v>3</v>
@@ -7810,22 +7866,12 @@
       <c r="H5" s="84">
         <v>3</v>
       </c>
-      <c r="I5" s="83">
-        <v>3</v>
-      </c>
-      <c r="J5" s="84">
-        <v>2</v>
-      </c>
-      <c r="K5" s="68">
-        <v>2</v>
-      </c>
-      <c r="L5" s="68">
-        <v>3</v>
-      </c>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
     </row>
     <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="B6" s="83">
         <v>0</v>
@@ -7834,26 +7880,14 @@
         <v>0</v>
       </c>
       <c r="D6" s="83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="68">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>SUM(G6:L6)</f>
+        <v>6</v>
       </c>
       <c r="F6" s="84">
-        <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="G6" s="83">
-        <v>3</v>
-      </c>
-      <c r="H6" s="84">
-        <v>3</v>
-      </c>
-      <c r="I6" s="83">
-        <v>2</v>
-      </c>
-      <c r="J6" s="84">
+        <f>ROUND(AVERAGE(G6:L6),1)</f>
         <v>3</v>
       </c>
       <c r="K6" s="83">
@@ -7865,7 +7899,7 @@
     </row>
     <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="B7" s="83">
         <v>0</v>
@@ -7874,38 +7908,20 @@
         <v>0</v>
       </c>
       <c r="D7" s="83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="68">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F7" s="84">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G7" s="83">
-        <v>2</v>
-      </c>
-      <c r="H7" s="84">
-        <v>3</v>
-      </c>
-      <c r="I7" s="83">
-        <v>1</v>
-      </c>
-      <c r="J7" s="84">
-        <v>1</v>
-      </c>
-      <c r="K7" s="83">
-        <v>3</v>
-      </c>
-      <c r="L7" s="84">
-        <v>2</v>
+        <f>SUM(G7:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="84" t="e">
+        <f>ROUND(AVERAGE(G7:L7),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="B8" s="83">
         <v>0</v>
@@ -7914,38 +7930,22 @@
         <v>0</v>
       </c>
       <c r="D8" s="83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="68">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F8" s="84">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G8" s="83">
-        <v>1</v>
-      </c>
-      <c r="H8" s="84">
-        <v>3</v>
-      </c>
-      <c r="I8" s="83">
-        <v>3</v>
-      </c>
-      <c r="J8" s="84">
-        <v>3</v>
-      </c>
-      <c r="K8" s="68">
-        <v>1</v>
-      </c>
-      <c r="L8" s="68">
-        <v>3</v>
-      </c>
+        <f>SUM(G8:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="84" t="e">
+        <f>ROUND(AVERAGE(G8:L8),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
     </row>
     <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B9" s="83">
         <v>0</v>
@@ -7954,72 +7954,42 @@
         <v>0</v>
       </c>
       <c r="D9" s="83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="68">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F9" s="84">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="83">
-        <v>2</v>
-      </c>
-      <c r="H9" s="84">
-        <v>1</v>
-      </c>
-      <c r="I9" s="83">
-        <v>0</v>
-      </c>
-      <c r="J9" s="84">
-        <v>0</v>
-      </c>
-      <c r="K9" s="83">
-        <v>2</v>
-      </c>
-      <c r="L9" s="84">
-        <v>1</v>
+        <f>SUM(G9:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="84" t="e">
+        <f>ROUND(AVERAGE(G9:L9),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B10" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="68">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F10" s="84">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I10" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="K10" s="83">
-        <v>3</v>
-      </c>
-      <c r="L10" s="84">
-        <v>3</v>
+        <f>SUM(G10:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="84" t="e">
+        <f>ROUND(AVERAGE(G10:L10),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="B11" s="83">
         <v>0</v>
@@ -8028,24 +7998,30 @@
         <v>0</v>
       </c>
       <c r="D11" s="83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="68">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(G11:L11)</f>
+        <v>16</v>
       </c>
       <c r="F11" s="84">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f>ROUND(AVERAGE(G11:L11),1)</f>
+        <v>2.7</v>
+      </c>
+      <c r="G11" s="83">
+        <v>3</v>
+      </c>
+      <c r="H11" s="84">
+        <v>3</v>
       </c>
       <c r="I11" s="83">
         <v>3</v>
       </c>
       <c r="J11" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" s="68">
         <v>3</v>
@@ -8053,7 +8029,7 @@
     </row>
     <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B12" s="83">
         <v>0</v>
@@ -8062,32 +8038,26 @@
         <v>0</v>
       </c>
       <c r="D12" s="83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="68">
-        <f>SUM(G13:M13)</f>
-        <v>10</v>
+        <f>SUM(G12:M12)</f>
+        <v>4</v>
       </c>
       <c r="F12" s="84">
-        <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="G12" s="83">
-        <v>3</v>
-      </c>
-      <c r="H12" s="84">
-        <v>3</v>
+        <f>ROUND(AVERAGE(G12:L12),1)</f>
+        <v>2</v>
       </c>
       <c r="I12" s="83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="84">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="B13" s="83">
         <v>0</v>
@@ -8096,66 +8066,48 @@
         <v>0</v>
       </c>
       <c r="D13" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="68">
-        <f>SUM(G14:M14)</f>
-        <v>7</v>
-      </c>
-      <c r="F13" s="84">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="G13" s="83">
-        <v>3</v>
-      </c>
-      <c r="H13" s="84">
-        <v>1</v>
-      </c>
-      <c r="I13" s="83">
-        <v>3</v>
-      </c>
-      <c r="J13" s="84">
-        <v>3</v>
+        <f>SUM(G13:M13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="84" t="e">
+        <f>ROUND(AVERAGE(G13:L13),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="B14" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="84">
         <v>0</v>
       </c>
       <c r="D14" s="83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="68">
-        <f>SUM(G15:M15)</f>
-        <v>9</v>
+        <f>SUM(G14:M14)</f>
+        <v>2</v>
       </c>
       <c r="F14" s="84">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="G14" s="83">
-        <v>1</v>
-      </c>
-      <c r="H14" s="84">
+        <f>ROUND(AVERAGE(G14:L14),1)</f>
         <v>2</v>
       </c>
       <c r="I14" s="83">
-        <v>1</v>
-      </c>
-      <c r="J14" s="84">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J14" s="84" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B15" s="83">
         <v>0</v>
@@ -8164,32 +8116,20 @@
         <v>0</v>
       </c>
       <c r="D15" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="68">
-        <f>SUM(G16:M16)</f>
-        <v>10</v>
-      </c>
-      <c r="F15" s="84">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G15" s="83">
-        <v>1</v>
-      </c>
-      <c r="H15" s="84">
-        <v>2</v>
-      </c>
-      <c r="I15" s="83">
-        <v>3</v>
-      </c>
-      <c r="J15" s="84">
-        <v>3</v>
+        <f>SUM(G15:M15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="84" t="e">
+        <f>ROUND(AVERAGE(G15:L15),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" s="79" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="B16" s="83">
         <v>0</v>
@@ -8198,202 +8138,202 @@
         <v>0</v>
       </c>
       <c r="D16" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="68">
-        <f>SUM(G16:L16)</f>
-        <v>10</v>
-      </c>
-      <c r="F16" s="84">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="G16" s="83">
-        <v>3</v>
-      </c>
-      <c r="H16" s="84">
-        <v>3</v>
-      </c>
-      <c r="K16" s="83">
-        <v>2</v>
-      </c>
-      <c r="L16" s="84">
-        <v>2</v>
+        <f>SUM(G16:M16)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="84" t="e">
+        <f>ROUND(AVERAGE(G16:L16),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="79" t="s">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="B17" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="68">
-        <f>SUM(G17:L17)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="L17" s="84" t="s">
-        <v>158</v>
+        <f>SUM(G18:M18)</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="84">
+        <f>ROUND(AVERAGE(G17:L17),1)</f>
+        <v>1.8</v>
+      </c>
+      <c r="G17" s="83">
+        <v>1</v>
+      </c>
+      <c r="H17" s="84">
+        <v>2</v>
+      </c>
+      <c r="I17" s="83">
+        <v>1</v>
+      </c>
+      <c r="J17" s="84">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="79" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B18" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="68">
         <f>SUM(G18:L18)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="L18" s="84" t="s">
-        <v>158</v>
+        <v>10</v>
+      </c>
+      <c r="F18" s="84">
+        <f>ROUND(AVERAGE(G18:L18),1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I18" s="83">
+        <v>3</v>
+      </c>
+      <c r="J18" s="84">
+        <v>1</v>
+      </c>
+      <c r="K18" s="83">
+        <v>3</v>
+      </c>
+      <c r="L18" s="84">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B19" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="68">
-        <f>SUM(G19:M19)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="84" t="e">
-        <f>AVERAGE(G19:M19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="J19" s="84" t="s">
-        <v>158</v>
+        <f>SUM(G19:L19)</f>
+        <v>10</v>
+      </c>
+      <c r="F19" s="84">
+        <f>ROUND(AVERAGE(G19:L19),1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G19" s="83">
+        <v>3</v>
+      </c>
+      <c r="H19" s="84">
+        <v>3</v>
+      </c>
+      <c r="K19" s="83">
+        <v>2</v>
+      </c>
+      <c r="L19" s="84">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="79" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B20" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="68">
         <f>SUM(G20:M20)</f>
         <v>0</v>
       </c>
       <c r="F20" s="84" t="e">
-        <f t="shared" ref="F20:F50" si="2">ROUND(AVERAGE(G20:L20),1)</f>
+        <f>ROUND(AVERAGE(G20:L20),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="79" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B21" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="84">
         <v>0</v>
       </c>
       <c r="D21" s="83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="68">
-        <f>SUM(G21:M21)</f>
-        <v>2</v>
+        <f>SUM(G22:M22)</f>
+        <v>0</v>
       </c>
       <c r="F21" s="84">
-        <f t="shared" si="2"/>
+        <f>ROUND(AVERAGE(G21:L21),1)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G21" s="83">
+        <v>1</v>
+      </c>
+      <c r="H21" s="84">
         <v>2</v>
       </c>
       <c r="I21" s="83">
-        <v>2</v>
-      </c>
-      <c r="J21" s="84" t="s">
-        <v>158</v>
+        <v>3</v>
+      </c>
+      <c r="J21" s="84">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B22" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="84">
         <v>0</v>
       </c>
       <c r="D22" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="68">
         <f>SUM(G22:M22)</f>
-        <v>2</v>
-      </c>
-      <c r="F22" s="84">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I22" s="83">
-        <v>2</v>
-      </c>
-      <c r="J22" s="84" t="s">
-        <v>158</v>
+        <v>0</v>
+      </c>
+      <c r="F22" s="84" t="e">
+        <f>ROUND(AVERAGE(G22:L22),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="B23" s="83">
         <v>0</v>
@@ -8402,26 +8342,20 @@
         <v>0</v>
       </c>
       <c r="D23" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="68">
         <f>SUM(G23:M23)</f>
-        <v>3</v>
-      </c>
-      <c r="F23" s="84">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="I23" s="83">
-        <v>2</v>
-      </c>
-      <c r="J23" s="84">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F23" s="84" t="e">
+        <f>ROUND(AVERAGE(G23:L23),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="B24" s="83">
         <v>0</v>
@@ -8430,57 +8364,51 @@
         <v>0</v>
       </c>
       <c r="D24" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="68">
-        <f>SUM(G24:L24)</f>
-        <v>6</v>
-      </c>
-      <c r="F24" s="84">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K24" s="83">
-        <v>3</v>
-      </c>
-      <c r="L24" s="84">
-        <v>3</v>
+        <f>SUM(G24:M24)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="84" t="e">
+        <f>ROUND(AVERAGE(G24:L24),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="B25" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="83">
         <v>1</v>
       </c>
       <c r="E25" s="68">
         <f>SUM(G25:M25)</f>
-        <v>4</v>
-      </c>
-      <c r="F25" s="84">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I25" s="83">
-        <v>3</v>
-      </c>
-      <c r="J25" s="84">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F25" s="84" t="e">
+        <f>AVERAGE(G25:M25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" s="84" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="79" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="B26" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="84">
         <v>0</v>
@@ -8490,22 +8418,22 @@
       </c>
       <c r="E26" s="68">
         <f>SUM(G26:M26)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F26" s="84">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>ROUND(AVERAGE(G26:L26),1)</f>
+        <v>2</v>
       </c>
       <c r="I26" s="83">
-        <v>3</v>
-      </c>
-      <c r="J26" s="84">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J26" s="84" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="79" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B27" s="83">
         <v>0</v>
@@ -8514,54 +8442,60 @@
         <v>0</v>
       </c>
       <c r="D27" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="68">
-        <f>SUM(G27:L27)</f>
-        <v>2</v>
-      </c>
-      <c r="F27" s="84">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="83">
-        <v>1</v>
-      </c>
-      <c r="L27" s="84">
-        <v>1</v>
+        <f>SUM(G27:M27)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="84" t="e">
+        <f>ROUND(AVERAGE(G27:L27),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="B28" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="68">
-        <f>SUM(G29:M29)</f>
-        <v>0</v>
+        <f>SUM(G28:L28)</f>
+        <v>12</v>
       </c>
       <c r="F28" s="84">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G28" s="83">
-        <v>3</v>
-      </c>
-      <c r="H28" s="84">
+        <f>ROUND(AVERAGE(G28:L28),1)</f>
+        <v>3</v>
+      </c>
+      <c r="G28" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="83">
+        <v>3</v>
+      </c>
+      <c r="J28" s="84">
+        <v>3</v>
+      </c>
+      <c r="K28" s="83">
+        <v>3</v>
+      </c>
+      <c r="L28" s="84">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="79" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="B29" s="83">
         <v>0</v>
@@ -8570,20 +8504,32 @@
         <v>0</v>
       </c>
       <c r="D29" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="68">
-        <f t="shared" ref="E29:E50" si="3">SUM(G29:M29)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="84" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>SUM(G30:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="84">
+        <f>ROUND(AVERAGE(G29:L29),1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G29" s="83">
+        <v>3</v>
+      </c>
+      <c r="H29" s="84">
+        <v>1</v>
+      </c>
+      <c r="I29" s="83">
+        <v>3</v>
+      </c>
+      <c r="J29" s="84">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="79" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="B30" s="83">
         <v>0</v>
@@ -8595,11 +8541,11 @@
         <v>0</v>
       </c>
       <c r="E30" s="68">
-        <f t="shared" si="3"/>
+        <f>SUM(G30:M30)</f>
         <v>0</v>
       </c>
       <c r="F30" s="84" t="e">
-        <f t="shared" si="2"/>
+        <f>ROUND(AVERAGE(G30:L30),1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="68"/>
@@ -8607,7 +8553,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="79" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B31" s="83">
         <v>0</v>
@@ -8619,17 +8565,17 @@
         <v>0</v>
       </c>
       <c r="E31" s="68">
-        <f t="shared" si="3"/>
+        <f>SUM(G31:M31)</f>
         <v>0</v>
       </c>
       <c r="F31" s="84" t="e">
-        <f t="shared" si="2"/>
+        <f>ROUND(AVERAGE(G31:L31),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="79" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B32" s="83">
         <v>0</v>
@@ -8641,17 +8587,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="68">
-        <f t="shared" si="3"/>
+        <f>SUM(G32:M32)</f>
         <v>0</v>
       </c>
       <c r="F32" s="84" t="e">
-        <f t="shared" si="2"/>
+        <f>ROUND(AVERAGE(G32:L32),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="79" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="B33" s="83">
         <v>0</v>
@@ -8660,20 +8606,38 @@
         <v>0</v>
       </c>
       <c r="D33" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" s="68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="84" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>SUM(G33:L33)</f>
+        <v>17</v>
+      </c>
+      <c r="F33" s="84">
+        <f>ROUND(AVERAGE(G33:L33),1)</f>
+        <v>2.8</v>
+      </c>
+      <c r="G33" s="83">
+        <v>3</v>
+      </c>
+      <c r="H33" s="84">
+        <v>3</v>
+      </c>
+      <c r="I33" s="83">
+        <v>2</v>
+      </c>
+      <c r="J33" s="84">
+        <v>3</v>
+      </c>
+      <c r="K33" s="83">
+        <v>3</v>
+      </c>
+      <c r="L33" s="84">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="B34" s="83">
         <v>0</v>
@@ -8682,66 +8646,90 @@
         <v>0</v>
       </c>
       <c r="D34" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="84" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
+        <f>SUM(G34:M34)</f>
+        <v>6</v>
+      </c>
+      <c r="F34" s="84">
+        <f>ROUND(AVERAGE(G34:L34),1)</f>
+        <v>3</v>
+      </c>
+      <c r="I34" s="83">
+        <v>3</v>
+      </c>
+      <c r="J34" s="84">
+        <v>3</v>
+      </c>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="79" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B35" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="68">
-        <f t="shared" si="3"/>
+        <f>SUM(G35:L35)</f>
         <v>0</v>
       </c>
       <c r="F35" s="84" t="e">
-        <f t="shared" si="2"/>
+        <f>ROUND(AVERAGE(G35:L35),1)</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="L35" s="84" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="79" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B36" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E36" s="68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="84" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>SUM(G36:L36)</f>
+        <v>6</v>
+      </c>
+      <c r="F36" s="84">
+        <f>ROUND(AVERAGE(G36:L36),1)</f>
+        <v>3</v>
+      </c>
+      <c r="I36" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="J36" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36" s="83">
+        <v>3</v>
+      </c>
+      <c r="L36" s="84">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="B37" s="83">
         <v>0</v>
@@ -8753,17 +8741,17 @@
         <v>0</v>
       </c>
       <c r="E37" s="68">
-        <f t="shared" si="3"/>
+        <f>SUM(G37:M37)</f>
         <v>0</v>
       </c>
       <c r="F37" s="84" t="e">
-        <f t="shared" si="2"/>
+        <f>ROUND(AVERAGE(G37:L37),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B38" s="83">
         <v>0</v>
@@ -8775,19 +8763,19 @@
         <v>0</v>
       </c>
       <c r="E38" s="68">
-        <f t="shared" si="3"/>
+        <f>SUM(G38:M38)</f>
         <v>0</v>
       </c>
       <c r="F38" s="84" t="e">
-        <f t="shared" si="2"/>
+        <f>ROUND(AVERAGE(G38:L38),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="79" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="B39" s="83">
         <v>0</v>
@@ -8796,20 +8784,38 @@
         <v>0</v>
       </c>
       <c r="D39" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39" s="68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="84" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>SUM(G39:L39)</f>
+        <v>14</v>
+      </c>
+      <c r="F39" s="84">
+        <f>ROUND(AVERAGE(G39:L39),1)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G39" s="83">
+        <v>1</v>
+      </c>
+      <c r="H39" s="84">
+        <v>3</v>
+      </c>
+      <c r="I39" s="83">
+        <v>3</v>
+      </c>
+      <c r="J39" s="84">
+        <v>3</v>
+      </c>
+      <c r="K39" s="83">
+        <v>1</v>
+      </c>
+      <c r="L39" s="84">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="79" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="B40" s="83">
         <v>0</v>
@@ -8821,11 +8827,11 @@
         <v>0</v>
       </c>
       <c r="E40" s="68">
-        <f t="shared" si="3"/>
+        <f>SUM(G40:M40)</f>
         <v>0</v>
       </c>
       <c r="F40" s="84" t="e">
-        <f t="shared" si="2"/>
+        <f>ROUND(AVERAGE(G40:L40),1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K40" s="68"/>
@@ -8833,31 +8839,47 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="79" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="B41" s="83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C41" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="84" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
+        <f>SUM(G41:L41)</f>
+        <v>2</v>
+      </c>
+      <c r="F41" s="84">
+        <f>ROUND(AVERAGE(G41:L41),1)</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="83">
+        <v>1</v>
+      </c>
+      <c r="H41" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="I41" s="83">
+        <v>1</v>
+      </c>
+      <c r="J41" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="K41" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="L41" s="68" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="B42" s="83">
         <v>0</v>
@@ -8866,22 +8888,34 @@
         <v>0</v>
       </c>
       <c r="D42" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42" s="68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="84" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
+        <f>SUM(G43:M43)</f>
+        <v>2</v>
+      </c>
+      <c r="F42" s="84">
+        <f>ROUND(AVERAGE(G42:L42),1)</f>
+        <v>2.8</v>
+      </c>
+      <c r="G42" s="83">
+        <v>3</v>
+      </c>
+      <c r="H42" s="84">
+        <v>3</v>
+      </c>
+      <c r="I42" s="83">
+        <v>2</v>
+      </c>
+      <c r="J42" s="84">
+        <v>3</v>
+      </c>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="79" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="B43" s="83">
         <v>0</v>
@@ -8890,20 +8924,26 @@
         <v>0</v>
       </c>
       <c r="D43" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="84" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>SUM(G43:L43)</f>
+        <v>2</v>
+      </c>
+      <c r="F43" s="84">
+        <f>ROUND(AVERAGE(G43:L43),1)</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="83">
+        <v>1</v>
+      </c>
+      <c r="L43" s="84">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="79" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B44" s="83">
         <v>0</v>
@@ -8912,22 +8952,38 @@
         <v>0</v>
       </c>
       <c r="D44" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44" s="68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="84" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
+        <f>SUM(G44:L44)</f>
+        <v>12</v>
+      </c>
+      <c r="F44" s="84">
+        <f>ROUND(AVERAGE(G44:L44),1)</f>
+        <v>2</v>
+      </c>
+      <c r="G44" s="83">
+        <v>2</v>
+      </c>
+      <c r="H44" s="84">
+        <v>3</v>
+      </c>
+      <c r="I44" s="83">
+        <v>1</v>
+      </c>
+      <c r="J44" s="84">
+        <v>1</v>
+      </c>
+      <c r="K44" s="94">
+        <v>3</v>
+      </c>
+      <c r="L44" s="94">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="79" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B45" s="83">
         <v>0</v>
@@ -8939,11 +8995,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="68">
-        <f t="shared" si="3"/>
+        <f>SUM(G45:M45)</f>
         <v>0</v>
       </c>
       <c r="F45" s="84" t="e">
-        <f t="shared" si="2"/>
+        <f>ROUND(AVERAGE(G45:L45),1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K45" s="68"/>
@@ -8951,7 +9007,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="79" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B46" s="83">
         <v>0</v>
@@ -8963,17 +9019,17 @@
         <v>0</v>
       </c>
       <c r="E46" s="68">
-        <f t="shared" si="3"/>
+        <f>SUM(G46:M46)</f>
         <v>0</v>
       </c>
       <c r="F46" s="84" t="e">
-        <f t="shared" si="2"/>
+        <f>ROUND(AVERAGE(G46:L46),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B47" s="83">
         <v>0</v>
@@ -8985,82 +9041,110 @@
         <v>0</v>
       </c>
       <c r="E47" s="68">
-        <f t="shared" si="3"/>
+        <f>SUM(G47:M47)</f>
         <v>0</v>
       </c>
       <c r="F47" s="84" t="e">
-        <f t="shared" si="2"/>
+        <f>ROUND(AVERAGE(G47:L47),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="79" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B48" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="68">
-        <f t="shared" si="3"/>
+        <f>SUM(G48:L48)</f>
         <v>0</v>
       </c>
       <c r="F48" s="84" t="e">
-        <f t="shared" si="2"/>
+        <f>ROUND(AVERAGE(G48:L48),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K48" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="L48" s="94" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="79" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B49" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C49" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E49" s="68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="84" t="e">
-        <f t="shared" si="2"/>
+        <f>SUM(G49:L49)</f>
+        <v>10</v>
+      </c>
+      <c r="F49" s="84">
+        <f>ROUND(AVERAGE(G49:L49),1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G49" s="83">
+        <v>2</v>
+      </c>
+      <c r="H49" s="84">
+        <v>3</v>
+      </c>
+      <c r="I49" s="83">
+        <v>2</v>
+      </c>
+      <c r="J49" s="84">
+        <v>3</v>
+      </c>
+      <c r="K49" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="L49" s="84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="83">
+        <v>2</v>
+      </c>
+      <c r="C50" s="84">
+        <v>1</v>
+      </c>
+      <c r="D50" s="83">
+        <v>1</v>
+      </c>
+      <c r="E50" s="68">
+        <f>SUM(G50:M50)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="84" t="e">
+        <f>ROUND(AVERAGE(G50:L50),1)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="B50" s="83">
-        <v>0</v>
-      </c>
-      <c r="C50" s="84">
-        <v>0</v>
-      </c>
-      <c r="D50" s="83">
-        <v>0</v>
-      </c>
-      <c r="E50" s="68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="84" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G50" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" s="84" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F289E908-83D3-4296-AE08-B7CB434EB9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1ED27BB-8460-4644-8693-06A6BAA7CB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="200">
   <si>
     <t>nome</t>
   </si>
@@ -290,18 +290,6 @@
     <t>WAR-3 (2)</t>
   </si>
   <si>
-    <t>Colonna13</t>
-  </si>
-  <si>
-    <t>Colonna14</t>
-  </si>
-  <si>
-    <t>Colonna15</t>
-  </si>
-  <si>
-    <t>Colonna16</t>
-  </si>
-  <si>
     <t>Colonna17</t>
   </si>
   <si>
@@ -639,6 +627,18 @@
   </si>
   <si>
     <t>Xblade</t>
+  </si>
+  <si>
+    <t>WAR-4 (1)</t>
+  </si>
+  <si>
+    <t>WAR-4 (2)</t>
+  </si>
+  <si>
+    <t>WAR-5 (1)</t>
+  </si>
+  <si>
+    <t>WAR-5 (2)</t>
   </si>
 </sst>
 </file>
@@ -1645,8 +1645,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella2" displayName="Tabella2" ref="A1:CI51" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
   <autoFilter ref="A1:CI51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CI50">
-    <sortCondition ref="A1:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CI51">
+    <sortCondition descending="1" ref="O1:O51"/>
   </sortState>
   <tableColumns count="87">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NAME" dataDxfId="86"/>
@@ -1663,12 +1663,12 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="WAR-1 (2)" dataDxfId="79"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="WAR-2 (1)" dataDxfId="78"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="WAR-2 (2)" dataDxfId="77"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Colonna11" dataDxfId="76"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Colonna12" dataDxfId="75"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Colonna13" dataDxfId="74"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Colonna14" dataDxfId="73"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Colonna15" dataDxfId="72"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Colonna16" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="WAR-3 (1)" dataDxfId="76"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="WAR-3 (2)" dataDxfId="75"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="WAR-4 (1)" dataDxfId="74"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="WAR-4 (2)" dataDxfId="73"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="WAR-5 (1)" dataDxfId="72"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="WAR-5 (2)" dataDxfId="71"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Colonna17" dataDxfId="70"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Colonna18" dataDxfId="69"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Colonna19" dataDxfId="68"/>
@@ -2068,42 +2068,42 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" style="5" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="4" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" style="4" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="7.85546875" style="5" customWidth="1"/>
-    <col min="28" max="28" width="5.7109375" style="4" customWidth="1"/>
-    <col min="29" max="29" width="8.28515625" style="6" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="4" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="7.88671875" style="5" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="7.88671875" style="5" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="7.88671875" style="5" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="8.33203125" style="6" customWidth="1"/>
+    <col min="30" max="30" width="9.109375" style="4" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="AH1" s="23"/>
       <c r="AI1" s="23"/>
     </row>
-    <row r="2" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>16</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="AH2" s="23"/>
       <c r="AI2" s="23"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>15</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="AH3" s="23"/>
       <c r="AI3" s="23"/>
     </row>
-    <row r="4" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>15</v>
       </c>
@@ -2336,7 +2336,7 @@
       <c r="AH4" s="23"/>
       <c r="AI4" s="23"/>
     </row>
-    <row r="5" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>13</v>
       </c>
@@ -2377,7 +2377,7 @@
       <c r="AH5" s="23"/>
       <c r="AI5" s="23"/>
     </row>
-    <row r="6" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>12</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="AH6" s="23"/>
       <c r="AI6" s="23"/>
     </row>
-    <row r="7" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="AH7" s="23"/>
       <c r="AI7" s="23"/>
     </row>
-    <row r="8" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>12</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
     </row>
-    <row r="9" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>12</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="23"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>12</v>
       </c>
@@ -2600,7 +2600,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="23"/>
     </row>
-    <row r="11" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>12</v>
       </c>
@@ -2641,7 +2641,7 @@
       <c r="AH11" s="23"/>
       <c r="AI11" s="23"/>
     </row>
-    <row r="12" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="AH12" s="23"/>
       <c r="AI12" s="23"/>
     </row>
-    <row r="13" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="AH13" s="23"/>
       <c r="AI13" s="23"/>
     </row>
-    <row r="14" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="AH14" s="23"/>
       <c r="AI14" s="23"/>
     </row>
-    <row r="15" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="AH15" s="23"/>
       <c r="AI15" s="23"/>
     </row>
-    <row r="16" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -2858,7 +2858,7 @@
       <c r="AH16" s="23"/>
       <c r="AI16" s="23"/>
     </row>
-    <row r="17" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>11</v>
       </c>
@@ -2905,7 +2905,7 @@
       <c r="AH17" s="23"/>
       <c r="AI17" s="23"/>
     </row>
-    <row r="18" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>11</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="AH18" s="23"/>
       <c r="AI18" s="23"/>
     </row>
-    <row r="19" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>11</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="AH19" s="23"/>
       <c r="AI19" s="23"/>
     </row>
-    <row r="20" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>11</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="AH20" s="23"/>
       <c r="AI20" s="23"/>
     </row>
-    <row r="21" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>11</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="AH21" s="23"/>
       <c r="AI21" s="23"/>
     </row>
-    <row r="22" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>11</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="AH22" s="23"/>
       <c r="AI22" s="23"/>
     </row>
-    <row r="23" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>11</v>
       </c>
@@ -3169,7 +3169,7 @@
       <c r="AH23" s="23"/>
       <c r="AI23" s="23"/>
     </row>
-    <row r="24" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>11</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="AH24" s="23"/>
       <c r="AI24" s="23"/>
     </row>
-    <row r="25" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>11</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="AH25" s="23"/>
       <c r="AI25" s="23"/>
     </row>
-    <row r="26" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>11</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="AH26" s="23"/>
       <c r="AI26" s="23"/>
     </row>
-    <row r="27" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="AH27" s="23"/>
       <c r="AI27" s="23"/>
     </row>
-    <row r="28" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>11</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="AH28" s="23"/>
       <c r="AI28" s="23"/>
     </row>
-    <row r="29" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>11</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="AH29" s="23"/>
       <c r="AI29" s="23"/>
     </row>
-    <row r="30" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>11</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="AH30" s="23"/>
       <c r="AI30" s="23"/>
     </row>
-    <row r="31" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -3509,7 +3509,7 @@
       <c r="AH31" s="23"/>
       <c r="AI31" s="23"/>
     </row>
-    <row r="32" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -3546,7 +3546,7 @@
       <c r="AH32" s="23"/>
       <c r="AI32" s="23"/>
     </row>
-    <row r="33" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -3583,7 +3583,7 @@
       <c r="AH33" s="23"/>
       <c r="AI33" s="23"/>
     </row>
-    <row r="34" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="29"/>
       <c r="B34" s="28" t="s">
         <v>37</v>
@@ -3622,7 +3622,7 @@
       <c r="AH34" s="23"/>
       <c r="AI34" s="23"/>
     </row>
-    <row r="35" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="30"/>
       <c r="B35" s="28" t="s">
         <v>38</v>
@@ -3661,7 +3661,7 @@
       <c r="AH35" s="23"/>
       <c r="AI35" s="23"/>
     </row>
-    <row r="36" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18"/>
       <c r="B36" s="28" t="s">
         <v>39</v>
@@ -3700,7 +3700,7 @@
       <c r="AH36" s="23"/>
       <c r="AI36" s="23"/>
     </row>
-    <row r="37" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
       <c r="B37" s="28" t="s">
         <v>40</v>
@@ -3739,7 +3739,7 @@
       <c r="AH37" s="23"/>
       <c r="AI37" s="23"/>
     </row>
-    <row r="38" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="32"/>
       <c r="B38" s="28"/>
       <c r="C38" s="23"/>
@@ -3776,7 +3776,7 @@
       <c r="AH38" s="23"/>
       <c r="AI38" s="23"/>
     </row>
-    <row r="39" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -3813,7 +3813,7 @@
       <c r="AH39" s="23"/>
       <c r="AI39" s="23"/>
     </row>
-    <row r="40" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -3845,7 +3845,7 @@
       <c r="AC40" s="23"/>
       <c r="AD40" s="23"/>
     </row>
-    <row r="41" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -3877,7 +3877,7 @@
       <c r="AC41" s="23"/>
       <c r="AD41" s="23"/>
     </row>
-    <row r="42" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -3909,7 +3909,7 @@
       <c r="AC42" s="23"/>
       <c r="AD42" s="23"/>
     </row>
-    <row r="43" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -3941,7 +3941,7 @@
       <c r="AC43" s="23"/>
       <c r="AD43" s="23"/>
     </row>
-    <row r="44" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -3972,7 +3972,7 @@
       <c r="AB44" s="23"/>
       <c r="AC44" s="23"/>
     </row>
-    <row r="45" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -4003,7 +4003,7 @@
       <c r="AB45" s="23"/>
       <c r="AC45" s="23"/>
     </row>
-    <row r="46" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -4034,7 +4034,7 @@
       <c r="AB46" s="23"/>
       <c r="AC46" s="23"/>
     </row>
-    <row r="47" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -4074,23 +4074,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="S28" sqref="S28:V28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="39" customWidth="1"/>
     <col min="2" max="2" width="22" style="39" customWidth="1"/>
-    <col min="3" max="20" width="9.140625" style="39" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9.140625" style="40" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="39" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="41" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="39" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="39"/>
+    <col min="3" max="20" width="9.109375" style="39" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9.109375" style="40" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" style="39" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" style="41" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" style="39" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="61"/>
       <c r="C1" s="90">
         <v>1</v>
@@ -4128,7 +4128,7 @@
       <c r="V1" s="91"/>
       <c r="W1" s="92"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="36"/>
       <c r="B2" s="37" t="s">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="39">
         <v>16</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="39">
         <v>15</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="39">
         <v>15</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="39">
         <v>13</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="39">
         <v>13</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="39">
         <v>13</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="39">
         <v>13</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="39">
         <v>13</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="39">
         <v>13</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="39">
         <v>13</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
         <v>12</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
         <v>12</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="39">
         <v>12</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <v>13</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
         <v>12</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <v>12</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <v>12</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
         <v>12</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="39">
         <v>12</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <v>12</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="39">
         <v>12</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
         <v>12</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="39">
         <v>12</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
         <v>12</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <v>12</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="39">
         <v>12</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
         <v>12</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <v>12</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
         <v>12</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="39">
         <v>12</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="43"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -5959,7 +5959,7 @@
       <c r="AB33" s="43"/>
       <c r="AC33" s="43"/>
     </row>
-    <row r="34" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39">
         <v>12</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="35" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39">
         <v>13</v>
       </c>
@@ -6019,7 +6019,7 @@
       <c r="Q35" s="41"/>
       <c r="R35" s="40"/>
     </row>
-    <row r="36" spans="1:29" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="39">
         <v>12</v>
       </c>
@@ -6040,7 +6040,7 @@
       <c r="Q36" s="41"/>
       <c r="R36" s="40"/>
     </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
@@ -6071,7 +6071,7 @@
       <c r="AB37" s="43"/>
       <c r="AC37" s="43"/>
     </row>
-    <row r="38" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="44"/>
       <c r="B38" s="45" t="s">
         <v>37</v>
@@ -6104,7 +6104,7 @@
       <c r="AB38" s="43"/>
       <c r="AC38" s="43"/>
     </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="46"/>
       <c r="B39" s="45" t="s">
         <v>38</v>
@@ -6137,7 +6137,7 @@
       <c r="AB39" s="43"/>
       <c r="AC39" s="43"/>
     </row>
-    <row r="40" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="47"/>
       <c r="B40" s="45" t="s">
         <v>39</v>
@@ -6170,7 +6170,7 @@
       <c r="AB40" s="43"/>
       <c r="AC40" s="43"/>
     </row>
-    <row r="41" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="48"/>
       <c r="B41" s="45" t="s">
         <v>54</v>
@@ -6203,7 +6203,7 @@
       <c r="AB41" s="43"/>
       <c r="AC41" s="43"/>
     </row>
-    <row r="42" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="49"/>
       <c r="B42" s="45" t="s">
         <v>55</v>
@@ -6236,7 +6236,7 @@
       <c r="AB42" s="43"/>
       <c r="AC42" s="43"/>
     </row>
-    <row r="43" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="71"/>
       <c r="B43" s="45" t="s">
         <v>56</v>
@@ -6291,13 +6291,13 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="68" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="68"/>
+    <col min="1" max="1" width="9.109375" style="68" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="68">
         <v>15</v>
       </c>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="H1" s="76"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="68">
         <v>15</v>
       </c>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="H2" s="76"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="68">
         <v>15</v>
       </c>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="H3" s="76"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="68">
         <v>15</v>
       </c>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="H4" s="76"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="68">
         <v>14</v>
       </c>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="H5" s="76"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="68">
         <v>14</v>
       </c>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="H6" s="76"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="68">
         <v>14</v>
       </c>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="H7" s="76"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="68">
         <v>13</v>
       </c>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="H8" s="76"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="68">
         <v>12</v>
       </c>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="H9" s="76"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="68">
         <v>12</v>
       </c>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="H10" s="76"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="68">
         <v>11</v>
       </c>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="H11" s="76"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="68">
         <v>11</v>
       </c>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="H12" s="76"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="68">
         <v>11</v>
       </c>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="H13" s="76"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="68">
         <v>11</v>
       </c>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="H14" s="76"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="68">
         <v>11</v>
       </c>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="H15" s="76"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="68">
         <v>11</v>
       </c>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="H16" s="76"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="68">
         <v>11</v>
       </c>
@@ -6705,7 +6705,7 @@
       </c>
       <c r="H17" s="76"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="68">
         <v>11</v>
       </c>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="H18" s="76"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="68">
         <v>11</v>
       </c>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="H19" s="76"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="68">
         <v>10</v>
       </c>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="H20" s="76"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="68">
         <v>10</v>
       </c>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="H21" s="76"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="68">
         <v>10</v>
       </c>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="H22" s="76"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="68">
         <v>10</v>
       </c>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="H23" s="76"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="68">
         <v>10</v>
       </c>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="H24" s="76"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="68">
         <v>10</v>
       </c>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="H25" s="76"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="68">
         <v>10</v>
       </c>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="H26" s="76"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="68">
         <v>10</v>
       </c>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="H27" s="76"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="68">
         <v>10</v>
       </c>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="H28" s="76"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="68">
         <v>10</v>
       </c>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="H29" s="76"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="68">
         <v>10</v>
       </c>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="H30" s="76"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="76"/>
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
@@ -7027,7 +7027,7 @@
       <c r="G31" s="76"/>
       <c r="H31" s="76"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="93" t="s">
         <v>57</v>
       </c>
@@ -7055,9 +7055,9 @@
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>16</v>
       </c>
@@ -7065,10 +7065,10 @@
         <v>4</v>
       </c>
       <c r="S1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>15</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>15</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>13</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>13</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>13</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -7209,10 +7209,10 @@
         <v>11</v>
       </c>
       <c r="S10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>13</v>
       </c>
@@ -7226,10 +7226,10 @@
         <v>23</v>
       </c>
       <c r="S11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -7243,10 +7243,10 @@
         <v>66</v>
       </c>
       <c r="S12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7260,10 +7260,10 @@
         <v>67</v>
       </c>
       <c r="S13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7277,10 +7277,10 @@
         <v>19</v>
       </c>
       <c r="S14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -7294,10 +7294,10 @@
         <v>69</v>
       </c>
       <c r="S15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7305,10 +7305,10 @@
         <v>14</v>
       </c>
       <c r="S16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -7322,10 +7322,10 @@
         <v>70</v>
       </c>
       <c r="S17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -7339,10 +7339,10 @@
         <v>29</v>
       </c>
       <c r="S18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>12</v>
       </c>
@@ -7356,10 +7356,10 @@
         <v>34</v>
       </c>
       <c r="S19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
@@ -7367,10 +7367,10 @@
         <v>43</v>
       </c>
       <c r="S20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>12</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>12</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>12</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12</v>
       </c>
@@ -7451,40 +7451,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CI50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="79" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="83" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="84" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="83" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="68" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="84" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="83" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="84" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="83" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="84" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="83" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="84" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="83" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="84" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="83" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="84" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="83" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="84" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="83" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="84" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="83" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="84" customWidth="1"/>
-    <col min="23" max="87" width="12.5703125" style="68" customWidth="1"/>
-    <col min="88" max="88" width="9.140625" style="68" customWidth="1"/>
-    <col min="89" max="16384" width="9.140625" style="68"/>
+    <col min="1" max="1" width="16.44140625" style="79" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="83" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="84" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="83" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="68" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="84" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="83" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="84" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="83" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="84" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="83" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="84" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="83" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" style="84" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="83" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="84" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" style="83" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" style="84" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="83" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" style="84" customWidth="1"/>
+    <col min="21" max="21" width="12.5546875" style="83" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" style="84" customWidth="1"/>
+    <col min="23" max="87" width="12.5546875" style="68" customWidth="1"/>
+    <col min="88" max="88" width="9.109375" style="68" customWidth="1"/>
+    <col min="89" max="16384" width="9.109375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
         <v>71</v>
       </c>
@@ -7522,286 +7522,304 @@
         <v>82</v>
       </c>
       <c r="M1" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="O1" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="P1" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q1" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="81" t="s">
+      <c r="R1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="80" t="s">
+      <c r="S1" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="81" t="s">
+      <c r="T1" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="80" t="s">
+      <c r="U1" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="V1" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="80" t="s">
+      <c r="W1" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="81" t="s">
+      <c r="X1" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="80" t="s">
+      <c r="Y1" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="81" t="s">
+      <c r="Z1" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="68" t="s">
+      <c r="AA1" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="68" t="s">
+      <c r="AB1" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="68" t="s">
+      <c r="AC1" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="68" t="s">
+      <c r="AD1" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" s="68" t="s">
+      <c r="AE1" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="AB1" s="68" t="s">
+      <c r="AF1" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="AC1" s="68" t="s">
+      <c r="AG1" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="AD1" s="68" t="s">
+      <c r="AH1" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="AE1" s="68" t="s">
+      <c r="AI1" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="AF1" s="68" t="s">
+      <c r="AJ1" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="AG1" s="68" t="s">
+      <c r="AK1" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="AH1" s="68" t="s">
+      <c r="AL1" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="AI1" s="68" t="s">
+      <c r="AM1" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="AJ1" s="68" t="s">
+      <c r="AN1" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="68" t="s">
+      <c r="AO1" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="AL1" s="68" t="s">
+      <c r="AP1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="AM1" s="68" t="s">
+      <c r="AQ1" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="AN1" s="68" t="s">
+      <c r="AR1" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="AO1" s="68" t="s">
+      <c r="AS1" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="AP1" s="68" t="s">
+      <c r="AT1" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="AQ1" s="68" t="s">
+      <c r="AU1" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="AR1" s="68" t="s">
+      <c r="AV1" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="AS1" s="68" t="s">
+      <c r="AW1" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="AT1" s="68" t="s">
+      <c r="AX1" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="AU1" s="68" t="s">
+      <c r="AY1" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="AV1" s="68" t="s">
+      <c r="AZ1" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="AW1" s="68" t="s">
+      <c r="BA1" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="AX1" s="68" t="s">
+      <c r="BB1" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="AY1" s="68" t="s">
+      <c r="BC1" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="AZ1" s="68" t="s">
+      <c r="BD1" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="BA1" s="68" t="s">
+      <c r="BE1" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="BB1" s="68" t="s">
+      <c r="BF1" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="BC1" s="68" t="s">
+      <c r="BG1" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="BD1" s="68" t="s">
+      <c r="BH1" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="BE1" s="68" t="s">
+      <c r="BI1" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="BF1" s="68" t="s">
+      <c r="BJ1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="BG1" s="68" t="s">
+      <c r="BK1" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="BH1" s="68" t="s">
+      <c r="BL1" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="BI1" s="68" t="s">
+      <c r="BM1" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="BJ1" s="68" t="s">
+      <c r="BN1" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="BK1" s="68" t="s">
+      <c r="BO1" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="BL1" s="68" t="s">
+      <c r="BP1" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="BM1" s="68" t="s">
+      <c r="BQ1" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="BN1" s="68" t="s">
+      <c r="BR1" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="BO1" s="68" t="s">
+      <c r="BS1" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="BP1" s="68" t="s">
+      <c r="BT1" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="BQ1" s="68" t="s">
+      <c r="BU1" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="BR1" s="68" t="s">
+      <c r="BV1" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="BS1" s="68" t="s">
+      <c r="BW1" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="BT1" s="68" t="s">
+      <c r="BX1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="BU1" s="68" t="s">
+      <c r="BY1" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="BV1" s="68" t="s">
+      <c r="BZ1" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="BW1" s="68" t="s">
+      <c r="CA1" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="BX1" s="68" t="s">
+      <c r="CB1" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="BY1" s="68" t="s">
+      <c r="CC1" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="BZ1" s="68" t="s">
+      <c r="CD1" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="CA1" s="68" t="s">
+      <c r="CE1" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="CB1" s="68" t="s">
+      <c r="CF1" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="CC1" s="68" t="s">
+      <c r="CG1" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="CD1" s="68" t="s">
+      <c r="CH1" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="CE1" s="68" t="s">
+      <c r="CI1" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="CF1" s="68" t="s">
+    </row>
+    <row r="2" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A2" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="83">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84">
+        <v>0</v>
+      </c>
+      <c r="D2" s="83">
+        <v>2</v>
+      </c>
+      <c r="E2" s="68">
+        <f>SUM(G2:Z2)</f>
+        <v>4</v>
+      </c>
+      <c r="F2" s="84">
+        <f>ROUND(AVERAGE(G2:Z2),1)</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="83">
+        <v>3</v>
+      </c>
+      <c r="J2" s="84">
+        <v>1</v>
+      </c>
+      <c r="O2" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="CG1" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="CH1" s="68" t="s">
-        <v>156</v>
-      </c>
-      <c r="CI1" s="68" t="s">
+      <c r="P2" s="84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A3" s="79" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="83">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84">
-        <v>0</v>
-      </c>
-      <c r="D2" s="83">
-        <v>1</v>
-      </c>
-      <c r="E2" s="68">
-        <f>SUM(G2:M2)</f>
-        <v>3</v>
-      </c>
-      <c r="F2" s="84">
-        <f>ROUND(AVERAGE(G2:L2),1)</f>
-        <v>1.5</v>
-      </c>
-      <c r="I2" s="83">
-        <v>2</v>
-      </c>
-      <c r="J2" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
-        <v>164</v>
-      </c>
       <c r="B3" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="84">
         <v>0</v>
       </c>
       <c r="D3" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="68">
-        <f>SUM(G3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="84" t="e">
-        <f>ROUND(AVERAGE(G3:L3),1)</f>
-        <v>#DIV/0!</v>
+        <f>SUM(G3:Z3)</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="84">
+        <f>ROUND(AVERAGE(G3:Z3),1)</f>
+        <v>2</v>
+      </c>
+      <c r="I3" s="83">
+        <v>2</v>
+      </c>
+      <c r="J3" s="84" t="s">
+        <v>154</v>
       </c>
       <c r="K3" s="94"/>
       <c r="L3" s="94"/>
-    </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="O3" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="B4" s="83">
         <v>0</v>
@@ -7810,38 +7828,44 @@
         <v>0</v>
       </c>
       <c r="D4" s="83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="68">
-        <f>SUM(G4:L4)</f>
-        <v>6</v>
+        <f>SUM(G4:Z4)</f>
+        <v>21</v>
       </c>
       <c r="F4" s="84">
-        <f>ROUND(AVERAGE(G4:L4),1)</f>
-        <v>1</v>
+        <f>ROUND(AVERAGE(G4:Z4),1)</f>
+        <v>2.6</v>
       </c>
       <c r="G4" s="83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="83">
         <v>2</v>
       </c>
       <c r="L4" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O4" s="83">
+        <v>3</v>
+      </c>
+      <c r="P4" s="84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A5" s="79" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="B5" s="83">
         <v>0</v>
@@ -7850,28 +7874,46 @@
         <v>0</v>
       </c>
       <c r="D5" s="83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="68">
-        <f>SUM(G6:M6)</f>
-        <v>6</v>
+        <f>SUM(G5:Z5)</f>
+        <v>16</v>
       </c>
       <c r="F5" s="84">
-        <f>ROUND(AVERAGE(G5:L5),1)</f>
-        <v>3</v>
+        <f>ROUND(AVERAGE(G5:Z5),1)</f>
+        <v>2</v>
       </c>
       <c r="G5" s="83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="84">
+        <v>2</v>
+      </c>
+      <c r="I5" s="83">
+        <v>1</v>
+      </c>
+      <c r="J5" s="84">
         <v>3</v>
       </c>
       <c r="K5" s="94"/>
       <c r="L5" s="94"/>
-    </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="M5" s="83">
+        <v>0</v>
+      </c>
+      <c r="N5" s="84">
+        <v>3</v>
+      </c>
+      <c r="O5" s="83">
+        <v>3</v>
+      </c>
+      <c r="P5" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A6" s="79" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B6" s="83">
         <v>0</v>
@@ -7880,15 +7922,21 @@
         <v>0</v>
       </c>
       <c r="D6" s="83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="68">
-        <f>SUM(G6:L6)</f>
-        <v>6</v>
+        <f>SUM(G6:Z6)</f>
+        <v>14</v>
       </c>
       <c r="F6" s="84">
-        <f>ROUND(AVERAGE(G6:L6),1)</f>
-        <v>3</v>
+        <f>ROUND(AVERAGE(G6:Z6),1)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I6" s="83">
+        <v>3</v>
+      </c>
+      <c r="J6" s="84">
+        <v>1</v>
       </c>
       <c r="K6" s="83">
         <v>3</v>
@@ -7896,32 +7944,56 @@
       <c r="L6" s="84">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="O6" s="83">
+        <v>3</v>
+      </c>
+      <c r="P6" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A7" s="79" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B7" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="84">
         <v>0</v>
       </c>
       <c r="D7" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="68">
-        <f>SUM(G7:M7)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="84" t="e">
-        <f>ROUND(AVERAGE(G7:L7),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
+        <f>SUM(G7:Z7)</f>
+        <v>12</v>
+      </c>
+      <c r="F7" s="84">
+        <f>ROUND(AVERAGE(G7:Z7),1)</f>
+        <v>2.4</v>
+      </c>
+      <c r="I7" s="83">
+        <v>2</v>
+      </c>
+      <c r="J7" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="83">
+        <v>3</v>
+      </c>
+      <c r="N7" s="84">
+        <v>1</v>
+      </c>
+      <c r="O7" s="83">
+        <v>3</v>
+      </c>
+      <c r="P7" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A8" s="79" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="B8" s="83">
         <v>0</v>
@@ -7930,22 +8002,40 @@
         <v>0</v>
       </c>
       <c r="D8" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="68">
-        <f>SUM(G8:M8)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="84" t="e">
-        <f>ROUND(AVERAGE(G8:L8),1)</f>
-        <v>#DIV/0!</v>
+        <f>SUM(G8:Z8)</f>
+        <v>13</v>
+      </c>
+      <c r="F8" s="84">
+        <f>ROUND(AVERAGE(G8:Z8),1)</f>
+        <v>2.6</v>
+      </c>
+      <c r="G8" s="83">
+        <v>3</v>
+      </c>
+      <c r="H8" s="84">
+        <v>1</v>
+      </c>
+      <c r="I8" s="83">
+        <v>3</v>
+      </c>
+      <c r="J8" s="84">
+        <v>3</v>
       </c>
       <c r="K8" s="94"/>
       <c r="L8" s="94"/>
-    </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="O8" s="83">
+        <v>3</v>
+      </c>
+      <c r="P8" s="84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A9" s="79" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="B9" s="83">
         <v>0</v>
@@ -7954,486 +8044,694 @@
         <v>0</v>
       </c>
       <c r="D9" s="83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="68">
-        <f>SUM(G9:M9)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="84" t="e">
-        <f>ROUND(AVERAGE(G9:L9),1)</f>
+        <f>SUM(G9:Z9)</f>
+        <v>27</v>
+      </c>
+      <c r="F9" s="84">
+        <f>ROUND(AVERAGE(G9:Z9),1)</f>
+        <v>2.7</v>
+      </c>
+      <c r="G9" s="83">
+        <v>3</v>
+      </c>
+      <c r="H9" s="84">
+        <v>3</v>
+      </c>
+      <c r="I9" s="83">
+        <v>2</v>
+      </c>
+      <c r="J9" s="84">
+        <v>3</v>
+      </c>
+      <c r="K9" s="83">
+        <v>3</v>
+      </c>
+      <c r="L9" s="84">
+        <v>3</v>
+      </c>
+      <c r="M9" s="83">
+        <v>2</v>
+      </c>
+      <c r="N9" s="84">
+        <v>2</v>
+      </c>
+      <c r="O9" s="83">
+        <v>3</v>
+      </c>
+      <c r="P9" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A10" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="83">
+        <v>0</v>
+      </c>
+      <c r="C10" s="84">
+        <v>0</v>
+      </c>
+      <c r="D10" s="83">
+        <v>3</v>
+      </c>
+      <c r="E10" s="68">
+        <f>SUM(G10:Z10)</f>
+        <v>18</v>
+      </c>
+      <c r="F10" s="84">
+        <f>ROUND(AVERAGE(G10:Z10),1)</f>
+        <v>3</v>
+      </c>
+      <c r="I10" s="83">
+        <v>3</v>
+      </c>
+      <c r="J10" s="84">
+        <v>3</v>
+      </c>
+      <c r="M10" s="83">
+        <v>3</v>
+      </c>
+      <c r="N10" s="84">
+        <v>3</v>
+      </c>
+      <c r="O10" s="83">
+        <v>3</v>
+      </c>
+      <c r="P10" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A11" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="83">
+        <v>2</v>
+      </c>
+      <c r="C11" s="84">
+        <v>1</v>
+      </c>
+      <c r="D11" s="83">
+        <v>2</v>
+      </c>
+      <c r="E11" s="68">
+        <f>SUM(G11:Z11)</f>
+        <v>6</v>
+      </c>
+      <c r="F11" s="84">
+        <f>ROUND(AVERAGE(G11:Z11),1)</f>
+        <v>3</v>
+      </c>
+      <c r="K11" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="O11" s="83">
+        <v>3</v>
+      </c>
+      <c r="P11" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A12" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="83">
+        <v>4</v>
+      </c>
+      <c r="C12" s="84">
+        <v>1</v>
+      </c>
+      <c r="D12" s="83">
+        <v>4</v>
+      </c>
+      <c r="E12" s="68">
+        <f>SUM(G12:Z12)</f>
+        <v>8</v>
+      </c>
+      <c r="F12" s="84">
+        <f>ROUND(AVERAGE(G12:Z12),1)</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="83">
+        <v>1</v>
+      </c>
+      <c r="H12" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="83">
+        <v>1</v>
+      </c>
+      <c r="J12" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="L12" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="O12" s="83">
+        <v>3</v>
+      </c>
+      <c r="P12" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A13" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="83">
+        <v>0</v>
+      </c>
+      <c r="C13" s="84">
+        <v>0</v>
+      </c>
+      <c r="D13" s="83">
+        <v>3</v>
+      </c>
+      <c r="E13" s="68">
+        <f>SUM(G13:Z13)</f>
+        <v>17</v>
+      </c>
+      <c r="F13" s="84">
+        <f>ROUND(AVERAGE(G13:Z13),1)</f>
+        <v>2.8</v>
+      </c>
+      <c r="G13" s="83">
+        <v>3</v>
+      </c>
+      <c r="H13" s="84">
+        <v>3</v>
+      </c>
+      <c r="I13" s="83">
+        <v>2</v>
+      </c>
+      <c r="J13" s="84">
+        <v>3</v>
+      </c>
+      <c r="O13" s="83">
+        <v>3</v>
+      </c>
+      <c r="P13" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A14" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="83">
+        <v>0</v>
+      </c>
+      <c r="C14" s="84">
+        <v>0</v>
+      </c>
+      <c r="D14" s="83">
+        <v>1</v>
+      </c>
+      <c r="E14" s="68">
+        <f>SUM(G14:Z14)</f>
+        <v>5</v>
+      </c>
+      <c r="F14" s="84">
+        <f>ROUND(AVERAGE(G14:Z14),1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="O14" s="83">
+        <v>3</v>
+      </c>
+      <c r="P14" s="84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A15" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="83">
+        <v>2</v>
+      </c>
+      <c r="C15" s="84">
+        <v>1</v>
+      </c>
+      <c r="D15" s="83">
+        <v>4</v>
+      </c>
+      <c r="E15" s="68">
+        <f>SUM(G15:Z15)</f>
+        <v>15</v>
+      </c>
+      <c r="F15" s="84">
+        <f>ROUND(AVERAGE(G15:Z15),1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="83">
+        <v>2</v>
+      </c>
+      <c r="H15" s="84">
+        <v>3</v>
+      </c>
+      <c r="I15" s="83">
+        <v>2</v>
+      </c>
+      <c r="J15" s="84">
+        <v>3</v>
+      </c>
+      <c r="K15" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" s="83">
+        <v>3</v>
+      </c>
+      <c r="P15" s="84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A16" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="83">
+        <v>2</v>
+      </c>
+      <c r="C16" s="84">
+        <v>1</v>
+      </c>
+      <c r="D16" s="83">
+        <v>2</v>
+      </c>
+      <c r="E16" s="68">
+        <f>SUM(G16:Z16)</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="84">
+        <f>ROUND(AVERAGE(G16:Z16),1)</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" s="83">
+        <v>3</v>
+      </c>
+      <c r="P16" s="84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="83">
+        <v>0</v>
+      </c>
+      <c r="C17" s="84">
+        <v>0</v>
+      </c>
+      <c r="D17" s="83">
+        <v>5</v>
+      </c>
+      <c r="E17" s="68">
+        <f>SUM(G17:Z17)</f>
+        <v>8</v>
+      </c>
+      <c r="F17" s="84">
+        <f>ROUND(AVERAGE(G17:Z17),1)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="83">
+        <v>2</v>
+      </c>
+      <c r="H17" s="84">
+        <v>1</v>
+      </c>
+      <c r="I17" s="83">
+        <v>0</v>
+      </c>
+      <c r="J17" s="84">
+        <v>0</v>
+      </c>
+      <c r="K17" s="83">
+        <v>2</v>
+      </c>
+      <c r="L17" s="84">
+        <v>1</v>
+      </c>
+      <c r="M17" s="83">
+        <v>1</v>
+      </c>
+      <c r="N17" s="84">
+        <v>0</v>
+      </c>
+      <c r="O17" s="83">
+        <v>1</v>
+      </c>
+      <c r="P17" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="83">
+        <v>0</v>
+      </c>
+      <c r="C18" s="84">
+        <v>0</v>
+      </c>
+      <c r="D18" s="83">
+        <v>3</v>
+      </c>
+      <c r="E18" s="68">
+        <f>SUM(G18:Z18)</f>
+        <v>14</v>
+      </c>
+      <c r="F18" s="84">
+        <f>ROUND(AVERAGE(G18:Z18),1)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G18" s="83">
+        <v>3</v>
+      </c>
+      <c r="H18" s="84">
+        <v>3</v>
+      </c>
+      <c r="K18" s="83">
+        <v>2</v>
+      </c>
+      <c r="L18" s="84">
+        <v>2</v>
+      </c>
+      <c r="O18" s="83">
+        <v>1</v>
+      </c>
+      <c r="P18" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="83">
+        <v>0</v>
+      </c>
+      <c r="C19" s="84">
+        <v>0</v>
+      </c>
+      <c r="D19" s="83">
+        <v>5</v>
+      </c>
+      <c r="E19" s="68">
+        <f>SUM(G19:Z19)</f>
+        <v>23</v>
+      </c>
+      <c r="F19" s="84">
+        <f>ROUND(AVERAGE(G19:Z19),1)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G19" s="83">
+        <v>1</v>
+      </c>
+      <c r="H19" s="84">
+        <v>3</v>
+      </c>
+      <c r="I19" s="83">
+        <v>3</v>
+      </c>
+      <c r="J19" s="84">
+        <v>3</v>
+      </c>
+      <c r="K19" s="83">
+        <v>1</v>
+      </c>
+      <c r="L19" s="84">
+        <v>3</v>
+      </c>
+      <c r="M19" s="83">
+        <v>2</v>
+      </c>
+      <c r="N19" s="84">
+        <v>3</v>
+      </c>
+      <c r="O19" s="83">
+        <v>1</v>
+      </c>
+      <c r="P19" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="83">
+        <v>0</v>
+      </c>
+      <c r="C20" s="84">
+        <v>0</v>
+      </c>
+      <c r="D20" s="83">
+        <v>5</v>
+      </c>
+      <c r="E20" s="68">
+        <f>SUM(G20:Z20)</f>
+        <v>17</v>
+      </c>
+      <c r="F20" s="84">
+        <f>ROUND(AVERAGE(G20:Z20),1)</f>
+        <v>1.7</v>
+      </c>
+      <c r="G20" s="83">
+        <v>2</v>
+      </c>
+      <c r="H20" s="84">
+        <v>3</v>
+      </c>
+      <c r="I20" s="83">
+        <v>1</v>
+      </c>
+      <c r="J20" s="84">
+        <v>1</v>
+      </c>
+      <c r="K20" s="94">
+        <v>3</v>
+      </c>
+      <c r="L20" s="94">
+        <v>2</v>
+      </c>
+      <c r="M20" s="83">
+        <v>1</v>
+      </c>
+      <c r="N20" s="84">
+        <v>2</v>
+      </c>
+      <c r="O20" s="83">
+        <v>1</v>
+      </c>
+      <c r="P20" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="83">
+        <v>1</v>
+      </c>
+      <c r="C21" s="84">
+        <v>1</v>
+      </c>
+      <c r="D21" s="83">
+        <v>4</v>
+      </c>
+      <c r="E21" s="68">
+        <f>SUM(G21:Z21)</f>
+        <v>8</v>
+      </c>
+      <c r="F21" s="84">
+        <f>ROUND(AVERAGE(G21:Z21),1)</f>
+        <v>1.6</v>
+      </c>
+      <c r="I21" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="83">
+        <v>3</v>
+      </c>
+      <c r="L21" s="84">
+        <v>3</v>
+      </c>
+      <c r="M21" s="83">
+        <v>1</v>
+      </c>
+      <c r="N21" s="84">
+        <v>1</v>
+      </c>
+      <c r="O21" s="83">
+        <v>0</v>
+      </c>
+      <c r="P21" s="84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="83">
+        <v>0</v>
+      </c>
+      <c r="C22" s="84">
+        <v>0</v>
+      </c>
+      <c r="D22" s="83">
+        <v>1</v>
+      </c>
+      <c r="E22" s="68">
+        <f>SUM(G22:Z22)</f>
+        <v>3</v>
+      </c>
+      <c r="F22" s="84">
+        <f>ROUND(AVERAGE(G22:Z22),1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I22" s="83">
+        <v>2</v>
+      </c>
+      <c r="J22" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="83">
+        <v>0</v>
+      </c>
+      <c r="C23" s="84">
+        <v>0</v>
+      </c>
+      <c r="D23" s="83">
+        <v>0</v>
+      </c>
+      <c r="E23" s="68">
+        <f>SUM(G23:Z23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="84" t="e">
+        <f>ROUND(AVERAGE(G23:Z23),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="83">
-        <v>0</v>
-      </c>
-      <c r="C10" s="84">
-        <v>0</v>
-      </c>
-      <c r="D10" s="83">
-        <v>0</v>
-      </c>
-      <c r="E10" s="68">
-        <f>SUM(G10:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="84" t="e">
-        <f>ROUND(AVERAGE(G10:L10),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="83">
+        <v>0</v>
+      </c>
+      <c r="C24" s="84">
+        <v>0</v>
+      </c>
+      <c r="D24" s="83">
+        <v>1</v>
+      </c>
+      <c r="E24" s="68">
+        <f>SUM(G24:Z24)</f>
         <v>6</v>
       </c>
-      <c r="B11" s="83">
-        <v>0</v>
-      </c>
-      <c r="C11" s="84">
-        <v>0</v>
-      </c>
-      <c r="D11" s="83">
-        <v>3</v>
-      </c>
-      <c r="E11" s="68">
-        <f>SUM(G11:L11)</f>
-        <v>16</v>
-      </c>
-      <c r="F11" s="84">
-        <f>ROUND(AVERAGE(G11:L11),1)</f>
-        <v>2.7</v>
-      </c>
-      <c r="G11" s="83">
-        <v>3</v>
-      </c>
-      <c r="H11" s="84">
-        <v>3</v>
-      </c>
-      <c r="I11" s="83">
-        <v>3</v>
-      </c>
-      <c r="J11" s="84">
-        <v>2</v>
-      </c>
-      <c r="K11" s="68">
-        <v>2</v>
-      </c>
-      <c r="L11" s="68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="83">
-        <v>0</v>
-      </c>
-      <c r="C12" s="84">
-        <v>0</v>
-      </c>
-      <c r="D12" s="83">
-        <v>1</v>
-      </c>
-      <c r="E12" s="68">
-        <f>SUM(G12:M12)</f>
-        <v>4</v>
-      </c>
-      <c r="F12" s="84">
-        <f>ROUND(AVERAGE(G12:L12),1)</f>
-        <v>2</v>
-      </c>
-      <c r="I12" s="83">
-        <v>3</v>
-      </c>
-      <c r="J12" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="83">
-        <v>0</v>
-      </c>
-      <c r="C13" s="84">
-        <v>0</v>
-      </c>
-      <c r="D13" s="83">
-        <v>0</v>
-      </c>
-      <c r="E13" s="68">
-        <f>SUM(G13:M13)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="84" t="e">
-        <f>ROUND(AVERAGE(G13:L13),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="F24" s="84">
+        <f>ROUND(AVERAGE(G24:Z24),1)</f>
+        <v>3</v>
+      </c>
+      <c r="G24" s="83">
+        <v>3</v>
+      </c>
+      <c r="H24" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="83">
-        <v>1</v>
-      </c>
-      <c r="C14" s="84">
-        <v>0</v>
-      </c>
-      <c r="D14" s="83">
-        <v>1</v>
-      </c>
-      <c r="E14" s="68">
-        <f>SUM(G14:M14)</f>
-        <v>2</v>
-      </c>
-      <c r="F14" s="84">
-        <f>ROUND(AVERAGE(G14:L14),1)</f>
-        <v>2</v>
-      </c>
-      <c r="I14" s="83">
-        <v>2</v>
-      </c>
-      <c r="J14" s="84" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="83">
-        <v>0</v>
-      </c>
-      <c r="C15" s="84">
-        <v>0</v>
-      </c>
-      <c r="D15" s="83">
-        <v>0</v>
-      </c>
-      <c r="E15" s="68">
-        <f>SUM(G15:M15)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="84" t="e">
-        <f>ROUND(AVERAGE(G15:L15),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="83">
-        <v>0</v>
-      </c>
-      <c r="C16" s="84">
-        <v>0</v>
-      </c>
-      <c r="D16" s="83">
-        <v>0</v>
-      </c>
-      <c r="E16" s="68">
-        <f>SUM(G16:M16)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="84" t="e">
-        <f>ROUND(AVERAGE(G16:L16),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="83">
-        <v>0</v>
-      </c>
-      <c r="C17" s="84">
-        <v>0</v>
-      </c>
-      <c r="D17" s="83">
-        <v>2</v>
-      </c>
-      <c r="E17" s="68">
-        <f>SUM(G18:M18)</f>
-        <v>10</v>
-      </c>
-      <c r="F17" s="84">
-        <f>ROUND(AVERAGE(G17:L17),1)</f>
-        <v>1.8</v>
-      </c>
-      <c r="G17" s="83">
-        <v>1</v>
-      </c>
-      <c r="H17" s="84">
-        <v>2</v>
-      </c>
-      <c r="I17" s="83">
-        <v>1</v>
-      </c>
-      <c r="J17" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="83">
-        <v>0</v>
-      </c>
-      <c r="C18" s="84">
-        <v>0</v>
-      </c>
-      <c r="D18" s="83">
-        <v>2</v>
-      </c>
-      <c r="E18" s="68">
-        <f>SUM(G18:L18)</f>
-        <v>10</v>
-      </c>
-      <c r="F18" s="84">
-        <f>ROUND(AVERAGE(G18:L18),1)</f>
-        <v>2.5</v>
-      </c>
-      <c r="I18" s="83">
-        <v>3</v>
-      </c>
-      <c r="J18" s="84">
-        <v>1</v>
-      </c>
-      <c r="K18" s="83">
-        <v>3</v>
-      </c>
-      <c r="L18" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="83">
-        <v>0</v>
-      </c>
-      <c r="C19" s="84">
-        <v>0</v>
-      </c>
-      <c r="D19" s="83">
-        <v>2</v>
-      </c>
-      <c r="E19" s="68">
-        <f>SUM(G19:L19)</f>
-        <v>10</v>
-      </c>
-      <c r="F19" s="84">
-        <f>ROUND(AVERAGE(G19:L19),1)</f>
-        <v>2.5</v>
-      </c>
-      <c r="G19" s="83">
-        <v>3</v>
-      </c>
-      <c r="H19" s="84">
-        <v>3</v>
-      </c>
-      <c r="K19" s="83">
-        <v>2</v>
-      </c>
-      <c r="L19" s="84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="83">
-        <v>0</v>
-      </c>
-      <c r="C20" s="84">
-        <v>0</v>
-      </c>
-      <c r="D20" s="83">
-        <v>0</v>
-      </c>
-      <c r="E20" s="68">
-        <f>SUM(G20:M20)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="84" t="e">
-        <f>ROUND(AVERAGE(G20:L20),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="83">
-        <v>0</v>
-      </c>
-      <c r="C21" s="84">
-        <v>0</v>
-      </c>
-      <c r="D21" s="83">
-        <v>2</v>
-      </c>
-      <c r="E21" s="68">
-        <f>SUM(G22:M22)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="84">
-        <f>ROUND(AVERAGE(G21:L21),1)</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G21" s="83">
-        <v>1</v>
-      </c>
-      <c r="H21" s="84">
-        <v>2</v>
-      </c>
-      <c r="I21" s="83">
-        <v>3</v>
-      </c>
-      <c r="J21" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="83">
-        <v>0</v>
-      </c>
-      <c r="C22" s="84">
-        <v>0</v>
-      </c>
-      <c r="D22" s="83">
-        <v>0</v>
-      </c>
-      <c r="E22" s="68">
-        <f>SUM(G22:M22)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="84" t="e">
-        <f>ROUND(AVERAGE(G22:L22),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="83">
-        <v>0</v>
-      </c>
-      <c r="C23" s="84">
-        <v>0</v>
-      </c>
-      <c r="D23" s="83">
-        <v>0</v>
-      </c>
-      <c r="E23" s="68">
-        <f>SUM(G23:M23)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="84" t="e">
-        <f>ROUND(AVERAGE(G23:L23),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="83">
-        <v>0</v>
-      </c>
-      <c r="C24" s="84">
-        <v>0</v>
-      </c>
-      <c r="D24" s="83">
-        <v>0</v>
-      </c>
-      <c r="E24" s="68">
-        <f>SUM(G24:M24)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="84" t="e">
-        <f>ROUND(AVERAGE(G24:L24),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="79" t="s">
-        <v>70</v>
-      </c>
       <c r="B25" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="68">
-        <f>SUM(G25:M25)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="84" t="e">
-        <f>AVERAGE(G25:M25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="J25" s="84" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <f>SUM(G25:Z25)</f>
+        <v>12</v>
+      </c>
+      <c r="F25" s="84">
+        <f>ROUND(AVERAGE(G25:Z25),1)</f>
+        <v>3</v>
+      </c>
+      <c r="K25" s="83">
+        <v>3</v>
+      </c>
+      <c r="L25" s="84">
+        <v>3</v>
+      </c>
+      <c r="M25" s="83">
+        <v>3</v>
+      </c>
+      <c r="N25" s="84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="79" t="s">
         <v>162</v>
       </c>
       <c r="B26" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="84">
         <v>0</v>
       </c>
       <c r="D26" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="68">
-        <f>SUM(G26:M26)</f>
-        <v>2</v>
-      </c>
-      <c r="F26" s="84">
-        <f>ROUND(AVERAGE(G26:L26),1)</f>
-        <v>2</v>
-      </c>
-      <c r="I26" s="83">
-        <v>2</v>
-      </c>
-      <c r="J26" s="84" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <f>SUM(G26:Z26)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="84" t="e">
+        <f>ROUND(AVERAGE(G26:Z26),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="79" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="B27" s="83">
         <v>0</v>
@@ -8445,57 +8743,39 @@
         <v>0</v>
       </c>
       <c r="E27" s="68">
-        <f>SUM(G27:M27)</f>
+        <f>SUM(G27:Z27)</f>
         <v>0</v>
       </c>
       <c r="F27" s="84" t="e">
-        <f>ROUND(AVERAGE(G27:L27),1)</f>
+        <f>ROUND(AVERAGE(G27:Z27),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="79" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B28" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" s="68">
-        <f>SUM(G28:L28)</f>
-        <v>12</v>
-      </c>
-      <c r="F28" s="84">
-        <f>ROUND(AVERAGE(G28:L28),1)</f>
-        <v>3</v>
-      </c>
-      <c r="G28" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="H28" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="I28" s="83">
-        <v>3</v>
-      </c>
-      <c r="J28" s="84">
-        <v>3</v>
-      </c>
-      <c r="K28" s="83">
-        <v>3</v>
-      </c>
-      <c r="L28" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <f>SUM(G28:Z28)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="84" t="e">
+        <f>ROUND(AVERAGE(G28:Z28),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="79" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="B29" s="83">
         <v>0</v>
@@ -8504,32 +8784,20 @@
         <v>0</v>
       </c>
       <c r="D29" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" s="68">
-        <f>SUM(G30:M30)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="84">
-        <f>ROUND(AVERAGE(G29:L29),1)</f>
-        <v>2.5</v>
-      </c>
-      <c r="G29" s="83">
-        <v>3</v>
-      </c>
-      <c r="H29" s="84">
-        <v>1</v>
-      </c>
-      <c r="I29" s="83">
-        <v>3</v>
-      </c>
-      <c r="J29" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <f>SUM(G29:Z29)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="84" t="e">
+        <f>ROUND(AVERAGE(G29:Z29),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="79" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="B30" s="83">
         <v>0</v>
@@ -8541,19 +8809,19 @@
         <v>0</v>
       </c>
       <c r="E30" s="68">
-        <f>SUM(G30:M30)</f>
+        <f>SUM(G30:Z30)</f>
         <v>0</v>
       </c>
       <c r="F30" s="84" t="e">
-        <f>ROUND(AVERAGE(G30:L30),1)</f>
+        <f>ROUND(AVERAGE(G30:Z30),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="79" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B31" s="83">
         <v>0</v>
@@ -8565,17 +8833,17 @@
         <v>0</v>
       </c>
       <c r="E31" s="68">
-        <f>SUM(G31:M31)</f>
+        <f>SUM(G31:Z31)</f>
         <v>0</v>
       </c>
       <c r="F31" s="84" t="e">
-        <f>ROUND(AVERAGE(G31:L31),1)</f>
+        <f>ROUND(AVERAGE(G31:Z31),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="79" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B32" s="83">
         <v>0</v>
@@ -8587,17 +8855,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="68">
-        <f>SUM(G32:M32)</f>
+        <f>SUM(G32:Z32)</f>
         <v>0</v>
       </c>
       <c r="F32" s="84" t="e">
-        <f>ROUND(AVERAGE(G32:L32),1)</f>
+        <f>ROUND(AVERAGE(G32:Z32),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="79" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B33" s="83">
         <v>0</v>
@@ -8606,38 +8874,20 @@
         <v>0</v>
       </c>
       <c r="D33" s="83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" s="68">
-        <f>SUM(G33:L33)</f>
-        <v>17</v>
-      </c>
-      <c r="F33" s="84">
-        <f>ROUND(AVERAGE(G33:L33),1)</f>
-        <v>2.8</v>
-      </c>
-      <c r="G33" s="83">
-        <v>3</v>
-      </c>
-      <c r="H33" s="84">
-        <v>3</v>
-      </c>
-      <c r="I33" s="83">
-        <v>2</v>
-      </c>
-      <c r="J33" s="84">
-        <v>3</v>
-      </c>
-      <c r="K33" s="83">
-        <v>3</v>
-      </c>
-      <c r="L33" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <f>SUM(G33:Z33)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="84" t="e">
+        <f>ROUND(AVERAGE(G33:Z33),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="79" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="B34" s="83">
         <v>0</v>
@@ -8646,15 +8896,21 @@
         <v>0</v>
       </c>
       <c r="D34" s="83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="68">
-        <f>SUM(G34:M34)</f>
-        <v>6</v>
+        <f>SUM(G34:Z34)</f>
+        <v>9</v>
       </c>
       <c r="F34" s="84">
-        <f>ROUND(AVERAGE(G34:L34),1)</f>
-        <v>3</v>
+        <f>ROUND(AVERAGE(G34:Z34),1)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G34" s="83">
+        <v>1</v>
+      </c>
+      <c r="H34" s="84">
+        <v>2</v>
       </c>
       <c r="I34" s="83">
         <v>3</v>
@@ -8665,71 +8921,53 @@
       <c r="K34" s="94"/>
       <c r="L34" s="94"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="79" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B35" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="68">
-        <f>SUM(G35:L35)</f>
+        <f>SUM(G35:Z35)</f>
         <v>0</v>
       </c>
       <c r="F35" s="84" t="e">
-        <f>ROUND(AVERAGE(G35:L35),1)</f>
+        <f>ROUND(AVERAGE(G35:Z35),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="L35" s="84" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="79" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B36" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36" s="68">
-        <f>SUM(G36:L36)</f>
-        <v>6</v>
-      </c>
-      <c r="F36" s="84">
-        <f>ROUND(AVERAGE(G36:L36),1)</f>
-        <v>3</v>
-      </c>
-      <c r="I36" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="J36" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="K36" s="83">
-        <v>3</v>
-      </c>
-      <c r="L36" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <f>SUM(G36:Z36)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="84" t="e">
+        <f>ROUND(AVERAGE(G36:Z36),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="79" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B37" s="83">
         <v>0</v>
@@ -8741,41 +8979,47 @@
         <v>0</v>
       </c>
       <c r="E37" s="68">
-        <f>SUM(G37:M37)</f>
+        <f>SUM(G37:Z37)</f>
         <v>0</v>
       </c>
       <c r="F37" s="84" t="e">
-        <f>ROUND(AVERAGE(G37:L37),1)</f>
+        <f>ROUND(AVERAGE(G37:Z37),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="79" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="B38" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="68">
-        <f>SUM(G38:M38)</f>
+        <f>SUM(G38:Z38)</f>
         <v>0</v>
       </c>
       <c r="F38" s="84" t="e">
-        <f>ROUND(AVERAGE(G38:L38),1)</f>
+        <f>ROUND(AVERAGE(G38:Z38),1)</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="J38" s="84" t="s">
+        <v>154</v>
       </c>
       <c r="K38" s="94"/>
       <c r="L38" s="94"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="79" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B39" s="83">
         <v>0</v>
@@ -8784,102 +9028,84 @@
         <v>0</v>
       </c>
       <c r="D39" s="83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39" s="68">
-        <f>SUM(G39:L39)</f>
-        <v>14</v>
-      </c>
-      <c r="F39" s="84">
-        <f>ROUND(AVERAGE(G39:L39),1)</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G39" s="83">
-        <v>1</v>
-      </c>
-      <c r="H39" s="84">
-        <v>3</v>
-      </c>
-      <c r="I39" s="83">
-        <v>3</v>
-      </c>
-      <c r="J39" s="84">
-        <v>3</v>
-      </c>
-      <c r="K39" s="83">
-        <v>1</v>
-      </c>
-      <c r="L39" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <f>SUM(G39:Z39)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="84" t="e">
+        <f>ROUND(AVERAGE(G39:Z39),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="79" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="B40" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E40" s="68">
-        <f>SUM(G40:M40)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="84" t="e">
-        <f>ROUND(AVERAGE(G40:L40),1)</f>
+        <f>SUM(G40:Z40)</f>
+        <v>12</v>
+      </c>
+      <c r="F40" s="84">
+        <f>ROUND(AVERAGE(G40:Z40),1)</f>
+        <v>3</v>
+      </c>
+      <c r="G40" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="H40" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="I40" s="83">
+        <v>3</v>
+      </c>
+      <c r="J40" s="84">
+        <v>3</v>
+      </c>
+      <c r="K40" s="94">
+        <v>3</v>
+      </c>
+      <c r="L40" s="94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="83">
+        <v>0</v>
+      </c>
+      <c r="C41" s="84">
+        <v>0</v>
+      </c>
+      <c r="D41" s="83">
+        <v>0</v>
+      </c>
+      <c r="E41" s="68">
+        <f>SUM(G41:Z41)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="84" t="e">
+        <f>ROUND(AVERAGE(G41:Z41),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="83">
-        <v>4</v>
-      </c>
-      <c r="C41" s="84">
-        <v>1</v>
-      </c>
-      <c r="D41" s="83">
-        <v>3</v>
-      </c>
-      <c r="E41" s="68">
-        <f>SUM(G41:L41)</f>
-        <v>2</v>
-      </c>
-      <c r="F41" s="84">
-        <f>ROUND(AVERAGE(G41:L41),1)</f>
-        <v>1</v>
-      </c>
-      <c r="G41" s="83">
-        <v>1</v>
-      </c>
-      <c r="H41" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="I41" s="83">
-        <v>1</v>
-      </c>
-      <c r="J41" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="K41" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="L41" s="68" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="79" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B42" s="83">
         <v>0</v>
@@ -8888,263 +9114,217 @@
         <v>0</v>
       </c>
       <c r="D42" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" s="68">
-        <f>SUM(G43:M43)</f>
-        <v>2</v>
-      </c>
-      <c r="F42" s="84">
-        <f>ROUND(AVERAGE(G42:L42),1)</f>
-        <v>2.8</v>
-      </c>
-      <c r="G42" s="83">
-        <v>3</v>
-      </c>
-      <c r="H42" s="84">
-        <v>3</v>
-      </c>
-      <c r="I42" s="83">
-        <v>2</v>
-      </c>
-      <c r="J42" s="84">
-        <v>3</v>
+        <f>SUM(G42:Z42)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="84" t="e">
+        <f>ROUND(AVERAGE(G42:Z42),1)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K42" s="94"/>
       <c r="L42" s="94"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="83">
+        <v>0</v>
+      </c>
+      <c r="C43" s="84">
+        <v>0</v>
+      </c>
+      <c r="D43" s="83">
+        <v>0</v>
+      </c>
+      <c r="E43" s="68">
+        <f>SUM(G43:Z43)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="84" t="e">
+        <f>ROUND(AVERAGE(G43:Z43),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="83">
+        <v>0</v>
+      </c>
+      <c r="C44" s="84">
+        <v>0</v>
+      </c>
+      <c r="D44" s="83">
+        <v>0</v>
+      </c>
+      <c r="E44" s="68">
+        <f>SUM(G44:Z44)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="84" t="e">
+        <f>ROUND(AVERAGE(G44:Z44),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="83">
+        <v>0</v>
+      </c>
+      <c r="C45" s="84">
+        <v>0</v>
+      </c>
+      <c r="D45" s="83">
+        <v>0</v>
+      </c>
+      <c r="E45" s="68">
+        <f>SUM(G45:Z45)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="84" t="e">
+        <f>ROUND(AVERAGE(G45:Z45),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K45" s="94"/>
+      <c r="L45" s="94"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="83">
+        <v>0</v>
+      </c>
+      <c r="C46" s="84">
+        <v>0</v>
+      </c>
+      <c r="D46" s="83">
+        <v>0</v>
+      </c>
+      <c r="E46" s="68">
+        <f>SUM(G46:Z46)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="84" t="e">
+        <f>ROUND(AVERAGE(G46:Z46),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="83">
-        <v>0</v>
-      </c>
-      <c r="C43" s="84">
-        <v>0</v>
-      </c>
-      <c r="D43" s="83">
-        <v>1</v>
-      </c>
-      <c r="E43" s="68">
-        <f>SUM(G43:L43)</f>
-        <v>2</v>
-      </c>
-      <c r="F43" s="84">
-        <f>ROUND(AVERAGE(G43:L43),1)</f>
-        <v>1</v>
-      </c>
-      <c r="K43" s="83">
-        <v>1</v>
-      </c>
-      <c r="L43" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" s="83">
-        <v>0</v>
-      </c>
-      <c r="C44" s="84">
-        <v>0</v>
-      </c>
-      <c r="D44" s="83">
-        <v>3</v>
-      </c>
-      <c r="E44" s="68">
-        <f>SUM(G44:L44)</f>
-        <v>12</v>
-      </c>
-      <c r="F44" s="84">
-        <f>ROUND(AVERAGE(G44:L44),1)</f>
-        <v>2</v>
-      </c>
-      <c r="G44" s="83">
-        <v>2</v>
-      </c>
-      <c r="H44" s="84">
-        <v>3</v>
-      </c>
-      <c r="I44" s="83">
-        <v>1</v>
-      </c>
-      <c r="J44" s="84">
-        <v>1</v>
-      </c>
-      <c r="K44" s="94">
-        <v>3</v>
-      </c>
-      <c r="L44" s="94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="B45" s="83">
-        <v>0</v>
-      </c>
-      <c r="C45" s="84">
-        <v>0</v>
-      </c>
-      <c r="D45" s="83">
-        <v>0</v>
-      </c>
-      <c r="E45" s="68">
-        <f>SUM(G45:M45)</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="84" t="e">
-        <f>ROUND(AVERAGE(G45:L45),1)</f>
+      <c r="B47" s="83">
+        <v>2</v>
+      </c>
+      <c r="C47" s="84">
+        <v>1</v>
+      </c>
+      <c r="D47" s="83">
+        <v>2</v>
+      </c>
+      <c r="E47" s="68">
+        <f>SUM(G47:Z47)</f>
+        <v>2</v>
+      </c>
+      <c r="F47" s="84">
+        <f>ROUND(AVERAGE(G47:Z47),1)</f>
+        <v>1</v>
+      </c>
+      <c r="K47" s="94">
+        <v>1</v>
+      </c>
+      <c r="L47" s="94">
+        <v>1</v>
+      </c>
+      <c r="M47" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="N47" s="84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="83">
+        <v>0</v>
+      </c>
+      <c r="C48" s="84">
+        <v>0</v>
+      </c>
+      <c r="D48" s="83">
+        <v>0</v>
+      </c>
+      <c r="E48" s="68">
+        <f>SUM(G48:Z48)</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="84" t="e">
+        <f>ROUND(AVERAGE(G48:Z48),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="B46" s="83">
-        <v>0</v>
-      </c>
-      <c r="C46" s="84">
-        <v>0</v>
-      </c>
-      <c r="D46" s="83">
-        <v>0</v>
-      </c>
-      <c r="E46" s="68">
-        <f>SUM(G46:M46)</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="84" t="e">
-        <f>ROUND(AVERAGE(G46:L46),1)</f>
+      <c r="K48" s="94"/>
+      <c r="L48" s="94"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="83">
+        <v>0</v>
+      </c>
+      <c r="C49" s="84">
+        <v>0</v>
+      </c>
+      <c r="D49" s="83">
+        <v>0</v>
+      </c>
+      <c r="E49" s="68">
+        <f>SUM(G49:Z49)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="84" t="e">
+        <f>ROUND(AVERAGE(G49:Z49),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="B47" s="83">
-        <v>0</v>
-      </c>
-      <c r="C47" s="84">
-        <v>0</v>
-      </c>
-      <c r="D47" s="83">
-        <v>0</v>
-      </c>
-      <c r="E47" s="68">
-        <f>SUM(G47:M47)</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="84" t="e">
-        <f>ROUND(AVERAGE(G47:L47),1)</f>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" s="83">
+        <v>2</v>
+      </c>
+      <c r="C50" s="84">
+        <v>1</v>
+      </c>
+      <c r="D50" s="83">
+        <v>1</v>
+      </c>
+      <c r="E50" s="68">
+        <f>SUM(G50:Z50)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="84" t="e">
+        <f>ROUND(AVERAGE(G50:Z50),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K47" s="94"/>
-      <c r="L47" s="94"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48" s="83">
-        <v>2</v>
-      </c>
-      <c r="C48" s="84">
-        <v>1</v>
-      </c>
-      <c r="D48" s="83">
-        <v>1</v>
-      </c>
-      <c r="E48" s="68">
-        <f>SUM(G48:L48)</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="84" t="e">
-        <f>ROUND(AVERAGE(G48:L48),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K48" s="94" t="s">
-        <v>158</v>
-      </c>
-      <c r="L48" s="94" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="B49" s="83">
-        <v>2</v>
-      </c>
-      <c r="C49" s="84">
-        <v>1</v>
-      </c>
-      <c r="D49" s="83">
-        <v>3</v>
-      </c>
-      <c r="E49" s="68">
-        <f>SUM(G49:L49)</f>
-        <v>10</v>
-      </c>
-      <c r="F49" s="84">
-        <f>ROUND(AVERAGE(G49:L49),1)</f>
-        <v>2.5</v>
-      </c>
-      <c r="G49" s="83">
-        <v>2</v>
-      </c>
-      <c r="H49" s="84">
-        <v>3</v>
-      </c>
-      <c r="I49" s="83">
-        <v>2</v>
-      </c>
-      <c r="J49" s="84">
-        <v>3</v>
-      </c>
-      <c r="K49" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="L49" s="84" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="83">
-        <v>2</v>
-      </c>
-      <c r="C50" s="84">
-        <v>1</v>
-      </c>
-      <c r="D50" s="83">
-        <v>1</v>
-      </c>
-      <c r="E50" s="68">
-        <f>SUM(G50:M50)</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="84" t="e">
-        <f>ROUND(AVERAGE(G50:L50),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G50" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="H50" s="84" t="s">
-        <v>158</v>
+      <c r="K50" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="L50" s="84" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -9163,47 +9343,47 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="86"/>
       <c r="B3" s="88"/>
       <c r="C3" s="88"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="87" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="87" t="s">
         <v>8</v>
       </c>
@@ -9214,91 +9394,91 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="86" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="87" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="87"/>
       <c r="B8" s="88"/>
       <c r="C8" s="79"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="85" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="87" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="87"/>
       <c r="B11" s="88" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="85" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="85"/>
       <c r="B13" s="79"/>
       <c r="C13" s="88"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="85"/>
       <c r="B14" s="88"/>
       <c r="C14" s="79"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="86"/>
       <c r="B15" s="88"/>
       <c r="C15" s="88"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="88"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="88"/>
     </row>
   </sheetData>

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{683C2493-CDED-4EB8-AC3A-65A76EA35042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDF831FD-C771-442B-9BD8-2C05884E0EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
     <sheet name="CWL 2" sheetId="2" r:id="rId2"/>
-    <sheet name="avv" sheetId="3" r:id="rId3"/>
-    <sheet name="partecipanti" sheetId="4" r:id="rId4"/>
-    <sheet name="wars" sheetId="5" r:id="rId5"/>
-    <sheet name="inatttivi" sheetId="6" r:id="rId6"/>
+    <sheet name="CWL 3" sheetId="7" r:id="rId3"/>
+    <sheet name="avv" sheetId="3" r:id="rId4"/>
+    <sheet name="partecipanti" sheetId="4" r:id="rId5"/>
+    <sheet name="wars" sheetId="5" r:id="rId6"/>
+    <sheet name="inatttivi" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="217">
   <si>
     <t>nome</t>
   </si>
@@ -669,6 +670,27 @@
   </si>
   <si>
     <t>xnullx</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>queen of shadow</t>
+  </si>
+  <si>
+    <t>ggfd</t>
+  </si>
+  <si>
+    <t>Queen of Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dado     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stentaaa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BigMc23  </t>
   </si>
 </sst>
 </file>
@@ -948,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1217,6 +1239,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1225,80 +1250,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="89">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1649,6 +1623,32 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border outline="0">
@@ -1678,6 +1678,28 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1687,6 +1709,12 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1702,103 +1730,103 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella2" displayName="Tabella2" ref="A1:CI51" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella2" displayName="Tabella2" ref="A1:CI51" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
   <autoFilter ref="A1:CI51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CI51">
     <sortCondition ref="Q1:Q51"/>
   </sortState>
   <tableColumns count="87">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NAME" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATK SKIP" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ZERO WAR  ATK" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TOT WARS" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TOT STARS" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NAME" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATK SKIP" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ZERO WAR  ATK" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TOT WARS" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TOT STARS" dataDxfId="82">
       <calculatedColumnFormula>SUM(G2:M2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="AVG STAR" dataDxfId="85">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="AVG STAR" dataDxfId="81">
       <calculatedColumnFormula>AVERAGE(G2:M2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="WAR-1 (1)" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="WAR-1 (2)" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="WAR-2 (1)" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="WAR-2 (2)" dataDxfId="83"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="WAR-3 (1)" dataDxfId="82"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="WAR-3 (2)" dataDxfId="81"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="WAR-4 (1)" dataDxfId="80"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="WAR-4 (2)" dataDxfId="79"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="WAR-5 (1)" dataDxfId="78"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="WAR-5 (2)" dataDxfId="77"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Colonna17" dataDxfId="76"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Colonna18" dataDxfId="75"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Colonna19" dataDxfId="74"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Colonna20" dataDxfId="73"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Colonna21" dataDxfId="72"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Colonna22" dataDxfId="71"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Colonna23" dataDxfId="70"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Colonna24" dataDxfId="69"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Colonna25" dataDxfId="68"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Colonna26" dataDxfId="67"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Colonna27" dataDxfId="66"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Colonna28" dataDxfId="65"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Colonna29" dataDxfId="64"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Colonna30" dataDxfId="63"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Colonna31" dataDxfId="62"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Colonna32" dataDxfId="61"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Colonna33" dataDxfId="60"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Colonna34" dataDxfId="59"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Colonna35" dataDxfId="58"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Colonna36" dataDxfId="57"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Colonna37" dataDxfId="56"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Colonna38" dataDxfId="55"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Colonna39" dataDxfId="54"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Colonna40" dataDxfId="53"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Colonna41" dataDxfId="52"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Colonna42" dataDxfId="51"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Colonna43" dataDxfId="50"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Colonna44" dataDxfId="49"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Colonna45" dataDxfId="48"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Colonna46" dataDxfId="47"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Colonna47" dataDxfId="46"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Colonna48" dataDxfId="45"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Colonna49" dataDxfId="44"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Colonna50" dataDxfId="43"/>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Colonna51" dataDxfId="42"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Colonna52" dataDxfId="41"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Colonna53" dataDxfId="40"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Colonna54" dataDxfId="39"/>
-    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Colonna55" dataDxfId="38"/>
-    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Colonna56" dataDxfId="37"/>
-    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Colonna57" dataDxfId="36"/>
-    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Colonna58" dataDxfId="35"/>
-    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Colonna59" dataDxfId="34"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Colonna60" dataDxfId="33"/>
-    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Colonna61" dataDxfId="32"/>
-    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Colonna62" dataDxfId="31"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Colonna63" dataDxfId="30"/>
-    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="Colonna64" dataDxfId="29"/>
-    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Colonna65" dataDxfId="28"/>
-    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Colonna66" dataDxfId="27"/>
-    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="Colonna67" dataDxfId="26"/>
-    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Colonna68" dataDxfId="25"/>
-    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="Colonna69" dataDxfId="24"/>
-    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Colonna70" dataDxfId="23"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Colonna71" dataDxfId="22"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Colonna72" dataDxfId="21"/>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Colonna73" dataDxfId="20"/>
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Colonna74" dataDxfId="19"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Colonna75" dataDxfId="18"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Colonna76" dataDxfId="17"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Colonna77" dataDxfId="16"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Colonna78" dataDxfId="15"/>
-    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Colonna79" dataDxfId="14"/>
-    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="Colonna80" dataDxfId="13"/>
-    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="Colonna81" dataDxfId="12"/>
-    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="Colonna82" dataDxfId="11"/>
-    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" name="Colonna83" dataDxfId="10"/>
-    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="Colonna84" dataDxfId="9"/>
-    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" name="Colonna85" dataDxfId="8"/>
-    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" name="Colonna86" dataDxfId="7"/>
-    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="Colonna87" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="WAR-1 (1)" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="WAR-1 (2)" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="WAR-2 (1)" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="WAR-2 (2)" dataDxfId="77"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="WAR-3 (1)" dataDxfId="76"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="WAR-3 (2)" dataDxfId="75"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="WAR-4 (1)" dataDxfId="74"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="WAR-4 (2)" dataDxfId="73"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="WAR-5 (1)" dataDxfId="72"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="WAR-5 (2)" dataDxfId="71"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Colonna17" dataDxfId="70"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Colonna18" dataDxfId="69"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Colonna19" dataDxfId="68"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Colonna20" dataDxfId="67"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Colonna21" dataDxfId="66"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Colonna22" dataDxfId="65"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Colonna23" dataDxfId="64"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Colonna24" dataDxfId="63"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Colonna25" dataDxfId="62"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Colonna26" dataDxfId="61"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Colonna27" dataDxfId="60"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Colonna28" dataDxfId="59"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Colonna29" dataDxfId="58"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Colonna30" dataDxfId="57"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Colonna31" dataDxfId="56"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Colonna32" dataDxfId="55"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Colonna33" dataDxfId="54"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Colonna34" dataDxfId="53"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Colonna35" dataDxfId="52"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Colonna36" dataDxfId="51"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Colonna37" dataDxfId="50"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Colonna38" dataDxfId="49"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Colonna39" dataDxfId="48"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Colonna40" dataDxfId="47"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Colonna41" dataDxfId="46"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Colonna42" dataDxfId="45"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Colonna43" dataDxfId="44"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Colonna44" dataDxfId="43"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Colonna45" dataDxfId="42"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Colonna46" dataDxfId="41"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Colonna47" dataDxfId="40"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Colonna48" dataDxfId="39"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Colonna49" dataDxfId="38"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Colonna50" dataDxfId="37"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Colonna51" dataDxfId="36"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Colonna52" dataDxfId="35"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Colonna53" dataDxfId="34"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Colonna54" dataDxfId="33"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Colonna55" dataDxfId="32"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Colonna56" dataDxfId="31"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Colonna57" dataDxfId="30"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Colonna58" dataDxfId="29"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Colonna59" dataDxfId="28"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Colonna60" dataDxfId="27"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Colonna61" dataDxfId="26"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Colonna62" dataDxfId="25"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Colonna63" dataDxfId="24"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="Colonna64" dataDxfId="23"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Colonna65" dataDxfId="22"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Colonna66" dataDxfId="21"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="Colonna67" dataDxfId="20"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Colonna68" dataDxfId="19"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="Colonna69" dataDxfId="18"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Colonna70" dataDxfId="17"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Colonna71" dataDxfId="16"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Colonna72" dataDxfId="15"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Colonna73" dataDxfId="14"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Colonna74" dataDxfId="13"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Colonna75" dataDxfId="12"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Colonna76" dataDxfId="11"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Colonna77" dataDxfId="10"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Colonna78" dataDxfId="9"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Colonna79" dataDxfId="8"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="Colonna80" dataDxfId="7"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="Colonna81" dataDxfId="6"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="Colonna82" dataDxfId="5"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" name="Colonna83" dataDxfId="4"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="Colonna84" dataDxfId="3"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" name="Colonna85" dataDxfId="2"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" name="Colonna86" dataDxfId="1"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="Colonna87" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4133,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28:V28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W43" sqref="A33:W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4151,41 +4179,41 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="61"/>
-      <c r="C1" s="90">
-        <v>1</v>
-      </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="90">
-        <v>2</v>
-      </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="90">
-        <v>3</v>
-      </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="90">
+      <c r="C1" s="91">
+        <v>1</v>
+      </c>
+      <c r="D1" s="92"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="91">
+        <v>2</v>
+      </c>
+      <c r="G1" s="92"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="91">
+        <v>3</v>
+      </c>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="91">
         <v>4</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="90">
+      <c r="M1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="91">
         <v>5</v>
       </c>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="90">
+      <c r="P1" s="92"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="91">
         <v>6</v>
       </c>
-      <c r="S1" s="91"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="90">
+      <c r="S1" s="92"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="91">
         <v>7</v>
       </c>
-      <c r="V1" s="91"/>
-      <c r="W1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="93"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -6343,6 +6371,1223 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A82F9B-DDA5-453E-AF76-85C4D400084F}">
+  <dimension ref="A1:W40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="91">
+        <v>1</v>
+      </c>
+      <c r="D1" s="92"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="91">
+        <v>2</v>
+      </c>
+      <c r="G1" s="92"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="91">
+        <v>3</v>
+      </c>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="91">
+        <v>4</v>
+      </c>
+      <c r="M1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="91">
+        <v>5</v>
+      </c>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="91">
+        <v>6</v>
+      </c>
+      <c r="S1" s="92"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="91">
+        <v>7</v>
+      </c>
+      <c r="V1" s="92"/>
+      <c r="W1" s="93"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
+        <v>16</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="97"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
+        <v>15</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="97"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>14</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="97"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <v>14</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="97"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <v>13</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="97"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <v>13</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="97"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>13</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="97"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>13</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="97"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>13</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="97"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>13</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="97"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>13</v>
+      </c>
+      <c r="B13" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="97"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>13</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="97"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>13</v>
+      </c>
+      <c r="B15" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="97"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>13</v>
+      </c>
+      <c r="B16" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="97"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>13</v>
+      </c>
+      <c r="B17" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="97"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>13</v>
+      </c>
+      <c r="B18" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="97"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>13</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="97"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>13</v>
+      </c>
+      <c r="B20" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="97"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>12</v>
+      </c>
+      <c r="B21" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="97"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <v>12</v>
+      </c>
+      <c r="B22" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="97"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>12</v>
+      </c>
+      <c r="B23" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="99"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>12</v>
+      </c>
+      <c r="B24" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="97"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>12</v>
+      </c>
+      <c r="B25" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="95"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="97"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>12</v>
+      </c>
+      <c r="B26" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="95"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="97"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>12</v>
+      </c>
+      <c r="B27" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="97"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>12</v>
+      </c>
+      <c r="B28" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="95"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="97"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
+        <v>12</v>
+      </c>
+      <c r="B29" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="95"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="96"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="97"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
+        <v>12</v>
+      </c>
+      <c r="B30" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="95"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="97"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
+        <v>12</v>
+      </c>
+      <c r="B31" s="96" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="95"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="100"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="39">
+        <v>10</v>
+      </c>
+      <c r="B32" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="95"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="96"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="97"/>
+    </row>
+    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="44"/>
+      <c r="B35" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="46"/>
+      <c r="B36" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="47"/>
+      <c r="B37" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="48"/>
+      <c r="B38" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="49"/>
+      <c r="B39" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="71"/>
+      <c r="B40" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -7087,16 +8332,16 @@
       <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7106,45 +8351,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
+      <c r="R1" t="s">
+        <v>210</v>
+      </c>
       <c r="S1" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="96" t="s">
+      <c r="W1" s="88" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="79" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
       </c>
+      <c r="R2" t="s">
+        <v>210</v>
+      </c>
       <c r="S2" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="97" t="s">
+      <c r="W2" s="79" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
@@ -7157,14 +8414,17 @@
       <c r="J3" t="s">
         <v>8</v>
       </c>
+      <c r="R3" t="s">
+        <v>210</v>
+      </c>
       <c r="S3" t="s">
         <v>81</v>
       </c>
-      <c r="W3" s="96" t="s">
+      <c r="W3" s="88" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -7180,14 +8440,17 @@
       <c r="J4" t="s">
         <v>60</v>
       </c>
+      <c r="R4" t="s">
+        <v>210</v>
+      </c>
       <c r="S4" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="79" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -7203,14 +8466,17 @@
       <c r="J5" t="s">
         <v>62</v>
       </c>
+      <c r="R5" t="s">
+        <v>210</v>
+      </c>
       <c r="S5" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="96" t="s">
+      <c r="W5" s="88" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
@@ -7226,14 +8492,17 @@
       <c r="J6" t="s">
         <v>64</v>
       </c>
+      <c r="R6" t="s">
+        <v>210</v>
+      </c>
       <c r="S6" t="s">
         <v>77</v>
       </c>
-      <c r="W6" s="96" t="s">
+      <c r="W6" s="88" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
@@ -7246,28 +8515,34 @@
       <c r="J7" t="s">
         <v>65</v>
       </c>
+      <c r="R7" t="s">
+        <v>210</v>
+      </c>
       <c r="S7" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="96" t="s">
+      <c r="W7" s="88" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="R8" t="s">
+        <v>210</v>
+      </c>
       <c r="S8" t="s">
         <v>17</v>
       </c>
-      <c r="W8" s="97" t="s">
+      <c r="W8" s="79" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -7280,28 +8555,34 @@
       <c r="J9" t="s">
         <v>66</v>
       </c>
+      <c r="R9" t="s">
+        <v>210</v>
+      </c>
       <c r="S9" t="s">
         <v>73</v>
       </c>
-      <c r="W9" s="97" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W9" s="79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
+      <c r="R10" t="s">
+        <v>210</v>
+      </c>
       <c r="S10" t="s">
         <v>72</v>
       </c>
-      <c r="W10" s="97" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W10" s="79" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
@@ -7314,14 +8595,17 @@
       <c r="J11" t="s">
         <v>23</v>
       </c>
+      <c r="R11" t="s">
+        <v>210</v>
+      </c>
       <c r="S11" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="97" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W11" s="88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -7334,14 +8618,17 @@
       <c r="J12" t="s">
         <v>69</v>
       </c>
+      <c r="R12" t="s">
+        <v>210</v>
+      </c>
       <c r="S12" t="s">
         <v>59</v>
       </c>
-      <c r="W12" s="97" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W12" s="88" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7354,14 +8641,17 @@
       <c r="J13" t="s">
         <v>71</v>
       </c>
+      <c r="R13" t="s">
+        <v>210</v>
+      </c>
       <c r="S13" t="s">
         <v>79</v>
       </c>
-      <c r="W13" s="96" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W13" s="79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7374,14 +8664,17 @@
       <c r="J14" t="s">
         <v>19</v>
       </c>
+      <c r="R14" t="s">
+        <v>210</v>
+      </c>
       <c r="S14" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="96" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W14" s="88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -7394,25 +8687,31 @@
       <c r="J15" t="s">
         <v>75</v>
       </c>
+      <c r="R15" t="s">
+        <v>210</v>
+      </c>
       <c r="S15" t="s">
         <v>45</v>
       </c>
-      <c r="W15" s="97" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W15" s="88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
+      <c r="R16" t="s">
+        <v>210</v>
+      </c>
       <c r="S16" t="s">
         <v>67</v>
       </c>
-      <c r="W16" s="96" t="s">
-        <v>191</v>
+      <c r="W16" s="79" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -7428,11 +8727,14 @@
       <c r="J17" t="s">
         <v>78</v>
       </c>
+      <c r="R17" t="s">
+        <v>210</v>
+      </c>
       <c r="S17" t="s">
         <v>22</v>
       </c>
-      <c r="W17" s="96" t="s">
-        <v>187</v>
+      <c r="W17" s="88" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -7448,12 +8750,13 @@
       <c r="J18" t="s">
         <v>29</v>
       </c>
+      <c r="R18" t="s">
+        <v>210</v>
+      </c>
       <c r="S18" t="s">
         <v>68</v>
       </c>
-      <c r="W18" s="97" t="s">
-        <v>173</v>
-      </c>
+      <c r="W18" s="79"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -7468,12 +8771,12 @@
       <c r="J19" t="s">
         <v>34</v>
       </c>
+      <c r="R19" t="s">
+        <v>210</v>
+      </c>
       <c r="S19" t="s">
         <v>80</v>
       </c>
-      <c r="W19" s="97" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -7482,12 +8785,13 @@
       <c r="B20" t="s">
         <v>43</v>
       </c>
+      <c r="R20" t="s">
+        <v>210</v>
+      </c>
       <c r="S20" t="s">
         <v>208</v>
       </c>
-      <c r="W20" s="96" t="s">
-        <v>189</v>
-      </c>
+      <c r="W20" s="79"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -7496,10 +8800,13 @@
       <c r="B21" t="s">
         <v>50</v>
       </c>
+      <c r="R21" t="s">
+        <v>210</v>
+      </c>
       <c r="S21" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="97"/>
+      <c r="W21" s="88"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -7508,10 +8815,13 @@
       <c r="B22" t="s">
         <v>53</v>
       </c>
+      <c r="R22" t="s">
+        <v>210</v>
+      </c>
       <c r="S22" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="96"/>
+      <c r="W22" s="79"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -7520,10 +8830,13 @@
       <c r="B23" t="s">
         <v>48</v>
       </c>
+      <c r="R23" t="s">
+        <v>210</v>
+      </c>
       <c r="S23" t="s">
         <v>82</v>
       </c>
-      <c r="W23" s="97"/>
+      <c r="W23" s="79"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -7532,10 +8845,13 @@
       <c r="B24" t="s">
         <v>36</v>
       </c>
+      <c r="R24" t="s">
+        <v>210</v>
+      </c>
       <c r="S24" t="s">
         <v>209</v>
       </c>
-      <c r="W24" s="97"/>
+      <c r="W24" s="79"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -7544,10 +8860,13 @@
       <c r="B25" t="s">
         <v>32</v>
       </c>
+      <c r="R25" t="s">
+        <v>210</v>
+      </c>
       <c r="S25" t="s">
         <v>43</v>
       </c>
-      <c r="W25" s="97"/>
+      <c r="W25" s="88"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -7556,7 +8875,13 @@
       <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="W26" s="96"/>
+      <c r="R26" t="s">
+        <v>210</v>
+      </c>
+      <c r="S26" t="s">
+        <v>211</v>
+      </c>
+      <c r="W26" s="88"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -7565,7 +8890,13 @@
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="W27" s="96"/>
+      <c r="R27" t="s">
+        <v>210</v>
+      </c>
+      <c r="S27" t="s">
+        <v>47</v>
+      </c>
+      <c r="W27" s="88"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -7574,7 +8905,13 @@
       <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="W28" s="96"/>
+      <c r="R28" t="s">
+        <v>210</v>
+      </c>
+      <c r="S28" t="s">
+        <v>212</v>
+      </c>
+      <c r="W28" s="88"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -7583,84 +8920,81 @@
       <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="96"/>
+      <c r="W29" s="79"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W30" s="97"/>
+      <c r="W30" s="79"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W31" s="97"/>
+      <c r="W31" s="79"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W32" s="97"/>
+      <c r="W32" s="88"/>
     </row>
     <row r="33" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W33" s="96"/>
+      <c r="W33" s="88"/>
     </row>
     <row r="34" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W34" s="96"/>
+      <c r="W34" s="79"/>
     </row>
     <row r="35" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W35" s="97"/>
+      <c r="W35" s="88"/>
     </row>
     <row r="36" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W36" s="96"/>
+      <c r="W36" s="79"/>
     </row>
     <row r="37" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W37" s="97"/>
+      <c r="W37" s="79"/>
     </row>
     <row r="38" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W38" s="97"/>
+      <c r="W38" s="88"/>
     </row>
     <row r="39" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W39" s="96"/>
+      <c r="W39" s="79"/>
     </row>
     <row r="40" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W40" s="97"/>
+      <c r="W40" s="79"/>
     </row>
     <row r="41" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W41" s="97"/>
+      <c r="W41" s="88"/>
     </row>
     <row r="42" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W42" s="96"/>
+      <c r="W42" s="79"/>
     </row>
     <row r="43" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W43" s="97"/>
+      <c r="W43" s="88"/>
     </row>
     <row r="44" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W44" s="96"/>
+      <c r="W44" s="79"/>
     </row>
     <row r="45" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W45" s="97"/>
+      <c r="W45" s="88"/>
     </row>
     <row r="46" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W46" s="96"/>
+      <c r="W46" s="88"/>
     </row>
     <row r="47" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W47" s="96"/>
+      <c r="W47" s="79"/>
     </row>
     <row r="48" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W48" s="97"/>
-    </row>
-    <row r="49" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W49" s="96"/>
-    </row>
-    <row r="50" spans="23:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W50" s="98"/>
+      <c r="W48" s="88"/>
+    </row>
+    <row r="49" spans="23:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W49" s="90"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W1:W52">
-    <sortCondition ref="W1:W52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W1:W51">
+    <sortCondition ref="W1:W51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CI51"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
@@ -7970,11 +9304,11 @@
         <v>5</v>
       </c>
       <c r="E2" s="68">
-        <f>SUM(G2:R2)</f>
+        <f t="shared" ref="E2:E21" si="0">SUM(G2:R2)</f>
         <v>21</v>
       </c>
       <c r="F2" s="84">
-        <f>ROUND(AVERAGE(G2:R2),1)</f>
+        <f t="shared" ref="F2:F21" si="1">ROUND(AVERAGE(G2:R2),1)</f>
         <v>1.8</v>
       </c>
       <c r="G2" s="83">
@@ -8028,11 +9362,11 @@
         <v>4</v>
       </c>
       <c r="E3" s="68">
-        <f>SUM(G3:R3)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F3" s="84">
-        <f>ROUND(AVERAGE(G3:R3),1)</f>
+        <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="I3" s="83">
@@ -8074,11 +9408,11 @@
         <v>4</v>
       </c>
       <c r="E4" s="68">
-        <f>SUM(G4:R4)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F4" s="84">
-        <f>ROUND(AVERAGE(G4:R4),1)</f>
+        <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
       <c r="G4" s="83">
@@ -8087,10 +9421,10 @@
       <c r="H4" s="84">
         <v>3</v>
       </c>
-      <c r="K4" s="94">
-        <v>2</v>
-      </c>
-      <c r="L4" s="94">
+      <c r="K4" s="68">
+        <v>2</v>
+      </c>
+      <c r="L4" s="68">
         <v>2</v>
       </c>
       <c r="O4" s="83">
@@ -8120,11 +9454,11 @@
         <v>4</v>
       </c>
       <c r="E5" s="68">
-        <f>SUM(G5:R5)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F5" s="84">
-        <f>ROUND(AVERAGE(G5:R5),1)</f>
+        <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
       <c r="I5" s="83" t="s">
@@ -8172,11 +9506,11 @@
         <v>2</v>
       </c>
       <c r="E6" s="68">
-        <f>SUM(G6:R6)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F6" s="84">
-        <f>ROUND(AVERAGE(G6:R6),1)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="K6" s="83" t="s">
@@ -8206,11 +9540,11 @@
         <v>5</v>
       </c>
       <c r="E7" s="68">
-        <f>SUM(G7:R7)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="F7" s="84">
-        <f>ROUND(AVERAGE(G7:R7),1)</f>
+        <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
       <c r="G7" s="83">
@@ -8225,10 +9559,10 @@
       <c r="J7" s="84">
         <v>2</v>
       </c>
-      <c r="K7" s="94">
-        <v>2</v>
-      </c>
-      <c r="L7" s="94">
+      <c r="K7" s="68">
+        <v>2</v>
+      </c>
+      <c r="L7" s="68">
         <v>3</v>
       </c>
       <c r="O7" s="83">
@@ -8258,11 +9592,11 @@
         <v>4</v>
       </c>
       <c r="E8" s="68">
-        <f>SUM(G8:R8)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F8" s="84">
-        <f>ROUND(AVERAGE(G8:R8),1)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="I8" s="83">
@@ -8304,11 +9638,11 @@
         <v>6</v>
       </c>
       <c r="E9" s="68">
-        <f>SUM(G9:R9)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="F9" s="84">
-        <f>ROUND(AVERAGE(G9:R9),1)</f>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="G9" s="83">
@@ -8362,11 +9696,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="68">
-        <f>SUM(G10:R10)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F10" s="84">
-        <f>ROUND(AVERAGE(G10:R10),1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I10" s="83">
@@ -8375,8 +9709,8 @@
       <c r="J10" s="84">
         <v>3</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
       <c r="M10" s="83">
         <v>3</v>
       </c>
@@ -8410,11 +9744,11 @@
         <v>4</v>
       </c>
       <c r="E11" s="68">
-        <f>SUM(G11:R11)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F11" s="84">
-        <f>ROUND(AVERAGE(G11:R11),1)</f>
+        <f t="shared" si="1"/>
         <v>2.9</v>
       </c>
       <c r="G11" s="83">
@@ -8456,11 +9790,11 @@
         <v>2</v>
       </c>
       <c r="E12" s="68">
-        <f>SUM(G12:R12)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F12" s="84">
-        <f>ROUND(AVERAGE(G12:R12),1)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="O12" s="83">
@@ -8490,11 +9824,11 @@
         <v>5</v>
       </c>
       <c r="E13" s="68">
-        <f>SUM(G13:R13)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F13" s="84">
-        <f>ROUND(AVERAGE(G13:R13),1)</f>
+        <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
       <c r="G13" s="83">
@@ -8542,11 +9876,11 @@
         <v>6</v>
       </c>
       <c r="E14" s="68">
-        <f>SUM(G14:R14)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="F14" s="84">
-        <f>ROUND(AVERAGE(G14:R14),1)</f>
+        <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
       <c r="G14" s="83">
@@ -8600,11 +9934,11 @@
         <v>3</v>
       </c>
       <c r="E15" s="68">
-        <f>SUM(G15:R15)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F15" s="84">
-        <f>ROUND(AVERAGE(G15:R15),1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K15" s="83">
@@ -8640,11 +9974,11 @@
         <v>1</v>
       </c>
       <c r="E16" s="68">
-        <f>SUM(G16:R16)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F16" s="84">
-        <f>ROUND(AVERAGE(G16:R16),1)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="Q16" s="4">
@@ -8654,7 +9988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="79" t="s">
         <v>172</v>
       </c>
@@ -8668,11 +10002,11 @@
         <v>3</v>
       </c>
       <c r="E17" s="68">
-        <f>SUM(G17:R17)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F17" s="84">
-        <f>ROUND(AVERAGE(G17:R17),1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K17" s="83" t="s">
@@ -8694,7 +10028,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="79" t="s">
         <v>176</v>
       </c>
@@ -8708,11 +10042,11 @@
         <v>6</v>
       </c>
       <c r="E18" s="68">
-        <f>SUM(G18:R18)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F18" s="84">
-        <f>ROUND(AVERAGE(G18:R18),1)</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="G18" s="83">
@@ -8752,7 +10086,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>47</v>
       </c>
@@ -8766,11 +10100,11 @@
         <v>3</v>
       </c>
       <c r="E19" s="68">
-        <f>SUM(G19:R19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F19" s="84">
-        <f>ROUND(AVERAGE(G19:R19),1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K19" s="68">
@@ -8792,7 +10126,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="79" t="s">
         <v>199</v>
       </c>
@@ -8806,11 +10140,11 @@
         <v>1</v>
       </c>
       <c r="E20" s="68">
-        <f>SUM(G20:R20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="84" t="e">
-        <f>ROUND(AVERAGE(G20:R20),1)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q20" s="4" t="s">
@@ -8820,7 +10154,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="79" t="s">
         <v>202</v>
       </c>
@@ -8834,11 +10168,11 @@
         <v>1</v>
       </c>
       <c r="E21" s="68">
-        <f>SUM(G21:R21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="84" t="e">
-        <f>ROUND(AVERAGE(G21:R21),1)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="5" t="s">
@@ -8847,9 +10181,8 @@
       <c r="R21" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="T21" s="95"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
         <v>170</v>
       </c>
@@ -8863,11 +10196,11 @@
         <v>2</v>
       </c>
       <c r="E22" s="68">
-        <f>SUM(G23:Z23)</f>
+        <f t="shared" ref="E22:E27" si="2">SUM(G23:Z23)</f>
         <v>16</v>
       </c>
       <c r="F22" s="84">
-        <f>ROUND(AVERAGE(G23:Z23),1)</f>
+        <f t="shared" ref="F22:F27" si="3">ROUND(AVERAGE(G23:Z23),1)</f>
         <v>2</v>
       </c>
       <c r="I22" s="83">
@@ -8883,7 +10216,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
         <v>60</v>
       </c>
@@ -8897,11 +10230,11 @@
         <v>4</v>
       </c>
       <c r="E23" s="68">
-        <f>SUM(G24:Z24)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="F23" s="84">
-        <f>ROUND(AVERAGE(G24:Z24),1)</f>
+        <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
       <c r="G23" s="83">
@@ -8928,10 +10261,10 @@
       <c r="P23" s="84">
         <v>3</v>
       </c>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
         <v>59</v>
       </c>
@@ -8945,11 +10278,11 @@
         <v>3</v>
       </c>
       <c r="E24" s="68">
-        <f>SUM(G25:Z25)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F24" s="84">
-        <f>ROUND(AVERAGE(G25:Z25),1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G24" s="83">
@@ -8971,7 +10304,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
         <v>173</v>
       </c>
@@ -8985,11 +10318,11 @@
         <v>4</v>
       </c>
       <c r="E25" s="68">
-        <f>SUM(G26:Z26)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F25" s="84">
-        <f>ROUND(AVERAGE(G26:Z26),1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G25" s="83">
@@ -9017,7 +10350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="79" t="s">
         <v>43</v>
       </c>
@@ -9031,11 +10364,11 @@
         <v>2</v>
       </c>
       <c r="E26" s="68">
-        <f>SUM(G27:Z27)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F26" s="84">
-        <f>ROUND(AVERAGE(G27:Z27),1)</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G26" s="83" t="s">
@@ -9044,8 +10377,8 @@
       <c r="H26" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
       <c r="O26" s="83">
         <v>3</v>
       </c>
@@ -9053,7 +10386,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="79" t="s">
         <v>61</v>
       </c>
@@ -9067,11 +10400,11 @@
         <v>1</v>
       </c>
       <c r="E27" s="68">
-        <f>SUM(G28:Z28)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F27" s="84">
-        <f>ROUND(AVERAGE(G28:Z28),1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I27" s="83">
@@ -9080,10 +10413,10 @@
       <c r="J27" s="84">
         <v>1</v>
       </c>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>179</v>
       </c>
@@ -9111,7 +10444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="79" t="s">
         <v>181</v>
       </c>
@@ -9132,10 +10465,10 @@
         <f>ROUND(AVERAGE(G32:Z32),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="79" t="s">
         <v>182</v>
       </c>
@@ -9157,7 +10490,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="79" t="s">
         <v>183</v>
       </c>
@@ -9179,7 +10512,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="79" t="s">
         <v>16</v>
       </c>
@@ -9200,8 +10533,8 @@
         <f>ROUND(AVERAGE(G37:Z37),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="79" t="s">
@@ -9260,8 +10593,8 @@
         <f>ROUND(AVERAGE(G39:Z39),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="79" t="s">
@@ -9284,10 +10617,10 @@
         <f>ROUND(AVERAGE(G41:Z41),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="79" t="s">
@@ -9350,8 +10683,8 @@
         <f>ROUND(AVERAGE(G45:Z45),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="94"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
@@ -9549,8 +10882,8 @@
       <c r="E48" s="68">
         <v>0</v>
       </c>
-      <c r="Q48" s="94"/>
-      <c r="R48" s="94"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="68"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="79" t="s">
@@ -9602,8 +10935,8 @@
       <c r="E51" s="68">
         <v>0</v>
       </c>
-      <c r="Q51" s="94"/>
-      <c r="R51" s="94"/>
+      <c r="Q51" s="68"/>
+      <c r="R51" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9613,7 +10946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDF831FD-C771-442B-9BD8-2C05884E0EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC889A8F-D5CF-4689-A681-BAC563C3417E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="avv" sheetId="3" r:id="rId4"/>
     <sheet name="partecipanti" sheetId="4" r:id="rId5"/>
     <sheet name="wars" sheetId="5" r:id="rId6"/>
-    <sheet name="inatttivi" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="217">
   <si>
     <t>nome</t>
   </si>
@@ -651,21 +650,6 @@
     <t>omar</t>
   </si>
   <si>
-    <t>Alaa</t>
-  </si>
-  <si>
-    <t>Matty7_</t>
-  </si>
-  <si>
-    <t>P.E.K.K.A</t>
-  </si>
-  <si>
-    <t>shark</t>
-  </si>
-  <si>
-    <t>Sub.WayGud</t>
-  </si>
-  <si>
     <t>subohm</t>
   </si>
   <si>
@@ -691,6 +675,21 @@
   </si>
   <si>
     <t xml:space="preserve">BigMc23  </t>
+  </si>
+  <si>
+    <t>danielpica</t>
+  </si>
+  <si>
+    <t>loris</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>NO SONDAGGIO</t>
+  </si>
+  <si>
+    <t>inserito dopo</t>
   </si>
 </sst>
 </file>
@@ -728,7 +727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -817,6 +816,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -970,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1225,22 +1236,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1250,22 +1252,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1733,7 +1784,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella2" displayName="Tabella2" ref="A1:CI51" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
   <autoFilter ref="A1:CI51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CI51">
-    <sortCondition ref="Q1:Q51"/>
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <tableColumns count="87">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NAME" dataDxfId="86"/>
@@ -1744,7 +1795,7 @@
       <calculatedColumnFormula>SUM(G2:M2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="AVG STAR" dataDxfId="81">
-      <calculatedColumnFormula>AVERAGE(G2:M2)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUND(AVERAGE(G2:Z2),1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="WAR-1 (1)" dataDxfId="80"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="WAR-1 (2)" dataDxfId="79"/>
@@ -4179,41 +4230,41 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="61"/>
-      <c r="C1" s="91">
-        <v>1</v>
-      </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="91">
-        <v>2</v>
-      </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="91">
-        <v>3</v>
-      </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="91">
+      <c r="C1" s="88">
+        <v>1</v>
+      </c>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="88">
+        <v>2</v>
+      </c>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="88">
+        <v>3</v>
+      </c>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="88">
         <v>4</v>
       </c>
-      <c r="M1" s="92"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="91">
+      <c r="M1" s="89"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="88">
         <v>5</v>
       </c>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="91">
+      <c r="P1" s="89"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="88">
         <v>6</v>
       </c>
-      <c r="S1" s="92"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="91">
+      <c r="S1" s="89"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="88">
         <v>7</v>
       </c>
-      <c r="V1" s="92"/>
-      <c r="W1" s="93"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="90"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -6372,62 +6423,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A82F9B-DDA5-453E-AF76-85C4D400084F}">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="102" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="91">
-        <v>1</v>
-      </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="91">
-        <v>2</v>
-      </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="91">
-        <v>3</v>
-      </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="91">
+      <c r="C1" s="88">
+        <v>1</v>
+      </c>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="88">
+        <v>2</v>
+      </c>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="88">
+        <v>3</v>
+      </c>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="88">
         <v>4</v>
       </c>
-      <c r="M1" s="92"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="91">
+      <c r="M1" s="89"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="88">
         <v>5</v>
       </c>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="91">
+      <c r="P1" s="89"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="88">
         <v>6</v>
       </c>
-      <c r="S1" s="92"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="91">
+      <c r="S1" s="89"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="88">
         <v>7</v>
       </c>
-      <c r="V1" s="92"/>
-      <c r="W1" s="93"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="90"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
-      <c r="B2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="36" t="s">
@@ -6495,875 +6546,979 @@
       <c r="A3" s="39">
         <v>16</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="97"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="39">
+        <v>0</v>
+      </c>
+      <c r="E3" s="41">
+        <v>2</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="41"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>15</v>
       </c>
-      <c r="B4" s="96" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="97"/>
+      <c r="B4" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="92"/>
+      <c r="D4" s="39">
+        <v>1</v>
+      </c>
+      <c r="E4" s="41">
+        <v>2</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="41"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>14</v>
       </c>
-      <c r="B5" s="96" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="97"/>
+      <c r="B5" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="92"/>
+      <c r="D5" s="39">
+        <v>0</v>
+      </c>
+      <c r="E5" s="41">
+        <v>2</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="41"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>14</v>
       </c>
-      <c r="B6" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="97"/>
+      <c r="B6" s="100" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="39">
+        <v>0</v>
+      </c>
+      <c r="E6" s="41">
+        <v>2</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="41"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>13</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="97"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="39">
+        <v>0</v>
+      </c>
+      <c r="E7" s="41">
+        <v>3</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="41"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>13</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="97"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="39">
+        <v>0</v>
+      </c>
+      <c r="E8" s="41">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="41"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>13</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="97"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="39">
+        <v>0</v>
+      </c>
+      <c r="E9" s="41">
+        <v>3</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="41"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>13</v>
       </c>
-      <c r="B10" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="97"/>
+      <c r="B10" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="92"/>
+      <c r="D10" s="39">
+        <v>0</v>
+      </c>
+      <c r="E10" s="41">
+        <v>3</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="41"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>13</v>
       </c>
-      <c r="B11" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="97"/>
+      <c r="B11" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="39">
+        <v>0</v>
+      </c>
+      <c r="E11" s="41">
+        <v>3</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="41"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>13</v>
       </c>
-      <c r="B12" s="96" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="97"/>
+      <c r="B12" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="92"/>
+      <c r="D12" s="39">
+        <v>0</v>
+      </c>
+      <c r="E12" s="41">
+        <v>3</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="41"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>13</v>
       </c>
-      <c r="B13" s="96" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="97"/>
+      <c r="B13" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="41"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>13</v>
       </c>
-      <c r="B14" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="97"/>
+      <c r="B14" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="92"/>
+      <c r="D14" s="114">
+        <v>0</v>
+      </c>
+      <c r="E14" s="41">
+        <v>3</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="41"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="97"/>
+      <c r="B15" s="100" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="92"/>
+      <c r="D15" s="39">
+        <v>0</v>
+      </c>
+      <c r="E15" s="41">
+        <v>3</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="41"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>13</v>
       </c>
-      <c r="B16" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="97"/>
+      <c r="B16" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="39">
+        <v>0</v>
+      </c>
+      <c r="E16" s="41">
+        <v>3</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="41"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>13</v>
       </c>
-      <c r="B17" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="97"/>
+      <c r="B17" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="41"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>13</v>
       </c>
-      <c r="B18" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="97"/>
+      <c r="B18" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="92"/>
+      <c r="D18" s="39">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="41">
+        <v>3</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="41"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>13</v>
       </c>
-      <c r="B19" s="96" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="97"/>
+      <c r="B19" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="D19" s="39">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="41">
+        <v>2</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="41"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>13</v>
       </c>
-      <c r="B20" s="96" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="97"/>
+      <c r="B20" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="92"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="41"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
-        <v>12</v>
-      </c>
-      <c r="B21" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="97"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="92"/>
+      <c r="D21" s="39">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="41">
+        <v>3</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="41"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>12</v>
       </c>
-      <c r="B22" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="97"/>
+      <c r="B22" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="92"/>
+      <c r="D22" s="39">
+        <v>0</v>
+      </c>
+      <c r="E22" s="41">
+        <v>3</v>
+      </c>
+      <c r="F22" s="87"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="41"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>12</v>
       </c>
-      <c r="B23" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="99"/>
+      <c r="B23" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="92"/>
+      <c r="D23" s="39">
+        <v>0</v>
+      </c>
+      <c r="E23" s="41">
+        <v>3</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="41"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>12</v>
       </c>
-      <c r="B24" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="97"/>
+      <c r="B24" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="92"/>
+      <c r="D24" s="39">
+        <v>0</v>
+      </c>
+      <c r="E24" s="41">
+        <v>3</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="42"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>12</v>
       </c>
-      <c r="B25" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="97"/>
+      <c r="B25" s="100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="92"/>
+      <c r="D25" s="39">
+        <v>0</v>
+      </c>
+      <c r="E25" s="41">
+        <v>2</v>
+      </c>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="41"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>12</v>
       </c>
-      <c r="B26" s="96" t="s">
-        <v>187</v>
-      </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="97"/>
+      <c r="B26" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="92"/>
+      <c r="D26" s="39">
+        <v>0</v>
+      </c>
+      <c r="E26" s="41">
+        <v>2</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="41"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>12</v>
       </c>
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="97"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="39">
+        <v>0</v>
+      </c>
+      <c r="E27" s="41">
+        <v>3</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="41"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>12</v>
       </c>
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="97"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="39">
+        <v>0</v>
+      </c>
+      <c r="E28" s="41">
+        <v>3</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="41"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>12</v>
       </c>
-      <c r="B29" s="96" t="s">
+      <c r="B29" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="97"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="39">
+        <v>0</v>
+      </c>
+      <c r="E29" s="41">
+        <v>3</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="41"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>12</v>
       </c>
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="97"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="39">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="41">
+        <v>3</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="41"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>12</v>
       </c>
-      <c r="B31" s="96" t="s">
+      <c r="B31" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="100"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="39">
+        <v>-3</v>
+      </c>
+      <c r="E31" s="41">
+        <v>3</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="77"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
         <v>10</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="97"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="41"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
@@ -7387,8 +7542,8 @@
       <c r="W33" s="43"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
@@ -7412,37 +7567,43 @@
       <c r="W34" s="43"/>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
+      <c r="A35" s="39">
+        <v>13</v>
+      </c>
+      <c r="B35" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="92">
+        <v>-17</v>
+      </c>
+      <c r="D35" s="50">
+        <v>-4</v>
+      </c>
+      <c r="E35" s="41">
+        <v>3</v>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="41"/>
     </row>
     <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
-      <c r="B36" s="45" t="s">
-        <v>38</v>
-      </c>
+      <c r="A36" s="72"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -7466,9 +7627,9 @@
       <c r="W36" s="43"/>
     </row>
     <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
-      <c r="B37" s="45" t="s">
-        <v>39</v>
+      <c r="A37" s="93"/>
+      <c r="B37" s="101" t="s">
+        <v>37</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
@@ -7493,9 +7654,9 @@
       <c r="W37" s="43"/>
     </row>
     <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="48"/>
-      <c r="B38" s="45" t="s">
-        <v>54</v>
+      <c r="A38" s="94"/>
+      <c r="B38" s="101" t="s">
+        <v>38</v>
       </c>
       <c r="C38" s="43"/>
       <c r="D38" s="43"/>
@@ -7520,9 +7681,9 @@
       <c r="W38" s="43"/>
     </row>
     <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
-      <c r="B39" s="45" t="s">
-        <v>55</v>
+      <c r="A39" s="95"/>
+      <c r="B39" s="101" t="s">
+        <v>39</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
@@ -7547,9 +7708,9 @@
       <c r="W39" s="43"/>
     </row>
     <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="71"/>
-      <c r="B40" s="45" t="s">
-        <v>56</v>
+      <c r="A40" s="96"/>
+      <c r="B40" s="101" t="s">
+        <v>54</v>
       </c>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
@@ -7572,6 +7733,114 @@
       <c r="U40" s="73"/>
       <c r="V40" s="43"/>
       <c r="W40" s="43"/>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="97"/>
+      <c r="B41" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="98"/>
+      <c r="B42" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="108"/>
+      <c r="B43" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="112"/>
+      <c r="B44" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8332,16 +8601,16 @@
       <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="93"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8355,8 +8624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8369,13 +8638,10 @@
         <v>4</v>
       </c>
       <c r="R1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S1" t="s">
         <v>61</v>
-      </c>
-      <c r="W1" s="88" t="s">
-        <v>193</v>
       </c>
       <c r="X1" s="79" t="s">
         <v>196</v>
@@ -8389,13 +8655,10 @@
         <v>41</v>
       </c>
       <c r="R2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S2" t="s">
         <v>7</v>
-      </c>
-      <c r="W2" s="79" t="s">
-        <v>194</v>
       </c>
       <c r="X2" t="s">
         <v>44</v>
@@ -8415,13 +8678,16 @@
         <v>8</v>
       </c>
       <c r="R3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S3" t="s">
         <v>81</v>
       </c>
-      <c r="W3" s="88" t="s">
+      <c r="W3" s="85" t="s">
         <v>179</v>
+      </c>
+      <c r="X3" s="79" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -8441,7 +8707,7 @@
         <v>60</v>
       </c>
       <c r="R4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S4" t="s">
         <v>27</v>
@@ -8467,12 +8733,12 @@
         <v>62</v>
       </c>
       <c r="R5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S5" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="88" t="s">
+      <c r="W5" s="85" t="s">
         <v>182</v>
       </c>
     </row>
@@ -8493,12 +8759,12 @@
         <v>64</v>
       </c>
       <c r="R6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S6" t="s">
         <v>77</v>
       </c>
-      <c r="W6" s="88" t="s">
+      <c r="W6" s="85" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8516,12 +8782,12 @@
         <v>65</v>
       </c>
       <c r="R7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S7" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="88" t="s">
+      <c r="W7" s="85" t="s">
         <v>199</v>
       </c>
     </row>
@@ -8533,7 +8799,7 @@
         <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S8" t="s">
         <v>17</v>
@@ -8556,7 +8822,7 @@
         <v>66</v>
       </c>
       <c r="R9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S9" t="s">
         <v>73</v>
@@ -8573,7 +8839,7 @@
         <v>11</v>
       </c>
       <c r="R10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S10" t="s">
         <v>72</v>
@@ -8596,12 +8862,12 @@
         <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S11" t="s">
         <v>76</v>
       </c>
-      <c r="W11" s="88" t="s">
+      <c r="W11" s="85" t="s">
         <v>186</v>
       </c>
     </row>
@@ -8619,12 +8885,12 @@
         <v>69</v>
       </c>
       <c r="R12" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S12" t="s">
         <v>59</v>
       </c>
-      <c r="W12" s="88" t="s">
+      <c r="W12" s="85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8642,7 +8908,7 @@
         <v>71</v>
       </c>
       <c r="R13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S13" t="s">
         <v>79</v>
@@ -8665,12 +8931,12 @@
         <v>19</v>
       </c>
       <c r="R14" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S14" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="88" t="s">
+      <c r="W14" s="85" t="s">
         <v>191</v>
       </c>
     </row>
@@ -8688,12 +8954,12 @@
         <v>75</v>
       </c>
       <c r="R15" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S15" t="s">
         <v>45</v>
       </c>
-      <c r="W15" s="88" t="s">
+      <c r="W15" s="85" t="s">
         <v>187</v>
       </c>
     </row>
@@ -8705,7 +8971,7 @@
         <v>14</v>
       </c>
       <c r="R16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S16" t="s">
         <v>67</v>
@@ -8728,12 +8994,12 @@
         <v>78</v>
       </c>
       <c r="R17" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S17" t="s">
         <v>22</v>
       </c>
-      <c r="W17" s="88" t="s">
+      <c r="W17" s="85" t="s">
         <v>189</v>
       </c>
     </row>
@@ -8751,12 +9017,14 @@
         <v>29</v>
       </c>
       <c r="R18" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S18" t="s">
         <v>68</v>
       </c>
-      <c r="W18" s="79"/>
+      <c r="W18" s="79" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -8772,11 +9040,14 @@
         <v>34</v>
       </c>
       <c r="R19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S19" t="s">
         <v>80</v>
       </c>
+      <c r="W19" s="85" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -8786,10 +9057,10 @@
         <v>43</v>
       </c>
       <c r="R20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="W20" s="79"/>
     </row>
@@ -8801,12 +9072,12 @@
         <v>50</v>
       </c>
       <c r="R21" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S21" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="88"/>
+      <c r="W21" s="85"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -8816,7 +9087,7 @@
         <v>53</v>
       </c>
       <c r="R22" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S22" t="s">
         <v>58</v>
@@ -8831,7 +9102,7 @@
         <v>48</v>
       </c>
       <c r="R23" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S23" t="s">
         <v>82</v>
@@ -8846,10 +9117,10 @@
         <v>36</v>
       </c>
       <c r="R24" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S24" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="W24" s="79"/>
     </row>
@@ -8861,12 +9132,12 @@
         <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S25" t="s">
         <v>43</v>
       </c>
-      <c r="W25" s="88"/>
+      <c r="W25" s="85"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -8876,12 +9147,12 @@
         <v>28</v>
       </c>
       <c r="R26" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S26" t="s">
-        <v>211</v>
-      </c>
-      <c r="W26" s="88"/>
+        <v>206</v>
+      </c>
+      <c r="W26" s="85"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -8891,12 +9162,12 @@
         <v>51</v>
       </c>
       <c r="R27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S27" t="s">
         <v>47</v>
       </c>
-      <c r="W27" s="88"/>
+      <c r="W27" s="85"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -8906,12 +9177,12 @@
         <v>16</v>
       </c>
       <c r="R28" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S28" t="s">
-        <v>212</v>
-      </c>
-      <c r="W28" s="88"/>
+        <v>207</v>
+      </c>
+      <c r="W28" s="85"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -8920,6 +9191,12 @@
       <c r="B29" t="s">
         <v>24</v>
       </c>
+      <c r="R29" t="s">
+        <v>214</v>
+      </c>
+      <c r="S29" s="85" t="s">
+        <v>193</v>
+      </c>
       <c r="W29" s="79"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -8929,16 +9206,16 @@
       <c r="W31" s="79"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W32" s="88"/>
+      <c r="W32" s="85"/>
     </row>
     <row r="33" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W33" s="88"/>
+      <c r="W33" s="85"/>
     </row>
     <row r="34" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W34" s="79"/>
     </row>
     <row r="35" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W35" s="88"/>
+      <c r="W35" s="85"/>
     </row>
     <row r="36" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W36" s="79"/>
@@ -8947,7 +9224,7 @@
       <c r="W37" s="79"/>
     </row>
     <row r="38" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W38" s="88"/>
+      <c r="W38" s="85"/>
     </row>
     <row r="39" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W39" s="79"/>
@@ -8956,31 +9233,31 @@
       <c r="W40" s="79"/>
     </row>
     <row r="41" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W41" s="88"/>
+      <c r="W41" s="85"/>
     </row>
     <row r="42" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W42" s="79"/>
     </row>
     <row r="43" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W43" s="88"/>
+      <c r="W43" s="85"/>
     </row>
     <row r="44" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W44" s="79"/>
     </row>
     <row r="45" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W45" s="88"/>
+      <c r="W45" s="85"/>
     </row>
     <row r="46" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W46" s="88"/>
+      <c r="W46" s="85"/>
     </row>
     <row r="47" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W47" s="79"/>
     </row>
     <row r="48" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W48" s="88"/>
+      <c r="W48" s="85"/>
     </row>
     <row r="49" spans="23:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W49" s="90"/>
+      <c r="W49" s="86"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W1:W51">
@@ -8994,8 +9271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CI51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9292,7 +9569,7 @@
     </row>
     <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B2" s="83">
         <v>0</v>
@@ -9301,102 +9578,52 @@
         <v>0</v>
       </c>
       <c r="D2" s="83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="68">
-        <f t="shared" ref="E2:E21" si="0">SUM(G2:R2)</f>
-        <v>21</v>
-      </c>
-      <c r="F2" s="84">
-        <f t="shared" ref="F2:F21" si="1">ROUND(AVERAGE(G2:R2),1)</f>
-        <v>1.8</v>
-      </c>
-      <c r="G2" s="83">
-        <v>2</v>
-      </c>
-      <c r="H2" s="84">
-        <v>3</v>
-      </c>
-      <c r="I2" s="83">
-        <v>1</v>
-      </c>
-      <c r="J2" s="84">
-        <v>1</v>
-      </c>
-      <c r="K2" s="68">
-        <v>3</v>
-      </c>
-      <c r="L2" s="68">
-        <v>2</v>
-      </c>
-      <c r="M2" s="83">
-        <v>1</v>
-      </c>
-      <c r="N2" s="84">
-        <v>2</v>
-      </c>
-      <c r="O2" s="83">
-        <v>1</v>
-      </c>
-      <c r="P2" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6">
-        <v>3</v>
-      </c>
+        <f t="shared" ref="E2:E4" si="0">SUM(G2:R2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="84" t="e">
+        <f>ROUND(AVERAGE(G2:Z2),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B3" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="84">
         <v>0</v>
       </c>
       <c r="D3" s="83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="68">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F3" s="84">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
+        <f>ROUND(AVERAGE(G3:Z3),1)</f>
+        <v>1.5</v>
       </c>
       <c r="I3" s="83">
         <v>2</v>
       </c>
-      <c r="J3" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="M3" s="83">
-        <v>3</v>
-      </c>
-      <c r="N3" s="84">
-        <v>1</v>
-      </c>
-      <c r="O3" s="83">
-        <v>3</v>
-      </c>
-      <c r="P3" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>2</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="J3" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
     </row>
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="B4" s="83">
         <v>0</v>
@@ -9405,820 +9632,620 @@
         <v>0</v>
       </c>
       <c r="D4" s="83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" s="68">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="84" t="e">
+        <f t="shared" ref="F4:F51" si="1">ROUND(AVERAGE(G4:Z4),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+    </row>
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="83">
+        <v>2</v>
+      </c>
+      <c r="C5" s="84">
+        <v>1</v>
+      </c>
+      <c r="D5" s="83">
+        <v>6</v>
+      </c>
+      <c r="E5" s="68">
+        <f>SUM(G5:R5)</f>
+        <v>8</v>
+      </c>
+      <c r="F5" s="84">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="83">
+        <v>2</v>
+      </c>
+      <c r="H5" s="84">
+        <v>1</v>
+      </c>
+      <c r="I5" s="83">
+        <v>0</v>
+      </c>
+      <c r="J5" s="84">
+        <v>0</v>
+      </c>
+      <c r="K5" s="83">
+        <v>2</v>
+      </c>
+      <c r="L5" s="84">
+        <v>1</v>
+      </c>
+      <c r="M5" s="83">
+        <v>1</v>
+      </c>
+      <c r="N5" s="84">
+        <v>0</v>
+      </c>
+      <c r="O5" s="83">
+        <v>1</v>
+      </c>
+      <c r="P5" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="83">
+        <v>0</v>
+      </c>
+      <c r="C6" s="84">
+        <v>0</v>
+      </c>
+      <c r="D6" s="83">
+        <v>1</v>
+      </c>
+      <c r="E6" s="68">
+        <f t="shared" ref="E6:E51" si="2">SUM(G6:R6)</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="83">
+        <v>3</v>
+      </c>
+      <c r="H6" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+    </row>
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="83">
+        <v>0</v>
+      </c>
+      <c r="C7" s="84">
+        <v>0</v>
+      </c>
+      <c r="D7" s="83">
+        <v>3</v>
+      </c>
+      <c r="E7" s="68">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K7" s="68">
+        <v>3</v>
+      </c>
+      <c r="L7" s="68">
+        <v>3</v>
+      </c>
+      <c r="M7" s="83">
+        <v>3</v>
+      </c>
+      <c r="N7" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>3</v>
+      </c>
+      <c r="R7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="83">
+        <v>0</v>
+      </c>
+      <c r="C8" s="84">
+        <v>0</v>
+      </c>
+      <c r="D8" s="83">
+        <v>0</v>
+      </c>
+      <c r="E8" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+    </row>
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="83">
+        <v>0</v>
+      </c>
+      <c r="C9" s="84">
+        <v>0</v>
+      </c>
+      <c r="D9" s="83">
+        <v>0</v>
+      </c>
+      <c r="E9" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+    </row>
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="83">
+        <v>0</v>
+      </c>
+      <c r="C10" s="84">
+        <v>0</v>
+      </c>
+      <c r="D10" s="83">
+        <v>5</v>
+      </c>
+      <c r="E10" s="68">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="F10" s="84">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="G10" s="83">
+        <v>3</v>
+      </c>
+      <c r="H10" s="84">
+        <v>3</v>
+      </c>
+      <c r="I10" s="83">
+        <v>3</v>
+      </c>
+      <c r="J10" s="84">
+        <v>2</v>
+      </c>
+      <c r="K10" s="68">
+        <v>2</v>
+      </c>
+      <c r="L10" s="68">
+        <v>3</v>
+      </c>
+      <c r="O10" s="83">
+        <v>3</v>
+      </c>
+      <c r="P10" s="84">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>3</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="83">
+        <v>0</v>
+      </c>
+      <c r="C11" s="84">
+        <v>0</v>
+      </c>
+      <c r="D11" s="83">
+        <v>0</v>
+      </c>
+      <c r="E11" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="83">
+        <v>3</v>
+      </c>
+      <c r="C12" s="84">
+        <v>1</v>
+      </c>
+      <c r="D12" s="83">
+        <v>2</v>
+      </c>
+      <c r="E12" s="68">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F12" s="84">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I12" s="83">
+        <v>2</v>
+      </c>
+      <c r="J12" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="O12" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="P12" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+    </row>
+    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A13" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="83">
+        <v>2</v>
+      </c>
+      <c r="C13" s="84">
+        <v>1</v>
+      </c>
+      <c r="D13" s="83">
+        <v>1</v>
+      </c>
+      <c r="E13" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A14" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="83">
+        <v>0</v>
+      </c>
+      <c r="C14" s="84">
+        <v>0</v>
+      </c>
+      <c r="D14" s="83">
+        <v>0</v>
+      </c>
+      <c r="E14" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+    </row>
+    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A15" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="83">
+        <v>0</v>
+      </c>
+      <c r="C15" s="84">
+        <v>0</v>
+      </c>
+      <c r="D15" s="83">
+        <v>1</v>
+      </c>
+      <c r="E15" s="68">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F15" s="84">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>3</v>
+      </c>
+      <c r="R15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A16" s="79" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="83">
+        <v>0</v>
+      </c>
+      <c r="C16" s="84">
+        <v>0</v>
+      </c>
+      <c r="D16" s="83">
+        <v>0</v>
+      </c>
+      <c r="E16" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="83">
+        <v>0</v>
+      </c>
+      <c r="C17" s="84">
+        <v>0</v>
+      </c>
+      <c r="D17" s="83">
+        <v>4</v>
+      </c>
+      <c r="E17" s="68">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F17" s="84">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="83">
+        <v>1</v>
+      </c>
+      <c r="H17" s="84">
+        <v>2</v>
+      </c>
+      <c r="I17" s="83">
+        <v>1</v>
+      </c>
+      <c r="J17" s="84">
+        <v>3</v>
+      </c>
+      <c r="M17" s="83">
+        <v>0</v>
+      </c>
+      <c r="N17" s="84">
+        <v>3</v>
+      </c>
+      <c r="O17" s="83">
+        <v>3</v>
+      </c>
+      <c r="P17" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="83">
+        <v>0</v>
+      </c>
+      <c r="C18" s="84">
+        <v>0</v>
+      </c>
+      <c r="D18" s="83">
+        <v>0</v>
+      </c>
+      <c r="E18" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="83">
+        <v>0</v>
+      </c>
+      <c r="C19" s="84">
+        <v>0</v>
+      </c>
+      <c r="D19" s="83">
+        <v>4</v>
+      </c>
+      <c r="E19" s="68">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F19" s="84">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="I19" s="83">
+        <v>3</v>
+      </c>
+      <c r="J19" s="84">
+        <v>1</v>
+      </c>
+      <c r="K19" s="68">
+        <v>3</v>
+      </c>
+      <c r="L19" s="68">
+        <v>3</v>
+      </c>
+      <c r="O19" s="83">
+        <v>3</v>
+      </c>
+      <c r="P19" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>3</v>
+      </c>
+      <c r="R19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="83">
+        <v>0</v>
+      </c>
+      <c r="C20" s="84">
+        <v>0</v>
+      </c>
+      <c r="D20" s="83">
+        <v>4</v>
+      </c>
+      <c r="E20" s="68">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="F4" s="84">
+      <c r="F20" s="84">
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="G4" s="83">
-        <v>3</v>
-      </c>
-      <c r="H4" s="84">
-        <v>3</v>
-      </c>
-      <c r="K4" s="68">
-        <v>2</v>
-      </c>
-      <c r="L4" s="68">
-        <v>2</v>
-      </c>
-      <c r="O4" s="83">
-        <v>1</v>
-      </c>
-      <c r="P4" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>2</v>
-      </c>
-      <c r="R4" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="83">
-        <v>2</v>
-      </c>
-      <c r="C5" s="84">
-        <v>1</v>
-      </c>
-      <c r="D5" s="83">
-        <v>4</v>
-      </c>
-      <c r="E5" s="68">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F5" s="84">
-        <f t="shared" si="1"/>
-        <v>1.7</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="J5" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" s="83">
-        <v>3</v>
-      </c>
-      <c r="L5" s="84">
-        <v>3</v>
-      </c>
-      <c r="M5" s="83">
-        <v>1</v>
-      </c>
-      <c r="N5" s="84">
-        <v>1</v>
-      </c>
-      <c r="O5" s="83">
-        <v>0</v>
-      </c>
-      <c r="P5" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>2</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="83">
-        <v>2</v>
-      </c>
-      <c r="C6" s="84">
-        <v>1</v>
-      </c>
-      <c r="D6" s="83">
-        <v>2</v>
-      </c>
-      <c r="E6" s="68">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F6" s="84">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="K6" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="L6" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>2</v>
-      </c>
-      <c r="R6" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="83">
-        <v>0</v>
-      </c>
-      <c r="C7" s="84">
-        <v>0</v>
-      </c>
-      <c r="D7" s="83">
-        <v>5</v>
-      </c>
-      <c r="E7" s="68">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="F7" s="84">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="G7" s="83">
-        <v>3</v>
-      </c>
-      <c r="H7" s="84">
-        <v>3</v>
-      </c>
-      <c r="I7" s="83">
-        <v>3</v>
-      </c>
-      <c r="J7" s="84">
-        <v>2</v>
-      </c>
-      <c r="K7" s="68">
-        <v>2</v>
-      </c>
-      <c r="L7" s="68">
-        <v>3</v>
-      </c>
-      <c r="O7" s="83">
-        <v>3</v>
-      </c>
-      <c r="P7" s="84">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>3</v>
-      </c>
-      <c r="R7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="83">
-        <v>0</v>
-      </c>
-      <c r="C8" s="84">
-        <v>0</v>
-      </c>
-      <c r="D8" s="83">
-        <v>4</v>
-      </c>
-      <c r="E8" s="68">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F8" s="84">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="I8" s="83">
-        <v>3</v>
-      </c>
-      <c r="J8" s="84">
-        <v>1</v>
-      </c>
-      <c r="K8" s="83">
-        <v>3</v>
-      </c>
-      <c r="L8" s="84">
-        <v>3</v>
-      </c>
-      <c r="O8" s="83">
-        <v>3</v>
-      </c>
-      <c r="P8" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>3</v>
-      </c>
-      <c r="R8" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="83">
-        <v>0</v>
-      </c>
-      <c r="C9" s="84">
-        <v>0</v>
-      </c>
-      <c r="D9" s="83">
-        <v>6</v>
-      </c>
-      <c r="E9" s="68">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="F9" s="84">
-        <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="G9" s="83">
-        <v>3</v>
-      </c>
-      <c r="H9" s="84">
-        <v>3</v>
-      </c>
-      <c r="I9" s="83">
-        <v>2</v>
-      </c>
-      <c r="J9" s="84">
-        <v>3</v>
-      </c>
-      <c r="K9" s="83">
-        <v>3</v>
-      </c>
-      <c r="L9" s="84">
-        <v>3</v>
-      </c>
-      <c r="M9" s="83">
-        <v>2</v>
-      </c>
-      <c r="N9" s="84">
-        <v>2</v>
-      </c>
-      <c r="O9" s="83">
-        <v>3</v>
-      </c>
-      <c r="P9" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>3</v>
-      </c>
-      <c r="R9" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="83">
-        <v>0</v>
-      </c>
-      <c r="C10" s="84">
-        <v>0</v>
-      </c>
-      <c r="D10" s="83">
-        <v>4</v>
-      </c>
-      <c r="E10" s="68">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="F10" s="84">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I10" s="83">
-        <v>3</v>
-      </c>
-      <c r="J10" s="84">
-        <v>3</v>
-      </c>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="83">
-        <v>3</v>
-      </c>
-      <c r="N10" s="84">
-        <v>3</v>
-      </c>
-      <c r="O10" s="83">
-        <v>3</v>
-      </c>
-      <c r="P10" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>3</v>
-      </c>
-      <c r="R10" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="83">
-        <v>0</v>
-      </c>
-      <c r="C11" s="84">
-        <v>0</v>
-      </c>
-      <c r="D11" s="83">
-        <v>4</v>
-      </c>
-      <c r="E11" s="68">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="F11" s="84">
-        <f t="shared" si="1"/>
-        <v>2.9</v>
-      </c>
-      <c r="G11" s="83">
-        <v>3</v>
-      </c>
-      <c r="H11" s="84">
-        <v>3</v>
-      </c>
-      <c r="I11" s="83">
-        <v>2</v>
-      </c>
-      <c r="J11" s="84">
-        <v>3</v>
-      </c>
-      <c r="O11" s="83">
-        <v>3</v>
-      </c>
-      <c r="P11" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>3</v>
-      </c>
-      <c r="R11" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="83">
-        <v>0</v>
-      </c>
-      <c r="C12" s="84">
-        <v>0</v>
-      </c>
-      <c r="D12" s="83">
-        <v>2</v>
-      </c>
-      <c r="E12" s="68">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F12" s="84">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="O12" s="83">
-        <v>3</v>
-      </c>
-      <c r="P12" s="84">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>3</v>
-      </c>
-      <c r="R12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="83">
-        <v>2</v>
-      </c>
-      <c r="C13" s="84">
-        <v>1</v>
-      </c>
-      <c r="D13" s="83">
-        <v>5</v>
-      </c>
-      <c r="E13" s="68">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F13" s="84">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="G13" s="83">
-        <v>2</v>
-      </c>
-      <c r="H13" s="84">
-        <v>3</v>
-      </c>
-      <c r="I13" s="83">
-        <v>2</v>
-      </c>
-      <c r="J13" s="84">
-        <v>3</v>
-      </c>
-      <c r="K13" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="L13" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="O13" s="83">
-        <v>3</v>
-      </c>
-      <c r="P13" s="84">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>3</v>
-      </c>
-      <c r="R13" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="83">
-        <v>0</v>
-      </c>
-      <c r="C14" s="84">
-        <v>0</v>
-      </c>
-      <c r="D14" s="83">
-        <v>6</v>
-      </c>
-      <c r="E14" s="68">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="F14" s="84">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="G14" s="83">
-        <v>1</v>
-      </c>
-      <c r="H14" s="84">
-        <v>3</v>
-      </c>
-      <c r="I14" s="83">
-        <v>3</v>
-      </c>
-      <c r="J14" s="84">
-        <v>3</v>
-      </c>
-      <c r="K14" s="83">
-        <v>1</v>
-      </c>
-      <c r="L14" s="84">
-        <v>3</v>
-      </c>
-      <c r="M14" s="83">
-        <v>2</v>
-      </c>
-      <c r="N14" s="84">
-        <v>3</v>
-      </c>
-      <c r="O14" s="83">
-        <v>1</v>
-      </c>
-      <c r="P14" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>3</v>
-      </c>
-      <c r="R14" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="83">
-        <v>0</v>
-      </c>
-      <c r="C15" s="84">
-        <v>0</v>
-      </c>
-      <c r="D15" s="83">
-        <v>3</v>
-      </c>
-      <c r="E15" s="68">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F15" s="84">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K15" s="83">
-        <v>3</v>
-      </c>
-      <c r="L15" s="84">
-        <v>3</v>
-      </c>
-      <c r="M15" s="83">
-        <v>3</v>
-      </c>
-      <c r="N15" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>3</v>
-      </c>
-      <c r="R15" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" s="83">
-        <v>0</v>
-      </c>
-      <c r="C16" s="84">
-        <v>0</v>
-      </c>
-      <c r="D16" s="83">
-        <v>1</v>
-      </c>
-      <c r="E16" s="68">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F16" s="84">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>3</v>
-      </c>
-      <c r="R16" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="83">
-        <v>4</v>
-      </c>
-      <c r="C17" s="84">
-        <v>2</v>
-      </c>
-      <c r="D17" s="83">
-        <v>3</v>
-      </c>
-      <c r="E17" s="68">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F17" s="84">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K17" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="L17" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="O17" s="83">
-        <v>3</v>
-      </c>
-      <c r="P17" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" s="83">
-        <v>2</v>
-      </c>
-      <c r="C18" s="84">
-        <v>1</v>
-      </c>
-      <c r="D18" s="83">
-        <v>6</v>
-      </c>
-      <c r="E18" s="68">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F18" s="84">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="G18" s="83">
-        <v>2</v>
-      </c>
-      <c r="H18" s="84">
-        <v>1</v>
-      </c>
-      <c r="I18" s="83">
-        <v>0</v>
-      </c>
-      <c r="J18" s="84">
-        <v>0</v>
-      </c>
-      <c r="K18" s="83">
-        <v>2</v>
-      </c>
-      <c r="L18" s="84">
-        <v>1</v>
-      </c>
-      <c r="M18" s="83">
-        <v>1</v>
-      </c>
-      <c r="N18" s="84">
-        <v>0</v>
-      </c>
-      <c r="O18" s="83">
-        <v>1</v>
-      </c>
-      <c r="P18" s="84">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="83">
-        <v>4</v>
-      </c>
-      <c r="C19" s="84">
-        <v>2</v>
-      </c>
-      <c r="D19" s="83">
-        <v>3</v>
-      </c>
-      <c r="E19" s="68">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F19" s="84">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K19" s="68">
-        <v>1</v>
-      </c>
-      <c r="L19" s="68">
-        <v>1</v>
-      </c>
-      <c r="M19" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="N19" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="83">
-        <v>2</v>
-      </c>
-      <c r="C20" s="84">
-        <v>1</v>
-      </c>
-      <c r="D20" s="83">
-        <v>1</v>
-      </c>
-      <c r="E20" s="68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>171</v>
+      <c r="G20" s="83">
+        <v>3</v>
+      </c>
+      <c r="H20" s="84">
+        <v>3</v>
+      </c>
+      <c r="K20" s="83">
+        <v>2</v>
+      </c>
+      <c r="L20" s="84">
+        <v>2</v>
+      </c>
+      <c r="O20" s="83">
+        <v>1</v>
+      </c>
+      <c r="P20" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>2</v>
+      </c>
+      <c r="R20" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="79" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B21" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F21" s="84" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q21" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="B22" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="84">
         <v>0</v>
       </c>
       <c r="D22" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" s="68">
-        <f t="shared" ref="E22:E27" si="2">SUM(G23:Z23)</f>
-        <v>16</v>
-      </c>
-      <c r="F22" s="84">
-        <f t="shared" ref="F22:F27" si="3">ROUND(AVERAGE(G23:Z23),1)</f>
-        <v>2</v>
-      </c>
-      <c r="I22" s="83">
-        <v>2</v>
-      </c>
-      <c r="J22" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="O22" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="P22" s="84" t="s">
-        <v>171</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="B23" s="83">
         <v>0</v>
@@ -10227,15 +10254,15 @@
         <v>0</v>
       </c>
       <c r="D23" s="83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="68">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F23" s="84">
-        <f t="shared" si="3"/>
-        <v>2.6</v>
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G23" s="83">
         <v>1</v>
@@ -10244,21 +10271,9 @@
         <v>2</v>
       </c>
       <c r="I23" s="83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="84">
-        <v>3</v>
-      </c>
-      <c r="M23" s="83">
-        <v>0</v>
-      </c>
-      <c r="N23" s="84">
-        <v>3</v>
-      </c>
-      <c r="O23" s="83">
-        <v>3</v>
-      </c>
-      <c r="P23" s="84">
         <v>3</v>
       </c>
       <c r="Q23" s="68"/>
@@ -10266,7 +10281,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="B24" s="83">
         <v>0</v>
@@ -10275,178 +10290,152 @@
         <v>0</v>
       </c>
       <c r="D24" s="83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="68">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="F24" s="84">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G24" s="83">
-        <v>3</v>
-      </c>
-      <c r="H24" s="84">
-        <v>1</v>
-      </c>
-      <c r="I24" s="83">
-        <v>3</v>
-      </c>
-      <c r="J24" s="84">
-        <v>3</v>
-      </c>
-      <c r="O24" s="83">
-        <v>3</v>
-      </c>
-      <c r="P24" s="84" t="s">
-        <v>171</v>
+        <v>0</v>
+      </c>
+      <c r="F24" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="B25" s="83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25" s="68">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F25" s="84">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G25" s="83">
-        <v>1</v>
-      </c>
-      <c r="H25" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="I25" s="83">
-        <v>1</v>
-      </c>
-      <c r="J25" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="L25" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="O25" s="83">
-        <v>3</v>
-      </c>
-      <c r="P25" s="84">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F25" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="79" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="B26" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="68">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F26" s="84">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="G26" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" s="84" t="s">
-        <v>171</v>
+        <v>0</v>
+      </c>
+      <c r="F26" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="K26" s="68"/>
       <c r="L26" s="68"/>
-      <c r="O26" s="83">
-        <v>3</v>
-      </c>
-      <c r="P26" s="84" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="79" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B27" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" s="84">
         <v>0</v>
       </c>
       <c r="D27" s="83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27" s="68">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F27" s="84">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I27" s="83">
         <v>2</v>
       </c>
-      <c r="J27" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
+      <c r="J27" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="M27" s="83">
+        <v>3</v>
+      </c>
+      <c r="N27" s="84">
+        <v>1</v>
+      </c>
+      <c r="O27" s="83">
+        <v>3</v>
+      </c>
+      <c r="P27" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>2</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="B28" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="68">
-        <f>SUM(G30:Z30)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="84" t="e">
-        <f>ROUND(AVERAGE(G30:Z30),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="83">
-        <v>3</v>
-      </c>
-      <c r="H28" s="84">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F28" s="84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G28" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="83">
+        <v>3</v>
+      </c>
+      <c r="J28" s="84">
+        <v>3</v>
+      </c>
+      <c r="K28" s="83">
+        <v>3</v>
+      </c>
+      <c r="L28" s="84">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="79" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="B29" s="83">
         <v>0</v>
@@ -10455,22 +10444,40 @@
         <v>0</v>
       </c>
       <c r="D29" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="68">
-        <f>SUM(G32:Z32)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="84" t="e">
-        <f>ROUND(AVERAGE(G32:Z32),1)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F29" s="84">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="G29" s="83">
+        <v>3</v>
+      </c>
+      <c r="H29" s="84">
+        <v>1</v>
+      </c>
+      <c r="I29" s="83">
+        <v>3</v>
+      </c>
+      <c r="J29" s="84">
+        <v>3</v>
       </c>
       <c r="K29" s="68"/>
       <c r="L29" s="68"/>
+      <c r="O29" s="83">
+        <v>3</v>
+      </c>
+      <c r="P29" s="84" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="79" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="B30" s="83">
         <v>0</v>
@@ -10482,17 +10489,17 @@
         <v>0</v>
       </c>
       <c r="E30" s="68">
-        <f>SUM(G33:Z33)</f>
-        <v>9</v>
-      </c>
-      <c r="F30" s="84">
-        <f>ROUND(AVERAGE(G33:Z33),1)</f>
-        <v>2.2999999999999998</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="79" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B31" s="83">
         <v>0</v>
@@ -10504,17 +10511,17 @@
         <v>0</v>
       </c>
       <c r="E31" s="68">
-        <f>SUM(G35:Z35)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F31" s="84" t="e">
-        <f>ROUND(AVERAGE(G35:Z35),1)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="79" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="B32" s="83">
         <v>0</v>
@@ -10526,11 +10533,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="68">
-        <f>SUM(G37:Z37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F32" s="84" t="e">
-        <f>ROUND(AVERAGE(G37:Z37),1)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="68"/>
@@ -10538,7 +10545,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="79" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B33" s="83">
         <v>0</v>
@@ -10547,58 +10554,52 @@
         <v>0</v>
       </c>
       <c r="D33" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="68">
-        <f>SUM(G38:Z38)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F33" s="84" t="e">
-        <f>ROUND(AVERAGE(G38:Z38),1)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="83">
-        <v>1</v>
-      </c>
-      <c r="H33" s="84">
-        <v>2</v>
-      </c>
-      <c r="I33" s="83">
-        <v>3</v>
-      </c>
-      <c r="J33" s="84">
-        <v>3</v>
       </c>
       <c r="K33" s="68"/>
       <c r="L33" s="68"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B34" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="68">
-        <f>SUM(G39:Z39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F34" s="84" t="e">
-        <f>ROUND(AVERAGE(G39:Z39),1)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="68"/>
       <c r="L34" s="68"/>
+      <c r="Q34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B35" s="83">
         <v>0</v>
@@ -10607,47 +10608,73 @@
         <v>0</v>
       </c>
       <c r="D35" s="83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E35" s="68">
-        <f>SUM(G41:Z41)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="84" t="e">
-        <f>ROUND(AVERAGE(G41:Z41),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="F35" s="84">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="G35" s="83">
+        <v>3</v>
+      </c>
+      <c r="H35" s="84">
+        <v>3</v>
+      </c>
+      <c r="I35" s="83">
+        <v>2</v>
+      </c>
+      <c r="J35" s="84">
+        <v>3</v>
+      </c>
+      <c r="K35" s="68">
+        <v>3</v>
+      </c>
+      <c r="L35" s="68">
+        <v>3</v>
+      </c>
+      <c r="M35" s="83">
+        <v>2</v>
+      </c>
+      <c r="N35" s="84">
+        <v>2</v>
+      </c>
+      <c r="O35" s="83">
+        <v>3</v>
+      </c>
+      <c r="P35" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>3</v>
+      </c>
+      <c r="R35" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="79" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B36" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" s="68">
-        <f>SUM(G44:Z44)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="84" t="e">
-        <f>ROUND(AVERAGE(G44:Z44),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="H36" s="84" t="s">
-        <v>171</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F36" s="84">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="I36" s="83">
         <v>3</v>
@@ -10655,62 +10682,120 @@
       <c r="J36" s="84">
         <v>3</v>
       </c>
-      <c r="K36" s="83">
-        <v>3</v>
-      </c>
-      <c r="L36" s="84">
+      <c r="M36" s="83">
+        <v>3</v>
+      </c>
+      <c r="N36" s="84">
+        <v>3</v>
+      </c>
+      <c r="O36" s="83">
+        <v>3</v>
+      </c>
+      <c r="P36" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>3</v>
+      </c>
+      <c r="R36" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="B37" s="83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C37" s="84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37" s="68">
-        <f>SUM(G45:Z45)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="84" t="e">
-        <f>ROUND(AVERAGE(G45:Z45),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F37" s="84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K37" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="L37" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="O37" s="83">
+        <v>3</v>
+      </c>
+      <c r="P37" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B38" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E38" s="68">
-        <f>SUM(G48:Z48)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="84" t="e">
-        <f>ROUND(AVERAGE(G48:Z48),1)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F38" s="84">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="I38" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="J38" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="83">
+        <v>3</v>
+      </c>
+      <c r="L38" s="84">
+        <v>3</v>
+      </c>
+      <c r="M38" s="83">
+        <v>1</v>
+      </c>
+      <c r="N38" s="84">
+        <v>1</v>
+      </c>
+      <c r="O38" s="83">
+        <v>0</v>
+      </c>
+      <c r="P38" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>2</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B39" s="83">
         <v>0</v>
@@ -10722,17 +10807,17 @@
         <v>0</v>
       </c>
       <c r="E39" s="68">
-        <f>SUM(G52:Z52)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F39" s="84" t="e">
-        <f>ROUND(AVERAGE(G52:Z52),1)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="79" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="B40" s="83">
         <v>0</v>
@@ -10741,32 +10826,102 @@
         <v>0</v>
       </c>
       <c r="D40" s="83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E40" s="68">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="F40" s="84">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="G40" s="83">
+        <v>1</v>
+      </c>
+      <c r="H40" s="84">
+        <v>3</v>
+      </c>
+      <c r="I40" s="83">
+        <v>3</v>
+      </c>
+      <c r="J40" s="84">
+        <v>3</v>
+      </c>
+      <c r="K40" s="83">
+        <v>1</v>
+      </c>
+      <c r="L40" s="84">
+        <v>3</v>
+      </c>
+      <c r="M40" s="83">
+        <v>2</v>
+      </c>
+      <c r="N40" s="84">
+        <v>3</v>
+      </c>
+      <c r="O40" s="83">
+        <v>1</v>
+      </c>
+      <c r="P40" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>3</v>
+      </c>
+      <c r="R40" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="79" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B41" s="83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C41" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E41" s="68">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F41" s="84">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G41" s="83">
+        <v>1</v>
+      </c>
+      <c r="H41" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="I41" s="83">
+        <v>1</v>
+      </c>
+      <c r="J41" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="L41" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="O41" s="83">
+        <v>3</v>
+      </c>
+      <c r="P41" s="84">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="B42" s="83">
         <v>0</v>
@@ -10775,32 +10930,84 @@
         <v>0</v>
       </c>
       <c r="D42" s="83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E42" s="68">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F42" s="84">
+        <f t="shared" si="1"/>
+        <v>2.9</v>
+      </c>
+      <c r="G42" s="83">
+        <v>3</v>
+      </c>
+      <c r="H42" s="84">
+        <v>3</v>
+      </c>
+      <c r="I42" s="83">
+        <v>2</v>
+      </c>
+      <c r="J42" s="84">
+        <v>3</v>
+      </c>
+      <c r="O42" s="83">
+        <v>3</v>
+      </c>
+      <c r="P42" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>3</v>
+      </c>
+      <c r="R42" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="79" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="B43" s="83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C43" s="84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43" s="68">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F43" s="84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="83">
+        <v>1</v>
+      </c>
+      <c r="L43" s="84">
+        <v>1</v>
+      </c>
+      <c r="M43" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="N43" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="79" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B44" s="83">
         <v>0</v>
@@ -10809,15 +11016,56 @@
         <v>0</v>
       </c>
       <c r="D44" s="83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E44" s="68">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="F44" s="84">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="G44" s="83">
+        <v>2</v>
+      </c>
+      <c r="H44" s="84">
+        <v>3</v>
+      </c>
+      <c r="I44" s="83">
+        <v>1</v>
+      </c>
+      <c r="J44" s="84">
+        <v>1</v>
+      </c>
+      <c r="K44" s="83">
+        <v>3</v>
+      </c>
+      <c r="L44" s="84">
+        <v>2</v>
+      </c>
+      <c r="M44" s="83">
+        <v>1</v>
+      </c>
+      <c r="N44" s="84">
+        <v>2</v>
+      </c>
+      <c r="O44" s="83">
+        <v>1</v>
+      </c>
+      <c r="P44" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>1</v>
+      </c>
+      <c r="R44" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="79" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B45" s="83">
         <v>0</v>
@@ -10829,12 +11077,17 @@
         <v>0</v>
       </c>
       <c r="E45" s="68">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="79" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B46" s="83">
         <v>0</v>
@@ -10843,51 +11096,118 @@
         <v>0</v>
       </c>
       <c r="D46" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46" s="68">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F46" s="84">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="O46" s="83">
+        <v>3</v>
+      </c>
+      <c r="P46" s="84">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>3</v>
+      </c>
+      <c r="R46" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="B47" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47" s="68">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F47" s="84">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="K47" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="L47" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>2</v>
+      </c>
+      <c r="R47" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="79" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B48" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="83">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E48" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="68"/>
-      <c r="R48" s="68"/>
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="F48" s="84">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="G48" s="83">
+        <v>2</v>
+      </c>
+      <c r="H48" s="84">
+        <v>3</v>
+      </c>
+      <c r="I48" s="83">
+        <v>2</v>
+      </c>
+      <c r="J48" s="84">
+        <v>3</v>
+      </c>
+      <c r="K48" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="L48" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="O48" s="83">
+        <v>3</v>
+      </c>
+      <c r="P48" s="84">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>3</v>
+      </c>
+      <c r="R48" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="79" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B49" s="83">
         <v>0</v>
@@ -10899,12 +11219,17 @@
         <v>0</v>
       </c>
       <c r="E49" s="68">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="79" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B50" s="83">
         <v>0</v>
@@ -10916,24 +11241,46 @@
         <v>0</v>
       </c>
       <c r="E50" s="68">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="84" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="79" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="B51" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C51" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E51" s="68">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F51" s="84">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G51" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="H51" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="O51" s="83">
+        <v>3</v>
+      </c>
+      <c r="P51" s="84" t="s">
+        <v>171</v>
       </c>
       <c r="Q51" s="68"/>
       <c r="R51" s="68"/>
@@ -10944,155 +11291,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="86"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="88" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="79"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
-      <c r="B11" s="88" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="88"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="79"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="88"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="88"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC889A8F-D5CF-4689-A681-BAC563C3417E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E765D1C-BAE8-4AD6-A515-E930A6F13148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="217">
   <si>
     <t>nome</t>
   </si>
@@ -727,7 +727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,6 +827,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1244,17 +1250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1283,9 +1278,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1301,9 +1293,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1313,7 +1302,18 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4230,41 +4230,41 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="61"/>
-      <c r="C1" s="88">
-        <v>1</v>
-      </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="88">
-        <v>2</v>
-      </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="88">
-        <v>3</v>
-      </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="88">
+      <c r="C1" s="106">
+        <v>1</v>
+      </c>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="106">
+        <v>2</v>
+      </c>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="106">
+        <v>3</v>
+      </c>
+      <c r="J1" s="107"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="106">
         <v>4</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="88">
+      <c r="M1" s="107"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="106">
         <v>5</v>
       </c>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="88">
+      <c r="P1" s="107"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="106">
         <v>6</v>
       </c>
-      <c r="S1" s="89"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="88">
+      <c r="S1" s="107"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="106">
         <v>7</v>
       </c>
-      <c r="V1" s="89"/>
-      <c r="W1" s="90"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="108"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -6423,59 +6423,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A82F9B-DDA5-453E-AF76-85C4D400084F}">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" style="102" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="97" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="88">
-        <v>1</v>
-      </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="88">
-        <v>2</v>
-      </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="88">
-        <v>3</v>
-      </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="88">
+      <c r="C1" s="106">
+        <v>1</v>
+      </c>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="106">
+        <v>2</v>
+      </c>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="106">
+        <v>3</v>
+      </c>
+      <c r="J1" s="107"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="106">
         <v>4</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="88">
+      <c r="M1" s="107"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="106">
         <v>5</v>
       </c>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="88">
+      <c r="P1" s="107"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="106">
         <v>6</v>
       </c>
-      <c r="S1" s="89"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="88">
+      <c r="S1" s="107"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="106">
         <v>7</v>
       </c>
-      <c r="V1" s="89"/>
-      <c r="W1" s="90"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="108"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="36" t="s">
@@ -6546,10 +6546,10 @@
       <c r="A3" s="39">
         <v>16</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="39">
         <v>0</v>
       </c>
@@ -6557,8 +6557,12 @@
         <v>2</v>
       </c>
       <c r="F3" s="40"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="41"/>
+      <c r="G3" s="39">
+        <v>2</v>
+      </c>
+      <c r="H3" s="41">
+        <v>1</v>
+      </c>
       <c r="I3" s="40"/>
       <c r="J3" s="39"/>
       <c r="K3" s="41"/>
@@ -6579,10 +6583,10 @@
       <c r="A4" s="39">
         <v>15</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="92"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="39">
         <v>1</v>
       </c>
@@ -6590,8 +6594,12 @@
         <v>2</v>
       </c>
       <c r="F4" s="40"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="41"/>
+      <c r="G4" s="39">
+        <v>1</v>
+      </c>
+      <c r="H4" s="41">
+        <v>1</v>
+      </c>
       <c r="I4" s="40"/>
       <c r="J4" s="39"/>
       <c r="K4" s="41"/>
@@ -6612,10 +6620,10 @@
       <c r="A5" s="39">
         <v>14</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="92"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="39">
         <v>0</v>
       </c>
@@ -6623,8 +6631,12 @@
         <v>2</v>
       </c>
       <c r="F5" s="40"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="41"/>
+      <c r="G5" s="39">
+        <v>2</v>
+      </c>
+      <c r="H5" s="41">
+        <v>2</v>
+      </c>
       <c r="I5" s="40"/>
       <c r="J5" s="39"/>
       <c r="K5" s="41"/>
@@ -6645,10 +6657,10 @@
       <c r="A6" s="39">
         <v>14</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="95" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="39">
         <v>0</v>
       </c>
@@ -6656,8 +6668,12 @@
         <v>2</v>
       </c>
       <c r="F6" s="40"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="41"/>
+      <c r="G6" s="39">
+        <v>1</v>
+      </c>
+      <c r="H6" s="41">
+        <v>1</v>
+      </c>
       <c r="I6" s="40"/>
       <c r="J6" s="39"/>
       <c r="K6" s="41"/>
@@ -6678,10 +6694,10 @@
       <c r="A7" s="39">
         <v>13</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="39">
         <v>0</v>
       </c>
@@ -6689,7 +6705,9 @@
         <v>3</v>
       </c>
       <c r="F7" s="40"/>
-      <c r="G7" s="39"/>
+      <c r="G7" s="39">
+        <v>1</v>
+      </c>
       <c r="H7" s="41"/>
       <c r="I7" s="40"/>
       <c r="J7" s="39"/>
@@ -6711,10 +6729,10 @@
       <c r="A8" s="39">
         <v>13</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="39">
         <v>0</v>
       </c>
@@ -6722,8 +6740,12 @@
         <v>3</v>
       </c>
       <c r="F8" s="40"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="41"/>
+      <c r="G8" s="39">
+        <v>1</v>
+      </c>
+      <c r="H8" s="41">
+        <v>1</v>
+      </c>
       <c r="I8" s="40"/>
       <c r="J8" s="39"/>
       <c r="K8" s="41"/>
@@ -6744,10 +6766,10 @@
       <c r="A9" s="39">
         <v>13</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="39">
         <v>0</v>
       </c>
@@ -6755,8 +6777,12 @@
         <v>3</v>
       </c>
       <c r="F9" s="40"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="41"/>
+      <c r="G9" s="39">
+        <v>0</v>
+      </c>
+      <c r="H9" s="41">
+        <v>3</v>
+      </c>
       <c r="I9" s="40"/>
       <c r="J9" s="39"/>
       <c r="K9" s="41"/>
@@ -6777,10 +6803,10 @@
       <c r="A10" s="39">
         <v>13</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="39">
         <v>0</v>
       </c>
@@ -6788,8 +6814,12 @@
         <v>3</v>
       </c>
       <c r="F10" s="40"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="41"/>
+      <c r="G10" s="39">
+        <v>0</v>
+      </c>
+      <c r="H10" s="41">
+        <v>3</v>
+      </c>
       <c r="I10" s="40"/>
       <c r="J10" s="39"/>
       <c r="K10" s="41"/>
@@ -6810,10 +6840,10 @@
       <c r="A11" s="39">
         <v>13</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="110" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="39">
         <v>0</v>
       </c>
@@ -6821,7 +6851,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="40"/>
-      <c r="G11" s="39"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="41"/>
       <c r="I11" s="40"/>
       <c r="J11" s="39"/>
@@ -6843,10 +6873,10 @@
       <c r="A12" s="39">
         <v>13</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="39">
         <v>0</v>
       </c>
@@ -6854,8 +6884,12 @@
         <v>3</v>
       </c>
       <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="39">
+        <v>0</v>
+      </c>
+      <c r="H12" s="39">
+        <v>3</v>
+      </c>
       <c r="I12" s="40"/>
       <c r="J12" s="39"/>
       <c r="K12" s="41"/>
@@ -6876,14 +6910,14 @@
       <c r="A13" s="39">
         <v>13</v>
       </c>
-      <c r="B13" s="107" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
+      <c r="B13" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="39"/>
       <c r="I13" s="40"/>
       <c r="J13" s="39"/>
@@ -6905,19 +6939,19 @@
       <c r="A14" s="39">
         <v>13</v>
       </c>
-      <c r="B14" s="113" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="114">
-        <v>0</v>
-      </c>
-      <c r="E14" s="41">
-        <v>3</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="41"/>
+      <c r="B14" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="39">
+        <v>3</v>
+      </c>
       <c r="I14" s="40"/>
       <c r="J14" s="39"/>
       <c r="K14" s="41"/>
@@ -6938,10 +6972,10 @@
       <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="100" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="92"/>
+      <c r="B15" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="39"/>
       <c r="D15" s="39">
         <v>0</v>
       </c>
@@ -6949,8 +6983,12 @@
         <v>3</v>
       </c>
       <c r="F15" s="40"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="41"/>
+      <c r="G15" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="41">
+        <v>3</v>
+      </c>
       <c r="I15" s="40"/>
       <c r="J15" s="39"/>
       <c r="K15" s="41"/>
@@ -6971,10 +7009,10 @@
       <c r="A16" s="39">
         <v>13</v>
       </c>
-      <c r="B16" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="92"/>
+      <c r="B16" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="39"/>
       <c r="D16" s="39">
         <v>0</v>
       </c>
@@ -6982,8 +7020,12 @@
         <v>3</v>
       </c>
       <c r="F16" s="40"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="41"/>
+      <c r="G16" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="41">
+        <v>3</v>
+      </c>
       <c r="I16" s="40"/>
       <c r="J16" s="39"/>
       <c r="K16" s="41"/>
@@ -7004,15 +7046,23 @@
       <c r="A17" s="39">
         <v>13</v>
       </c>
-      <c r="B17" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39">
+        <v>0</v>
+      </c>
+      <c r="E17" s="41">
+        <v>3</v>
+      </c>
       <c r="F17" s="40"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="41"/>
+      <c r="G17" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="41">
+        <v>3</v>
+      </c>
       <c r="I17" s="40"/>
       <c r="J17" s="39"/>
       <c r="K17" s="41"/>
@@ -7033,10 +7083,10 @@
       <c r="A18" s="39">
         <v>13</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="92"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="39">
         <v>-1</v>
       </c>
@@ -7044,8 +7094,12 @@
         <v>3</v>
       </c>
       <c r="F18" s="40"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="41"/>
+      <c r="G18" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="41">
+        <v>2</v>
+      </c>
       <c r="I18" s="40"/>
       <c r="J18" s="39"/>
       <c r="K18" s="41"/>
@@ -7066,10 +7120,10 @@
       <c r="A19" s="39">
         <v>13</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="92"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="39">
         <v>-1</v>
       </c>
@@ -7077,8 +7131,12 @@
         <v>2</v>
       </c>
       <c r="F19" s="40"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="41"/>
+      <c r="G19" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="41">
+        <v>3</v>
+      </c>
       <c r="I19" s="40"/>
       <c r="J19" s="39"/>
       <c r="K19" s="41"/>
@@ -7099,24 +7157,32 @@
       <c r="A20" s="39">
         <v>13</v>
       </c>
-      <c r="B20" s="104" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="41">
+        <v>3</v>
+      </c>
       <c r="F20" s="40"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="40"/>
+      <c r="G20" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="41">
+        <v>3</v>
+      </c>
+      <c r="I20" s="39"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="41"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="40"/>
       <c r="M20" s="39"/>
       <c r="N20" s="41"/>
-      <c r="O20" s="40"/>
+      <c r="O20" s="39"/>
       <c r="P20" s="39"/>
-      <c r="Q20" s="41"/>
+      <c r="Q20" s="39"/>
       <c r="R20" s="40"/>
       <c r="S20" s="39"/>
       <c r="T20" s="39"/>
@@ -7126,30 +7192,34 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
-        <v>13</v>
-      </c>
-      <c r="B21" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="92"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="39"/>
       <c r="D21" s="39">
+        <v>0</v>
+      </c>
+      <c r="E21" s="41">
+        <v>3</v>
+      </c>
+      <c r="F21" s="87"/>
+      <c r="G21" s="39">
         <v>-1</v>
       </c>
-      <c r="E21" s="41">
-        <v>3</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="39"/>
+      <c r="H21" s="41">
+        <v>3</v>
+      </c>
+      <c r="I21" s="40"/>
       <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="K21" s="41"/>
       <c r="L21" s="40"/>
       <c r="M21" s="39"/>
       <c r="N21" s="41"/>
-      <c r="O21" s="39"/>
+      <c r="O21" s="40"/>
       <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
+      <c r="Q21" s="41"/>
       <c r="R21" s="40"/>
       <c r="S21" s="39"/>
       <c r="T21" s="39"/>
@@ -7161,19 +7231,23 @@
       <c r="A22" s="39">
         <v>12</v>
       </c>
-      <c r="B22" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="92"/>
+      <c r="B22" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="39"/>
       <c r="D22" s="39">
         <v>0</v>
       </c>
       <c r="E22" s="41">
         <v>3</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="41"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="41">
+        <v>3</v>
+      </c>
       <c r="I22" s="40"/>
       <c r="J22" s="39"/>
       <c r="K22" s="41"/>
@@ -7194,10 +7268,10 @@
       <c r="A23" s="39">
         <v>12</v>
       </c>
-      <c r="B23" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="92"/>
+      <c r="B23" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="39"/>
       <c r="D23" s="39">
         <v>0</v>
       </c>
@@ -7205,65 +7279,73 @@
         <v>3</v>
       </c>
       <c r="F23" s="40"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="41"/>
+      <c r="G23" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="41">
+        <v>3</v>
+      </c>
       <c r="I23" s="40"/>
       <c r="J23" s="39"/>
-      <c r="K23" s="41"/>
+      <c r="K23" s="42"/>
       <c r="L23" s="40"/>
       <c r="M23" s="39"/>
       <c r="N23" s="41"/>
       <c r="O23" s="40"/>
       <c r="P23" s="39"/>
-      <c r="Q23" s="41"/>
+      <c r="Q23" s="42"/>
       <c r="R23" s="40"/>
       <c r="S23" s="39"/>
       <c r="T23" s="39"/>
       <c r="U23" s="40"/>
       <c r="V23" s="39"/>
-      <c r="W23" s="41"/>
+      <c r="W23" s="42"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>12</v>
       </c>
-      <c r="B24" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="92"/>
+      <c r="B24" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="39"/>
       <c r="D24" s="39">
         <v>0</v>
       </c>
       <c r="E24" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="40"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="41"/>
+      <c r="G24" s="112">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="41">
+        <v>3</v>
+      </c>
       <c r="I24" s="40"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="42"/>
+      <c r="K24" s="41"/>
       <c r="L24" s="40"/>
       <c r="M24" s="39"/>
       <c r="N24" s="41"/>
       <c r="O24" s="40"/>
       <c r="P24" s="39"/>
-      <c r="Q24" s="42"/>
+      <c r="Q24" s="41"/>
       <c r="R24" s="40"/>
       <c r="S24" s="39"/>
       <c r="T24" s="39"/>
       <c r="U24" s="40"/>
       <c r="V24" s="39"/>
-      <c r="W24" s="42"/>
+      <c r="W24" s="41"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>12</v>
       </c>
-      <c r="B25" s="100" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="92"/>
+      <c r="B25" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="39"/>
       <c r="D25" s="39">
         <v>0</v>
       </c>
@@ -7271,7 +7353,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="41"/>
       <c r="I25" s="40"/>
       <c r="J25" s="39"/>
@@ -7293,28 +7375,24 @@
       <c r="A26" s="39">
         <v>12</v>
       </c>
-      <c r="B26" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="39">
-        <v>0</v>
-      </c>
-      <c r="E26" s="41">
-        <v>2</v>
-      </c>
+      <c r="B26" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="39"/>
+      <c r="G26" s="55"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="40"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="39"/>
-      <c r="K26" s="41"/>
+      <c r="K26" s="39"/>
       <c r="L26" s="40"/>
       <c r="M26" s="39"/>
       <c r="N26" s="41"/>
-      <c r="O26" s="40"/>
+      <c r="O26" s="39"/>
       <c r="P26" s="39"/>
-      <c r="Q26" s="41"/>
+      <c r="Q26" s="39"/>
       <c r="R26" s="40"/>
       <c r="S26" s="39"/>
       <c r="T26" s="39"/>
@@ -7326,10 +7404,10 @@
       <c r="A27" s="39">
         <v>12</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="92"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="39">
         <v>0</v>
       </c>
@@ -7337,8 +7415,12 @@
         <v>3</v>
       </c>
       <c r="F27" s="40"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="41"/>
+      <c r="G27" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="41">
+        <v>3</v>
+      </c>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
@@ -7359,10 +7441,10 @@
       <c r="A28" s="39">
         <v>12</v>
       </c>
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="92"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="39">
         <v>0</v>
       </c>
@@ -7370,7 +7452,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="40"/>
-      <c r="G28" s="39"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="41"/>
       <c r="I28" s="40"/>
       <c r="J28" s="39"/>
@@ -7392,10 +7474,10 @@
       <c r="A29" s="39">
         <v>12</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="92"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="39">
         <v>0</v>
       </c>
@@ -7403,8 +7485,12 @@
         <v>3</v>
       </c>
       <c r="F29" s="40"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="41"/>
+      <c r="G29" s="39">
+        <v>-2</v>
+      </c>
+      <c r="H29" s="41">
+        <v>3</v>
+      </c>
       <c r="I29" s="40"/>
       <c r="J29" s="39"/>
       <c r="K29" s="41"/>
@@ -7425,10 +7511,10 @@
       <c r="A30" s="39">
         <v>12</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="92"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="39">
         <v>-1</v>
       </c>
@@ -7436,8 +7522,12 @@
         <v>3</v>
       </c>
       <c r="F30" s="40"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="41"/>
+      <c r="G30" s="39">
+        <v>-2</v>
+      </c>
+      <c r="H30" s="41">
+        <v>3</v>
+      </c>
       <c r="I30" s="40"/>
       <c r="J30" s="39"/>
       <c r="K30" s="41"/>
@@ -7458,10 +7548,10 @@
       <c r="A31" s="39">
         <v>12</v>
       </c>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="92"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="39">
         <v>-3</v>
       </c>
@@ -7469,8 +7559,12 @@
         <v>3</v>
       </c>
       <c r="F31" s="40"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="41"/>
+      <c r="G31" s="39">
+        <v>-3</v>
+      </c>
+      <c r="H31" s="41">
+        <v>3</v>
+      </c>
       <c r="I31" s="40"/>
       <c r="J31" s="39"/>
       <c r="K31" s="41"/>
@@ -7491,15 +7585,19 @@
       <c r="A32" s="39">
         <v>10</v>
       </c>
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="106"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="100"/>
       <c r="E32" s="41"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="41"/>
+      <c r="G32" s="39">
+        <v>-2</v>
+      </c>
+      <c r="H32" s="41">
+        <v>3</v>
+      </c>
       <c r="I32" s="40"/>
       <c r="J32" s="39"/>
       <c r="K32" s="41"/>
@@ -7566,22 +7664,16 @@
       <c r="V34" s="43"/>
       <c r="W34" s="43"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>13</v>
       </c>
-      <c r="B35" s="105" t="s">
-        <v>202</v>
-      </c>
-      <c r="C35" s="92">
-        <v>-17</v>
-      </c>
-      <c r="D35" s="50">
-        <v>-4</v>
-      </c>
-      <c r="E35" s="41">
-        <v>3</v>
-      </c>
+      <c r="B35" s="98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="41"/>
       <c r="F35" s="40"/>
       <c r="G35" s="39"/>
       <c r="H35" s="41"/>
@@ -7601,63 +7693,73 @@
       <c r="V35" s="39"/>
       <c r="W35" s="41"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="39">
+        <v>13</v>
+      </c>
+      <c r="B36" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="41"/>
     </row>
     <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="93"/>
-      <c r="B37" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
+      <c r="A37" s="39">
+        <v>13</v>
+      </c>
+      <c r="B37" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="39">
+        <v>-17</v>
+      </c>
+      <c r="D37" s="50">
+        <v>-4</v>
+      </c>
+      <c r="E37" s="41">
+        <v>3</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="41"/>
     </row>
     <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="94"/>
-      <c r="B38" s="101" t="s">
-        <v>38</v>
-      </c>
+      <c r="A38" s="72"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="43"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
@@ -7681,9 +7783,9 @@
       <c r="W38" s="43"/>
     </row>
     <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="95"/>
-      <c r="B39" s="101" t="s">
-        <v>39</v>
+      <c r="A39" s="88"/>
+      <c r="B39" s="96" t="s">
+        <v>37</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
@@ -7708,9 +7810,9 @@
       <c r="W39" s="43"/>
     </row>
     <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="96"/>
-      <c r="B40" s="101" t="s">
-        <v>54</v>
+      <c r="A40" s="89"/>
+      <c r="B40" s="96" t="s">
+        <v>38</v>
       </c>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
@@ -7735,9 +7837,9 @@
       <c r="W40" s="43"/>
     </row>
     <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="97"/>
-      <c r="B41" s="101" t="s">
-        <v>55</v>
+      <c r="A41" s="90"/>
+      <c r="B41" s="96" t="s">
+        <v>39</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -7762,9 +7864,9 @@
       <c r="W41" s="43"/>
     </row>
     <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="98"/>
-      <c r="B42" s="101" t="s">
-        <v>56</v>
+      <c r="A42" s="91"/>
+      <c r="B42" s="96" t="s">
+        <v>54</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -7789,9 +7891,9 @@
       <c r="W42" s="43"/>
     </row>
     <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="108"/>
-      <c r="B43" s="101" t="s">
-        <v>215</v>
+      <c r="A43" s="92"/>
+      <c r="B43" s="96" t="s">
+        <v>55</v>
       </c>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
@@ -7816,9 +7918,9 @@
       <c r="W43" s="43"/>
     </row>
     <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="112"/>
-      <c r="B44" s="101" t="s">
-        <v>216</v>
+      <c r="A44" s="93"/>
+      <c r="B44" s="96" t="s">
+        <v>56</v>
       </c>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
@@ -7841,6 +7943,60 @@
       <c r="U44" s="73"/>
       <c r="V44" s="43"/>
       <c r="W44" s="43"/>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="102"/>
+      <c r="B45" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="105"/>
+      <c r="B46" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8601,16 +8757,16 @@
       <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9271,7 +9427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CI51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E765D1C-BAE8-4AD6-A515-E930A6F13148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A28134AE-CF1A-4733-9F97-8724F1300458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="218">
   <si>
     <t>nome</t>
   </si>
@@ -690,6 +690,9 @@
   </si>
   <si>
     <t>inserito dopo</t>
+  </si>
+  <si>
+    <t>sidcujs</t>
   </si>
 </sst>
 </file>
@@ -987,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1302,6 +1305,12 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1309,15 +1318,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4230,41 +4230,41 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="61"/>
-      <c r="C1" s="106">
-        <v>1</v>
-      </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="106">
-        <v>2</v>
-      </c>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="106">
-        <v>3</v>
-      </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="106">
+      <c r="C1" s="108">
+        <v>1</v>
+      </c>
+      <c r="D1" s="109"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="108">
+        <v>2</v>
+      </c>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="108">
+        <v>3</v>
+      </c>
+      <c r="J1" s="109"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="108">
         <v>4</v>
       </c>
-      <c r="M1" s="107"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="106">
+      <c r="M1" s="109"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="108">
         <v>5</v>
       </c>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="106">
+      <c r="P1" s="109"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="108">
         <v>6</v>
       </c>
-      <c r="S1" s="107"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="106">
+      <c r="S1" s="109"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="108">
         <v>7</v>
       </c>
-      <c r="V1" s="107"/>
-      <c r="W1" s="108"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -6423,10 +6423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A82F9B-DDA5-453E-AF76-85C4D400084F}">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6437,41 +6437,41 @@
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="106">
-        <v>1</v>
-      </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="106">
-        <v>2</v>
-      </c>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="106">
-        <v>3</v>
-      </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="106">
+      <c r="C1" s="108">
+        <v>1</v>
+      </c>
+      <c r="D1" s="109"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="108">
+        <v>2</v>
+      </c>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="108">
+        <v>3</v>
+      </c>
+      <c r="J1" s="109"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="108">
         <v>4</v>
       </c>
-      <c r="M1" s="107"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="106">
+      <c r="M1" s="109"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="108">
         <v>5</v>
       </c>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="106">
+      <c r="P1" s="109"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="108">
         <v>6</v>
       </c>
-      <c r="S1" s="107"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="106">
+      <c r="S1" s="109"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="108">
         <v>7</v>
       </c>
-      <c r="V1" s="107"/>
-      <c r="W1" s="108"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -6546,7 +6546,7 @@
       <c r="A3" s="39">
         <v>16</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="98" t="s">
         <v>175</v>
       </c>
       <c r="C3" s="39"/>
@@ -6564,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="40"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="41"/>
       <c r="L3" s="40"/>
       <c r="M3" s="39"/>
@@ -6583,7 +6583,7 @@
       <c r="A4" s="39">
         <v>15</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="98" t="s">
         <v>209</v>
       </c>
       <c r="C4" s="39"/>
@@ -6601,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="40"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="55"/>
       <c r="K4" s="41"/>
       <c r="L4" s="40"/>
       <c r="M4" s="39"/>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="95" t="s">
         <v>10</v>
@@ -6708,7 +6708,9 @@
       <c r="G7" s="39">
         <v>1</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="41">
+        <v>2</v>
+      </c>
       <c r="I7" s="40"/>
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
@@ -6840,8 +6842,8 @@
       <c r="A11" s="39">
         <v>13</v>
       </c>
-      <c r="B11" s="110" t="s">
-        <v>193</v>
+      <c r="B11" s="95" t="s">
+        <v>72</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39">
@@ -6850,9 +6852,13 @@
       <c r="E11" s="41">
         <v>3</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="41"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39">
+        <v>0</v>
+      </c>
+      <c r="H11" s="39">
+        <v>3</v>
+      </c>
       <c r="I11" s="40"/>
       <c r="J11" s="39"/>
       <c r="K11" s="41"/>
@@ -6873,8 +6879,8 @@
       <c r="A12" s="39">
         <v>13</v>
       </c>
-      <c r="B12" s="95" t="s">
-        <v>72</v>
+      <c r="B12" s="106" t="s">
+        <v>193</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39">
@@ -6883,15 +6889,11 @@
       <c r="E12" s="41">
         <v>3</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39">
-        <v>0</v>
-      </c>
-      <c r="H12" s="39">
-        <v>3</v>
-      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="39"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="41"/>
       <c r="L12" s="40"/>
       <c r="M12" s="39"/>
@@ -6911,14 +6913,18 @@
         <v>13</v>
       </c>
       <c r="B13" s="101" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C13" s="103"/>
       <c r="D13" s="103"/>
       <c r="E13" s="104"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="39"/>
+      <c r="G13" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="39">
+        <v>3</v>
+      </c>
       <c r="I13" s="40"/>
       <c r="J13" s="39"/>
       <c r="K13" s="41"/>
@@ -6939,17 +6945,21 @@
       <c r="A14" s="39">
         <v>13</v>
       </c>
-      <c r="B14" s="101" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="39"/>
+      <c r="B14" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39">
+        <v>0</v>
+      </c>
+      <c r="E14" s="41">
+        <v>3</v>
+      </c>
+      <c r="F14" s="40"/>
       <c r="G14" s="39">
         <v>-1</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="41">
         <v>3</v>
       </c>
       <c r="I14" s="40"/>
@@ -6973,7 +6983,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="95" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39">
@@ -7010,7 +7020,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="95" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39">
@@ -7046,25 +7056,17 @@
       <c r="A17" s="39">
         <v>13</v>
       </c>
-      <c r="B17" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39">
-        <v>0</v>
-      </c>
-      <c r="E17" s="41">
-        <v>3</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="39">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="41">
-        <v>3</v>
-      </c>
+      <c r="B17" s="101" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="39"/>
+      <c r="J17" s="55"/>
       <c r="K17" s="41"/>
       <c r="L17" s="40"/>
       <c r="M17" s="39"/>
@@ -7094,7 +7096,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="40"/>
-      <c r="G18" s="39">
+      <c r="G18" s="100">
         <v>-1</v>
       </c>
       <c r="H18" s="41">
@@ -7124,7 +7126,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="39"/>
-      <c r="D19" s="39">
+      <c r="D19" s="100">
         <v>-1</v>
       </c>
       <c r="E19" s="41">
@@ -7229,25 +7231,17 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
-        <v>12</v>
-      </c>
-      <c r="B22" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39">
-        <v>0</v>
-      </c>
-      <c r="E22" s="41">
-        <v>3</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="39">
-        <v>-1</v>
-      </c>
-      <c r="H22" s="41">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B22" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
       <c r="I22" s="40"/>
       <c r="J22" s="39"/>
       <c r="K22" s="41"/>
@@ -7269,7 +7263,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39">
@@ -7287,36 +7281,36 @@
       </c>
       <c r="I23" s="40"/>
       <c r="J23" s="39"/>
-      <c r="K23" s="42"/>
+      <c r="K23" s="41"/>
       <c r="L23" s="40"/>
       <c r="M23" s="39"/>
       <c r="N23" s="41"/>
       <c r="O23" s="40"/>
       <c r="P23" s="39"/>
-      <c r="Q23" s="42"/>
+      <c r="Q23" s="41"/>
       <c r="R23" s="40"/>
       <c r="S23" s="39"/>
       <c r="T23" s="39"/>
       <c r="U23" s="40"/>
       <c r="V23" s="39"/>
-      <c r="W23" s="42"/>
+      <c r="W23" s="41"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>12</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39">
         <v>0</v>
       </c>
       <c r="E24" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="40"/>
-      <c r="G24" s="112">
+      <c r="G24" s="39">
         <v>-1</v>
       </c>
       <c r="H24" s="41">
@@ -7324,37 +7318,41 @@
       </c>
       <c r="I24" s="40"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="41"/>
+      <c r="K24" s="42"/>
       <c r="L24" s="40"/>
       <c r="M24" s="39"/>
       <c r="N24" s="41"/>
       <c r="O24" s="40"/>
       <c r="P24" s="39"/>
-      <c r="Q24" s="41"/>
+      <c r="Q24" s="42"/>
       <c r="R24" s="40"/>
       <c r="S24" s="39"/>
       <c r="T24" s="39"/>
       <c r="U24" s="40"/>
       <c r="V24" s="39"/>
-      <c r="W24" s="41"/>
+      <c r="W24" s="42"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>12</v>
       </c>
       <c r="B25" s="95" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="39">
+      <c r="D25" s="100">
         <v>0</v>
       </c>
       <c r="E25" s="41">
         <v>2</v>
       </c>
       <c r="F25" s="40"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="41"/>
+      <c r="G25" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="41">
+        <v>3</v>
+      </c>
       <c r="I25" s="40"/>
       <c r="J25" s="39"/>
       <c r="K25" s="41"/>
@@ -7375,24 +7373,32 @@
       <c r="A26" s="39">
         <v>12</v>
       </c>
-      <c r="B26" s="111" t="s">
-        <v>187</v>
-      </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="104"/>
+      <c r="B26" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="100">
+        <v>0</v>
+      </c>
+      <c r="E26" s="41">
+        <v>2</v>
+      </c>
       <c r="F26" s="40"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="39"/>
+      <c r="G26" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="41">
+        <v>3</v>
+      </c>
+      <c r="I26" s="40"/>
       <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
+      <c r="K26" s="41"/>
       <c r="L26" s="40"/>
       <c r="M26" s="39"/>
       <c r="N26" s="41"/>
-      <c r="O26" s="39"/>
+      <c r="O26" s="40"/>
       <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
+      <c r="Q26" s="41"/>
       <c r="R26" s="40"/>
       <c r="S26" s="39"/>
       <c r="T26" s="39"/>
@@ -7452,8 +7458,12 @@
         <v>3</v>
       </c>
       <c r="F28" s="40"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="41"/>
+      <c r="G28" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="41">
+        <v>3</v>
+      </c>
       <c r="I28" s="40"/>
       <c r="J28" s="39"/>
       <c r="K28" s="41"/>
@@ -7546,25 +7556,17 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
-        <v>12</v>
-      </c>
-      <c r="B31" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39">
-        <v>-3</v>
-      </c>
-      <c r="E31" s="41">
-        <v>3</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="39">
-        <v>-3</v>
-      </c>
-      <c r="H31" s="41">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B31" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
       <c r="I31" s="40"/>
       <c r="J31" s="39"/>
       <c r="K31" s="41"/>
@@ -7579,21 +7581,25 @@
       <c r="T31" s="39"/>
       <c r="U31" s="40"/>
       <c r="V31" s="39"/>
-      <c r="W31" s="77"/>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W31" s="41"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" s="95" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="C32" s="39"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="41"/>
+      <c r="D32" s="39">
+        <v>-3</v>
+      </c>
+      <c r="E32" s="41">
+        <v>3</v>
+      </c>
       <c r="F32" s="40"/>
       <c r="G32" s="39">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H32" s="41">
         <v>3</v>
@@ -7612,32 +7618,40 @@
       <c r="T32" s="39"/>
       <c r="U32" s="40"/>
       <c r="V32" s="39"/>
-      <c r="W32" s="41"/>
+      <c r="W32" s="77"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="72"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
+      <c r="A33" s="39">
+        <v>10</v>
+      </c>
+      <c r="B33" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="39">
+        <v>-2</v>
+      </c>
+      <c r="H33" s="41">
+        <v>3</v>
+      </c>
+      <c r="I33" s="40"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="41"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="72"/>
@@ -7664,48 +7678,44 @@
       <c r="V34" s="43"/>
       <c r="W34" s="43"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
-        <v>13</v>
-      </c>
-      <c r="B35" s="98" t="s">
-        <v>198</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="41"/>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="72"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>13</v>
       </c>
-      <c r="B36" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="41"/>
+      <c r="B36" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="40"/>
       <c r="J36" s="39"/>
       <c r="K36" s="41"/>
@@ -7722,34 +7732,28 @@
       <c r="V36" s="39"/>
       <c r="W36" s="41"/>
     </row>
-    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
-        <v>13</v>
-      </c>
-      <c r="B37" s="99" t="s">
-        <v>202</v>
-      </c>
-      <c r="C37" s="39">
-        <v>-17</v>
-      </c>
-      <c r="D37" s="50">
-        <v>-4</v>
-      </c>
-      <c r="E37" s="41">
-        <v>3</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B37" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="40"/>
-      <c r="G37" s="39"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="41"/>
-      <c r="I37" s="40"/>
+      <c r="I37" s="39"/>
       <c r="J37" s="39"/>
-      <c r="K37" s="41"/>
+      <c r="K37" s="39"/>
       <c r="L37" s="40"/>
       <c r="M37" s="39"/>
       <c r="N37" s="41"/>
-      <c r="O37" s="40"/>
+      <c r="O37" s="39"/>
       <c r="P37" s="39"/>
-      <c r="Q37" s="41"/>
+      <c r="Q37" s="39"/>
       <c r="R37" s="40"/>
       <c r="S37" s="39"/>
       <c r="T37" s="39"/>
@@ -7757,90 +7761,102 @@
       <c r="V37" s="39"/>
       <c r="W37" s="41"/>
     </row>
-    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="72"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="73"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-    </row>
-    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="88"/>
-      <c r="B39" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="73"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="39">
+        <v>13</v>
+      </c>
+      <c r="B38" s="98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="41"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="39">
+        <v>13</v>
+      </c>
+      <c r="B39" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="41"/>
     </row>
     <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="89"/>
-      <c r="B40" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="73"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
+      <c r="A40" s="39">
+        <v>13</v>
+      </c>
+      <c r="B40" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="39">
+        <v>-17</v>
+      </c>
+      <c r="D40" s="50">
+        <v>-4</v>
+      </c>
+      <c r="E40" s="41">
+        <v>3</v>
+      </c>
+      <c r="F40" s="40"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="41"/>
     </row>
     <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="90"/>
-      <c r="B41" s="96" t="s">
-        <v>39</v>
-      </c>
+      <c r="A41" s="72"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
@@ -7864,9 +7880,9 @@
       <c r="W41" s="43"/>
     </row>
     <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="91"/>
+      <c r="A42" s="88"/>
       <c r="B42" s="96" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -7891,9 +7907,9 @@
       <c r="W42" s="43"/>
     </row>
     <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="92"/>
+      <c r="A43" s="89"/>
       <c r="B43" s="96" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
@@ -7918,9 +7934,9 @@
       <c r="W43" s="43"/>
     </row>
     <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="93"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="96" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
@@ -7945,9 +7961,9 @@
       <c r="W44" s="43"/>
     </row>
     <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="102"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="96" t="s">
-        <v>215</v>
+        <v>54</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="43"/>
@@ -7972,9 +7988,9 @@
       <c r="W45" s="43"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="105"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="96" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
@@ -7997,6 +8013,87 @@
       <c r="U46" s="73"/>
       <c r="V46" s="43"/>
       <c r="W46" s="43"/>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="93"/>
+      <c r="B47" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="43"/>
+    </row>
+    <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="102"/>
+      <c r="B48" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="72"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43"/>
+    </row>
+    <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="105"/>
+      <c r="B49" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8757,16 +8854,16 @@
       <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="108"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8781,7 +8878,7 @@
   <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A28134AE-CF1A-4733-9F97-8724F1300458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F996F30D-83B7-43C3-A502-AF6B313C564A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="219">
   <si>
     <t>nome</t>
   </si>
@@ -693,6 +693,9 @@
   </si>
   <si>
     <t>sidcujs</t>
+  </si>
+  <si>
+    <t>Zine</t>
   </si>
 </sst>
 </file>
@@ -990,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1318,6 +1321,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6423,10 +6432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A82F9B-DDA5-453E-AF76-85C4D400084F}">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6567,8 +6576,12 @@
       <c r="J3" s="55"/>
       <c r="K3" s="41"/>
       <c r="L3" s="40"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="41"/>
+      <c r="M3" s="39">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="41">
+        <v>2</v>
+      </c>
       <c r="O3" s="40"/>
       <c r="P3" s="39"/>
       <c r="Q3" s="41"/>
@@ -6604,8 +6617,12 @@
       <c r="J4" s="55"/>
       <c r="K4" s="41"/>
       <c r="L4" s="40"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="41"/>
+      <c r="M4" s="39">
+        <v>0</v>
+      </c>
+      <c r="N4" s="41">
+        <v>3</v>
+      </c>
       <c r="O4" s="40"/>
       <c r="P4" s="39"/>
       <c r="Q4" s="41"/>
@@ -6638,11 +6655,19 @@
         <v>2</v>
       </c>
       <c r="I5" s="40"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="41"/>
+      <c r="J5" s="39">
+        <v>1</v>
+      </c>
+      <c r="K5" s="41">
+        <v>3</v>
+      </c>
       <c r="L5" s="40"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="41"/>
+      <c r="M5" s="39">
+        <v>2</v>
+      </c>
+      <c r="N5" s="41">
+        <v>1</v>
+      </c>
       <c r="O5" s="40"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="41"/>
@@ -6657,7 +6682,7 @@
       <c r="A6" s="39">
         <v>14</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="113" t="s">
         <v>211</v>
       </c>
       <c r="C6" s="39"/>
@@ -6675,11 +6700,19 @@
         <v>1</v>
       </c>
       <c r="I6" s="40"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="41"/>
+      <c r="J6" s="39">
+        <v>1</v>
+      </c>
+      <c r="K6" s="41">
+        <v>2</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="41"/>
+      <c r="M6" s="39">
+        <v>1</v>
+      </c>
+      <c r="N6" s="41">
+        <v>0</v>
+      </c>
       <c r="O6" s="40"/>
       <c r="P6" s="39"/>
       <c r="Q6" s="41"/>
@@ -6712,8 +6745,12 @@
         <v>2</v>
       </c>
       <c r="I7" s="40"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="41"/>
+      <c r="J7" s="39">
+        <v>0</v>
+      </c>
+      <c r="K7" s="41">
+        <v>3</v>
+      </c>
       <c r="L7" s="40"/>
       <c r="M7" s="39"/>
       <c r="N7" s="41"/>
@@ -6749,11 +6786,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="40"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="41"/>
+      <c r="J8" s="39">
+        <v>1</v>
+      </c>
+      <c r="K8" s="41">
+        <v>1</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="41"/>
+      <c r="M8" s="39">
+        <v>1</v>
+      </c>
+      <c r="N8" s="41">
+        <v>2</v>
+      </c>
       <c r="O8" s="40"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="41"/>
@@ -6786,11 +6831,19 @@
         <v>3</v>
       </c>
       <c r="I9" s="40"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="41"/>
+      <c r="J9" s="39">
+        <v>1</v>
+      </c>
+      <c r="K9" s="41">
+        <v>3</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="41"/>
+      <c r="M9" s="39">
+        <v>1</v>
+      </c>
+      <c r="N9" s="41">
+        <v>2</v>
+      </c>
       <c r="O9" s="40"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="41"/>
@@ -6823,11 +6876,19 @@
         <v>3</v>
       </c>
       <c r="I10" s="40"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="41"/>
+      <c r="J10" s="39">
+        <v>1</v>
+      </c>
+      <c r="K10" s="41">
+        <v>2</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="41"/>
+      <c r="M10" s="39">
+        <v>1</v>
+      </c>
+      <c r="N10" s="41">
+        <v>1</v>
+      </c>
       <c r="O10" s="40"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="41"/>
@@ -6842,28 +6903,20 @@
       <c r="A11" s="39">
         <v>13</v>
       </c>
-      <c r="B11" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39">
-        <v>0</v>
-      </c>
-      <c r="E11" s="41">
-        <v>3</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39">
-        <v>0</v>
-      </c>
-      <c r="H11" s="39">
-        <v>3</v>
-      </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="41"/>
+      <c r="B11" s="101" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
       <c r="L11" s="40"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="55"/>
       <c r="N11" s="41"/>
       <c r="O11" s="40"/>
       <c r="P11" s="39"/>
@@ -6879,8 +6932,8 @@
       <c r="A12" s="39">
         <v>13</v>
       </c>
-      <c r="B12" s="106" t="s">
-        <v>193</v>
+      <c r="B12" s="95" t="s">
+        <v>72</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39">
@@ -6889,15 +6942,27 @@
       <c r="E12" s="41">
         <v>3</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="41"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39">
+        <v>0</v>
+      </c>
+      <c r="H12" s="39">
+        <v>3</v>
+      </c>
       <c r="I12" s="40"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="41"/>
+      <c r="J12" s="39">
+        <v>1</v>
+      </c>
+      <c r="K12" s="41">
+        <v>2</v>
+      </c>
       <c r="L12" s="40"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="41"/>
+      <c r="M12" s="39">
+        <v>1</v>
+      </c>
+      <c r="N12" s="41">
+        <v>3</v>
+      </c>
       <c r="O12" s="40"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="41"/>
@@ -6913,23 +6978,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="101" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C13" s="103"/>
       <c r="D13" s="103"/>
       <c r="E13" s="104"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="39">
-        <v>3</v>
-      </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="41"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
       <c r="L13" s="40"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="55"/>
       <c r="N13" s="41"/>
       <c r="O13" s="40"/>
       <c r="P13" s="39"/>
@@ -6945,29 +7006,33 @@
       <c r="A14" s="39">
         <v>13</v>
       </c>
-      <c r="B14" s="95" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39">
-        <v>0</v>
-      </c>
-      <c r="E14" s="41">
-        <v>3</v>
-      </c>
-      <c r="F14" s="40"/>
+      <c r="B14" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="39">
         <v>-1</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="39">
         <v>3</v>
       </c>
       <c r="I14" s="40"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="41"/>
+      <c r="J14" s="39">
+        <v>0</v>
+      </c>
+      <c r="K14" s="41">
+        <v>1</v>
+      </c>
       <c r="L14" s="40"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="39">
+        <v>1</v>
+      </c>
+      <c r="N14" s="41">
+        <v>1</v>
+      </c>
       <c r="O14" s="40"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="41"/>
@@ -6983,7 +7048,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="95" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39">
@@ -7000,11 +7065,19 @@
         <v>3</v>
       </c>
       <c r="I15" s="40"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="41"/>
+      <c r="J15" s="39">
+        <v>1</v>
+      </c>
+      <c r="K15" s="41">
+        <v>2</v>
+      </c>
       <c r="L15" s="40"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="41"/>
+      <c r="M15" s="39">
+        <v>1</v>
+      </c>
+      <c r="N15" s="41">
+        <v>2</v>
+      </c>
       <c r="O15" s="40"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="41"/>
@@ -7020,7 +7093,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="95" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39">
@@ -7037,11 +7110,19 @@
         <v>3</v>
       </c>
       <c r="I16" s="40"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="41"/>
+      <c r="J16" s="39">
+        <v>1</v>
+      </c>
+      <c r="K16" s="41">
+        <v>2</v>
+      </c>
       <c r="L16" s="40"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="39">
+        <v>1</v>
+      </c>
+      <c r="N16" s="41">
+        <v>3</v>
+      </c>
       <c r="O16" s="40"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="41"/>
@@ -7056,18 +7137,30 @@
       <c r="A17" s="39">
         <v>13</v>
       </c>
-      <c r="B17" s="101" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
+      <c r="B17" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39">
+        <v>0</v>
+      </c>
+      <c r="E17" s="41">
+        <v>3</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="41">
+        <v>3</v>
+      </c>
       <c r="I17" s="40"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="41"/>
+      <c r="J17" s="39">
+        <v>1</v>
+      </c>
+      <c r="K17" s="41">
+        <v>2</v>
+      </c>
       <c r="L17" s="40"/>
       <c r="M17" s="39"/>
       <c r="N17" s="41"/>
@@ -7085,7 +7178,7 @@
       <c r="A18" s="39">
         <v>13</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="113" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="39"/>
@@ -7103,11 +7196,19 @@
         <v>2</v>
       </c>
       <c r="I18" s="40"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="41"/>
+      <c r="J18" s="39">
+        <v>1</v>
+      </c>
+      <c r="K18" s="41">
+        <v>1</v>
+      </c>
       <c r="L18" s="40"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="39">
+        <v>0</v>
+      </c>
+      <c r="N18" s="41">
+        <v>2</v>
+      </c>
       <c r="O18" s="40"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="41"/>
@@ -7122,7 +7223,7 @@
       <c r="A19" s="39">
         <v>13</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="113" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="39"/>
@@ -7140,11 +7241,19 @@
         <v>3</v>
       </c>
       <c r="I19" s="40"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="41"/>
+      <c r="J19" s="39">
+        <v>0</v>
+      </c>
+      <c r="K19" s="41">
+        <v>2</v>
+      </c>
       <c r="L19" s="40"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="41"/>
+      <c r="M19" s="39">
+        <v>0</v>
+      </c>
+      <c r="N19" s="41">
+        <v>2</v>
+      </c>
       <c r="O19" s="40"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="41"/>
@@ -7159,7 +7268,7 @@
       <c r="A20" s="39">
         <v>13</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="113" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="39"/>
@@ -7177,11 +7286,19 @@
         <v>3</v>
       </c>
       <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="J20" s="39">
+        <v>0</v>
+      </c>
+      <c r="K20" s="39">
+        <v>3</v>
+      </c>
       <c r="L20" s="40"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="39">
+        <v>0</v>
+      </c>
+      <c r="N20" s="41">
+        <v>2</v>
+      </c>
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
@@ -7196,7 +7313,7 @@
       <c r="A21" s="39">
         <v>12</v>
       </c>
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="113" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="39"/>
@@ -7214,11 +7331,19 @@
         <v>3</v>
       </c>
       <c r="I21" s="40"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="41"/>
+      <c r="J21" s="39">
+        <v>0</v>
+      </c>
+      <c r="K21" s="41">
+        <v>1</v>
+      </c>
       <c r="L21" s="40"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="41"/>
+      <c r="M21" s="39">
+        <v>1</v>
+      </c>
+      <c r="N21" s="41">
+        <v>3</v>
+      </c>
       <c r="O21" s="40"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="41"/>
@@ -7243,10 +7368,14 @@
       <c r="G22" s="103"/>
       <c r="H22" s="103"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="41"/>
+      <c r="J22" s="39">
+        <v>1</v>
+      </c>
+      <c r="K22" s="41">
+        <v>2</v>
+      </c>
       <c r="L22" s="40"/>
-      <c r="M22" s="39"/>
+      <c r="M22" s="55"/>
       <c r="N22" s="41"/>
       <c r="O22" s="40"/>
       <c r="P22" s="39"/>
@@ -7280,11 +7409,19 @@
         <v>3</v>
       </c>
       <c r="I23" s="40"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="41"/>
+      <c r="J23" s="39">
+        <v>1</v>
+      </c>
+      <c r="K23" s="41">
+        <v>3</v>
+      </c>
       <c r="L23" s="40"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="41"/>
+      <c r="M23" s="39">
+        <v>1</v>
+      </c>
+      <c r="N23" s="41">
+        <v>1</v>
+      </c>
       <c r="O23" s="40"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="41"/>
@@ -7317,11 +7454,19 @@
         <v>3</v>
       </c>
       <c r="I24" s="40"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="42"/>
+      <c r="J24" s="39">
+        <v>0</v>
+      </c>
+      <c r="K24" s="42">
+        <v>3</v>
+      </c>
       <c r="L24" s="40"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="41"/>
+      <c r="M24" s="100">
+        <v>1</v>
+      </c>
+      <c r="N24" s="41">
+        <v>1</v>
+      </c>
       <c r="O24" s="40"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="42"/>
@@ -7336,7 +7481,7 @@
       <c r="A25" s="39">
         <v>12</v>
       </c>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="113" t="s">
         <v>188</v>
       </c>
       <c r="C25" s="39"/>
@@ -7354,11 +7499,19 @@
         <v>3</v>
       </c>
       <c r="I25" s="40"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="41"/>
+      <c r="J25" s="39">
+        <v>0</v>
+      </c>
+      <c r="K25" s="41">
+        <v>3</v>
+      </c>
       <c r="L25" s="40"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="41"/>
+      <c r="M25" s="39">
+        <v>1</v>
+      </c>
+      <c r="N25" s="41">
+        <v>1</v>
+      </c>
       <c r="O25" s="40"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="41"/>
@@ -7373,7 +7526,7 @@
       <c r="A26" s="39">
         <v>12</v>
       </c>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="113" t="s">
         <v>76</v>
       </c>
       <c r="C26" s="39"/>
@@ -7391,11 +7544,19 @@
         <v>3</v>
       </c>
       <c r="I26" s="40"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="41"/>
+      <c r="J26" s="39">
+        <v>0</v>
+      </c>
+      <c r="K26" s="41">
+        <v>3</v>
+      </c>
       <c r="L26" s="40"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="41"/>
+      <c r="M26" s="39">
+        <v>1</v>
+      </c>
+      <c r="N26" s="41">
+        <v>1</v>
+      </c>
       <c r="O26" s="40"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="41"/>
@@ -7428,11 +7589,19 @@
         <v>3</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
+      <c r="J27" s="39">
+        <v>0</v>
+      </c>
+      <c r="K27" s="39">
+        <v>3</v>
+      </c>
       <c r="L27" s="40"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="41"/>
+      <c r="M27" s="39">
+        <v>1</v>
+      </c>
+      <c r="N27" s="41">
+        <v>2</v>
+      </c>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
@@ -7447,7 +7616,7 @@
       <c r="A28" s="39">
         <v>12</v>
       </c>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="113" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="39"/>
@@ -7465,11 +7634,19 @@
         <v>3</v>
       </c>
       <c r="I28" s="40"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="41"/>
+      <c r="J28" s="39">
+        <v>0</v>
+      </c>
+      <c r="K28" s="41">
+        <v>3</v>
+      </c>
       <c r="L28" s="40"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="41"/>
+      <c r="M28" s="100">
+        <v>0</v>
+      </c>
+      <c r="N28" s="112">
+        <v>2</v>
+      </c>
       <c r="O28" s="40"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="41"/>
@@ -7502,11 +7679,19 @@
         <v>3</v>
       </c>
       <c r="I29" s="40"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="41"/>
+      <c r="J29" s="39">
+        <v>0</v>
+      </c>
+      <c r="K29" s="41">
+        <v>3</v>
+      </c>
       <c r="L29" s="40"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="41"/>
+      <c r="M29" s="39">
+        <v>1</v>
+      </c>
+      <c r="N29" s="41">
+        <v>3</v>
+      </c>
       <c r="O29" s="40"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="41"/>
@@ -7521,7 +7706,7 @@
       <c r="A30" s="39">
         <v>12</v>
       </c>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="113" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="39"/>
@@ -7539,11 +7724,19 @@
         <v>3</v>
       </c>
       <c r="I30" s="40"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="41"/>
+      <c r="J30" s="39">
+        <v>0</v>
+      </c>
+      <c r="K30" s="41">
+        <v>3</v>
+      </c>
       <c r="L30" s="40"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="41"/>
+      <c r="M30" s="100">
+        <v>0</v>
+      </c>
+      <c r="N30" s="41">
+        <v>2</v>
+      </c>
       <c r="O30" s="40"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="41"/>
@@ -7556,20 +7749,32 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
-        <v>13</v>
-      </c>
-      <c r="B31" s="101" t="s">
-        <v>217</v>
-      </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39">
+        <v>-3</v>
+      </c>
+      <c r="E31" s="41">
+        <v>3</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="39">
+        <v>-3</v>
+      </c>
+      <c r="H31" s="41">
+        <v>3</v>
+      </c>
       <c r="I31" s="40"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="41"/>
+      <c r="J31" s="39">
+        <v>0</v>
+      </c>
+      <c r="K31" s="41">
+        <v>3</v>
+      </c>
       <c r="L31" s="40"/>
       <c r="M31" s="39"/>
       <c r="N31" s="41"/>
@@ -7581,35 +7786,39 @@
       <c r="T31" s="39"/>
       <c r="U31" s="40"/>
       <c r="V31" s="39"/>
-      <c r="W31" s="41"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W31" s="77"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
-        <v>12</v>
-      </c>
-      <c r="B32" s="95" t="s">
-        <v>178</v>
+        <v>10</v>
+      </c>
+      <c r="B32" s="113" t="s">
+        <v>61</v>
       </c>
       <c r="C32" s="39"/>
-      <c r="D32" s="39">
-        <v>-3</v>
-      </c>
-      <c r="E32" s="41">
-        <v>3</v>
-      </c>
+      <c r="D32" s="100"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="40"/>
       <c r="G32" s="39">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H32" s="41">
         <v>3</v>
       </c>
       <c r="I32" s="40"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="41"/>
+      <c r="J32" s="39">
+        <v>0</v>
+      </c>
+      <c r="K32" s="41">
+        <v>3</v>
+      </c>
       <c r="L32" s="40"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="41"/>
+      <c r="M32" s="39">
+        <v>1</v>
+      </c>
+      <c r="N32" s="41">
+        <v>2</v>
+      </c>
       <c r="O32" s="40"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="41"/>
@@ -7618,40 +7827,32 @@
       <c r="T32" s="39"/>
       <c r="U32" s="40"/>
       <c r="V32" s="39"/>
-      <c r="W32" s="77"/>
+      <c r="W32" s="41"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="39">
-        <v>10</v>
-      </c>
-      <c r="B33" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="39">
-        <v>-2</v>
-      </c>
-      <c r="H33" s="41">
-        <v>3</v>
-      </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="41"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="72"/>
@@ -7678,46 +7879,50 @@
       <c r="V34" s="43"/>
       <c r="W34" s="43"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="72"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="39">
+        <v>13</v>
+      </c>
+      <c r="B35" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="41"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>13</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C36" s="103"/>
       <c r="D36" s="103"/>
       <c r="E36" s="104"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="39"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
       <c r="I36" s="40"/>
-      <c r="J36" s="39"/>
+      <c r="J36" s="55"/>
       <c r="K36" s="41"/>
       <c r="L36" s="40"/>
       <c r="M36" s="39"/>
@@ -7734,26 +7939,26 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
-        <v>12</v>
-      </c>
-      <c r="B37" s="107" t="s">
-        <v>187</v>
+        <v>13</v>
+      </c>
+      <c r="B37" s="101" t="s">
+        <v>199</v>
       </c>
       <c r="C37" s="103"/>
       <c r="D37" s="103"/>
       <c r="E37" s="104"/>
-      <c r="F37" s="40"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="55"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="40"/>
       <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
+      <c r="K37" s="41"/>
       <c r="L37" s="40"/>
       <c r="M37" s="39"/>
       <c r="N37" s="41"/>
-      <c r="O37" s="39"/>
+      <c r="O37" s="40"/>
       <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
+      <c r="Q37" s="41"/>
       <c r="R37" s="40"/>
       <c r="S37" s="39"/>
       <c r="T37" s="39"/>
@@ -7765,17 +7970,21 @@
       <c r="A38" s="39">
         <v>13</v>
       </c>
-      <c r="B38" s="98" t="s">
-        <v>198</v>
+      <c r="B38" s="106" t="s">
+        <v>193</v>
       </c>
       <c r="C38" s="39"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="41"/>
+      <c r="D38" s="39">
+        <v>0</v>
+      </c>
+      <c r="E38" s="41">
+        <v>3</v>
+      </c>
       <c r="F38" s="40"/>
-      <c r="G38" s="39"/>
+      <c r="G38" s="55"/>
       <c r="H38" s="41"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="39"/>
+      <c r="J38" s="55"/>
       <c r="K38" s="41"/>
       <c r="L38" s="40"/>
       <c r="M38" s="39"/>
@@ -7792,26 +8001,26 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
-        <v>13</v>
-      </c>
-      <c r="B39" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="41"/>
+        <v>12</v>
+      </c>
+      <c r="B39" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="40"/>
-      <c r="G39" s="39"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="40"/>
+      <c r="I39" s="39"/>
       <c r="J39" s="39"/>
-      <c r="K39" s="41"/>
+      <c r="K39" s="39"/>
       <c r="L39" s="40"/>
       <c r="M39" s="39"/>
       <c r="N39" s="41"/>
-      <c r="O39" s="40"/>
+      <c r="O39" s="39"/>
       <c r="P39" s="39"/>
-      <c r="Q39" s="41"/>
+      <c r="Q39" s="39"/>
       <c r="R39" s="40"/>
       <c r="S39" s="39"/>
       <c r="T39" s="39"/>
@@ -7819,22 +8028,16 @@
       <c r="V39" s="39"/>
       <c r="W39" s="41"/>
     </row>
-    <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>13</v>
       </c>
-      <c r="B40" s="99" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="39">
-        <v>-17</v>
-      </c>
-      <c r="D40" s="50">
-        <v>-4</v>
-      </c>
-      <c r="E40" s="41">
-        <v>3</v>
-      </c>
+      <c r="B40" s="98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="40"/>
       <c r="G40" s="39"/>
       <c r="H40" s="41"/>
@@ -7854,63 +8057,73 @@
       <c r="V40" s="39"/>
       <c r="W40" s="41"/>
     </row>
-    <row r="41" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="73"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="39">
+        <v>13</v>
+      </c>
+      <c r="B41" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="41"/>
     </row>
     <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="88"/>
-      <c r="B42" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="73"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
+      <c r="A42" s="39">
+        <v>13</v>
+      </c>
+      <c r="B42" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="39">
+        <v>-17</v>
+      </c>
+      <c r="D42" s="50">
+        <v>-4</v>
+      </c>
+      <c r="E42" s="41">
+        <v>3</v>
+      </c>
+      <c r="F42" s="40"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="41"/>
     </row>
     <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="89"/>
-      <c r="B43" s="96" t="s">
-        <v>38</v>
-      </c>
+      <c r="A43" s="72"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
@@ -7934,9 +8147,9 @@
       <c r="W43" s="43"/>
     </row>
     <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="90"/>
+      <c r="A44" s="88"/>
       <c r="B44" s="96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
@@ -7961,9 +8174,9 @@
       <c r="W44" s="43"/>
     </row>
     <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="91"/>
+      <c r="A45" s="89"/>
       <c r="B45" s="96" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="43"/>
@@ -7988,9 +8201,9 @@
       <c r="W45" s="43"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="92"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="96" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
@@ -8015,9 +8228,9 @@
       <c r="W46" s="43"/>
     </row>
     <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="93"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="96" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="43"/>
       <c r="D47" s="43"/>
@@ -8042,9 +8255,9 @@
       <c r="W47" s="43"/>
     </row>
     <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="102"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="96" t="s">
-        <v>215</v>
+        <v>55</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="43"/>
@@ -8069,9 +8282,9 @@
       <c r="W48" s="43"/>
     </row>
     <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="105"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="96" t="s">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="C49" s="43"/>
       <c r="D49" s="43"/>
@@ -8094,6 +8307,60 @@
       <c r="U49" s="73"/>
       <c r="V49" s="43"/>
       <c r="W49" s="43"/>
+    </row>
+    <row r="50" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="102"/>
+      <c r="B50" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="72"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+    </row>
+    <row r="51" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="105"/>
+      <c r="B51" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="72"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F996F30D-83B7-43C3-A502-AF6B313C564A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86ADB7EB-3EEB-42EB-8188-B896B2653612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="220">
   <si>
     <t>nome</t>
   </si>
@@ -696,6 +696,9 @@
   </si>
   <si>
     <t>Zine</t>
+  </si>
+  <si>
+    <t>!!!!!!!</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,6 +842,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1314,6 +1323,12 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1322,10 +1337,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4239,41 +4251,41 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="61"/>
-      <c r="C1" s="108">
-        <v>1</v>
-      </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="108">
-        <v>2</v>
-      </c>
-      <c r="G1" s="109"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="108">
-        <v>3</v>
-      </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="108">
+      <c r="C1" s="110">
+        <v>1</v>
+      </c>
+      <c r="D1" s="111"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="110">
+        <v>2</v>
+      </c>
+      <c r="G1" s="111"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="110">
+        <v>3</v>
+      </c>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="110">
         <v>4</v>
       </c>
-      <c r="M1" s="109"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="108">
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="110">
         <v>5</v>
       </c>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="108">
+      <c r="P1" s="111"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="110">
         <v>6</v>
       </c>
-      <c r="S1" s="109"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="108">
+      <c r="S1" s="111"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="110">
         <v>7</v>
       </c>
-      <c r="V1" s="109"/>
-      <c r="W1" s="110"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="112"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -6432,10 +6444,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A82F9B-DDA5-453E-AF76-85C4D400084F}">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6446,41 +6458,41 @@
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="108">
-        <v>1</v>
-      </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="108">
-        <v>2</v>
-      </c>
-      <c r="G1" s="109"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="108">
-        <v>3</v>
-      </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="108">
+      <c r="C1" s="110">
+        <v>1</v>
+      </c>
+      <c r="D1" s="111"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="110">
+        <v>2</v>
+      </c>
+      <c r="G1" s="111"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="110">
+        <v>3</v>
+      </c>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="110">
         <v>4</v>
       </c>
-      <c r="M1" s="109"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="108">
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="110">
         <v>5</v>
       </c>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="108">
+      <c r="P1" s="111"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="110">
         <v>6</v>
       </c>
-      <c r="S1" s="109"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="108">
+      <c r="S1" s="111"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="110">
         <v>7</v>
       </c>
-      <c r="V1" s="109"/>
-      <c r="W1" s="110"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="112"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -6583,11 +6595,19 @@
         <v>2</v>
       </c>
       <c r="O3" s="40"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="41"/>
+      <c r="P3" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="41">
+        <v>2</v>
+      </c>
       <c r="R3" s="40"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
+      <c r="S3" s="39">
+        <v>0</v>
+      </c>
+      <c r="T3" s="39">
+        <v>2</v>
+      </c>
       <c r="U3" s="40"/>
       <c r="V3" s="39"/>
       <c r="W3" s="41"/>
@@ -6624,11 +6644,19 @@
         <v>3</v>
       </c>
       <c r="O4" s="40"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="41"/>
+      <c r="P4" s="39">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="41">
+        <v>2</v>
+      </c>
       <c r="R4" s="40"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
+      <c r="S4" s="39">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="39">
+        <v>2</v>
+      </c>
       <c r="U4" s="40"/>
       <c r="V4" s="39"/>
       <c r="W4" s="41"/>
@@ -6669,11 +6697,19 @@
         <v>1</v>
       </c>
       <c r="O5" s="40"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="41"/>
+      <c r="P5" s="39">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>0</v>
+      </c>
       <c r="R5" s="40"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
+      <c r="S5" s="39">
+        <v>0</v>
+      </c>
+      <c r="T5" s="39">
+        <v>3</v>
+      </c>
       <c r="U5" s="40"/>
       <c r="V5" s="39"/>
       <c r="W5" s="41"/>
@@ -6682,7 +6718,7 @@
       <c r="A6" s="39">
         <v>14</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="108" t="s">
         <v>211</v>
       </c>
       <c r="C6" s="39"/>
@@ -6714,11 +6750,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="40"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="41"/>
+      <c r="P6" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="41">
+        <v>1</v>
+      </c>
       <c r="R6" s="40"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
+      <c r="S6" s="39">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="39">
+        <v>2</v>
+      </c>
       <c r="U6" s="40"/>
       <c r="V6" s="39"/>
       <c r="W6" s="41"/>
@@ -6727,7 +6771,7 @@
       <c r="A7" s="39">
         <v>14</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="109" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="39"/>
@@ -6752,14 +6796,26 @@
         <v>3</v>
       </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="41"/>
+      <c r="M7" s="39">
+        <v>0</v>
+      </c>
+      <c r="N7" s="41">
+        <v>3</v>
+      </c>
       <c r="O7" s="40"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="41"/>
+      <c r="P7" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="41">
+        <v>3</v>
+      </c>
       <c r="R7" s="40"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
+      <c r="S7" s="39">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="39">
+        <v>3</v>
+      </c>
       <c r="U7" s="40"/>
       <c r="V7" s="39"/>
       <c r="W7" s="41"/>
@@ -6800,11 +6856,19 @@
         <v>2</v>
       </c>
       <c r="O8" s="40"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="41"/>
+      <c r="P8" s="39">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="41">
+        <v>1</v>
+      </c>
       <c r="R8" s="40"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
+      <c r="S8" s="39">
+        <v>0</v>
+      </c>
+      <c r="T8" s="39">
+        <v>3</v>
+      </c>
       <c r="U8" s="40"/>
       <c r="V8" s="39"/>
       <c r="W8" s="41"/>
@@ -6813,7 +6877,7 @@
       <c r="A9" s="39">
         <v>13</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="109" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="39"/>
@@ -6845,11 +6909,19 @@
         <v>2</v>
       </c>
       <c r="O9" s="40"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="41"/>
+      <c r="P9" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="41">
+        <v>2</v>
+      </c>
       <c r="R9" s="40"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
+      <c r="S9" s="39">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="39">
+        <v>3</v>
+      </c>
       <c r="U9" s="40"/>
       <c r="V9" s="39"/>
       <c r="W9" s="41"/>
@@ -6890,11 +6962,19 @@
         <v>1</v>
       </c>
       <c r="O10" s="40"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="41"/>
+      <c r="P10" s="39">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="41">
+        <v>2</v>
+      </c>
       <c r="R10" s="40"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
+      <c r="S10" s="39">
+        <v>0</v>
+      </c>
+      <c r="T10" s="39">
+        <v>3</v>
+      </c>
       <c r="U10" s="40"/>
       <c r="V10" s="39"/>
       <c r="W10" s="41"/>
@@ -6903,27 +6983,51 @@
       <c r="A11" s="39">
         <v>13</v>
       </c>
-      <c r="B11" s="101" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
+      <c r="B11" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39">
+        <v>0</v>
+      </c>
+      <c r="E11" s="41">
+        <v>3</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39">
+        <v>0</v>
+      </c>
+      <c r="H11" s="39">
+        <v>3</v>
+      </c>
+      <c r="I11" s="40"/>
+      <c r="J11" s="39">
+        <v>1</v>
+      </c>
+      <c r="K11" s="41">
+        <v>2</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="41"/>
+      <c r="M11" s="39">
+        <v>1</v>
+      </c>
+      <c r="N11" s="41">
+        <v>3</v>
+      </c>
       <c r="O11" s="40"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="41"/>
+      <c r="P11" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="41">
+        <v>1</v>
+      </c>
       <c r="R11" s="40"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
+      <c r="S11" s="39">
+        <v>0</v>
+      </c>
+      <c r="T11" s="39">
+        <v>3</v>
+      </c>
       <c r="U11" s="40"/>
       <c r="V11" s="39"/>
       <c r="W11" s="41"/>
@@ -6932,43 +7036,47 @@
       <c r="A12" s="39">
         <v>13</v>
       </c>
-      <c r="B12" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39">
-        <v>0</v>
-      </c>
-      <c r="E12" s="41">
-        <v>3</v>
-      </c>
+      <c r="B12" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H12" s="39">
         <v>3</v>
       </c>
       <c r="I12" s="40"/>
       <c r="J12" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="39">
         <v>1</v>
       </c>
       <c r="N12" s="41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12" s="40"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="41"/>
+      <c r="P12" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="41">
+        <v>0</v>
+      </c>
       <c r="R12" s="40"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
+      <c r="S12" s="39">
+        <v>-2</v>
+      </c>
+      <c r="T12" s="39">
+        <v>3</v>
+      </c>
       <c r="U12" s="40"/>
       <c r="V12" s="39"/>
       <c r="W12" s="41"/>
@@ -6977,27 +7085,35 @@
       <c r="A13" s="39">
         <v>13</v>
       </c>
-      <c r="B13" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="41"/>
+      <c r="B13" s="106" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39">
+        <v>0</v>
+      </c>
+      <c r="E13" s="41">
+        <v>3</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="104"/>
       <c r="R13" s="40"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
+      <c r="S13" s="39">
+        <v>0</v>
+      </c>
+      <c r="T13" s="39">
+        <v>3</v>
+      </c>
       <c r="U13" s="40"/>
       <c r="V13" s="39"/>
       <c r="W13" s="41"/>
@@ -7006,39 +7122,51 @@
       <c r="A14" s="39">
         <v>13</v>
       </c>
-      <c r="B14" s="101" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="39"/>
+      <c r="B14" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39">
+        <v>0</v>
+      </c>
+      <c r="E14" s="41">
+        <v>3</v>
+      </c>
+      <c r="F14" s="40"/>
       <c r="G14" s="39">
         <v>-1</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="41">
         <v>3</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="40"/>
       <c r="M14" s="39">
         <v>1</v>
       </c>
       <c r="N14" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" s="40"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="41"/>
+      <c r="P14" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="41">
+        <v>3</v>
+      </c>
       <c r="R14" s="40"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
+      <c r="S14" s="39">
+        <v>0</v>
+      </c>
+      <c r="T14" s="39">
+        <v>3</v>
+      </c>
       <c r="U14" s="40"/>
       <c r="V14" s="39"/>
       <c r="W14" s="41"/>
@@ -7047,8 +7175,8 @@
       <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="95" t="s">
-        <v>200</v>
+      <c r="B15" s="109" t="s">
+        <v>185</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39">
@@ -7076,14 +7204,22 @@
         <v>1</v>
       </c>
       <c r="N15" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" s="40"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="41"/>
+      <c r="P15" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="41">
+        <v>3</v>
+      </c>
       <c r="R15" s="40"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
+      <c r="S15" s="39">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="39">
+        <v>3</v>
+      </c>
       <c r="U15" s="40"/>
       <c r="V15" s="39"/>
       <c r="W15" s="41"/>
@@ -7092,8 +7228,8 @@
       <c r="A16" s="39">
         <v>13</v>
       </c>
-      <c r="B16" s="95" t="s">
-        <v>185</v>
+      <c r="B16" s="98" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39">
@@ -7117,18 +7253,22 @@
         <v>2</v>
       </c>
       <c r="L16" s="40"/>
-      <c r="M16" s="39">
-        <v>1</v>
-      </c>
-      <c r="N16" s="41">
-        <v>3</v>
-      </c>
+      <c r="M16" s="55"/>
+      <c r="N16" s="41"/>
       <c r="O16" s="40"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="41"/>
+      <c r="P16" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="41">
+        <v>1</v>
+      </c>
       <c r="R16" s="40"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
+      <c r="S16" s="39">
+        <v>-2</v>
+      </c>
+      <c r="T16" s="39">
+        <v>3</v>
+      </c>
       <c r="U16" s="40"/>
       <c r="V16" s="39"/>
       <c r="W16" s="41"/>
@@ -7137,39 +7277,51 @@
       <c r="A17" s="39">
         <v>13</v>
       </c>
-      <c r="B17" s="95" t="s">
-        <v>13</v>
+      <c r="B17" s="108" t="s">
+        <v>60</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E17" s="41">
         <v>3</v>
       </c>
       <c r="F17" s="40"/>
-      <c r="G17" s="39">
+      <c r="G17" s="100">
         <v>-1</v>
       </c>
       <c r="H17" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="40"/>
       <c r="J17" s="39">
         <v>1</v>
       </c>
       <c r="K17" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="40"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="41"/>
+      <c r="M17" s="39">
+        <v>0</v>
+      </c>
+      <c r="N17" s="41">
+        <v>2</v>
+      </c>
       <c r="O17" s="40"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="41"/>
+      <c r="P17" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="41">
+        <v>1</v>
+      </c>
       <c r="R17" s="40"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
+      <c r="S17" s="39">
+        <v>-2</v>
+      </c>
+      <c r="T17" s="39">
+        <v>3</v>
+      </c>
       <c r="U17" s="40"/>
       <c r="V17" s="39"/>
       <c r="W17" s="41"/>
@@ -7178,29 +7330,29 @@
       <c r="A18" s="39">
         <v>13</v>
       </c>
-      <c r="B18" s="113" t="s">
-        <v>60</v>
+      <c r="B18" s="108" t="s">
+        <v>20</v>
       </c>
       <c r="C18" s="39"/>
-      <c r="D18" s="39">
+      <c r="D18" s="100">
         <v>-1</v>
       </c>
       <c r="E18" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="40"/>
-      <c r="G18" s="100">
+      <c r="G18" s="39">
         <v>-1</v>
       </c>
       <c r="H18" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="40"/>
       <c r="J18" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="40"/>
       <c r="M18" s="39">
@@ -7210,11 +7362,19 @@
         <v>2</v>
       </c>
       <c r="O18" s="40"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="41"/>
+      <c r="P18" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="41">
+        <v>1</v>
+      </c>
       <c r="R18" s="40"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
+      <c r="S18" s="39">
+        <v>-2</v>
+      </c>
+      <c r="T18" s="39">
+        <v>3</v>
+      </c>
       <c r="U18" s="40"/>
       <c r="V18" s="39"/>
       <c r="W18" s="41"/>
@@ -7223,15 +7383,15 @@
       <c r="A19" s="39">
         <v>13</v>
       </c>
-      <c r="B19" s="113" t="s">
-        <v>20</v>
+      <c r="B19" s="108" t="s">
+        <v>184</v>
       </c>
       <c r="C19" s="39"/>
-      <c r="D19" s="100">
+      <c r="D19" s="39">
         <v>-1</v>
       </c>
       <c r="E19" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="39">
@@ -7240,149 +7400,181 @@
       <c r="H19" s="41">
         <v>3</v>
       </c>
-      <c r="I19" s="40"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="39">
         <v>0</v>
       </c>
-      <c r="K19" s="41">
-        <v>2</v>
+      <c r="K19" s="39">
+        <v>3</v>
       </c>
       <c r="L19" s="40"/>
-      <c r="M19" s="39">
+      <c r="M19" s="100">
         <v>0</v>
       </c>
       <c r="N19" s="41">
         <v>2</v>
       </c>
-      <c r="O19" s="40"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="41"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="39">
+        <v>3</v>
+      </c>
       <c r="R19" s="40"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
+      <c r="S19" s="39">
+        <v>-2</v>
+      </c>
+      <c r="T19" s="39">
+        <v>3</v>
+      </c>
       <c r="U19" s="40"/>
       <c r="V19" s="39"/>
       <c r="W19" s="41"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
-        <v>13</v>
-      </c>
-      <c r="B20" s="113" t="s">
-        <v>184</v>
+        <v>12</v>
+      </c>
+      <c r="B20" s="108" t="s">
+        <v>16</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="41">
         <v>3</v>
       </c>
-      <c r="F20" s="40"/>
+      <c r="F20" s="87"/>
       <c r="G20" s="39">
         <v>-1</v>
       </c>
       <c r="H20" s="41">
         <v>3</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="39">
         <v>0</v>
       </c>
-      <c r="K20" s="39">
-        <v>3</v>
+      <c r="K20" s="41">
+        <v>1</v>
       </c>
       <c r="L20" s="40"/>
       <c r="M20" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="41">
-        <v>2</v>
-      </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
+        <v>3</v>
+      </c>
+      <c r="O20" s="40"/>
+      <c r="P20" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="41">
+        <v>1</v>
+      </c>
       <c r="R20" s="40"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
+      <c r="S20" s="39">
+        <v>-2</v>
+      </c>
+      <c r="T20" s="39">
+        <v>3</v>
+      </c>
       <c r="U20" s="40"/>
       <c r="V20" s="39"/>
       <c r="W20" s="41"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
-        <v>12</v>
-      </c>
-      <c r="B21" s="113" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39">
-        <v>0</v>
-      </c>
-      <c r="E21" s="41">
-        <v>3</v>
-      </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="39">
-        <v>-1</v>
-      </c>
-      <c r="H21" s="41">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B21" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
       <c r="I21" s="40"/>
       <c r="J21" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="40"/>
-      <c r="M21" s="39">
-        <v>1</v>
-      </c>
-      <c r="N21" s="41">
-        <v>3</v>
-      </c>
+      <c r="M21" s="55"/>
+      <c r="N21" s="41"/>
       <c r="O21" s="40"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="41"/>
+      <c r="P21" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="41">
+        <v>2</v>
+      </c>
       <c r="R21" s="40"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
+      <c r="S21" s="39">
+        <v>-1</v>
+      </c>
+      <c r="T21" s="39">
+        <v>3</v>
+      </c>
       <c r="U21" s="40"/>
       <c r="V21" s="39"/>
       <c r="W21" s="41"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
-        <v>13</v>
-      </c>
-      <c r="B22" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
+        <v>12</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39">
+        <v>0</v>
+      </c>
+      <c r="E22" s="41">
+        <v>3</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="39">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="41">
+        <v>3</v>
+      </c>
       <c r="I22" s="40"/>
       <c r="J22" s="39">
         <v>1</v>
       </c>
       <c r="K22" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" s="40"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="39">
+        <v>1</v>
+      </c>
+      <c r="N22" s="41">
+        <v>1</v>
+      </c>
       <c r="O22" s="40"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="41"/>
+      <c r="P22" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="41">
+        <v>2</v>
+      </c>
       <c r="R22" s="40"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
+      <c r="S22" s="39">
+        <v>-2</v>
+      </c>
+      <c r="T22" s="39">
+        <v>3</v>
+      </c>
       <c r="U22" s="40"/>
       <c r="V22" s="39"/>
       <c r="W22" s="41"/>
@@ -7391,8 +7583,8 @@
       <c r="A23" s="39">
         <v>12</v>
       </c>
-      <c r="B23" s="95" t="s">
-        <v>22</v>
+      <c r="B23" s="108" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39">
@@ -7410,41 +7602,49 @@
       </c>
       <c r="I23" s="40"/>
       <c r="J23" s="39">
-        <v>1</v>
-      </c>
-      <c r="K23" s="41">
+        <v>0</v>
+      </c>
+      <c r="K23" s="42">
         <v>3</v>
       </c>
       <c r="L23" s="40"/>
-      <c r="M23" s="39">
+      <c r="M23" s="100">
         <v>1</v>
       </c>
       <c r="N23" s="41">
         <v>1</v>
       </c>
       <c r="O23" s="40"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="41"/>
+      <c r="P23" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="42">
+        <v>2</v>
+      </c>
       <c r="R23" s="40"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
+      <c r="S23" s="39">
+        <v>-2</v>
+      </c>
+      <c r="T23" s="39">
+        <v>3</v>
+      </c>
       <c r="U23" s="40"/>
       <c r="V23" s="39"/>
-      <c r="W23" s="41"/>
+      <c r="W23" s="42"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>12</v>
       </c>
-      <c r="B24" s="95" t="s">
-        <v>45</v>
+      <c r="B24" s="108" t="s">
+        <v>188</v>
       </c>
       <c r="C24" s="39"/>
-      <c r="D24" s="39">
+      <c r="D24" s="100">
         <v>0</v>
       </c>
       <c r="E24" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="39">
@@ -7457,32 +7657,40 @@
       <c r="J24" s="39">
         <v>0</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="41">
         <v>3</v>
       </c>
       <c r="L24" s="40"/>
-      <c r="M24" s="100">
+      <c r="M24" s="39">
         <v>1</v>
       </c>
       <c r="N24" s="41">
         <v>1</v>
       </c>
       <c r="O24" s="40"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="42"/>
+      <c r="P24" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="41">
+        <v>1</v>
+      </c>
       <c r="R24" s="40"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
+      <c r="S24" s="39">
+        <v>-3</v>
+      </c>
+      <c r="T24" s="39">
+        <v>3</v>
+      </c>
       <c r="U24" s="40"/>
       <c r="V24" s="39"/>
-      <c r="W24" s="42"/>
+      <c r="W24" s="41"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>12</v>
       </c>
-      <c r="B25" s="113" t="s">
-        <v>188</v>
+      <c r="B25" s="108" t="s">
+        <v>76</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="100">
@@ -7513,11 +7721,19 @@
         <v>1</v>
       </c>
       <c r="O25" s="40"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="41"/>
+      <c r="P25" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="41">
+        <v>2</v>
+      </c>
       <c r="R25" s="40"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
+      <c r="S25" s="39">
+        <v>-3</v>
+      </c>
+      <c r="T25" s="39">
+        <v>3</v>
+      </c>
       <c r="U25" s="40"/>
       <c r="V25" s="39"/>
       <c r="W25" s="41"/>
@@ -7526,15 +7742,15 @@
       <c r="A26" s="39">
         <v>12</v>
       </c>
-      <c r="B26" s="113" t="s">
-        <v>76</v>
+      <c r="B26" s="95" t="s">
+        <v>174</v>
       </c>
       <c r="C26" s="39"/>
-      <c r="D26" s="100">
+      <c r="D26" s="39">
         <v>0</v>
       </c>
       <c r="E26" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="39">
@@ -7543,11 +7759,11 @@
       <c r="H26" s="41">
         <v>3</v>
       </c>
-      <c r="I26" s="40"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="39">
         <v>0</v>
       </c>
-      <c r="K26" s="41">
+      <c r="K26" s="39">
         <v>3</v>
       </c>
       <c r="L26" s="40"/>
@@ -7555,14 +7771,22 @@
         <v>1</v>
       </c>
       <c r="N26" s="41">
-        <v>1</v>
-      </c>
-      <c r="O26" s="40"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="41"/>
+        <v>2</v>
+      </c>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="39">
+        <v>1</v>
+      </c>
       <c r="R26" s="40"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
+      <c r="S26" s="39">
+        <v>-3</v>
+      </c>
+      <c r="T26" s="39">
+        <v>3</v>
+      </c>
       <c r="U26" s="40"/>
       <c r="V26" s="39"/>
       <c r="W26" s="41"/>
@@ -7571,8 +7795,8 @@
       <c r="A27" s="39">
         <v>12</v>
       </c>
-      <c r="B27" s="95" t="s">
-        <v>174</v>
+      <c r="B27" s="108" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39">
@@ -7588,26 +7812,36 @@
       <c r="H27" s="41">
         <v>3</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="40"/>
       <c r="J27" s="39">
         <v>0</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="41">
         <v>3</v>
       </c>
       <c r="L27" s="40"/>
-      <c r="M27" s="39">
-        <v>1</v>
+      <c r="M27" s="100">
+        <v>0</v>
       </c>
       <c r="N27" s="41">
         <v>2</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="41">
+        <v>2</v>
+      </c>
+      <c r="R27" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="S27" s="39">
+        <v>0</v>
+      </c>
+      <c r="T27" s="39">
+        <v>1</v>
+      </c>
       <c r="U27" s="40"/>
       <c r="V27" s="39"/>
       <c r="W27" s="41"/>
@@ -7616,8 +7850,8 @@
       <c r="A28" s="39">
         <v>12</v>
       </c>
-      <c r="B28" s="113" t="s">
-        <v>47</v>
+      <c r="B28" s="95" t="s">
+        <v>59</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39">
@@ -7628,7 +7862,7 @@
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="39">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H28" s="41">
         <v>3</v>
@@ -7641,18 +7875,26 @@
         <v>3</v>
       </c>
       <c r="L28" s="40"/>
-      <c r="M28" s="100">
-        <v>0</v>
-      </c>
-      <c r="N28" s="112">
-        <v>2</v>
+      <c r="M28" s="39">
+        <v>1</v>
+      </c>
+      <c r="N28" s="41">
+        <v>3</v>
       </c>
       <c r="O28" s="40"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="41"/>
+      <c r="P28" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="41">
+        <v>1</v>
+      </c>
       <c r="R28" s="40"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
+      <c r="S28" s="39">
+        <v>-4</v>
+      </c>
+      <c r="T28" s="39">
+        <v>3</v>
+      </c>
       <c r="U28" s="40"/>
       <c r="V28" s="39"/>
       <c r="W28" s="41"/>
@@ -7661,12 +7903,12 @@
       <c r="A29" s="39">
         <v>12</v>
       </c>
-      <c r="B29" s="95" t="s">
-        <v>59</v>
+      <c r="B29" s="108" t="s">
+        <v>68</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E29" s="41">
         <v>3</v>
@@ -7686,18 +7928,26 @@
         <v>3</v>
       </c>
       <c r="L29" s="40"/>
-      <c r="M29" s="39">
-        <v>1</v>
+      <c r="M29" s="100">
+        <v>0</v>
       </c>
       <c r="N29" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O29" s="40"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="41"/>
+      <c r="P29" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="41">
+        <v>3</v>
+      </c>
       <c r="R29" s="40"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
+      <c r="S29" s="39">
+        <v>-3</v>
+      </c>
+      <c r="T29" s="39">
+        <v>3</v>
+      </c>
       <c r="U29" s="40"/>
       <c r="V29" s="39"/>
       <c r="W29" s="41"/>
@@ -7706,43 +7956,35 @@
       <c r="A30" s="39">
         <v>12</v>
       </c>
-      <c r="B30" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39">
-        <v>-1</v>
-      </c>
-      <c r="E30" s="41">
-        <v>3</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="39">
-        <v>-2</v>
-      </c>
-      <c r="H30" s="41">
-        <v>3</v>
-      </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="39">
-        <v>0</v>
-      </c>
-      <c r="K30" s="41">
-        <v>3</v>
-      </c>
-      <c r="L30" s="40"/>
-      <c r="M30" s="100">
-        <v>0</v>
-      </c>
-      <c r="N30" s="41">
-        <v>2</v>
-      </c>
+      <c r="B30" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
       <c r="O30" s="40"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="41"/>
+      <c r="P30" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="41">
+        <v>3</v>
+      </c>
       <c r="R30" s="40"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
+      <c r="S30" s="39">
+        <v>-4</v>
+      </c>
+      <c r="T30" s="39">
+        <v>3</v>
+      </c>
       <c r="U30" s="40"/>
       <c r="V30" s="39"/>
       <c r="W30" s="41"/>
@@ -7751,7 +7993,7 @@
       <c r="A31" s="39">
         <v>12</v>
       </c>
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="98" t="s">
         <v>178</v>
       </c>
       <c r="C31" s="39"/>
@@ -7776,14 +8018,22 @@
         <v>3</v>
       </c>
       <c r="L31" s="40"/>
-      <c r="M31" s="39"/>
+      <c r="M31" s="55"/>
       <c r="N31" s="41"/>
       <c r="O31" s="40"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="41"/>
+      <c r="P31" s="39">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="41">
+        <v>3</v>
+      </c>
       <c r="R31" s="40"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
+      <c r="S31" s="39">
+        <v>-4</v>
+      </c>
+      <c r="T31" s="39">
+        <v>3</v>
+      </c>
       <c r="U31" s="40"/>
       <c r="V31" s="39"/>
       <c r="W31" s="77"/>
@@ -7792,7 +8042,7 @@
       <c r="A32" s="39">
         <v>10</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="108" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="39"/>
@@ -7820,11 +8070,19 @@
         <v>2</v>
       </c>
       <c r="O32" s="40"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="41"/>
+      <c r="P32" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="41">
+        <v>3</v>
+      </c>
       <c r="R32" s="40"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
+      <c r="S32" s="39">
+        <v>-4</v>
+      </c>
+      <c r="T32" s="39">
+        <v>3</v>
+      </c>
       <c r="U32" s="40"/>
       <c r="V32" s="39"/>
       <c r="W32" s="41"/>
@@ -7884,7 +8142,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C35" s="103"/>
       <c r="D35" s="103"/>
@@ -7892,11 +8150,11 @@
       <c r="F35" s="103"/>
       <c r="G35" s="103"/>
       <c r="H35" s="103"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="41"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
       <c r="L35" s="40"/>
-      <c r="M35" s="39"/>
+      <c r="M35" s="55"/>
       <c r="N35" s="41"/>
       <c r="O35" s="40"/>
       <c r="P35" s="39"/>
@@ -7913,7 +8171,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C36" s="103"/>
       <c r="D36" s="103"/>
@@ -7921,14 +8179,14 @@
       <c r="F36" s="103"/>
       <c r="G36" s="103"/>
       <c r="H36" s="103"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="41"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
       <c r="O36" s="40"/>
-      <c r="P36" s="39"/>
+      <c r="P36" s="55"/>
       <c r="Q36" s="41"/>
       <c r="R36" s="40"/>
       <c r="S36" s="39"/>
@@ -7942,16 +8200,16 @@
         <v>13</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C37" s="103"/>
       <c r="D37" s="103"/>
       <c r="E37" s="104"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="39"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
       <c r="I37" s="40"/>
-      <c r="J37" s="39"/>
+      <c r="J37" s="55"/>
       <c r="K37" s="41"/>
       <c r="L37" s="40"/>
       <c r="M37" s="39"/>
@@ -7970,21 +8228,17 @@
       <c r="A38" s="39">
         <v>13</v>
       </c>
-      <c r="B38" s="106" t="s">
-        <v>193</v>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39">
-        <v>0</v>
-      </c>
-      <c r="E38" s="41">
-        <v>3</v>
-      </c>
-      <c r="F38" s="40"/>
+      <c r="B38" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="39"/>
       <c r="G38" s="55"/>
-      <c r="H38" s="41"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="55"/>
+      <c r="J38" s="39"/>
       <c r="K38" s="41"/>
       <c r="L38" s="40"/>
       <c r="M38" s="39"/>
@@ -8001,26 +8255,26 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
-        <v>12</v>
-      </c>
-      <c r="B39" s="107" t="s">
-        <v>187</v>
+        <v>13</v>
+      </c>
+      <c r="B39" s="101" t="s">
+        <v>218</v>
       </c>
       <c r="C39" s="103"/>
       <c r="D39" s="103"/>
       <c r="E39" s="104"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
       <c r="L39" s="40"/>
-      <c r="M39" s="39"/>
+      <c r="M39" s="55"/>
       <c r="N39" s="41"/>
-      <c r="O39" s="39"/>
+      <c r="O39" s="40"/>
       <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
+      <c r="Q39" s="41"/>
       <c r="R39" s="40"/>
       <c r="S39" s="39"/>
       <c r="T39" s="39"/>
@@ -8030,26 +8284,26 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
-        <v>13</v>
-      </c>
-      <c r="B40" s="98" t="s">
-        <v>198</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="41"/>
+        <v>12</v>
+      </c>
+      <c r="B40" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="104"/>
       <c r="F40" s="40"/>
-      <c r="G40" s="39"/>
+      <c r="G40" s="55"/>
       <c r="H40" s="41"/>
-      <c r="I40" s="40"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="39"/>
-      <c r="K40" s="41"/>
+      <c r="K40" s="39"/>
       <c r="L40" s="40"/>
       <c r="M40" s="39"/>
       <c r="N40" s="41"/>
-      <c r="O40" s="40"/>
+      <c r="O40" s="39"/>
       <c r="P40" s="39"/>
-      <c r="Q40" s="41"/>
+      <c r="Q40" s="39"/>
       <c r="R40" s="40"/>
       <c r="S40" s="39"/>
       <c r="T40" s="39"/>
@@ -8062,7 +8316,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="98" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="C41" s="39"/>
       <c r="D41" s="55"/>
@@ -8086,22 +8340,16 @@
       <c r="V41" s="39"/>
       <c r="W41" s="41"/>
     </row>
-    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>13</v>
       </c>
-      <c r="B42" s="99" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42" s="39">
-        <v>-17</v>
-      </c>
-      <c r="D42" s="50">
-        <v>-4</v>
-      </c>
-      <c r="E42" s="41">
-        <v>3</v>
-      </c>
+      <c r="B42" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="40"/>
       <c r="G42" s="39"/>
       <c r="H42" s="41"/>
@@ -8122,35 +8370,43 @@
       <c r="W42" s="41"/>
     </row>
     <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="72"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="73"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
+      <c r="A43" s="39">
+        <v>13</v>
+      </c>
+      <c r="B43" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="39">
+        <v>-17</v>
+      </c>
+      <c r="D43" s="50">
+        <v>-4</v>
+      </c>
+      <c r="E43" s="41">
+        <v>3</v>
+      </c>
+      <c r="F43" s="40"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="41"/>
     </row>
     <row r="44" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="88"/>
-      <c r="B44" s="96" t="s">
-        <v>37</v>
-      </c>
+      <c r="A44" s="72"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
@@ -8174,9 +8430,9 @@
       <c r="W44" s="43"/>
     </row>
     <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="89"/>
+      <c r="A45" s="88"/>
       <c r="B45" s="96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="43"/>
@@ -8201,9 +8457,9 @@
       <c r="W45" s="43"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="90"/>
+      <c r="A46" s="89"/>
       <c r="B46" s="96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
@@ -8228,9 +8484,9 @@
       <c r="W46" s="43"/>
     </row>
     <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="91"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="96" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C47" s="43"/>
       <c r="D47" s="43"/>
@@ -8255,9 +8511,9 @@
       <c r="W47" s="43"/>
     </row>
     <row r="48" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="92"/>
+      <c r="A48" s="91"/>
       <c r="B48" s="96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="43"/>
@@ -8282,9 +8538,9 @@
       <c r="W48" s="43"/>
     </row>
     <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="93"/>
+      <c r="A49" s="92"/>
       <c r="B49" s="96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="43"/>
       <c r="D49" s="43"/>
@@ -8309,9 +8565,9 @@
       <c r="W49" s="43"/>
     </row>
     <row r="50" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="102"/>
+      <c r="A50" s="93"/>
       <c r="B50" s="96" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="C50" s="43"/>
       <c r="D50" s="43"/>
@@ -8336,9 +8592,9 @@
       <c r="W50" s="43"/>
     </row>
     <row r="51" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="105"/>
+      <c r="A51" s="102"/>
       <c r="B51" s="96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C51" s="43"/>
       <c r="D51" s="43"/>
@@ -8361,6 +8617,33 @@
       <c r="U51" s="73"/>
       <c r="V51" s="43"/>
       <c r="W51" s="43"/>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="105"/>
+      <c r="B52" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9121,16 +9404,16 @@
       <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="110"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9791,7 +10074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CI51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86ADB7EB-3EEB-42EB-8188-B896B2653612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65A5322D-D8C1-45F1-8E47-2CC9BEF690F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
@@ -1329,6 +1329,9 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1336,9 +1339,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2223,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4251,41 +4251,41 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="61"/>
-      <c r="C1" s="110">
-        <v>1</v>
-      </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="110">
-        <v>2</v>
-      </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="110">
-        <v>3</v>
-      </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="110">
+      <c r="C1" s="111">
+        <v>1</v>
+      </c>
+      <c r="D1" s="112"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="111">
+        <v>2</v>
+      </c>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="111">
+        <v>3</v>
+      </c>
+      <c r="J1" s="112"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="111">
         <v>4</v>
       </c>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="110">
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="111">
         <v>5</v>
       </c>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="110">
+      <c r="P1" s="112"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="111">
         <v>6</v>
       </c>
-      <c r="S1" s="111"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="110">
+      <c r="S1" s="112"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="111">
         <v>7</v>
       </c>
-      <c r="V1" s="111"/>
-      <c r="W1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="113"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -6447,7 +6447,7 @@
   <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6458,41 +6458,41 @@
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="110">
-        <v>1</v>
-      </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="110">
-        <v>2</v>
-      </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="110">
-        <v>3</v>
-      </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="110">
+      <c r="C1" s="111">
+        <v>1</v>
+      </c>
+      <c r="D1" s="112"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="111">
+        <v>2</v>
+      </c>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="111">
+        <v>3</v>
+      </c>
+      <c r="J1" s="112"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="111">
         <v>4</v>
       </c>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="110">
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="111">
         <v>5</v>
       </c>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="110">
+      <c r="P1" s="112"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="111">
         <v>6</v>
       </c>
-      <c r="S1" s="111"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="110">
+      <c r="S1" s="112"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="111">
         <v>7</v>
       </c>
-      <c r="V1" s="111"/>
-      <c r="W1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="113"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -7101,10 +7101,10 @@
       <c r="I13" s="40"/>
       <c r="J13" s="55"/>
       <c r="K13" s="41"/>
-      <c r="L13" s="114"/>
+      <c r="L13" s="110"/>
       <c r="M13" s="103"/>
       <c r="N13" s="104"/>
-      <c r="O13" s="114"/>
+      <c r="O13" s="110"/>
       <c r="P13" s="103"/>
       <c r="Q13" s="104"/>
       <c r="R13" s="40"/>
@@ -8656,6 +8656,7 @@
     <mergeCell ref="R1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9404,16 +9405,16 @@
       <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="112"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10074,7 +10075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65A5322D-D8C1-45F1-8E47-2CC9BEF690F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5DB52B4-288C-4CD8-8266-E6B8DBECE18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
@@ -2223,7 +2223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -6446,13 +6446,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A82F9B-DDA5-453E-AF76-85C4D400084F}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.7109375" style="97" customWidth="1"/>
+    <col min="3" max="20" width="9.140625" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6609,8 +6610,12 @@
         <v>2</v>
       </c>
       <c r="U3" s="40"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="41"/>
+      <c r="V3" s="39">
+        <v>1</v>
+      </c>
+      <c r="W3" s="41">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
@@ -6658,8 +6663,12 @@
         <v>2</v>
       </c>
       <c r="U4" s="40"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="41"/>
+      <c r="V4" s="39">
+        <v>1</v>
+      </c>
+      <c r="W4" s="41">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
@@ -6711,8 +6720,12 @@
         <v>3</v>
       </c>
       <c r="U5" s="40"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="41"/>
+      <c r="V5" s="39">
+        <v>0</v>
+      </c>
+      <c r="W5" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
@@ -6764,8 +6777,12 @@
         <v>2</v>
       </c>
       <c r="U6" s="40"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="41"/>
+      <c r="V6" s="39">
+        <v>0</v>
+      </c>
+      <c r="W6" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
@@ -6817,8 +6834,12 @@
         <v>3</v>
       </c>
       <c r="U7" s="40"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="41"/>
+      <c r="V7" s="39">
+        <v>0</v>
+      </c>
+      <c r="W7" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
@@ -6870,14 +6891,18 @@
         <v>3</v>
       </c>
       <c r="U8" s="40"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="41"/>
+      <c r="V8" s="39">
+        <v>0</v>
+      </c>
+      <c r="W8" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>13</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="108" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="39"/>
@@ -6923,8 +6948,12 @@
         <v>3</v>
       </c>
       <c r="U9" s="40"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="41"/>
+      <c r="V9" s="39">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="41">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
@@ -6976,8 +7005,12 @@
         <v>3</v>
       </c>
       <c r="U10" s="40"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="41"/>
+      <c r="V10" s="39">
+        <v>0</v>
+      </c>
+      <c r="W10" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
@@ -7029,8 +7062,12 @@
         <v>3</v>
       </c>
       <c r="U11" s="40"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="41"/>
+      <c r="V11" s="39">
+        <v>0</v>
+      </c>
+      <c r="W11" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
@@ -7078,8 +7115,12 @@
         <v>3</v>
       </c>
       <c r="U12" s="40"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="41"/>
+      <c r="V12" s="39">
+        <v>0</v>
+      </c>
+      <c r="W12" s="41">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
@@ -7115,8 +7156,12 @@
         <v>3</v>
       </c>
       <c r="U13" s="40"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="41"/>
+      <c r="V13" s="39">
+        <v>0</v>
+      </c>
+      <c r="W13" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
@@ -7168,8 +7213,12 @@
         <v>3</v>
       </c>
       <c r="U14" s="40"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="41"/>
+      <c r="V14" s="39">
+        <v>0</v>
+      </c>
+      <c r="W14" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
@@ -7221,8 +7270,12 @@
         <v>3</v>
       </c>
       <c r="U15" s="40"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="41"/>
+      <c r="V15" s="39">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
@@ -7270,8 +7323,12 @@
         <v>3</v>
       </c>
       <c r="U16" s="40"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="41"/>
+      <c r="V16" s="39">
+        <v>0</v>
+      </c>
+      <c r="W16" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
@@ -7323,8 +7380,12 @@
         <v>3</v>
       </c>
       <c r="U17" s="40"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="41"/>
+      <c r="V17" s="39">
+        <v>-1</v>
+      </c>
+      <c r="W17" s="41">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
@@ -7376,8 +7437,12 @@
         <v>3</v>
       </c>
       <c r="U18" s="40"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="41"/>
+      <c r="V18" s="39">
+        <v>-1</v>
+      </c>
+      <c r="W18" s="41">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
@@ -7429,8 +7494,12 @@
         <v>3</v>
       </c>
       <c r="U19" s="40"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="41"/>
+      <c r="V19" s="39">
+        <v>-1</v>
+      </c>
+      <c r="W19" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
@@ -7482,8 +7551,12 @@
         <v>3</v>
       </c>
       <c r="U20" s="40"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="41"/>
+      <c r="V20" s="39">
+        <v>-1</v>
+      </c>
+      <c r="W20" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
@@ -7523,8 +7596,12 @@
         <v>3</v>
       </c>
       <c r="U21" s="40"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="41"/>
+      <c r="V21" s="39">
+        <v>0</v>
+      </c>
+      <c r="W21" s="41">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
@@ -7576,8 +7653,12 @@
         <v>3</v>
       </c>
       <c r="U22" s="40"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="41"/>
+      <c r="V22" s="39">
+        <v>-1</v>
+      </c>
+      <c r="W22" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
@@ -7629,8 +7710,12 @@
         <v>3</v>
       </c>
       <c r="U23" s="40"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="42"/>
+      <c r="V23" s="39">
+        <v>0</v>
+      </c>
+      <c r="W23" s="42">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
@@ -7682,8 +7767,12 @@
         <v>3</v>
       </c>
       <c r="U24" s="40"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="41"/>
+      <c r="V24" s="39">
+        <v>0</v>
+      </c>
+      <c r="W24" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
@@ -7735,8 +7824,12 @@
         <v>3</v>
       </c>
       <c r="U25" s="40"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="41"/>
+      <c r="V25" s="39">
+        <v>0</v>
+      </c>
+      <c r="W25" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
@@ -7788,8 +7881,12 @@
         <v>3</v>
       </c>
       <c r="U26" s="40"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="41"/>
+      <c r="V26" s="39">
+        <v>0</v>
+      </c>
+      <c r="W26" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
@@ -7843,8 +7940,12 @@
         <v>1</v>
       </c>
       <c r="U27" s="40"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="41"/>
+      <c r="V27" s="39">
+        <v>-1</v>
+      </c>
+      <c r="W27" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
@@ -7896,8 +7997,12 @@
         <v>3</v>
       </c>
       <c r="U28" s="40"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="41"/>
+      <c r="V28" s="39">
+        <v>0</v>
+      </c>
+      <c r="W28" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
@@ -7949,8 +8054,12 @@
         <v>3</v>
       </c>
       <c r="U29" s="40"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="41"/>
+      <c r="V29" s="39">
+        <v>0</v>
+      </c>
+      <c r="W29" s="41">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
@@ -7986,7 +8095,7 @@
         <v>3</v>
       </c>
       <c r="U30" s="40"/>
-      <c r="V30" s="39"/>
+      <c r="V30" s="55"/>
       <c r="W30" s="41"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -8035,8 +8144,12 @@
         <v>3</v>
       </c>
       <c r="U31" s="40"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="77"/>
+      <c r="V31" s="39">
+        <v>0</v>
+      </c>
+      <c r="W31" s="77">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
@@ -8084,8 +8197,12 @@
         <v>3</v>
       </c>
       <c r="U32" s="40"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="41"/>
+      <c r="V32" s="39">
+        <v>-1</v>
+      </c>
+      <c r="W32" s="41">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="72"/>

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5DB52B4-288C-4CD8-8266-E6B8DBECE18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94AC7C19-34D7-4DD9-8FCB-6114F9AD3506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94AC7C19-34D7-4DD9-8FCB-6114F9AD3506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DAC802A-15E2-4975-BA8E-2D30C6AF629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="221">
   <si>
     <t>nome</t>
   </si>
@@ -344,12 +344,6 @@
     <t>WAR-6 (2)</t>
   </si>
   <si>
-    <t>Colonna19</t>
-  </si>
-  <si>
-    <t>Colonna20</t>
-  </si>
-  <si>
     <t>Colonna21</t>
   </si>
   <si>
@@ -699,6 +693,15 @@
   </si>
   <si>
     <t>!!!!!!!</t>
+  </si>
+  <si>
+    <t>WAR-7 (1)</t>
+  </si>
+  <si>
+    <t>WAR-7 (2)</t>
+  </si>
+  <si>
+    <t>revolver</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1338,6 +1341,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1802,10 +1817,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella2" displayName="Tabella2" ref="A1:CI51" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
-  <autoFilter ref="A1:CI51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CI51">
-    <sortCondition ref="A1:A51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella2" displayName="Tabella2" ref="A1:CI52" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+  <autoFilter ref="A1:CI52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CI52">
+    <sortCondition ref="S1:S52"/>
   </sortState>
   <tableColumns count="87">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NAME" dataDxfId="86"/>
@@ -1828,10 +1843,10 @@
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="WAR-4 (2)" dataDxfId="73"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="WAR-5 (1)" dataDxfId="72"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="WAR-5 (2)" dataDxfId="71"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Colonna17" dataDxfId="70"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Colonna18" dataDxfId="69"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Colonna19" dataDxfId="68"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Colonna20" dataDxfId="67"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="WAR-6 (1)" dataDxfId="70"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="WAR-6 (2)" dataDxfId="69"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="WAR-7 (1)" dataDxfId="68"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="WAR-7 (2)" dataDxfId="67"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Colonna21" dataDxfId="66"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Colonna22" dataDxfId="65"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Colonna23" dataDxfId="64"/>
@@ -6446,7 +6461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A82F9B-DDA5-453E-AF76-85C4D400084F}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -6569,7 +6584,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39">
@@ -6622,7 +6637,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39">
@@ -6675,7 +6690,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39">
@@ -6732,7 +6747,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39">
@@ -6960,7 +6975,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39">
@@ -7074,7 +7089,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12" s="103"/>
       <c r="D12" s="103"/>
@@ -7127,7 +7142,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="106" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39">
@@ -7168,7 +7183,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="109" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39">
@@ -7225,7 +7240,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39">
@@ -7449,7 +7464,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="108" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39">
@@ -7563,7 +7578,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="101" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C21" s="103"/>
       <c r="D21" s="103"/>
@@ -7722,7 +7737,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="100">
@@ -7836,7 +7851,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="95" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39">
@@ -7931,7 +7946,7 @@
         <v>2</v>
       </c>
       <c r="R27" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S27" s="39">
         <v>0</v>
@@ -8066,7 +8081,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="101" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C30" s="103"/>
       <c r="D30" s="103"/>
@@ -8103,7 +8118,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="98" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C31" s="39"/>
       <c r="D31" s="39">
@@ -8259,7 +8274,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C35" s="103"/>
       <c r="D35" s="103"/>
@@ -8288,7 +8303,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C36" s="103"/>
       <c r="D36" s="103"/>
@@ -8317,7 +8332,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C37" s="103"/>
       <c r="D37" s="103"/>
@@ -8346,7 +8361,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C38" s="103"/>
       <c r="D38" s="103"/>
@@ -8375,7 +8390,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="101" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C39" s="103"/>
       <c r="D39" s="103"/>
@@ -8404,7 +8419,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="107" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C40" s="103"/>
       <c r="D40" s="103"/>
@@ -8433,7 +8448,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="98" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C41" s="39"/>
       <c r="D41" s="55"/>
@@ -8491,7 +8506,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C43" s="39">
         <v>-17</v>
@@ -8711,7 +8726,7 @@
     <row r="51" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="102"/>
       <c r="B51" s="96" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C51" s="43"/>
       <c r="D51" s="43"/>
@@ -8738,7 +8753,7 @@
     <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="105"/>
       <c r="B52" s="96" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C52" s="43"/>
       <c r="D52" s="43"/>
@@ -9559,13 +9574,13 @@
         <v>4</v>
       </c>
       <c r="R1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S1" t="s">
         <v>61</v>
       </c>
       <c r="X1" s="79" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -9576,7 +9591,7 @@
         <v>41</v>
       </c>
       <c r="R2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S2" t="s">
         <v>7</v>
@@ -9599,16 +9614,16 @@
         <v>8</v>
       </c>
       <c r="R3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S3" t="s">
         <v>81</v>
       </c>
       <c r="W3" s="85" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="X3" s="79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -9628,13 +9643,13 @@
         <v>60</v>
       </c>
       <c r="R4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S4" t="s">
         <v>27</v>
       </c>
       <c r="W4" s="79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -9654,13 +9669,13 @@
         <v>62</v>
       </c>
       <c r="R5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S5" t="s">
         <v>70</v>
       </c>
       <c r="W5" s="85" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -9680,13 +9695,13 @@
         <v>64</v>
       </c>
       <c r="R6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S6" t="s">
         <v>77</v>
       </c>
       <c r="W6" s="85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -9703,13 +9718,13 @@
         <v>65</v>
       </c>
       <c r="R7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S7" t="s">
         <v>16</v>
       </c>
       <c r="W7" s="85" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -9720,13 +9735,13 @@
         <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S8" t="s">
         <v>17</v>
       </c>
       <c r="W8" s="79" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -9743,7 +9758,7 @@
         <v>66</v>
       </c>
       <c r="R9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S9" t="s">
         <v>73</v>
@@ -9760,13 +9775,13 @@
         <v>11</v>
       </c>
       <c r="R10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S10" t="s">
         <v>72</v>
       </c>
       <c r="W10" s="79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -9783,13 +9798,13 @@
         <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S11" t="s">
         <v>76</v>
       </c>
       <c r="W11" s="85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -9806,13 +9821,13 @@
         <v>69</v>
       </c>
       <c r="R12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S12" t="s">
         <v>59</v>
       </c>
       <c r="W12" s="85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -9829,7 +9844,7 @@
         <v>71</v>
       </c>
       <c r="R13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S13" t="s">
         <v>79</v>
@@ -9852,13 +9867,13 @@
         <v>19</v>
       </c>
       <c r="R14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S14" t="s">
         <v>10</v>
       </c>
       <c r="W14" s="85" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -9875,13 +9890,13 @@
         <v>75</v>
       </c>
       <c r="R15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S15" t="s">
         <v>45</v>
       </c>
       <c r="W15" s="85" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -9892,13 +9907,13 @@
         <v>14</v>
       </c>
       <c r="R16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S16" t="s">
         <v>67</v>
       </c>
       <c r="W16" s="79" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -9915,13 +9930,13 @@
         <v>78</v>
       </c>
       <c r="R17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S17" t="s">
         <v>22</v>
       </c>
       <c r="W17" s="85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -9938,13 +9953,13 @@
         <v>29</v>
       </c>
       <c r="R18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S18" t="s">
         <v>68</v>
       </c>
       <c r="W18" s="79" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -9961,13 +9976,13 @@
         <v>34</v>
       </c>
       <c r="R19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S19" t="s">
         <v>80</v>
       </c>
       <c r="W19" s="85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -9978,10 +9993,10 @@
         <v>43</v>
       </c>
       <c r="R20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W20" s="79"/>
     </row>
@@ -9993,7 +10008,7 @@
         <v>50</v>
       </c>
       <c r="R21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S21" t="s">
         <v>32</v>
@@ -10008,7 +10023,7 @@
         <v>53</v>
       </c>
       <c r="R22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S22" t="s">
         <v>58</v>
@@ -10023,7 +10038,7 @@
         <v>48</v>
       </c>
       <c r="R23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S23" t="s">
         <v>82</v>
@@ -10038,10 +10053,10 @@
         <v>36</v>
       </c>
       <c r="R24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="W24" s="79"/>
     </row>
@@ -10053,7 +10068,7 @@
         <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S25" t="s">
         <v>43</v>
@@ -10068,10 +10083,10 @@
         <v>28</v>
       </c>
       <c r="R26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W26" s="85"/>
     </row>
@@ -10083,7 +10098,7 @@
         <v>51</v>
       </c>
       <c r="R27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S27" t="s">
         <v>47</v>
@@ -10098,10 +10113,10 @@
         <v>16</v>
       </c>
       <c r="R28" t="s">
+        <v>203</v>
+      </c>
+      <c r="S28" t="s">
         <v>205</v>
-      </c>
-      <c r="S28" t="s">
-        <v>207</v>
       </c>
       <c r="W28" s="85"/>
     </row>
@@ -10113,10 +10128,10 @@
         <v>24</v>
       </c>
       <c r="R29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S29" s="85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="W29" s="79"/>
     </row>
@@ -10190,10 +10205,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:CI51"/>
+  <dimension ref="A1:CI52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10281,240 +10296,258 @@
         <v>100</v>
       </c>
       <c r="S1" s="80" t="s">
+        <v>218</v>
+      </c>
+      <c r="T1" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="U1" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="81" t="s">
+      <c r="V1" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="80" t="s">
+      <c r="W1" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="81" t="s">
+      <c r="X1" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="68" t="s">
+      <c r="Y1" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="68" t="s">
+      <c r="Z1" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="68" t="s">
+      <c r="AA1" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="68" t="s">
+      <c r="AB1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="68" t="s">
+      <c r="AC1" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="68" t="s">
+      <c r="AD1" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="AC1" s="68" t="s">
+      <c r="AE1" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="AD1" s="68" t="s">
+      <c r="AF1" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="AE1" s="68" t="s">
+      <c r="AG1" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="AF1" s="68" t="s">
+      <c r="AH1" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="AG1" s="68" t="s">
+      <c r="AI1" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="AH1" s="68" t="s">
+      <c r="AJ1" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="AI1" s="68" t="s">
+      <c r="AK1" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="AJ1" s="68" t="s">
+      <c r="AL1" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="AK1" s="68" t="s">
+      <c r="AM1" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="AL1" s="68" t="s">
+      <c r="AN1" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="AM1" s="68" t="s">
+      <c r="AO1" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="AN1" s="68" t="s">
+      <c r="AP1" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AO1" s="68" t="s">
+      <c r="AQ1" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="AP1" s="68" t="s">
+      <c r="AR1" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="AQ1" s="68" t="s">
+      <c r="AS1" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="AR1" s="68" t="s">
+      <c r="AT1" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="AS1" s="68" t="s">
+      <c r="AU1" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="AT1" s="68" t="s">
+      <c r="AV1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="AU1" s="68" t="s">
+      <c r="AW1" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="AV1" s="68" t="s">
+      <c r="AX1" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="AW1" s="68" t="s">
+      <c r="AY1" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="AX1" s="68" t="s">
+      <c r="AZ1" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="AY1" s="68" t="s">
+      <c r="BA1" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="AZ1" s="68" t="s">
+      <c r="BB1" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="BA1" s="68" t="s">
+      <c r="BC1" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="BB1" s="68" t="s">
+      <c r="BD1" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="BC1" s="68" t="s">
+      <c r="BE1" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="BD1" s="68" t="s">
+      <c r="BF1" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="BE1" s="68" t="s">
+      <c r="BG1" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="BF1" s="68" t="s">
+      <c r="BH1" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="BG1" s="68" t="s">
+      <c r="BI1" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="BH1" s="68" t="s">
+      <c r="BJ1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="BI1" s="68" t="s">
+      <c r="BK1" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="BJ1" s="68" t="s">
+      <c r="BL1" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="BK1" s="68" t="s">
+      <c r="BM1" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="BL1" s="68" t="s">
+      <c r="BN1" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="BM1" s="68" t="s">
+      <c r="BO1" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="BN1" s="68" t="s">
+      <c r="BP1" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="BO1" s="68" t="s">
+      <c r="BQ1" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="BP1" s="68" t="s">
+      <c r="BR1" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="BQ1" s="68" t="s">
+      <c r="BS1" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="BR1" s="68" t="s">
+      <c r="BT1" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="BS1" s="68" t="s">
+      <c r="BU1" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="BT1" s="68" t="s">
+      <c r="BV1" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="BU1" s="68" t="s">
+      <c r="BW1" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="BV1" s="68" t="s">
+      <c r="BX1" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="BW1" s="68" t="s">
+      <c r="BY1" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="BX1" s="68" t="s">
+      <c r="BZ1" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="BY1" s="68" t="s">
+      <c r="CA1" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="BZ1" s="68" t="s">
+      <c r="CB1" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="CA1" s="68" t="s">
+      <c r="CC1" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="CB1" s="68" t="s">
+      <c r="CD1" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="CC1" s="68" t="s">
+      <c r="CE1" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="CD1" s="68" t="s">
+      <c r="CF1" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="CE1" s="68" t="s">
+      <c r="CG1" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="CF1" s="68" t="s">
+      <c r="CH1" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="CG1" s="68" t="s">
+      <c r="CI1" s="68" t="s">
         <v>167</v>
-      </c>
-      <c r="CH1" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="CI1" s="68" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B2" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="68">
-        <f t="shared" ref="E2:E4" si="0">SUM(G2:R2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="84" t="e">
+        <f>SUM(G2:R2)</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="84">
         <f>ROUND(AVERAGE(G2:Z2),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
+        <v>1.3</v>
+      </c>
+      <c r="I2" s="83">
+        <v>2</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="O2" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="S2" s="83">
+        <v>1</v>
+      </c>
+      <c r="T2" s="84">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="B3" s="83">
         <v>0</v>
@@ -10526,25 +10559,25 @@
         <v>1</v>
       </c>
       <c r="E3" s="68">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(G3:R3)</f>
+        <v>0</v>
       </c>
       <c r="F3" s="84">
         <f>ROUND(AVERAGE(G3:Z3),1)</f>
-        <v>1.5</v>
-      </c>
-      <c r="I3" s="83">
-        <v>2</v>
-      </c>
-      <c r="J3" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="83">
+        <v>2</v>
+      </c>
+      <c r="T3" s="84">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="B4" s="83">
         <v>0</v>
@@ -10553,150 +10586,192 @@
         <v>0</v>
       </c>
       <c r="D4" s="83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" s="68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="84" t="e">
-        <f t="shared" ref="F4:F51" si="1">ROUND(AVERAGE(G4:Z4),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
+        <f>SUM(G4:R4)</f>
+        <v>26</v>
+      </c>
+      <c r="F4" s="84">
+        <f>ROUND(AVERAGE(G4:Z4),1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="83">
+        <v>3</v>
+      </c>
+      <c r="H4" s="84">
+        <v>3</v>
+      </c>
+      <c r="I4" s="83">
+        <v>3</v>
+      </c>
+      <c r="J4" s="84">
+        <v>2</v>
+      </c>
+      <c r="K4" s="68">
+        <v>2</v>
+      </c>
+      <c r="L4" s="68">
+        <v>3</v>
+      </c>
+      <c r="O4" s="83">
+        <v>3</v>
+      </c>
+      <c r="P4" s="84">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>3</v>
+      </c>
+      <c r="R4" s="6">
+        <v>2</v>
+      </c>
+      <c r="S4" s="83">
+        <v>2</v>
+      </c>
+      <c r="T4" s="84">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="B5" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" s="68">
         <f>SUM(G5:R5)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F5" s="84">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="83">
-        <v>2</v>
-      </c>
-      <c r="H5" s="84">
-        <v>1</v>
-      </c>
-      <c r="I5" s="83">
-        <v>0</v>
-      </c>
-      <c r="J5" s="84">
-        <v>0</v>
-      </c>
-      <c r="K5" s="83">
-        <v>2</v>
-      </c>
-      <c r="L5" s="84">
-        <v>1</v>
-      </c>
-      <c r="M5" s="83">
-        <v>1</v>
-      </c>
-      <c r="N5" s="84">
-        <v>0</v>
-      </c>
-      <c r="O5" s="83">
-        <v>1</v>
-      </c>
-      <c r="P5" s="84">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>171</v>
+        <f>ROUND(AVERAGE(G5:Z5),1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="83">
+        <v>2</v>
+      </c>
+      <c r="T5" s="84">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="B6" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="84">
         <v>0</v>
       </c>
       <c r="D6" s="83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" s="68">
-        <f t="shared" ref="E6:E51" si="2">SUM(G6:R6)</f>
-        <v>6</v>
+        <f>SUM(G6:R6)</f>
+        <v>13</v>
       </c>
       <c r="F6" s="84">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>ROUND(AVERAGE(G6:Z6),1)</f>
+        <v>2.5</v>
       </c>
       <c r="G6" s="83">
         <v>3</v>
       </c>
       <c r="H6" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="83">
+        <v>3</v>
+      </c>
+      <c r="J6" s="84">
+        <v>3</v>
+      </c>
+      <c r="O6" s="83">
+        <v>3</v>
+      </c>
+      <c r="P6" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="83">
+        <v>2</v>
+      </c>
+      <c r="T6" s="84" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B7" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="83">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="68">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f>SUM(G7:R7)</f>
+        <v>21</v>
       </c>
       <c r="F7" s="84">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K7" s="68">
-        <v>3</v>
-      </c>
-      <c r="L7" s="68">
-        <v>3</v>
-      </c>
-      <c r="M7" s="83">
-        <v>3</v>
-      </c>
-      <c r="N7" s="84">
-        <v>3</v>
+        <f>ROUND(AVERAGE(G7:Z7),1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="83">
+        <v>2</v>
+      </c>
+      <c r="H7" s="84">
+        <v>3</v>
+      </c>
+      <c r="I7" s="83">
+        <v>2</v>
+      </c>
+      <c r="J7" s="84">
+        <v>3</v>
+      </c>
+      <c r="K7" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="O7" s="83">
+        <v>3</v>
+      </c>
+      <c r="P7" s="84">
+        <v>2</v>
       </c>
       <c r="Q7" s="5">
         <v>3</v>
       </c>
       <c r="R7" s="6">
         <v>3</v>
+      </c>
+      <c r="S7" s="83">
+        <v>2</v>
+      </c>
+      <c r="T7" s="84">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="B8" s="83">
         <v>0</v>
@@ -10705,22 +10780,62 @@
         <v>0</v>
       </c>
       <c r="D8" s="83">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
+        <f>SUM(G8:R8)</f>
+        <v>33</v>
+      </c>
+      <c r="F8" s="84">
+        <f>ROUND(AVERAGE(G8:Z8),1)</f>
+        <v>2.8</v>
+      </c>
+      <c r="G8" s="83">
+        <v>3</v>
+      </c>
+      <c r="H8" s="84">
+        <v>3</v>
+      </c>
+      <c r="I8" s="83">
+        <v>2</v>
+      </c>
+      <c r="J8" s="84">
+        <v>3</v>
+      </c>
+      <c r="K8" s="83">
+        <v>3</v>
+      </c>
+      <c r="L8" s="84">
+        <v>3</v>
+      </c>
+      <c r="M8" s="83">
+        <v>2</v>
+      </c>
+      <c r="N8" s="84">
+        <v>2</v>
+      </c>
+      <c r="O8" s="83">
+        <v>3</v>
+      </c>
+      <c r="P8" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>3</v>
+      </c>
+      <c r="R8" s="4">
+        <v>3</v>
+      </c>
+      <c r="S8" s="83">
+        <v>3</v>
+      </c>
+      <c r="T8" s="84">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B9" s="83">
         <v>0</v>
@@ -10729,22 +10844,28 @@
         <v>0</v>
       </c>
       <c r="D9" s="83">
-        <v>0</v>
-      </c>
-      <c r="E9" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="116">
+        <f>SUM(G9:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="117">
+        <f>ROUND(AVERAGE(G9:Z9),1)</f>
+        <v>3</v>
+      </c>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="83">
+        <v>3</v>
+      </c>
+      <c r="T9" s="84">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B10" s="83">
         <v>0</v>
@@ -10753,18 +10874,18 @@
         <v>0</v>
       </c>
       <c r="D10" s="83">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" s="68">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f>SUM(G10:R10)</f>
+        <v>29</v>
       </c>
       <c r="F10" s="84">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
+        <f>ROUND(AVERAGE(G10:Z10),1)</f>
+        <v>2.5</v>
       </c>
       <c r="G10" s="83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" s="84">
         <v>3</v>
@@ -10773,140 +10894,188 @@
         <v>3</v>
       </c>
       <c r="J10" s="84">
-        <v>2</v>
-      </c>
-      <c r="K10" s="68">
-        <v>2</v>
-      </c>
-      <c r="L10" s="68">
+        <v>3</v>
+      </c>
+      <c r="K10" s="118">
+        <v>1</v>
+      </c>
+      <c r="L10" s="118">
+        <v>3</v>
+      </c>
+      <c r="M10" s="83">
+        <v>2</v>
+      </c>
+      <c r="N10" s="84">
         <v>3</v>
       </c>
       <c r="O10" s="83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P10" s="84">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>3</v>
-      </c>
-      <c r="R10" s="4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="115">
+        <v>3</v>
+      </c>
+      <c r="R10" s="115">
+        <v>3</v>
+      </c>
+      <c r="S10" s="83">
+        <v>3</v>
+      </c>
+      <c r="T10" s="84">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B11" s="83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" s="84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="68">
-        <f t="shared" si="2"/>
+        <f>SUM(G11:R11)</f>
         <v>0</v>
       </c>
       <c r="F11" s="84" t="e">
-        <f t="shared" si="1"/>
+        <f>ROUND(AVERAGE(G11:Z11),1)</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="S11" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="T11" s="84" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="B12" s="83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="68">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>SUM(G12:R12)</f>
+        <v>3</v>
       </c>
       <c r="F12" s="84">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>ROUND(AVERAGE(G12:Z12),1)</f>
+        <v>1.5</v>
       </c>
       <c r="I12" s="83">
         <v>2</v>
       </c>
-      <c r="J12" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="O12" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="P12" s="84" t="s">
-        <v>171</v>
+      <c r="J12" s="84">
+        <v>1</v>
       </c>
       <c r="Q12" s="68"/>
       <c r="R12" s="68"/>
     </row>
     <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B13" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="68">
-        <f t="shared" si="2"/>
+        <f>SUM(G13:R13)</f>
         <v>0</v>
       </c>
       <c r="F13" s="84" t="e">
-        <f t="shared" si="1"/>
+        <f>ROUND(AVERAGE(G13:Z13),1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
     </row>
     <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B14" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E14" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
+        <f>SUM(G14:R14)</f>
+        <v>8</v>
+      </c>
+      <c r="F14" s="84">
+        <f>ROUND(AVERAGE(G14:Z14),1)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="83">
+        <v>2</v>
+      </c>
+      <c r="H14" s="84">
+        <v>1</v>
+      </c>
+      <c r="I14" s="83">
+        <v>0</v>
+      </c>
+      <c r="J14" s="84">
+        <v>0</v>
+      </c>
+      <c r="K14" s="83">
+        <v>2</v>
+      </c>
+      <c r="L14" s="84">
+        <v>1</v>
+      </c>
+      <c r="M14" s="83">
+        <v>1</v>
+      </c>
+      <c r="N14" s="84">
+        <v>0</v>
+      </c>
+      <c r="O14" s="83">
+        <v>1</v>
+      </c>
+      <c r="P14" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B15" s="83">
         <v>0</v>
@@ -10918,23 +11087,23 @@
         <v>1</v>
       </c>
       <c r="E15" s="68">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>SUM(G15:R15)</f>
+        <v>6</v>
       </c>
       <c r="F15" s="84">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>3</v>
-      </c>
-      <c r="R15" s="6">
-        <v>2</v>
+        <f>ROUND(AVERAGE(G15:Z15),1)</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="83">
+        <v>3</v>
+      </c>
+      <c r="H15" s="84">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" s="79" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B16" s="83">
         <v>0</v>
@@ -10943,22 +11112,38 @@
         <v>0</v>
       </c>
       <c r="D16" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
+        <f>SUM(G16:R16)</f>
+        <v>18</v>
+      </c>
+      <c r="F16" s="84">
+        <f>ROUND(AVERAGE(G16:Z16),1)</f>
+        <v>3</v>
+      </c>
+      <c r="K16" s="83">
+        <v>3</v>
+      </c>
+      <c r="L16" s="84">
+        <v>3</v>
+      </c>
+      <c r="M16" s="83">
+        <v>3</v>
+      </c>
+      <c r="N16" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="115">
+        <v>3</v>
+      </c>
+      <c r="R16" s="115">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="79" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="B17" s="83">
         <v>0</v>
@@ -10967,46 +11152,22 @@
         <v>0</v>
       </c>
       <c r="D17" s="83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" s="68">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F17" s="84">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G17" s="83">
-        <v>1</v>
-      </c>
-      <c r="H17" s="84">
-        <v>2</v>
-      </c>
-      <c r="I17" s="83">
-        <v>1</v>
-      </c>
-      <c r="J17" s="84">
-        <v>3</v>
-      </c>
-      <c r="M17" s="83">
-        <v>0</v>
-      </c>
-      <c r="N17" s="84">
-        <v>3</v>
-      </c>
-      <c r="O17" s="83">
-        <v>3</v>
-      </c>
-      <c r="P17" s="84">
-        <v>3</v>
+        <f>SUM(G17:R17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="84" t="e">
+        <f>ROUND(AVERAGE(G17:Z17),1)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="68"/>
       <c r="R17" s="68"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="79" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B18" s="83">
         <v>0</v>
@@ -11018,11 +11179,11 @@
         <v>0</v>
       </c>
       <c r="E18" s="68">
-        <f t="shared" si="2"/>
+        <f>SUM(G18:R18)</f>
         <v>0</v>
       </c>
       <c r="F18" s="84" t="e">
-        <f t="shared" si="1"/>
+        <f>ROUND(AVERAGE(G18:Z18),1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q18" s="68"/>
@@ -11030,7 +11191,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="B19" s="83">
         <v>0</v>
@@ -11039,90 +11200,52 @@
         <v>0</v>
       </c>
       <c r="D19" s="83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" s="68">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F19" s="84">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="I19" s="83">
-        <v>3</v>
-      </c>
-      <c r="J19" s="84">
-        <v>1</v>
-      </c>
-      <c r="K19" s="68">
-        <v>3</v>
-      </c>
-      <c r="L19" s="68">
-        <v>3</v>
-      </c>
-      <c r="O19" s="83">
-        <v>3</v>
-      </c>
-      <c r="P19" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>3</v>
-      </c>
-      <c r="R19" s="4">
-        <v>3</v>
-      </c>
+        <f>SUM(G19:R19)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="84" t="e">
+        <f>ROUND(AVERAGE(G19:Z19),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="79" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="B20" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" s="68">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="F20" s="84">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="G20" s="83">
-        <v>3</v>
-      </c>
-      <c r="H20" s="84">
-        <v>3</v>
-      </c>
-      <c r="K20" s="83">
-        <v>2</v>
-      </c>
-      <c r="L20" s="84">
-        <v>2</v>
-      </c>
-      <c r="O20" s="83">
-        <v>1</v>
-      </c>
-      <c r="P20" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>2</v>
-      </c>
-      <c r="R20" s="4">
-        <v>3</v>
+        <f>SUM(G20:R20)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="84" t="e">
+        <f>ROUND(AVERAGE(G20:Z20),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="79" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B21" s="83">
         <v>0</v>
@@ -11134,17 +11257,17 @@
         <v>0</v>
       </c>
       <c r="E21" s="68">
-        <f t="shared" si="2"/>
+        <f>SUM(G21:R21)</f>
         <v>0</v>
       </c>
       <c r="F21" s="84" t="e">
-        <f t="shared" si="1"/>
+        <f>ROUND(AVERAGE(G21:Z21),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="B22" s="83">
         <v>0</v>
@@ -11153,20 +11276,26 @@
         <v>0</v>
       </c>
       <c r="D22" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>SUM(G22:R22)</f>
+        <v>5</v>
+      </c>
+      <c r="F22" s="84">
+        <f>ROUND(AVERAGE(G22:Z22),1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>3</v>
+      </c>
+      <c r="R22" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B23" s="83">
         <v>0</v>
@@ -11175,34 +11304,22 @@
         <v>0</v>
       </c>
       <c r="D23" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="68">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="F23" s="84">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G23" s="83">
-        <v>1</v>
-      </c>
-      <c r="H23" s="84">
-        <v>2</v>
-      </c>
-      <c r="I23" s="83">
-        <v>3</v>
-      </c>
-      <c r="J23" s="84">
-        <v>3</v>
+        <f>SUM(G23:R23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="84" t="e">
+        <f>ROUND(AVERAGE(G23:Z23),1)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="68"/>
       <c r="R23" s="68"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="B24" s="83">
         <v>0</v>
@@ -11211,20 +11328,44 @@
         <v>0</v>
       </c>
       <c r="D24" s="83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>SUM(G24:R24)</f>
+        <v>16</v>
+      </c>
+      <c r="F24" s="84">
+        <f>ROUND(AVERAGE(G24:Z24),1)</f>
+        <v>2</v>
+      </c>
+      <c r="G24" s="83">
+        <v>1</v>
+      </c>
+      <c r="H24" s="84">
+        <v>2</v>
+      </c>
+      <c r="I24" s="83">
+        <v>1</v>
+      </c>
+      <c r="J24" s="84">
+        <v>3</v>
+      </c>
+      <c r="M24" s="83">
+        <v>0</v>
+      </c>
+      <c r="N24" s="84">
+        <v>3</v>
+      </c>
+      <c r="O24" s="83">
+        <v>3</v>
+      </c>
+      <c r="P24" s="84">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="B25" s="83">
         <v>0</v>
@@ -11236,17 +11377,17 @@
         <v>0</v>
       </c>
       <c r="E25" s="68">
-        <f t="shared" si="2"/>
+        <f>SUM(G25:R25)</f>
         <v>0</v>
       </c>
       <c r="F25" s="84" t="e">
-        <f t="shared" si="1"/>
+        <f>ROUND(AVERAGE(G25:Z25),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="79" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="B26" s="83">
         <v>0</v>
@@ -11255,25 +11396,47 @@
         <v>0</v>
       </c>
       <c r="D26" s="83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
+        <f>SUM(G26:R26)</f>
+        <v>20</v>
+      </c>
+      <c r="F26" s="84">
+        <f>ROUND(AVERAGE(G26:Z26),1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I26" s="83">
+        <v>3</v>
+      </c>
+      <c r="J26" s="84">
+        <v>1</v>
+      </c>
+      <c r="K26" s="68">
+        <v>3</v>
+      </c>
+      <c r="L26" s="68">
+        <v>3</v>
+      </c>
+      <c r="O26" s="83">
+        <v>3</v>
+      </c>
+      <c r="P26" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>3</v>
+      </c>
+      <c r="R26" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="79" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B27" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" s="84">
         <v>0</v>
@@ -11282,27 +11445,27 @@
         <v>4</v>
       </c>
       <c r="E27" s="68">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f>SUM(G27:R27)</f>
+        <v>19</v>
       </c>
       <c r="F27" s="84">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I27" s="83">
-        <v>2</v>
-      </c>
-      <c r="J27" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="M27" s="83">
-        <v>3</v>
-      </c>
-      <c r="N27" s="84">
-        <v>1</v>
+        <f>ROUND(AVERAGE(G27:Z27),1)</f>
+        <v>2.4</v>
+      </c>
+      <c r="G27" s="83">
+        <v>3</v>
+      </c>
+      <c r="H27" s="84">
+        <v>3</v>
+      </c>
+      <c r="K27" s="83">
+        <v>2</v>
+      </c>
+      <c r="L27" s="84">
+        <v>2</v>
       </c>
       <c r="O27" s="83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P27" s="84">
         <v>3</v>
@@ -11310,53 +11473,35 @@
       <c r="Q27" s="4">
         <v>2</v>
       </c>
-      <c r="R27" s="4" t="s">
-        <v>171</v>
+      <c r="R27" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="B28" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" s="68">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="F28" s="84">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G28" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="H28" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="I28" s="83">
-        <v>3</v>
-      </c>
-      <c r="J28" s="84">
-        <v>3</v>
-      </c>
-      <c r="K28" s="83">
-        <v>3</v>
-      </c>
-      <c r="L28" s="84">
-        <v>3</v>
+        <f>SUM(G28:R28)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="84" t="e">
+        <f>ROUND(AVERAGE(G28:Z28),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="79" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B29" s="83">
         <v>0</v>
@@ -11365,21 +11510,21 @@
         <v>0</v>
       </c>
       <c r="D29" s="83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="68">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f>SUM(G29:R29)</f>
+        <v>9</v>
       </c>
       <c r="F29" s="84">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
+        <f>ROUND(AVERAGE(G29:Z29),1)</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G29" s="83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="83">
         <v>3</v>
@@ -11387,18 +11532,12 @@
       <c r="J29" s="84">
         <v>3</v>
       </c>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="O29" s="83">
-        <v>3</v>
-      </c>
-      <c r="P29" s="84" t="s">
-        <v>171</v>
-      </c>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="79" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="B30" s="83">
         <v>0</v>
@@ -11410,17 +11549,17 @@
         <v>0</v>
       </c>
       <c r="E30" s="68">
-        <f t="shared" si="2"/>
+        <f>SUM(G30:R30)</f>
         <v>0</v>
       </c>
       <c r="F30" s="84" t="e">
-        <f t="shared" si="1"/>
+        <f>ROUND(AVERAGE(G30:Z30),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="79" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="B31" s="83">
         <v>0</v>
@@ -11432,17 +11571,17 @@
         <v>0</v>
       </c>
       <c r="E31" s="68">
-        <f t="shared" si="2"/>
+        <f>SUM(G31:R31)</f>
         <v>0</v>
       </c>
       <c r="F31" s="84" t="e">
-        <f t="shared" si="1"/>
+        <f>ROUND(AVERAGE(G31:Z31),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="79" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B32" s="83">
         <v>0</v>
@@ -11454,11 +11593,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="68">
-        <f t="shared" si="2"/>
+        <f>SUM(G32:R32)</f>
         <v>0</v>
       </c>
       <c r="F32" s="84" t="e">
-        <f t="shared" si="1"/>
+        <f>ROUND(AVERAGE(G32:Z32),1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="68"/>
@@ -11466,31 +11605,55 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="79" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="B33" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" s="84">
         <v>0</v>
       </c>
       <c r="D33" s="83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E33" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
+        <f>SUM(G33:R33)</f>
+        <v>14</v>
+      </c>
+      <c r="F33" s="84">
+        <f>ROUND(AVERAGE(G33:Z33),1)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I33" s="83">
+        <v>2</v>
+      </c>
+      <c r="J33" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="83">
+        <v>3</v>
+      </c>
+      <c r="N33" s="84">
+        <v>1</v>
+      </c>
+      <c r="O33" s="83">
+        <v>3</v>
+      </c>
+      <c r="P33" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>2</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="B34" s="83">
         <v>2</v>
@@ -11499,28 +11662,38 @@
         <v>1</v>
       </c>
       <c r="D34" s="83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="Q34" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>171</v>
+        <f>SUM(G34:R34)</f>
+        <v>12</v>
+      </c>
+      <c r="F34" s="84">
+        <f>ROUND(AVERAGE(G34:Z34),1)</f>
+        <v>3</v>
+      </c>
+      <c r="G34" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="I34" s="83">
+        <v>3</v>
+      </c>
+      <c r="J34" s="84">
+        <v>3</v>
+      </c>
+      <c r="K34" s="118">
+        <v>3</v>
+      </c>
+      <c r="L34" s="118">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="79" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B35" s="83">
         <v>0</v>
@@ -11529,56 +11702,24 @@
         <v>0</v>
       </c>
       <c r="D35" s="83">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E35" s="68">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="F35" s="84">
-        <f t="shared" si="1"/>
-        <v>2.8</v>
-      </c>
-      <c r="G35" s="83">
-        <v>3</v>
-      </c>
-      <c r="H35" s="84">
-        <v>3</v>
-      </c>
-      <c r="I35" s="83">
-        <v>2</v>
-      </c>
-      <c r="J35" s="84">
-        <v>3</v>
-      </c>
-      <c r="K35" s="68">
-        <v>3</v>
-      </c>
-      <c r="L35" s="68">
-        <v>3</v>
-      </c>
-      <c r="M35" s="83">
-        <v>2</v>
-      </c>
-      <c r="N35" s="84">
-        <v>2</v>
-      </c>
-      <c r="O35" s="83">
-        <v>3</v>
-      </c>
-      <c r="P35" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>3</v>
-      </c>
-      <c r="R35" s="4">
-        <v>3</v>
-      </c>
+        <f>SUM(G35:R35)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="84" t="e">
+        <f>ROUND(AVERAGE(G35:Z35),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="Q35" s="118"/>
+      <c r="R35" s="118"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="79" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="B36" s="83">
         <v>0</v>
@@ -11587,136 +11728,66 @@
         <v>0</v>
       </c>
       <c r="D36" s="83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E36" s="68">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="F36" s="84">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I36" s="83">
-        <v>3</v>
-      </c>
-      <c r="J36" s="84">
-        <v>3</v>
-      </c>
-      <c r="M36" s="83">
-        <v>3</v>
-      </c>
-      <c r="N36" s="84">
-        <v>3</v>
-      </c>
-      <c r="O36" s="83">
-        <v>3</v>
-      </c>
-      <c r="P36" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>3</v>
-      </c>
-      <c r="R36" s="6">
-        <v>3</v>
+        <f>SUM(G36:R36)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="84" t="e">
+        <f>ROUND(AVERAGE(G36:Z36),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B37" s="83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C37" s="84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" s="83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37" s="68">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F37" s="84">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K37" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="L37" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="O37" s="83">
-        <v>3</v>
-      </c>
-      <c r="P37" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>171</v>
+        <f>SUM(G37:R37)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="84" t="e">
+        <f>ROUND(AVERAGE(G37:Z37),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B38" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E38" s="68">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F38" s="84">
-        <f t="shared" si="1"/>
-        <v>1.7</v>
-      </c>
-      <c r="I38" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="J38" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="K38" s="83">
-        <v>3</v>
-      </c>
-      <c r="L38" s="84">
-        <v>3</v>
-      </c>
-      <c r="M38" s="83">
-        <v>1</v>
-      </c>
-      <c r="N38" s="84">
-        <v>1</v>
-      </c>
-      <c r="O38" s="83">
-        <v>0</v>
-      </c>
-      <c r="P38" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>2</v>
-      </c>
-      <c r="R38" s="6" t="s">
-        <v>171</v>
-      </c>
+        <f>SUM(G38:R38)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="84" t="e">
+        <f>ROUND(AVERAGE(G38:Z38),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="79" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="B39" s="83">
         <v>0</v>
@@ -11725,81 +11796,87 @@
         <v>0</v>
       </c>
       <c r="D39" s="83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E39" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>SUM(G39:R39)</f>
+        <v>24</v>
+      </c>
+      <c r="F39" s="84">
+        <f>ROUND(AVERAGE(G39:Z39),1)</f>
+        <v>3</v>
+      </c>
+      <c r="I39" s="83">
+        <v>3</v>
+      </c>
+      <c r="J39" s="84">
+        <v>3</v>
+      </c>
+      <c r="M39" s="83">
+        <v>3</v>
+      </c>
+      <c r="N39" s="84">
+        <v>3</v>
+      </c>
+      <c r="O39" s="83">
+        <v>3</v>
+      </c>
+      <c r="P39" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>3</v>
+      </c>
+      <c r="R39" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="79" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="B40" s="83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C40" s="84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" s="83">
+        <v>3</v>
+      </c>
+      <c r="E40" s="68">
+        <f>SUM(G40:R40)</f>
         <v>6</v>
       </c>
-      <c r="E40" s="68">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
       <c r="F40" s="84">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="G40" s="83">
-        <v>1</v>
-      </c>
-      <c r="H40" s="84">
-        <v>3</v>
-      </c>
-      <c r="I40" s="83">
-        <v>3</v>
-      </c>
-      <c r="J40" s="84">
-        <v>3</v>
-      </c>
-      <c r="K40" s="83">
-        <v>1</v>
-      </c>
-      <c r="L40" s="84">
-        <v>3</v>
-      </c>
-      <c r="M40" s="83">
-        <v>2</v>
-      </c>
-      <c r="N40" s="84">
-        <v>3</v>
+        <f>ROUND(AVERAGE(G40:Z40),1)</f>
+        <v>3</v>
+      </c>
+      <c r="K40" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="L40" s="84" t="s">
+        <v>169</v>
       </c>
       <c r="O40" s="83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P40" s="84">
         <v>3</v>
       </c>
-      <c r="Q40" s="5">
-        <v>3</v>
-      </c>
-      <c r="R40" s="6">
-        <v>3</v>
+      <c r="Q40" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="79" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B41" s="83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="84">
         <v>1</v>
@@ -11808,41 +11885,47 @@
         <v>4</v>
       </c>
       <c r="E41" s="68">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>SUM(G41:R41)</f>
+        <v>10</v>
       </c>
       <c r="F41" s="84">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G41" s="83">
-        <v>1</v>
-      </c>
-      <c r="H41" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="I41" s="83">
-        <v>1</v>
+        <f>ROUND(AVERAGE(G41:Z41),1)</f>
+        <v>1.7</v>
+      </c>
+      <c r="I41" s="83" t="s">
+        <v>169</v>
       </c>
       <c r="J41" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="K41" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="L41" s="84" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="K41" s="83">
+        <v>3</v>
+      </c>
+      <c r="L41" s="84">
+        <v>3</v>
+      </c>
+      <c r="M41" s="83">
+        <v>1</v>
+      </c>
+      <c r="N41" s="84">
+        <v>1</v>
       </c>
       <c r="O41" s="83">
-        <v>3</v>
-      </c>
-      <c r="P41" s="84">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="P41" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>2</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="B42" s="83">
         <v>0</v>
@@ -11851,84 +11934,66 @@
         <v>0</v>
       </c>
       <c r="D42" s="83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E42" s="68">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="F42" s="84">
-        <f t="shared" si="1"/>
-        <v>2.9</v>
-      </c>
-      <c r="G42" s="83">
-        <v>3</v>
-      </c>
-      <c r="H42" s="84">
-        <v>3</v>
-      </c>
-      <c r="I42" s="83">
-        <v>2</v>
-      </c>
-      <c r="J42" s="84">
-        <v>3</v>
-      </c>
-      <c r="O42" s="83">
-        <v>3</v>
-      </c>
-      <c r="P42" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>3</v>
-      </c>
-      <c r="R42" s="6">
-        <v>3</v>
+        <f>SUM(G42:R42)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="84" t="e">
+        <f>ROUND(AVERAGE(G42:Z42),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="79" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="B43" s="83">
         <v>4</v>
       </c>
       <c r="C43" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43" s="68">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>SUM(G43:R43)</f>
+        <v>8</v>
       </c>
       <c r="F43" s="84">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K43" s="83">
-        <v>1</v>
-      </c>
-      <c r="L43" s="84">
-        <v>1</v>
-      </c>
-      <c r="M43" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="N43" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="R43" s="6" t="s">
-        <v>171</v>
+        <f>ROUND(AVERAGE(G43:Z43),1)</f>
+        <v>2</v>
+      </c>
+      <c r="G43" s="83">
+        <v>1</v>
+      </c>
+      <c r="H43" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" s="83">
+        <v>1</v>
+      </c>
+      <c r="J43" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="K43" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="L43" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="O43" s="83">
+        <v>3</v>
+      </c>
+      <c r="P43" s="84">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="79" t="s">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="B44" s="83">
         <v>0</v>
@@ -11937,48 +12002,36 @@
         <v>0</v>
       </c>
       <c r="D44" s="83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44" s="68">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f>SUM(G44:R44)</f>
+        <v>23</v>
       </c>
       <c r="F44" s="84">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
+        <f>ROUND(AVERAGE(G44:Z44),1)</f>
+        <v>2.9</v>
       </c>
       <c r="G44" s="83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" s="84">
         <v>3</v>
       </c>
       <c r="I44" s="83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="84">
-        <v>1</v>
-      </c>
-      <c r="K44" s="83">
-        <v>3</v>
-      </c>
-      <c r="L44" s="84">
-        <v>2</v>
-      </c>
-      <c r="M44" s="83">
-        <v>1</v>
-      </c>
-      <c r="N44" s="84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O44" s="83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P44" s="84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R44" s="6">
         <v>3</v>
@@ -11986,29 +12039,47 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="79" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B45" s="83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C45" s="84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>SUM(G45:R45)</f>
+        <v>2</v>
+      </c>
+      <c r="F45" s="84">
+        <f>ROUND(AVERAGE(G45:Z45),1)</f>
+        <v>1</v>
+      </c>
+      <c r="K45" s="83">
+        <v>1</v>
+      </c>
+      <c r="L45" s="84">
+        <v>1</v>
+      </c>
+      <c r="M45" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="N45" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B46" s="83">
         <v>0</v>
@@ -12017,101 +12088,95 @@
         <v>0</v>
       </c>
       <c r="D46" s="83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46" s="68">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>SUM(G46:R46)</f>
+        <v>21</v>
       </c>
       <c r="F46" s="84">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f>ROUND(AVERAGE(G46:Z46),1)</f>
+        <v>1.8</v>
+      </c>
+      <c r="G46" s="83">
+        <v>2</v>
+      </c>
+      <c r="H46" s="84">
+        <v>3</v>
+      </c>
+      <c r="I46" s="83">
+        <v>1</v>
+      </c>
+      <c r="J46" s="84">
+        <v>1</v>
+      </c>
+      <c r="K46" s="83">
+        <v>3</v>
+      </c>
+      <c r="L46" s="84">
+        <v>2</v>
+      </c>
+      <c r="M46" s="83">
+        <v>1</v>
+      </c>
+      <c r="N46" s="84">
+        <v>2</v>
       </c>
       <c r="O46" s="83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P46" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R46" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="B47" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47" s="68">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F47" s="84">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="K47" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="L47" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q47" s="5">
-        <v>2</v>
-      </c>
-      <c r="R47" s="6">
-        <v>3</v>
+        <f>SUM(G47:R47)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="84" t="e">
+        <f>ROUND(AVERAGE(G47:Z47),1)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="79" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B48" s="83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C48" s="84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E48" s="68">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f>SUM(G48:R48)</f>
+        <v>10</v>
       </c>
       <c r="F48" s="84">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="G48" s="83">
-        <v>2</v>
-      </c>
-      <c r="H48" s="84">
-        <v>3</v>
-      </c>
-      <c r="I48" s="83">
-        <v>2</v>
-      </c>
-      <c r="J48" s="84">
-        <v>3</v>
-      </c>
-      <c r="K48" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="L48" s="84" t="s">
-        <v>171</v>
+        <f>ROUND(AVERAGE(G48:Z48),1)</f>
+        <v>2.5</v>
       </c>
       <c r="O48" s="83">
         <v>3</v>
@@ -12119,38 +12184,50 @@
       <c r="P48" s="84">
         <v>2</v>
       </c>
-      <c r="Q48" s="4">
-        <v>3</v>
-      </c>
-      <c r="R48" s="4">
-        <v>3</v>
+      <c r="Q48" s="5">
+        <v>3</v>
+      </c>
+      <c r="R48" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="79" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="B49" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C49" s="84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" s="68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f>SUM(G49:R49)</f>
+        <v>5</v>
+      </c>
+      <c r="F49" s="84">
+        <f>ROUND(AVERAGE(G49:Z49),1)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K49" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="L49" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q49" s="115">
+        <v>2</v>
+      </c>
+      <c r="R49" s="115">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="79" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B50" s="83">
         <v>0</v>
@@ -12162,49 +12239,71 @@
         <v>0</v>
       </c>
       <c r="E50" s="68">
-        <f t="shared" si="2"/>
+        <f>SUM(G50:R50)</f>
         <v>0</v>
       </c>
       <c r="F50" s="84" t="e">
-        <f t="shared" si="1"/>
+        <f>ROUND(AVERAGE(G50:Z50),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="83">
+        <v>0</v>
+      </c>
+      <c r="C51" s="84">
+        <v>0</v>
+      </c>
+      <c r="D51" s="83">
+        <v>0</v>
+      </c>
+      <c r="E51" s="68">
+        <f>SUM(G51:R51)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="84" t="e">
+        <f>ROUND(AVERAGE(G51:Z51),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="83">
-        <v>2</v>
-      </c>
-      <c r="C51" s="84">
-        <v>1</v>
-      </c>
-      <c r="D51" s="83">
-        <v>2</v>
-      </c>
-      <c r="E51" s="68">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F51" s="84">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G51" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="H51" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="O51" s="83">
-        <v>3</v>
-      </c>
-      <c r="P51" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q51" s="68"/>
-      <c r="R51" s="68"/>
+      <c r="B52" s="83">
+        <v>2</v>
+      </c>
+      <c r="C52" s="84">
+        <v>1</v>
+      </c>
+      <c r="D52" s="83">
+        <v>2</v>
+      </c>
+      <c r="E52" s="68">
+        <f>SUM(G52:R52)</f>
+        <v>3</v>
+      </c>
+      <c r="F52" s="84">
+        <f>ROUND(AVERAGE(G52:Z52),1)</f>
+        <v>3</v>
+      </c>
+      <c r="G52" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="H52" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="O52" s="83">
+        <v>3</v>
+      </c>
+      <c r="P52" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q52" s="68"/>
+      <c r="R52" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1BB7042-CF37-49EB-9B0A-0DC37209959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A31132A-970D-43D7-A6B4-079DCC82117E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="partecipanti" sheetId="5" r:id="rId5"/>
     <sheet name="wars" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">wars!$A$1:$CL$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -723,7 +726,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,8 +756,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,8 +880,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -963,31 +980,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1016,11 +1009,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1253,19 +1286,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1277,7 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1358,515 +1379,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1877,109 +1454,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella2" displayName="Tabella2" ref="A1:CI52" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
-  <autoFilter ref="A1:CI52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CI52">
-    <sortCondition ref="S1:S52"/>
-  </sortState>
-  <tableColumns count="87">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NAME" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ATK SKIP" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ZERO WAR  ATK" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TOT WARS" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TOT STARS" dataDxfId="82">
-      <calculatedColumnFormula>SUM(G2:M2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="AVG STAR" dataDxfId="81">
-      <calculatedColumnFormula>ROUND(AVERAGE(G2:Z2),1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="WAR-1 (1)" dataDxfId="80"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="WAR-1 (2)" dataDxfId="79"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="WAR-2 (1)" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="WAR-2 (2)" dataDxfId="77"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="WAR-3 (1)" dataDxfId="76"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="WAR-3 (2)" dataDxfId="75"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="WAR-4 (1)" dataDxfId="74"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="WAR-4 (2)" dataDxfId="73"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="WAR-5 (1)" dataDxfId="72"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="WAR-5 (2)" dataDxfId="71"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="WAR-6 (1)" dataDxfId="70"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="WAR-6 (2)" dataDxfId="69"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="WAR-7 (1)" dataDxfId="68"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="WAR-7 (2)" dataDxfId="67"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Colonna21" dataDxfId="66"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Colonna22" dataDxfId="65"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Colonna23" dataDxfId="64"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Colonna24" dataDxfId="63"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Colonna25" dataDxfId="62"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Colonna26" dataDxfId="61"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Colonna27" dataDxfId="60"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Colonna28" dataDxfId="59"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Colonna29" dataDxfId="58"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Colonna30" dataDxfId="57"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Colonna31" dataDxfId="56"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Colonna32" dataDxfId="55"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Colonna33" dataDxfId="54"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Colonna34" dataDxfId="53"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Colonna35" dataDxfId="52"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Colonna36" dataDxfId="51"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Colonna37" dataDxfId="50"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Colonna38" dataDxfId="49"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Colonna39" dataDxfId="48"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Colonna40" dataDxfId="47"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Colonna41" dataDxfId="46"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Colonna42" dataDxfId="45"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Colonna43" dataDxfId="44"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Colonna44" dataDxfId="43"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Colonna45" dataDxfId="42"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Colonna46" dataDxfId="41"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Colonna47" dataDxfId="40"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Colonna48" dataDxfId="39"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Colonna49" dataDxfId="38"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Colonna50" dataDxfId="37"/>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Colonna51" dataDxfId="36"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Colonna52" dataDxfId="35"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Colonna53" dataDxfId="34"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Colonna54" dataDxfId="33"/>
-    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Colonna55" dataDxfId="32"/>
-    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Colonna56" dataDxfId="31"/>
-    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Colonna57" dataDxfId="30"/>
-    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Colonna58" dataDxfId="29"/>
-    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Colonna59" dataDxfId="28"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Colonna60" dataDxfId="27"/>
-    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Colonna61" dataDxfId="26"/>
-    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Colonna62" dataDxfId="25"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Colonna63" dataDxfId="24"/>
-    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="Colonna64" dataDxfId="23"/>
-    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Colonna65" dataDxfId="22"/>
-    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Colonna66" dataDxfId="21"/>
-    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="Colonna67" dataDxfId="20"/>
-    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Colonna68" dataDxfId="19"/>
-    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="Colonna69" dataDxfId="18"/>
-    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Colonna70" dataDxfId="17"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Colonna71" dataDxfId="16"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Colonna72" dataDxfId="15"/>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Colonna73" dataDxfId="14"/>
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Colonna74" dataDxfId="13"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Colonna75" dataDxfId="12"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Colonna76" dataDxfId="11"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Colonna77" dataDxfId="10"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Colonna78" dataDxfId="9"/>
-    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Colonna79" dataDxfId="8"/>
-    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="Colonna80" dataDxfId="7"/>
-    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="Colonna81" dataDxfId="6"/>
-    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="Colonna82" dataDxfId="5"/>
-    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" name="Colonna83" dataDxfId="4"/>
-    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="Colonna84" dataDxfId="3"/>
-    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" name="Colonna85" dataDxfId="2"/>
-    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" name="Colonna86" dataDxfId="1"/>
-    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="Colonna87" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2301,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -4329,41 +3803,41 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="61"/>
-      <c r="C1" s="111">
-        <v>1</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="111">
-        <v>2</v>
-      </c>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="111">
-        <v>3</v>
-      </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="111">
+      <c r="C1" s="107">
+        <v>1</v>
+      </c>
+      <c r="D1" s="108"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="107">
+        <v>2</v>
+      </c>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="107">
+        <v>3</v>
+      </c>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="107">
         <v>4</v>
       </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="111">
+      <c r="M1" s="108"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="107">
         <v>5</v>
       </c>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="111">
+      <c r="P1" s="108"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="107">
         <v>6</v>
       </c>
-      <c r="S1" s="112"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="111">
+      <c r="S1" s="108"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="107">
         <v>7</v>
       </c>
-      <c r="V1" s="112"/>
-      <c r="W1" s="113"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -6530,52 +6004,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" style="97" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="93" customWidth="1"/>
     <col min="3" max="20" width="9.140625" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="111">
-        <v>1</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="111">
-        <v>2</v>
-      </c>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="111">
-        <v>3</v>
-      </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="111">
+      <c r="C1" s="107">
+        <v>1</v>
+      </c>
+      <c r="D1" s="108"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="107">
+        <v>2</v>
+      </c>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="107">
+        <v>3</v>
+      </c>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="107">
         <v>4</v>
       </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="111">
+      <c r="M1" s="108"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="107">
         <v>5</v>
       </c>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="111">
+      <c r="P1" s="108"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="107">
         <v>6</v>
       </c>
-      <c r="S1" s="112"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="111">
+      <c r="S1" s="108"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="107">
         <v>7</v>
       </c>
-      <c r="V1" s="112"/>
-      <c r="W1" s="113"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="90" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="36" t="s">
@@ -6646,7 +6120,7 @@
       <c r="A3" s="39">
         <v>16</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="94" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="39"/>
@@ -6699,7 +6173,7 @@
       <c r="A4" s="39">
         <v>15</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="94" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="39"/>
@@ -6752,7 +6226,7 @@
       <c r="A5" s="39">
         <v>14</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="91" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="39"/>
@@ -6809,7 +6283,7 @@
       <c r="A6" s="39">
         <v>14</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="104" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="39"/>
@@ -6866,7 +6340,7 @@
       <c r="A7" s="39">
         <v>14</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="105" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="39"/>
@@ -6923,7 +6397,7 @@
       <c r="A8" s="39">
         <v>13</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="91" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="39"/>
@@ -6980,7 +6454,7 @@
       <c r="A9" s="39">
         <v>13</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="104" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="39"/>
@@ -7037,7 +6511,7 @@
       <c r="A10" s="39">
         <v>13</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="91" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="39"/>
@@ -7094,7 +6568,7 @@
       <c r="A11" s="39">
         <v>13</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="91" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="39"/>
@@ -7151,12 +6625,12 @@
       <c r="A12" s="39">
         <v>13</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39">
         <v>-1</v>
@@ -7204,7 +6678,7 @@
       <c r="A13" s="39">
         <v>13</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="102" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="39"/>
@@ -7220,12 +6694,12 @@
       <c r="I13" s="40"/>
       <c r="J13" s="55"/>
       <c r="K13" s="41"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="104"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="100"/>
       <c r="R13" s="40"/>
       <c r="S13" s="39">
         <v>0</v>
@@ -7245,7 +6719,7 @@
       <c r="A14" s="39">
         <v>13</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="105" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="39"/>
@@ -7302,7 +6776,7 @@
       <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="105" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="39"/>
@@ -7359,7 +6833,7 @@
       <c r="A16" s="39">
         <v>13</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="39"/>
@@ -7412,7 +6886,7 @@
       <c r="A17" s="39">
         <v>13</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="104" t="s">
         <v>69</v>
       </c>
       <c r="C17" s="39"/>
@@ -7423,7 +6897,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="40"/>
-      <c r="G17" s="100">
+      <c r="G17" s="96">
         <v>-1</v>
       </c>
       <c r="H17" s="41">
@@ -7469,11 +6943,11 @@
       <c r="A18" s="39">
         <v>13</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="104" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="39"/>
-      <c r="D18" s="100">
+      <c r="D18" s="96">
         <v>-1</v>
       </c>
       <c r="E18" s="41">
@@ -7526,7 +7000,7 @@
       <c r="A19" s="39">
         <v>13</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="104" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="39"/>
@@ -7551,7 +7025,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="40"/>
-      <c r="M19" s="100">
+      <c r="M19" s="96">
         <v>0</v>
       </c>
       <c r="N19" s="41">
@@ -7583,7 +7057,7 @@
       <c r="A20" s="39">
         <v>12</v>
       </c>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="104" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="39"/>
@@ -7593,7 +7067,7 @@
       <c r="E20" s="41">
         <v>3</v>
       </c>
-      <c r="F20" s="87"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="39">
         <v>-1</v>
       </c>
@@ -7640,15 +7114,15 @@
       <c r="A21" s="39">
         <v>13</v>
       </c>
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="40"/>
       <c r="J21" s="39">
         <v>1</v>
@@ -7685,7 +7159,7 @@
       <c r="A22" s="39">
         <v>12</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="91" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="39"/>
@@ -7742,7 +7216,7 @@
       <c r="A23" s="39">
         <v>12</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="104" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="39"/>
@@ -7767,7 +7241,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="40"/>
-      <c r="M23" s="100">
+      <c r="M23" s="96">
         <v>1</v>
       </c>
       <c r="N23" s="41">
@@ -7799,11 +7273,11 @@
       <c r="A24" s="39">
         <v>12</v>
       </c>
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="104" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="39"/>
-      <c r="D24" s="100">
+      <c r="D24" s="96">
         <v>0</v>
       </c>
       <c r="E24" s="41">
@@ -7856,11 +7330,11 @@
       <c r="A25" s="39">
         <v>12</v>
       </c>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="104" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="100">
+      <c r="D25" s="96">
         <v>0</v>
       </c>
       <c r="E25" s="41">
@@ -7913,7 +7387,7 @@
       <c r="A26" s="39">
         <v>12</v>
       </c>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="91" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="39"/>
@@ -7970,7 +7444,7 @@
       <c r="A27" s="39">
         <v>12</v>
       </c>
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="104" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="39"/>
@@ -7995,7 +7469,7 @@
         <v>3</v>
       </c>
       <c r="L27" s="40"/>
-      <c r="M27" s="100">
+      <c r="M27" s="96">
         <v>0</v>
       </c>
       <c r="N27" s="41">
@@ -8029,7 +7503,7 @@
       <c r="A28" s="39">
         <v>12</v>
       </c>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="91" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="39"/>
@@ -8086,7 +7560,7 @@
       <c r="A29" s="39">
         <v>12</v>
       </c>
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="104" t="s">
         <v>77</v>
       </c>
       <c r="C29" s="39"/>
@@ -8111,7 +7585,7 @@
         <v>3</v>
       </c>
       <c r="L29" s="40"/>
-      <c r="M29" s="100">
+      <c r="M29" s="96">
         <v>0</v>
       </c>
       <c r="N29" s="41">
@@ -8143,21 +7617,21 @@
       <c r="A30" s="39">
         <v>12</v>
       </c>
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
       <c r="O30" s="40"/>
       <c r="P30" s="39">
         <v>0</v>
@@ -8180,7 +7654,7 @@
       <c r="A31" s="39">
         <v>12</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="94" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="39"/>
@@ -8233,11 +7707,11 @@
       <c r="A32" s="39">
         <v>10</v>
       </c>
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="104" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="39"/>
-      <c r="D32" s="100"/>
+      <c r="D32" s="96"/>
       <c r="E32" s="41"/>
       <c r="F32" s="40"/>
       <c r="G32" s="39">
@@ -8336,18 +7810,18 @@
       <c r="A35" s="39">
         <v>13</v>
       </c>
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
       <c r="L35" s="40"/>
       <c r="M35" s="55"/>
       <c r="N35" s="41"/>
@@ -8365,21 +7839,21 @@
       <c r="A36" s="39">
         <v>13</v>
       </c>
-      <c r="B36" s="101" t="s">
+      <c r="B36" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
       <c r="O36" s="40"/>
       <c r="P36" s="55"/>
       <c r="Q36" s="41"/>
@@ -8394,15 +7868,15 @@
       <c r="A37" s="39">
         <v>13</v>
       </c>
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
       <c r="I37" s="40"/>
       <c r="J37" s="55"/>
       <c r="K37" s="41"/>
@@ -8423,12 +7897,12 @@
       <c r="A38" s="39">
         <v>13</v>
       </c>
-      <c r="B38" s="101" t="s">
+      <c r="B38" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="104"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="39"/>
       <c r="G38" s="55"/>
       <c r="H38" s="39"/>
@@ -8452,18 +7926,18 @@
       <c r="A39" s="39">
         <v>13</v>
       </c>
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
       <c r="L39" s="40"/>
       <c r="M39" s="55"/>
       <c r="N39" s="41"/>
@@ -8481,12 +7955,12 @@
       <c r="A40" s="39">
         <v>12</v>
       </c>
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="104"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="100"/>
       <c r="F40" s="40"/>
       <c r="G40" s="55"/>
       <c r="H40" s="41"/>
@@ -8510,7 +7984,7 @@
       <c r="A41" s="39">
         <v>13</v>
       </c>
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="94" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="39"/>
@@ -8539,7 +8013,7 @@
       <c r="A42" s="39">
         <v>13</v>
       </c>
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="94" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="39"/>
@@ -8568,7 +8042,7 @@
       <c r="A43" s="39">
         <v>13</v>
       </c>
-      <c r="B43" s="99" t="s">
+      <c r="B43" s="95" t="s">
         <v>88</v>
       </c>
       <c r="C43" s="39">
@@ -8625,8 +8099,8 @@
       <c r="W44" s="43"/>
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="88"/>
-      <c r="B45" s="96" t="s">
+      <c r="A45" s="84"/>
+      <c r="B45" s="92" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="43"/>
@@ -8652,8 +8126,8 @@
       <c r="W45" s="43"/>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="89"/>
-      <c r="B46" s="96" t="s">
+      <c r="A46" s="85"/>
+      <c r="B46" s="92" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="43"/>
@@ -8679,8 +8153,8 @@
       <c r="W46" s="43"/>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="90"/>
-      <c r="B47" s="96" t="s">
+      <c r="A47" s="86"/>
+      <c r="B47" s="92" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="43"/>
@@ -8706,8 +8180,8 @@
       <c r="W47" s="43"/>
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="91"/>
-      <c r="B48" s="96" t="s">
+      <c r="A48" s="87"/>
+      <c r="B48" s="92" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="43"/>
@@ -8733,8 +8207,8 @@
       <c r="W48" s="43"/>
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="92"/>
-      <c r="B49" s="96" t="s">
+      <c r="A49" s="88"/>
+      <c r="B49" s="92" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="43"/>
@@ -8760,8 +8234,8 @@
       <c r="W49" s="43"/>
     </row>
     <row r="50" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="93"/>
-      <c r="B50" s="96" t="s">
+      <c r="A50" s="89"/>
+      <c r="B50" s="92" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="43"/>
@@ -8787,8 +8261,8 @@
       <c r="W50" s="43"/>
     </row>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="102"/>
-      <c r="B51" s="96" t="s">
+      <c r="A51" s="98"/>
+      <c r="B51" s="92" t="s">
         <v>89</v>
       </c>
       <c r="C51" s="43"/>
@@ -8814,8 +8288,8 @@
       <c r="W51" s="43"/>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="105"/>
-      <c r="B52" s="96" t="s">
+      <c r="A52" s="101"/>
+      <c r="B52" s="92" t="s">
         <v>90</v>
       </c>
       <c r="C52" s="43"/>
@@ -9600,16 +9074,16 @@
       <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="114" t="s">
+      <c r="A32" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="113"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9642,7 +9116,7 @@
       <c r="S1" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="79" t="s">
+      <c r="X1" s="78" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9682,10 +9156,10 @@
       <c r="S3" t="s">
         <v>94</v>
       </c>
-      <c r="W3" s="85" t="s">
+      <c r="W3" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="X3" s="79" t="s">
+      <c r="X3" s="78" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9711,7 +9185,7 @@
       <c r="S4" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="79" t="s">
+      <c r="W4" s="78" t="s">
         <v>96</v>
       </c>
     </row>
@@ -9737,7 +9211,7 @@
       <c r="S5" t="s">
         <v>61</v>
       </c>
-      <c r="W5" s="85" t="s">
+      <c r="W5" s="81" t="s">
         <v>98</v>
       </c>
     </row>
@@ -9763,7 +9237,7 @@
       <c r="S6" t="s">
         <v>101</v>
       </c>
-      <c r="W6" s="85" t="s">
+      <c r="W6" s="81" t="s">
         <v>71</v>
       </c>
     </row>
@@ -9786,7 +9260,7 @@
       <c r="S7" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="85" t="s">
+      <c r="W7" s="81" t="s">
         <v>84</v>
       </c>
     </row>
@@ -9803,7 +9277,7 @@
       <c r="S8" t="s">
         <v>17</v>
       </c>
-      <c r="W8" s="79" t="s">
+      <c r="W8" s="78" t="s">
         <v>83</v>
       </c>
     </row>
@@ -9826,7 +9300,7 @@
       <c r="S9" t="s">
         <v>104</v>
       </c>
-      <c r="W9" s="79" t="s">
+      <c r="W9" s="78" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9843,7 +9317,7 @@
       <c r="S10" t="s">
         <v>64</v>
       </c>
-      <c r="W10" s="79" t="s">
+      <c r="W10" s="78" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9866,7 +9340,7 @@
       <c r="S11" t="s">
         <v>73</v>
       </c>
-      <c r="W11" s="85" t="s">
+      <c r="W11" s="81" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9889,7 +9363,7 @@
       <c r="S12" t="s">
         <v>76</v>
       </c>
-      <c r="W12" s="85" t="s">
+      <c r="W12" s="81" t="s">
         <v>108</v>
       </c>
     </row>
@@ -9912,7 +9386,7 @@
       <c r="S13" t="s">
         <v>110</v>
       </c>
-      <c r="W13" s="79" t="s">
+      <c r="W13" s="78" t="s">
         <v>41</v>
       </c>
     </row>
@@ -9935,7 +9409,7 @@
       <c r="S14" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="85" t="s">
+      <c r="W14" s="81" t="s">
         <v>65</v>
       </c>
     </row>
@@ -9958,7 +9432,7 @@
       <c r="S15" t="s">
         <v>45</v>
       </c>
-      <c r="W15" s="85" t="s">
+      <c r="W15" s="81" t="s">
         <v>86</v>
       </c>
     </row>
@@ -9975,7 +9449,7 @@
       <c r="S16" t="s">
         <v>113</v>
       </c>
-      <c r="W16" s="79" t="s">
+      <c r="W16" s="78" t="s">
         <v>114</v>
       </c>
     </row>
@@ -9998,7 +9472,7 @@
       <c r="S17" t="s">
         <v>22</v>
       </c>
-      <c r="W17" s="85" t="s">
+      <c r="W17" s="81" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10021,7 +9495,7 @@
       <c r="S18" t="s">
         <v>77</v>
       </c>
-      <c r="W18" s="79" t="s">
+      <c r="W18" s="78" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10044,7 +9518,7 @@
       <c r="S19" t="s">
         <v>118</v>
       </c>
-      <c r="W19" s="85" t="s">
+      <c r="W19" s="81" t="s">
         <v>119</v>
       </c>
     </row>
@@ -10061,7 +9535,7 @@
       <c r="S20" t="s">
         <v>120</v>
       </c>
-      <c r="W20" s="79"/>
+      <c r="W20" s="78"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -10076,7 +9550,7 @@
       <c r="S21" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="85"/>
+      <c r="W21" s="81"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -10091,7 +9565,7 @@
       <c r="S22" t="s">
         <v>62</v>
       </c>
-      <c r="W22" s="79"/>
+      <c r="W22" s="78"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -10106,7 +9580,7 @@
       <c r="S23" t="s">
         <v>121</v>
       </c>
-      <c r="W23" s="79"/>
+      <c r="W23" s="78"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -10121,7 +9595,7 @@
       <c r="S24" t="s">
         <v>122</v>
       </c>
-      <c r="W24" s="79"/>
+      <c r="W24" s="78"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -10136,7 +9610,7 @@
       <c r="S25" t="s">
         <v>43</v>
       </c>
-      <c r="W25" s="85"/>
+      <c r="W25" s="81"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -10151,7 +9625,7 @@
       <c r="S26" t="s">
         <v>123</v>
       </c>
-      <c r="W26" s="85"/>
+      <c r="W26" s="81"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -10166,7 +9640,7 @@
       <c r="S27" t="s">
         <v>47</v>
       </c>
-      <c r="W27" s="85"/>
+      <c r="W27" s="81"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -10181,7 +9655,7 @@
       <c r="S28" t="s">
         <v>124</v>
       </c>
-      <c r="W28" s="85"/>
+      <c r="W28" s="81"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -10193,70 +9667,70 @@
       <c r="R29" t="s">
         <v>125</v>
       </c>
-      <c r="S29" s="85" t="s">
+      <c r="S29" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="W29" s="79"/>
+      <c r="W29" s="78"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W30" s="79"/>
+      <c r="W30" s="78"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W31" s="79"/>
+      <c r="W31" s="78"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W32" s="85"/>
+      <c r="W32" s="81"/>
     </row>
     <row r="33" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W33" s="85"/>
+      <c r="W33" s="81"/>
     </row>
     <row r="34" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W34" s="79"/>
+      <c r="W34" s="78"/>
     </row>
     <row r="35" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W35" s="85"/>
+      <c r="W35" s="81"/>
     </row>
     <row r="36" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W36" s="79"/>
+      <c r="W36" s="78"/>
     </row>
     <row r="37" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W37" s="79"/>
+      <c r="W37" s="78"/>
     </row>
     <row r="38" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W38" s="85"/>
+      <c r="W38" s="81"/>
     </row>
     <row r="39" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W39" s="79"/>
+      <c r="W39" s="78"/>
     </row>
     <row r="40" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W40" s="79"/>
+      <c r="W40" s="78"/>
     </row>
     <row r="41" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W41" s="85"/>
+      <c r="W41" s="81"/>
     </row>
     <row r="42" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W42" s="79"/>
+      <c r="W42" s="78"/>
     </row>
     <row r="43" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W43" s="85"/>
+      <c r="W43" s="81"/>
     </row>
     <row r="44" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W44" s="79"/>
+      <c r="W44" s="78"/>
     </row>
     <row r="45" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W45" s="85"/>
+      <c r="W45" s="81"/>
     </row>
     <row r="46" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W46" s="85"/>
+      <c r="W46" s="81"/>
     </row>
     <row r="47" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W47" s="79"/>
+      <c r="W47" s="78"/>
     </row>
     <row r="48" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W48" s="85"/>
+      <c r="W48" s="81"/>
     </row>
     <row r="49" spans="23:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W49" s="86"/>
+      <c r="W49" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10265,1992 +9739,5911 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:CI45"/>
+  <dimension ref="A1:CI52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="79" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="83" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="84" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="83" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="78" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="79" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="80" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="79" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="68" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="84" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="83" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="84" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="83" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="84" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="83" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="84" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="83" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="84" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="83" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="84" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="83" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="84" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="83" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="84" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="83" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="84" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="83" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="84" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="83" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="84" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="83" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="84" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="80" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="79" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="80" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="79" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="80" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="79" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="80" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="79" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="80" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="79" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="80" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="79" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="80" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="79" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="80" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="79" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="80" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="79" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="80" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="79" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="80" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="79" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="80" customWidth="1"/>
     <col min="29" max="87" width="12.5703125" style="68" customWidth="1"/>
     <col min="88" max="90" width="9.140625" style="68" customWidth="1"/>
     <col min="91" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="M1" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="N1" s="81" t="s">
+      <c r="N1" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="80" t="s">
+      <c r="O1" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="81" t="s">
+      <c r="P1" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="80" t="s">
+      <c r="Q1" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="80" t="s">
+      <c r="S1" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="T1" s="81" t="s">
+      <c r="T1" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="U1" s="80" t="s">
+      <c r="U1" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="V1" s="81" t="s">
+      <c r="V1" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="W1" s="80" t="s">
+      <c r="W1" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="X1" s="81" t="s">
+      <c r="X1" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="Y1" s="80" t="s">
+      <c r="Y1" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="Z1" s="81" t="s">
+      <c r="Z1" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="AA1" s="80" t="s">
+      <c r="AA1" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="AB1" s="81" t="s">
+      <c r="AB1" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="AC1" s="68" t="s">
+      <c r="AC1" s="113" t="s">
         <v>154</v>
       </c>
-      <c r="AD1" s="68" t="s">
+      <c r="AD1" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="AE1" s="68" t="s">
+      <c r="AE1" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="AF1" s="68" t="s">
+      <c r="AF1" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="AG1" s="68" t="s">
+      <c r="AG1" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="AH1" s="68" t="s">
+      <c r="AH1" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="AI1" s="68" t="s">
+      <c r="AI1" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="AJ1" s="68" t="s">
+      <c r="AJ1" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AK1" s="68" t="s">
+      <c r="AK1" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="AL1" s="68" t="s">
+      <c r="AL1" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="AM1" s="68" t="s">
+      <c r="AM1" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="AN1" s="68" t="s">
+      <c r="AN1" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="AO1" s="68" t="s">
+      <c r="AO1" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="AP1" s="68" t="s">
+      <c r="AP1" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="AQ1" s="68" t="s">
+      <c r="AQ1" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="AR1" s="68" t="s">
+      <c r="AR1" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="AS1" s="68" t="s">
+      <c r="AS1" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="AT1" s="68" t="s">
+      <c r="AT1" s="114" t="s">
         <v>171</v>
       </c>
-      <c r="AU1" s="68" t="s">
+      <c r="AU1" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="AV1" s="68" t="s">
+      <c r="AV1" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="AW1" s="68" t="s">
+      <c r="AW1" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="AX1" s="68" t="s">
+      <c r="AX1" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="AY1" s="68" t="s">
+      <c r="AY1" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="AZ1" s="68" t="s">
+      <c r="AZ1" s="114" t="s">
         <v>177</v>
       </c>
-      <c r="BA1" s="68" t="s">
+      <c r="BA1" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="BB1" s="68" t="s">
+      <c r="BB1" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="BC1" s="68" t="s">
+      <c r="BC1" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="BD1" s="68" t="s">
+      <c r="BD1" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="BE1" s="68" t="s">
+      <c r="BE1" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="BF1" s="68" t="s">
+      <c r="BF1" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="BG1" s="68" t="s">
+      <c r="BG1" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="BH1" s="68" t="s">
+      <c r="BH1" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="BI1" s="68" t="s">
+      <c r="BI1" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="BJ1" s="68" t="s">
+      <c r="BJ1" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="BK1" s="68" t="s">
+      <c r="BK1" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="BL1" s="68" t="s">
+      <c r="BL1" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="BM1" s="68" t="s">
+      <c r="BM1" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="BN1" s="68" t="s">
+      <c r="BN1" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="BO1" s="68" t="s">
+      <c r="BO1" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="BP1" s="68" t="s">
+      <c r="BP1" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="BQ1" s="68" t="s">
+      <c r="BQ1" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="BR1" s="68" t="s">
+      <c r="BR1" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="BS1" s="68" t="s">
+      <c r="BS1" s="114" t="s">
         <v>196</v>
       </c>
-      <c r="BT1" s="68" t="s">
+      <c r="BT1" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="BU1" s="68" t="s">
+      <c r="BU1" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="BV1" s="68" t="s">
+      <c r="BV1" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="BW1" s="68" t="s">
+      <c r="BW1" s="114" t="s">
         <v>200</v>
       </c>
-      <c r="BX1" s="68" t="s">
+      <c r="BX1" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="BY1" s="68" t="s">
+      <c r="BY1" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="BZ1" s="68" t="s">
+      <c r="BZ1" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="CA1" s="68" t="s">
+      <c r="CA1" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="CB1" s="68" t="s">
+      <c r="CB1" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="CC1" s="68" t="s">
+      <c r="CC1" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="CD1" s="68" t="s">
+      <c r="CD1" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="CE1" s="68" t="s">
+      <c r="CE1" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="CF1" s="68" t="s">
+      <c r="CF1" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="CG1" s="68" t="s">
+      <c r="CG1" s="114" t="s">
         <v>210</v>
       </c>
-      <c r="CH1" s="68" t="s">
+      <c r="CH1" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="CI1" s="68" t="s">
+      <c r="CI1" s="114" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="83">
-        <v>3</v>
-      </c>
-      <c r="C2" s="84">
-        <v>1</v>
-      </c>
-      <c r="D2" s="83">
-        <v>3</v>
-      </c>
-      <c r="E2" s="68">
+      <c r="B2" s="115">
+        <v>3</v>
+      </c>
+      <c r="C2" s="116">
+        <v>1</v>
+      </c>
+      <c r="D2" s="115">
+        <v>3</v>
+      </c>
+      <c r="E2" s="116">
         <f t="shared" ref="E2:E45" si="0">SUM(G2:V2)</f>
         <v>4</v>
       </c>
-      <c r="F2" s="84">
+      <c r="F2" s="116">
         <f t="shared" ref="F2:F45" si="1">ROUND(AVERAGE(G2:V2),1)</f>
         <v>1.3</v>
       </c>
-      <c r="I2" s="83">
-        <v>2</v>
-      </c>
-      <c r="J2" s="84" t="s">
+      <c r="G2" s="115"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="115">
+        <v>2</v>
+      </c>
+      <c r="J2" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="O2" s="83" t="s">
+      <c r="K2" s="115"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="P2" s="84" t="s">
+      <c r="P2" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="S2" s="83">
-        <v>1</v>
-      </c>
-      <c r="T2" s="84">
-        <v>1</v>
-      </c>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="115">
+        <v>1</v>
+      </c>
+      <c r="T2" s="116">
+        <v>1</v>
+      </c>
+      <c r="U2" s="115"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="116"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="116"/>
+      <c r="AO2" s="116"/>
+      <c r="AP2" s="116"/>
+      <c r="AQ2" s="116"/>
+      <c r="AR2" s="116"/>
+      <c r="AS2" s="116"/>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="116"/>
+      <c r="AV2" s="116"/>
+      <c r="AW2" s="116"/>
+      <c r="AX2" s="116"/>
+      <c r="AY2" s="116"/>
+      <c r="AZ2" s="116"/>
+      <c r="BA2" s="116"/>
+      <c r="BB2" s="116"/>
+      <c r="BC2" s="116"/>
+      <c r="BD2" s="116"/>
+      <c r="BE2" s="116"/>
+      <c r="BF2" s="116"/>
+      <c r="BG2" s="116"/>
+      <c r="BH2" s="116"/>
+      <c r="BI2" s="116"/>
+      <c r="BJ2" s="116"/>
+      <c r="BK2" s="116"/>
+      <c r="BL2" s="116"/>
+      <c r="BM2" s="116"/>
+      <c r="BN2" s="116"/>
+      <c r="BO2" s="116"/>
+      <c r="BP2" s="116"/>
+      <c r="BQ2" s="116"/>
+      <c r="BR2" s="116"/>
+      <c r="BS2" s="116"/>
+      <c r="BT2" s="116"/>
+      <c r="BU2" s="116"/>
+      <c r="BV2" s="116"/>
+      <c r="BW2" s="116"/>
+      <c r="BX2" s="116"/>
+      <c r="BY2" s="116"/>
+      <c r="BZ2" s="116"/>
+      <c r="CA2" s="116"/>
+      <c r="CB2" s="116"/>
+      <c r="CC2" s="116"/>
+      <c r="CD2" s="116"/>
+      <c r="CE2" s="116"/>
+      <c r="CF2" s="116"/>
+      <c r="CG2" s="116"/>
+      <c r="CH2" s="116"/>
+      <c r="CI2" s="116"/>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="83">
-        <v>1</v>
-      </c>
-      <c r="C3" s="84">
-        <v>0</v>
-      </c>
-      <c r="D3" s="83">
-        <v>2</v>
-      </c>
-      <c r="E3" s="68">
+      <c r="B3" s="117">
+        <v>1</v>
+      </c>
+      <c r="C3" s="118">
+        <v>0</v>
+      </c>
+      <c r="D3" s="117">
+        <v>2</v>
+      </c>
+      <c r="E3" s="119">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F3" s="84">
+      <c r="F3" s="118">
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="83">
-        <v>2</v>
-      </c>
-      <c r="T3" s="84">
-        <v>3</v>
-      </c>
-      <c r="U3" s="5">
-        <v>2</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="117">
+        <v>2</v>
+      </c>
+      <c r="T3" s="118">
+        <v>3</v>
+      </c>
+      <c r="U3" s="120">
+        <v>2</v>
+      </c>
+      <c r="V3" s="121" t="s">
         <v>213</v>
       </c>
+      <c r="W3" s="117"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="119"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="119"/>
+      <c r="AS3" s="119"/>
+      <c r="AT3" s="119"/>
+      <c r="AU3" s="119"/>
+      <c r="AV3" s="119"/>
+      <c r="AW3" s="119"/>
+      <c r="AX3" s="119"/>
+      <c r="AY3" s="119"/>
+      <c r="AZ3" s="119"/>
+      <c r="BA3" s="119"/>
+      <c r="BB3" s="119"/>
+      <c r="BC3" s="119"/>
+      <c r="BD3" s="119"/>
+      <c r="BE3" s="119"/>
+      <c r="BF3" s="119"/>
+      <c r="BG3" s="119"/>
+      <c r="BH3" s="119"/>
+      <c r="BI3" s="119"/>
+      <c r="BJ3" s="119"/>
+      <c r="BK3" s="119"/>
+      <c r="BL3" s="119"/>
+      <c r="BM3" s="119"/>
+      <c r="BN3" s="119"/>
+      <c r="BO3" s="119"/>
+      <c r="BP3" s="119"/>
+      <c r="BQ3" s="119"/>
+      <c r="BR3" s="119"/>
+      <c r="BS3" s="119"/>
+      <c r="BT3" s="119"/>
+      <c r="BU3" s="119"/>
+      <c r="BV3" s="119"/>
+      <c r="BW3" s="119"/>
+      <c r="BX3" s="119"/>
+      <c r="BY3" s="119"/>
+      <c r="BZ3" s="119"/>
+      <c r="CA3" s="119"/>
+      <c r="CB3" s="119"/>
+      <c r="CC3" s="119"/>
+      <c r="CD3" s="119"/>
+      <c r="CE3" s="119"/>
+      <c r="CF3" s="119"/>
+      <c r="CG3" s="119"/>
+      <c r="CH3" s="119"/>
+      <c r="CI3" s="119"/>
     </row>
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="83">
-        <v>0</v>
-      </c>
-      <c r="C4" s="84">
-        <v>0</v>
-      </c>
-      <c r="D4" s="83">
+      <c r="B4" s="122">
+        <v>0</v>
+      </c>
+      <c r="C4" s="123">
+        <v>0</v>
+      </c>
+      <c r="D4" s="122">
         <v>7</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="124">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F4" s="84">
+      <c r="F4" s="123">
         <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
-      <c r="G4" s="83">
-        <v>3</v>
-      </c>
-      <c r="H4" s="84">
-        <v>3</v>
-      </c>
-      <c r="I4" s="83">
-        <v>3</v>
-      </c>
-      <c r="J4" s="84">
-        <v>2</v>
-      </c>
-      <c r="K4" s="68">
-        <v>2</v>
-      </c>
-      <c r="L4" s="68">
-        <v>3</v>
-      </c>
-      <c r="O4" s="83">
-        <v>3</v>
-      </c>
-      <c r="P4" s="84">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>3</v>
-      </c>
-      <c r="R4" s="6">
-        <v>2</v>
-      </c>
-      <c r="S4" s="83">
-        <v>2</v>
-      </c>
-      <c r="T4" s="84">
-        <v>2</v>
-      </c>
-      <c r="U4" s="5">
-        <v>3</v>
-      </c>
-      <c r="V4" s="6">
-        <v>3</v>
-      </c>
+      <c r="G4" s="122">
+        <v>3</v>
+      </c>
+      <c r="H4" s="123">
+        <v>3</v>
+      </c>
+      <c r="I4" s="122">
+        <v>3</v>
+      </c>
+      <c r="J4" s="123">
+        <v>2</v>
+      </c>
+      <c r="K4" s="122">
+        <v>2</v>
+      </c>
+      <c r="L4" s="124">
+        <v>3</v>
+      </c>
+      <c r="M4" s="122"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="122">
+        <v>3</v>
+      </c>
+      <c r="P4" s="123">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="125">
+        <v>3</v>
+      </c>
+      <c r="R4" s="126">
+        <v>2</v>
+      </c>
+      <c r="S4" s="122">
+        <v>2</v>
+      </c>
+      <c r="T4" s="123">
+        <v>2</v>
+      </c>
+      <c r="U4" s="125">
+        <v>3</v>
+      </c>
+      <c r="V4" s="126">
+        <v>3</v>
+      </c>
+      <c r="W4" s="122"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="124"/>
+      <c r="AR4" s="124"/>
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="124"/>
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="124"/>
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="124"/>
+      <c r="AZ4" s="124"/>
+      <c r="BA4" s="124"/>
+      <c r="BB4" s="124"/>
+      <c r="BC4" s="124"/>
+      <c r="BD4" s="124"/>
+      <c r="BE4" s="124"/>
+      <c r="BF4" s="124"/>
+      <c r="BG4" s="124"/>
+      <c r="BH4" s="124"/>
+      <c r="BI4" s="124"/>
+      <c r="BJ4" s="124"/>
+      <c r="BK4" s="124"/>
+      <c r="BL4" s="124"/>
+      <c r="BM4" s="124"/>
+      <c r="BN4" s="124"/>
+      <c r="BO4" s="124"/>
+      <c r="BP4" s="124"/>
+      <c r="BQ4" s="124"/>
+      <c r="BR4" s="124"/>
+      <c r="BS4" s="124"/>
+      <c r="BT4" s="124"/>
+      <c r="BU4" s="124"/>
+      <c r="BV4" s="124"/>
+      <c r="BW4" s="124"/>
+      <c r="BX4" s="124"/>
+      <c r="BY4" s="124"/>
+      <c r="BZ4" s="124"/>
+      <c r="CA4" s="124"/>
+      <c r="CB4" s="124"/>
+      <c r="CC4" s="124"/>
+      <c r="CD4" s="124"/>
+      <c r="CE4" s="124"/>
+      <c r="CF4" s="124"/>
+      <c r="CG4" s="124"/>
+      <c r="CH4" s="124"/>
+      <c r="CI4" s="124"/>
     </row>
     <row r="5" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="83">
-        <v>0</v>
-      </c>
-      <c r="C5" s="84">
-        <v>0</v>
-      </c>
-      <c r="D5" s="83">
-        <v>1</v>
-      </c>
-      <c r="E5" s="68">
+      <c r="B5" s="117">
+        <v>0</v>
+      </c>
+      <c r="C5" s="118">
+        <v>0</v>
+      </c>
+      <c r="D5" s="117">
+        <v>1</v>
+      </c>
+      <c r="E5" s="119">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F5" s="84">
+      <c r="F5" s="118">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="83">
-        <v>2</v>
-      </c>
-      <c r="T5" s="84">
-        <v>3</v>
-      </c>
+      <c r="G5" s="117"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="117">
+        <v>2</v>
+      </c>
+      <c r="T5" s="118">
+        <v>3</v>
+      </c>
+      <c r="U5" s="117"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="118"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="118"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="118"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="119"/>
+      <c r="AN5" s="119"/>
+      <c r="AO5" s="119"/>
+      <c r="AP5" s="119"/>
+      <c r="AQ5" s="119"/>
+      <c r="AR5" s="119"/>
+      <c r="AS5" s="119"/>
+      <c r="AT5" s="119"/>
+      <c r="AU5" s="119"/>
+      <c r="AV5" s="119"/>
+      <c r="AW5" s="119"/>
+      <c r="AX5" s="119"/>
+      <c r="AY5" s="119"/>
+      <c r="AZ5" s="119"/>
+      <c r="BA5" s="119"/>
+      <c r="BB5" s="119"/>
+      <c r="BC5" s="119"/>
+      <c r="BD5" s="119"/>
+      <c r="BE5" s="119"/>
+      <c r="BF5" s="119"/>
+      <c r="BG5" s="119"/>
+      <c r="BH5" s="119"/>
+      <c r="BI5" s="119"/>
+      <c r="BJ5" s="119"/>
+      <c r="BK5" s="119"/>
+      <c r="BL5" s="119"/>
+      <c r="BM5" s="119"/>
+      <c r="BN5" s="119"/>
+      <c r="BO5" s="119"/>
+      <c r="BP5" s="119"/>
+      <c r="BQ5" s="119"/>
+      <c r="BR5" s="119"/>
+      <c r="BS5" s="119"/>
+      <c r="BT5" s="119"/>
+      <c r="BU5" s="119"/>
+      <c r="BV5" s="119"/>
+      <c r="BW5" s="119"/>
+      <c r="BX5" s="119"/>
+      <c r="BY5" s="119"/>
+      <c r="BZ5" s="119"/>
+      <c r="CA5" s="119"/>
+      <c r="CB5" s="119"/>
+      <c r="CC5" s="119"/>
+      <c r="CD5" s="119"/>
+      <c r="CE5" s="119"/>
+      <c r="CF5" s="119"/>
+      <c r="CG5" s="119"/>
+      <c r="CH5" s="119"/>
+      <c r="CI5" s="119"/>
     </row>
     <row r="6" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="83">
-        <v>2</v>
-      </c>
-      <c r="C6" s="84">
-        <v>0</v>
-      </c>
-      <c r="D6" s="83">
+      <c r="B6" s="122">
+        <v>2</v>
+      </c>
+      <c r="C6" s="123">
+        <v>0</v>
+      </c>
+      <c r="D6" s="122">
         <v>4</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="124">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F6" s="84">
+      <c r="F6" s="123">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="G6" s="83">
-        <v>3</v>
-      </c>
-      <c r="H6" s="84">
-        <v>1</v>
-      </c>
-      <c r="I6" s="83">
-        <v>3</v>
-      </c>
-      <c r="J6" s="84">
-        <v>3</v>
-      </c>
-      <c r="O6" s="83">
-        <v>3</v>
-      </c>
-      <c r="P6" s="84" t="s">
+      <c r="G6" s="122">
+        <v>3</v>
+      </c>
+      <c r="H6" s="123">
+        <v>1</v>
+      </c>
+      <c r="I6" s="122">
+        <v>3</v>
+      </c>
+      <c r="J6" s="123">
+        <v>3</v>
+      </c>
+      <c r="K6" s="122"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="122">
+        <v>3</v>
+      </c>
+      <c r="P6" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="83">
-        <v>2</v>
-      </c>
-      <c r="T6" s="84" t="s">
+      <c r="Q6" s="122"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="122">
+        <v>2</v>
+      </c>
+      <c r="T6" s="123" t="s">
         <v>213</v>
       </c>
+      <c r="U6" s="122"/>
+      <c r="V6" s="123"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="124"/>
+      <c r="AE6" s="124"/>
+      <c r="AF6" s="124"/>
+      <c r="AG6" s="124"/>
+      <c r="AH6" s="124"/>
+      <c r="AI6" s="124"/>
+      <c r="AJ6" s="124"/>
+      <c r="AK6" s="124"/>
+      <c r="AL6" s="124"/>
+      <c r="AM6" s="124"/>
+      <c r="AN6" s="124"/>
+      <c r="AO6" s="124"/>
+      <c r="AP6" s="124"/>
+      <c r="AQ6" s="124"/>
+      <c r="AR6" s="124"/>
+      <c r="AS6" s="124"/>
+      <c r="AT6" s="124"/>
+      <c r="AU6" s="124"/>
+      <c r="AV6" s="124"/>
+      <c r="AW6" s="124"/>
+      <c r="AX6" s="124"/>
+      <c r="AY6" s="124"/>
+      <c r="AZ6" s="124"/>
+      <c r="BA6" s="124"/>
+      <c r="BB6" s="124"/>
+      <c r="BC6" s="124"/>
+      <c r="BD6" s="124"/>
+      <c r="BE6" s="124"/>
+      <c r="BF6" s="124"/>
+      <c r="BG6" s="124"/>
+      <c r="BH6" s="124"/>
+      <c r="BI6" s="124"/>
+      <c r="BJ6" s="124"/>
+      <c r="BK6" s="124"/>
+      <c r="BL6" s="124"/>
+      <c r="BM6" s="124"/>
+      <c r="BN6" s="124"/>
+      <c r="BO6" s="124"/>
+      <c r="BP6" s="124"/>
+      <c r="BQ6" s="124"/>
+      <c r="BR6" s="124"/>
+      <c r="BS6" s="124"/>
+      <c r="BT6" s="124"/>
+      <c r="BU6" s="124"/>
+      <c r="BV6" s="124"/>
+      <c r="BW6" s="124"/>
+      <c r="BX6" s="124"/>
+      <c r="BY6" s="124"/>
+      <c r="BZ6" s="124"/>
+      <c r="CA6" s="124"/>
+      <c r="CB6" s="124"/>
+      <c r="CC6" s="124"/>
+      <c r="CD6" s="124"/>
+      <c r="CE6" s="124"/>
+      <c r="CF6" s="124"/>
+      <c r="CG6" s="124"/>
+      <c r="CH6" s="124"/>
+      <c r="CI6" s="124"/>
     </row>
     <row r="7" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="83">
-        <v>2</v>
-      </c>
-      <c r="C7" s="84">
-        <v>1</v>
-      </c>
-      <c r="D7" s="83">
+      <c r="B7" s="117">
+        <v>2</v>
+      </c>
+      <c r="C7" s="118">
+        <v>1</v>
+      </c>
+      <c r="D7" s="117">
         <v>6</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="119">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F7" s="84">
+      <c r="F7" s="118">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="G7" s="83">
-        <v>2</v>
-      </c>
-      <c r="H7" s="84">
-        <v>3</v>
-      </c>
-      <c r="I7" s="83">
-        <v>2</v>
-      </c>
-      <c r="J7" s="84">
-        <v>3</v>
-      </c>
-      <c r="K7" s="68" t="s">
+      <c r="G7" s="117">
+        <v>2</v>
+      </c>
+      <c r="H7" s="118">
+        <v>3</v>
+      </c>
+      <c r="I7" s="117">
+        <v>2</v>
+      </c>
+      <c r="J7" s="118">
+        <v>3</v>
+      </c>
+      <c r="K7" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="L7" s="68" t="s">
+      <c r="L7" s="119" t="s">
         <v>213</v>
       </c>
-      <c r="O7" s="83">
-        <v>3</v>
-      </c>
-      <c r="P7" s="84">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>3</v>
-      </c>
-      <c r="R7" s="6">
-        <v>3</v>
-      </c>
-      <c r="S7" s="83">
-        <v>2</v>
-      </c>
-      <c r="T7" s="84">
-        <v>2</v>
-      </c>
+      <c r="M7" s="117"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="117">
+        <v>3</v>
+      </c>
+      <c r="P7" s="118">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="120">
+        <v>3</v>
+      </c>
+      <c r="R7" s="121">
+        <v>3</v>
+      </c>
+      <c r="S7" s="117">
+        <v>2</v>
+      </c>
+      <c r="T7" s="118">
+        <v>2</v>
+      </c>
+      <c r="U7" s="117"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="118"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="118"/>
+      <c r="AA7" s="117"/>
+      <c r="AB7" s="118"/>
+      <c r="AC7" s="117"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="119"/>
+      <c r="AP7" s="119"/>
+      <c r="AQ7" s="119"/>
+      <c r="AR7" s="119"/>
+      <c r="AS7" s="119"/>
+      <c r="AT7" s="119"/>
+      <c r="AU7" s="119"/>
+      <c r="AV7" s="119"/>
+      <c r="AW7" s="119"/>
+      <c r="AX7" s="119"/>
+      <c r="AY7" s="119"/>
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="119"/>
+      <c r="BC7" s="119"/>
+      <c r="BD7" s="119"/>
+      <c r="BE7" s="119"/>
+      <c r="BF7" s="119"/>
+      <c r="BG7" s="119"/>
+      <c r="BH7" s="119"/>
+      <c r="BI7" s="119"/>
+      <c r="BJ7" s="119"/>
+      <c r="BK7" s="119"/>
+      <c r="BL7" s="119"/>
+      <c r="BM7" s="119"/>
+      <c r="BN7" s="119"/>
+      <c r="BO7" s="119"/>
+      <c r="BP7" s="119"/>
+      <c r="BQ7" s="119"/>
+      <c r="BR7" s="119"/>
+      <c r="BS7" s="119"/>
+      <c r="BT7" s="119"/>
+      <c r="BU7" s="119"/>
+      <c r="BV7" s="119"/>
+      <c r="BW7" s="119"/>
+      <c r="BX7" s="119"/>
+      <c r="BY7" s="119"/>
+      <c r="BZ7" s="119"/>
+      <c r="CA7" s="119"/>
+      <c r="CB7" s="119"/>
+      <c r="CC7" s="119"/>
+      <c r="CD7" s="119"/>
+      <c r="CE7" s="119"/>
+      <c r="CF7" s="119"/>
+      <c r="CG7" s="119"/>
+      <c r="CH7" s="119"/>
+      <c r="CI7" s="119"/>
     </row>
     <row r="8" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="83">
-        <v>0</v>
-      </c>
-      <c r="C8" s="84">
-        <v>0</v>
-      </c>
-      <c r="D8" s="83">
+      <c r="B8" s="122">
+        <v>0</v>
+      </c>
+      <c r="C8" s="123">
+        <v>0</v>
+      </c>
+      <c r="D8" s="122">
         <v>8</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="124">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F8" s="84">
+      <c r="F8" s="123">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="G8" s="83">
-        <v>3</v>
-      </c>
-      <c r="H8" s="84">
-        <v>3</v>
-      </c>
-      <c r="I8" s="83">
-        <v>2</v>
-      </c>
-      <c r="J8" s="84">
-        <v>3</v>
-      </c>
-      <c r="K8" s="83">
-        <v>3</v>
-      </c>
-      <c r="L8" s="84">
-        <v>3</v>
-      </c>
-      <c r="M8" s="83">
-        <v>2</v>
-      </c>
-      <c r="N8" s="84">
-        <v>2</v>
-      </c>
-      <c r="O8" s="83">
-        <v>3</v>
-      </c>
-      <c r="P8" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>3</v>
-      </c>
-      <c r="R8" s="4">
-        <v>3</v>
-      </c>
-      <c r="S8" s="83">
-        <v>3</v>
-      </c>
-      <c r="T8" s="84">
-        <v>3</v>
-      </c>
-      <c r="U8" s="5">
-        <v>3</v>
-      </c>
-      <c r="V8" s="6">
-        <v>3</v>
-      </c>
+      <c r="G8" s="122">
+        <v>3</v>
+      </c>
+      <c r="H8" s="123">
+        <v>3</v>
+      </c>
+      <c r="I8" s="122">
+        <v>2</v>
+      </c>
+      <c r="J8" s="123">
+        <v>3</v>
+      </c>
+      <c r="K8" s="122">
+        <v>3</v>
+      </c>
+      <c r="L8" s="123">
+        <v>3</v>
+      </c>
+      <c r="M8" s="122">
+        <v>2</v>
+      </c>
+      <c r="N8" s="123">
+        <v>2</v>
+      </c>
+      <c r="O8" s="122">
+        <v>3</v>
+      </c>
+      <c r="P8" s="123">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="125">
+        <v>3</v>
+      </c>
+      <c r="R8" s="127">
+        <v>3</v>
+      </c>
+      <c r="S8" s="122">
+        <v>3</v>
+      </c>
+      <c r="T8" s="123">
+        <v>3</v>
+      </c>
+      <c r="U8" s="125">
+        <v>3</v>
+      </c>
+      <c r="V8" s="126">
+        <v>3</v>
+      </c>
+      <c r="W8" s="122"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="123"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="123"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="124"/>
+      <c r="AE8" s="124"/>
+      <c r="AF8" s="124"/>
+      <c r="AG8" s="124"/>
+      <c r="AH8" s="124"/>
+      <c r="AI8" s="124"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="124"/>
+      <c r="AN8" s="124"/>
+      <c r="AO8" s="124"/>
+      <c r="AP8" s="124"/>
+      <c r="AQ8" s="124"/>
+      <c r="AR8" s="124"/>
+      <c r="AS8" s="124"/>
+      <c r="AT8" s="124"/>
+      <c r="AU8" s="124"/>
+      <c r="AV8" s="124"/>
+      <c r="AW8" s="124"/>
+      <c r="AX8" s="124"/>
+      <c r="AY8" s="124"/>
+      <c r="AZ8" s="124"/>
+      <c r="BA8" s="124"/>
+      <c r="BB8" s="124"/>
+      <c r="BC8" s="124"/>
+      <c r="BD8" s="124"/>
+      <c r="BE8" s="124"/>
+      <c r="BF8" s="124"/>
+      <c r="BG8" s="124"/>
+      <c r="BH8" s="124"/>
+      <c r="BI8" s="124"/>
+      <c r="BJ8" s="124"/>
+      <c r="BK8" s="124"/>
+      <c r="BL8" s="124"/>
+      <c r="BM8" s="124"/>
+      <c r="BN8" s="124"/>
+      <c r="BO8" s="124"/>
+      <c r="BP8" s="124"/>
+      <c r="BQ8" s="124"/>
+      <c r="BR8" s="124"/>
+      <c r="BS8" s="124"/>
+      <c r="BT8" s="124"/>
+      <c r="BU8" s="124"/>
+      <c r="BV8" s="124"/>
+      <c r="BW8" s="124"/>
+      <c r="BX8" s="124"/>
+      <c r="BY8" s="124"/>
+      <c r="BZ8" s="124"/>
+      <c r="CA8" s="124"/>
+      <c r="CB8" s="124"/>
+      <c r="CC8" s="124"/>
+      <c r="CD8" s="124"/>
+      <c r="CE8" s="124"/>
+      <c r="CF8" s="124"/>
+      <c r="CG8" s="124"/>
+      <c r="CH8" s="124"/>
+      <c r="CI8" s="124"/>
     </row>
     <row r="9" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="83">
-        <v>2</v>
-      </c>
-      <c r="C9" s="84">
-        <v>1</v>
-      </c>
-      <c r="D9" s="83">
-        <v>2</v>
-      </c>
-      <c r="E9" s="68">
+      <c r="B9" s="117">
+        <v>2</v>
+      </c>
+      <c r="C9" s="118">
+        <v>1</v>
+      </c>
+      <c r="D9" s="117">
+        <v>2</v>
+      </c>
+      <c r="E9" s="119">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F9" s="84">
+      <c r="F9" s="118">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="83">
-        <v>3</v>
-      </c>
-      <c r="T9" s="84">
-        <v>3</v>
-      </c>
-      <c r="U9" s="5" t="s">
+      <c r="G9" s="117"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="117">
+        <v>3</v>
+      </c>
+      <c r="T9" s="118">
+        <v>3</v>
+      </c>
+      <c r="U9" s="120" t="s">
         <v>213</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="121" t="s">
         <v>213</v>
       </c>
+      <c r="W9" s="117"/>
+      <c r="X9" s="118"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="118"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="118"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="119"/>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="119"/>
+      <c r="AG9" s="119"/>
+      <c r="AH9" s="119"/>
+      <c r="AI9" s="119"/>
+      <c r="AJ9" s="119"/>
+      <c r="AK9" s="119"/>
+      <c r="AL9" s="119"/>
+      <c r="AM9" s="119"/>
+      <c r="AN9" s="119"/>
+      <c r="AO9" s="119"/>
+      <c r="AP9" s="119"/>
+      <c r="AQ9" s="119"/>
+      <c r="AR9" s="119"/>
+      <c r="AS9" s="119"/>
+      <c r="AT9" s="119"/>
+      <c r="AU9" s="119"/>
+      <c r="AV9" s="119"/>
+      <c r="AW9" s="119"/>
+      <c r="AX9" s="119"/>
+      <c r="AY9" s="119"/>
+      <c r="AZ9" s="119"/>
+      <c r="BA9" s="119"/>
+      <c r="BB9" s="119"/>
+      <c r="BC9" s="119"/>
+      <c r="BD9" s="119"/>
+      <c r="BE9" s="119"/>
+      <c r="BF9" s="119"/>
+      <c r="BG9" s="119"/>
+      <c r="BH9" s="119"/>
+      <c r="BI9" s="119"/>
+      <c r="BJ9" s="119"/>
+      <c r="BK9" s="119"/>
+      <c r="BL9" s="119"/>
+      <c r="BM9" s="119"/>
+      <c r="BN9" s="119"/>
+      <c r="BO9" s="119"/>
+      <c r="BP9" s="119"/>
+      <c r="BQ9" s="119"/>
+      <c r="BR9" s="119"/>
+      <c r="BS9" s="119"/>
+      <c r="BT9" s="119"/>
+      <c r="BU9" s="119"/>
+      <c r="BV9" s="119"/>
+      <c r="BW9" s="119"/>
+      <c r="BX9" s="119"/>
+      <c r="BY9" s="119"/>
+      <c r="BZ9" s="119"/>
+      <c r="CA9" s="119"/>
+      <c r="CB9" s="119"/>
+      <c r="CC9" s="119"/>
+      <c r="CD9" s="119"/>
+      <c r="CE9" s="119"/>
+      <c r="CF9" s="119"/>
+      <c r="CG9" s="119"/>
+      <c r="CH9" s="119"/>
+      <c r="CI9" s="119"/>
     </row>
     <row r="10" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="83">
-        <v>0</v>
-      </c>
-      <c r="C10" s="84">
-        <v>0</v>
-      </c>
-      <c r="D10" s="83">
+      <c r="B10" s="122">
+        <v>0</v>
+      </c>
+      <c r="C10" s="123">
+        <v>0</v>
+      </c>
+      <c r="D10" s="122">
         <v>8</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="124">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F10" s="84">
+      <c r="F10" s="123">
         <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
-      <c r="G10" s="83">
-        <v>1</v>
-      </c>
-      <c r="H10" s="84">
-        <v>3</v>
-      </c>
-      <c r="I10" s="83">
-        <v>3</v>
-      </c>
-      <c r="J10" s="84">
-        <v>3</v>
-      </c>
-      <c r="K10" s="68">
-        <v>1</v>
-      </c>
-      <c r="L10" s="68">
-        <v>3</v>
-      </c>
-      <c r="M10" s="83">
-        <v>2</v>
-      </c>
-      <c r="N10" s="84">
-        <v>3</v>
-      </c>
-      <c r="O10" s="83">
-        <v>1</v>
-      </c>
-      <c r="P10" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>3</v>
-      </c>
-      <c r="R10" s="4">
-        <v>3</v>
-      </c>
-      <c r="S10" s="83">
-        <v>3</v>
-      </c>
-      <c r="T10" s="84">
-        <v>3</v>
-      </c>
-      <c r="U10" s="5">
-        <v>3</v>
-      </c>
-      <c r="V10" s="6">
-        <v>3</v>
-      </c>
+      <c r="G10" s="122">
+        <v>1</v>
+      </c>
+      <c r="H10" s="123">
+        <v>3</v>
+      </c>
+      <c r="I10" s="122">
+        <v>3</v>
+      </c>
+      <c r="J10" s="123">
+        <v>3</v>
+      </c>
+      <c r="K10" s="122">
+        <v>1</v>
+      </c>
+      <c r="L10" s="124">
+        <v>3</v>
+      </c>
+      <c r="M10" s="122">
+        <v>2</v>
+      </c>
+      <c r="N10" s="123">
+        <v>3</v>
+      </c>
+      <c r="O10" s="122">
+        <v>1</v>
+      </c>
+      <c r="P10" s="123">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="125">
+        <v>3</v>
+      </c>
+      <c r="R10" s="127">
+        <v>3</v>
+      </c>
+      <c r="S10" s="122">
+        <v>3</v>
+      </c>
+      <c r="T10" s="123">
+        <v>3</v>
+      </c>
+      <c r="U10" s="125">
+        <v>3</v>
+      </c>
+      <c r="V10" s="126">
+        <v>3</v>
+      </c>
+      <c r="W10" s="122"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="122"/>
+      <c r="AB10" s="123"/>
+      <c r="AC10" s="122"/>
+      <c r="AD10" s="124"/>
+      <c r="AE10" s="124"/>
+      <c r="AF10" s="124"/>
+      <c r="AG10" s="124"/>
+      <c r="AH10" s="124"/>
+      <c r="AI10" s="124"/>
+      <c r="AJ10" s="124"/>
+      <c r="AK10" s="124"/>
+      <c r="AL10" s="124"/>
+      <c r="AM10" s="124"/>
+      <c r="AN10" s="124"/>
+      <c r="AO10" s="124"/>
+      <c r="AP10" s="124"/>
+      <c r="AQ10" s="124"/>
+      <c r="AR10" s="124"/>
+      <c r="AS10" s="124"/>
+      <c r="AT10" s="124"/>
+      <c r="AU10" s="124"/>
+      <c r="AV10" s="124"/>
+      <c r="AW10" s="124"/>
+      <c r="AX10" s="124"/>
+      <c r="AY10" s="124"/>
+      <c r="AZ10" s="124"/>
+      <c r="BA10" s="124"/>
+      <c r="BB10" s="124"/>
+      <c r="BC10" s="124"/>
+      <c r="BD10" s="124"/>
+      <c r="BE10" s="124"/>
+      <c r="BF10" s="124"/>
+      <c r="BG10" s="124"/>
+      <c r="BH10" s="124"/>
+      <c r="BI10" s="124"/>
+      <c r="BJ10" s="124"/>
+      <c r="BK10" s="124"/>
+      <c r="BL10" s="124"/>
+      <c r="BM10" s="124"/>
+      <c r="BN10" s="124"/>
+      <c r="BO10" s="124"/>
+      <c r="BP10" s="124"/>
+      <c r="BQ10" s="124"/>
+      <c r="BR10" s="124"/>
+      <c r="BS10" s="124"/>
+      <c r="BT10" s="124"/>
+      <c r="BU10" s="124"/>
+      <c r="BV10" s="124"/>
+      <c r="BW10" s="124"/>
+      <c r="BX10" s="124"/>
+      <c r="BY10" s="124"/>
+      <c r="BZ10" s="124"/>
+      <c r="CA10" s="124"/>
+      <c r="CB10" s="124"/>
+      <c r="CC10" s="124"/>
+      <c r="CD10" s="124"/>
+      <c r="CE10" s="124"/>
+      <c r="CF10" s="124"/>
+      <c r="CG10" s="124"/>
+      <c r="CH10" s="124"/>
+      <c r="CI10" s="124"/>
     </row>
     <row r="11" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="83">
-        <v>0</v>
-      </c>
-      <c r="C11" s="84">
-        <v>0</v>
-      </c>
-      <c r="D11" s="83">
-        <v>1</v>
-      </c>
-      <c r="E11" s="68">
+      <c r="B11" s="117">
+        <v>0</v>
+      </c>
+      <c r="C11" s="118">
+        <v>0</v>
+      </c>
+      <c r="D11" s="117">
+        <v>1</v>
+      </c>
+      <c r="E11" s="119">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="118">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="I11" s="83">
-        <v>2</v>
-      </c>
-      <c r="J11" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="117">
+        <v>2</v>
+      </c>
+      <c r="J11" s="118">
+        <v>1</v>
+      </c>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="118"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="119"/>
+      <c r="AF11" s="119"/>
+      <c r="AG11" s="119"/>
+      <c r="AH11" s="119"/>
+      <c r="AI11" s="119"/>
+      <c r="AJ11" s="119"/>
+      <c r="AK11" s="119"/>
+      <c r="AL11" s="119"/>
+      <c r="AM11" s="119"/>
+      <c r="AN11" s="119"/>
+      <c r="AO11" s="119"/>
+      <c r="AP11" s="119"/>
+      <c r="AQ11" s="119"/>
+      <c r="AR11" s="119"/>
+      <c r="AS11" s="119"/>
+      <c r="AT11" s="119"/>
+      <c r="AU11" s="119"/>
+      <c r="AV11" s="119"/>
+      <c r="AW11" s="119"/>
+      <c r="AX11" s="119"/>
+      <c r="AY11" s="119"/>
+      <c r="AZ11" s="119"/>
+      <c r="BA11" s="119"/>
+      <c r="BB11" s="119"/>
+      <c r="BC11" s="119"/>
+      <c r="BD11" s="119"/>
+      <c r="BE11" s="119"/>
+      <c r="BF11" s="119"/>
+      <c r="BG11" s="119"/>
+      <c r="BH11" s="119"/>
+      <c r="BI11" s="119"/>
+      <c r="BJ11" s="119"/>
+      <c r="BK11" s="119"/>
+      <c r="BL11" s="119"/>
+      <c r="BM11" s="119"/>
+      <c r="BN11" s="119"/>
+      <c r="BO11" s="119"/>
+      <c r="BP11" s="119"/>
+      <c r="BQ11" s="119"/>
+      <c r="BR11" s="119"/>
+      <c r="BS11" s="119"/>
+      <c r="BT11" s="119"/>
+      <c r="BU11" s="119"/>
+      <c r="BV11" s="119"/>
+      <c r="BW11" s="119"/>
+      <c r="BX11" s="119"/>
+      <c r="BY11" s="119"/>
+      <c r="BZ11" s="119"/>
+      <c r="CA11" s="119"/>
+      <c r="CB11" s="119"/>
+      <c r="CC11" s="119"/>
+      <c r="CD11" s="119"/>
+      <c r="CE11" s="119"/>
+      <c r="CF11" s="119"/>
+      <c r="CG11" s="119"/>
+      <c r="CH11" s="119"/>
+      <c r="CI11" s="119"/>
     </row>
     <row r="12" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="83">
-        <v>0</v>
-      </c>
-      <c r="C12" s="84">
-        <v>0</v>
-      </c>
-      <c r="D12" s="83">
-        <v>0</v>
-      </c>
-      <c r="E12" s="68">
+      <c r="B12" s="122">
+        <v>0</v>
+      </c>
+      <c r="C12" s="123">
+        <v>0</v>
+      </c>
+      <c r="D12" s="122">
+        <v>0</v>
+      </c>
+      <c r="E12" s="124">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="84" t="e">
+      <c r="F12" s="123" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="123"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="123"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="123"/>
+      <c r="AA12" s="122"/>
+      <c r="AB12" s="123"/>
+      <c r="AC12" s="122"/>
+      <c r="AD12" s="124"/>
+      <c r="AE12" s="124"/>
+      <c r="AF12" s="124"/>
+      <c r="AG12" s="124"/>
+      <c r="AH12" s="124"/>
+      <c r="AI12" s="124"/>
+      <c r="AJ12" s="124"/>
+      <c r="AK12" s="124"/>
+      <c r="AL12" s="124"/>
+      <c r="AM12" s="124"/>
+      <c r="AN12" s="124"/>
+      <c r="AO12" s="124"/>
+      <c r="AP12" s="124"/>
+      <c r="AQ12" s="124"/>
+      <c r="AR12" s="124"/>
+      <c r="AS12" s="124"/>
+      <c r="AT12" s="124"/>
+      <c r="AU12" s="124"/>
+      <c r="AV12" s="124"/>
+      <c r="AW12" s="124"/>
+      <c r="AX12" s="124"/>
+      <c r="AY12" s="124"/>
+      <c r="AZ12" s="124"/>
+      <c r="BA12" s="124"/>
+      <c r="BB12" s="124"/>
+      <c r="BC12" s="124"/>
+      <c r="BD12" s="124"/>
+      <c r="BE12" s="124"/>
+      <c r="BF12" s="124"/>
+      <c r="BG12" s="124"/>
+      <c r="BH12" s="124"/>
+      <c r="BI12" s="124"/>
+      <c r="BJ12" s="124"/>
+      <c r="BK12" s="124"/>
+      <c r="BL12" s="124"/>
+      <c r="BM12" s="124"/>
+      <c r="BN12" s="124"/>
+      <c r="BO12" s="124"/>
+      <c r="BP12" s="124"/>
+      <c r="BQ12" s="124"/>
+      <c r="BR12" s="124"/>
+      <c r="BS12" s="124"/>
+      <c r="BT12" s="124"/>
+      <c r="BU12" s="124"/>
+      <c r="BV12" s="124"/>
+      <c r="BW12" s="124"/>
+      <c r="BX12" s="124"/>
+      <c r="BY12" s="124"/>
+      <c r="BZ12" s="124"/>
+      <c r="CA12" s="124"/>
+      <c r="CB12" s="124"/>
+      <c r="CC12" s="124"/>
+      <c r="CD12" s="124"/>
+      <c r="CE12" s="124"/>
+      <c r="CF12" s="124"/>
+      <c r="CG12" s="124"/>
+      <c r="CH12" s="124"/>
+      <c r="CI12" s="124"/>
     </row>
     <row r="13" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="B13" s="83">
-        <v>2</v>
-      </c>
-      <c r="C13" s="84">
-        <v>1</v>
-      </c>
-      <c r="D13" s="83">
+      <c r="B13" s="117">
+        <v>2</v>
+      </c>
+      <c r="C13" s="118">
+        <v>1</v>
+      </c>
+      <c r="D13" s="117">
         <v>6</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="119">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F13" s="84">
+      <c r="F13" s="118">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G13" s="83">
-        <v>2</v>
-      </c>
-      <c r="H13" s="84">
-        <v>1</v>
-      </c>
-      <c r="I13" s="83">
-        <v>0</v>
-      </c>
-      <c r="J13" s="84">
-        <v>0</v>
-      </c>
-      <c r="K13" s="83">
-        <v>2</v>
-      </c>
-      <c r="L13" s="84">
-        <v>1</v>
-      </c>
-      <c r="M13" s="83">
-        <v>1</v>
-      </c>
-      <c r="N13" s="84">
-        <v>0</v>
-      </c>
-      <c r="O13" s="83">
-        <v>1</v>
-      </c>
-      <c r="P13" s="84">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4" t="s">
+      <c r="G13" s="117">
+        <v>2</v>
+      </c>
+      <c r="H13" s="118">
+        <v>1</v>
+      </c>
+      <c r="I13" s="117">
+        <v>0</v>
+      </c>
+      <c r="J13" s="118">
+        <v>0</v>
+      </c>
+      <c r="K13" s="117">
+        <v>2</v>
+      </c>
+      <c r="L13" s="118">
+        <v>1</v>
+      </c>
+      <c r="M13" s="117">
+        <v>1</v>
+      </c>
+      <c r="N13" s="118">
+        <v>0</v>
+      </c>
+      <c r="O13" s="117">
+        <v>1</v>
+      </c>
+      <c r="P13" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="120" t="s">
         <v>213</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="128" t="s">
         <v>213</v>
       </c>
+      <c r="S13" s="117"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="117"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="119"/>
+      <c r="AG13" s="119"/>
+      <c r="AH13" s="119"/>
+      <c r="AI13" s="119"/>
+      <c r="AJ13" s="119"/>
+      <c r="AK13" s="119"/>
+      <c r="AL13" s="119"/>
+      <c r="AM13" s="119"/>
+      <c r="AN13" s="119"/>
+      <c r="AO13" s="119"/>
+      <c r="AP13" s="119"/>
+      <c r="AQ13" s="119"/>
+      <c r="AR13" s="119"/>
+      <c r="AS13" s="119"/>
+      <c r="AT13" s="119"/>
+      <c r="AU13" s="119"/>
+      <c r="AV13" s="119"/>
+      <c r="AW13" s="119"/>
+      <c r="AX13" s="119"/>
+      <c r="AY13" s="119"/>
+      <c r="AZ13" s="119"/>
+      <c r="BA13" s="119"/>
+      <c r="BB13" s="119"/>
+      <c r="BC13" s="119"/>
+      <c r="BD13" s="119"/>
+      <c r="BE13" s="119"/>
+      <c r="BF13" s="119"/>
+      <c r="BG13" s="119"/>
+      <c r="BH13" s="119"/>
+      <c r="BI13" s="119"/>
+      <c r="BJ13" s="119"/>
+      <c r="BK13" s="119"/>
+      <c r="BL13" s="119"/>
+      <c r="BM13" s="119"/>
+      <c r="BN13" s="119"/>
+      <c r="BO13" s="119"/>
+      <c r="BP13" s="119"/>
+      <c r="BQ13" s="119"/>
+      <c r="BR13" s="119"/>
+      <c r="BS13" s="119"/>
+      <c r="BT13" s="119"/>
+      <c r="BU13" s="119"/>
+      <c r="BV13" s="119"/>
+      <c r="BW13" s="119"/>
+      <c r="BX13" s="119"/>
+      <c r="BY13" s="119"/>
+      <c r="BZ13" s="119"/>
+      <c r="CA13" s="119"/>
+      <c r="CB13" s="119"/>
+      <c r="CC13" s="119"/>
+      <c r="CD13" s="119"/>
+      <c r="CE13" s="119"/>
+      <c r="CF13" s="119"/>
+      <c r="CG13" s="119"/>
+      <c r="CH13" s="119"/>
+      <c r="CI13" s="119"/>
     </row>
     <row r="14" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="83">
-        <v>0</v>
-      </c>
-      <c r="C14" s="84">
-        <v>0</v>
-      </c>
-      <c r="D14" s="83">
-        <v>1</v>
-      </c>
-      <c r="E14" s="68">
+      <c r="B14" s="122">
+        <v>0</v>
+      </c>
+      <c r="C14" s="123">
+        <v>0</v>
+      </c>
+      <c r="D14" s="122">
+        <v>1</v>
+      </c>
+      <c r="E14" s="124">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="123">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G14" s="83">
-        <v>3</v>
-      </c>
-      <c r="H14" s="84">
-        <v>3</v>
-      </c>
+      <c r="G14" s="122">
+        <v>3</v>
+      </c>
+      <c r="H14" s="123">
+        <v>3</v>
+      </c>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="123"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="123"/>
+      <c r="AA14" s="122"/>
+      <c r="AB14" s="123"/>
+      <c r="AC14" s="122"/>
+      <c r="AD14" s="124"/>
+      <c r="AE14" s="124"/>
+      <c r="AF14" s="124"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="124"/>
+      <c r="AJ14" s="124"/>
+      <c r="AK14" s="124"/>
+      <c r="AL14" s="124"/>
+      <c r="AM14" s="124"/>
+      <c r="AN14" s="124"/>
+      <c r="AO14" s="124"/>
+      <c r="AP14" s="124"/>
+      <c r="AQ14" s="124"/>
+      <c r="AR14" s="124"/>
+      <c r="AS14" s="124"/>
+      <c r="AT14" s="124"/>
+      <c r="AU14" s="124"/>
+      <c r="AV14" s="124"/>
+      <c r="AW14" s="124"/>
+      <c r="AX14" s="124"/>
+      <c r="AY14" s="124"/>
+      <c r="AZ14" s="124"/>
+      <c r="BA14" s="124"/>
+      <c r="BB14" s="124"/>
+      <c r="BC14" s="124"/>
+      <c r="BD14" s="124"/>
+      <c r="BE14" s="124"/>
+      <c r="BF14" s="124"/>
+      <c r="BG14" s="124"/>
+      <c r="BH14" s="124"/>
+      <c r="BI14" s="124"/>
+      <c r="BJ14" s="124"/>
+      <c r="BK14" s="124"/>
+      <c r="BL14" s="124"/>
+      <c r="BM14" s="124"/>
+      <c r="BN14" s="124"/>
+      <c r="BO14" s="124"/>
+      <c r="BP14" s="124"/>
+      <c r="BQ14" s="124"/>
+      <c r="BR14" s="124"/>
+      <c r="BS14" s="124"/>
+      <c r="BT14" s="124"/>
+      <c r="BU14" s="124"/>
+      <c r="BV14" s="124"/>
+      <c r="BW14" s="124"/>
+      <c r="BX14" s="124"/>
+      <c r="BY14" s="124"/>
+      <c r="BZ14" s="124"/>
+      <c r="CA14" s="124"/>
+      <c r="CB14" s="124"/>
+      <c r="CC14" s="124"/>
+      <c r="CD14" s="124"/>
+      <c r="CE14" s="124"/>
+      <c r="CF14" s="124"/>
+      <c r="CG14" s="124"/>
+      <c r="CH14" s="124"/>
+      <c r="CI14" s="124"/>
     </row>
     <row r="15" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="117" t="s">
         <v>216</v>
       </c>
-      <c r="B15" s="83">
-        <v>0</v>
-      </c>
-      <c r="C15" s="84">
-        <v>0</v>
-      </c>
-      <c r="D15" s="83">
-        <v>3</v>
-      </c>
-      <c r="E15" s="68">
+      <c r="B15" s="117">
+        <v>0</v>
+      </c>
+      <c r="C15" s="118">
+        <v>0</v>
+      </c>
+      <c r="D15" s="117">
+        <v>3</v>
+      </c>
+      <c r="E15" s="119">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F15" s="84">
+      <c r="F15" s="118">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K15" s="83">
-        <v>3</v>
-      </c>
-      <c r="L15" s="84">
-        <v>3</v>
-      </c>
-      <c r="M15" s="83">
-        <v>3</v>
-      </c>
-      <c r="N15" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>3</v>
-      </c>
-      <c r="R15" s="4">
-        <v>3</v>
-      </c>
+      <c r="G15" s="117"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="117">
+        <v>3</v>
+      </c>
+      <c r="L15" s="118">
+        <v>3</v>
+      </c>
+      <c r="M15" s="117">
+        <v>3</v>
+      </c>
+      <c r="N15" s="118">
+        <v>3</v>
+      </c>
+      <c r="O15" s="117"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="120">
+        <v>3</v>
+      </c>
+      <c r="R15" s="128">
+        <v>3</v>
+      </c>
+      <c r="S15" s="117"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="117"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="117"/>
+      <c r="AD15" s="119"/>
+      <c r="AE15" s="119"/>
+      <c r="AF15" s="119"/>
+      <c r="AG15" s="119"/>
+      <c r="AH15" s="119"/>
+      <c r="AI15" s="119"/>
+      <c r="AJ15" s="119"/>
+      <c r="AK15" s="119"/>
+      <c r="AL15" s="119"/>
+      <c r="AM15" s="119"/>
+      <c r="AN15" s="119"/>
+      <c r="AO15" s="119"/>
+      <c r="AP15" s="119"/>
+      <c r="AQ15" s="119"/>
+      <c r="AR15" s="119"/>
+      <c r="AS15" s="119"/>
+      <c r="AT15" s="119"/>
+      <c r="AU15" s="119"/>
+      <c r="AV15" s="119"/>
+      <c r="AW15" s="119"/>
+      <c r="AX15" s="119"/>
+      <c r="AY15" s="119"/>
+      <c r="AZ15" s="119"/>
+      <c r="BA15" s="119"/>
+      <c r="BB15" s="119"/>
+      <c r="BC15" s="119"/>
+      <c r="BD15" s="119"/>
+      <c r="BE15" s="119"/>
+      <c r="BF15" s="119"/>
+      <c r="BG15" s="119"/>
+      <c r="BH15" s="119"/>
+      <c r="BI15" s="119"/>
+      <c r="BJ15" s="119"/>
+      <c r="BK15" s="119"/>
+      <c r="BL15" s="119"/>
+      <c r="BM15" s="119"/>
+      <c r="BN15" s="119"/>
+      <c r="BO15" s="119"/>
+      <c r="BP15" s="119"/>
+      <c r="BQ15" s="119"/>
+      <c r="BR15" s="119"/>
+      <c r="BS15" s="119"/>
+      <c r="BT15" s="119"/>
+      <c r="BU15" s="119"/>
+      <c r="BV15" s="119"/>
+      <c r="BW15" s="119"/>
+      <c r="BX15" s="119"/>
+      <c r="BY15" s="119"/>
+      <c r="BZ15" s="119"/>
+      <c r="CA15" s="119"/>
+      <c r="CB15" s="119"/>
+      <c r="CC15" s="119"/>
+      <c r="CD15" s="119"/>
+      <c r="CE15" s="119"/>
+      <c r="CF15" s="119"/>
+      <c r="CG15" s="119"/>
+      <c r="CH15" s="119"/>
+      <c r="CI15" s="119"/>
     </row>
     <row r="16" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="83">
-        <v>0</v>
-      </c>
-      <c r="C16" s="84">
-        <v>0</v>
-      </c>
-      <c r="D16" s="83">
-        <v>0</v>
-      </c>
-      <c r="E16" s="68">
+      <c r="B16" s="122">
+        <v>0</v>
+      </c>
+      <c r="C16" s="123">
+        <v>0</v>
+      </c>
+      <c r="D16" s="122">
+        <v>0</v>
+      </c>
+      <c r="E16" s="124">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="84" t="e">
+      <c r="F16" s="123" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="123"/>
+      <c r="W16" s="122"/>
+      <c r="X16" s="123"/>
+      <c r="Y16" s="122"/>
+      <c r="Z16" s="123"/>
+      <c r="AA16" s="122"/>
+      <c r="AB16" s="123"/>
+      <c r="AC16" s="122"/>
+      <c r="AD16" s="124"/>
+      <c r="AE16" s="124"/>
+      <c r="AF16" s="124"/>
+      <c r="AG16" s="124"/>
+      <c r="AH16" s="124"/>
+      <c r="AI16" s="124"/>
+      <c r="AJ16" s="124"/>
+      <c r="AK16" s="124"/>
+      <c r="AL16" s="124"/>
+      <c r="AM16" s="124"/>
+      <c r="AN16" s="124"/>
+      <c r="AO16" s="124"/>
+      <c r="AP16" s="124"/>
+      <c r="AQ16" s="124"/>
+      <c r="AR16" s="124"/>
+      <c r="AS16" s="124"/>
+      <c r="AT16" s="124"/>
+      <c r="AU16" s="124"/>
+      <c r="AV16" s="124"/>
+      <c r="AW16" s="124"/>
+      <c r="AX16" s="124"/>
+      <c r="AY16" s="124"/>
+      <c r="AZ16" s="124"/>
+      <c r="BA16" s="124"/>
+      <c r="BB16" s="124"/>
+      <c r="BC16" s="124"/>
+      <c r="BD16" s="124"/>
+      <c r="BE16" s="124"/>
+      <c r="BF16" s="124"/>
+      <c r="BG16" s="124"/>
+      <c r="BH16" s="124"/>
+      <c r="BI16" s="124"/>
+      <c r="BJ16" s="124"/>
+      <c r="BK16" s="124"/>
+      <c r="BL16" s="124"/>
+      <c r="BM16" s="124"/>
+      <c r="BN16" s="124"/>
+      <c r="BO16" s="124"/>
+      <c r="BP16" s="124"/>
+      <c r="BQ16" s="124"/>
+      <c r="BR16" s="124"/>
+      <c r="BS16" s="124"/>
+      <c r="BT16" s="124"/>
+      <c r="BU16" s="124"/>
+      <c r="BV16" s="124"/>
+      <c r="BW16" s="124"/>
+      <c r="BX16" s="124"/>
+      <c r="BY16" s="124"/>
+      <c r="BZ16" s="124"/>
+      <c r="CA16" s="124"/>
+      <c r="CB16" s="124"/>
+      <c r="CC16" s="124"/>
+      <c r="CD16" s="124"/>
+      <c r="CE16" s="124"/>
+      <c r="CF16" s="124"/>
+      <c r="CG16" s="124"/>
+      <c r="CH16" s="124"/>
+      <c r="CI16" s="124"/>
+    </row>
+    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A17" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="B17" s="83">
-        <v>0</v>
-      </c>
-      <c r="C17" s="84">
-        <v>0</v>
-      </c>
-      <c r="D17" s="83">
-        <v>0</v>
-      </c>
-      <c r="E17" s="68">
+      <c r="B17" s="117">
+        <v>0</v>
+      </c>
+      <c r="C17" s="118">
+        <v>0</v>
+      </c>
+      <c r="D17" s="117">
+        <v>0</v>
+      </c>
+      <c r="E17" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="84" t="e">
+      <c r="F17" s="118" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="117"/>
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="119"/>
+      <c r="AF17" s="119"/>
+      <c r="AG17" s="119"/>
+      <c r="AH17" s="119"/>
+      <c r="AI17" s="119"/>
+      <c r="AJ17" s="119"/>
+      <c r="AK17" s="119"/>
+      <c r="AL17" s="119"/>
+      <c r="AM17" s="119"/>
+      <c r="AN17" s="119"/>
+      <c r="AO17" s="119"/>
+      <c r="AP17" s="119"/>
+      <c r="AQ17" s="119"/>
+      <c r="AR17" s="119"/>
+      <c r="AS17" s="119"/>
+      <c r="AT17" s="119"/>
+      <c r="AU17" s="119"/>
+      <c r="AV17" s="119"/>
+      <c r="AW17" s="119"/>
+      <c r="AX17" s="119"/>
+      <c r="AY17" s="119"/>
+      <c r="AZ17" s="119"/>
+      <c r="BA17" s="119"/>
+      <c r="BB17" s="119"/>
+      <c r="BC17" s="119"/>
+      <c r="BD17" s="119"/>
+      <c r="BE17" s="119"/>
+      <c r="BF17" s="119"/>
+      <c r="BG17" s="119"/>
+      <c r="BH17" s="119"/>
+      <c r="BI17" s="119"/>
+      <c r="BJ17" s="119"/>
+      <c r="BK17" s="119"/>
+      <c r="BL17" s="119"/>
+      <c r="BM17" s="119"/>
+      <c r="BN17" s="119"/>
+      <c r="BO17" s="119"/>
+      <c r="BP17" s="119"/>
+      <c r="BQ17" s="119"/>
+      <c r="BR17" s="119"/>
+      <c r="BS17" s="119"/>
+      <c r="BT17" s="119"/>
+      <c r="BU17" s="119"/>
+      <c r="BV17" s="119"/>
+      <c r="BW17" s="119"/>
+      <c r="BX17" s="119"/>
+      <c r="BY17" s="119"/>
+      <c r="BZ17" s="119"/>
+      <c r="CA17" s="119"/>
+      <c r="CB17" s="119"/>
+      <c r="CC17" s="119"/>
+      <c r="CD17" s="119"/>
+      <c r="CE17" s="119"/>
+      <c r="CF17" s="119"/>
+      <c r="CG17" s="119"/>
+      <c r="CH17" s="119"/>
+      <c r="CI17" s="119"/>
+    </row>
+    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A18" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="83">
-        <v>0</v>
-      </c>
-      <c r="C18" s="84">
-        <v>0</v>
-      </c>
-      <c r="D18" s="83">
-        <v>2</v>
-      </c>
-      <c r="E18" s="68">
+      <c r="B18" s="122">
+        <v>0</v>
+      </c>
+      <c r="C18" s="123">
+        <v>0</v>
+      </c>
+      <c r="D18" s="122">
+        <v>2</v>
+      </c>
+      <c r="E18" s="124">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F18" s="84">
+      <c r="F18" s="123">
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q18" s="5">
-        <v>3</v>
-      </c>
-      <c r="R18" s="6">
-        <v>2</v>
-      </c>
-      <c r="U18" s="5">
-        <v>3</v>
-      </c>
-      <c r="V18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="G18" s="122"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="125">
+        <v>3</v>
+      </c>
+      <c r="R18" s="126">
+        <v>2</v>
+      </c>
+      <c r="S18" s="122"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="125">
+        <v>3</v>
+      </c>
+      <c r="V18" s="126">
+        <v>1</v>
+      </c>
+      <c r="W18" s="122"/>
+      <c r="X18" s="123"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="123"/>
+      <c r="AA18" s="122"/>
+      <c r="AB18" s="123"/>
+      <c r="AC18" s="122"/>
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="124"/>
+      <c r="AF18" s="124"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="124"/>
+      <c r="AI18" s="124"/>
+      <c r="AJ18" s="124"/>
+      <c r="AK18" s="124"/>
+      <c r="AL18" s="124"/>
+      <c r="AM18" s="124"/>
+      <c r="AN18" s="124"/>
+      <c r="AO18" s="124"/>
+      <c r="AP18" s="124"/>
+      <c r="AQ18" s="124"/>
+      <c r="AR18" s="124"/>
+      <c r="AS18" s="124"/>
+      <c r="AT18" s="124"/>
+      <c r="AU18" s="124"/>
+      <c r="AV18" s="124"/>
+      <c r="AW18" s="124"/>
+      <c r="AX18" s="124"/>
+      <c r="AY18" s="124"/>
+      <c r="AZ18" s="124"/>
+      <c r="BA18" s="124"/>
+      <c r="BB18" s="124"/>
+      <c r="BC18" s="124"/>
+      <c r="BD18" s="124"/>
+      <c r="BE18" s="124"/>
+      <c r="BF18" s="124"/>
+      <c r="BG18" s="124"/>
+      <c r="BH18" s="124"/>
+      <c r="BI18" s="124"/>
+      <c r="BJ18" s="124"/>
+      <c r="BK18" s="124"/>
+      <c r="BL18" s="124"/>
+      <c r="BM18" s="124"/>
+      <c r="BN18" s="124"/>
+      <c r="BO18" s="124"/>
+      <c r="BP18" s="124"/>
+      <c r="BQ18" s="124"/>
+      <c r="BR18" s="124"/>
+      <c r="BS18" s="124"/>
+      <c r="BT18" s="124"/>
+      <c r="BU18" s="124"/>
+      <c r="BV18" s="124"/>
+      <c r="BW18" s="124"/>
+      <c r="BX18" s="124"/>
+      <c r="BY18" s="124"/>
+      <c r="BZ18" s="124"/>
+      <c r="CA18" s="124"/>
+      <c r="CB18" s="124"/>
+      <c r="CC18" s="124"/>
+      <c r="CD18" s="124"/>
+      <c r="CE18" s="124"/>
+      <c r="CF18" s="124"/>
+      <c r="CG18" s="124"/>
+      <c r="CH18" s="124"/>
+      <c r="CI18" s="124"/>
+    </row>
+    <row r="19" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A19" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="83">
-        <v>0</v>
-      </c>
-      <c r="C19" s="84">
-        <v>0</v>
-      </c>
-      <c r="D19" s="83">
+      <c r="B19" s="117">
+        <v>0</v>
+      </c>
+      <c r="C19" s="118">
+        <v>0</v>
+      </c>
+      <c r="D19" s="117">
         <v>5</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="119">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="118">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="G19" s="83">
-        <v>1</v>
-      </c>
-      <c r="H19" s="84">
-        <v>2</v>
-      </c>
-      <c r="I19" s="83">
-        <v>1</v>
-      </c>
-      <c r="J19" s="84">
-        <v>3</v>
-      </c>
-      <c r="M19" s="83">
-        <v>0</v>
-      </c>
-      <c r="N19" s="84">
-        <v>3</v>
-      </c>
-      <c r="O19" s="83">
-        <v>3</v>
-      </c>
-      <c r="P19" s="84">
-        <v>3</v>
-      </c>
-      <c r="U19" s="5">
-        <v>3</v>
-      </c>
-      <c r="V19" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
+      <c r="G19" s="117">
+        <v>1</v>
+      </c>
+      <c r="H19" s="118">
+        <v>2</v>
+      </c>
+      <c r="I19" s="117">
+        <v>1</v>
+      </c>
+      <c r="J19" s="118">
+        <v>3</v>
+      </c>
+      <c r="K19" s="117"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="117">
+        <v>0</v>
+      </c>
+      <c r="N19" s="118">
+        <v>3</v>
+      </c>
+      <c r="O19" s="117">
+        <v>3</v>
+      </c>
+      <c r="P19" s="118">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="120">
+        <v>3</v>
+      </c>
+      <c r="V19" s="121">
+        <v>3</v>
+      </c>
+      <c r="W19" s="117"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="118"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="119"/>
+      <c r="AF19" s="119"/>
+      <c r="AG19" s="119"/>
+      <c r="AH19" s="119"/>
+      <c r="AI19" s="119"/>
+      <c r="AJ19" s="119"/>
+      <c r="AK19" s="119"/>
+      <c r="AL19" s="119"/>
+      <c r="AM19" s="119"/>
+      <c r="AN19" s="119"/>
+      <c r="AO19" s="119"/>
+      <c r="AP19" s="119"/>
+      <c r="AQ19" s="119"/>
+      <c r="AR19" s="119"/>
+      <c r="AS19" s="119"/>
+      <c r="AT19" s="119"/>
+      <c r="AU19" s="119"/>
+      <c r="AV19" s="119"/>
+      <c r="AW19" s="119"/>
+      <c r="AX19" s="119"/>
+      <c r="AY19" s="119"/>
+      <c r="AZ19" s="119"/>
+      <c r="BA19" s="119"/>
+      <c r="BB19" s="119"/>
+      <c r="BC19" s="119"/>
+      <c r="BD19" s="119"/>
+      <c r="BE19" s="119"/>
+      <c r="BF19" s="119"/>
+      <c r="BG19" s="119"/>
+      <c r="BH19" s="119"/>
+      <c r="BI19" s="119"/>
+      <c r="BJ19" s="119"/>
+      <c r="BK19" s="119"/>
+      <c r="BL19" s="119"/>
+      <c r="BM19" s="119"/>
+      <c r="BN19" s="119"/>
+      <c r="BO19" s="119"/>
+      <c r="BP19" s="119"/>
+      <c r="BQ19" s="119"/>
+      <c r="BR19" s="119"/>
+      <c r="BS19" s="119"/>
+      <c r="BT19" s="119"/>
+      <c r="BU19" s="119"/>
+      <c r="BV19" s="119"/>
+      <c r="BW19" s="119"/>
+      <c r="BX19" s="119"/>
+      <c r="BY19" s="119"/>
+      <c r="BZ19" s="119"/>
+      <c r="CA19" s="119"/>
+      <c r="CB19" s="119"/>
+      <c r="CC19" s="119"/>
+      <c r="CD19" s="119"/>
+      <c r="CE19" s="119"/>
+      <c r="CF19" s="119"/>
+      <c r="CG19" s="119"/>
+      <c r="CH19" s="119"/>
+      <c r="CI19" s="119"/>
+    </row>
+    <row r="20" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A20" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="83">
-        <v>0</v>
-      </c>
-      <c r="C20" s="84">
-        <v>0</v>
-      </c>
-      <c r="D20" s="83">
-        <v>0</v>
-      </c>
-      <c r="E20" s="68">
+      <c r="B20" s="122">
+        <v>0</v>
+      </c>
+      <c r="C20" s="123">
+        <v>0</v>
+      </c>
+      <c r="D20" s="122">
+        <v>0</v>
+      </c>
+      <c r="E20" s="124">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="84" t="e">
+      <c r="F20" s="123" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+      <c r="G20" s="122"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="123"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="123"/>
+      <c r="AC20" s="122"/>
+      <c r="AD20" s="124"/>
+      <c r="AE20" s="124"/>
+      <c r="AF20" s="124"/>
+      <c r="AG20" s="124"/>
+      <c r="AH20" s="124"/>
+      <c r="AI20" s="124"/>
+      <c r="AJ20" s="124"/>
+      <c r="AK20" s="124"/>
+      <c r="AL20" s="124"/>
+      <c r="AM20" s="124"/>
+      <c r="AN20" s="124"/>
+      <c r="AO20" s="124"/>
+      <c r="AP20" s="124"/>
+      <c r="AQ20" s="124"/>
+      <c r="AR20" s="124"/>
+      <c r="AS20" s="124"/>
+      <c r="AT20" s="124"/>
+      <c r="AU20" s="124"/>
+      <c r="AV20" s="124"/>
+      <c r="AW20" s="124"/>
+      <c r="AX20" s="124"/>
+      <c r="AY20" s="124"/>
+      <c r="AZ20" s="124"/>
+      <c r="BA20" s="124"/>
+      <c r="BB20" s="124"/>
+      <c r="BC20" s="124"/>
+      <c r="BD20" s="124"/>
+      <c r="BE20" s="124"/>
+      <c r="BF20" s="124"/>
+      <c r="BG20" s="124"/>
+      <c r="BH20" s="124"/>
+      <c r="BI20" s="124"/>
+      <c r="BJ20" s="124"/>
+      <c r="BK20" s="124"/>
+      <c r="BL20" s="124"/>
+      <c r="BM20" s="124"/>
+      <c r="BN20" s="124"/>
+      <c r="BO20" s="124"/>
+      <c r="BP20" s="124"/>
+      <c r="BQ20" s="124"/>
+      <c r="BR20" s="124"/>
+      <c r="BS20" s="124"/>
+      <c r="BT20" s="124"/>
+      <c r="BU20" s="124"/>
+      <c r="BV20" s="124"/>
+      <c r="BW20" s="124"/>
+      <c r="BX20" s="124"/>
+      <c r="BY20" s="124"/>
+      <c r="BZ20" s="124"/>
+      <c r="CA20" s="124"/>
+      <c r="CB20" s="124"/>
+      <c r="CC20" s="124"/>
+      <c r="CD20" s="124"/>
+      <c r="CE20" s="124"/>
+      <c r="CF20" s="124"/>
+      <c r="CG20" s="124"/>
+      <c r="CH20" s="124"/>
+      <c r="CI20" s="124"/>
+    </row>
+    <row r="21" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A21" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="83">
-        <v>0</v>
-      </c>
-      <c r="C21" s="84">
-        <v>0</v>
-      </c>
-      <c r="D21" s="83">
+      <c r="B21" s="117">
+        <v>0</v>
+      </c>
+      <c r="C21" s="118">
+        <v>0</v>
+      </c>
+      <c r="D21" s="117">
         <v>5</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="119">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F21" s="84">
+      <c r="F21" s="118">
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="I21" s="83">
-        <v>3</v>
-      </c>
-      <c r="J21" s="84">
-        <v>1</v>
-      </c>
-      <c r="K21" s="68">
-        <v>3</v>
-      </c>
-      <c r="L21" s="68">
-        <v>3</v>
-      </c>
-      <c r="O21" s="83">
-        <v>3</v>
-      </c>
-      <c r="P21" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>3</v>
-      </c>
-      <c r="R21" s="6">
-        <v>3</v>
-      </c>
-      <c r="U21" s="5">
-        <v>3</v>
-      </c>
-      <c r="V21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="117">
+        <v>3</v>
+      </c>
+      <c r="J21" s="118">
+        <v>1</v>
+      </c>
+      <c r="K21" s="117">
+        <v>3</v>
+      </c>
+      <c r="L21" s="119">
+        <v>3</v>
+      </c>
+      <c r="M21" s="117"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="117">
+        <v>3</v>
+      </c>
+      <c r="P21" s="118">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="120">
+        <v>3</v>
+      </c>
+      <c r="R21" s="121">
+        <v>3</v>
+      </c>
+      <c r="S21" s="117"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="120">
+        <v>3</v>
+      </c>
+      <c r="V21" s="121">
+        <v>1</v>
+      </c>
+      <c r="W21" s="117"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="117"/>
+      <c r="AB21" s="118"/>
+      <c r="AC21" s="117"/>
+      <c r="AD21" s="119"/>
+      <c r="AE21" s="119"/>
+      <c r="AF21" s="119"/>
+      <c r="AG21" s="119"/>
+      <c r="AH21" s="119"/>
+      <c r="AI21" s="119"/>
+      <c r="AJ21" s="119"/>
+      <c r="AK21" s="119"/>
+      <c r="AL21" s="119"/>
+      <c r="AM21" s="119"/>
+      <c r="AN21" s="119"/>
+      <c r="AO21" s="119"/>
+      <c r="AP21" s="119"/>
+      <c r="AQ21" s="119"/>
+      <c r="AR21" s="119"/>
+      <c r="AS21" s="119"/>
+      <c r="AT21" s="119"/>
+      <c r="AU21" s="119"/>
+      <c r="AV21" s="119"/>
+      <c r="AW21" s="119"/>
+      <c r="AX21" s="119"/>
+      <c r="AY21" s="119"/>
+      <c r="AZ21" s="119"/>
+      <c r="BA21" s="119"/>
+      <c r="BB21" s="119"/>
+      <c r="BC21" s="119"/>
+      <c r="BD21" s="119"/>
+      <c r="BE21" s="119"/>
+      <c r="BF21" s="119"/>
+      <c r="BG21" s="119"/>
+      <c r="BH21" s="119"/>
+      <c r="BI21" s="119"/>
+      <c r="BJ21" s="119"/>
+      <c r="BK21" s="119"/>
+      <c r="BL21" s="119"/>
+      <c r="BM21" s="119"/>
+      <c r="BN21" s="119"/>
+      <c r="BO21" s="119"/>
+      <c r="BP21" s="119"/>
+      <c r="BQ21" s="119"/>
+      <c r="BR21" s="119"/>
+      <c r="BS21" s="119"/>
+      <c r="BT21" s="119"/>
+      <c r="BU21" s="119"/>
+      <c r="BV21" s="119"/>
+      <c r="BW21" s="119"/>
+      <c r="BX21" s="119"/>
+      <c r="BY21" s="119"/>
+      <c r="BZ21" s="119"/>
+      <c r="CA21" s="119"/>
+      <c r="CB21" s="119"/>
+      <c r="CC21" s="119"/>
+      <c r="CD21" s="119"/>
+      <c r="CE21" s="119"/>
+      <c r="CF21" s="119"/>
+      <c r="CG21" s="119"/>
+      <c r="CH21" s="119"/>
+      <c r="CI21" s="119"/>
+    </row>
+    <row r="22" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A22" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="83">
-        <v>0</v>
-      </c>
-      <c r="C22" s="84">
-        <v>0</v>
-      </c>
-      <c r="D22" s="83">
+      <c r="B22" s="122">
+        <v>0</v>
+      </c>
+      <c r="C22" s="123">
+        <v>0</v>
+      </c>
+      <c r="D22" s="122">
         <v>4</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="124">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F22" s="84">
+      <c r="F22" s="123">
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="G22" s="83">
-        <v>3</v>
-      </c>
-      <c r="H22" s="84">
-        <v>3</v>
-      </c>
-      <c r="K22" s="83">
-        <v>2</v>
-      </c>
-      <c r="L22" s="84">
-        <v>2</v>
-      </c>
-      <c r="O22" s="83">
-        <v>1</v>
-      </c>
-      <c r="P22" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>2</v>
-      </c>
-      <c r="R22" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
+      <c r="G22" s="122">
+        <v>3</v>
+      </c>
+      <c r="H22" s="123">
+        <v>3</v>
+      </c>
+      <c r="I22" s="122"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="122">
+        <v>2</v>
+      </c>
+      <c r="L22" s="123">
+        <v>2</v>
+      </c>
+      <c r="M22" s="122"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="122">
+        <v>1</v>
+      </c>
+      <c r="P22" s="123">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="125">
+        <v>2</v>
+      </c>
+      <c r="R22" s="127">
+        <v>3</v>
+      </c>
+      <c r="S22" s="122"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="123"/>
+      <c r="W22" s="122"/>
+      <c r="X22" s="123"/>
+      <c r="Y22" s="122"/>
+      <c r="Z22" s="123"/>
+      <c r="AA22" s="122"/>
+      <c r="AB22" s="123"/>
+      <c r="AC22" s="122"/>
+      <c r="AD22" s="124"/>
+      <c r="AE22" s="124"/>
+      <c r="AF22" s="124"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="124"/>
+      <c r="AI22" s="124"/>
+      <c r="AJ22" s="124"/>
+      <c r="AK22" s="124"/>
+      <c r="AL22" s="124"/>
+      <c r="AM22" s="124"/>
+      <c r="AN22" s="124"/>
+      <c r="AO22" s="124"/>
+      <c r="AP22" s="124"/>
+      <c r="AQ22" s="124"/>
+      <c r="AR22" s="124"/>
+      <c r="AS22" s="124"/>
+      <c r="AT22" s="124"/>
+      <c r="AU22" s="124"/>
+      <c r="AV22" s="124"/>
+      <c r="AW22" s="124"/>
+      <c r="AX22" s="124"/>
+      <c r="AY22" s="124"/>
+      <c r="AZ22" s="124"/>
+      <c r="BA22" s="124"/>
+      <c r="BB22" s="124"/>
+      <c r="BC22" s="124"/>
+      <c r="BD22" s="124"/>
+      <c r="BE22" s="124"/>
+      <c r="BF22" s="124"/>
+      <c r="BG22" s="124"/>
+      <c r="BH22" s="124"/>
+      <c r="BI22" s="124"/>
+      <c r="BJ22" s="124"/>
+      <c r="BK22" s="124"/>
+      <c r="BL22" s="124"/>
+      <c r="BM22" s="124"/>
+      <c r="BN22" s="124"/>
+      <c r="BO22" s="124"/>
+      <c r="BP22" s="124"/>
+      <c r="BQ22" s="124"/>
+      <c r="BR22" s="124"/>
+      <c r="BS22" s="124"/>
+      <c r="BT22" s="124"/>
+      <c r="BU22" s="124"/>
+      <c r="BV22" s="124"/>
+      <c r="BW22" s="124"/>
+      <c r="BX22" s="124"/>
+      <c r="BY22" s="124"/>
+      <c r="BZ22" s="124"/>
+      <c r="CA22" s="124"/>
+      <c r="CB22" s="124"/>
+      <c r="CC22" s="124"/>
+      <c r="CD22" s="124"/>
+      <c r="CE22" s="124"/>
+      <c r="CF22" s="124"/>
+      <c r="CG22" s="124"/>
+      <c r="CH22" s="124"/>
+      <c r="CI22" s="124"/>
+    </row>
+    <row r="23" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A23" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="83">
-        <v>0</v>
-      </c>
-      <c r="C23" s="84">
-        <v>0</v>
-      </c>
-      <c r="D23" s="83">
-        <v>2</v>
-      </c>
-      <c r="E23" s="68">
+      <c r="B23" s="117">
+        <v>0</v>
+      </c>
+      <c r="C23" s="118">
+        <v>0</v>
+      </c>
+      <c r="D23" s="117">
+        <v>2</v>
+      </c>
+      <c r="E23" s="119">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F23" s="84">
+      <c r="F23" s="118">
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="G23" s="83">
-        <v>1</v>
-      </c>
-      <c r="H23" s="84">
-        <v>2</v>
-      </c>
-      <c r="I23" s="83">
-        <v>3</v>
-      </c>
-      <c r="J23" s="84">
-        <v>3</v>
-      </c>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
+      <c r="G23" s="117">
+        <v>1</v>
+      </c>
+      <c r="H23" s="118">
+        <v>2</v>
+      </c>
+      <c r="I23" s="117">
+        <v>3</v>
+      </c>
+      <c r="J23" s="118">
+        <v>3</v>
+      </c>
+      <c r="K23" s="117"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="117"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="117"/>
+      <c r="AD23" s="119"/>
+      <c r="AE23" s="119"/>
+      <c r="AF23" s="119"/>
+      <c r="AG23" s="119"/>
+      <c r="AH23" s="119"/>
+      <c r="AI23" s="119"/>
+      <c r="AJ23" s="119"/>
+      <c r="AK23" s="119"/>
+      <c r="AL23" s="119"/>
+      <c r="AM23" s="119"/>
+      <c r="AN23" s="119"/>
+      <c r="AO23" s="119"/>
+      <c r="AP23" s="119"/>
+      <c r="AQ23" s="119"/>
+      <c r="AR23" s="119"/>
+      <c r="AS23" s="119"/>
+      <c r="AT23" s="119"/>
+      <c r="AU23" s="119"/>
+      <c r="AV23" s="119"/>
+      <c r="AW23" s="119"/>
+      <c r="AX23" s="119"/>
+      <c r="AY23" s="119"/>
+      <c r="AZ23" s="119"/>
+      <c r="BA23" s="119"/>
+      <c r="BB23" s="119"/>
+      <c r="BC23" s="119"/>
+      <c r="BD23" s="119"/>
+      <c r="BE23" s="119"/>
+      <c r="BF23" s="119"/>
+      <c r="BG23" s="119"/>
+      <c r="BH23" s="119"/>
+      <c r="BI23" s="119"/>
+      <c r="BJ23" s="119"/>
+      <c r="BK23" s="119"/>
+      <c r="BL23" s="119"/>
+      <c r="BM23" s="119"/>
+      <c r="BN23" s="119"/>
+      <c r="BO23" s="119"/>
+      <c r="BP23" s="119"/>
+      <c r="BQ23" s="119"/>
+      <c r="BR23" s="119"/>
+      <c r="BS23" s="119"/>
+      <c r="BT23" s="119"/>
+      <c r="BU23" s="119"/>
+      <c r="BV23" s="119"/>
+      <c r="BW23" s="119"/>
+      <c r="BX23" s="119"/>
+      <c r="BY23" s="119"/>
+      <c r="BZ23" s="119"/>
+      <c r="CA23" s="119"/>
+      <c r="CB23" s="119"/>
+      <c r="CC23" s="119"/>
+      <c r="CD23" s="119"/>
+      <c r="CE23" s="119"/>
+      <c r="CF23" s="119"/>
+      <c r="CG23" s="119"/>
+      <c r="CH23" s="119"/>
+      <c r="CI23" s="119"/>
+    </row>
+    <row r="24" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A24" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="83">
-        <v>0</v>
-      </c>
-      <c r="C24" s="84">
-        <v>0</v>
-      </c>
-      <c r="D24" s="83">
-        <v>0</v>
-      </c>
-      <c r="E24" s="68">
+      <c r="B24" s="122">
+        <v>0</v>
+      </c>
+      <c r="C24" s="123">
+        <v>0</v>
+      </c>
+      <c r="D24" s="122">
+        <v>0</v>
+      </c>
+      <c r="E24" s="124">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="84" t="e">
+      <c r="F24" s="123" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="79" t="s">
+      <c r="G24" s="122"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="123"/>
+      <c r="W24" s="122"/>
+      <c r="X24" s="123"/>
+      <c r="Y24" s="122"/>
+      <c r="Z24" s="123"/>
+      <c r="AA24" s="122"/>
+      <c r="AB24" s="123"/>
+      <c r="AC24" s="122"/>
+      <c r="AD24" s="124"/>
+      <c r="AE24" s="124"/>
+      <c r="AF24" s="124"/>
+      <c r="AG24" s="124"/>
+      <c r="AH24" s="124"/>
+      <c r="AI24" s="124"/>
+      <c r="AJ24" s="124"/>
+      <c r="AK24" s="124"/>
+      <c r="AL24" s="124"/>
+      <c r="AM24" s="124"/>
+      <c r="AN24" s="124"/>
+      <c r="AO24" s="124"/>
+      <c r="AP24" s="124"/>
+      <c r="AQ24" s="124"/>
+      <c r="AR24" s="124"/>
+      <c r="AS24" s="124"/>
+      <c r="AT24" s="124"/>
+      <c r="AU24" s="124"/>
+      <c r="AV24" s="124"/>
+      <c r="AW24" s="124"/>
+      <c r="AX24" s="124"/>
+      <c r="AY24" s="124"/>
+      <c r="AZ24" s="124"/>
+      <c r="BA24" s="124"/>
+      <c r="BB24" s="124"/>
+      <c r="BC24" s="124"/>
+      <c r="BD24" s="124"/>
+      <c r="BE24" s="124"/>
+      <c r="BF24" s="124"/>
+      <c r="BG24" s="124"/>
+      <c r="BH24" s="124"/>
+      <c r="BI24" s="124"/>
+      <c r="BJ24" s="124"/>
+      <c r="BK24" s="124"/>
+      <c r="BL24" s="124"/>
+      <c r="BM24" s="124"/>
+      <c r="BN24" s="124"/>
+      <c r="BO24" s="124"/>
+      <c r="BP24" s="124"/>
+      <c r="BQ24" s="124"/>
+      <c r="BR24" s="124"/>
+      <c r="BS24" s="124"/>
+      <c r="BT24" s="124"/>
+      <c r="BU24" s="124"/>
+      <c r="BV24" s="124"/>
+      <c r="BW24" s="124"/>
+      <c r="BX24" s="124"/>
+      <c r="BY24" s="124"/>
+      <c r="BZ24" s="124"/>
+      <c r="CA24" s="124"/>
+      <c r="CB24" s="124"/>
+      <c r="CC24" s="124"/>
+      <c r="CD24" s="124"/>
+      <c r="CE24" s="124"/>
+      <c r="CF24" s="124"/>
+      <c r="CG24" s="124"/>
+      <c r="CH24" s="124"/>
+      <c r="CI24" s="124"/>
+    </row>
+    <row r="25" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A25" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="83">
-        <v>2</v>
-      </c>
-      <c r="C25" s="84">
-        <v>0</v>
-      </c>
-      <c r="D25" s="83">
+      <c r="B25" s="117">
+        <v>2</v>
+      </c>
+      <c r="C25" s="118">
+        <v>0</v>
+      </c>
+      <c r="D25" s="117">
         <v>4</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="119">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F25" s="84">
+      <c r="F25" s="118">
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="I25" s="83">
-        <v>2</v>
-      </c>
-      <c r="J25" s="84" t="s">
+      <c r="G25" s="117"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="117">
+        <v>2</v>
+      </c>
+      <c r="J25" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="83">
-        <v>3</v>
-      </c>
-      <c r="N25" s="84">
-        <v>1</v>
-      </c>
-      <c r="O25" s="83">
-        <v>3</v>
-      </c>
-      <c r="P25" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>2</v>
-      </c>
-      <c r="R25" s="6" t="s">
+      <c r="K25" s="117"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="117">
+        <v>3</v>
+      </c>
+      <c r="N25" s="118">
+        <v>1</v>
+      </c>
+      <c r="O25" s="117">
+        <v>3</v>
+      </c>
+      <c r="P25" s="118">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="120">
+        <v>2</v>
+      </c>
+      <c r="R25" s="121" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="79" t="s">
+      <c r="S25" s="117"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="117"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="117"/>
+      <c r="AD25" s="119"/>
+      <c r="AE25" s="119"/>
+      <c r="AF25" s="119"/>
+      <c r="AG25" s="119"/>
+      <c r="AH25" s="119"/>
+      <c r="AI25" s="119"/>
+      <c r="AJ25" s="119"/>
+      <c r="AK25" s="119"/>
+      <c r="AL25" s="119"/>
+      <c r="AM25" s="119"/>
+      <c r="AN25" s="119"/>
+      <c r="AO25" s="119"/>
+      <c r="AP25" s="119"/>
+      <c r="AQ25" s="119"/>
+      <c r="AR25" s="119"/>
+      <c r="AS25" s="119"/>
+      <c r="AT25" s="119"/>
+      <c r="AU25" s="119"/>
+      <c r="AV25" s="119"/>
+      <c r="AW25" s="119"/>
+      <c r="AX25" s="119"/>
+      <c r="AY25" s="119"/>
+      <c r="AZ25" s="119"/>
+      <c r="BA25" s="119"/>
+      <c r="BB25" s="119"/>
+      <c r="BC25" s="119"/>
+      <c r="BD25" s="119"/>
+      <c r="BE25" s="119"/>
+      <c r="BF25" s="119"/>
+      <c r="BG25" s="119"/>
+      <c r="BH25" s="119"/>
+      <c r="BI25" s="119"/>
+      <c r="BJ25" s="119"/>
+      <c r="BK25" s="119"/>
+      <c r="BL25" s="119"/>
+      <c r="BM25" s="119"/>
+      <c r="BN25" s="119"/>
+      <c r="BO25" s="119"/>
+      <c r="BP25" s="119"/>
+      <c r="BQ25" s="119"/>
+      <c r="BR25" s="119"/>
+      <c r="BS25" s="119"/>
+      <c r="BT25" s="119"/>
+      <c r="BU25" s="119"/>
+      <c r="BV25" s="119"/>
+      <c r="BW25" s="119"/>
+      <c r="BX25" s="119"/>
+      <c r="BY25" s="119"/>
+      <c r="BZ25" s="119"/>
+      <c r="CA25" s="119"/>
+      <c r="CB25" s="119"/>
+      <c r="CC25" s="119"/>
+      <c r="CD25" s="119"/>
+      <c r="CE25" s="119"/>
+      <c r="CF25" s="119"/>
+      <c r="CG25" s="119"/>
+      <c r="CH25" s="119"/>
+      <c r="CI25" s="119"/>
+    </row>
+    <row r="26" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A26" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="83">
-        <v>2</v>
-      </c>
-      <c r="C26" s="84">
-        <v>1</v>
-      </c>
-      <c r="D26" s="83">
+      <c r="B26" s="122">
+        <v>2</v>
+      </c>
+      <c r="C26" s="123">
+        <v>1</v>
+      </c>
+      <c r="D26" s="122">
         <v>4</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="124">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F26" s="84">
+      <c r="F26" s="123">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G26" s="83" t="s">
+      <c r="G26" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="H26" s="84" t="s">
+      <c r="H26" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="I26" s="83">
-        <v>3</v>
-      </c>
-      <c r="J26" s="84">
-        <v>3</v>
-      </c>
-      <c r="K26" s="68">
-        <v>3</v>
-      </c>
-      <c r="L26" s="68">
-        <v>3</v>
-      </c>
-      <c r="U26" s="5">
-        <v>3</v>
-      </c>
-      <c r="V26" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
+      <c r="I26" s="122">
+        <v>3</v>
+      </c>
+      <c r="J26" s="123">
+        <v>3</v>
+      </c>
+      <c r="K26" s="122">
+        <v>3</v>
+      </c>
+      <c r="L26" s="124">
+        <v>3</v>
+      </c>
+      <c r="M26" s="122"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="122"/>
+      <c r="T26" s="123"/>
+      <c r="U26" s="125">
+        <v>3</v>
+      </c>
+      <c r="V26" s="126">
+        <v>3</v>
+      </c>
+      <c r="W26" s="122"/>
+      <c r="X26" s="123"/>
+      <c r="Y26" s="122"/>
+      <c r="Z26" s="123"/>
+      <c r="AA26" s="122"/>
+      <c r="AB26" s="123"/>
+      <c r="AC26" s="122"/>
+      <c r="AD26" s="124"/>
+      <c r="AE26" s="124"/>
+      <c r="AF26" s="124"/>
+      <c r="AG26" s="124"/>
+      <c r="AH26" s="124"/>
+      <c r="AI26" s="124"/>
+      <c r="AJ26" s="124"/>
+      <c r="AK26" s="124"/>
+      <c r="AL26" s="124"/>
+      <c r="AM26" s="124"/>
+      <c r="AN26" s="124"/>
+      <c r="AO26" s="124"/>
+      <c r="AP26" s="124"/>
+      <c r="AQ26" s="124"/>
+      <c r="AR26" s="124"/>
+      <c r="AS26" s="124"/>
+      <c r="AT26" s="124"/>
+      <c r="AU26" s="124"/>
+      <c r="AV26" s="124"/>
+      <c r="AW26" s="124"/>
+      <c r="AX26" s="124"/>
+      <c r="AY26" s="124"/>
+      <c r="AZ26" s="124"/>
+      <c r="BA26" s="124"/>
+      <c r="BB26" s="124"/>
+      <c r="BC26" s="124"/>
+      <c r="BD26" s="124"/>
+      <c r="BE26" s="124"/>
+      <c r="BF26" s="124"/>
+      <c r="BG26" s="124"/>
+      <c r="BH26" s="124"/>
+      <c r="BI26" s="124"/>
+      <c r="BJ26" s="124"/>
+      <c r="BK26" s="124"/>
+      <c r="BL26" s="124"/>
+      <c r="BM26" s="124"/>
+      <c r="BN26" s="124"/>
+      <c r="BO26" s="124"/>
+      <c r="BP26" s="124"/>
+      <c r="BQ26" s="124"/>
+      <c r="BR26" s="124"/>
+      <c r="BS26" s="124"/>
+      <c r="BT26" s="124"/>
+      <c r="BU26" s="124"/>
+      <c r="BV26" s="124"/>
+      <c r="BW26" s="124"/>
+      <c r="BX26" s="124"/>
+      <c r="BY26" s="124"/>
+      <c r="BZ26" s="124"/>
+      <c r="CA26" s="124"/>
+      <c r="CB26" s="124"/>
+      <c r="CC26" s="124"/>
+      <c r="CD26" s="124"/>
+      <c r="CE26" s="124"/>
+      <c r="CF26" s="124"/>
+      <c r="CG26" s="124"/>
+      <c r="CH26" s="124"/>
+      <c r="CI26" s="124"/>
+    </row>
+    <row r="27" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A27" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="83">
-        <v>0</v>
-      </c>
-      <c r="C27" s="84">
-        <v>0</v>
-      </c>
-      <c r="D27" s="83">
-        <v>0</v>
-      </c>
-      <c r="E27" s="68">
+      <c r="B27" s="117">
+        <v>0</v>
+      </c>
+      <c r="C27" s="118">
+        <v>0</v>
+      </c>
+      <c r="D27" s="117">
+        <v>0</v>
+      </c>
+      <c r="E27" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="84" t="e">
+      <c r="F27" s="118" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="79" t="s">
+      <c r="G27" s="117"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="117"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="117"/>
+      <c r="T27" s="118"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="118"/>
+      <c r="AA27" s="117"/>
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="117"/>
+      <c r="AD27" s="119"/>
+      <c r="AE27" s="119"/>
+      <c r="AF27" s="119"/>
+      <c r="AG27" s="119"/>
+      <c r="AH27" s="119"/>
+      <c r="AI27" s="119"/>
+      <c r="AJ27" s="119"/>
+      <c r="AK27" s="119"/>
+      <c r="AL27" s="119"/>
+      <c r="AM27" s="119"/>
+      <c r="AN27" s="119"/>
+      <c r="AO27" s="119"/>
+      <c r="AP27" s="119"/>
+      <c r="AQ27" s="119"/>
+      <c r="AR27" s="119"/>
+      <c r="AS27" s="119"/>
+      <c r="AT27" s="119"/>
+      <c r="AU27" s="119"/>
+      <c r="AV27" s="119"/>
+      <c r="AW27" s="119"/>
+      <c r="AX27" s="119"/>
+      <c r="AY27" s="119"/>
+      <c r="AZ27" s="119"/>
+      <c r="BA27" s="119"/>
+      <c r="BB27" s="119"/>
+      <c r="BC27" s="119"/>
+      <c r="BD27" s="119"/>
+      <c r="BE27" s="119"/>
+      <c r="BF27" s="119"/>
+      <c r="BG27" s="119"/>
+      <c r="BH27" s="119"/>
+      <c r="BI27" s="119"/>
+      <c r="BJ27" s="119"/>
+      <c r="BK27" s="119"/>
+      <c r="BL27" s="119"/>
+      <c r="BM27" s="119"/>
+      <c r="BN27" s="119"/>
+      <c r="BO27" s="119"/>
+      <c r="BP27" s="119"/>
+      <c r="BQ27" s="119"/>
+      <c r="BR27" s="119"/>
+      <c r="BS27" s="119"/>
+      <c r="BT27" s="119"/>
+      <c r="BU27" s="119"/>
+      <c r="BV27" s="119"/>
+      <c r="BW27" s="119"/>
+      <c r="BX27" s="119"/>
+      <c r="BY27" s="119"/>
+      <c r="BZ27" s="119"/>
+      <c r="CA27" s="119"/>
+      <c r="CB27" s="119"/>
+      <c r="CC27" s="119"/>
+      <c r="CD27" s="119"/>
+      <c r="CE27" s="119"/>
+      <c r="CF27" s="119"/>
+      <c r="CG27" s="119"/>
+      <c r="CH27" s="119"/>
+      <c r="CI27" s="119"/>
+    </row>
+    <row r="28" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A28" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="83">
-        <v>0</v>
-      </c>
-      <c r="C28" s="84">
-        <v>0</v>
-      </c>
-      <c r="D28" s="83">
-        <v>1</v>
-      </c>
-      <c r="E28" s="68">
+      <c r="B28" s="122">
+        <v>0</v>
+      </c>
+      <c r="C28" s="123">
+        <v>0</v>
+      </c>
+      <c r="D28" s="122">
+        <v>1</v>
+      </c>
+      <c r="E28" s="124">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F28" s="84">
+      <c r="F28" s="123">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="U28" s="5">
-        <v>2</v>
-      </c>
-      <c r="V28" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="79" t="s">
+      <c r="G28" s="122"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="123"/>
+      <c r="U28" s="125">
+        <v>2</v>
+      </c>
+      <c r="V28" s="126">
+        <v>3</v>
+      </c>
+      <c r="W28" s="122"/>
+      <c r="X28" s="123"/>
+      <c r="Y28" s="122"/>
+      <c r="Z28" s="123"/>
+      <c r="AA28" s="122"/>
+      <c r="AB28" s="123"/>
+      <c r="AC28" s="122"/>
+      <c r="AD28" s="124"/>
+      <c r="AE28" s="124"/>
+      <c r="AF28" s="124"/>
+      <c r="AG28" s="124"/>
+      <c r="AH28" s="124"/>
+      <c r="AI28" s="124"/>
+      <c r="AJ28" s="124"/>
+      <c r="AK28" s="124"/>
+      <c r="AL28" s="124"/>
+      <c r="AM28" s="124"/>
+      <c r="AN28" s="124"/>
+      <c r="AO28" s="124"/>
+      <c r="AP28" s="124"/>
+      <c r="AQ28" s="124"/>
+      <c r="AR28" s="124"/>
+      <c r="AS28" s="124"/>
+      <c r="AT28" s="124"/>
+      <c r="AU28" s="124"/>
+      <c r="AV28" s="124"/>
+      <c r="AW28" s="124"/>
+      <c r="AX28" s="124"/>
+      <c r="AY28" s="124"/>
+      <c r="AZ28" s="124"/>
+      <c r="BA28" s="124"/>
+      <c r="BB28" s="124"/>
+      <c r="BC28" s="124"/>
+      <c r="BD28" s="124"/>
+      <c r="BE28" s="124"/>
+      <c r="BF28" s="124"/>
+      <c r="BG28" s="124"/>
+      <c r="BH28" s="124"/>
+      <c r="BI28" s="124"/>
+      <c r="BJ28" s="124"/>
+      <c r="BK28" s="124"/>
+      <c r="BL28" s="124"/>
+      <c r="BM28" s="124"/>
+      <c r="BN28" s="124"/>
+      <c r="BO28" s="124"/>
+      <c r="BP28" s="124"/>
+      <c r="BQ28" s="124"/>
+      <c r="BR28" s="124"/>
+      <c r="BS28" s="124"/>
+      <c r="BT28" s="124"/>
+      <c r="BU28" s="124"/>
+      <c r="BV28" s="124"/>
+      <c r="BW28" s="124"/>
+      <c r="BX28" s="124"/>
+      <c r="BY28" s="124"/>
+      <c r="BZ28" s="124"/>
+      <c r="CA28" s="124"/>
+      <c r="CB28" s="124"/>
+      <c r="CC28" s="124"/>
+      <c r="CD28" s="124"/>
+      <c r="CE28" s="124"/>
+      <c r="CF28" s="124"/>
+      <c r="CG28" s="124"/>
+      <c r="CH28" s="124"/>
+      <c r="CI28" s="124"/>
+    </row>
+    <row r="29" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A29" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="83">
-        <v>0</v>
-      </c>
-      <c r="C29" s="84">
-        <v>0</v>
-      </c>
-      <c r="D29" s="83">
+      <c r="B29" s="117">
+        <v>0</v>
+      </c>
+      <c r="C29" s="118">
+        <v>0</v>
+      </c>
+      <c r="D29" s="117">
         <v>4</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="119">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F29" s="84">
+      <c r="F29" s="118">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I29" s="83">
-        <v>3</v>
-      </c>
-      <c r="J29" s="84">
-        <v>3</v>
-      </c>
-      <c r="M29" s="83">
-        <v>3</v>
-      </c>
-      <c r="N29" s="84">
-        <v>3</v>
-      </c>
-      <c r="O29" s="83">
-        <v>3</v>
-      </c>
-      <c r="P29" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>3</v>
-      </c>
-      <c r="R29" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="79" t="s">
+      <c r="G29" s="117"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="117">
+        <v>3</v>
+      </c>
+      <c r="J29" s="118">
+        <v>3</v>
+      </c>
+      <c r="K29" s="117"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="117">
+        <v>3</v>
+      </c>
+      <c r="N29" s="118">
+        <v>3</v>
+      </c>
+      <c r="O29" s="117">
+        <v>3</v>
+      </c>
+      <c r="P29" s="118">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="120">
+        <v>3</v>
+      </c>
+      <c r="R29" s="121">
+        <v>3</v>
+      </c>
+      <c r="S29" s="117"/>
+      <c r="T29" s="118"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="118"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="118"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="117"/>
+      <c r="AB29" s="118"/>
+      <c r="AC29" s="117"/>
+      <c r="AD29" s="119"/>
+      <c r="AE29" s="119"/>
+      <c r="AF29" s="119"/>
+      <c r="AG29" s="119"/>
+      <c r="AH29" s="119"/>
+      <c r="AI29" s="119"/>
+      <c r="AJ29" s="119"/>
+      <c r="AK29" s="119"/>
+      <c r="AL29" s="119"/>
+      <c r="AM29" s="119"/>
+      <c r="AN29" s="119"/>
+      <c r="AO29" s="119"/>
+      <c r="AP29" s="119"/>
+      <c r="AQ29" s="119"/>
+      <c r="AR29" s="119"/>
+      <c r="AS29" s="119"/>
+      <c r="AT29" s="119"/>
+      <c r="AU29" s="119"/>
+      <c r="AV29" s="119"/>
+      <c r="AW29" s="119"/>
+      <c r="AX29" s="119"/>
+      <c r="AY29" s="119"/>
+      <c r="AZ29" s="119"/>
+      <c r="BA29" s="119"/>
+      <c r="BB29" s="119"/>
+      <c r="BC29" s="119"/>
+      <c r="BD29" s="119"/>
+      <c r="BE29" s="119"/>
+      <c r="BF29" s="119"/>
+      <c r="BG29" s="119"/>
+      <c r="BH29" s="119"/>
+      <c r="BI29" s="119"/>
+      <c r="BJ29" s="119"/>
+      <c r="BK29" s="119"/>
+      <c r="BL29" s="119"/>
+      <c r="BM29" s="119"/>
+      <c r="BN29" s="119"/>
+      <c r="BO29" s="119"/>
+      <c r="BP29" s="119"/>
+      <c r="BQ29" s="119"/>
+      <c r="BR29" s="119"/>
+      <c r="BS29" s="119"/>
+      <c r="BT29" s="119"/>
+      <c r="BU29" s="119"/>
+      <c r="BV29" s="119"/>
+      <c r="BW29" s="119"/>
+      <c r="BX29" s="119"/>
+      <c r="BY29" s="119"/>
+      <c r="BZ29" s="119"/>
+      <c r="CA29" s="119"/>
+      <c r="CB29" s="119"/>
+      <c r="CC29" s="119"/>
+      <c r="CD29" s="119"/>
+      <c r="CE29" s="119"/>
+      <c r="CF29" s="119"/>
+      <c r="CG29" s="119"/>
+      <c r="CH29" s="119"/>
+      <c r="CI29" s="119"/>
+    </row>
+    <row r="30" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A30" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="83">
-        <v>2</v>
-      </c>
-      <c r="C30" s="84">
-        <v>1</v>
-      </c>
-      <c r="D30" s="83">
+      <c r="B30" s="122">
+        <v>2</v>
+      </c>
+      <c r="C30" s="123">
+        <v>1</v>
+      </c>
+      <c r="D30" s="122">
         <v>4</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="124">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F30" s="84">
+      <c r="F30" s="123">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="I30" s="83" t="s">
+      <c r="G30" s="122"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="J30" s="84" t="s">
+      <c r="J30" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="K30" s="83">
-        <v>3</v>
-      </c>
-      <c r="L30" s="84">
-        <v>3</v>
-      </c>
-      <c r="M30" s="83">
-        <v>1</v>
-      </c>
-      <c r="N30" s="84">
-        <v>1</v>
-      </c>
-      <c r="O30" s="83">
-        <v>0</v>
-      </c>
-      <c r="P30" s="84" t="s">
+      <c r="K30" s="122">
+        <v>3</v>
+      </c>
+      <c r="L30" s="123">
+        <v>3</v>
+      </c>
+      <c r="M30" s="122">
+        <v>1</v>
+      </c>
+      <c r="N30" s="123">
+        <v>1</v>
+      </c>
+      <c r="O30" s="122">
+        <v>0</v>
+      </c>
+      <c r="P30" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="Q30" s="5">
-        <v>2</v>
-      </c>
-      <c r="R30" s="6" t="s">
+      <c r="Q30" s="125">
+        <v>2</v>
+      </c>
+      <c r="R30" s="126" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="79" t="s">
+      <c r="S30" s="122"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="122"/>
+      <c r="V30" s="123"/>
+      <c r="W30" s="122"/>
+      <c r="X30" s="123"/>
+      <c r="Y30" s="122"/>
+      <c r="Z30" s="123"/>
+      <c r="AA30" s="122"/>
+      <c r="AB30" s="123"/>
+      <c r="AC30" s="122"/>
+      <c r="AD30" s="124"/>
+      <c r="AE30" s="124"/>
+      <c r="AF30" s="124"/>
+      <c r="AG30" s="124"/>
+      <c r="AH30" s="124"/>
+      <c r="AI30" s="124"/>
+      <c r="AJ30" s="124"/>
+      <c r="AK30" s="124"/>
+      <c r="AL30" s="124"/>
+      <c r="AM30" s="124"/>
+      <c r="AN30" s="124"/>
+      <c r="AO30" s="124"/>
+      <c r="AP30" s="124"/>
+      <c r="AQ30" s="124"/>
+      <c r="AR30" s="124"/>
+      <c r="AS30" s="124"/>
+      <c r="AT30" s="124"/>
+      <c r="AU30" s="124"/>
+      <c r="AV30" s="124"/>
+      <c r="AW30" s="124"/>
+      <c r="AX30" s="124"/>
+      <c r="AY30" s="124"/>
+      <c r="AZ30" s="124"/>
+      <c r="BA30" s="124"/>
+      <c r="BB30" s="124"/>
+      <c r="BC30" s="124"/>
+      <c r="BD30" s="124"/>
+      <c r="BE30" s="124"/>
+      <c r="BF30" s="124"/>
+      <c r="BG30" s="124"/>
+      <c r="BH30" s="124"/>
+      <c r="BI30" s="124"/>
+      <c r="BJ30" s="124"/>
+      <c r="BK30" s="124"/>
+      <c r="BL30" s="124"/>
+      <c r="BM30" s="124"/>
+      <c r="BN30" s="124"/>
+      <c r="BO30" s="124"/>
+      <c r="BP30" s="124"/>
+      <c r="BQ30" s="124"/>
+      <c r="BR30" s="124"/>
+      <c r="BS30" s="124"/>
+      <c r="BT30" s="124"/>
+      <c r="BU30" s="124"/>
+      <c r="BV30" s="124"/>
+      <c r="BW30" s="124"/>
+      <c r="BX30" s="124"/>
+      <c r="BY30" s="124"/>
+      <c r="BZ30" s="124"/>
+      <c r="CA30" s="124"/>
+      <c r="CB30" s="124"/>
+      <c r="CC30" s="124"/>
+      <c r="CD30" s="124"/>
+      <c r="CE30" s="124"/>
+      <c r="CF30" s="124"/>
+      <c r="CG30" s="124"/>
+      <c r="CH30" s="124"/>
+      <c r="CI30" s="124"/>
+    </row>
+    <row r="31" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A31" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="83">
-        <v>0</v>
-      </c>
-      <c r="C31" s="84">
-        <v>0</v>
-      </c>
-      <c r="D31" s="83">
-        <v>0</v>
-      </c>
-      <c r="E31" s="68">
+      <c r="B31" s="117">
+        <v>0</v>
+      </c>
+      <c r="C31" s="118">
+        <v>0</v>
+      </c>
+      <c r="D31" s="117">
+        <v>0</v>
+      </c>
+      <c r="E31" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="84" t="e">
+      <c r="F31" s="118" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="79" t="s">
+      <c r="G31" s="117"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="118"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="118"/>
+      <c r="Q31" s="117"/>
+      <c r="R31" s="118"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="118"/>
+      <c r="U31" s="117"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="117"/>
+      <c r="X31" s="118"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="118"/>
+      <c r="AA31" s="117"/>
+      <c r="AB31" s="118"/>
+      <c r="AC31" s="117"/>
+      <c r="AD31" s="119"/>
+      <c r="AE31" s="119"/>
+      <c r="AF31" s="119"/>
+      <c r="AG31" s="119"/>
+      <c r="AH31" s="119"/>
+      <c r="AI31" s="119"/>
+      <c r="AJ31" s="119"/>
+      <c r="AK31" s="119"/>
+      <c r="AL31" s="119"/>
+      <c r="AM31" s="119"/>
+      <c r="AN31" s="119"/>
+      <c r="AO31" s="119"/>
+      <c r="AP31" s="119"/>
+      <c r="AQ31" s="119"/>
+      <c r="AR31" s="119"/>
+      <c r="AS31" s="119"/>
+      <c r="AT31" s="119"/>
+      <c r="AU31" s="119"/>
+      <c r="AV31" s="119"/>
+      <c r="AW31" s="119"/>
+      <c r="AX31" s="119"/>
+      <c r="AY31" s="119"/>
+      <c r="AZ31" s="119"/>
+      <c r="BA31" s="119"/>
+      <c r="BB31" s="119"/>
+      <c r="BC31" s="119"/>
+      <c r="BD31" s="119"/>
+      <c r="BE31" s="119"/>
+      <c r="BF31" s="119"/>
+      <c r="BG31" s="119"/>
+      <c r="BH31" s="119"/>
+      <c r="BI31" s="119"/>
+      <c r="BJ31" s="119"/>
+      <c r="BK31" s="119"/>
+      <c r="BL31" s="119"/>
+      <c r="BM31" s="119"/>
+      <c r="BN31" s="119"/>
+      <c r="BO31" s="119"/>
+      <c r="BP31" s="119"/>
+      <c r="BQ31" s="119"/>
+      <c r="BR31" s="119"/>
+      <c r="BS31" s="119"/>
+      <c r="BT31" s="119"/>
+      <c r="BU31" s="119"/>
+      <c r="BV31" s="119"/>
+      <c r="BW31" s="119"/>
+      <c r="BX31" s="119"/>
+      <c r="BY31" s="119"/>
+      <c r="BZ31" s="119"/>
+      <c r="CA31" s="119"/>
+      <c r="CB31" s="119"/>
+      <c r="CC31" s="119"/>
+      <c r="CD31" s="119"/>
+      <c r="CE31" s="119"/>
+      <c r="CF31" s="119"/>
+      <c r="CG31" s="119"/>
+      <c r="CH31" s="119"/>
+      <c r="CI31" s="119"/>
+    </row>
+    <row r="32" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A32" s="122" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="83">
+      <c r="B32" s="122">
         <v>4</v>
       </c>
-      <c r="C32" s="84">
-        <v>1</v>
-      </c>
-      <c r="D32" s="83">
+      <c r="C32" s="123">
+        <v>1</v>
+      </c>
+      <c r="D32" s="122">
         <v>4</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="124">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F32" s="84">
+      <c r="F32" s="123">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G32" s="83">
-        <v>1</v>
-      </c>
-      <c r="H32" s="84" t="s">
+      <c r="G32" s="122">
+        <v>1</v>
+      </c>
+      <c r="H32" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="I32" s="83">
-        <v>1</v>
-      </c>
-      <c r="J32" s="84" t="s">
+      <c r="I32" s="122">
+        <v>1</v>
+      </c>
+      <c r="J32" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="K32" s="83" t="s">
+      <c r="K32" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="L32" s="84" t="s">
+      <c r="L32" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="O32" s="83">
-        <v>3</v>
-      </c>
-      <c r="P32" s="84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="79" t="s">
+      <c r="M32" s="122"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="122">
+        <v>3</v>
+      </c>
+      <c r="P32" s="123">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="123"/>
+      <c r="U32" s="122"/>
+      <c r="V32" s="123"/>
+      <c r="W32" s="122"/>
+      <c r="X32" s="123"/>
+      <c r="Y32" s="122"/>
+      <c r="Z32" s="123"/>
+      <c r="AA32" s="122"/>
+      <c r="AB32" s="123"/>
+      <c r="AC32" s="122"/>
+      <c r="AD32" s="124"/>
+      <c r="AE32" s="124"/>
+      <c r="AF32" s="124"/>
+      <c r="AG32" s="124"/>
+      <c r="AH32" s="124"/>
+      <c r="AI32" s="124"/>
+      <c r="AJ32" s="124"/>
+      <c r="AK32" s="124"/>
+      <c r="AL32" s="124"/>
+      <c r="AM32" s="124"/>
+      <c r="AN32" s="124"/>
+      <c r="AO32" s="124"/>
+      <c r="AP32" s="124"/>
+      <c r="AQ32" s="124"/>
+      <c r="AR32" s="124"/>
+      <c r="AS32" s="124"/>
+      <c r="AT32" s="124"/>
+      <c r="AU32" s="124"/>
+      <c r="AV32" s="124"/>
+      <c r="AW32" s="124"/>
+      <c r="AX32" s="124"/>
+      <c r="AY32" s="124"/>
+      <c r="AZ32" s="124"/>
+      <c r="BA32" s="124"/>
+      <c r="BB32" s="124"/>
+      <c r="BC32" s="124"/>
+      <c r="BD32" s="124"/>
+      <c r="BE32" s="124"/>
+      <c r="BF32" s="124"/>
+      <c r="BG32" s="124"/>
+      <c r="BH32" s="124"/>
+      <c r="BI32" s="124"/>
+      <c r="BJ32" s="124"/>
+      <c r="BK32" s="124"/>
+      <c r="BL32" s="124"/>
+      <c r="BM32" s="124"/>
+      <c r="BN32" s="124"/>
+      <c r="BO32" s="124"/>
+      <c r="BP32" s="124"/>
+      <c r="BQ32" s="124"/>
+      <c r="BR32" s="124"/>
+      <c r="BS32" s="124"/>
+      <c r="BT32" s="124"/>
+      <c r="BU32" s="124"/>
+      <c r="BV32" s="124"/>
+      <c r="BW32" s="124"/>
+      <c r="BX32" s="124"/>
+      <c r="BY32" s="124"/>
+      <c r="BZ32" s="124"/>
+      <c r="CA32" s="124"/>
+      <c r="CB32" s="124"/>
+      <c r="CC32" s="124"/>
+      <c r="CD32" s="124"/>
+      <c r="CE32" s="124"/>
+      <c r="CF32" s="124"/>
+      <c r="CG32" s="124"/>
+      <c r="CH32" s="124"/>
+      <c r="CI32" s="124"/>
+    </row>
+    <row r="33" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A33" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="83">
-        <v>0</v>
-      </c>
-      <c r="C33" s="84">
-        <v>0</v>
-      </c>
-      <c r="D33" s="83">
+      <c r="B33" s="117">
+        <v>0</v>
+      </c>
+      <c r="C33" s="118">
+        <v>0</v>
+      </c>
+      <c r="D33" s="117">
         <v>4</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="119">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F33" s="84">
+      <c r="F33" s="118">
         <f t="shared" si="1"/>
         <v>2.9</v>
       </c>
-      <c r="G33" s="83">
-        <v>3</v>
-      </c>
-      <c r="H33" s="84">
-        <v>3</v>
-      </c>
-      <c r="I33" s="83">
-        <v>2</v>
-      </c>
-      <c r="J33" s="84">
-        <v>3</v>
-      </c>
-      <c r="O33" s="83">
-        <v>3</v>
-      </c>
-      <c r="P33" s="84">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>3</v>
-      </c>
-      <c r="R33" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="79" t="s">
+      <c r="G33" s="117">
+        <v>3</v>
+      </c>
+      <c r="H33" s="118">
+        <v>3</v>
+      </c>
+      <c r="I33" s="117">
+        <v>2</v>
+      </c>
+      <c r="J33" s="118">
+        <v>3</v>
+      </c>
+      <c r="K33" s="117"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="117">
+        <v>3</v>
+      </c>
+      <c r="P33" s="118">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="120">
+        <v>3</v>
+      </c>
+      <c r="R33" s="121">
+        <v>3</v>
+      </c>
+      <c r="S33" s="117"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="118"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="118"/>
+      <c r="AC33" s="117"/>
+      <c r="AD33" s="119"/>
+      <c r="AE33" s="119"/>
+      <c r="AF33" s="119"/>
+      <c r="AG33" s="119"/>
+      <c r="AH33" s="119"/>
+      <c r="AI33" s="119"/>
+      <c r="AJ33" s="119"/>
+      <c r="AK33" s="119"/>
+      <c r="AL33" s="119"/>
+      <c r="AM33" s="119"/>
+      <c r="AN33" s="119"/>
+      <c r="AO33" s="119"/>
+      <c r="AP33" s="119"/>
+      <c r="AQ33" s="119"/>
+      <c r="AR33" s="119"/>
+      <c r="AS33" s="119"/>
+      <c r="AT33" s="119"/>
+      <c r="AU33" s="119"/>
+      <c r="AV33" s="119"/>
+      <c r="AW33" s="119"/>
+      <c r="AX33" s="119"/>
+      <c r="AY33" s="119"/>
+      <c r="AZ33" s="119"/>
+      <c r="BA33" s="119"/>
+      <c r="BB33" s="119"/>
+      <c r="BC33" s="119"/>
+      <c r="BD33" s="119"/>
+      <c r="BE33" s="119"/>
+      <c r="BF33" s="119"/>
+      <c r="BG33" s="119"/>
+      <c r="BH33" s="119"/>
+      <c r="BI33" s="119"/>
+      <c r="BJ33" s="119"/>
+      <c r="BK33" s="119"/>
+      <c r="BL33" s="119"/>
+      <c r="BM33" s="119"/>
+      <c r="BN33" s="119"/>
+      <c r="BO33" s="119"/>
+      <c r="BP33" s="119"/>
+      <c r="BQ33" s="119"/>
+      <c r="BR33" s="119"/>
+      <c r="BS33" s="119"/>
+      <c r="BT33" s="119"/>
+      <c r="BU33" s="119"/>
+      <c r="BV33" s="119"/>
+      <c r="BW33" s="119"/>
+      <c r="BX33" s="119"/>
+      <c r="BY33" s="119"/>
+      <c r="BZ33" s="119"/>
+      <c r="CA33" s="119"/>
+      <c r="CB33" s="119"/>
+      <c r="CC33" s="119"/>
+      <c r="CD33" s="119"/>
+      <c r="CE33" s="119"/>
+      <c r="CF33" s="119"/>
+      <c r="CG33" s="119"/>
+      <c r="CH33" s="119"/>
+      <c r="CI33" s="119"/>
+    </row>
+    <row r="34" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A34" s="122" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="83">
-        <v>0</v>
-      </c>
-      <c r="C34" s="84">
-        <v>0</v>
-      </c>
-      <c r="D34" s="83">
+      <c r="B34" s="122">
+        <v>0</v>
+      </c>
+      <c r="C34" s="123">
+        <v>0</v>
+      </c>
+      <c r="D34" s="122">
         <v>6</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="124">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F34" s="84">
+      <c r="F34" s="123">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="G34" s="83">
-        <v>2</v>
-      </c>
-      <c r="H34" s="84">
-        <v>3</v>
-      </c>
-      <c r="I34" s="83">
-        <v>1</v>
-      </c>
-      <c r="J34" s="84">
-        <v>1</v>
-      </c>
-      <c r="K34" s="83">
-        <v>3</v>
-      </c>
-      <c r="L34" s="84">
-        <v>2</v>
-      </c>
-      <c r="M34" s="83">
-        <v>1</v>
-      </c>
-      <c r="N34" s="84">
-        <v>2</v>
-      </c>
-      <c r="O34" s="83">
-        <v>1</v>
-      </c>
-      <c r="P34" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>1</v>
-      </c>
-      <c r="R34" s="6">
-        <v>3</v>
-      </c>
-      <c r="U34" s="5">
-        <v>3</v>
-      </c>
-      <c r="V34" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="79" t="s">
+      <c r="G34" s="122">
+        <v>2</v>
+      </c>
+      <c r="H34" s="123">
+        <v>3</v>
+      </c>
+      <c r="I34" s="122">
+        <v>1</v>
+      </c>
+      <c r="J34" s="123">
+        <v>1</v>
+      </c>
+      <c r="K34" s="122">
+        <v>3</v>
+      </c>
+      <c r="L34" s="123">
+        <v>2</v>
+      </c>
+      <c r="M34" s="122">
+        <v>1</v>
+      </c>
+      <c r="N34" s="123">
+        <v>2</v>
+      </c>
+      <c r="O34" s="122">
+        <v>1</v>
+      </c>
+      <c r="P34" s="123">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="125">
+        <v>1</v>
+      </c>
+      <c r="R34" s="126">
+        <v>3</v>
+      </c>
+      <c r="S34" s="122"/>
+      <c r="T34" s="123"/>
+      <c r="U34" s="125">
+        <v>3</v>
+      </c>
+      <c r="V34" s="126">
+        <v>2</v>
+      </c>
+      <c r="W34" s="122"/>
+      <c r="X34" s="123"/>
+      <c r="Y34" s="122"/>
+      <c r="Z34" s="123"/>
+      <c r="AA34" s="122"/>
+      <c r="AB34" s="123"/>
+      <c r="AC34" s="122"/>
+      <c r="AD34" s="124"/>
+      <c r="AE34" s="124"/>
+      <c r="AF34" s="124"/>
+      <c r="AG34" s="124"/>
+      <c r="AH34" s="124"/>
+      <c r="AI34" s="124"/>
+      <c r="AJ34" s="124"/>
+      <c r="AK34" s="124"/>
+      <c r="AL34" s="124"/>
+      <c r="AM34" s="124"/>
+      <c r="AN34" s="124"/>
+      <c r="AO34" s="124"/>
+      <c r="AP34" s="124"/>
+      <c r="AQ34" s="124"/>
+      <c r="AR34" s="124"/>
+      <c r="AS34" s="124"/>
+      <c r="AT34" s="124"/>
+      <c r="AU34" s="124"/>
+      <c r="AV34" s="124"/>
+      <c r="AW34" s="124"/>
+      <c r="AX34" s="124"/>
+      <c r="AY34" s="124"/>
+      <c r="AZ34" s="124"/>
+      <c r="BA34" s="124"/>
+      <c r="BB34" s="124"/>
+      <c r="BC34" s="124"/>
+      <c r="BD34" s="124"/>
+      <c r="BE34" s="124"/>
+      <c r="BF34" s="124"/>
+      <c r="BG34" s="124"/>
+      <c r="BH34" s="124"/>
+      <c r="BI34" s="124"/>
+      <c r="BJ34" s="124"/>
+      <c r="BK34" s="124"/>
+      <c r="BL34" s="124"/>
+      <c r="BM34" s="124"/>
+      <c r="BN34" s="124"/>
+      <c r="BO34" s="124"/>
+      <c r="BP34" s="124"/>
+      <c r="BQ34" s="124"/>
+      <c r="BR34" s="124"/>
+      <c r="BS34" s="124"/>
+      <c r="BT34" s="124"/>
+      <c r="BU34" s="124"/>
+      <c r="BV34" s="124"/>
+      <c r="BW34" s="124"/>
+      <c r="BX34" s="124"/>
+      <c r="BY34" s="124"/>
+      <c r="BZ34" s="124"/>
+      <c r="CA34" s="124"/>
+      <c r="CB34" s="124"/>
+      <c r="CC34" s="124"/>
+      <c r="CD34" s="124"/>
+      <c r="CE34" s="124"/>
+      <c r="CF34" s="124"/>
+      <c r="CG34" s="124"/>
+      <c r="CH34" s="124"/>
+      <c r="CI34" s="124"/>
+    </row>
+    <row r="35" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A35" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="83">
-        <v>0</v>
-      </c>
-      <c r="C35" s="84">
-        <v>0</v>
-      </c>
-      <c r="D35" s="83">
-        <v>0</v>
-      </c>
-      <c r="E35" s="68">
+      <c r="B35" s="117">
+        <v>0</v>
+      </c>
+      <c r="C35" s="118">
+        <v>0</v>
+      </c>
+      <c r="D35" s="117">
+        <v>0</v>
+      </c>
+      <c r="E35" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="84" t="e">
+      <c r="F35" s="118" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="79" t="s">
+      <c r="G35" s="117"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="118"/>
+      <c r="S35" s="117"/>
+      <c r="T35" s="118"/>
+      <c r="U35" s="117"/>
+      <c r="V35" s="118"/>
+      <c r="W35" s="117"/>
+      <c r="X35" s="118"/>
+      <c r="Y35" s="117"/>
+      <c r="Z35" s="118"/>
+      <c r="AA35" s="117"/>
+      <c r="AB35" s="118"/>
+      <c r="AC35" s="117"/>
+      <c r="AD35" s="119"/>
+      <c r="AE35" s="119"/>
+      <c r="AF35" s="119"/>
+      <c r="AG35" s="119"/>
+      <c r="AH35" s="119"/>
+      <c r="AI35" s="119"/>
+      <c r="AJ35" s="119"/>
+      <c r="AK35" s="119"/>
+      <c r="AL35" s="119"/>
+      <c r="AM35" s="119"/>
+      <c r="AN35" s="119"/>
+      <c r="AO35" s="119"/>
+      <c r="AP35" s="119"/>
+      <c r="AQ35" s="119"/>
+      <c r="AR35" s="119"/>
+      <c r="AS35" s="119"/>
+      <c r="AT35" s="119"/>
+      <c r="AU35" s="119"/>
+      <c r="AV35" s="119"/>
+      <c r="AW35" s="119"/>
+      <c r="AX35" s="119"/>
+      <c r="AY35" s="119"/>
+      <c r="AZ35" s="119"/>
+      <c r="BA35" s="119"/>
+      <c r="BB35" s="119"/>
+      <c r="BC35" s="119"/>
+      <c r="BD35" s="119"/>
+      <c r="BE35" s="119"/>
+      <c r="BF35" s="119"/>
+      <c r="BG35" s="119"/>
+      <c r="BH35" s="119"/>
+      <c r="BI35" s="119"/>
+      <c r="BJ35" s="119"/>
+      <c r="BK35" s="119"/>
+      <c r="BL35" s="119"/>
+      <c r="BM35" s="119"/>
+      <c r="BN35" s="119"/>
+      <c r="BO35" s="119"/>
+      <c r="BP35" s="119"/>
+      <c r="BQ35" s="119"/>
+      <c r="BR35" s="119"/>
+      <c r="BS35" s="119"/>
+      <c r="BT35" s="119"/>
+      <c r="BU35" s="119"/>
+      <c r="BV35" s="119"/>
+      <c r="BW35" s="119"/>
+      <c r="BX35" s="119"/>
+      <c r="BY35" s="119"/>
+      <c r="BZ35" s="119"/>
+      <c r="CA35" s="119"/>
+      <c r="CB35" s="119"/>
+      <c r="CC35" s="119"/>
+      <c r="CD35" s="119"/>
+      <c r="CE35" s="119"/>
+      <c r="CF35" s="119"/>
+      <c r="CG35" s="119"/>
+      <c r="CH35" s="119"/>
+      <c r="CI35" s="119"/>
+    </row>
+    <row r="36" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A36" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="83">
-        <v>0</v>
-      </c>
-      <c r="C36" s="84">
-        <v>0</v>
-      </c>
-      <c r="D36" s="83">
-        <v>2</v>
-      </c>
-      <c r="E36" s="68">
+      <c r="B36" s="122">
+        <v>0</v>
+      </c>
+      <c r="C36" s="123">
+        <v>0</v>
+      </c>
+      <c r="D36" s="122">
+        <v>2</v>
+      </c>
+      <c r="E36" s="124">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F36" s="84">
+      <c r="F36" s="123">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="O36" s="83">
-        <v>3</v>
-      </c>
-      <c r="P36" s="84">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>3</v>
-      </c>
-      <c r="R36" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="79" t="s">
+      <c r="G36" s="122"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="122"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="122">
+        <v>3</v>
+      </c>
+      <c r="P36" s="123">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="125">
+        <v>3</v>
+      </c>
+      <c r="R36" s="126">
+        <v>2</v>
+      </c>
+      <c r="S36" s="122"/>
+      <c r="T36" s="123"/>
+      <c r="U36" s="122"/>
+      <c r="V36" s="123"/>
+      <c r="W36" s="122"/>
+      <c r="X36" s="123"/>
+      <c r="Y36" s="122"/>
+      <c r="Z36" s="123"/>
+      <c r="AA36" s="122"/>
+      <c r="AB36" s="123"/>
+      <c r="AC36" s="122"/>
+      <c r="AD36" s="124"/>
+      <c r="AE36" s="124"/>
+      <c r="AF36" s="124"/>
+      <c r="AG36" s="124"/>
+      <c r="AH36" s="124"/>
+      <c r="AI36" s="124"/>
+      <c r="AJ36" s="124"/>
+      <c r="AK36" s="124"/>
+      <c r="AL36" s="124"/>
+      <c r="AM36" s="124"/>
+      <c r="AN36" s="124"/>
+      <c r="AO36" s="124"/>
+      <c r="AP36" s="124"/>
+      <c r="AQ36" s="124"/>
+      <c r="AR36" s="124"/>
+      <c r="AS36" s="124"/>
+      <c r="AT36" s="124"/>
+      <c r="AU36" s="124"/>
+      <c r="AV36" s="124"/>
+      <c r="AW36" s="124"/>
+      <c r="AX36" s="124"/>
+      <c r="AY36" s="124"/>
+      <c r="AZ36" s="124"/>
+      <c r="BA36" s="124"/>
+      <c r="BB36" s="124"/>
+      <c r="BC36" s="124"/>
+      <c r="BD36" s="124"/>
+      <c r="BE36" s="124"/>
+      <c r="BF36" s="124"/>
+      <c r="BG36" s="124"/>
+      <c r="BH36" s="124"/>
+      <c r="BI36" s="124"/>
+      <c r="BJ36" s="124"/>
+      <c r="BK36" s="124"/>
+      <c r="BL36" s="124"/>
+      <c r="BM36" s="124"/>
+      <c r="BN36" s="124"/>
+      <c r="BO36" s="124"/>
+      <c r="BP36" s="124"/>
+      <c r="BQ36" s="124"/>
+      <c r="BR36" s="124"/>
+      <c r="BS36" s="124"/>
+      <c r="BT36" s="124"/>
+      <c r="BU36" s="124"/>
+      <c r="BV36" s="124"/>
+      <c r="BW36" s="124"/>
+      <c r="BX36" s="124"/>
+      <c r="BY36" s="124"/>
+      <c r="BZ36" s="124"/>
+      <c r="CA36" s="124"/>
+      <c r="CB36" s="124"/>
+      <c r="CC36" s="124"/>
+      <c r="CD36" s="124"/>
+      <c r="CE36" s="124"/>
+      <c r="CF36" s="124"/>
+      <c r="CG36" s="124"/>
+      <c r="CH36" s="124"/>
+      <c r="CI36" s="124"/>
+    </row>
+    <row r="37" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A37" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="83">
-        <v>2</v>
-      </c>
-      <c r="C37" s="84">
-        <v>1</v>
-      </c>
-      <c r="D37" s="83">
-        <v>2</v>
-      </c>
-      <c r="E37" s="68">
+      <c r="B37" s="117">
+        <v>2</v>
+      </c>
+      <c r="C37" s="118">
+        <v>1</v>
+      </c>
+      <c r="D37" s="117">
+        <v>2</v>
+      </c>
+      <c r="E37" s="119">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F37" s="84">
+      <c r="F37" s="118">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="K37" s="83" t="s">
+      <c r="G37" s="117"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="L37" s="84" t="s">
+      <c r="L37" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="Q37" s="4">
-        <v>2</v>
-      </c>
-      <c r="R37" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="79" t="s">
+      <c r="M37" s="117"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="120">
+        <v>2</v>
+      </c>
+      <c r="R37" s="128">
+        <v>3</v>
+      </c>
+      <c r="S37" s="117"/>
+      <c r="T37" s="118"/>
+      <c r="U37" s="117"/>
+      <c r="V37" s="118"/>
+      <c r="W37" s="117"/>
+      <c r="X37" s="118"/>
+      <c r="Y37" s="117"/>
+      <c r="Z37" s="118"/>
+      <c r="AA37" s="117"/>
+      <c r="AB37" s="118"/>
+      <c r="AC37" s="117"/>
+      <c r="AD37" s="119"/>
+      <c r="AE37" s="119"/>
+      <c r="AF37" s="119"/>
+      <c r="AG37" s="119"/>
+      <c r="AH37" s="119"/>
+      <c r="AI37" s="119"/>
+      <c r="AJ37" s="119"/>
+      <c r="AK37" s="119"/>
+      <c r="AL37" s="119"/>
+      <c r="AM37" s="119"/>
+      <c r="AN37" s="119"/>
+      <c r="AO37" s="119"/>
+      <c r="AP37" s="119"/>
+      <c r="AQ37" s="119"/>
+      <c r="AR37" s="119"/>
+      <c r="AS37" s="119"/>
+      <c r="AT37" s="119"/>
+      <c r="AU37" s="119"/>
+      <c r="AV37" s="119"/>
+      <c r="AW37" s="119"/>
+      <c r="AX37" s="119"/>
+      <c r="AY37" s="119"/>
+      <c r="AZ37" s="119"/>
+      <c r="BA37" s="119"/>
+      <c r="BB37" s="119"/>
+      <c r="BC37" s="119"/>
+      <c r="BD37" s="119"/>
+      <c r="BE37" s="119"/>
+      <c r="BF37" s="119"/>
+      <c r="BG37" s="119"/>
+      <c r="BH37" s="119"/>
+      <c r="BI37" s="119"/>
+      <c r="BJ37" s="119"/>
+      <c r="BK37" s="119"/>
+      <c r="BL37" s="119"/>
+      <c r="BM37" s="119"/>
+      <c r="BN37" s="119"/>
+      <c r="BO37" s="119"/>
+      <c r="BP37" s="119"/>
+      <c r="BQ37" s="119"/>
+      <c r="BR37" s="119"/>
+      <c r="BS37" s="119"/>
+      <c r="BT37" s="119"/>
+      <c r="BU37" s="119"/>
+      <c r="BV37" s="119"/>
+      <c r="BW37" s="119"/>
+      <c r="BX37" s="119"/>
+      <c r="BY37" s="119"/>
+      <c r="BZ37" s="119"/>
+      <c r="CA37" s="119"/>
+      <c r="CB37" s="119"/>
+      <c r="CC37" s="119"/>
+      <c r="CD37" s="119"/>
+      <c r="CE37" s="119"/>
+      <c r="CF37" s="119"/>
+      <c r="CG37" s="119"/>
+      <c r="CH37" s="119"/>
+      <c r="CI37" s="119"/>
+    </row>
+    <row r="38" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A38" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="83">
-        <v>2</v>
-      </c>
-      <c r="C38" s="84">
-        <v>1</v>
-      </c>
-      <c r="D38" s="83">
-        <v>2</v>
-      </c>
-      <c r="E38" s="68">
+      <c r="B38" s="122">
+        <v>2</v>
+      </c>
+      <c r="C38" s="123">
+        <v>1</v>
+      </c>
+      <c r="D38" s="122">
+        <v>2</v>
+      </c>
+      <c r="E38" s="124">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F38" s="84">
+      <c r="F38" s="123">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G38" s="83" t="s">
+      <c r="G38" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="H38" s="84" t="s">
+      <c r="H38" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="O38" s="83">
-        <v>3</v>
-      </c>
-      <c r="P38" s="84" t="s">
+      <c r="I38" s="122"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="122"/>
+      <c r="N38" s="123"/>
+      <c r="O38" s="122">
+        <v>3</v>
+      </c>
+      <c r="P38" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="79" t="s">
+      <c r="Q38" s="122"/>
+      <c r="R38" s="124"/>
+      <c r="S38" s="122"/>
+      <c r="T38" s="123"/>
+      <c r="U38" s="122"/>
+      <c r="V38" s="123"/>
+      <c r="W38" s="122"/>
+      <c r="X38" s="123"/>
+      <c r="Y38" s="122"/>
+      <c r="Z38" s="123"/>
+      <c r="AA38" s="122"/>
+      <c r="AB38" s="123"/>
+      <c r="AC38" s="122"/>
+      <c r="AD38" s="124"/>
+      <c r="AE38" s="124"/>
+      <c r="AF38" s="124"/>
+      <c r="AG38" s="124"/>
+      <c r="AH38" s="124"/>
+      <c r="AI38" s="124"/>
+      <c r="AJ38" s="124"/>
+      <c r="AK38" s="124"/>
+      <c r="AL38" s="124"/>
+      <c r="AM38" s="124"/>
+      <c r="AN38" s="124"/>
+      <c r="AO38" s="124"/>
+      <c r="AP38" s="124"/>
+      <c r="AQ38" s="124"/>
+      <c r="AR38" s="124"/>
+      <c r="AS38" s="124"/>
+      <c r="AT38" s="124"/>
+      <c r="AU38" s="124"/>
+      <c r="AV38" s="124"/>
+      <c r="AW38" s="124"/>
+      <c r="AX38" s="124"/>
+      <c r="AY38" s="124"/>
+      <c r="AZ38" s="124"/>
+      <c r="BA38" s="124"/>
+      <c r="BB38" s="124"/>
+      <c r="BC38" s="124"/>
+      <c r="BD38" s="124"/>
+      <c r="BE38" s="124"/>
+      <c r="BF38" s="124"/>
+      <c r="BG38" s="124"/>
+      <c r="BH38" s="124"/>
+      <c r="BI38" s="124"/>
+      <c r="BJ38" s="124"/>
+      <c r="BK38" s="124"/>
+      <c r="BL38" s="124"/>
+      <c r="BM38" s="124"/>
+      <c r="BN38" s="124"/>
+      <c r="BO38" s="124"/>
+      <c r="BP38" s="124"/>
+      <c r="BQ38" s="124"/>
+      <c r="BR38" s="124"/>
+      <c r="BS38" s="124"/>
+      <c r="BT38" s="124"/>
+      <c r="BU38" s="124"/>
+      <c r="BV38" s="124"/>
+      <c r="BW38" s="124"/>
+      <c r="BX38" s="124"/>
+      <c r="BY38" s="124"/>
+      <c r="BZ38" s="124"/>
+      <c r="CA38" s="124"/>
+      <c r="CB38" s="124"/>
+      <c r="CC38" s="124"/>
+      <c r="CD38" s="124"/>
+      <c r="CE38" s="124"/>
+      <c r="CF38" s="124"/>
+      <c r="CG38" s="124"/>
+      <c r="CH38" s="124"/>
+      <c r="CI38" s="124"/>
+    </row>
+    <row r="39" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A39" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="B39" s="83">
-        <v>0</v>
-      </c>
-      <c r="C39" s="84">
-        <v>0</v>
-      </c>
-      <c r="D39" s="83">
-        <v>1</v>
-      </c>
-      <c r="E39" s="68">
+      <c r="B39" s="117">
+        <v>0</v>
+      </c>
+      <c r="C39" s="118">
+        <v>0</v>
+      </c>
+      <c r="D39" s="117">
+        <v>1</v>
+      </c>
+      <c r="E39" s="119">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F39" s="84">
+      <c r="F39" s="118">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="U39" s="5">
-        <v>1</v>
-      </c>
-      <c r="V39" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="79" t="s">
+      <c r="G39" s="117"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="117"/>
+      <c r="T39" s="118"/>
+      <c r="U39" s="120">
+        <v>1</v>
+      </c>
+      <c r="V39" s="121">
+        <v>1</v>
+      </c>
+      <c r="W39" s="117"/>
+      <c r="X39" s="118"/>
+      <c r="Y39" s="117"/>
+      <c r="Z39" s="118"/>
+      <c r="AA39" s="117"/>
+      <c r="AB39" s="118"/>
+      <c r="AC39" s="117"/>
+      <c r="AD39" s="119"/>
+      <c r="AE39" s="119"/>
+      <c r="AF39" s="119"/>
+      <c r="AG39" s="119"/>
+      <c r="AH39" s="119"/>
+      <c r="AI39" s="119"/>
+      <c r="AJ39" s="119"/>
+      <c r="AK39" s="119"/>
+      <c r="AL39" s="119"/>
+      <c r="AM39" s="119"/>
+      <c r="AN39" s="119"/>
+      <c r="AO39" s="119"/>
+      <c r="AP39" s="119"/>
+      <c r="AQ39" s="119"/>
+      <c r="AR39" s="119"/>
+      <c r="AS39" s="119"/>
+      <c r="AT39" s="119"/>
+      <c r="AU39" s="119"/>
+      <c r="AV39" s="119"/>
+      <c r="AW39" s="119"/>
+      <c r="AX39" s="119"/>
+      <c r="AY39" s="119"/>
+      <c r="AZ39" s="119"/>
+      <c r="BA39" s="119"/>
+      <c r="BB39" s="119"/>
+      <c r="BC39" s="119"/>
+      <c r="BD39" s="119"/>
+      <c r="BE39" s="119"/>
+      <c r="BF39" s="119"/>
+      <c r="BG39" s="119"/>
+      <c r="BH39" s="119"/>
+      <c r="BI39" s="119"/>
+      <c r="BJ39" s="119"/>
+      <c r="BK39" s="119"/>
+      <c r="BL39" s="119"/>
+      <c r="BM39" s="119"/>
+      <c r="BN39" s="119"/>
+      <c r="BO39" s="119"/>
+      <c r="BP39" s="119"/>
+      <c r="BQ39" s="119"/>
+      <c r="BR39" s="119"/>
+      <c r="BS39" s="119"/>
+      <c r="BT39" s="119"/>
+      <c r="BU39" s="119"/>
+      <c r="BV39" s="119"/>
+      <c r="BW39" s="119"/>
+      <c r="BX39" s="119"/>
+      <c r="BY39" s="119"/>
+      <c r="BZ39" s="119"/>
+      <c r="CA39" s="119"/>
+      <c r="CB39" s="119"/>
+      <c r="CC39" s="119"/>
+      <c r="CD39" s="119"/>
+      <c r="CE39" s="119"/>
+      <c r="CF39" s="119"/>
+      <c r="CG39" s="119"/>
+      <c r="CH39" s="119"/>
+      <c r="CI39" s="119"/>
+    </row>
+    <row r="40" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A40" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="B40" s="83">
-        <v>0</v>
-      </c>
-      <c r="C40" s="84">
-        <v>0</v>
-      </c>
-      <c r="D40" s="83">
-        <v>1</v>
-      </c>
-      <c r="E40" s="68">
+      <c r="B40" s="122">
+        <v>0</v>
+      </c>
+      <c r="C40" s="123">
+        <v>0</v>
+      </c>
+      <c r="D40" s="122">
+        <v>1</v>
+      </c>
+      <c r="E40" s="124">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F40" s="84">
+      <c r="F40" s="123">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="U40" s="5">
-        <v>3</v>
-      </c>
-      <c r="V40" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="79" t="s">
+      <c r="G40" s="122"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="122"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="122"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="122"/>
+      <c r="R40" s="124"/>
+      <c r="S40" s="122"/>
+      <c r="T40" s="123"/>
+      <c r="U40" s="125">
+        <v>3</v>
+      </c>
+      <c r="V40" s="126">
+        <v>2</v>
+      </c>
+      <c r="W40" s="122"/>
+      <c r="X40" s="123"/>
+      <c r="Y40" s="122"/>
+      <c r="Z40" s="123"/>
+      <c r="AA40" s="122"/>
+      <c r="AB40" s="123"/>
+      <c r="AC40" s="122"/>
+      <c r="AD40" s="124"/>
+      <c r="AE40" s="124"/>
+      <c r="AF40" s="124"/>
+      <c r="AG40" s="124"/>
+      <c r="AH40" s="124"/>
+      <c r="AI40" s="124"/>
+      <c r="AJ40" s="124"/>
+      <c r="AK40" s="124"/>
+      <c r="AL40" s="124"/>
+      <c r="AM40" s="124"/>
+      <c r="AN40" s="124"/>
+      <c r="AO40" s="124"/>
+      <c r="AP40" s="124"/>
+      <c r="AQ40" s="124"/>
+      <c r="AR40" s="124"/>
+      <c r="AS40" s="124"/>
+      <c r="AT40" s="124"/>
+      <c r="AU40" s="124"/>
+      <c r="AV40" s="124"/>
+      <c r="AW40" s="124"/>
+      <c r="AX40" s="124"/>
+      <c r="AY40" s="124"/>
+      <c r="AZ40" s="124"/>
+      <c r="BA40" s="124"/>
+      <c r="BB40" s="124"/>
+      <c r="BC40" s="124"/>
+      <c r="BD40" s="124"/>
+      <c r="BE40" s="124"/>
+      <c r="BF40" s="124"/>
+      <c r="BG40" s="124"/>
+      <c r="BH40" s="124"/>
+      <c r="BI40" s="124"/>
+      <c r="BJ40" s="124"/>
+      <c r="BK40" s="124"/>
+      <c r="BL40" s="124"/>
+      <c r="BM40" s="124"/>
+      <c r="BN40" s="124"/>
+      <c r="BO40" s="124"/>
+      <c r="BP40" s="124"/>
+      <c r="BQ40" s="124"/>
+      <c r="BR40" s="124"/>
+      <c r="BS40" s="124"/>
+      <c r="BT40" s="124"/>
+      <c r="BU40" s="124"/>
+      <c r="BV40" s="124"/>
+      <c r="BW40" s="124"/>
+      <c r="BX40" s="124"/>
+      <c r="BY40" s="124"/>
+      <c r="BZ40" s="124"/>
+      <c r="CA40" s="124"/>
+      <c r="CB40" s="124"/>
+      <c r="CC40" s="124"/>
+      <c r="CD40" s="124"/>
+      <c r="CE40" s="124"/>
+      <c r="CF40" s="124"/>
+      <c r="CG40" s="124"/>
+      <c r="CH40" s="124"/>
+      <c r="CI40" s="124"/>
+    </row>
+    <row r="41" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A41" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="B41" s="83">
-        <v>0</v>
-      </c>
-      <c r="C41" s="84">
-        <v>0</v>
-      </c>
-      <c r="D41" s="83">
-        <v>0</v>
-      </c>
-      <c r="E41" s="68">
+      <c r="B41" s="117">
+        <v>0</v>
+      </c>
+      <c r="C41" s="118">
+        <v>0</v>
+      </c>
+      <c r="D41" s="117">
+        <v>0</v>
+      </c>
+      <c r="E41" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F41" s="84" t="e">
+      <c r="F41" s="118" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="79" t="s">
+      <c r="G41" s="117"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="118"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="118"/>
+      <c r="O41" s="117"/>
+      <c r="P41" s="118"/>
+      <c r="Q41" s="117"/>
+      <c r="R41" s="119"/>
+      <c r="S41" s="117"/>
+      <c r="T41" s="118"/>
+      <c r="U41" s="117"/>
+      <c r="V41" s="118"/>
+      <c r="W41" s="117"/>
+      <c r="X41" s="118"/>
+      <c r="Y41" s="117"/>
+      <c r="Z41" s="118"/>
+      <c r="AA41" s="117"/>
+      <c r="AB41" s="118"/>
+      <c r="AC41" s="117"/>
+      <c r="AD41" s="119"/>
+      <c r="AE41" s="119"/>
+      <c r="AF41" s="119"/>
+      <c r="AG41" s="119"/>
+      <c r="AH41" s="119"/>
+      <c r="AI41" s="119"/>
+      <c r="AJ41" s="119"/>
+      <c r="AK41" s="119"/>
+      <c r="AL41" s="119"/>
+      <c r="AM41" s="119"/>
+      <c r="AN41" s="119"/>
+      <c r="AO41" s="119"/>
+      <c r="AP41" s="119"/>
+      <c r="AQ41" s="119"/>
+      <c r="AR41" s="119"/>
+      <c r="AS41" s="119"/>
+      <c r="AT41" s="119"/>
+      <c r="AU41" s="119"/>
+      <c r="AV41" s="119"/>
+      <c r="AW41" s="119"/>
+      <c r="AX41" s="119"/>
+      <c r="AY41" s="119"/>
+      <c r="AZ41" s="119"/>
+      <c r="BA41" s="119"/>
+      <c r="BB41" s="119"/>
+      <c r="BC41" s="119"/>
+      <c r="BD41" s="119"/>
+      <c r="BE41" s="119"/>
+      <c r="BF41" s="119"/>
+      <c r="BG41" s="119"/>
+      <c r="BH41" s="119"/>
+      <c r="BI41" s="119"/>
+      <c r="BJ41" s="119"/>
+      <c r="BK41" s="119"/>
+      <c r="BL41" s="119"/>
+      <c r="BM41" s="119"/>
+      <c r="BN41" s="119"/>
+      <c r="BO41" s="119"/>
+      <c r="BP41" s="119"/>
+      <c r="BQ41" s="119"/>
+      <c r="BR41" s="119"/>
+      <c r="BS41" s="119"/>
+      <c r="BT41" s="119"/>
+      <c r="BU41" s="119"/>
+      <c r="BV41" s="119"/>
+      <c r="BW41" s="119"/>
+      <c r="BX41" s="119"/>
+      <c r="BY41" s="119"/>
+      <c r="BZ41" s="119"/>
+      <c r="CA41" s="119"/>
+      <c r="CB41" s="119"/>
+      <c r="CC41" s="119"/>
+      <c r="CD41" s="119"/>
+      <c r="CE41" s="119"/>
+      <c r="CF41" s="119"/>
+      <c r="CG41" s="119"/>
+      <c r="CH41" s="119"/>
+      <c r="CI41" s="119"/>
+    </row>
+    <row r="42" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A42" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="B42" s="83">
-        <v>0</v>
-      </c>
-      <c r="C42" s="84">
-        <v>0</v>
-      </c>
-      <c r="D42" s="83">
-        <v>0</v>
-      </c>
-      <c r="E42" s="68">
+      <c r="B42" s="122">
+        <v>0</v>
+      </c>
+      <c r="C42" s="123">
+        <v>0</v>
+      </c>
+      <c r="D42" s="122">
+        <v>0</v>
+      </c>
+      <c r="E42" s="124">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F42" s="84" t="e">
+      <c r="F42" s="123" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="79" t="s">
+      <c r="G42" s="122"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="122"/>
+      <c r="N42" s="123"/>
+      <c r="O42" s="122"/>
+      <c r="P42" s="123"/>
+      <c r="Q42" s="122"/>
+      <c r="R42" s="124"/>
+      <c r="S42" s="122"/>
+      <c r="T42" s="123"/>
+      <c r="U42" s="122"/>
+      <c r="V42" s="123"/>
+      <c r="W42" s="122"/>
+      <c r="X42" s="123"/>
+      <c r="Y42" s="122"/>
+      <c r="Z42" s="123"/>
+      <c r="AA42" s="122"/>
+      <c r="AB42" s="123"/>
+      <c r="AC42" s="122"/>
+      <c r="AD42" s="124"/>
+      <c r="AE42" s="124"/>
+      <c r="AF42" s="124"/>
+      <c r="AG42" s="124"/>
+      <c r="AH42" s="124"/>
+      <c r="AI42" s="124"/>
+      <c r="AJ42" s="124"/>
+      <c r="AK42" s="124"/>
+      <c r="AL42" s="124"/>
+      <c r="AM42" s="124"/>
+      <c r="AN42" s="124"/>
+      <c r="AO42" s="124"/>
+      <c r="AP42" s="124"/>
+      <c r="AQ42" s="124"/>
+      <c r="AR42" s="124"/>
+      <c r="AS42" s="124"/>
+      <c r="AT42" s="124"/>
+      <c r="AU42" s="124"/>
+      <c r="AV42" s="124"/>
+      <c r="AW42" s="124"/>
+      <c r="AX42" s="124"/>
+      <c r="AY42" s="124"/>
+      <c r="AZ42" s="124"/>
+      <c r="BA42" s="124"/>
+      <c r="BB42" s="124"/>
+      <c r="BC42" s="124"/>
+      <c r="BD42" s="124"/>
+      <c r="BE42" s="124"/>
+      <c r="BF42" s="124"/>
+      <c r="BG42" s="124"/>
+      <c r="BH42" s="124"/>
+      <c r="BI42" s="124"/>
+      <c r="BJ42" s="124"/>
+      <c r="BK42" s="124"/>
+      <c r="BL42" s="124"/>
+      <c r="BM42" s="124"/>
+      <c r="BN42" s="124"/>
+      <c r="BO42" s="124"/>
+      <c r="BP42" s="124"/>
+      <c r="BQ42" s="124"/>
+      <c r="BR42" s="124"/>
+      <c r="BS42" s="124"/>
+      <c r="BT42" s="124"/>
+      <c r="BU42" s="124"/>
+      <c r="BV42" s="124"/>
+      <c r="BW42" s="124"/>
+      <c r="BX42" s="124"/>
+      <c r="BY42" s="124"/>
+      <c r="BZ42" s="124"/>
+      <c r="CA42" s="124"/>
+      <c r="CB42" s="124"/>
+      <c r="CC42" s="124"/>
+      <c r="CD42" s="124"/>
+      <c r="CE42" s="124"/>
+      <c r="CF42" s="124"/>
+      <c r="CG42" s="124"/>
+      <c r="CH42" s="124"/>
+      <c r="CI42" s="124"/>
+    </row>
+    <row r="43" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A43" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="B43" s="83">
-        <v>0</v>
-      </c>
-      <c r="C43" s="84">
-        <v>0</v>
-      </c>
-      <c r="D43" s="83">
-        <v>0</v>
-      </c>
-      <c r="E43" s="68">
+      <c r="B43" s="117">
+        <v>0</v>
+      </c>
+      <c r="C43" s="118">
+        <v>0</v>
+      </c>
+      <c r="D43" s="117">
+        <v>0</v>
+      </c>
+      <c r="E43" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F43" s="84" t="e">
+      <c r="F43" s="118" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="68"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="79" t="s">
+      <c r="G43" s="117"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="118"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="118"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="118"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="119"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="118"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="118"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="118"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="118"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="118"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="119"/>
+      <c r="AE43" s="119"/>
+      <c r="AF43" s="119"/>
+      <c r="AG43" s="119"/>
+      <c r="AH43" s="119"/>
+      <c r="AI43" s="119"/>
+      <c r="AJ43" s="119"/>
+      <c r="AK43" s="119"/>
+      <c r="AL43" s="119"/>
+      <c r="AM43" s="119"/>
+      <c r="AN43" s="119"/>
+      <c r="AO43" s="119"/>
+      <c r="AP43" s="119"/>
+      <c r="AQ43" s="119"/>
+      <c r="AR43" s="119"/>
+      <c r="AS43" s="119"/>
+      <c r="AT43" s="119"/>
+      <c r="AU43" s="119"/>
+      <c r="AV43" s="119"/>
+      <c r="AW43" s="119"/>
+      <c r="AX43" s="119"/>
+      <c r="AY43" s="119"/>
+      <c r="AZ43" s="119"/>
+      <c r="BA43" s="119"/>
+      <c r="BB43" s="119"/>
+      <c r="BC43" s="119"/>
+      <c r="BD43" s="119"/>
+      <c r="BE43" s="119"/>
+      <c r="BF43" s="119"/>
+      <c r="BG43" s="119"/>
+      <c r="BH43" s="119"/>
+      <c r="BI43" s="119"/>
+      <c r="BJ43" s="119"/>
+      <c r="BK43" s="119"/>
+      <c r="BL43" s="119"/>
+      <c r="BM43" s="119"/>
+      <c r="BN43" s="119"/>
+      <c r="BO43" s="119"/>
+      <c r="BP43" s="119"/>
+      <c r="BQ43" s="119"/>
+      <c r="BR43" s="119"/>
+      <c r="BS43" s="119"/>
+      <c r="BT43" s="119"/>
+      <c r="BU43" s="119"/>
+      <c r="BV43" s="119"/>
+      <c r="BW43" s="119"/>
+      <c r="BX43" s="119"/>
+      <c r="BY43" s="119"/>
+      <c r="BZ43" s="119"/>
+      <c r="CA43" s="119"/>
+      <c r="CB43" s="119"/>
+      <c r="CC43" s="119"/>
+      <c r="CD43" s="119"/>
+      <c r="CE43" s="119"/>
+      <c r="CF43" s="119"/>
+      <c r="CG43" s="119"/>
+      <c r="CH43" s="119"/>
+      <c r="CI43" s="119"/>
+    </row>
+    <row r="44" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A44" s="122" t="s">
         <v>224</v>
       </c>
-      <c r="B44" s="83">
-        <v>0</v>
-      </c>
-      <c r="C44" s="84">
-        <v>0</v>
-      </c>
-      <c r="D44" s="83">
-        <v>0</v>
-      </c>
-      <c r="E44" s="68">
+      <c r="B44" s="122">
+        <v>0</v>
+      </c>
+      <c r="C44" s="123">
+        <v>0</v>
+      </c>
+      <c r="D44" s="122">
+        <v>0</v>
+      </c>
+      <c r="E44" s="124">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F44" s="84" t="e">
+      <c r="F44" s="123" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="68"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="79" t="s">
+      <c r="G44" s="122"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="122"/>
+      <c r="N44" s="123"/>
+      <c r="O44" s="122"/>
+      <c r="P44" s="123"/>
+      <c r="Q44" s="122"/>
+      <c r="R44" s="124"/>
+      <c r="S44" s="122"/>
+      <c r="T44" s="123"/>
+      <c r="U44" s="122"/>
+      <c r="V44" s="123"/>
+      <c r="W44" s="122"/>
+      <c r="X44" s="123"/>
+      <c r="Y44" s="122"/>
+      <c r="Z44" s="123"/>
+      <c r="AA44" s="122"/>
+      <c r="AB44" s="123"/>
+      <c r="AC44" s="122"/>
+      <c r="AD44" s="124"/>
+      <c r="AE44" s="124"/>
+      <c r="AF44" s="124"/>
+      <c r="AG44" s="124"/>
+      <c r="AH44" s="124"/>
+      <c r="AI44" s="124"/>
+      <c r="AJ44" s="124"/>
+      <c r="AK44" s="124"/>
+      <c r="AL44" s="124"/>
+      <c r="AM44" s="124"/>
+      <c r="AN44" s="124"/>
+      <c r="AO44" s="124"/>
+      <c r="AP44" s="124"/>
+      <c r="AQ44" s="124"/>
+      <c r="AR44" s="124"/>
+      <c r="AS44" s="124"/>
+      <c r="AT44" s="124"/>
+      <c r="AU44" s="124"/>
+      <c r="AV44" s="124"/>
+      <c r="AW44" s="124"/>
+      <c r="AX44" s="124"/>
+      <c r="AY44" s="124"/>
+      <c r="AZ44" s="124"/>
+      <c r="BA44" s="124"/>
+      <c r="BB44" s="124"/>
+      <c r="BC44" s="124"/>
+      <c r="BD44" s="124"/>
+      <c r="BE44" s="124"/>
+      <c r="BF44" s="124"/>
+      <c r="BG44" s="124"/>
+      <c r="BH44" s="124"/>
+      <c r="BI44" s="124"/>
+      <c r="BJ44" s="124"/>
+      <c r="BK44" s="124"/>
+      <c r="BL44" s="124"/>
+      <c r="BM44" s="124"/>
+      <c r="BN44" s="124"/>
+      <c r="BO44" s="124"/>
+      <c r="BP44" s="124"/>
+      <c r="BQ44" s="124"/>
+      <c r="BR44" s="124"/>
+      <c r="BS44" s="124"/>
+      <c r="BT44" s="124"/>
+      <c r="BU44" s="124"/>
+      <c r="BV44" s="124"/>
+      <c r="BW44" s="124"/>
+      <c r="BX44" s="124"/>
+      <c r="BY44" s="124"/>
+      <c r="BZ44" s="124"/>
+      <c r="CA44" s="124"/>
+      <c r="CB44" s="124"/>
+      <c r="CC44" s="124"/>
+      <c r="CD44" s="124"/>
+      <c r="CE44" s="124"/>
+      <c r="CF44" s="124"/>
+      <c r="CG44" s="124"/>
+      <c r="CH44" s="124"/>
+      <c r="CI44" s="124"/>
+    </row>
+    <row r="45" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A45" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="B45" s="83">
-        <v>0</v>
-      </c>
-      <c r="C45" s="84">
-        <v>0</v>
-      </c>
-      <c r="D45" s="83">
-        <v>0</v>
-      </c>
-      <c r="E45" s="68">
+      <c r="B45" s="117">
+        <v>0</v>
+      </c>
+      <c r="C45" s="118">
+        <v>0</v>
+      </c>
+      <c r="D45" s="117">
+        <v>0</v>
+      </c>
+      <c r="E45" s="119">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F45" s="84" t="e">
+      <c r="F45" s="118" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q45" s="68"/>
-      <c r="R45" s="68"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="118"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="118"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="118"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="119"/>
+      <c r="S45" s="117"/>
+      <c r="T45" s="118"/>
+      <c r="U45" s="117"/>
+      <c r="V45" s="118"/>
+      <c r="W45" s="117"/>
+      <c r="X45" s="118"/>
+      <c r="Y45" s="117"/>
+      <c r="Z45" s="118"/>
+      <c r="AA45" s="117"/>
+      <c r="AB45" s="118"/>
+      <c r="AC45" s="117"/>
+      <c r="AD45" s="119"/>
+      <c r="AE45" s="119"/>
+      <c r="AF45" s="119"/>
+      <c r="AG45" s="119"/>
+      <c r="AH45" s="119"/>
+      <c r="AI45" s="119"/>
+      <c r="AJ45" s="119"/>
+      <c r="AK45" s="119"/>
+      <c r="AL45" s="119"/>
+      <c r="AM45" s="119"/>
+      <c r="AN45" s="119"/>
+      <c r="AO45" s="119"/>
+      <c r="AP45" s="119"/>
+      <c r="AQ45" s="119"/>
+      <c r="AR45" s="119"/>
+      <c r="AS45" s="119"/>
+      <c r="AT45" s="119"/>
+      <c r="AU45" s="119"/>
+      <c r="AV45" s="119"/>
+      <c r="AW45" s="119"/>
+      <c r="AX45" s="119"/>
+      <c r="AY45" s="119"/>
+      <c r="AZ45" s="119"/>
+      <c r="BA45" s="119"/>
+      <c r="BB45" s="119"/>
+      <c r="BC45" s="119"/>
+      <c r="BD45" s="119"/>
+      <c r="BE45" s="119"/>
+      <c r="BF45" s="119"/>
+      <c r="BG45" s="119"/>
+      <c r="BH45" s="119"/>
+      <c r="BI45" s="119"/>
+      <c r="BJ45" s="119"/>
+      <c r="BK45" s="119"/>
+      <c r="BL45" s="119"/>
+      <c r="BM45" s="119"/>
+      <c r="BN45" s="119"/>
+      <c r="BO45" s="119"/>
+      <c r="BP45" s="119"/>
+      <c r="BQ45" s="119"/>
+      <c r="BR45" s="119"/>
+      <c r="BS45" s="119"/>
+      <c r="BT45" s="119"/>
+      <c r="BU45" s="119"/>
+      <c r="BV45" s="119"/>
+      <c r="BW45" s="119"/>
+      <c r="BX45" s="119"/>
+      <c r="BY45" s="119"/>
+      <c r="BZ45" s="119"/>
+      <c r="CA45" s="119"/>
+      <c r="CB45" s="119"/>
+      <c r="CC45" s="119"/>
+      <c r="CD45" s="119"/>
+      <c r="CE45" s="119"/>
+      <c r="CF45" s="119"/>
+      <c r="CG45" s="119"/>
+      <c r="CH45" s="119"/>
+      <c r="CI45" s="119"/>
+    </row>
+    <row r="46" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A46" s="122"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="123"/>
+      <c r="M46" s="122"/>
+      <c r="N46" s="123"/>
+      <c r="O46" s="122"/>
+      <c r="P46" s="123"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="123"/>
+      <c r="S46" s="122"/>
+      <c r="T46" s="123"/>
+      <c r="U46" s="122"/>
+      <c r="V46" s="123"/>
+      <c r="W46" s="122"/>
+      <c r="X46" s="123"/>
+      <c r="Y46" s="122"/>
+      <c r="Z46" s="123"/>
+      <c r="AA46" s="122"/>
+      <c r="AB46" s="123"/>
+      <c r="AC46" s="122"/>
+      <c r="AD46" s="124"/>
+      <c r="AE46" s="124"/>
+      <c r="AF46" s="124"/>
+      <c r="AG46" s="124"/>
+      <c r="AH46" s="124"/>
+      <c r="AI46" s="124"/>
+      <c r="AJ46" s="124"/>
+      <c r="AK46" s="124"/>
+      <c r="AL46" s="124"/>
+      <c r="AM46" s="124"/>
+      <c r="AN46" s="124"/>
+      <c r="AO46" s="124"/>
+      <c r="AP46" s="124"/>
+      <c r="AQ46" s="124"/>
+      <c r="AR46" s="124"/>
+      <c r="AS46" s="124"/>
+      <c r="AT46" s="124"/>
+      <c r="AU46" s="124"/>
+      <c r="AV46" s="124"/>
+      <c r="AW46" s="124"/>
+      <c r="AX46" s="124"/>
+      <c r="AY46" s="124"/>
+      <c r="AZ46" s="124"/>
+      <c r="BA46" s="124"/>
+      <c r="BB46" s="124"/>
+      <c r="BC46" s="124"/>
+      <c r="BD46" s="124"/>
+      <c r="BE46" s="124"/>
+      <c r="BF46" s="124"/>
+      <c r="BG46" s="124"/>
+      <c r="BH46" s="124"/>
+      <c r="BI46" s="124"/>
+      <c r="BJ46" s="124"/>
+      <c r="BK46" s="124"/>
+      <c r="BL46" s="124"/>
+      <c r="BM46" s="124"/>
+      <c r="BN46" s="124"/>
+      <c r="BO46" s="124"/>
+      <c r="BP46" s="124"/>
+      <c r="BQ46" s="124"/>
+      <c r="BR46" s="124"/>
+      <c r="BS46" s="124"/>
+      <c r="BT46" s="124"/>
+      <c r="BU46" s="124"/>
+      <c r="BV46" s="124"/>
+      <c r="BW46" s="124"/>
+      <c r="BX46" s="124"/>
+      <c r="BY46" s="124"/>
+      <c r="BZ46" s="124"/>
+      <c r="CA46" s="124"/>
+      <c r="CB46" s="124"/>
+      <c r="CC46" s="124"/>
+      <c r="CD46" s="124"/>
+      <c r="CE46" s="124"/>
+      <c r="CF46" s="124"/>
+      <c r="CG46" s="124"/>
+      <c r="CH46" s="124"/>
+      <c r="CI46" s="124"/>
+    </row>
+    <row r="47" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A47" s="117"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="117"/>
+      <c r="N47" s="118"/>
+      <c r="O47" s="117"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="117"/>
+      <c r="R47" s="118"/>
+      <c r="S47" s="117"/>
+      <c r="T47" s="118"/>
+      <c r="U47" s="117"/>
+      <c r="V47" s="118"/>
+      <c r="W47" s="117"/>
+      <c r="X47" s="118"/>
+      <c r="Y47" s="117"/>
+      <c r="Z47" s="118"/>
+      <c r="AA47" s="117"/>
+      <c r="AB47" s="118"/>
+      <c r="AC47" s="117"/>
+      <c r="AD47" s="119"/>
+      <c r="AE47" s="119"/>
+      <c r="AF47" s="119"/>
+      <c r="AG47" s="119"/>
+      <c r="AH47" s="119"/>
+      <c r="AI47" s="119"/>
+      <c r="AJ47" s="119"/>
+      <c r="AK47" s="119"/>
+      <c r="AL47" s="119"/>
+      <c r="AM47" s="119"/>
+      <c r="AN47" s="119"/>
+      <c r="AO47" s="119"/>
+      <c r="AP47" s="119"/>
+      <c r="AQ47" s="119"/>
+      <c r="AR47" s="119"/>
+      <c r="AS47" s="119"/>
+      <c r="AT47" s="119"/>
+      <c r="AU47" s="119"/>
+      <c r="AV47" s="119"/>
+      <c r="AW47" s="119"/>
+      <c r="AX47" s="119"/>
+      <c r="AY47" s="119"/>
+      <c r="AZ47" s="119"/>
+      <c r="BA47" s="119"/>
+      <c r="BB47" s="119"/>
+      <c r="BC47" s="119"/>
+      <c r="BD47" s="119"/>
+      <c r="BE47" s="119"/>
+      <c r="BF47" s="119"/>
+      <c r="BG47" s="119"/>
+      <c r="BH47" s="119"/>
+      <c r="BI47" s="119"/>
+      <c r="BJ47" s="119"/>
+      <c r="BK47" s="119"/>
+      <c r="BL47" s="119"/>
+      <c r="BM47" s="119"/>
+      <c r="BN47" s="119"/>
+      <c r="BO47" s="119"/>
+      <c r="BP47" s="119"/>
+      <c r="BQ47" s="119"/>
+      <c r="BR47" s="119"/>
+      <c r="BS47" s="119"/>
+      <c r="BT47" s="119"/>
+      <c r="BU47" s="119"/>
+      <c r="BV47" s="119"/>
+      <c r="BW47" s="119"/>
+      <c r="BX47" s="119"/>
+      <c r="BY47" s="119"/>
+      <c r="BZ47" s="119"/>
+      <c r="CA47" s="119"/>
+      <c r="CB47" s="119"/>
+      <c r="CC47" s="119"/>
+      <c r="CD47" s="119"/>
+      <c r="CE47" s="119"/>
+      <c r="CF47" s="119"/>
+      <c r="CG47" s="119"/>
+      <c r="CH47" s="119"/>
+      <c r="CI47" s="119"/>
+    </row>
+    <row r="48" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A48" s="122"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="122"/>
+      <c r="L48" s="123"/>
+      <c r="M48" s="122"/>
+      <c r="N48" s="123"/>
+      <c r="O48" s="122"/>
+      <c r="P48" s="123"/>
+      <c r="Q48" s="122"/>
+      <c r="R48" s="123"/>
+      <c r="S48" s="122"/>
+      <c r="T48" s="123"/>
+      <c r="U48" s="122"/>
+      <c r="V48" s="123"/>
+      <c r="W48" s="122"/>
+      <c r="X48" s="123"/>
+      <c r="Y48" s="122"/>
+      <c r="Z48" s="123"/>
+      <c r="AA48" s="122"/>
+      <c r="AB48" s="123"/>
+      <c r="AC48" s="122"/>
+      <c r="AD48" s="124"/>
+      <c r="AE48" s="124"/>
+      <c r="AF48" s="124"/>
+      <c r="AG48" s="124"/>
+      <c r="AH48" s="124"/>
+      <c r="AI48" s="124"/>
+      <c r="AJ48" s="124"/>
+      <c r="AK48" s="124"/>
+      <c r="AL48" s="124"/>
+      <c r="AM48" s="124"/>
+      <c r="AN48" s="124"/>
+      <c r="AO48" s="124"/>
+      <c r="AP48" s="124"/>
+      <c r="AQ48" s="124"/>
+      <c r="AR48" s="124"/>
+      <c r="AS48" s="124"/>
+      <c r="AT48" s="124"/>
+      <c r="AU48" s="124"/>
+      <c r="AV48" s="124"/>
+      <c r="AW48" s="124"/>
+      <c r="AX48" s="124"/>
+      <c r="AY48" s="124"/>
+      <c r="AZ48" s="124"/>
+      <c r="BA48" s="124"/>
+      <c r="BB48" s="124"/>
+      <c r="BC48" s="124"/>
+      <c r="BD48" s="124"/>
+      <c r="BE48" s="124"/>
+      <c r="BF48" s="124"/>
+      <c r="BG48" s="124"/>
+      <c r="BH48" s="124"/>
+      <c r="BI48" s="124"/>
+      <c r="BJ48" s="124"/>
+      <c r="BK48" s="124"/>
+      <c r="BL48" s="124"/>
+      <c r="BM48" s="124"/>
+      <c r="BN48" s="124"/>
+      <c r="BO48" s="124"/>
+      <c r="BP48" s="124"/>
+      <c r="BQ48" s="124"/>
+      <c r="BR48" s="124"/>
+      <c r="BS48" s="124"/>
+      <c r="BT48" s="124"/>
+      <c r="BU48" s="124"/>
+      <c r="BV48" s="124"/>
+      <c r="BW48" s="124"/>
+      <c r="BX48" s="124"/>
+      <c r="BY48" s="124"/>
+      <c r="BZ48" s="124"/>
+      <c r="CA48" s="124"/>
+      <c r="CB48" s="124"/>
+      <c r="CC48" s="124"/>
+      <c r="CD48" s="124"/>
+      <c r="CE48" s="124"/>
+      <c r="CF48" s="124"/>
+      <c r="CG48" s="124"/>
+      <c r="CH48" s="124"/>
+      <c r="CI48" s="124"/>
+    </row>
+    <row r="49" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A49" s="117"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="118"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="117"/>
+      <c r="N49" s="118"/>
+      <c r="O49" s="117"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="117"/>
+      <c r="R49" s="118"/>
+      <c r="S49" s="117"/>
+      <c r="T49" s="118"/>
+      <c r="U49" s="117"/>
+      <c r="V49" s="118"/>
+      <c r="W49" s="117"/>
+      <c r="X49" s="118"/>
+      <c r="Y49" s="117"/>
+      <c r="Z49" s="118"/>
+      <c r="AA49" s="117"/>
+      <c r="AB49" s="118"/>
+      <c r="AC49" s="117"/>
+      <c r="AD49" s="119"/>
+      <c r="AE49" s="119"/>
+      <c r="AF49" s="119"/>
+      <c r="AG49" s="119"/>
+      <c r="AH49" s="119"/>
+      <c r="AI49" s="119"/>
+      <c r="AJ49" s="119"/>
+      <c r="AK49" s="119"/>
+      <c r="AL49" s="119"/>
+      <c r="AM49" s="119"/>
+      <c r="AN49" s="119"/>
+      <c r="AO49" s="119"/>
+      <c r="AP49" s="119"/>
+      <c r="AQ49" s="119"/>
+      <c r="AR49" s="119"/>
+      <c r="AS49" s="119"/>
+      <c r="AT49" s="119"/>
+      <c r="AU49" s="119"/>
+      <c r="AV49" s="119"/>
+      <c r="AW49" s="119"/>
+      <c r="AX49" s="119"/>
+      <c r="AY49" s="119"/>
+      <c r="AZ49" s="119"/>
+      <c r="BA49" s="119"/>
+      <c r="BB49" s="119"/>
+      <c r="BC49" s="119"/>
+      <c r="BD49" s="119"/>
+      <c r="BE49" s="119"/>
+      <c r="BF49" s="119"/>
+      <c r="BG49" s="119"/>
+      <c r="BH49" s="119"/>
+      <c r="BI49" s="119"/>
+      <c r="BJ49" s="119"/>
+      <c r="BK49" s="119"/>
+      <c r="BL49" s="119"/>
+      <c r="BM49" s="119"/>
+      <c r="BN49" s="119"/>
+      <c r="BO49" s="119"/>
+      <c r="BP49" s="119"/>
+      <c r="BQ49" s="119"/>
+      <c r="BR49" s="119"/>
+      <c r="BS49" s="119"/>
+      <c r="BT49" s="119"/>
+      <c r="BU49" s="119"/>
+      <c r="BV49" s="119"/>
+      <c r="BW49" s="119"/>
+      <c r="BX49" s="119"/>
+      <c r="BY49" s="119"/>
+      <c r="BZ49" s="119"/>
+      <c r="CA49" s="119"/>
+      <c r="CB49" s="119"/>
+      <c r="CC49" s="119"/>
+      <c r="CD49" s="119"/>
+      <c r="CE49" s="119"/>
+      <c r="CF49" s="119"/>
+      <c r="CG49" s="119"/>
+      <c r="CH49" s="119"/>
+      <c r="CI49" s="119"/>
+    </row>
+    <row r="50" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A50" s="122"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="123"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="123"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="123"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="123"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="123"/>
+      <c r="S50" s="122"/>
+      <c r="T50" s="123"/>
+      <c r="U50" s="122"/>
+      <c r="V50" s="123"/>
+      <c r="W50" s="122"/>
+      <c r="X50" s="123"/>
+      <c r="Y50" s="122"/>
+      <c r="Z50" s="123"/>
+      <c r="AA50" s="122"/>
+      <c r="AB50" s="123"/>
+      <c r="AC50" s="122"/>
+      <c r="AD50" s="124"/>
+      <c r="AE50" s="124"/>
+      <c r="AF50" s="124"/>
+      <c r="AG50" s="124"/>
+      <c r="AH50" s="124"/>
+      <c r="AI50" s="124"/>
+      <c r="AJ50" s="124"/>
+      <c r="AK50" s="124"/>
+      <c r="AL50" s="124"/>
+      <c r="AM50" s="124"/>
+      <c r="AN50" s="124"/>
+      <c r="AO50" s="124"/>
+      <c r="AP50" s="124"/>
+      <c r="AQ50" s="124"/>
+      <c r="AR50" s="124"/>
+      <c r="AS50" s="124"/>
+      <c r="AT50" s="124"/>
+      <c r="AU50" s="124"/>
+      <c r="AV50" s="124"/>
+      <c r="AW50" s="124"/>
+      <c r="AX50" s="124"/>
+      <c r="AY50" s="124"/>
+      <c r="AZ50" s="124"/>
+      <c r="BA50" s="124"/>
+      <c r="BB50" s="124"/>
+      <c r="BC50" s="124"/>
+      <c r="BD50" s="124"/>
+      <c r="BE50" s="124"/>
+      <c r="BF50" s="124"/>
+      <c r="BG50" s="124"/>
+      <c r="BH50" s="124"/>
+      <c r="BI50" s="124"/>
+      <c r="BJ50" s="124"/>
+      <c r="BK50" s="124"/>
+      <c r="BL50" s="124"/>
+      <c r="BM50" s="124"/>
+      <c r="BN50" s="124"/>
+      <c r="BO50" s="124"/>
+      <c r="BP50" s="124"/>
+      <c r="BQ50" s="124"/>
+      <c r="BR50" s="124"/>
+      <c r="BS50" s="124"/>
+      <c r="BT50" s="124"/>
+      <c r="BU50" s="124"/>
+      <c r="BV50" s="124"/>
+      <c r="BW50" s="124"/>
+      <c r="BX50" s="124"/>
+      <c r="BY50" s="124"/>
+      <c r="BZ50" s="124"/>
+      <c r="CA50" s="124"/>
+      <c r="CB50" s="124"/>
+      <c r="CC50" s="124"/>
+      <c r="CD50" s="124"/>
+      <c r="CE50" s="124"/>
+      <c r="CF50" s="124"/>
+      <c r="CG50" s="124"/>
+      <c r="CH50" s="124"/>
+      <c r="CI50" s="124"/>
+    </row>
+    <row r="51" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A51" s="117"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="118"/>
+      <c r="K51" s="117"/>
+      <c r="L51" s="118"/>
+      <c r="M51" s="117"/>
+      <c r="N51" s="118"/>
+      <c r="O51" s="117"/>
+      <c r="P51" s="118"/>
+      <c r="Q51" s="117"/>
+      <c r="R51" s="118"/>
+      <c r="S51" s="117"/>
+      <c r="T51" s="118"/>
+      <c r="U51" s="117"/>
+      <c r="V51" s="118"/>
+      <c r="W51" s="117"/>
+      <c r="X51" s="118"/>
+      <c r="Y51" s="117"/>
+      <c r="Z51" s="118"/>
+      <c r="AA51" s="117"/>
+      <c r="AB51" s="118"/>
+      <c r="AC51" s="117"/>
+      <c r="AD51" s="119"/>
+      <c r="AE51" s="119"/>
+      <c r="AF51" s="119"/>
+      <c r="AG51" s="119"/>
+      <c r="AH51" s="119"/>
+      <c r="AI51" s="119"/>
+      <c r="AJ51" s="119"/>
+      <c r="AK51" s="119"/>
+      <c r="AL51" s="119"/>
+      <c r="AM51" s="119"/>
+      <c r="AN51" s="119"/>
+      <c r="AO51" s="119"/>
+      <c r="AP51" s="119"/>
+      <c r="AQ51" s="119"/>
+      <c r="AR51" s="119"/>
+      <c r="AS51" s="119"/>
+      <c r="AT51" s="119"/>
+      <c r="AU51" s="119"/>
+      <c r="AV51" s="119"/>
+      <c r="AW51" s="119"/>
+      <c r="AX51" s="119"/>
+      <c r="AY51" s="119"/>
+      <c r="AZ51" s="119"/>
+      <c r="BA51" s="119"/>
+      <c r="BB51" s="119"/>
+      <c r="BC51" s="119"/>
+      <c r="BD51" s="119"/>
+      <c r="BE51" s="119"/>
+      <c r="BF51" s="119"/>
+      <c r="BG51" s="119"/>
+      <c r="BH51" s="119"/>
+      <c r="BI51" s="119"/>
+      <c r="BJ51" s="119"/>
+      <c r="BK51" s="119"/>
+      <c r="BL51" s="119"/>
+      <c r="BM51" s="119"/>
+      <c r="BN51" s="119"/>
+      <c r="BO51" s="119"/>
+      <c r="BP51" s="119"/>
+      <c r="BQ51" s="119"/>
+      <c r="BR51" s="119"/>
+      <c r="BS51" s="119"/>
+      <c r="BT51" s="119"/>
+      <c r="BU51" s="119"/>
+      <c r="BV51" s="119"/>
+      <c r="BW51" s="119"/>
+      <c r="BX51" s="119"/>
+      <c r="BY51" s="119"/>
+      <c r="BZ51" s="119"/>
+      <c r="CA51" s="119"/>
+      <c r="CB51" s="119"/>
+      <c r="CC51" s="119"/>
+      <c r="CD51" s="119"/>
+      <c r="CE51" s="119"/>
+      <c r="CF51" s="119"/>
+      <c r="CG51" s="119"/>
+      <c r="CH51" s="119"/>
+      <c r="CI51" s="119"/>
+    </row>
+    <row r="52" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="129"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="130"/>
+      <c r="K52" s="129"/>
+      <c r="L52" s="130"/>
+      <c r="M52" s="129"/>
+      <c r="N52" s="130"/>
+      <c r="O52" s="129"/>
+      <c r="P52" s="130"/>
+      <c r="Q52" s="129"/>
+      <c r="R52" s="130"/>
+      <c r="S52" s="129"/>
+      <c r="T52" s="130"/>
+      <c r="U52" s="129"/>
+      <c r="V52" s="130"/>
+      <c r="W52" s="129"/>
+      <c r="X52" s="130"/>
+      <c r="Y52" s="129"/>
+      <c r="Z52" s="130"/>
+      <c r="AA52" s="129"/>
+      <c r="AB52" s="130"/>
+      <c r="AC52" s="129"/>
+      <c r="AD52" s="130"/>
+      <c r="AE52" s="130"/>
+      <c r="AF52" s="130"/>
+      <c r="AG52" s="130"/>
+      <c r="AH52" s="130"/>
+      <c r="AI52" s="130"/>
+      <c r="AJ52" s="130"/>
+      <c r="AK52" s="130"/>
+      <c r="AL52" s="130"/>
+      <c r="AM52" s="130"/>
+      <c r="AN52" s="130"/>
+      <c r="AO52" s="130"/>
+      <c r="AP52" s="130"/>
+      <c r="AQ52" s="130"/>
+      <c r="AR52" s="130"/>
+      <c r="AS52" s="130"/>
+      <c r="AT52" s="130"/>
+      <c r="AU52" s="130"/>
+      <c r="AV52" s="130"/>
+      <c r="AW52" s="130"/>
+      <c r="AX52" s="130"/>
+      <c r="AY52" s="130"/>
+      <c r="AZ52" s="130"/>
+      <c r="BA52" s="130"/>
+      <c r="BB52" s="130"/>
+      <c r="BC52" s="130"/>
+      <c r="BD52" s="130"/>
+      <c r="BE52" s="130"/>
+      <c r="BF52" s="130"/>
+      <c r="BG52" s="130"/>
+      <c r="BH52" s="130"/>
+      <c r="BI52" s="130"/>
+      <c r="BJ52" s="130"/>
+      <c r="BK52" s="130"/>
+      <c r="BL52" s="130"/>
+      <c r="BM52" s="130"/>
+      <c r="BN52" s="130"/>
+      <c r="BO52" s="130"/>
+      <c r="BP52" s="130"/>
+      <c r="BQ52" s="130"/>
+      <c r="BR52" s="130"/>
+      <c r="BS52" s="130"/>
+      <c r="BT52" s="130"/>
+      <c r="BU52" s="130"/>
+      <c r="BV52" s="130"/>
+      <c r="BW52" s="130"/>
+      <c r="BX52" s="130"/>
+      <c r="BY52" s="130"/>
+      <c r="BZ52" s="130"/>
+      <c r="CA52" s="130"/>
+      <c r="CB52" s="130"/>
+      <c r="CC52" s="130"/>
+      <c r="CD52" s="130"/>
+      <c r="CE52" s="130"/>
+      <c r="CF52" s="130"/>
+      <c r="CG52" s="130"/>
+      <c r="CH52" s="130"/>
+      <c r="CI52" s="130"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CL1" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\clashMacacos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A31132A-970D-43D7-A6B4-079DCC82117E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB12B87-E09E-4F54-8D10-EA25D217D26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWL 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">wars!$A$1:$CL$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -887,7 +886,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1014,26 +1013,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color theme="1"/>
       </top>
@@ -1053,7 +1032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1371,72 +1350,42 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1775,7 +1724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -3803,41 +3752,41 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="61"/>
-      <c r="C1" s="107">
-        <v>1</v>
-      </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="107">
-        <v>2</v>
-      </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="107">
-        <v>3</v>
-      </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="107">
+      <c r="C1" s="117">
+        <v>1</v>
+      </c>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="117">
+        <v>2</v>
+      </c>
+      <c r="G1" s="118"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="117">
+        <v>3</v>
+      </c>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="117">
         <v>4</v>
       </c>
-      <c r="M1" s="108"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="107">
+      <c r="M1" s="118"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="117">
         <v>5</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="107">
+      <c r="P1" s="118"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="117">
         <v>6</v>
       </c>
-      <c r="S1" s="108"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="107">
+      <c r="S1" s="118"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="117">
         <v>7</v>
       </c>
-      <c r="V1" s="108"/>
-      <c r="W1" s="109"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="119"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -6011,41 +5960,41 @@
     <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39"/>
       <c r="B1" s="61"/>
-      <c r="C1" s="107">
-        <v>1</v>
-      </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="107">
-        <v>2</v>
-      </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="107">
-        <v>3</v>
-      </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="107">
+      <c r="C1" s="117">
+        <v>1</v>
+      </c>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="117">
+        <v>2</v>
+      </c>
+      <c r="G1" s="118"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="117">
+        <v>3</v>
+      </c>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="117">
         <v>4</v>
       </c>
-      <c r="M1" s="108"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="107">
+      <c r="M1" s="118"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="117">
         <v>5</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="107">
+      <c r="P1" s="118"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="117">
         <v>6</v>
       </c>
-      <c r="S1" s="108"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="107">
+      <c r="S1" s="118"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="117">
         <v>7</v>
       </c>
-      <c r="V1" s="108"/>
-      <c r="W1" s="109"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="119"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -9074,16 +9023,16 @@
       <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="109"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9739,10 +9688,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:CI52"/>
+  <dimension ref="A1:CI45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9781,5866 +9730,3773 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="111" t="s">
+      <c r="I1" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="111" t="s">
+      <c r="K1" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="112" t="s">
+      <c r="L1" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="111" t="s">
+      <c r="M1" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="N1" s="112" t="s">
+      <c r="N1" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="111" t="s">
+      <c r="O1" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="112" t="s">
+      <c r="P1" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="111" t="s">
+      <c r="Q1" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="R1" s="112" t="s">
+      <c r="R1" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="T1" s="112" t="s">
+      <c r="T1" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="U1" s="111" t="s">
+      <c r="U1" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="V1" s="112" t="s">
+      <c r="V1" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="W1" s="111" t="s">
+      <c r="W1" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="X1" s="112" t="s">
+      <c r="X1" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="Y1" s="111" t="s">
+      <c r="Y1" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="Z1" s="112" t="s">
+      <c r="Z1" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="AA1" s="111" t="s">
+      <c r="AA1" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="AB1" s="112" t="s">
+      <c r="AB1" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="AC1" s="113" t="s">
+      <c r="AC1" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="AD1" s="114" t="s">
+      <c r="AD1" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="AE1" s="114" t="s">
+      <c r="AE1" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="AF1" s="114" t="s">
+      <c r="AF1" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="AG1" s="114" t="s">
+      <c r="AG1" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="AH1" s="114" t="s">
+      <c r="AH1" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="AI1" s="114" t="s">
+      <c r="AI1" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="AJ1" s="114" t="s">
+      <c r="AJ1" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="AK1" s="114" t="s">
+      <c r="AK1" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="AL1" s="114" t="s">
+      <c r="AL1" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="AM1" s="114" t="s">
+      <c r="AM1" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="AN1" s="114" t="s">
+      <c r="AN1" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="AO1" s="114" t="s">
+      <c r="AO1" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="AP1" s="114" t="s">
+      <c r="AP1" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="AQ1" s="114" t="s">
+      <c r="AQ1" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="AR1" s="114" t="s">
+      <c r="AR1" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="AS1" s="114" t="s">
+      <c r="AS1" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="AT1" s="114" t="s">
+      <c r="AT1" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="AU1" s="114" t="s">
+      <c r="AU1" s="110" t="s">
         <v>172</v>
       </c>
-      <c r="AV1" s="114" t="s">
+      <c r="AV1" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="AW1" s="114" t="s">
+      <c r="AW1" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="AX1" s="114" t="s">
+      <c r="AX1" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="AY1" s="114" t="s">
+      <c r="AY1" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="AZ1" s="114" t="s">
+      <c r="AZ1" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="BA1" s="114" t="s">
+      <c r="BA1" s="110" t="s">
         <v>178</v>
       </c>
-      <c r="BB1" s="114" t="s">
+      <c r="BB1" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="BC1" s="114" t="s">
+      <c r="BC1" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="BD1" s="114" t="s">
+      <c r="BD1" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="BE1" s="114" t="s">
+      <c r="BE1" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="BF1" s="114" t="s">
+      <c r="BF1" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="BG1" s="114" t="s">
+      <c r="BG1" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="BH1" s="114" t="s">
+      <c r="BH1" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="BI1" s="114" t="s">
+      <c r="BI1" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="BJ1" s="114" t="s">
+      <c r="BJ1" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="BK1" s="114" t="s">
+      <c r="BK1" s="110" t="s">
         <v>188</v>
       </c>
-      <c r="BL1" s="114" t="s">
+      <c r="BL1" s="110" t="s">
         <v>189</v>
       </c>
-      <c r="BM1" s="114" t="s">
+      <c r="BM1" s="110" t="s">
         <v>190</v>
       </c>
-      <c r="BN1" s="114" t="s">
+      <c r="BN1" s="110" t="s">
         <v>191</v>
       </c>
-      <c r="BO1" s="114" t="s">
+      <c r="BO1" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="BP1" s="114" t="s">
+      <c r="BP1" s="110" t="s">
         <v>193</v>
       </c>
-      <c r="BQ1" s="114" t="s">
+      <c r="BQ1" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="BR1" s="114" t="s">
+      <c r="BR1" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="BS1" s="114" t="s">
+      <c r="BS1" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="BT1" s="114" t="s">
+      <c r="BT1" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="BU1" s="114" t="s">
+      <c r="BU1" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="BV1" s="114" t="s">
+      <c r="BV1" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="BW1" s="114" t="s">
+      <c r="BW1" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="BX1" s="114" t="s">
+      <c r="BX1" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="BY1" s="114" t="s">
+      <c r="BY1" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="BZ1" s="114" t="s">
+      <c r="BZ1" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="CA1" s="114" t="s">
+      <c r="CA1" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="CB1" s="114" t="s">
+      <c r="CB1" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="CC1" s="114" t="s">
+      <c r="CC1" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="CD1" s="114" t="s">
+      <c r="CD1" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="CE1" s="114" t="s">
+      <c r="CE1" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="CF1" s="114" t="s">
+      <c r="CF1" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="CG1" s="114" t="s">
+      <c r="CG1" s="110" t="s">
         <v>210</v>
       </c>
-      <c r="CH1" s="114" t="s">
+      <c r="CH1" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="CI1" s="114" t="s">
+      <c r="CI1" s="110" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="115">
-        <v>3</v>
-      </c>
-      <c r="C2" s="116">
-        <v>1</v>
-      </c>
-      <c r="D2" s="115">
-        <v>3</v>
-      </c>
-      <c r="E2" s="116">
+      <c r="B2" s="111">
+        <v>3</v>
+      </c>
+      <c r="C2" s="112">
+        <v>1</v>
+      </c>
+      <c r="D2" s="111">
+        <v>3</v>
+      </c>
+      <c r="E2" s="112">
         <f t="shared" ref="E2:E45" si="0">SUM(G2:V2)</f>
         <v>4</v>
       </c>
-      <c r="F2" s="116">
+      <c r="F2" s="112">
         <f t="shared" ref="F2:F45" si="1">ROUND(AVERAGE(G2:V2),1)</f>
         <v>1.3</v>
       </c>
-      <c r="G2" s="115"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="115">
-        <v>2</v>
-      </c>
-      <c r="J2" s="116" t="s">
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="111">
+        <v>2</v>
+      </c>
+      <c r="J2" s="112" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="115"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="115" t="s">
+      <c r="K2" s="111"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="P2" s="116" t="s">
+      <c r="P2" s="112" t="s">
         <v>213</v>
       </c>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="115">
-        <v>1</v>
-      </c>
-      <c r="T2" s="116">
-        <v>1</v>
-      </c>
-      <c r="U2" s="115"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="116"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="116"/>
-      <c r="AN2" s="116"/>
-      <c r="AO2" s="116"/>
-      <c r="AP2" s="116"/>
-      <c r="AQ2" s="116"/>
-      <c r="AR2" s="116"/>
-      <c r="AS2" s="116"/>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="116"/>
-      <c r="AV2" s="116"/>
-      <c r="AW2" s="116"/>
-      <c r="AX2" s="116"/>
-      <c r="AY2" s="116"/>
-      <c r="AZ2" s="116"/>
-      <c r="BA2" s="116"/>
-      <c r="BB2" s="116"/>
-      <c r="BC2" s="116"/>
-      <c r="BD2" s="116"/>
-      <c r="BE2" s="116"/>
-      <c r="BF2" s="116"/>
-      <c r="BG2" s="116"/>
-      <c r="BH2" s="116"/>
-      <c r="BI2" s="116"/>
-      <c r="BJ2" s="116"/>
-      <c r="BK2" s="116"/>
-      <c r="BL2" s="116"/>
-      <c r="BM2" s="116"/>
-      <c r="BN2" s="116"/>
-      <c r="BO2" s="116"/>
-      <c r="BP2" s="116"/>
-      <c r="BQ2" s="116"/>
-      <c r="BR2" s="116"/>
-      <c r="BS2" s="116"/>
-      <c r="BT2" s="116"/>
-      <c r="BU2" s="116"/>
-      <c r="BV2" s="116"/>
-      <c r="BW2" s="116"/>
-      <c r="BX2" s="116"/>
-      <c r="BY2" s="116"/>
-      <c r="BZ2" s="116"/>
-      <c r="CA2" s="116"/>
-      <c r="CB2" s="116"/>
-      <c r="CC2" s="116"/>
-      <c r="CD2" s="116"/>
-      <c r="CE2" s="116"/>
-      <c r="CF2" s="116"/>
-      <c r="CG2" s="116"/>
-      <c r="CH2" s="116"/>
-      <c r="CI2" s="116"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="111">
+        <v>1</v>
+      </c>
+      <c r="T2" s="112">
+        <v>1</v>
+      </c>
+      <c r="U2" s="111"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="112"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="112"/>
+      <c r="AQ2" s="112"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="112"/>
+      <c r="AT2" s="112"/>
+      <c r="AU2" s="112"/>
+      <c r="AV2" s="112"/>
+      <c r="AW2" s="112"/>
+      <c r="AX2" s="112"/>
+      <c r="AY2" s="112"/>
+      <c r="AZ2" s="112"/>
+      <c r="BA2" s="112"/>
+      <c r="BB2" s="112"/>
+      <c r="BC2" s="112"/>
+      <c r="BD2" s="112"/>
+      <c r="BE2" s="112"/>
+      <c r="BF2" s="112"/>
+      <c r="BG2" s="112"/>
+      <c r="BH2" s="112"/>
+      <c r="BI2" s="112"/>
+      <c r="BJ2" s="112"/>
+      <c r="BK2" s="112"/>
+      <c r="BL2" s="112"/>
+      <c r="BM2" s="112"/>
+      <c r="BN2" s="112"/>
+      <c r="BO2" s="112"/>
+      <c r="BP2" s="112"/>
+      <c r="BQ2" s="112"/>
+      <c r="BR2" s="112"/>
+      <c r="BS2" s="112"/>
+      <c r="BT2" s="112"/>
+      <c r="BU2" s="112"/>
+      <c r="BV2" s="112"/>
+      <c r="BW2" s="112"/>
+      <c r="BX2" s="112"/>
+      <c r="BY2" s="112"/>
+      <c r="BZ2" s="112"/>
+      <c r="CA2" s="112"/>
+      <c r="CB2" s="112"/>
+      <c r="CC2" s="112"/>
+      <c r="CD2" s="112"/>
+      <c r="CE2" s="112"/>
+      <c r="CF2" s="112"/>
+      <c r="CG2" s="112"/>
+      <c r="CH2" s="112"/>
+      <c r="CI2" s="112"/>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="117">
-        <v>1</v>
-      </c>
-      <c r="C3" s="118">
-        <v>0</v>
-      </c>
-      <c r="D3" s="117">
-        <v>2</v>
-      </c>
-      <c r="E3" s="119">
+      <c r="B3" s="79">
+        <v>1</v>
+      </c>
+      <c r="C3" s="68">
+        <v>0</v>
+      </c>
+      <c r="D3" s="79">
+        <v>2</v>
+      </c>
+      <c r="E3" s="68">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F3" s="118">
+      <c r="F3" s="68">
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="117">
-        <v>2</v>
-      </c>
-      <c r="T3" s="118">
-        <v>3</v>
-      </c>
-      <c r="U3" s="120">
-        <v>2</v>
-      </c>
-      <c r="V3" s="121" t="s">
+      <c r="H3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="79">
+        <v>2</v>
+      </c>
+      <c r="T3" s="68">
+        <v>3</v>
+      </c>
+      <c r="U3" s="5">
+        <v>2</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="W3" s="117"/>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="119"/>
-      <c r="AJ3" s="119"/>
-      <c r="AK3" s="119"/>
-      <c r="AL3" s="119"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
-      <c r="AO3" s="119"/>
-      <c r="AP3" s="119"/>
-      <c r="AQ3" s="119"/>
-      <c r="AR3" s="119"/>
-      <c r="AS3" s="119"/>
-      <c r="AT3" s="119"/>
-      <c r="AU3" s="119"/>
-      <c r="AV3" s="119"/>
-      <c r="AW3" s="119"/>
-      <c r="AX3" s="119"/>
-      <c r="AY3" s="119"/>
-      <c r="AZ3" s="119"/>
-      <c r="BA3" s="119"/>
-      <c r="BB3" s="119"/>
-      <c r="BC3" s="119"/>
-      <c r="BD3" s="119"/>
-      <c r="BE3" s="119"/>
-      <c r="BF3" s="119"/>
-      <c r="BG3" s="119"/>
-      <c r="BH3" s="119"/>
-      <c r="BI3" s="119"/>
-      <c r="BJ3" s="119"/>
-      <c r="BK3" s="119"/>
-      <c r="BL3" s="119"/>
-      <c r="BM3" s="119"/>
-      <c r="BN3" s="119"/>
-      <c r="BO3" s="119"/>
-      <c r="BP3" s="119"/>
-      <c r="BQ3" s="119"/>
-      <c r="BR3" s="119"/>
-      <c r="BS3" s="119"/>
-      <c r="BT3" s="119"/>
-      <c r="BU3" s="119"/>
-      <c r="BV3" s="119"/>
-      <c r="BW3" s="119"/>
-      <c r="BX3" s="119"/>
-      <c r="BY3" s="119"/>
-      <c r="BZ3" s="119"/>
-      <c r="CA3" s="119"/>
-      <c r="CB3" s="119"/>
-      <c r="CC3" s="119"/>
-      <c r="CD3" s="119"/>
-      <c r="CE3" s="119"/>
-      <c r="CF3" s="119"/>
-      <c r="CG3" s="119"/>
-      <c r="CH3" s="119"/>
-      <c r="CI3" s="119"/>
+      <c r="X3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="79"/>
     </row>
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="122">
-        <v>0</v>
-      </c>
-      <c r="C4" s="123">
-        <v>0</v>
-      </c>
-      <c r="D4" s="122">
+      <c r="B4" s="113">
+        <v>0</v>
+      </c>
+      <c r="C4" s="114">
+        <v>0</v>
+      </c>
+      <c r="D4" s="113">
         <v>7</v>
       </c>
-      <c r="E4" s="124">
+      <c r="E4" s="114">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F4" s="123">
+      <c r="F4" s="114">
         <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
-      <c r="G4" s="122">
-        <v>3</v>
-      </c>
-      <c r="H4" s="123">
-        <v>3</v>
-      </c>
-      <c r="I4" s="122">
-        <v>3</v>
-      </c>
-      <c r="J4" s="123">
-        <v>2</v>
-      </c>
-      <c r="K4" s="122">
-        <v>2</v>
-      </c>
-      <c r="L4" s="124">
-        <v>3</v>
-      </c>
-      <c r="M4" s="122"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="122">
-        <v>3</v>
-      </c>
-      <c r="P4" s="123">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="125">
-        <v>3</v>
-      </c>
-      <c r="R4" s="126">
-        <v>2</v>
-      </c>
-      <c r="S4" s="122">
-        <v>2</v>
-      </c>
-      <c r="T4" s="123">
-        <v>2</v>
-      </c>
-      <c r="U4" s="125">
-        <v>3</v>
-      </c>
-      <c r="V4" s="126">
-        <v>3</v>
-      </c>
-      <c r="W4" s="122"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="124"/>
-      <c r="AO4" s="124"/>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="124"/>
-      <c r="AR4" s="124"/>
-      <c r="AS4" s="124"/>
-      <c r="AT4" s="124"/>
-      <c r="AU4" s="124"/>
-      <c r="AV4" s="124"/>
-      <c r="AW4" s="124"/>
-      <c r="AX4" s="124"/>
-      <c r="AY4" s="124"/>
-      <c r="AZ4" s="124"/>
-      <c r="BA4" s="124"/>
-      <c r="BB4" s="124"/>
-      <c r="BC4" s="124"/>
-      <c r="BD4" s="124"/>
-      <c r="BE4" s="124"/>
-      <c r="BF4" s="124"/>
-      <c r="BG4" s="124"/>
-      <c r="BH4" s="124"/>
-      <c r="BI4" s="124"/>
-      <c r="BJ4" s="124"/>
-      <c r="BK4" s="124"/>
-      <c r="BL4" s="124"/>
-      <c r="BM4" s="124"/>
-      <c r="BN4" s="124"/>
-      <c r="BO4" s="124"/>
-      <c r="BP4" s="124"/>
-      <c r="BQ4" s="124"/>
-      <c r="BR4" s="124"/>
-      <c r="BS4" s="124"/>
-      <c r="BT4" s="124"/>
-      <c r="BU4" s="124"/>
-      <c r="BV4" s="124"/>
-      <c r="BW4" s="124"/>
-      <c r="BX4" s="124"/>
-      <c r="BY4" s="124"/>
-      <c r="BZ4" s="124"/>
-      <c r="CA4" s="124"/>
-      <c r="CB4" s="124"/>
-      <c r="CC4" s="124"/>
-      <c r="CD4" s="124"/>
-      <c r="CE4" s="124"/>
-      <c r="CF4" s="124"/>
-      <c r="CG4" s="124"/>
-      <c r="CH4" s="124"/>
-      <c r="CI4" s="124"/>
+      <c r="G4" s="113">
+        <v>3</v>
+      </c>
+      <c r="H4" s="114">
+        <v>3</v>
+      </c>
+      <c r="I4" s="113">
+        <v>3</v>
+      </c>
+      <c r="J4" s="114">
+        <v>2</v>
+      </c>
+      <c r="K4" s="113">
+        <v>2</v>
+      </c>
+      <c r="L4" s="114">
+        <v>3</v>
+      </c>
+      <c r="M4" s="113"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="113">
+        <v>3</v>
+      </c>
+      <c r="P4" s="114">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="115">
+        <v>3</v>
+      </c>
+      <c r="R4" s="116">
+        <v>2</v>
+      </c>
+      <c r="S4" s="113">
+        <v>2</v>
+      </c>
+      <c r="T4" s="114">
+        <v>2</v>
+      </c>
+      <c r="U4" s="115">
+        <v>3</v>
+      </c>
+      <c r="V4" s="116">
+        <v>3</v>
+      </c>
+      <c r="W4" s="113"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="113"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="114"/>
+      <c r="AN4" s="114"/>
+      <c r="AO4" s="114"/>
+      <c r="AP4" s="114"/>
+      <c r="AQ4" s="114"/>
+      <c r="AR4" s="114"/>
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="114"/>
+      <c r="AU4" s="114"/>
+      <c r="AV4" s="114"/>
+      <c r="AW4" s="114"/>
+      <c r="AX4" s="114"/>
+      <c r="AY4" s="114"/>
+      <c r="AZ4" s="114"/>
+      <c r="BA4" s="114"/>
+      <c r="BB4" s="114"/>
+      <c r="BC4" s="114"/>
+      <c r="BD4" s="114"/>
+      <c r="BE4" s="114"/>
+      <c r="BF4" s="114"/>
+      <c r="BG4" s="114"/>
+      <c r="BH4" s="114"/>
+      <c r="BI4" s="114"/>
+      <c r="BJ4" s="114"/>
+      <c r="BK4" s="114"/>
+      <c r="BL4" s="114"/>
+      <c r="BM4" s="114"/>
+      <c r="BN4" s="114"/>
+      <c r="BO4" s="114"/>
+      <c r="BP4" s="114"/>
+      <c r="BQ4" s="114"/>
+      <c r="BR4" s="114"/>
+      <c r="BS4" s="114"/>
+      <c r="BT4" s="114"/>
+      <c r="BU4" s="114"/>
+      <c r="BV4" s="114"/>
+      <c r="BW4" s="114"/>
+      <c r="BX4" s="114"/>
+      <c r="BY4" s="114"/>
+      <c r="BZ4" s="114"/>
+      <c r="CA4" s="114"/>
+      <c r="CB4" s="114"/>
+      <c r="CC4" s="114"/>
+      <c r="CD4" s="114"/>
+      <c r="CE4" s="114"/>
+      <c r="CF4" s="114"/>
+      <c r="CG4" s="114"/>
+      <c r="CH4" s="114"/>
+      <c r="CI4" s="114"/>
     </row>
     <row r="5" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="117">
-        <v>0</v>
-      </c>
-      <c r="C5" s="118">
-        <v>0</v>
-      </c>
-      <c r="D5" s="117">
-        <v>1</v>
-      </c>
-      <c r="E5" s="119">
+      <c r="B5" s="79">
+        <v>0</v>
+      </c>
+      <c r="C5" s="68">
+        <v>0</v>
+      </c>
+      <c r="D5" s="79">
+        <v>1</v>
+      </c>
+      <c r="E5" s="68">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F5" s="118">
+      <c r="F5" s="68">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="117">
-        <v>2</v>
-      </c>
-      <c r="T5" s="118">
-        <v>3</v>
-      </c>
-      <c r="U5" s="117"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="117"/>
-      <c r="AB5" s="118"/>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="119"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="119"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="119"/>
-      <c r="AM5" s="119"/>
-      <c r="AN5" s="119"/>
-      <c r="AO5" s="119"/>
-      <c r="AP5" s="119"/>
-      <c r="AQ5" s="119"/>
-      <c r="AR5" s="119"/>
-      <c r="AS5" s="119"/>
-      <c r="AT5" s="119"/>
-      <c r="AU5" s="119"/>
-      <c r="AV5" s="119"/>
-      <c r="AW5" s="119"/>
-      <c r="AX5" s="119"/>
-      <c r="AY5" s="119"/>
-      <c r="AZ5" s="119"/>
-      <c r="BA5" s="119"/>
-      <c r="BB5" s="119"/>
-      <c r="BC5" s="119"/>
-      <c r="BD5" s="119"/>
-      <c r="BE5" s="119"/>
-      <c r="BF5" s="119"/>
-      <c r="BG5" s="119"/>
-      <c r="BH5" s="119"/>
-      <c r="BI5" s="119"/>
-      <c r="BJ5" s="119"/>
-      <c r="BK5" s="119"/>
-      <c r="BL5" s="119"/>
-      <c r="BM5" s="119"/>
-      <c r="BN5" s="119"/>
-      <c r="BO5" s="119"/>
-      <c r="BP5" s="119"/>
-      <c r="BQ5" s="119"/>
-      <c r="BR5" s="119"/>
-      <c r="BS5" s="119"/>
-      <c r="BT5" s="119"/>
-      <c r="BU5" s="119"/>
-      <c r="BV5" s="119"/>
-      <c r="BW5" s="119"/>
-      <c r="BX5" s="119"/>
-      <c r="BY5" s="119"/>
-      <c r="BZ5" s="119"/>
-      <c r="CA5" s="119"/>
-      <c r="CB5" s="119"/>
-      <c r="CC5" s="119"/>
-      <c r="CD5" s="119"/>
-      <c r="CE5" s="119"/>
-      <c r="CF5" s="119"/>
-      <c r="CG5" s="119"/>
-      <c r="CH5" s="119"/>
-      <c r="CI5" s="119"/>
+      <c r="H5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="79">
+        <v>2</v>
+      </c>
+      <c r="T5" s="68">
+        <v>3</v>
+      </c>
+      <c r="V5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="79"/>
     </row>
     <row r="6" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="122">
-        <v>2</v>
-      </c>
-      <c r="C6" s="123">
-        <v>0</v>
-      </c>
-      <c r="D6" s="122">
+      <c r="B6" s="113">
+        <v>2</v>
+      </c>
+      <c r="C6" s="114">
+        <v>0</v>
+      </c>
+      <c r="D6" s="113">
         <v>4</v>
       </c>
-      <c r="E6" s="124">
+      <c r="E6" s="114">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F6" s="123">
+      <c r="F6" s="114">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="G6" s="122">
-        <v>3</v>
-      </c>
-      <c r="H6" s="123">
-        <v>1</v>
-      </c>
-      <c r="I6" s="122">
-        <v>3</v>
-      </c>
-      <c r="J6" s="123">
-        <v>3</v>
-      </c>
-      <c r="K6" s="122"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="122">
-        <v>3</v>
-      </c>
-      <c r="P6" s="123" t="s">
+      <c r="G6" s="113">
+        <v>3</v>
+      </c>
+      <c r="H6" s="114">
+        <v>1</v>
+      </c>
+      <c r="I6" s="113">
+        <v>3</v>
+      </c>
+      <c r="J6" s="114">
+        <v>3</v>
+      </c>
+      <c r="K6" s="113"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="113">
+        <v>3</v>
+      </c>
+      <c r="P6" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="122">
-        <v>2</v>
-      </c>
-      <c r="T6" s="123" t="s">
+      <c r="Q6" s="113"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="113">
+        <v>2</v>
+      </c>
+      <c r="T6" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="U6" s="122"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="123"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AF6" s="124"/>
-      <c r="AG6" s="124"/>
-      <c r="AH6" s="124"/>
-      <c r="AI6" s="124"/>
-      <c r="AJ6" s="124"/>
-      <c r="AK6" s="124"/>
-      <c r="AL6" s="124"/>
-      <c r="AM6" s="124"/>
-      <c r="AN6" s="124"/>
-      <c r="AO6" s="124"/>
-      <c r="AP6" s="124"/>
-      <c r="AQ6" s="124"/>
-      <c r="AR6" s="124"/>
-      <c r="AS6" s="124"/>
-      <c r="AT6" s="124"/>
-      <c r="AU6" s="124"/>
-      <c r="AV6" s="124"/>
-      <c r="AW6" s="124"/>
-      <c r="AX6" s="124"/>
-      <c r="AY6" s="124"/>
-      <c r="AZ6" s="124"/>
-      <c r="BA6" s="124"/>
-      <c r="BB6" s="124"/>
-      <c r="BC6" s="124"/>
-      <c r="BD6" s="124"/>
-      <c r="BE6" s="124"/>
-      <c r="BF6" s="124"/>
-      <c r="BG6" s="124"/>
-      <c r="BH6" s="124"/>
-      <c r="BI6" s="124"/>
-      <c r="BJ6" s="124"/>
-      <c r="BK6" s="124"/>
-      <c r="BL6" s="124"/>
-      <c r="BM6" s="124"/>
-      <c r="BN6" s="124"/>
-      <c r="BO6" s="124"/>
-      <c r="BP6" s="124"/>
-      <c r="BQ6" s="124"/>
-      <c r="BR6" s="124"/>
-      <c r="BS6" s="124"/>
-      <c r="BT6" s="124"/>
-      <c r="BU6" s="124"/>
-      <c r="BV6" s="124"/>
-      <c r="BW6" s="124"/>
-      <c r="BX6" s="124"/>
-      <c r="BY6" s="124"/>
-      <c r="BZ6" s="124"/>
-      <c r="CA6" s="124"/>
-      <c r="CB6" s="124"/>
-      <c r="CC6" s="124"/>
-      <c r="CD6" s="124"/>
-      <c r="CE6" s="124"/>
-      <c r="CF6" s="124"/>
-      <c r="CG6" s="124"/>
-      <c r="CH6" s="124"/>
-      <c r="CI6" s="124"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="114"/>
+      <c r="AE6" s="114"/>
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="114"/>
+      <c r="AI6" s="114"/>
+      <c r="AJ6" s="114"/>
+      <c r="AK6" s="114"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114"/>
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114"/>
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114"/>
+      <c r="AZ6" s="114"/>
+      <c r="BA6" s="114"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114"/>
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="114"/>
+      <c r="BJ6" s="114"/>
+      <c r="BK6" s="114"/>
+      <c r="BL6" s="114"/>
+      <c r="BM6" s="114"/>
+      <c r="BN6" s="114"/>
+      <c r="BO6" s="114"/>
+      <c r="BP6" s="114"/>
+      <c r="BQ6" s="114"/>
+      <c r="BR6" s="114"/>
+      <c r="BS6" s="114"/>
+      <c r="BT6" s="114"/>
+      <c r="BU6" s="114"/>
+      <c r="BV6" s="114"/>
+      <c r="BW6" s="114"/>
+      <c r="BX6" s="114"/>
+      <c r="BY6" s="114"/>
+      <c r="BZ6" s="114"/>
+      <c r="CA6" s="114"/>
+      <c r="CB6" s="114"/>
+      <c r="CC6" s="114"/>
+      <c r="CD6" s="114"/>
+      <c r="CE6" s="114"/>
+      <c r="CF6" s="114"/>
+      <c r="CG6" s="114"/>
+      <c r="CH6" s="114"/>
+      <c r="CI6" s="114"/>
     </row>
     <row r="7" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="117">
-        <v>2</v>
-      </c>
-      <c r="C7" s="118">
-        <v>1</v>
-      </c>
-      <c r="D7" s="117">
+      <c r="B7" s="79">
+        <v>2</v>
+      </c>
+      <c r="C7" s="68">
+        <v>1</v>
+      </c>
+      <c r="D7" s="79">
         <v>6</v>
       </c>
-      <c r="E7" s="119">
+      <c r="E7" s="68">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F7" s="118">
+      <c r="F7" s="68">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="G7" s="117">
-        <v>2</v>
-      </c>
-      <c r="H7" s="118">
-        <v>3</v>
-      </c>
-      <c r="I7" s="117">
-        <v>2</v>
-      </c>
-      <c r="J7" s="118">
-        <v>3</v>
-      </c>
-      <c r="K7" s="117" t="s">
+      <c r="G7" s="79">
+        <v>2</v>
+      </c>
+      <c r="H7" s="68">
+        <v>3</v>
+      </c>
+      <c r="I7" s="79">
+        <v>2</v>
+      </c>
+      <c r="J7" s="68">
+        <v>3</v>
+      </c>
+      <c r="K7" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="L7" s="119" t="s">
+      <c r="L7" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="M7" s="117"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="117">
-        <v>3</v>
-      </c>
-      <c r="P7" s="118">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="120">
-        <v>3</v>
-      </c>
-      <c r="R7" s="121">
-        <v>3</v>
-      </c>
-      <c r="S7" s="117">
-        <v>2</v>
-      </c>
-      <c r="T7" s="118">
-        <v>2</v>
-      </c>
-      <c r="U7" s="117"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="118"/>
-      <c r="AA7" s="117"/>
-      <c r="AB7" s="118"/>
-      <c r="AC7" s="117"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="119"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="119"/>
-      <c r="AO7" s="119"/>
-      <c r="AP7" s="119"/>
-      <c r="AQ7" s="119"/>
-      <c r="AR7" s="119"/>
-      <c r="AS7" s="119"/>
-      <c r="AT7" s="119"/>
-      <c r="AU7" s="119"/>
-      <c r="AV7" s="119"/>
-      <c r="AW7" s="119"/>
-      <c r="AX7" s="119"/>
-      <c r="AY7" s="119"/>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="119"/>
-      <c r="BB7" s="119"/>
-      <c r="BC7" s="119"/>
-      <c r="BD7" s="119"/>
-      <c r="BE7" s="119"/>
-      <c r="BF7" s="119"/>
-      <c r="BG7" s="119"/>
-      <c r="BH7" s="119"/>
-      <c r="BI7" s="119"/>
-      <c r="BJ7" s="119"/>
-      <c r="BK7" s="119"/>
-      <c r="BL7" s="119"/>
-      <c r="BM7" s="119"/>
-      <c r="BN7" s="119"/>
-      <c r="BO7" s="119"/>
-      <c r="BP7" s="119"/>
-      <c r="BQ7" s="119"/>
-      <c r="BR7" s="119"/>
-      <c r="BS7" s="119"/>
-      <c r="BT7" s="119"/>
-      <c r="BU7" s="119"/>
-      <c r="BV7" s="119"/>
-      <c r="BW7" s="119"/>
-      <c r="BX7" s="119"/>
-      <c r="BY7" s="119"/>
-      <c r="BZ7" s="119"/>
-      <c r="CA7" s="119"/>
-      <c r="CB7" s="119"/>
-      <c r="CC7" s="119"/>
-      <c r="CD7" s="119"/>
-      <c r="CE7" s="119"/>
-      <c r="CF7" s="119"/>
-      <c r="CG7" s="119"/>
-      <c r="CH7" s="119"/>
-      <c r="CI7" s="119"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="79">
+        <v>3</v>
+      </c>
+      <c r="P7" s="68">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>3</v>
+      </c>
+      <c r="R7" s="4">
+        <v>3</v>
+      </c>
+      <c r="S7" s="79">
+        <v>2</v>
+      </c>
+      <c r="T7" s="68">
+        <v>2</v>
+      </c>
+      <c r="V7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="79"/>
     </row>
     <row r="8" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="122">
-        <v>0</v>
-      </c>
-      <c r="C8" s="123">
-        <v>0</v>
-      </c>
-      <c r="D8" s="122">
+      <c r="B8" s="113">
+        <v>0</v>
+      </c>
+      <c r="C8" s="114">
+        <v>0</v>
+      </c>
+      <c r="D8" s="113">
         <v>8</v>
       </c>
-      <c r="E8" s="124">
+      <c r="E8" s="114">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F8" s="123">
+      <c r="F8" s="114">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="G8" s="122">
-        <v>3</v>
-      </c>
-      <c r="H8" s="123">
-        <v>3</v>
-      </c>
-      <c r="I8" s="122">
-        <v>2</v>
-      </c>
-      <c r="J8" s="123">
-        <v>3</v>
-      </c>
-      <c r="K8" s="122">
-        <v>3</v>
-      </c>
-      <c r="L8" s="123">
-        <v>3</v>
-      </c>
-      <c r="M8" s="122">
-        <v>2</v>
-      </c>
-      <c r="N8" s="123">
-        <v>2</v>
-      </c>
-      <c r="O8" s="122">
-        <v>3</v>
-      </c>
-      <c r="P8" s="123">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="125">
-        <v>3</v>
-      </c>
-      <c r="R8" s="127">
-        <v>3</v>
-      </c>
-      <c r="S8" s="122">
-        <v>3</v>
-      </c>
-      <c r="T8" s="123">
-        <v>3</v>
-      </c>
-      <c r="U8" s="125">
-        <v>3</v>
-      </c>
-      <c r="V8" s="126">
-        <v>3</v>
-      </c>
-      <c r="W8" s="122"/>
-      <c r="X8" s="123"/>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="123"/>
-      <c r="AA8" s="122"/>
-      <c r="AB8" s="123"/>
-      <c r="AC8" s="122"/>
-      <c r="AD8" s="124"/>
-      <c r="AE8" s="124"/>
-      <c r="AF8" s="124"/>
-      <c r="AG8" s="124"/>
-      <c r="AH8" s="124"/>
-      <c r="AI8" s="124"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
-      <c r="AL8" s="124"/>
-      <c r="AM8" s="124"/>
-      <c r="AN8" s="124"/>
-      <c r="AO8" s="124"/>
-      <c r="AP8" s="124"/>
-      <c r="AQ8" s="124"/>
-      <c r="AR8" s="124"/>
-      <c r="AS8" s="124"/>
-      <c r="AT8" s="124"/>
-      <c r="AU8" s="124"/>
-      <c r="AV8" s="124"/>
-      <c r="AW8" s="124"/>
-      <c r="AX8" s="124"/>
-      <c r="AY8" s="124"/>
-      <c r="AZ8" s="124"/>
-      <c r="BA8" s="124"/>
-      <c r="BB8" s="124"/>
-      <c r="BC8" s="124"/>
-      <c r="BD8" s="124"/>
-      <c r="BE8" s="124"/>
-      <c r="BF8" s="124"/>
-      <c r="BG8" s="124"/>
-      <c r="BH8" s="124"/>
-      <c r="BI8" s="124"/>
-      <c r="BJ8" s="124"/>
-      <c r="BK8" s="124"/>
-      <c r="BL8" s="124"/>
-      <c r="BM8" s="124"/>
-      <c r="BN8" s="124"/>
-      <c r="BO8" s="124"/>
-      <c r="BP8" s="124"/>
-      <c r="BQ8" s="124"/>
-      <c r="BR8" s="124"/>
-      <c r="BS8" s="124"/>
-      <c r="BT8" s="124"/>
-      <c r="BU8" s="124"/>
-      <c r="BV8" s="124"/>
-      <c r="BW8" s="124"/>
-      <c r="BX8" s="124"/>
-      <c r="BY8" s="124"/>
-      <c r="BZ8" s="124"/>
-      <c r="CA8" s="124"/>
-      <c r="CB8" s="124"/>
-      <c r="CC8" s="124"/>
-      <c r="CD8" s="124"/>
-      <c r="CE8" s="124"/>
-      <c r="CF8" s="124"/>
-      <c r="CG8" s="124"/>
-      <c r="CH8" s="124"/>
-      <c r="CI8" s="124"/>
+      <c r="G8" s="113">
+        <v>3</v>
+      </c>
+      <c r="H8" s="114">
+        <v>3</v>
+      </c>
+      <c r="I8" s="113">
+        <v>2</v>
+      </c>
+      <c r="J8" s="114">
+        <v>3</v>
+      </c>
+      <c r="K8" s="113">
+        <v>3</v>
+      </c>
+      <c r="L8" s="114">
+        <v>3</v>
+      </c>
+      <c r="M8" s="113">
+        <v>2</v>
+      </c>
+      <c r="N8" s="114">
+        <v>2</v>
+      </c>
+      <c r="O8" s="113">
+        <v>3</v>
+      </c>
+      <c r="P8" s="114">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="115">
+        <v>3</v>
+      </c>
+      <c r="R8" s="116">
+        <v>3</v>
+      </c>
+      <c r="S8" s="113">
+        <v>3</v>
+      </c>
+      <c r="T8" s="114">
+        <v>3</v>
+      </c>
+      <c r="U8" s="115">
+        <v>3</v>
+      </c>
+      <c r="V8" s="116">
+        <v>3</v>
+      </c>
+      <c r="W8" s="113"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="114"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="114"/>
+      <c r="AE8" s="114"/>
+      <c r="AF8" s="114"/>
+      <c r="AG8" s="114"/>
+      <c r="AH8" s="114"/>
+      <c r="AI8" s="114"/>
+      <c r="AJ8" s="114"/>
+      <c r="AK8" s="114"/>
+      <c r="AL8" s="114"/>
+      <c r="AM8" s="114"/>
+      <c r="AN8" s="114"/>
+      <c r="AO8" s="114"/>
+      <c r="AP8" s="114"/>
+      <c r="AQ8" s="114"/>
+      <c r="AR8" s="114"/>
+      <c r="AS8" s="114"/>
+      <c r="AT8" s="114"/>
+      <c r="AU8" s="114"/>
+      <c r="AV8" s="114"/>
+      <c r="AW8" s="114"/>
+      <c r="AX8" s="114"/>
+      <c r="AY8" s="114"/>
+      <c r="AZ8" s="114"/>
+      <c r="BA8" s="114"/>
+      <c r="BB8" s="114"/>
+      <c r="BC8" s="114"/>
+      <c r="BD8" s="114"/>
+      <c r="BE8" s="114"/>
+      <c r="BF8" s="114"/>
+      <c r="BG8" s="114"/>
+      <c r="BH8" s="114"/>
+      <c r="BI8" s="114"/>
+      <c r="BJ8" s="114"/>
+      <c r="BK8" s="114"/>
+      <c r="BL8" s="114"/>
+      <c r="BM8" s="114"/>
+      <c r="BN8" s="114"/>
+      <c r="BO8" s="114"/>
+      <c r="BP8" s="114"/>
+      <c r="BQ8" s="114"/>
+      <c r="BR8" s="114"/>
+      <c r="BS8" s="114"/>
+      <c r="BT8" s="114"/>
+      <c r="BU8" s="114"/>
+      <c r="BV8" s="114"/>
+      <c r="BW8" s="114"/>
+      <c r="BX8" s="114"/>
+      <c r="BY8" s="114"/>
+      <c r="BZ8" s="114"/>
+      <c r="CA8" s="114"/>
+      <c r="CB8" s="114"/>
+      <c r="CC8" s="114"/>
+      <c r="CD8" s="114"/>
+      <c r="CE8" s="114"/>
+      <c r="CF8" s="114"/>
+      <c r="CG8" s="114"/>
+      <c r="CH8" s="114"/>
+      <c r="CI8" s="114"/>
     </row>
     <row r="9" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="117">
-        <v>2</v>
-      </c>
-      <c r="C9" s="118">
-        <v>1</v>
-      </c>
-      <c r="D9" s="117">
-        <v>2</v>
-      </c>
-      <c r="E9" s="119">
+      <c r="B9" s="79">
+        <v>2</v>
+      </c>
+      <c r="C9" s="68">
+        <v>1</v>
+      </c>
+      <c r="D9" s="79">
+        <v>2</v>
+      </c>
+      <c r="E9" s="68">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F9" s="118">
+      <c r="F9" s="68">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="117">
-        <v>3</v>
-      </c>
-      <c r="T9" s="118">
-        <v>3</v>
-      </c>
-      <c r="U9" s="120" t="s">
+      <c r="H9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="79">
+        <v>3</v>
+      </c>
+      <c r="T9" s="68">
+        <v>3</v>
+      </c>
+      <c r="U9" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="V9" s="121" t="s">
+      <c r="V9" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="W9" s="117"/>
-      <c r="X9" s="118"/>
-      <c r="Y9" s="117"/>
-      <c r="Z9" s="118"/>
-      <c r="AA9" s="117"/>
-      <c r="AB9" s="118"/>
-      <c r="AC9" s="117"/>
-      <c r="AD9" s="119"/>
-      <c r="AE9" s="119"/>
-      <c r="AF9" s="119"/>
-      <c r="AG9" s="119"/>
-      <c r="AH9" s="119"/>
-      <c r="AI9" s="119"/>
-      <c r="AJ9" s="119"/>
-      <c r="AK9" s="119"/>
-      <c r="AL9" s="119"/>
-      <c r="AM9" s="119"/>
-      <c r="AN9" s="119"/>
-      <c r="AO9" s="119"/>
-      <c r="AP9" s="119"/>
-      <c r="AQ9" s="119"/>
-      <c r="AR9" s="119"/>
-      <c r="AS9" s="119"/>
-      <c r="AT9" s="119"/>
-      <c r="AU9" s="119"/>
-      <c r="AV9" s="119"/>
-      <c r="AW9" s="119"/>
-      <c r="AX9" s="119"/>
-      <c r="AY9" s="119"/>
-      <c r="AZ9" s="119"/>
-      <c r="BA9" s="119"/>
-      <c r="BB9" s="119"/>
-      <c r="BC9" s="119"/>
-      <c r="BD9" s="119"/>
-      <c r="BE9" s="119"/>
-      <c r="BF9" s="119"/>
-      <c r="BG9" s="119"/>
-      <c r="BH9" s="119"/>
-      <c r="BI9" s="119"/>
-      <c r="BJ9" s="119"/>
-      <c r="BK9" s="119"/>
-      <c r="BL9" s="119"/>
-      <c r="BM9" s="119"/>
-      <c r="BN9" s="119"/>
-      <c r="BO9" s="119"/>
-      <c r="BP9" s="119"/>
-      <c r="BQ9" s="119"/>
-      <c r="BR9" s="119"/>
-      <c r="BS9" s="119"/>
-      <c r="BT9" s="119"/>
-      <c r="BU9" s="119"/>
-      <c r="BV9" s="119"/>
-      <c r="BW9" s="119"/>
-      <c r="BX9" s="119"/>
-      <c r="BY9" s="119"/>
-      <c r="BZ9" s="119"/>
-      <c r="CA9" s="119"/>
-      <c r="CB9" s="119"/>
-      <c r="CC9" s="119"/>
-      <c r="CD9" s="119"/>
-      <c r="CE9" s="119"/>
-      <c r="CF9" s="119"/>
-      <c r="CG9" s="119"/>
-      <c r="CH9" s="119"/>
-      <c r="CI9" s="119"/>
+      <c r="X9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="79"/>
     </row>
     <row r="10" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="122">
-        <v>0</v>
-      </c>
-      <c r="C10" s="123">
-        <v>0</v>
-      </c>
-      <c r="D10" s="122">
+      <c r="B10" s="113">
+        <v>0</v>
+      </c>
+      <c r="C10" s="114">
+        <v>0</v>
+      </c>
+      <c r="D10" s="113">
         <v>8</v>
       </c>
-      <c r="E10" s="124">
+      <c r="E10" s="114">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F10" s="123">
+      <c r="F10" s="114">
         <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
-      <c r="G10" s="122">
-        <v>1</v>
-      </c>
-      <c r="H10" s="123">
-        <v>3</v>
-      </c>
-      <c r="I10" s="122">
-        <v>3</v>
-      </c>
-      <c r="J10" s="123">
-        <v>3</v>
-      </c>
-      <c r="K10" s="122">
-        <v>1</v>
-      </c>
-      <c r="L10" s="124">
-        <v>3</v>
-      </c>
-      <c r="M10" s="122">
-        <v>2</v>
-      </c>
-      <c r="N10" s="123">
-        <v>3</v>
-      </c>
-      <c r="O10" s="122">
-        <v>1</v>
-      </c>
-      <c r="P10" s="123">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="125">
-        <v>3</v>
-      </c>
-      <c r="R10" s="127">
-        <v>3</v>
-      </c>
-      <c r="S10" s="122">
-        <v>3</v>
-      </c>
-      <c r="T10" s="123">
-        <v>3</v>
-      </c>
-      <c r="U10" s="125">
-        <v>3</v>
-      </c>
-      <c r="V10" s="126">
-        <v>3</v>
-      </c>
-      <c r="W10" s="122"/>
-      <c r="X10" s="123"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="122"/>
-      <c r="AB10" s="123"/>
-      <c r="AC10" s="122"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="124"/>
-      <c r="AF10" s="124"/>
-      <c r="AG10" s="124"/>
-      <c r="AH10" s="124"/>
-      <c r="AI10" s="124"/>
-      <c r="AJ10" s="124"/>
-      <c r="AK10" s="124"/>
-      <c r="AL10" s="124"/>
-      <c r="AM10" s="124"/>
-      <c r="AN10" s="124"/>
-      <c r="AO10" s="124"/>
-      <c r="AP10" s="124"/>
-      <c r="AQ10" s="124"/>
-      <c r="AR10" s="124"/>
-      <c r="AS10" s="124"/>
-      <c r="AT10" s="124"/>
-      <c r="AU10" s="124"/>
-      <c r="AV10" s="124"/>
-      <c r="AW10" s="124"/>
-      <c r="AX10" s="124"/>
-      <c r="AY10" s="124"/>
-      <c r="AZ10" s="124"/>
-      <c r="BA10" s="124"/>
-      <c r="BB10" s="124"/>
-      <c r="BC10" s="124"/>
-      <c r="BD10" s="124"/>
-      <c r="BE10" s="124"/>
-      <c r="BF10" s="124"/>
-      <c r="BG10" s="124"/>
-      <c r="BH10" s="124"/>
-      <c r="BI10" s="124"/>
-      <c r="BJ10" s="124"/>
-      <c r="BK10" s="124"/>
-      <c r="BL10" s="124"/>
-      <c r="BM10" s="124"/>
-      <c r="BN10" s="124"/>
-      <c r="BO10" s="124"/>
-      <c r="BP10" s="124"/>
-      <c r="BQ10" s="124"/>
-      <c r="BR10" s="124"/>
-      <c r="BS10" s="124"/>
-      <c r="BT10" s="124"/>
-      <c r="BU10" s="124"/>
-      <c r="BV10" s="124"/>
-      <c r="BW10" s="124"/>
-      <c r="BX10" s="124"/>
-      <c r="BY10" s="124"/>
-      <c r="BZ10" s="124"/>
-      <c r="CA10" s="124"/>
-      <c r="CB10" s="124"/>
-      <c r="CC10" s="124"/>
-      <c r="CD10" s="124"/>
-      <c r="CE10" s="124"/>
-      <c r="CF10" s="124"/>
-      <c r="CG10" s="124"/>
-      <c r="CH10" s="124"/>
-      <c r="CI10" s="124"/>
+      <c r="G10" s="113">
+        <v>1</v>
+      </c>
+      <c r="H10" s="114">
+        <v>3</v>
+      </c>
+      <c r="I10" s="113">
+        <v>3</v>
+      </c>
+      <c r="J10" s="114">
+        <v>3</v>
+      </c>
+      <c r="K10" s="113">
+        <v>1</v>
+      </c>
+      <c r="L10" s="114">
+        <v>3</v>
+      </c>
+      <c r="M10" s="113">
+        <v>2</v>
+      </c>
+      <c r="N10" s="114">
+        <v>3</v>
+      </c>
+      <c r="O10" s="113">
+        <v>1</v>
+      </c>
+      <c r="P10" s="114">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="115">
+        <v>3</v>
+      </c>
+      <c r="R10" s="116">
+        <v>3</v>
+      </c>
+      <c r="S10" s="113">
+        <v>3</v>
+      </c>
+      <c r="T10" s="114">
+        <v>3</v>
+      </c>
+      <c r="U10" s="115">
+        <v>3</v>
+      </c>
+      <c r="V10" s="116">
+        <v>3</v>
+      </c>
+      <c r="W10" s="113"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="114"/>
+      <c r="AK10" s="114"/>
+      <c r="AL10" s="114"/>
+      <c r="AM10" s="114"/>
+      <c r="AN10" s="114"/>
+      <c r="AO10" s="114"/>
+      <c r="AP10" s="114"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="114"/>
+      <c r="AS10" s="114"/>
+      <c r="AT10" s="114"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="114"/>
+      <c r="AW10" s="114"/>
+      <c r="AX10" s="114"/>
+      <c r="AY10" s="114"/>
+      <c r="AZ10" s="114"/>
+      <c r="BA10" s="114"/>
+      <c r="BB10" s="114"/>
+      <c r="BC10" s="114"/>
+      <c r="BD10" s="114"/>
+      <c r="BE10" s="114"/>
+      <c r="BF10" s="114"/>
+      <c r="BG10" s="114"/>
+      <c r="BH10" s="114"/>
+      <c r="BI10" s="114"/>
+      <c r="BJ10" s="114"/>
+      <c r="BK10" s="114"/>
+      <c r="BL10" s="114"/>
+      <c r="BM10" s="114"/>
+      <c r="BN10" s="114"/>
+      <c r="BO10" s="114"/>
+      <c r="BP10" s="114"/>
+      <c r="BQ10" s="114"/>
+      <c r="BR10" s="114"/>
+      <c r="BS10" s="114"/>
+      <c r="BT10" s="114"/>
+      <c r="BU10" s="114"/>
+      <c r="BV10" s="114"/>
+      <c r="BW10" s="114"/>
+      <c r="BX10" s="114"/>
+      <c r="BY10" s="114"/>
+      <c r="BZ10" s="114"/>
+      <c r="CA10" s="114"/>
+      <c r="CB10" s="114"/>
+      <c r="CC10" s="114"/>
+      <c r="CD10" s="114"/>
+      <c r="CE10" s="114"/>
+      <c r="CF10" s="114"/>
+      <c r="CG10" s="114"/>
+      <c r="CH10" s="114"/>
+      <c r="CI10" s="114"/>
     </row>
     <row r="11" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="117">
-        <v>0</v>
-      </c>
-      <c r="C11" s="118">
-        <v>0</v>
-      </c>
-      <c r="D11" s="117">
-        <v>1</v>
-      </c>
-      <c r="E11" s="119">
+      <c r="B11" s="79">
+        <v>0</v>
+      </c>
+      <c r="C11" s="68">
+        <v>0</v>
+      </c>
+      <c r="D11" s="79">
+        <v>1</v>
+      </c>
+      <c r="E11" s="68">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F11" s="118">
+      <c r="F11" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="117">
-        <v>2</v>
-      </c>
-      <c r="J11" s="118">
-        <v>1</v>
-      </c>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="117"/>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="119"/>
-      <c r="AF11" s="119"/>
-      <c r="AG11" s="119"/>
-      <c r="AH11" s="119"/>
-      <c r="AI11" s="119"/>
-      <c r="AJ11" s="119"/>
-      <c r="AK11" s="119"/>
-      <c r="AL11" s="119"/>
-      <c r="AM11" s="119"/>
-      <c r="AN11" s="119"/>
-      <c r="AO11" s="119"/>
-      <c r="AP11" s="119"/>
-      <c r="AQ11" s="119"/>
-      <c r="AR11" s="119"/>
-      <c r="AS11" s="119"/>
-      <c r="AT11" s="119"/>
-      <c r="AU11" s="119"/>
-      <c r="AV11" s="119"/>
-      <c r="AW11" s="119"/>
-      <c r="AX11" s="119"/>
-      <c r="AY11" s="119"/>
-      <c r="AZ11" s="119"/>
-      <c r="BA11" s="119"/>
-      <c r="BB11" s="119"/>
-      <c r="BC11" s="119"/>
-      <c r="BD11" s="119"/>
-      <c r="BE11" s="119"/>
-      <c r="BF11" s="119"/>
-      <c r="BG11" s="119"/>
-      <c r="BH11" s="119"/>
-      <c r="BI11" s="119"/>
-      <c r="BJ11" s="119"/>
-      <c r="BK11" s="119"/>
-      <c r="BL11" s="119"/>
-      <c r="BM11" s="119"/>
-      <c r="BN11" s="119"/>
-      <c r="BO11" s="119"/>
-      <c r="BP11" s="119"/>
-      <c r="BQ11" s="119"/>
-      <c r="BR11" s="119"/>
-      <c r="BS11" s="119"/>
-      <c r="BT11" s="119"/>
-      <c r="BU11" s="119"/>
-      <c r="BV11" s="119"/>
-      <c r="BW11" s="119"/>
-      <c r="BX11" s="119"/>
-      <c r="BY11" s="119"/>
-      <c r="BZ11" s="119"/>
-      <c r="CA11" s="119"/>
-      <c r="CB11" s="119"/>
-      <c r="CC11" s="119"/>
-      <c r="CD11" s="119"/>
-      <c r="CE11" s="119"/>
-      <c r="CF11" s="119"/>
-      <c r="CG11" s="119"/>
-      <c r="CH11" s="119"/>
-      <c r="CI11" s="119"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="79">
+        <v>2</v>
+      </c>
+      <c r="J11" s="68">
+        <v>1</v>
+      </c>
+      <c r="L11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="79"/>
     </row>
     <row r="12" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="122">
-        <v>0</v>
-      </c>
-      <c r="C12" s="123">
-        <v>0</v>
-      </c>
-      <c r="D12" s="122">
-        <v>0</v>
-      </c>
-      <c r="E12" s="124">
+      <c r="B12" s="113">
+        <v>0</v>
+      </c>
+      <c r="C12" s="114">
+        <v>0</v>
+      </c>
+      <c r="D12" s="113">
+        <v>0</v>
+      </c>
+      <c r="E12" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="123" t="e">
+      <c r="F12" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="122"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="124"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="123"/>
-      <c r="AA12" s="122"/>
-      <c r="AB12" s="123"/>
-      <c r="AC12" s="122"/>
-      <c r="AD12" s="124"/>
-      <c r="AE12" s="124"/>
-      <c r="AF12" s="124"/>
-      <c r="AG12" s="124"/>
-      <c r="AH12" s="124"/>
-      <c r="AI12" s="124"/>
-      <c r="AJ12" s="124"/>
-      <c r="AK12" s="124"/>
-      <c r="AL12" s="124"/>
-      <c r="AM12" s="124"/>
-      <c r="AN12" s="124"/>
-      <c r="AO12" s="124"/>
-      <c r="AP12" s="124"/>
-      <c r="AQ12" s="124"/>
-      <c r="AR12" s="124"/>
-      <c r="AS12" s="124"/>
-      <c r="AT12" s="124"/>
-      <c r="AU12" s="124"/>
-      <c r="AV12" s="124"/>
-      <c r="AW12" s="124"/>
-      <c r="AX12" s="124"/>
-      <c r="AY12" s="124"/>
-      <c r="AZ12" s="124"/>
-      <c r="BA12" s="124"/>
-      <c r="BB12" s="124"/>
-      <c r="BC12" s="124"/>
-      <c r="BD12" s="124"/>
-      <c r="BE12" s="124"/>
-      <c r="BF12" s="124"/>
-      <c r="BG12" s="124"/>
-      <c r="BH12" s="124"/>
-      <c r="BI12" s="124"/>
-      <c r="BJ12" s="124"/>
-      <c r="BK12" s="124"/>
-      <c r="BL12" s="124"/>
-      <c r="BM12" s="124"/>
-      <c r="BN12" s="124"/>
-      <c r="BO12" s="124"/>
-      <c r="BP12" s="124"/>
-      <c r="BQ12" s="124"/>
-      <c r="BR12" s="124"/>
-      <c r="BS12" s="124"/>
-      <c r="BT12" s="124"/>
-      <c r="BU12" s="124"/>
-      <c r="BV12" s="124"/>
-      <c r="BW12" s="124"/>
-      <c r="BX12" s="124"/>
-      <c r="BY12" s="124"/>
-      <c r="BZ12" s="124"/>
-      <c r="CA12" s="124"/>
-      <c r="CB12" s="124"/>
-      <c r="CC12" s="124"/>
-      <c r="CD12" s="124"/>
-      <c r="CE12" s="124"/>
-      <c r="CF12" s="124"/>
-      <c r="CG12" s="124"/>
-      <c r="CH12" s="124"/>
-      <c r="CI12" s="124"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="114"/>
+      <c r="AE12" s="114"/>
+      <c r="AF12" s="114"/>
+      <c r="AG12" s="114"/>
+      <c r="AH12" s="114"/>
+      <c r="AI12" s="114"/>
+      <c r="AJ12" s="114"/>
+      <c r="AK12" s="114"/>
+      <c r="AL12" s="114"/>
+      <c r="AM12" s="114"/>
+      <c r="AN12" s="114"/>
+      <c r="AO12" s="114"/>
+      <c r="AP12" s="114"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="114"/>
+      <c r="AX12" s="114"/>
+      <c r="AY12" s="114"/>
+      <c r="AZ12" s="114"/>
+      <c r="BA12" s="114"/>
+      <c r="BB12" s="114"/>
+      <c r="BC12" s="114"/>
+      <c r="BD12" s="114"/>
+      <c r="BE12" s="114"/>
+      <c r="BF12" s="114"/>
+      <c r="BG12" s="114"/>
+      <c r="BH12" s="114"/>
+      <c r="BI12" s="114"/>
+      <c r="BJ12" s="114"/>
+      <c r="BK12" s="114"/>
+      <c r="BL12" s="114"/>
+      <c r="BM12" s="114"/>
+      <c r="BN12" s="114"/>
+      <c r="BO12" s="114"/>
+      <c r="BP12" s="114"/>
+      <c r="BQ12" s="114"/>
+      <c r="BR12" s="114"/>
+      <c r="BS12" s="114"/>
+      <c r="BT12" s="114"/>
+      <c r="BU12" s="114"/>
+      <c r="BV12" s="114"/>
+      <c r="BW12" s="114"/>
+      <c r="BX12" s="114"/>
+      <c r="BY12" s="114"/>
+      <c r="BZ12" s="114"/>
+      <c r="CA12" s="114"/>
+      <c r="CB12" s="114"/>
+      <c r="CC12" s="114"/>
+      <c r="CD12" s="114"/>
+      <c r="CE12" s="114"/>
+      <c r="CF12" s="114"/>
+      <c r="CG12" s="114"/>
+      <c r="CH12" s="114"/>
+      <c r="CI12" s="114"/>
     </row>
     <row r="13" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="B13" s="117">
-        <v>2</v>
-      </c>
-      <c r="C13" s="118">
-        <v>1</v>
-      </c>
-      <c r="D13" s="117">
+      <c r="B13" s="79">
+        <v>2</v>
+      </c>
+      <c r="C13" s="68">
+        <v>1</v>
+      </c>
+      <c r="D13" s="79">
         <v>6</v>
       </c>
-      <c r="E13" s="119">
+      <c r="E13" s="68">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F13" s="118">
+      <c r="F13" s="68">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G13" s="117">
-        <v>2</v>
-      </c>
-      <c r="H13" s="118">
-        <v>1</v>
-      </c>
-      <c r="I13" s="117">
-        <v>0</v>
-      </c>
-      <c r="J13" s="118">
-        <v>0</v>
-      </c>
-      <c r="K13" s="117">
-        <v>2</v>
-      </c>
-      <c r="L13" s="118">
-        <v>1</v>
-      </c>
-      <c r="M13" s="117">
-        <v>1</v>
-      </c>
-      <c r="N13" s="118">
-        <v>0</v>
-      </c>
-      <c r="O13" s="117">
-        <v>1</v>
-      </c>
-      <c r="P13" s="118">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="120" t="s">
+      <c r="G13" s="79">
+        <v>2</v>
+      </c>
+      <c r="H13" s="68">
+        <v>1</v>
+      </c>
+      <c r="I13" s="79">
+        <v>0</v>
+      </c>
+      <c r="J13" s="68">
+        <v>0</v>
+      </c>
+      <c r="K13" s="79">
+        <v>2</v>
+      </c>
+      <c r="L13" s="68">
+        <v>1</v>
+      </c>
+      <c r="M13" s="79">
+        <v>1</v>
+      </c>
+      <c r="N13" s="68">
+        <v>0</v>
+      </c>
+      <c r="O13" s="79">
+        <v>1</v>
+      </c>
+      <c r="P13" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="R13" s="128" t="s">
+      <c r="R13" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="S13" s="117"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="119"/>
-      <c r="AF13" s="119"/>
-      <c r="AG13" s="119"/>
-      <c r="AH13" s="119"/>
-      <c r="AI13" s="119"/>
-      <c r="AJ13" s="119"/>
-      <c r="AK13" s="119"/>
-      <c r="AL13" s="119"/>
-      <c r="AM13" s="119"/>
-      <c r="AN13" s="119"/>
-      <c r="AO13" s="119"/>
-      <c r="AP13" s="119"/>
-      <c r="AQ13" s="119"/>
-      <c r="AR13" s="119"/>
-      <c r="AS13" s="119"/>
-      <c r="AT13" s="119"/>
-      <c r="AU13" s="119"/>
-      <c r="AV13" s="119"/>
-      <c r="AW13" s="119"/>
-      <c r="AX13" s="119"/>
-      <c r="AY13" s="119"/>
-      <c r="AZ13" s="119"/>
-      <c r="BA13" s="119"/>
-      <c r="BB13" s="119"/>
-      <c r="BC13" s="119"/>
-      <c r="BD13" s="119"/>
-      <c r="BE13" s="119"/>
-      <c r="BF13" s="119"/>
-      <c r="BG13" s="119"/>
-      <c r="BH13" s="119"/>
-      <c r="BI13" s="119"/>
-      <c r="BJ13" s="119"/>
-      <c r="BK13" s="119"/>
-      <c r="BL13" s="119"/>
-      <c r="BM13" s="119"/>
-      <c r="BN13" s="119"/>
-      <c r="BO13" s="119"/>
-      <c r="BP13" s="119"/>
-      <c r="BQ13" s="119"/>
-      <c r="BR13" s="119"/>
-      <c r="BS13" s="119"/>
-      <c r="BT13" s="119"/>
-      <c r="BU13" s="119"/>
-      <c r="BV13" s="119"/>
-      <c r="BW13" s="119"/>
-      <c r="BX13" s="119"/>
-      <c r="BY13" s="119"/>
-      <c r="BZ13" s="119"/>
-      <c r="CA13" s="119"/>
-      <c r="CB13" s="119"/>
-      <c r="CC13" s="119"/>
-      <c r="CD13" s="119"/>
-      <c r="CE13" s="119"/>
-      <c r="CF13" s="119"/>
-      <c r="CG13" s="119"/>
-      <c r="CH13" s="119"/>
-      <c r="CI13" s="119"/>
+      <c r="T13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="79"/>
     </row>
     <row r="14" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="122">
-        <v>0</v>
-      </c>
-      <c r="C14" s="123">
-        <v>0</v>
-      </c>
-      <c r="D14" s="122">
-        <v>1</v>
-      </c>
-      <c r="E14" s="124">
+      <c r="B14" s="113">
+        <v>0</v>
+      </c>
+      <c r="C14" s="114">
+        <v>0</v>
+      </c>
+      <c r="D14" s="113">
+        <v>1</v>
+      </c>
+      <c r="E14" s="114">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F14" s="123">
+      <c r="F14" s="114">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G14" s="122">
-        <v>3</v>
-      </c>
-      <c r="H14" s="123">
-        <v>3</v>
-      </c>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="122"/>
-      <c r="T14" s="123"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="122"/>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="122"/>
-      <c r="AD14" s="124"/>
-      <c r="AE14" s="124"/>
-      <c r="AF14" s="124"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="124"/>
-      <c r="AJ14" s="124"/>
-      <c r="AK14" s="124"/>
-      <c r="AL14" s="124"/>
-      <c r="AM14" s="124"/>
-      <c r="AN14" s="124"/>
-      <c r="AO14" s="124"/>
-      <c r="AP14" s="124"/>
-      <c r="AQ14" s="124"/>
-      <c r="AR14" s="124"/>
-      <c r="AS14" s="124"/>
-      <c r="AT14" s="124"/>
-      <c r="AU14" s="124"/>
-      <c r="AV14" s="124"/>
-      <c r="AW14" s="124"/>
-      <c r="AX14" s="124"/>
-      <c r="AY14" s="124"/>
-      <c r="AZ14" s="124"/>
-      <c r="BA14" s="124"/>
-      <c r="BB14" s="124"/>
-      <c r="BC14" s="124"/>
-      <c r="BD14" s="124"/>
-      <c r="BE14" s="124"/>
-      <c r="BF14" s="124"/>
-      <c r="BG14" s="124"/>
-      <c r="BH14" s="124"/>
-      <c r="BI14" s="124"/>
-      <c r="BJ14" s="124"/>
-      <c r="BK14" s="124"/>
-      <c r="BL14" s="124"/>
-      <c r="BM14" s="124"/>
-      <c r="BN14" s="124"/>
-      <c r="BO14" s="124"/>
-      <c r="BP14" s="124"/>
-      <c r="BQ14" s="124"/>
-      <c r="BR14" s="124"/>
-      <c r="BS14" s="124"/>
-      <c r="BT14" s="124"/>
-      <c r="BU14" s="124"/>
-      <c r="BV14" s="124"/>
-      <c r="BW14" s="124"/>
-      <c r="BX14" s="124"/>
-      <c r="BY14" s="124"/>
-      <c r="BZ14" s="124"/>
-      <c r="CA14" s="124"/>
-      <c r="CB14" s="124"/>
-      <c r="CC14" s="124"/>
-      <c r="CD14" s="124"/>
-      <c r="CE14" s="124"/>
-      <c r="CF14" s="124"/>
-      <c r="CG14" s="124"/>
-      <c r="CH14" s="124"/>
-      <c r="CI14" s="124"/>
+      <c r="G14" s="113">
+        <v>3</v>
+      </c>
+      <c r="H14" s="114">
+        <v>3</v>
+      </c>
+      <c r="I14" s="113"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" s="113"/>
+      <c r="AD14" s="114"/>
+      <c r="AE14" s="114"/>
+      <c r="AF14" s="114"/>
+      <c r="AG14" s="114"/>
+      <c r="AH14" s="114"/>
+      <c r="AI14" s="114"/>
+      <c r="AJ14" s="114"/>
+      <c r="AK14" s="114"/>
+      <c r="AL14" s="114"/>
+      <c r="AM14" s="114"/>
+      <c r="AN14" s="114"/>
+      <c r="AO14" s="114"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
+      <c r="AX14" s="114"/>
+      <c r="AY14" s="114"/>
+      <c r="AZ14" s="114"/>
+      <c r="BA14" s="114"/>
+      <c r="BB14" s="114"/>
+      <c r="BC14" s="114"/>
+      <c r="BD14" s="114"/>
+      <c r="BE14" s="114"/>
+      <c r="BF14" s="114"/>
+      <c r="BG14" s="114"/>
+      <c r="BH14" s="114"/>
+      <c r="BI14" s="114"/>
+      <c r="BJ14" s="114"/>
+      <c r="BK14" s="114"/>
+      <c r="BL14" s="114"/>
+      <c r="BM14" s="114"/>
+      <c r="BN14" s="114"/>
+      <c r="BO14" s="114"/>
+      <c r="BP14" s="114"/>
+      <c r="BQ14" s="114"/>
+      <c r="BR14" s="114"/>
+      <c r="BS14" s="114"/>
+      <c r="BT14" s="114"/>
+      <c r="BU14" s="114"/>
+      <c r="BV14" s="114"/>
+      <c r="BW14" s="114"/>
+      <c r="BX14" s="114"/>
+      <c r="BY14" s="114"/>
+      <c r="BZ14" s="114"/>
+      <c r="CA14" s="114"/>
+      <c r="CB14" s="114"/>
+      <c r="CC14" s="114"/>
+      <c r="CD14" s="114"/>
+      <c r="CE14" s="114"/>
+      <c r="CF14" s="114"/>
+      <c r="CG14" s="114"/>
+      <c r="CH14" s="114"/>
+      <c r="CI14" s="114"/>
     </row>
     <row r="15" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="B15" s="117">
-        <v>0</v>
-      </c>
-      <c r="C15" s="118">
-        <v>0</v>
-      </c>
-      <c r="D15" s="117">
-        <v>3</v>
-      </c>
-      <c r="E15" s="119">
+      <c r="B15" s="79">
+        <v>0</v>
+      </c>
+      <c r="C15" s="68">
+        <v>0</v>
+      </c>
+      <c r="D15" s="79">
+        <v>3</v>
+      </c>
+      <c r="E15" s="68">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F15" s="118">
+      <c r="F15" s="68">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="117">
-        <v>3</v>
-      </c>
-      <c r="L15" s="118">
-        <v>3</v>
-      </c>
-      <c r="M15" s="117">
-        <v>3</v>
-      </c>
-      <c r="N15" s="118">
-        <v>3</v>
-      </c>
-      <c r="O15" s="117"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="120">
-        <v>3</v>
-      </c>
-      <c r="R15" s="128">
-        <v>3</v>
-      </c>
-      <c r="S15" s="117"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="117"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="117"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="119"/>
-      <c r="AF15" s="119"/>
-      <c r="AG15" s="119"/>
-      <c r="AH15" s="119"/>
-      <c r="AI15" s="119"/>
-      <c r="AJ15" s="119"/>
-      <c r="AK15" s="119"/>
-      <c r="AL15" s="119"/>
-      <c r="AM15" s="119"/>
-      <c r="AN15" s="119"/>
-      <c r="AO15" s="119"/>
-      <c r="AP15" s="119"/>
-      <c r="AQ15" s="119"/>
-      <c r="AR15" s="119"/>
-      <c r="AS15" s="119"/>
-      <c r="AT15" s="119"/>
-      <c r="AU15" s="119"/>
-      <c r="AV15" s="119"/>
-      <c r="AW15" s="119"/>
-      <c r="AX15" s="119"/>
-      <c r="AY15" s="119"/>
-      <c r="AZ15" s="119"/>
-      <c r="BA15" s="119"/>
-      <c r="BB15" s="119"/>
-      <c r="BC15" s="119"/>
-      <c r="BD15" s="119"/>
-      <c r="BE15" s="119"/>
-      <c r="BF15" s="119"/>
-      <c r="BG15" s="119"/>
-      <c r="BH15" s="119"/>
-      <c r="BI15" s="119"/>
-      <c r="BJ15" s="119"/>
-      <c r="BK15" s="119"/>
-      <c r="BL15" s="119"/>
-      <c r="BM15" s="119"/>
-      <c r="BN15" s="119"/>
-      <c r="BO15" s="119"/>
-      <c r="BP15" s="119"/>
-      <c r="BQ15" s="119"/>
-      <c r="BR15" s="119"/>
-      <c r="BS15" s="119"/>
-      <c r="BT15" s="119"/>
-      <c r="BU15" s="119"/>
-      <c r="BV15" s="119"/>
-      <c r="BW15" s="119"/>
-      <c r="BX15" s="119"/>
-      <c r="BY15" s="119"/>
-      <c r="BZ15" s="119"/>
-      <c r="CA15" s="119"/>
-      <c r="CB15" s="119"/>
-      <c r="CC15" s="119"/>
-      <c r="CD15" s="119"/>
-      <c r="CE15" s="119"/>
-      <c r="CF15" s="119"/>
-      <c r="CG15" s="119"/>
-      <c r="CH15" s="119"/>
-      <c r="CI15" s="119"/>
+      <c r="H15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="79">
+        <v>3</v>
+      </c>
+      <c r="L15" s="68">
+        <v>3</v>
+      </c>
+      <c r="M15" s="79">
+        <v>3</v>
+      </c>
+      <c r="N15" s="68">
+        <v>3</v>
+      </c>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="5">
+        <v>3</v>
+      </c>
+      <c r="R15" s="4">
+        <v>3</v>
+      </c>
+      <c r="T15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="79"/>
     </row>
     <row r="16" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="122">
-        <v>0</v>
-      </c>
-      <c r="C16" s="123">
-        <v>0</v>
-      </c>
-      <c r="D16" s="122">
-        <v>0</v>
-      </c>
-      <c r="E16" s="124">
+      <c r="B16" s="113">
+        <v>0</v>
+      </c>
+      <c r="C16" s="114">
+        <v>0</v>
+      </c>
+      <c r="D16" s="113">
+        <v>0</v>
+      </c>
+      <c r="E16" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="123" t="e">
+      <c r="F16" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="122"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="123"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="123"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="123"/>
-      <c r="AA16" s="122"/>
-      <c r="AB16" s="123"/>
-      <c r="AC16" s="122"/>
-      <c r="AD16" s="124"/>
-      <c r="AE16" s="124"/>
-      <c r="AF16" s="124"/>
-      <c r="AG16" s="124"/>
-      <c r="AH16" s="124"/>
-      <c r="AI16" s="124"/>
-      <c r="AJ16" s="124"/>
-      <c r="AK16" s="124"/>
-      <c r="AL16" s="124"/>
-      <c r="AM16" s="124"/>
-      <c r="AN16" s="124"/>
-      <c r="AO16" s="124"/>
-      <c r="AP16" s="124"/>
-      <c r="AQ16" s="124"/>
-      <c r="AR16" s="124"/>
-      <c r="AS16" s="124"/>
-      <c r="AT16" s="124"/>
-      <c r="AU16" s="124"/>
-      <c r="AV16" s="124"/>
-      <c r="AW16" s="124"/>
-      <c r="AX16" s="124"/>
-      <c r="AY16" s="124"/>
-      <c r="AZ16" s="124"/>
-      <c r="BA16" s="124"/>
-      <c r="BB16" s="124"/>
-      <c r="BC16" s="124"/>
-      <c r="BD16" s="124"/>
-      <c r="BE16" s="124"/>
-      <c r="BF16" s="124"/>
-      <c r="BG16" s="124"/>
-      <c r="BH16" s="124"/>
-      <c r="BI16" s="124"/>
-      <c r="BJ16" s="124"/>
-      <c r="BK16" s="124"/>
-      <c r="BL16" s="124"/>
-      <c r="BM16" s="124"/>
-      <c r="BN16" s="124"/>
-      <c r="BO16" s="124"/>
-      <c r="BP16" s="124"/>
-      <c r="BQ16" s="124"/>
-      <c r="BR16" s="124"/>
-      <c r="BS16" s="124"/>
-      <c r="BT16" s="124"/>
-      <c r="BU16" s="124"/>
-      <c r="BV16" s="124"/>
-      <c r="BW16" s="124"/>
-      <c r="BX16" s="124"/>
-      <c r="BY16" s="124"/>
-      <c r="BZ16" s="124"/>
-      <c r="CA16" s="124"/>
-      <c r="CB16" s="124"/>
-      <c r="CC16" s="124"/>
-      <c r="CD16" s="124"/>
-      <c r="CE16" s="124"/>
-      <c r="CF16" s="124"/>
-      <c r="CG16" s="124"/>
-      <c r="CH16" s="124"/>
-      <c r="CI16" s="124"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="114"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="114"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="114"/>
+      <c r="AE16" s="114"/>
+      <c r="AF16" s="114"/>
+      <c r="AG16" s="114"/>
+      <c r="AH16" s="114"/>
+      <c r="AI16" s="114"/>
+      <c r="AJ16" s="114"/>
+      <c r="AK16" s="114"/>
+      <c r="AL16" s="114"/>
+      <c r="AM16" s="114"/>
+      <c r="AN16" s="114"/>
+      <c r="AO16" s="114"/>
+      <c r="AP16" s="114"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="114"/>
+      <c r="AS16" s="114"/>
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
+      <c r="AX16" s="114"/>
+      <c r="AY16" s="114"/>
+      <c r="AZ16" s="114"/>
+      <c r="BA16" s="114"/>
+      <c r="BB16" s="114"/>
+      <c r="BC16" s="114"/>
+      <c r="BD16" s="114"/>
+      <c r="BE16" s="114"/>
+      <c r="BF16" s="114"/>
+      <c r="BG16" s="114"/>
+      <c r="BH16" s="114"/>
+      <c r="BI16" s="114"/>
+      <c r="BJ16" s="114"/>
+      <c r="BK16" s="114"/>
+      <c r="BL16" s="114"/>
+      <c r="BM16" s="114"/>
+      <c r="BN16" s="114"/>
+      <c r="BO16" s="114"/>
+      <c r="BP16" s="114"/>
+      <c r="BQ16" s="114"/>
+      <c r="BR16" s="114"/>
+      <c r="BS16" s="114"/>
+      <c r="BT16" s="114"/>
+      <c r="BU16" s="114"/>
+      <c r="BV16" s="114"/>
+      <c r="BW16" s="114"/>
+      <c r="BX16" s="114"/>
+      <c r="BY16" s="114"/>
+      <c r="BZ16" s="114"/>
+      <c r="CA16" s="114"/>
+      <c r="CB16" s="114"/>
+      <c r="CC16" s="114"/>
+      <c r="CD16" s="114"/>
+      <c r="CE16" s="114"/>
+      <c r="CF16" s="114"/>
+      <c r="CG16" s="114"/>
+      <c r="CH16" s="114"/>
+      <c r="CI16" s="114"/>
     </row>
     <row r="17" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="B17" s="117">
-        <v>0</v>
-      </c>
-      <c r="C17" s="118">
-        <v>0</v>
-      </c>
-      <c r="D17" s="117">
-        <v>0</v>
-      </c>
-      <c r="E17" s="119">
+      <c r="B17" s="79">
+        <v>0</v>
+      </c>
+      <c r="C17" s="68">
+        <v>0</v>
+      </c>
+      <c r="D17" s="79">
+        <v>0</v>
+      </c>
+      <c r="E17" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="118" t="e">
+      <c r="F17" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="118"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="119"/>
-      <c r="AF17" s="119"/>
-      <c r="AG17" s="119"/>
-      <c r="AH17" s="119"/>
-      <c r="AI17" s="119"/>
-      <c r="AJ17" s="119"/>
-      <c r="AK17" s="119"/>
-      <c r="AL17" s="119"/>
-      <c r="AM17" s="119"/>
-      <c r="AN17" s="119"/>
-      <c r="AO17" s="119"/>
-      <c r="AP17" s="119"/>
-      <c r="AQ17" s="119"/>
-      <c r="AR17" s="119"/>
-      <c r="AS17" s="119"/>
-      <c r="AT17" s="119"/>
-      <c r="AU17" s="119"/>
-      <c r="AV17" s="119"/>
-      <c r="AW17" s="119"/>
-      <c r="AX17" s="119"/>
-      <c r="AY17" s="119"/>
-      <c r="AZ17" s="119"/>
-      <c r="BA17" s="119"/>
-      <c r="BB17" s="119"/>
-      <c r="BC17" s="119"/>
-      <c r="BD17" s="119"/>
-      <c r="BE17" s="119"/>
-      <c r="BF17" s="119"/>
-      <c r="BG17" s="119"/>
-      <c r="BH17" s="119"/>
-      <c r="BI17" s="119"/>
-      <c r="BJ17" s="119"/>
-      <c r="BK17" s="119"/>
-      <c r="BL17" s="119"/>
-      <c r="BM17" s="119"/>
-      <c r="BN17" s="119"/>
-      <c r="BO17" s="119"/>
-      <c r="BP17" s="119"/>
-      <c r="BQ17" s="119"/>
-      <c r="BR17" s="119"/>
-      <c r="BS17" s="119"/>
-      <c r="BT17" s="119"/>
-      <c r="BU17" s="119"/>
-      <c r="BV17" s="119"/>
-      <c r="BW17" s="119"/>
-      <c r="BX17" s="119"/>
-      <c r="BY17" s="119"/>
-      <c r="BZ17" s="119"/>
-      <c r="CA17" s="119"/>
-      <c r="CB17" s="119"/>
-      <c r="CC17" s="119"/>
-      <c r="CD17" s="119"/>
-      <c r="CE17" s="119"/>
-      <c r="CF17" s="119"/>
-      <c r="CG17" s="119"/>
-      <c r="CH17" s="119"/>
-      <c r="CI17" s="119"/>
+      <c r="H17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="79"/>
     </row>
     <row r="18" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A18" s="122" t="s">
+      <c r="A18" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="122">
-        <v>0</v>
-      </c>
-      <c r="C18" s="123">
-        <v>0</v>
-      </c>
-      <c r="D18" s="122">
-        <v>2</v>
-      </c>
-      <c r="E18" s="124">
+      <c r="B18" s="113">
+        <v>0</v>
+      </c>
+      <c r="C18" s="114">
+        <v>0</v>
+      </c>
+      <c r="D18" s="113">
+        <v>2</v>
+      </c>
+      <c r="E18" s="114">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F18" s="123">
+      <c r="F18" s="114">
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="G18" s="122"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="125">
-        <v>3</v>
-      </c>
-      <c r="R18" s="126">
-        <v>2</v>
-      </c>
-      <c r="S18" s="122"/>
-      <c r="T18" s="123"/>
-      <c r="U18" s="125">
-        <v>3</v>
-      </c>
-      <c r="V18" s="126">
-        <v>1</v>
-      </c>
-      <c r="W18" s="122"/>
-      <c r="X18" s="123"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="123"/>
-      <c r="AA18" s="122"/>
-      <c r="AB18" s="123"/>
-      <c r="AC18" s="122"/>
-      <c r="AD18" s="124"/>
-      <c r="AE18" s="124"/>
-      <c r="AF18" s="124"/>
-      <c r="AG18" s="124"/>
-      <c r="AH18" s="124"/>
-      <c r="AI18" s="124"/>
-      <c r="AJ18" s="124"/>
-      <c r="AK18" s="124"/>
-      <c r="AL18" s="124"/>
-      <c r="AM18" s="124"/>
-      <c r="AN18" s="124"/>
-      <c r="AO18" s="124"/>
-      <c r="AP18" s="124"/>
-      <c r="AQ18" s="124"/>
-      <c r="AR18" s="124"/>
-      <c r="AS18" s="124"/>
-      <c r="AT18" s="124"/>
-      <c r="AU18" s="124"/>
-      <c r="AV18" s="124"/>
-      <c r="AW18" s="124"/>
-      <c r="AX18" s="124"/>
-      <c r="AY18" s="124"/>
-      <c r="AZ18" s="124"/>
-      <c r="BA18" s="124"/>
-      <c r="BB18" s="124"/>
-      <c r="BC18" s="124"/>
-      <c r="BD18" s="124"/>
-      <c r="BE18" s="124"/>
-      <c r="BF18" s="124"/>
-      <c r="BG18" s="124"/>
-      <c r="BH18" s="124"/>
-      <c r="BI18" s="124"/>
-      <c r="BJ18" s="124"/>
-      <c r="BK18" s="124"/>
-      <c r="BL18" s="124"/>
-      <c r="BM18" s="124"/>
-      <c r="BN18" s="124"/>
-      <c r="BO18" s="124"/>
-      <c r="BP18" s="124"/>
-      <c r="BQ18" s="124"/>
-      <c r="BR18" s="124"/>
-      <c r="BS18" s="124"/>
-      <c r="BT18" s="124"/>
-      <c r="BU18" s="124"/>
-      <c r="BV18" s="124"/>
-      <c r="BW18" s="124"/>
-      <c r="BX18" s="124"/>
-      <c r="BY18" s="124"/>
-      <c r="BZ18" s="124"/>
-      <c r="CA18" s="124"/>
-      <c r="CB18" s="124"/>
-      <c r="CC18" s="124"/>
-      <c r="CD18" s="124"/>
-      <c r="CE18" s="124"/>
-      <c r="CF18" s="124"/>
-      <c r="CG18" s="124"/>
-      <c r="CH18" s="124"/>
-      <c r="CI18" s="124"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="115">
+        <v>3</v>
+      </c>
+      <c r="R18" s="116">
+        <v>2</v>
+      </c>
+      <c r="S18" s="113"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="115">
+        <v>3</v>
+      </c>
+      <c r="V18" s="116">
+        <v>1</v>
+      </c>
+      <c r="W18" s="113"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="114"/>
+      <c r="AA18" s="113"/>
+      <c r="AB18" s="114"/>
+      <c r="AC18" s="113"/>
+      <c r="AD18" s="114"/>
+      <c r="AE18" s="114"/>
+      <c r="AF18" s="114"/>
+      <c r="AG18" s="114"/>
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="114"/>
+      <c r="AJ18" s="114"/>
+      <c r="AK18" s="114"/>
+      <c r="AL18" s="114"/>
+      <c r="AM18" s="114"/>
+      <c r="AN18" s="114"/>
+      <c r="AO18" s="114"/>
+      <c r="AP18" s="114"/>
+      <c r="AQ18" s="114"/>
+      <c r="AR18" s="114"/>
+      <c r="AS18" s="114"/>
+      <c r="AT18" s="114"/>
+      <c r="AU18" s="114"/>
+      <c r="AV18" s="114"/>
+      <c r="AW18" s="114"/>
+      <c r="AX18" s="114"/>
+      <c r="AY18" s="114"/>
+      <c r="AZ18" s="114"/>
+      <c r="BA18" s="114"/>
+      <c r="BB18" s="114"/>
+      <c r="BC18" s="114"/>
+      <c r="BD18" s="114"/>
+      <c r="BE18" s="114"/>
+      <c r="BF18" s="114"/>
+      <c r="BG18" s="114"/>
+      <c r="BH18" s="114"/>
+      <c r="BI18" s="114"/>
+      <c r="BJ18" s="114"/>
+      <c r="BK18" s="114"/>
+      <c r="BL18" s="114"/>
+      <c r="BM18" s="114"/>
+      <c r="BN18" s="114"/>
+      <c r="BO18" s="114"/>
+      <c r="BP18" s="114"/>
+      <c r="BQ18" s="114"/>
+      <c r="BR18" s="114"/>
+      <c r="BS18" s="114"/>
+      <c r="BT18" s="114"/>
+      <c r="BU18" s="114"/>
+      <c r="BV18" s="114"/>
+      <c r="BW18" s="114"/>
+      <c r="BX18" s="114"/>
+      <c r="BY18" s="114"/>
+      <c r="BZ18" s="114"/>
+      <c r="CA18" s="114"/>
+      <c r="CB18" s="114"/>
+      <c r="CC18" s="114"/>
+      <c r="CD18" s="114"/>
+      <c r="CE18" s="114"/>
+      <c r="CF18" s="114"/>
+      <c r="CG18" s="114"/>
+      <c r="CH18" s="114"/>
+      <c r="CI18" s="114"/>
     </row>
     <row r="19" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="117">
-        <v>0</v>
-      </c>
-      <c r="C19" s="118">
-        <v>0</v>
-      </c>
-      <c r="D19" s="117">
+      <c r="B19" s="79">
+        <v>0</v>
+      </c>
+      <c r="C19" s="68">
+        <v>0</v>
+      </c>
+      <c r="D19" s="79">
         <v>5</v>
       </c>
-      <c r="E19" s="119">
+      <c r="E19" s="68">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F19" s="118">
+      <c r="F19" s="68">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="G19" s="117">
-        <v>1</v>
-      </c>
-      <c r="H19" s="118">
-        <v>2</v>
-      </c>
-      <c r="I19" s="117">
-        <v>1</v>
-      </c>
-      <c r="J19" s="118">
-        <v>3</v>
-      </c>
-      <c r="K19" s="117"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="117">
-        <v>0</v>
-      </c>
-      <c r="N19" s="118">
-        <v>3</v>
-      </c>
-      <c r="O19" s="117">
-        <v>3</v>
-      </c>
-      <c r="P19" s="118">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="120">
-        <v>3</v>
-      </c>
-      <c r="V19" s="121">
-        <v>3</v>
-      </c>
-      <c r="W19" s="117"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="119"/>
-      <c r="AF19" s="119"/>
-      <c r="AG19" s="119"/>
-      <c r="AH19" s="119"/>
-      <c r="AI19" s="119"/>
-      <c r="AJ19" s="119"/>
-      <c r="AK19" s="119"/>
-      <c r="AL19" s="119"/>
-      <c r="AM19" s="119"/>
-      <c r="AN19" s="119"/>
-      <c r="AO19" s="119"/>
-      <c r="AP19" s="119"/>
-      <c r="AQ19" s="119"/>
-      <c r="AR19" s="119"/>
-      <c r="AS19" s="119"/>
-      <c r="AT19" s="119"/>
-      <c r="AU19" s="119"/>
-      <c r="AV19" s="119"/>
-      <c r="AW19" s="119"/>
-      <c r="AX19" s="119"/>
-      <c r="AY19" s="119"/>
-      <c r="AZ19" s="119"/>
-      <c r="BA19" s="119"/>
-      <c r="BB19" s="119"/>
-      <c r="BC19" s="119"/>
-      <c r="BD19" s="119"/>
-      <c r="BE19" s="119"/>
-      <c r="BF19" s="119"/>
-      <c r="BG19" s="119"/>
-      <c r="BH19" s="119"/>
-      <c r="BI19" s="119"/>
-      <c r="BJ19" s="119"/>
-      <c r="BK19" s="119"/>
-      <c r="BL19" s="119"/>
-      <c r="BM19" s="119"/>
-      <c r="BN19" s="119"/>
-      <c r="BO19" s="119"/>
-      <c r="BP19" s="119"/>
-      <c r="BQ19" s="119"/>
-      <c r="BR19" s="119"/>
-      <c r="BS19" s="119"/>
-      <c r="BT19" s="119"/>
-      <c r="BU19" s="119"/>
-      <c r="BV19" s="119"/>
-      <c r="BW19" s="119"/>
-      <c r="BX19" s="119"/>
-      <c r="BY19" s="119"/>
-      <c r="BZ19" s="119"/>
-      <c r="CA19" s="119"/>
-      <c r="CB19" s="119"/>
-      <c r="CC19" s="119"/>
-      <c r="CD19" s="119"/>
-      <c r="CE19" s="119"/>
-      <c r="CF19" s="119"/>
-      <c r="CG19" s="119"/>
-      <c r="CH19" s="119"/>
-      <c r="CI19" s="119"/>
+      <c r="G19" s="79">
+        <v>1</v>
+      </c>
+      <c r="H19" s="68">
+        <v>2</v>
+      </c>
+      <c r="I19" s="79">
+        <v>1</v>
+      </c>
+      <c r="J19" s="68">
+        <v>3</v>
+      </c>
+      <c r="L19" s="68"/>
+      <c r="M19" s="79">
+        <v>0</v>
+      </c>
+      <c r="N19" s="68">
+        <v>3</v>
+      </c>
+      <c r="O19" s="79">
+        <v>3</v>
+      </c>
+      <c r="P19" s="68">
+        <v>3</v>
+      </c>
+      <c r="R19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="5">
+        <v>3</v>
+      </c>
+      <c r="V19" s="4">
+        <v>3</v>
+      </c>
+      <c r="X19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="79"/>
     </row>
     <row r="20" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="122">
-        <v>0</v>
-      </c>
-      <c r="C20" s="123">
-        <v>0</v>
-      </c>
-      <c r="D20" s="122">
-        <v>0</v>
-      </c>
-      <c r="E20" s="124">
+      <c r="B20" s="113">
+        <v>0</v>
+      </c>
+      <c r="C20" s="114">
+        <v>0</v>
+      </c>
+      <c r="D20" s="113">
+        <v>0</v>
+      </c>
+      <c r="E20" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="123" t="e">
+      <c r="F20" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="122"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="123"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="123"/>
-      <c r="AC20" s="122"/>
-      <c r="AD20" s="124"/>
-      <c r="AE20" s="124"/>
-      <c r="AF20" s="124"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="124"/>
-      <c r="AI20" s="124"/>
-      <c r="AJ20" s="124"/>
-      <c r="AK20" s="124"/>
-      <c r="AL20" s="124"/>
-      <c r="AM20" s="124"/>
-      <c r="AN20" s="124"/>
-      <c r="AO20" s="124"/>
-      <c r="AP20" s="124"/>
-      <c r="AQ20" s="124"/>
-      <c r="AR20" s="124"/>
-      <c r="AS20" s="124"/>
-      <c r="AT20" s="124"/>
-      <c r="AU20" s="124"/>
-      <c r="AV20" s="124"/>
-      <c r="AW20" s="124"/>
-      <c r="AX20" s="124"/>
-      <c r="AY20" s="124"/>
-      <c r="AZ20" s="124"/>
-      <c r="BA20" s="124"/>
-      <c r="BB20" s="124"/>
-      <c r="BC20" s="124"/>
-      <c r="BD20" s="124"/>
-      <c r="BE20" s="124"/>
-      <c r="BF20" s="124"/>
-      <c r="BG20" s="124"/>
-      <c r="BH20" s="124"/>
-      <c r="BI20" s="124"/>
-      <c r="BJ20" s="124"/>
-      <c r="BK20" s="124"/>
-      <c r="BL20" s="124"/>
-      <c r="BM20" s="124"/>
-      <c r="BN20" s="124"/>
-      <c r="BO20" s="124"/>
-      <c r="BP20" s="124"/>
-      <c r="BQ20" s="124"/>
-      <c r="BR20" s="124"/>
-      <c r="BS20" s="124"/>
-      <c r="BT20" s="124"/>
-      <c r="BU20" s="124"/>
-      <c r="BV20" s="124"/>
-      <c r="BW20" s="124"/>
-      <c r="BX20" s="124"/>
-      <c r="BY20" s="124"/>
-      <c r="BZ20" s="124"/>
-      <c r="CA20" s="124"/>
-      <c r="CB20" s="124"/>
-      <c r="CC20" s="124"/>
-      <c r="CD20" s="124"/>
-      <c r="CE20" s="124"/>
-      <c r="CF20" s="124"/>
-      <c r="CG20" s="124"/>
-      <c r="CH20" s="124"/>
-      <c r="CI20" s="124"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="114"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="114"/>
+      <c r="AE20" s="114"/>
+      <c r="AF20" s="114"/>
+      <c r="AG20" s="114"/>
+      <c r="AH20" s="114"/>
+      <c r="AI20" s="114"/>
+      <c r="AJ20" s="114"/>
+      <c r="AK20" s="114"/>
+      <c r="AL20" s="114"/>
+      <c r="AM20" s="114"/>
+      <c r="AN20" s="114"/>
+      <c r="AO20" s="114"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="114"/>
+      <c r="AR20" s="114"/>
+      <c r="AS20" s="114"/>
+      <c r="AT20" s="114"/>
+      <c r="AU20" s="114"/>
+      <c r="AV20" s="114"/>
+      <c r="AW20" s="114"/>
+      <c r="AX20" s="114"/>
+      <c r="AY20" s="114"/>
+      <c r="AZ20" s="114"/>
+      <c r="BA20" s="114"/>
+      <c r="BB20" s="114"/>
+      <c r="BC20" s="114"/>
+      <c r="BD20" s="114"/>
+      <c r="BE20" s="114"/>
+      <c r="BF20" s="114"/>
+      <c r="BG20" s="114"/>
+      <c r="BH20" s="114"/>
+      <c r="BI20" s="114"/>
+      <c r="BJ20" s="114"/>
+      <c r="BK20" s="114"/>
+      <c r="BL20" s="114"/>
+      <c r="BM20" s="114"/>
+      <c r="BN20" s="114"/>
+      <c r="BO20" s="114"/>
+      <c r="BP20" s="114"/>
+      <c r="BQ20" s="114"/>
+      <c r="BR20" s="114"/>
+      <c r="BS20" s="114"/>
+      <c r="BT20" s="114"/>
+      <c r="BU20" s="114"/>
+      <c r="BV20" s="114"/>
+      <c r="BW20" s="114"/>
+      <c r="BX20" s="114"/>
+      <c r="BY20" s="114"/>
+      <c r="BZ20" s="114"/>
+      <c r="CA20" s="114"/>
+      <c r="CB20" s="114"/>
+      <c r="CC20" s="114"/>
+      <c r="CD20" s="114"/>
+      <c r="CE20" s="114"/>
+      <c r="CF20" s="114"/>
+      <c r="CG20" s="114"/>
+      <c r="CH20" s="114"/>
+      <c r="CI20" s="114"/>
     </row>
     <row r="21" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="117">
-        <v>0</v>
-      </c>
-      <c r="C21" s="118">
-        <v>0</v>
-      </c>
-      <c r="D21" s="117">
+      <c r="B21" s="79">
+        <v>0</v>
+      </c>
+      <c r="C21" s="68">
+        <v>0</v>
+      </c>
+      <c r="D21" s="79">
         <v>5</v>
       </c>
-      <c r="E21" s="119">
+      <c r="E21" s="68">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F21" s="118">
+      <c r="F21" s="68">
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="117">
-        <v>3</v>
-      </c>
-      <c r="J21" s="118">
-        <v>1</v>
-      </c>
-      <c r="K21" s="117">
-        <v>3</v>
-      </c>
-      <c r="L21" s="119">
-        <v>3</v>
-      </c>
-      <c r="M21" s="117"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="117">
-        <v>3</v>
-      </c>
-      <c r="P21" s="118">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="120">
-        <v>3</v>
-      </c>
-      <c r="R21" s="121">
-        <v>3</v>
-      </c>
-      <c r="S21" s="117"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="120">
-        <v>3</v>
-      </c>
-      <c r="V21" s="121">
-        <v>1</v>
-      </c>
-      <c r="W21" s="117"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="117"/>
-      <c r="AB21" s="118"/>
-      <c r="AC21" s="117"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="119"/>
-      <c r="AF21" s="119"/>
-      <c r="AG21" s="119"/>
-      <c r="AH21" s="119"/>
-      <c r="AI21" s="119"/>
-      <c r="AJ21" s="119"/>
-      <c r="AK21" s="119"/>
-      <c r="AL21" s="119"/>
-      <c r="AM21" s="119"/>
-      <c r="AN21" s="119"/>
-      <c r="AO21" s="119"/>
-      <c r="AP21" s="119"/>
-      <c r="AQ21" s="119"/>
-      <c r="AR21" s="119"/>
-      <c r="AS21" s="119"/>
-      <c r="AT21" s="119"/>
-      <c r="AU21" s="119"/>
-      <c r="AV21" s="119"/>
-      <c r="AW21" s="119"/>
-      <c r="AX21" s="119"/>
-      <c r="AY21" s="119"/>
-      <c r="AZ21" s="119"/>
-      <c r="BA21" s="119"/>
-      <c r="BB21" s="119"/>
-      <c r="BC21" s="119"/>
-      <c r="BD21" s="119"/>
-      <c r="BE21" s="119"/>
-      <c r="BF21" s="119"/>
-      <c r="BG21" s="119"/>
-      <c r="BH21" s="119"/>
-      <c r="BI21" s="119"/>
-      <c r="BJ21" s="119"/>
-      <c r="BK21" s="119"/>
-      <c r="BL21" s="119"/>
-      <c r="BM21" s="119"/>
-      <c r="BN21" s="119"/>
-      <c r="BO21" s="119"/>
-      <c r="BP21" s="119"/>
-      <c r="BQ21" s="119"/>
-      <c r="BR21" s="119"/>
-      <c r="BS21" s="119"/>
-      <c r="BT21" s="119"/>
-      <c r="BU21" s="119"/>
-      <c r="BV21" s="119"/>
-      <c r="BW21" s="119"/>
-      <c r="BX21" s="119"/>
-      <c r="BY21" s="119"/>
-      <c r="BZ21" s="119"/>
-      <c r="CA21" s="119"/>
-      <c r="CB21" s="119"/>
-      <c r="CC21" s="119"/>
-      <c r="CD21" s="119"/>
-      <c r="CE21" s="119"/>
-      <c r="CF21" s="119"/>
-      <c r="CG21" s="119"/>
-      <c r="CH21" s="119"/>
-      <c r="CI21" s="119"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="79">
+        <v>3</v>
+      </c>
+      <c r="J21" s="68">
+        <v>1</v>
+      </c>
+      <c r="K21" s="79">
+        <v>3</v>
+      </c>
+      <c r="L21" s="68">
+        <v>3</v>
+      </c>
+      <c r="N21" s="68"/>
+      <c r="O21" s="79">
+        <v>3</v>
+      </c>
+      <c r="P21" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>3</v>
+      </c>
+      <c r="R21" s="4">
+        <v>3</v>
+      </c>
+      <c r="T21" s="68"/>
+      <c r="U21" s="5">
+        <v>3</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="79"/>
     </row>
     <row r="22" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="122">
-        <v>0</v>
-      </c>
-      <c r="C22" s="123">
-        <v>0</v>
-      </c>
-      <c r="D22" s="122">
+      <c r="B22" s="113">
+        <v>0</v>
+      </c>
+      <c r="C22" s="114">
+        <v>0</v>
+      </c>
+      <c r="D22" s="113">
         <v>4</v>
       </c>
-      <c r="E22" s="124">
+      <c r="E22" s="114">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F22" s="123">
+      <c r="F22" s="114">
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-      <c r="G22" s="122">
-        <v>3</v>
-      </c>
-      <c r="H22" s="123">
-        <v>3</v>
-      </c>
-      <c r="I22" s="122"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="122">
-        <v>2</v>
-      </c>
-      <c r="L22" s="123">
-        <v>2</v>
-      </c>
-      <c r="M22" s="122"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="122">
-        <v>1</v>
-      </c>
-      <c r="P22" s="123">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="125">
-        <v>2</v>
-      </c>
-      <c r="R22" s="127">
-        <v>3</v>
-      </c>
-      <c r="S22" s="122"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="123"/>
-      <c r="W22" s="122"/>
-      <c r="X22" s="123"/>
-      <c r="Y22" s="122"/>
-      <c r="Z22" s="123"/>
-      <c r="AA22" s="122"/>
-      <c r="AB22" s="123"/>
-      <c r="AC22" s="122"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="124"/>
-      <c r="AJ22" s="124"/>
-      <c r="AK22" s="124"/>
-      <c r="AL22" s="124"/>
-      <c r="AM22" s="124"/>
-      <c r="AN22" s="124"/>
-      <c r="AO22" s="124"/>
-      <c r="AP22" s="124"/>
-      <c r="AQ22" s="124"/>
-      <c r="AR22" s="124"/>
-      <c r="AS22" s="124"/>
-      <c r="AT22" s="124"/>
-      <c r="AU22" s="124"/>
-      <c r="AV22" s="124"/>
-      <c r="AW22" s="124"/>
-      <c r="AX22" s="124"/>
-      <c r="AY22" s="124"/>
-      <c r="AZ22" s="124"/>
-      <c r="BA22" s="124"/>
-      <c r="BB22" s="124"/>
-      <c r="BC22" s="124"/>
-      <c r="BD22" s="124"/>
-      <c r="BE22" s="124"/>
-      <c r="BF22" s="124"/>
-      <c r="BG22" s="124"/>
-      <c r="BH22" s="124"/>
-      <c r="BI22" s="124"/>
-      <c r="BJ22" s="124"/>
-      <c r="BK22" s="124"/>
-      <c r="BL22" s="124"/>
-      <c r="BM22" s="124"/>
-      <c r="BN22" s="124"/>
-      <c r="BO22" s="124"/>
-      <c r="BP22" s="124"/>
-      <c r="BQ22" s="124"/>
-      <c r="BR22" s="124"/>
-      <c r="BS22" s="124"/>
-      <c r="BT22" s="124"/>
-      <c r="BU22" s="124"/>
-      <c r="BV22" s="124"/>
-      <c r="BW22" s="124"/>
-      <c r="BX22" s="124"/>
-      <c r="BY22" s="124"/>
-      <c r="BZ22" s="124"/>
-      <c r="CA22" s="124"/>
-      <c r="CB22" s="124"/>
-      <c r="CC22" s="124"/>
-      <c r="CD22" s="124"/>
-      <c r="CE22" s="124"/>
-      <c r="CF22" s="124"/>
-      <c r="CG22" s="124"/>
-      <c r="CH22" s="124"/>
-      <c r="CI22" s="124"/>
+      <c r="G22" s="113">
+        <v>3</v>
+      </c>
+      <c r="H22" s="114">
+        <v>3</v>
+      </c>
+      <c r="I22" s="113"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="113">
+        <v>2</v>
+      </c>
+      <c r="L22" s="114">
+        <v>2</v>
+      </c>
+      <c r="M22" s="113"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="113">
+        <v>1</v>
+      </c>
+      <c r="P22" s="114">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="115">
+        <v>2</v>
+      </c>
+      <c r="R22" s="116">
+        <v>3</v>
+      </c>
+      <c r="S22" s="113"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="113"/>
+      <c r="Z22" s="114"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="114"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="114"/>
+      <c r="AE22" s="114"/>
+      <c r="AF22" s="114"/>
+      <c r="AG22" s="114"/>
+      <c r="AH22" s="114"/>
+      <c r="AI22" s="114"/>
+      <c r="AJ22" s="114"/>
+      <c r="AK22" s="114"/>
+      <c r="AL22" s="114"/>
+      <c r="AM22" s="114"/>
+      <c r="AN22" s="114"/>
+      <c r="AO22" s="114"/>
+      <c r="AP22" s="114"/>
+      <c r="AQ22" s="114"/>
+      <c r="AR22" s="114"/>
+      <c r="AS22" s="114"/>
+      <c r="AT22" s="114"/>
+      <c r="AU22" s="114"/>
+      <c r="AV22" s="114"/>
+      <c r="AW22" s="114"/>
+      <c r="AX22" s="114"/>
+      <c r="AY22" s="114"/>
+      <c r="AZ22" s="114"/>
+      <c r="BA22" s="114"/>
+      <c r="BB22" s="114"/>
+      <c r="BC22" s="114"/>
+      <c r="BD22" s="114"/>
+      <c r="BE22" s="114"/>
+      <c r="BF22" s="114"/>
+      <c r="BG22" s="114"/>
+      <c r="BH22" s="114"/>
+      <c r="BI22" s="114"/>
+      <c r="BJ22" s="114"/>
+      <c r="BK22" s="114"/>
+      <c r="BL22" s="114"/>
+      <c r="BM22" s="114"/>
+      <c r="BN22" s="114"/>
+      <c r="BO22" s="114"/>
+      <c r="BP22" s="114"/>
+      <c r="BQ22" s="114"/>
+      <c r="BR22" s="114"/>
+      <c r="BS22" s="114"/>
+      <c r="BT22" s="114"/>
+      <c r="BU22" s="114"/>
+      <c r="BV22" s="114"/>
+      <c r="BW22" s="114"/>
+      <c r="BX22" s="114"/>
+      <c r="BY22" s="114"/>
+      <c r="BZ22" s="114"/>
+      <c r="CA22" s="114"/>
+      <c r="CB22" s="114"/>
+      <c r="CC22" s="114"/>
+      <c r="CD22" s="114"/>
+      <c r="CE22" s="114"/>
+      <c r="CF22" s="114"/>
+      <c r="CG22" s="114"/>
+      <c r="CH22" s="114"/>
+      <c r="CI22" s="114"/>
     </row>
     <row r="23" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="117">
-        <v>0</v>
-      </c>
-      <c r="C23" s="118">
-        <v>0</v>
-      </c>
-      <c r="D23" s="117">
-        <v>2</v>
-      </c>
-      <c r="E23" s="119">
+      <c r="B23" s="79">
+        <v>0</v>
+      </c>
+      <c r="C23" s="68">
+        <v>0</v>
+      </c>
+      <c r="D23" s="79">
+        <v>2</v>
+      </c>
+      <c r="E23" s="68">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F23" s="118">
+      <c r="F23" s="68">
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="G23" s="117">
-        <v>1</v>
-      </c>
-      <c r="H23" s="118">
-        <v>2</v>
-      </c>
-      <c r="I23" s="117">
-        <v>3</v>
-      </c>
-      <c r="J23" s="118">
-        <v>3</v>
-      </c>
-      <c r="K23" s="117"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="117"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="117"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="119"/>
-      <c r="AE23" s="119"/>
-      <c r="AF23" s="119"/>
-      <c r="AG23" s="119"/>
-      <c r="AH23" s="119"/>
-      <c r="AI23" s="119"/>
-      <c r="AJ23" s="119"/>
-      <c r="AK23" s="119"/>
-      <c r="AL23" s="119"/>
-      <c r="AM23" s="119"/>
-      <c r="AN23" s="119"/>
-      <c r="AO23" s="119"/>
-      <c r="AP23" s="119"/>
-      <c r="AQ23" s="119"/>
-      <c r="AR23" s="119"/>
-      <c r="AS23" s="119"/>
-      <c r="AT23" s="119"/>
-      <c r="AU23" s="119"/>
-      <c r="AV23" s="119"/>
-      <c r="AW23" s="119"/>
-      <c r="AX23" s="119"/>
-      <c r="AY23" s="119"/>
-      <c r="AZ23" s="119"/>
-      <c r="BA23" s="119"/>
-      <c r="BB23" s="119"/>
-      <c r="BC23" s="119"/>
-      <c r="BD23" s="119"/>
-      <c r="BE23" s="119"/>
-      <c r="BF23" s="119"/>
-      <c r="BG23" s="119"/>
-      <c r="BH23" s="119"/>
-      <c r="BI23" s="119"/>
-      <c r="BJ23" s="119"/>
-      <c r="BK23" s="119"/>
-      <c r="BL23" s="119"/>
-      <c r="BM23" s="119"/>
-      <c r="BN23" s="119"/>
-      <c r="BO23" s="119"/>
-      <c r="BP23" s="119"/>
-      <c r="BQ23" s="119"/>
-      <c r="BR23" s="119"/>
-      <c r="BS23" s="119"/>
-      <c r="BT23" s="119"/>
-      <c r="BU23" s="119"/>
-      <c r="BV23" s="119"/>
-      <c r="BW23" s="119"/>
-      <c r="BX23" s="119"/>
-      <c r="BY23" s="119"/>
-      <c r="BZ23" s="119"/>
-      <c r="CA23" s="119"/>
-      <c r="CB23" s="119"/>
-      <c r="CC23" s="119"/>
-      <c r="CD23" s="119"/>
-      <c r="CE23" s="119"/>
-      <c r="CF23" s="119"/>
-      <c r="CG23" s="119"/>
-      <c r="CH23" s="119"/>
-      <c r="CI23" s="119"/>
+      <c r="G23" s="79">
+        <v>1</v>
+      </c>
+      <c r="H23" s="68">
+        <v>2</v>
+      </c>
+      <c r="I23" s="79">
+        <v>3</v>
+      </c>
+      <c r="J23" s="68">
+        <v>3</v>
+      </c>
+      <c r="L23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="79"/>
     </row>
     <row r="24" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A24" s="122" t="s">
+      <c r="A24" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="122">
-        <v>0</v>
-      </c>
-      <c r="C24" s="123">
-        <v>0</v>
-      </c>
-      <c r="D24" s="122">
-        <v>0</v>
-      </c>
-      <c r="E24" s="124">
+      <c r="B24" s="113">
+        <v>0</v>
+      </c>
+      <c r="C24" s="114">
+        <v>0</v>
+      </c>
+      <c r="D24" s="113">
+        <v>0</v>
+      </c>
+      <c r="E24" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="123" t="e">
+      <c r="F24" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="122"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="123"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="123"/>
-      <c r="W24" s="122"/>
-      <c r="X24" s="123"/>
-      <c r="Y24" s="122"/>
-      <c r="Z24" s="123"/>
-      <c r="AA24" s="122"/>
-      <c r="AB24" s="123"/>
-      <c r="AC24" s="122"/>
-      <c r="AD24" s="124"/>
-      <c r="AE24" s="124"/>
-      <c r="AF24" s="124"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="124"/>
-      <c r="AJ24" s="124"/>
-      <c r="AK24" s="124"/>
-      <c r="AL24" s="124"/>
-      <c r="AM24" s="124"/>
-      <c r="AN24" s="124"/>
-      <c r="AO24" s="124"/>
-      <c r="AP24" s="124"/>
-      <c r="AQ24" s="124"/>
-      <c r="AR24" s="124"/>
-      <c r="AS24" s="124"/>
-      <c r="AT24" s="124"/>
-      <c r="AU24" s="124"/>
-      <c r="AV24" s="124"/>
-      <c r="AW24" s="124"/>
-      <c r="AX24" s="124"/>
-      <c r="AY24" s="124"/>
-      <c r="AZ24" s="124"/>
-      <c r="BA24" s="124"/>
-      <c r="BB24" s="124"/>
-      <c r="BC24" s="124"/>
-      <c r="BD24" s="124"/>
-      <c r="BE24" s="124"/>
-      <c r="BF24" s="124"/>
-      <c r="BG24" s="124"/>
-      <c r="BH24" s="124"/>
-      <c r="BI24" s="124"/>
-      <c r="BJ24" s="124"/>
-      <c r="BK24" s="124"/>
-      <c r="BL24" s="124"/>
-      <c r="BM24" s="124"/>
-      <c r="BN24" s="124"/>
-      <c r="BO24" s="124"/>
-      <c r="BP24" s="124"/>
-      <c r="BQ24" s="124"/>
-      <c r="BR24" s="124"/>
-      <c r="BS24" s="124"/>
-      <c r="BT24" s="124"/>
-      <c r="BU24" s="124"/>
-      <c r="BV24" s="124"/>
-      <c r="BW24" s="124"/>
-      <c r="BX24" s="124"/>
-      <c r="BY24" s="124"/>
-      <c r="BZ24" s="124"/>
-      <c r="CA24" s="124"/>
-      <c r="CB24" s="124"/>
-      <c r="CC24" s="124"/>
-      <c r="CD24" s="124"/>
-      <c r="CE24" s="124"/>
-      <c r="CF24" s="124"/>
-      <c r="CG24" s="124"/>
-      <c r="CH24" s="124"/>
-      <c r="CI24" s="124"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="114"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="114"/>
+      <c r="W24" s="113"/>
+      <c r="X24" s="114"/>
+      <c r="Y24" s="113"/>
+      <c r="Z24" s="114"/>
+      <c r="AA24" s="113"/>
+      <c r="AB24" s="114"/>
+      <c r="AC24" s="113"/>
+      <c r="AD24" s="114"/>
+      <c r="AE24" s="114"/>
+      <c r="AF24" s="114"/>
+      <c r="AG24" s="114"/>
+      <c r="AH24" s="114"/>
+      <c r="AI24" s="114"/>
+      <c r="AJ24" s="114"/>
+      <c r="AK24" s="114"/>
+      <c r="AL24" s="114"/>
+      <c r="AM24" s="114"/>
+      <c r="AN24" s="114"/>
+      <c r="AO24" s="114"/>
+      <c r="AP24" s="114"/>
+      <c r="AQ24" s="114"/>
+      <c r="AR24" s="114"/>
+      <c r="AS24" s="114"/>
+      <c r="AT24" s="114"/>
+      <c r="AU24" s="114"/>
+      <c r="AV24" s="114"/>
+      <c r="AW24" s="114"/>
+      <c r="AX24" s="114"/>
+      <c r="AY24" s="114"/>
+      <c r="AZ24" s="114"/>
+      <c r="BA24" s="114"/>
+      <c r="BB24" s="114"/>
+      <c r="BC24" s="114"/>
+      <c r="BD24" s="114"/>
+      <c r="BE24" s="114"/>
+      <c r="BF24" s="114"/>
+      <c r="BG24" s="114"/>
+      <c r="BH24" s="114"/>
+      <c r="BI24" s="114"/>
+      <c r="BJ24" s="114"/>
+      <c r="BK24" s="114"/>
+      <c r="BL24" s="114"/>
+      <c r="BM24" s="114"/>
+      <c r="BN24" s="114"/>
+      <c r="BO24" s="114"/>
+      <c r="BP24" s="114"/>
+      <c r="BQ24" s="114"/>
+      <c r="BR24" s="114"/>
+      <c r="BS24" s="114"/>
+      <c r="BT24" s="114"/>
+      <c r="BU24" s="114"/>
+      <c r="BV24" s="114"/>
+      <c r="BW24" s="114"/>
+      <c r="BX24" s="114"/>
+      <c r="BY24" s="114"/>
+      <c r="BZ24" s="114"/>
+      <c r="CA24" s="114"/>
+      <c r="CB24" s="114"/>
+      <c r="CC24" s="114"/>
+      <c r="CD24" s="114"/>
+      <c r="CE24" s="114"/>
+      <c r="CF24" s="114"/>
+      <c r="CG24" s="114"/>
+      <c r="CH24" s="114"/>
+      <c r="CI24" s="114"/>
     </row>
     <row r="25" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="117">
-        <v>2</v>
-      </c>
-      <c r="C25" s="118">
-        <v>0</v>
-      </c>
-      <c r="D25" s="117">
+      <c r="B25" s="79">
+        <v>2</v>
+      </c>
+      <c r="C25" s="68">
+        <v>0</v>
+      </c>
+      <c r="D25" s="79">
         <v>4</v>
       </c>
-      <c r="E25" s="119">
+      <c r="E25" s="68">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F25" s="118">
+      <c r="F25" s="68">
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="117">
-        <v>2</v>
-      </c>
-      <c r="J25" s="118" t="s">
+      <c r="H25" s="68"/>
+      <c r="I25" s="79">
+        <v>2</v>
+      </c>
+      <c r="J25" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="K25" s="117"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="117">
-        <v>3</v>
-      </c>
-      <c r="N25" s="118">
-        <v>1</v>
-      </c>
-      <c r="O25" s="117">
-        <v>3</v>
-      </c>
-      <c r="P25" s="118">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="120">
-        <v>2</v>
-      </c>
-      <c r="R25" s="121" t="s">
+      <c r="L25" s="68"/>
+      <c r="M25" s="79">
+        <v>3</v>
+      </c>
+      <c r="N25" s="68">
+        <v>1</v>
+      </c>
+      <c r="O25" s="79">
+        <v>3</v>
+      </c>
+      <c r="P25" s="68">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>2</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="S25" s="117"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="119"/>
-      <c r="AF25" s="119"/>
-      <c r="AG25" s="119"/>
-      <c r="AH25" s="119"/>
-      <c r="AI25" s="119"/>
-      <c r="AJ25" s="119"/>
-      <c r="AK25" s="119"/>
-      <c r="AL25" s="119"/>
-      <c r="AM25" s="119"/>
-      <c r="AN25" s="119"/>
-      <c r="AO25" s="119"/>
-      <c r="AP25" s="119"/>
-      <c r="AQ25" s="119"/>
-      <c r="AR25" s="119"/>
-      <c r="AS25" s="119"/>
-      <c r="AT25" s="119"/>
-      <c r="AU25" s="119"/>
-      <c r="AV25" s="119"/>
-      <c r="AW25" s="119"/>
-      <c r="AX25" s="119"/>
-      <c r="AY25" s="119"/>
-      <c r="AZ25" s="119"/>
-      <c r="BA25" s="119"/>
-      <c r="BB25" s="119"/>
-      <c r="BC25" s="119"/>
-      <c r="BD25" s="119"/>
-      <c r="BE25" s="119"/>
-      <c r="BF25" s="119"/>
-      <c r="BG25" s="119"/>
-      <c r="BH25" s="119"/>
-      <c r="BI25" s="119"/>
-      <c r="BJ25" s="119"/>
-      <c r="BK25" s="119"/>
-      <c r="BL25" s="119"/>
-      <c r="BM25" s="119"/>
-      <c r="BN25" s="119"/>
-      <c r="BO25" s="119"/>
-      <c r="BP25" s="119"/>
-      <c r="BQ25" s="119"/>
-      <c r="BR25" s="119"/>
-      <c r="BS25" s="119"/>
-      <c r="BT25" s="119"/>
-      <c r="BU25" s="119"/>
-      <c r="BV25" s="119"/>
-      <c r="BW25" s="119"/>
-      <c r="BX25" s="119"/>
-      <c r="BY25" s="119"/>
-      <c r="BZ25" s="119"/>
-      <c r="CA25" s="119"/>
-      <c r="CB25" s="119"/>
-      <c r="CC25" s="119"/>
-      <c r="CD25" s="119"/>
-      <c r="CE25" s="119"/>
-      <c r="CF25" s="119"/>
-      <c r="CG25" s="119"/>
-      <c r="CH25" s="119"/>
-      <c r="CI25" s="119"/>
+      <c r="T25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="79"/>
     </row>
     <row r="26" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A26" s="122" t="s">
+      <c r="A26" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="122">
-        <v>2</v>
-      </c>
-      <c r="C26" s="123">
-        <v>1</v>
-      </c>
-      <c r="D26" s="122">
+      <c r="B26" s="113">
+        <v>2</v>
+      </c>
+      <c r="C26" s="114">
+        <v>1</v>
+      </c>
+      <c r="D26" s="113">
         <v>4</v>
       </c>
-      <c r="E26" s="124">
+      <c r="E26" s="114">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F26" s="123">
+      <c r="F26" s="114">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G26" s="122" t="s">
+      <c r="G26" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="H26" s="123" t="s">
+      <c r="H26" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="I26" s="122">
-        <v>3</v>
-      </c>
-      <c r="J26" s="123">
-        <v>3</v>
-      </c>
-      <c r="K26" s="122">
-        <v>3</v>
-      </c>
-      <c r="L26" s="124">
-        <v>3</v>
-      </c>
-      <c r="M26" s="122"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="122"/>
-      <c r="T26" s="123"/>
-      <c r="U26" s="125">
-        <v>3</v>
-      </c>
-      <c r="V26" s="126">
-        <v>3</v>
-      </c>
-      <c r="W26" s="122"/>
-      <c r="X26" s="123"/>
-      <c r="Y26" s="122"/>
-      <c r="Z26" s="123"/>
-      <c r="AA26" s="122"/>
-      <c r="AB26" s="123"/>
-      <c r="AC26" s="122"/>
-      <c r="AD26" s="124"/>
-      <c r="AE26" s="124"/>
-      <c r="AF26" s="124"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="124"/>
-      <c r="AJ26" s="124"/>
-      <c r="AK26" s="124"/>
-      <c r="AL26" s="124"/>
-      <c r="AM26" s="124"/>
-      <c r="AN26" s="124"/>
-      <c r="AO26" s="124"/>
-      <c r="AP26" s="124"/>
-      <c r="AQ26" s="124"/>
-      <c r="AR26" s="124"/>
-      <c r="AS26" s="124"/>
-      <c r="AT26" s="124"/>
-      <c r="AU26" s="124"/>
-      <c r="AV26" s="124"/>
-      <c r="AW26" s="124"/>
-      <c r="AX26" s="124"/>
-      <c r="AY26" s="124"/>
-      <c r="AZ26" s="124"/>
-      <c r="BA26" s="124"/>
-      <c r="BB26" s="124"/>
-      <c r="BC26" s="124"/>
-      <c r="BD26" s="124"/>
-      <c r="BE26" s="124"/>
-      <c r="BF26" s="124"/>
-      <c r="BG26" s="124"/>
-      <c r="BH26" s="124"/>
-      <c r="BI26" s="124"/>
-      <c r="BJ26" s="124"/>
-      <c r="BK26" s="124"/>
-      <c r="BL26" s="124"/>
-      <c r="BM26" s="124"/>
-      <c r="BN26" s="124"/>
-      <c r="BO26" s="124"/>
-      <c r="BP26" s="124"/>
-      <c r="BQ26" s="124"/>
-      <c r="BR26" s="124"/>
-      <c r="BS26" s="124"/>
-      <c r="BT26" s="124"/>
-      <c r="BU26" s="124"/>
-      <c r="BV26" s="124"/>
-      <c r="BW26" s="124"/>
-      <c r="BX26" s="124"/>
-      <c r="BY26" s="124"/>
-      <c r="BZ26" s="124"/>
-      <c r="CA26" s="124"/>
-      <c r="CB26" s="124"/>
-      <c r="CC26" s="124"/>
-      <c r="CD26" s="124"/>
-      <c r="CE26" s="124"/>
-      <c r="CF26" s="124"/>
-      <c r="CG26" s="124"/>
-      <c r="CH26" s="124"/>
-      <c r="CI26" s="124"/>
+      <c r="I26" s="113">
+        <v>3</v>
+      </c>
+      <c r="J26" s="114">
+        <v>3</v>
+      </c>
+      <c r="K26" s="113">
+        <v>3</v>
+      </c>
+      <c r="L26" s="114">
+        <v>3</v>
+      </c>
+      <c r="M26" s="113"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="115">
+        <v>3</v>
+      </c>
+      <c r="V26" s="116">
+        <v>3</v>
+      </c>
+      <c r="W26" s="113"/>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="113"/>
+      <c r="Z26" s="114"/>
+      <c r="AA26" s="113"/>
+      <c r="AB26" s="114"/>
+      <c r="AC26" s="113"/>
+      <c r="AD26" s="114"/>
+      <c r="AE26" s="114"/>
+      <c r="AF26" s="114"/>
+      <c r="AG26" s="114"/>
+      <c r="AH26" s="114"/>
+      <c r="AI26" s="114"/>
+      <c r="AJ26" s="114"/>
+      <c r="AK26" s="114"/>
+      <c r="AL26" s="114"/>
+      <c r="AM26" s="114"/>
+      <c r="AN26" s="114"/>
+      <c r="AO26" s="114"/>
+      <c r="AP26" s="114"/>
+      <c r="AQ26" s="114"/>
+      <c r="AR26" s="114"/>
+      <c r="AS26" s="114"/>
+      <c r="AT26" s="114"/>
+      <c r="AU26" s="114"/>
+      <c r="AV26" s="114"/>
+      <c r="AW26" s="114"/>
+      <c r="AX26" s="114"/>
+      <c r="AY26" s="114"/>
+      <c r="AZ26" s="114"/>
+      <c r="BA26" s="114"/>
+      <c r="BB26" s="114"/>
+      <c r="BC26" s="114"/>
+      <c r="BD26" s="114"/>
+      <c r="BE26" s="114"/>
+      <c r="BF26" s="114"/>
+      <c r="BG26" s="114"/>
+      <c r="BH26" s="114"/>
+      <c r="BI26" s="114"/>
+      <c r="BJ26" s="114"/>
+      <c r="BK26" s="114"/>
+      <c r="BL26" s="114"/>
+      <c r="BM26" s="114"/>
+      <c r="BN26" s="114"/>
+      <c r="BO26" s="114"/>
+      <c r="BP26" s="114"/>
+      <c r="BQ26" s="114"/>
+      <c r="BR26" s="114"/>
+      <c r="BS26" s="114"/>
+      <c r="BT26" s="114"/>
+      <c r="BU26" s="114"/>
+      <c r="BV26" s="114"/>
+      <c r="BW26" s="114"/>
+      <c r="BX26" s="114"/>
+      <c r="BY26" s="114"/>
+      <c r="BZ26" s="114"/>
+      <c r="CA26" s="114"/>
+      <c r="CB26" s="114"/>
+      <c r="CC26" s="114"/>
+      <c r="CD26" s="114"/>
+      <c r="CE26" s="114"/>
+      <c r="CF26" s="114"/>
+      <c r="CG26" s="114"/>
+      <c r="CH26" s="114"/>
+      <c r="CI26" s="114"/>
     </row>
     <row r="27" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="117">
-        <v>0</v>
-      </c>
-      <c r="C27" s="118">
-        <v>0</v>
-      </c>
-      <c r="D27" s="117">
-        <v>0</v>
-      </c>
-      <c r="E27" s="119">
+      <c r="B27" s="79">
+        <v>0</v>
+      </c>
+      <c r="C27" s="68">
+        <v>0</v>
+      </c>
+      <c r="D27" s="79">
+        <v>0</v>
+      </c>
+      <c r="E27" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="118" t="e">
+      <c r="F27" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="117"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="117"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="117"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="117"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="117"/>
-      <c r="X27" s="118"/>
-      <c r="Y27" s="117"/>
-      <c r="Z27" s="118"/>
-      <c r="AA27" s="117"/>
-      <c r="AB27" s="118"/>
-      <c r="AC27" s="117"/>
-      <c r="AD27" s="119"/>
-      <c r="AE27" s="119"/>
-      <c r="AF27" s="119"/>
-      <c r="AG27" s="119"/>
-      <c r="AH27" s="119"/>
-      <c r="AI27" s="119"/>
-      <c r="AJ27" s="119"/>
-      <c r="AK27" s="119"/>
-      <c r="AL27" s="119"/>
-      <c r="AM27" s="119"/>
-      <c r="AN27" s="119"/>
-      <c r="AO27" s="119"/>
-      <c r="AP27" s="119"/>
-      <c r="AQ27" s="119"/>
-      <c r="AR27" s="119"/>
-      <c r="AS27" s="119"/>
-      <c r="AT27" s="119"/>
-      <c r="AU27" s="119"/>
-      <c r="AV27" s="119"/>
-      <c r="AW27" s="119"/>
-      <c r="AX27" s="119"/>
-      <c r="AY27" s="119"/>
-      <c r="AZ27" s="119"/>
-      <c r="BA27" s="119"/>
-      <c r="BB27" s="119"/>
-      <c r="BC27" s="119"/>
-      <c r="BD27" s="119"/>
-      <c r="BE27" s="119"/>
-      <c r="BF27" s="119"/>
-      <c r="BG27" s="119"/>
-      <c r="BH27" s="119"/>
-      <c r="BI27" s="119"/>
-      <c r="BJ27" s="119"/>
-      <c r="BK27" s="119"/>
-      <c r="BL27" s="119"/>
-      <c r="BM27" s="119"/>
-      <c r="BN27" s="119"/>
-      <c r="BO27" s="119"/>
-      <c r="BP27" s="119"/>
-      <c r="BQ27" s="119"/>
-      <c r="BR27" s="119"/>
-      <c r="BS27" s="119"/>
-      <c r="BT27" s="119"/>
-      <c r="BU27" s="119"/>
-      <c r="BV27" s="119"/>
-      <c r="BW27" s="119"/>
-      <c r="BX27" s="119"/>
-      <c r="BY27" s="119"/>
-      <c r="BZ27" s="119"/>
-      <c r="CA27" s="119"/>
-      <c r="CB27" s="119"/>
-      <c r="CC27" s="119"/>
-      <c r="CD27" s="119"/>
-      <c r="CE27" s="119"/>
-      <c r="CF27" s="119"/>
-      <c r="CG27" s="119"/>
-      <c r="CH27" s="119"/>
-      <c r="CI27" s="119"/>
+      <c r="H27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="X27" s="68"/>
+      <c r="Z27" s="68"/>
+      <c r="AB27" s="68"/>
+      <c r="AC27" s="79"/>
     </row>
     <row r="28" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="122">
-        <v>0</v>
-      </c>
-      <c r="C28" s="123">
-        <v>0</v>
-      </c>
-      <c r="D28" s="122">
-        <v>1</v>
-      </c>
-      <c r="E28" s="124">
+      <c r="B28" s="113">
+        <v>0</v>
+      </c>
+      <c r="C28" s="114">
+        <v>0</v>
+      </c>
+      <c r="D28" s="113">
+        <v>1</v>
+      </c>
+      <c r="E28" s="114">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F28" s="123">
+      <c r="F28" s="114">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="G28" s="122"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="122"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="123"/>
-      <c r="U28" s="125">
-        <v>2</v>
-      </c>
-      <c r="V28" s="126">
-        <v>3</v>
-      </c>
-      <c r="W28" s="122"/>
-      <c r="X28" s="123"/>
-      <c r="Y28" s="122"/>
-      <c r="Z28" s="123"/>
-      <c r="AA28" s="122"/>
-      <c r="AB28" s="123"/>
-      <c r="AC28" s="122"/>
-      <c r="AD28" s="124"/>
-      <c r="AE28" s="124"/>
-      <c r="AF28" s="124"/>
-      <c r="AG28" s="124"/>
-      <c r="AH28" s="124"/>
-      <c r="AI28" s="124"/>
-      <c r="AJ28" s="124"/>
-      <c r="AK28" s="124"/>
-      <c r="AL28" s="124"/>
-      <c r="AM28" s="124"/>
-      <c r="AN28" s="124"/>
-      <c r="AO28" s="124"/>
-      <c r="AP28" s="124"/>
-      <c r="AQ28" s="124"/>
-      <c r="AR28" s="124"/>
-      <c r="AS28" s="124"/>
-      <c r="AT28" s="124"/>
-      <c r="AU28" s="124"/>
-      <c r="AV28" s="124"/>
-      <c r="AW28" s="124"/>
-      <c r="AX28" s="124"/>
-      <c r="AY28" s="124"/>
-      <c r="AZ28" s="124"/>
-      <c r="BA28" s="124"/>
-      <c r="BB28" s="124"/>
-      <c r="BC28" s="124"/>
-      <c r="BD28" s="124"/>
-      <c r="BE28" s="124"/>
-      <c r="BF28" s="124"/>
-      <c r="BG28" s="124"/>
-      <c r="BH28" s="124"/>
-      <c r="BI28" s="124"/>
-      <c r="BJ28" s="124"/>
-      <c r="BK28" s="124"/>
-      <c r="BL28" s="124"/>
-      <c r="BM28" s="124"/>
-      <c r="BN28" s="124"/>
-      <c r="BO28" s="124"/>
-      <c r="BP28" s="124"/>
-      <c r="BQ28" s="124"/>
-      <c r="BR28" s="124"/>
-      <c r="BS28" s="124"/>
-      <c r="BT28" s="124"/>
-      <c r="BU28" s="124"/>
-      <c r="BV28" s="124"/>
-      <c r="BW28" s="124"/>
-      <c r="BX28" s="124"/>
-      <c r="BY28" s="124"/>
-      <c r="BZ28" s="124"/>
-      <c r="CA28" s="124"/>
-      <c r="CB28" s="124"/>
-      <c r="CC28" s="124"/>
-      <c r="CD28" s="124"/>
-      <c r="CE28" s="124"/>
-      <c r="CF28" s="124"/>
-      <c r="CG28" s="124"/>
-      <c r="CH28" s="124"/>
-      <c r="CI28" s="124"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="115">
+        <v>2</v>
+      </c>
+      <c r="V28" s="116">
+        <v>3</v>
+      </c>
+      <c r="W28" s="113"/>
+      <c r="X28" s="114"/>
+      <c r="Y28" s="113"/>
+      <c r="Z28" s="114"/>
+      <c r="AA28" s="113"/>
+      <c r="AB28" s="114"/>
+      <c r="AC28" s="113"/>
+      <c r="AD28" s="114"/>
+      <c r="AE28" s="114"/>
+      <c r="AF28" s="114"/>
+      <c r="AG28" s="114"/>
+      <c r="AH28" s="114"/>
+      <c r="AI28" s="114"/>
+      <c r="AJ28" s="114"/>
+      <c r="AK28" s="114"/>
+      <c r="AL28" s="114"/>
+      <c r="AM28" s="114"/>
+      <c r="AN28" s="114"/>
+      <c r="AO28" s="114"/>
+      <c r="AP28" s="114"/>
+      <c r="AQ28" s="114"/>
+      <c r="AR28" s="114"/>
+      <c r="AS28" s="114"/>
+      <c r="AT28" s="114"/>
+      <c r="AU28" s="114"/>
+      <c r="AV28" s="114"/>
+      <c r="AW28" s="114"/>
+      <c r="AX28" s="114"/>
+      <c r="AY28" s="114"/>
+      <c r="AZ28" s="114"/>
+      <c r="BA28" s="114"/>
+      <c r="BB28" s="114"/>
+      <c r="BC28" s="114"/>
+      <c r="BD28" s="114"/>
+      <c r="BE28" s="114"/>
+      <c r="BF28" s="114"/>
+      <c r="BG28" s="114"/>
+      <c r="BH28" s="114"/>
+      <c r="BI28" s="114"/>
+      <c r="BJ28" s="114"/>
+      <c r="BK28" s="114"/>
+      <c r="BL28" s="114"/>
+      <c r="BM28" s="114"/>
+      <c r="BN28" s="114"/>
+      <c r="BO28" s="114"/>
+      <c r="BP28" s="114"/>
+      <c r="BQ28" s="114"/>
+      <c r="BR28" s="114"/>
+      <c r="BS28" s="114"/>
+      <c r="BT28" s="114"/>
+      <c r="BU28" s="114"/>
+      <c r="BV28" s="114"/>
+      <c r="BW28" s="114"/>
+      <c r="BX28" s="114"/>
+      <c r="BY28" s="114"/>
+      <c r="BZ28" s="114"/>
+      <c r="CA28" s="114"/>
+      <c r="CB28" s="114"/>
+      <c r="CC28" s="114"/>
+      <c r="CD28" s="114"/>
+      <c r="CE28" s="114"/>
+      <c r="CF28" s="114"/>
+      <c r="CG28" s="114"/>
+      <c r="CH28" s="114"/>
+      <c r="CI28" s="114"/>
     </row>
     <row r="29" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="117">
-        <v>0</v>
-      </c>
-      <c r="C29" s="118">
-        <v>0</v>
-      </c>
-      <c r="D29" s="117">
+      <c r="B29" s="79">
+        <v>0</v>
+      </c>
+      <c r="C29" s="68">
+        <v>0</v>
+      </c>
+      <c r="D29" s="79">
         <v>4</v>
       </c>
-      <c r="E29" s="119">
+      <c r="E29" s="68">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F29" s="118">
+      <c r="F29" s="68">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G29" s="117"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="117">
-        <v>3</v>
-      </c>
-      <c r="J29" s="118">
-        <v>3</v>
-      </c>
-      <c r="K29" s="117"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="117">
-        <v>3</v>
-      </c>
-      <c r="N29" s="118">
-        <v>3</v>
-      </c>
-      <c r="O29" s="117">
-        <v>3</v>
-      </c>
-      <c r="P29" s="118">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="120">
-        <v>3</v>
-      </c>
-      <c r="R29" s="121">
-        <v>3</v>
-      </c>
-      <c r="S29" s="117"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="117"/>
-      <c r="X29" s="118"/>
-      <c r="Y29" s="117"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="117"/>
-      <c r="AB29" s="118"/>
-      <c r="AC29" s="117"/>
-      <c r="AD29" s="119"/>
-      <c r="AE29" s="119"/>
-      <c r="AF29" s="119"/>
-      <c r="AG29" s="119"/>
-      <c r="AH29" s="119"/>
-      <c r="AI29" s="119"/>
-      <c r="AJ29" s="119"/>
-      <c r="AK29" s="119"/>
-      <c r="AL29" s="119"/>
-      <c r="AM29" s="119"/>
-      <c r="AN29" s="119"/>
-      <c r="AO29" s="119"/>
-      <c r="AP29" s="119"/>
-      <c r="AQ29" s="119"/>
-      <c r="AR29" s="119"/>
-      <c r="AS29" s="119"/>
-      <c r="AT29" s="119"/>
-      <c r="AU29" s="119"/>
-      <c r="AV29" s="119"/>
-      <c r="AW29" s="119"/>
-      <c r="AX29" s="119"/>
-      <c r="AY29" s="119"/>
-      <c r="AZ29" s="119"/>
-      <c r="BA29" s="119"/>
-      <c r="BB29" s="119"/>
-      <c r="BC29" s="119"/>
-      <c r="BD29" s="119"/>
-      <c r="BE29" s="119"/>
-      <c r="BF29" s="119"/>
-      <c r="BG29" s="119"/>
-      <c r="BH29" s="119"/>
-      <c r="BI29" s="119"/>
-      <c r="BJ29" s="119"/>
-      <c r="BK29" s="119"/>
-      <c r="BL29" s="119"/>
-      <c r="BM29" s="119"/>
-      <c r="BN29" s="119"/>
-      <c r="BO29" s="119"/>
-      <c r="BP29" s="119"/>
-      <c r="BQ29" s="119"/>
-      <c r="BR29" s="119"/>
-      <c r="BS29" s="119"/>
-      <c r="BT29" s="119"/>
-      <c r="BU29" s="119"/>
-      <c r="BV29" s="119"/>
-      <c r="BW29" s="119"/>
-      <c r="BX29" s="119"/>
-      <c r="BY29" s="119"/>
-      <c r="BZ29" s="119"/>
-      <c r="CA29" s="119"/>
-      <c r="CB29" s="119"/>
-      <c r="CC29" s="119"/>
-      <c r="CD29" s="119"/>
-      <c r="CE29" s="119"/>
-      <c r="CF29" s="119"/>
-      <c r="CG29" s="119"/>
-      <c r="CH29" s="119"/>
-      <c r="CI29" s="119"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="79">
+        <v>3</v>
+      </c>
+      <c r="J29" s="68">
+        <v>3</v>
+      </c>
+      <c r="L29" s="68"/>
+      <c r="M29" s="79">
+        <v>3</v>
+      </c>
+      <c r="N29" s="68">
+        <v>3</v>
+      </c>
+      <c r="O29" s="79">
+        <v>3</v>
+      </c>
+      <c r="P29" s="68">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>3</v>
+      </c>
+      <c r="R29" s="4">
+        <v>3</v>
+      </c>
+      <c r="T29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="X29" s="68"/>
+      <c r="Z29" s="68"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="79"/>
     </row>
     <row r="30" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A30" s="122" t="s">
+      <c r="A30" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="122">
-        <v>2</v>
-      </c>
-      <c r="C30" s="123">
-        <v>1</v>
-      </c>
-      <c r="D30" s="122">
+      <c r="B30" s="113">
+        <v>2</v>
+      </c>
+      <c r="C30" s="114">
+        <v>1</v>
+      </c>
+      <c r="D30" s="113">
         <v>4</v>
       </c>
-      <c r="E30" s="124">
+      <c r="E30" s="114">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F30" s="123">
+      <c r="F30" s="114">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="G30" s="122"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="122" t="s">
+      <c r="G30" s="113"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="J30" s="123" t="s">
+      <c r="J30" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="K30" s="122">
-        <v>3</v>
-      </c>
-      <c r="L30" s="123">
-        <v>3</v>
-      </c>
-      <c r="M30" s="122">
-        <v>1</v>
-      </c>
-      <c r="N30" s="123">
-        <v>1</v>
-      </c>
-      <c r="O30" s="122">
-        <v>0</v>
-      </c>
-      <c r="P30" s="123" t="s">
+      <c r="K30" s="113">
+        <v>3</v>
+      </c>
+      <c r="L30" s="114">
+        <v>3</v>
+      </c>
+      <c r="M30" s="113">
+        <v>1</v>
+      </c>
+      <c r="N30" s="114">
+        <v>1</v>
+      </c>
+      <c r="O30" s="113">
+        <v>0</v>
+      </c>
+      <c r="P30" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="Q30" s="125">
-        <v>2</v>
-      </c>
-      <c r="R30" s="126" t="s">
+      <c r="Q30" s="115">
+        <v>2</v>
+      </c>
+      <c r="R30" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="S30" s="122"/>
-      <c r="T30" s="123"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="123"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="123"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="123"/>
-      <c r="AA30" s="122"/>
-      <c r="AB30" s="123"/>
-      <c r="AC30" s="122"/>
-      <c r="AD30" s="124"/>
-      <c r="AE30" s="124"/>
-      <c r="AF30" s="124"/>
-      <c r="AG30" s="124"/>
-      <c r="AH30" s="124"/>
-      <c r="AI30" s="124"/>
-      <c r="AJ30" s="124"/>
-      <c r="AK30" s="124"/>
-      <c r="AL30" s="124"/>
-      <c r="AM30" s="124"/>
-      <c r="AN30" s="124"/>
-      <c r="AO30" s="124"/>
-      <c r="AP30" s="124"/>
-      <c r="AQ30" s="124"/>
-      <c r="AR30" s="124"/>
-      <c r="AS30" s="124"/>
-      <c r="AT30" s="124"/>
-      <c r="AU30" s="124"/>
-      <c r="AV30" s="124"/>
-      <c r="AW30" s="124"/>
-      <c r="AX30" s="124"/>
-      <c r="AY30" s="124"/>
-      <c r="AZ30" s="124"/>
-      <c r="BA30" s="124"/>
-      <c r="BB30" s="124"/>
-      <c r="BC30" s="124"/>
-      <c r="BD30" s="124"/>
-      <c r="BE30" s="124"/>
-      <c r="BF30" s="124"/>
-      <c r="BG30" s="124"/>
-      <c r="BH30" s="124"/>
-      <c r="BI30" s="124"/>
-      <c r="BJ30" s="124"/>
-      <c r="BK30" s="124"/>
-      <c r="BL30" s="124"/>
-      <c r="BM30" s="124"/>
-      <c r="BN30" s="124"/>
-      <c r="BO30" s="124"/>
-      <c r="BP30" s="124"/>
-      <c r="BQ30" s="124"/>
-      <c r="BR30" s="124"/>
-      <c r="BS30" s="124"/>
-      <c r="BT30" s="124"/>
-      <c r="BU30" s="124"/>
-      <c r="BV30" s="124"/>
-      <c r="BW30" s="124"/>
-      <c r="BX30" s="124"/>
-      <c r="BY30" s="124"/>
-      <c r="BZ30" s="124"/>
-      <c r="CA30" s="124"/>
-      <c r="CB30" s="124"/>
-      <c r="CC30" s="124"/>
-      <c r="CD30" s="124"/>
-      <c r="CE30" s="124"/>
-      <c r="CF30" s="124"/>
-      <c r="CG30" s="124"/>
-      <c r="CH30" s="124"/>
-      <c r="CI30" s="124"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="113"/>
+      <c r="V30" s="114"/>
+      <c r="W30" s="113"/>
+      <c r="X30" s="114"/>
+      <c r="Y30" s="113"/>
+      <c r="Z30" s="114"/>
+      <c r="AA30" s="113"/>
+      <c r="AB30" s="114"/>
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="114"/>
+      <c r="AE30" s="114"/>
+      <c r="AF30" s="114"/>
+      <c r="AG30" s="114"/>
+      <c r="AH30" s="114"/>
+      <c r="AI30" s="114"/>
+      <c r="AJ30" s="114"/>
+      <c r="AK30" s="114"/>
+      <c r="AL30" s="114"/>
+      <c r="AM30" s="114"/>
+      <c r="AN30" s="114"/>
+      <c r="AO30" s="114"/>
+      <c r="AP30" s="114"/>
+      <c r="AQ30" s="114"/>
+      <c r="AR30" s="114"/>
+      <c r="AS30" s="114"/>
+      <c r="AT30" s="114"/>
+      <c r="AU30" s="114"/>
+      <c r="AV30" s="114"/>
+      <c r="AW30" s="114"/>
+      <c r="AX30" s="114"/>
+      <c r="AY30" s="114"/>
+      <c r="AZ30" s="114"/>
+      <c r="BA30" s="114"/>
+      <c r="BB30" s="114"/>
+      <c r="BC30" s="114"/>
+      <c r="BD30" s="114"/>
+      <c r="BE30" s="114"/>
+      <c r="BF30" s="114"/>
+      <c r="BG30" s="114"/>
+      <c r="BH30" s="114"/>
+      <c r="BI30" s="114"/>
+      <c r="BJ30" s="114"/>
+      <c r="BK30" s="114"/>
+      <c r="BL30" s="114"/>
+      <c r="BM30" s="114"/>
+      <c r="BN30" s="114"/>
+      <c r="BO30" s="114"/>
+      <c r="BP30" s="114"/>
+      <c r="BQ30" s="114"/>
+      <c r="BR30" s="114"/>
+      <c r="BS30" s="114"/>
+      <c r="BT30" s="114"/>
+      <c r="BU30" s="114"/>
+      <c r="BV30" s="114"/>
+      <c r="BW30" s="114"/>
+      <c r="BX30" s="114"/>
+      <c r="BY30" s="114"/>
+      <c r="BZ30" s="114"/>
+      <c r="CA30" s="114"/>
+      <c r="CB30" s="114"/>
+      <c r="CC30" s="114"/>
+      <c r="CD30" s="114"/>
+      <c r="CE30" s="114"/>
+      <c r="CF30" s="114"/>
+      <c r="CG30" s="114"/>
+      <c r="CH30" s="114"/>
+      <c r="CI30" s="114"/>
     </row>
     <row r="31" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="117">
-        <v>0</v>
-      </c>
-      <c r="C31" s="118">
-        <v>0</v>
-      </c>
-      <c r="D31" s="117">
-        <v>0</v>
-      </c>
-      <c r="E31" s="119">
+      <c r="B31" s="79">
+        <v>0</v>
+      </c>
+      <c r="C31" s="68">
+        <v>0</v>
+      </c>
+      <c r="D31" s="79">
+        <v>0</v>
+      </c>
+      <c r="E31" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="118" t="e">
+      <c r="F31" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="117"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="117"/>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="117"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="117"/>
-      <c r="X31" s="118"/>
-      <c r="Y31" s="117"/>
-      <c r="Z31" s="118"/>
-      <c r="AA31" s="117"/>
-      <c r="AB31" s="118"/>
-      <c r="AC31" s="117"/>
-      <c r="AD31" s="119"/>
-      <c r="AE31" s="119"/>
-      <c r="AF31" s="119"/>
-      <c r="AG31" s="119"/>
-      <c r="AH31" s="119"/>
-      <c r="AI31" s="119"/>
-      <c r="AJ31" s="119"/>
-      <c r="AK31" s="119"/>
-      <c r="AL31" s="119"/>
-      <c r="AM31" s="119"/>
-      <c r="AN31" s="119"/>
-      <c r="AO31" s="119"/>
-      <c r="AP31" s="119"/>
-      <c r="AQ31" s="119"/>
-      <c r="AR31" s="119"/>
-      <c r="AS31" s="119"/>
-      <c r="AT31" s="119"/>
-      <c r="AU31" s="119"/>
-      <c r="AV31" s="119"/>
-      <c r="AW31" s="119"/>
-      <c r="AX31" s="119"/>
-      <c r="AY31" s="119"/>
-      <c r="AZ31" s="119"/>
-      <c r="BA31" s="119"/>
-      <c r="BB31" s="119"/>
-      <c r="BC31" s="119"/>
-      <c r="BD31" s="119"/>
-      <c r="BE31" s="119"/>
-      <c r="BF31" s="119"/>
-      <c r="BG31" s="119"/>
-      <c r="BH31" s="119"/>
-      <c r="BI31" s="119"/>
-      <c r="BJ31" s="119"/>
-      <c r="BK31" s="119"/>
-      <c r="BL31" s="119"/>
-      <c r="BM31" s="119"/>
-      <c r="BN31" s="119"/>
-      <c r="BO31" s="119"/>
-      <c r="BP31" s="119"/>
-      <c r="BQ31" s="119"/>
-      <c r="BR31" s="119"/>
-      <c r="BS31" s="119"/>
-      <c r="BT31" s="119"/>
-      <c r="BU31" s="119"/>
-      <c r="BV31" s="119"/>
-      <c r="BW31" s="119"/>
-      <c r="BX31" s="119"/>
-      <c r="BY31" s="119"/>
-      <c r="BZ31" s="119"/>
-      <c r="CA31" s="119"/>
-      <c r="CB31" s="119"/>
-      <c r="CC31" s="119"/>
-      <c r="CD31" s="119"/>
-      <c r="CE31" s="119"/>
-      <c r="CF31" s="119"/>
-      <c r="CG31" s="119"/>
-      <c r="CH31" s="119"/>
-      <c r="CI31" s="119"/>
+      <c r="H31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="R31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="V31" s="68"/>
+      <c r="X31" s="68"/>
+      <c r="Z31" s="68"/>
+      <c r="AB31" s="68"/>
+      <c r="AC31" s="79"/>
     </row>
     <row r="32" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A32" s="122" t="s">
+      <c r="A32" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="122">
+      <c r="B32" s="113">
         <v>4</v>
       </c>
-      <c r="C32" s="123">
-        <v>1</v>
-      </c>
-      <c r="D32" s="122">
+      <c r="C32" s="114">
+        <v>1</v>
+      </c>
+      <c r="D32" s="113">
         <v>4</v>
       </c>
-      <c r="E32" s="124">
+      <c r="E32" s="114">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F32" s="123">
+      <c r="F32" s="114">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G32" s="122">
-        <v>1</v>
-      </c>
-      <c r="H32" s="123" t="s">
+      <c r="G32" s="113">
+        <v>1</v>
+      </c>
+      <c r="H32" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="I32" s="122">
-        <v>1</v>
-      </c>
-      <c r="J32" s="123" t="s">
+      <c r="I32" s="113">
+        <v>1</v>
+      </c>
+      <c r="J32" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="K32" s="122" t="s">
+      <c r="K32" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="L32" s="123" t="s">
+      <c r="L32" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="M32" s="122"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="122">
-        <v>3</v>
-      </c>
-      <c r="P32" s="123">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="123"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="123"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="123"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="123"/>
-      <c r="AA32" s="122"/>
-      <c r="AB32" s="123"/>
-      <c r="AC32" s="122"/>
-      <c r="AD32" s="124"/>
-      <c r="AE32" s="124"/>
-      <c r="AF32" s="124"/>
-      <c r="AG32" s="124"/>
-      <c r="AH32" s="124"/>
-      <c r="AI32" s="124"/>
-      <c r="AJ32" s="124"/>
-      <c r="AK32" s="124"/>
-      <c r="AL32" s="124"/>
-      <c r="AM32" s="124"/>
-      <c r="AN32" s="124"/>
-      <c r="AO32" s="124"/>
-      <c r="AP32" s="124"/>
-      <c r="AQ32" s="124"/>
-      <c r="AR32" s="124"/>
-      <c r="AS32" s="124"/>
-      <c r="AT32" s="124"/>
-      <c r="AU32" s="124"/>
-      <c r="AV32" s="124"/>
-      <c r="AW32" s="124"/>
-      <c r="AX32" s="124"/>
-      <c r="AY32" s="124"/>
-      <c r="AZ32" s="124"/>
-      <c r="BA32" s="124"/>
-      <c r="BB32" s="124"/>
-      <c r="BC32" s="124"/>
-      <c r="BD32" s="124"/>
-      <c r="BE32" s="124"/>
-      <c r="BF32" s="124"/>
-      <c r="BG32" s="124"/>
-      <c r="BH32" s="124"/>
-      <c r="BI32" s="124"/>
-      <c r="BJ32" s="124"/>
-      <c r="BK32" s="124"/>
-      <c r="BL32" s="124"/>
-      <c r="BM32" s="124"/>
-      <c r="BN32" s="124"/>
-      <c r="BO32" s="124"/>
-      <c r="BP32" s="124"/>
-      <c r="BQ32" s="124"/>
-      <c r="BR32" s="124"/>
-      <c r="BS32" s="124"/>
-      <c r="BT32" s="124"/>
-      <c r="BU32" s="124"/>
-      <c r="BV32" s="124"/>
-      <c r="BW32" s="124"/>
-      <c r="BX32" s="124"/>
-      <c r="BY32" s="124"/>
-      <c r="BZ32" s="124"/>
-      <c r="CA32" s="124"/>
-      <c r="CB32" s="124"/>
-      <c r="CC32" s="124"/>
-      <c r="CD32" s="124"/>
-      <c r="CE32" s="124"/>
-      <c r="CF32" s="124"/>
-      <c r="CG32" s="124"/>
-      <c r="CH32" s="124"/>
-      <c r="CI32" s="124"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="113">
+        <v>3</v>
+      </c>
+      <c r="P32" s="114">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="114"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="113"/>
+      <c r="V32" s="114"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="114"/>
+      <c r="Y32" s="113"/>
+      <c r="Z32" s="114"/>
+      <c r="AA32" s="113"/>
+      <c r="AB32" s="114"/>
+      <c r="AC32" s="113"/>
+      <c r="AD32" s="114"/>
+      <c r="AE32" s="114"/>
+      <c r="AF32" s="114"/>
+      <c r="AG32" s="114"/>
+      <c r="AH32" s="114"/>
+      <c r="AI32" s="114"/>
+      <c r="AJ32" s="114"/>
+      <c r="AK32" s="114"/>
+      <c r="AL32" s="114"/>
+      <c r="AM32" s="114"/>
+      <c r="AN32" s="114"/>
+      <c r="AO32" s="114"/>
+      <c r="AP32" s="114"/>
+      <c r="AQ32" s="114"/>
+      <c r="AR32" s="114"/>
+      <c r="AS32" s="114"/>
+      <c r="AT32" s="114"/>
+      <c r="AU32" s="114"/>
+      <c r="AV32" s="114"/>
+      <c r="AW32" s="114"/>
+      <c r="AX32" s="114"/>
+      <c r="AY32" s="114"/>
+      <c r="AZ32" s="114"/>
+      <c r="BA32" s="114"/>
+      <c r="BB32" s="114"/>
+      <c r="BC32" s="114"/>
+      <c r="BD32" s="114"/>
+      <c r="BE32" s="114"/>
+      <c r="BF32" s="114"/>
+      <c r="BG32" s="114"/>
+      <c r="BH32" s="114"/>
+      <c r="BI32" s="114"/>
+      <c r="BJ32" s="114"/>
+      <c r="BK32" s="114"/>
+      <c r="BL32" s="114"/>
+      <c r="BM32" s="114"/>
+      <c r="BN32" s="114"/>
+      <c r="BO32" s="114"/>
+      <c r="BP32" s="114"/>
+      <c r="BQ32" s="114"/>
+      <c r="BR32" s="114"/>
+      <c r="BS32" s="114"/>
+      <c r="BT32" s="114"/>
+      <c r="BU32" s="114"/>
+      <c r="BV32" s="114"/>
+      <c r="BW32" s="114"/>
+      <c r="BX32" s="114"/>
+      <c r="BY32" s="114"/>
+      <c r="BZ32" s="114"/>
+      <c r="CA32" s="114"/>
+      <c r="CB32" s="114"/>
+      <c r="CC32" s="114"/>
+      <c r="CD32" s="114"/>
+      <c r="CE32" s="114"/>
+      <c r="CF32" s="114"/>
+      <c r="CG32" s="114"/>
+      <c r="CH32" s="114"/>
+      <c r="CI32" s="114"/>
     </row>
     <row r="33" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="117">
-        <v>0</v>
-      </c>
-      <c r="C33" s="118">
-        <v>0</v>
-      </c>
-      <c r="D33" s="117">
+      <c r="B33" s="79">
+        <v>0</v>
+      </c>
+      <c r="C33" s="68">
+        <v>0</v>
+      </c>
+      <c r="D33" s="79">
         <v>4</v>
       </c>
-      <c r="E33" s="119">
+      <c r="E33" s="68">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F33" s="118">
+      <c r="F33" s="68">
         <f t="shared" si="1"/>
         <v>2.9</v>
       </c>
-      <c r="G33" s="117">
-        <v>3</v>
-      </c>
-      <c r="H33" s="118">
-        <v>3</v>
-      </c>
-      <c r="I33" s="117">
-        <v>2</v>
-      </c>
-      <c r="J33" s="118">
-        <v>3</v>
-      </c>
-      <c r="K33" s="117"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="117">
-        <v>3</v>
-      </c>
-      <c r="P33" s="118">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="120">
-        <v>3</v>
-      </c>
-      <c r="R33" s="121">
-        <v>3</v>
-      </c>
-      <c r="S33" s="117"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="117"/>
-      <c r="X33" s="118"/>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="118"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="118"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="119"/>
-      <c r="AE33" s="119"/>
-      <c r="AF33" s="119"/>
-      <c r="AG33" s="119"/>
-      <c r="AH33" s="119"/>
-      <c r="AI33" s="119"/>
-      <c r="AJ33" s="119"/>
-      <c r="AK33" s="119"/>
-      <c r="AL33" s="119"/>
-      <c r="AM33" s="119"/>
-      <c r="AN33" s="119"/>
-      <c r="AO33" s="119"/>
-      <c r="AP33" s="119"/>
-      <c r="AQ33" s="119"/>
-      <c r="AR33" s="119"/>
-      <c r="AS33" s="119"/>
-      <c r="AT33" s="119"/>
-      <c r="AU33" s="119"/>
-      <c r="AV33" s="119"/>
-      <c r="AW33" s="119"/>
-      <c r="AX33" s="119"/>
-      <c r="AY33" s="119"/>
-      <c r="AZ33" s="119"/>
-      <c r="BA33" s="119"/>
-      <c r="BB33" s="119"/>
-      <c r="BC33" s="119"/>
-      <c r="BD33" s="119"/>
-      <c r="BE33" s="119"/>
-      <c r="BF33" s="119"/>
-      <c r="BG33" s="119"/>
-      <c r="BH33" s="119"/>
-      <c r="BI33" s="119"/>
-      <c r="BJ33" s="119"/>
-      <c r="BK33" s="119"/>
-      <c r="BL33" s="119"/>
-      <c r="BM33" s="119"/>
-      <c r="BN33" s="119"/>
-      <c r="BO33" s="119"/>
-      <c r="BP33" s="119"/>
-      <c r="BQ33" s="119"/>
-      <c r="BR33" s="119"/>
-      <c r="BS33" s="119"/>
-      <c r="BT33" s="119"/>
-      <c r="BU33" s="119"/>
-      <c r="BV33" s="119"/>
-      <c r="BW33" s="119"/>
-      <c r="BX33" s="119"/>
-      <c r="BY33" s="119"/>
-      <c r="BZ33" s="119"/>
-      <c r="CA33" s="119"/>
-      <c r="CB33" s="119"/>
-      <c r="CC33" s="119"/>
-      <c r="CD33" s="119"/>
-      <c r="CE33" s="119"/>
-      <c r="CF33" s="119"/>
-      <c r="CG33" s="119"/>
-      <c r="CH33" s="119"/>
-      <c r="CI33" s="119"/>
+      <c r="G33" s="79">
+        <v>3</v>
+      </c>
+      <c r="H33" s="68">
+        <v>3</v>
+      </c>
+      <c r="I33" s="79">
+        <v>2</v>
+      </c>
+      <c r="J33" s="68">
+        <v>3</v>
+      </c>
+      <c r="L33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="79">
+        <v>3</v>
+      </c>
+      <c r="P33" s="68">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>3</v>
+      </c>
+      <c r="R33" s="4">
+        <v>3</v>
+      </c>
+      <c r="T33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="79"/>
     </row>
     <row r="34" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A34" s="122" t="s">
+      <c r="A34" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="122">
-        <v>0</v>
-      </c>
-      <c r="C34" s="123">
-        <v>0</v>
-      </c>
-      <c r="D34" s="122">
+      <c r="B34" s="113">
+        <v>0</v>
+      </c>
+      <c r="C34" s="114">
+        <v>0</v>
+      </c>
+      <c r="D34" s="113">
         <v>6</v>
       </c>
-      <c r="E34" s="124">
+      <c r="E34" s="114">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F34" s="123">
+      <c r="F34" s="114">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="G34" s="122">
-        <v>2</v>
-      </c>
-      <c r="H34" s="123">
-        <v>3</v>
-      </c>
-      <c r="I34" s="122">
-        <v>1</v>
-      </c>
-      <c r="J34" s="123">
-        <v>1</v>
-      </c>
-      <c r="K34" s="122">
-        <v>3</v>
-      </c>
-      <c r="L34" s="123">
-        <v>2</v>
-      </c>
-      <c r="M34" s="122">
-        <v>1</v>
-      </c>
-      <c r="N34" s="123">
-        <v>2</v>
-      </c>
-      <c r="O34" s="122">
-        <v>1</v>
-      </c>
-      <c r="P34" s="123">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="125">
-        <v>1</v>
-      </c>
-      <c r="R34" s="126">
-        <v>3</v>
-      </c>
-      <c r="S34" s="122"/>
-      <c r="T34" s="123"/>
-      <c r="U34" s="125">
-        <v>3</v>
-      </c>
-      <c r="V34" s="126">
-        <v>2</v>
-      </c>
-      <c r="W34" s="122"/>
-      <c r="X34" s="123"/>
-      <c r="Y34" s="122"/>
-      <c r="Z34" s="123"/>
-      <c r="AA34" s="122"/>
-      <c r="AB34" s="123"/>
-      <c r="AC34" s="122"/>
-      <c r="AD34" s="124"/>
-      <c r="AE34" s="124"/>
-      <c r="AF34" s="124"/>
-      <c r="AG34" s="124"/>
-      <c r="AH34" s="124"/>
-      <c r="AI34" s="124"/>
-      <c r="AJ34" s="124"/>
-      <c r="AK34" s="124"/>
-      <c r="AL34" s="124"/>
-      <c r="AM34" s="124"/>
-      <c r="AN34" s="124"/>
-      <c r="AO34" s="124"/>
-      <c r="AP34" s="124"/>
-      <c r="AQ34" s="124"/>
-      <c r="AR34" s="124"/>
-      <c r="AS34" s="124"/>
-      <c r="AT34" s="124"/>
-      <c r="AU34" s="124"/>
-      <c r="AV34" s="124"/>
-      <c r="AW34" s="124"/>
-      <c r="AX34" s="124"/>
-      <c r="AY34" s="124"/>
-      <c r="AZ34" s="124"/>
-      <c r="BA34" s="124"/>
-      <c r="BB34" s="124"/>
-      <c r="BC34" s="124"/>
-      <c r="BD34" s="124"/>
-      <c r="BE34" s="124"/>
-      <c r="BF34" s="124"/>
-      <c r="BG34" s="124"/>
-      <c r="BH34" s="124"/>
-      <c r="BI34" s="124"/>
-      <c r="BJ34" s="124"/>
-      <c r="BK34" s="124"/>
-      <c r="BL34" s="124"/>
-      <c r="BM34" s="124"/>
-      <c r="BN34" s="124"/>
-      <c r="BO34" s="124"/>
-      <c r="BP34" s="124"/>
-      <c r="BQ34" s="124"/>
-      <c r="BR34" s="124"/>
-      <c r="BS34" s="124"/>
-      <c r="BT34" s="124"/>
-      <c r="BU34" s="124"/>
-      <c r="BV34" s="124"/>
-      <c r="BW34" s="124"/>
-      <c r="BX34" s="124"/>
-      <c r="BY34" s="124"/>
-      <c r="BZ34" s="124"/>
-      <c r="CA34" s="124"/>
-      <c r="CB34" s="124"/>
-      <c r="CC34" s="124"/>
-      <c r="CD34" s="124"/>
-      <c r="CE34" s="124"/>
-      <c r="CF34" s="124"/>
-      <c r="CG34" s="124"/>
-      <c r="CH34" s="124"/>
-      <c r="CI34" s="124"/>
+      <c r="G34" s="113">
+        <v>2</v>
+      </c>
+      <c r="H34" s="114">
+        <v>3</v>
+      </c>
+      <c r="I34" s="113">
+        <v>1</v>
+      </c>
+      <c r="J34" s="114">
+        <v>1</v>
+      </c>
+      <c r="K34" s="113">
+        <v>3</v>
+      </c>
+      <c r="L34" s="114">
+        <v>2</v>
+      </c>
+      <c r="M34" s="113">
+        <v>1</v>
+      </c>
+      <c r="N34" s="114">
+        <v>2</v>
+      </c>
+      <c r="O34" s="113">
+        <v>1</v>
+      </c>
+      <c r="P34" s="114">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="115">
+        <v>1</v>
+      </c>
+      <c r="R34" s="116">
+        <v>3</v>
+      </c>
+      <c r="S34" s="113"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="115">
+        <v>3</v>
+      </c>
+      <c r="V34" s="116">
+        <v>2</v>
+      </c>
+      <c r="W34" s="113"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="113"/>
+      <c r="Z34" s="114"/>
+      <c r="AA34" s="113"/>
+      <c r="AB34" s="114"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="114"/>
+      <c r="AF34" s="114"/>
+      <c r="AG34" s="114"/>
+      <c r="AH34" s="114"/>
+      <c r="AI34" s="114"/>
+      <c r="AJ34" s="114"/>
+      <c r="AK34" s="114"/>
+      <c r="AL34" s="114"/>
+      <c r="AM34" s="114"/>
+      <c r="AN34" s="114"/>
+      <c r="AO34" s="114"/>
+      <c r="AP34" s="114"/>
+      <c r="AQ34" s="114"/>
+      <c r="AR34" s="114"/>
+      <c r="AS34" s="114"/>
+      <c r="AT34" s="114"/>
+      <c r="AU34" s="114"/>
+      <c r="AV34" s="114"/>
+      <c r="AW34" s="114"/>
+      <c r="AX34" s="114"/>
+      <c r="AY34" s="114"/>
+      <c r="AZ34" s="114"/>
+      <c r="BA34" s="114"/>
+      <c r="BB34" s="114"/>
+      <c r="BC34" s="114"/>
+      <c r="BD34" s="114"/>
+      <c r="BE34" s="114"/>
+      <c r="BF34" s="114"/>
+      <c r="BG34" s="114"/>
+      <c r="BH34" s="114"/>
+      <c r="BI34" s="114"/>
+      <c r="BJ34" s="114"/>
+      <c r="BK34" s="114"/>
+      <c r="BL34" s="114"/>
+      <c r="BM34" s="114"/>
+      <c r="BN34" s="114"/>
+      <c r="BO34" s="114"/>
+      <c r="BP34" s="114"/>
+      <c r="BQ34" s="114"/>
+      <c r="BR34" s="114"/>
+      <c r="BS34" s="114"/>
+      <c r="BT34" s="114"/>
+      <c r="BU34" s="114"/>
+      <c r="BV34" s="114"/>
+      <c r="BW34" s="114"/>
+      <c r="BX34" s="114"/>
+      <c r="BY34" s="114"/>
+      <c r="BZ34" s="114"/>
+      <c r="CA34" s="114"/>
+      <c r="CB34" s="114"/>
+      <c r="CC34" s="114"/>
+      <c r="CD34" s="114"/>
+      <c r="CE34" s="114"/>
+      <c r="CF34" s="114"/>
+      <c r="CG34" s="114"/>
+      <c r="CH34" s="114"/>
+      <c r="CI34" s="114"/>
     </row>
     <row r="35" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="117">
-        <v>0</v>
-      </c>
-      <c r="C35" s="118">
-        <v>0</v>
-      </c>
-      <c r="D35" s="117">
-        <v>0</v>
-      </c>
-      <c r="E35" s="119">
+      <c r="B35" s="79">
+        <v>0</v>
+      </c>
+      <c r="C35" s="68">
+        <v>0</v>
+      </c>
+      <c r="D35" s="79">
+        <v>0</v>
+      </c>
+      <c r="E35" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="118" t="e">
+      <c r="F35" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="117"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="118"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="118"/>
-      <c r="S35" s="117"/>
-      <c r="T35" s="118"/>
-      <c r="U35" s="117"/>
-      <c r="V35" s="118"/>
-      <c r="W35" s="117"/>
-      <c r="X35" s="118"/>
-      <c r="Y35" s="117"/>
-      <c r="Z35" s="118"/>
-      <c r="AA35" s="117"/>
-      <c r="AB35" s="118"/>
-      <c r="AC35" s="117"/>
-      <c r="AD35" s="119"/>
-      <c r="AE35" s="119"/>
-      <c r="AF35" s="119"/>
-      <c r="AG35" s="119"/>
-      <c r="AH35" s="119"/>
-      <c r="AI35" s="119"/>
-      <c r="AJ35" s="119"/>
-      <c r="AK35" s="119"/>
-      <c r="AL35" s="119"/>
-      <c r="AM35" s="119"/>
-      <c r="AN35" s="119"/>
-      <c r="AO35" s="119"/>
-      <c r="AP35" s="119"/>
-      <c r="AQ35" s="119"/>
-      <c r="AR35" s="119"/>
-      <c r="AS35" s="119"/>
-      <c r="AT35" s="119"/>
-      <c r="AU35" s="119"/>
-      <c r="AV35" s="119"/>
-      <c r="AW35" s="119"/>
-      <c r="AX35" s="119"/>
-      <c r="AY35" s="119"/>
-      <c r="AZ35" s="119"/>
-      <c r="BA35" s="119"/>
-      <c r="BB35" s="119"/>
-      <c r="BC35" s="119"/>
-      <c r="BD35" s="119"/>
-      <c r="BE35" s="119"/>
-      <c r="BF35" s="119"/>
-      <c r="BG35" s="119"/>
-      <c r="BH35" s="119"/>
-      <c r="BI35" s="119"/>
-      <c r="BJ35" s="119"/>
-      <c r="BK35" s="119"/>
-      <c r="BL35" s="119"/>
-      <c r="BM35" s="119"/>
-      <c r="BN35" s="119"/>
-      <c r="BO35" s="119"/>
-      <c r="BP35" s="119"/>
-      <c r="BQ35" s="119"/>
-      <c r="BR35" s="119"/>
-      <c r="BS35" s="119"/>
-      <c r="BT35" s="119"/>
-      <c r="BU35" s="119"/>
-      <c r="BV35" s="119"/>
-      <c r="BW35" s="119"/>
-      <c r="BX35" s="119"/>
-      <c r="BY35" s="119"/>
-      <c r="BZ35" s="119"/>
-      <c r="CA35" s="119"/>
-      <c r="CB35" s="119"/>
-      <c r="CC35" s="119"/>
-      <c r="CD35" s="119"/>
-      <c r="CE35" s="119"/>
-      <c r="CF35" s="119"/>
-      <c r="CG35" s="119"/>
-      <c r="CH35" s="119"/>
-      <c r="CI35" s="119"/>
+      <c r="H35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AB35" s="68"/>
+      <c r="AC35" s="79"/>
     </row>
     <row r="36" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A36" s="122" t="s">
+      <c r="A36" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="122">
-        <v>0</v>
-      </c>
-      <c r="C36" s="123">
-        <v>0</v>
-      </c>
-      <c r="D36" s="122">
-        <v>2</v>
-      </c>
-      <c r="E36" s="124">
+      <c r="B36" s="113">
+        <v>0</v>
+      </c>
+      <c r="C36" s="114">
+        <v>0</v>
+      </c>
+      <c r="D36" s="113">
+        <v>2</v>
+      </c>
+      <c r="E36" s="114">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F36" s="123">
+      <c r="F36" s="114">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="G36" s="122"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="122"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="122">
-        <v>3</v>
-      </c>
-      <c r="P36" s="123">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="125">
-        <v>3</v>
-      </c>
-      <c r="R36" s="126">
-        <v>2</v>
-      </c>
-      <c r="S36" s="122"/>
-      <c r="T36" s="123"/>
-      <c r="U36" s="122"/>
-      <c r="V36" s="123"/>
-      <c r="W36" s="122"/>
-      <c r="X36" s="123"/>
-      <c r="Y36" s="122"/>
-      <c r="Z36" s="123"/>
-      <c r="AA36" s="122"/>
-      <c r="AB36" s="123"/>
-      <c r="AC36" s="122"/>
-      <c r="AD36" s="124"/>
-      <c r="AE36" s="124"/>
-      <c r="AF36" s="124"/>
-      <c r="AG36" s="124"/>
-      <c r="AH36" s="124"/>
-      <c r="AI36" s="124"/>
-      <c r="AJ36" s="124"/>
-      <c r="AK36" s="124"/>
-      <c r="AL36" s="124"/>
-      <c r="AM36" s="124"/>
-      <c r="AN36" s="124"/>
-      <c r="AO36" s="124"/>
-      <c r="AP36" s="124"/>
-      <c r="AQ36" s="124"/>
-      <c r="AR36" s="124"/>
-      <c r="AS36" s="124"/>
-      <c r="AT36" s="124"/>
-      <c r="AU36" s="124"/>
-      <c r="AV36" s="124"/>
-      <c r="AW36" s="124"/>
-      <c r="AX36" s="124"/>
-      <c r="AY36" s="124"/>
-      <c r="AZ36" s="124"/>
-      <c r="BA36" s="124"/>
-      <c r="BB36" s="124"/>
-      <c r="BC36" s="124"/>
-      <c r="BD36" s="124"/>
-      <c r="BE36" s="124"/>
-      <c r="BF36" s="124"/>
-      <c r="BG36" s="124"/>
-      <c r="BH36" s="124"/>
-      <c r="BI36" s="124"/>
-      <c r="BJ36" s="124"/>
-      <c r="BK36" s="124"/>
-      <c r="BL36" s="124"/>
-      <c r="BM36" s="124"/>
-      <c r="BN36" s="124"/>
-      <c r="BO36" s="124"/>
-      <c r="BP36" s="124"/>
-      <c r="BQ36" s="124"/>
-      <c r="BR36" s="124"/>
-      <c r="BS36" s="124"/>
-      <c r="BT36" s="124"/>
-      <c r="BU36" s="124"/>
-      <c r="BV36" s="124"/>
-      <c r="BW36" s="124"/>
-      <c r="BX36" s="124"/>
-      <c r="BY36" s="124"/>
-      <c r="BZ36" s="124"/>
-      <c r="CA36" s="124"/>
-      <c r="CB36" s="124"/>
-      <c r="CC36" s="124"/>
-      <c r="CD36" s="124"/>
-      <c r="CE36" s="124"/>
-      <c r="CF36" s="124"/>
-      <c r="CG36" s="124"/>
-      <c r="CH36" s="124"/>
-      <c r="CI36" s="124"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="113">
+        <v>3</v>
+      </c>
+      <c r="P36" s="114">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="115">
+        <v>3</v>
+      </c>
+      <c r="R36" s="116">
+        <v>2</v>
+      </c>
+      <c r="S36" s="113"/>
+      <c r="T36" s="114"/>
+      <c r="U36" s="113"/>
+      <c r="V36" s="114"/>
+      <c r="W36" s="113"/>
+      <c r="X36" s="114"/>
+      <c r="Y36" s="113"/>
+      <c r="Z36" s="114"/>
+      <c r="AA36" s="113"/>
+      <c r="AB36" s="114"/>
+      <c r="AC36" s="113"/>
+      <c r="AD36" s="114"/>
+      <c r="AE36" s="114"/>
+      <c r="AF36" s="114"/>
+      <c r="AG36" s="114"/>
+      <c r="AH36" s="114"/>
+      <c r="AI36" s="114"/>
+      <c r="AJ36" s="114"/>
+      <c r="AK36" s="114"/>
+      <c r="AL36" s="114"/>
+      <c r="AM36" s="114"/>
+      <c r="AN36" s="114"/>
+      <c r="AO36" s="114"/>
+      <c r="AP36" s="114"/>
+      <c r="AQ36" s="114"/>
+      <c r="AR36" s="114"/>
+      <c r="AS36" s="114"/>
+      <c r="AT36" s="114"/>
+      <c r="AU36" s="114"/>
+      <c r="AV36" s="114"/>
+      <c r="AW36" s="114"/>
+      <c r="AX36" s="114"/>
+      <c r="AY36" s="114"/>
+      <c r="AZ36" s="114"/>
+      <c r="BA36" s="114"/>
+      <c r="BB36" s="114"/>
+      <c r="BC36" s="114"/>
+      <c r="BD36" s="114"/>
+      <c r="BE36" s="114"/>
+      <c r="BF36" s="114"/>
+      <c r="BG36" s="114"/>
+      <c r="BH36" s="114"/>
+      <c r="BI36" s="114"/>
+      <c r="BJ36" s="114"/>
+      <c r="BK36" s="114"/>
+      <c r="BL36" s="114"/>
+      <c r="BM36" s="114"/>
+      <c r="BN36" s="114"/>
+      <c r="BO36" s="114"/>
+      <c r="BP36" s="114"/>
+      <c r="BQ36" s="114"/>
+      <c r="BR36" s="114"/>
+      <c r="BS36" s="114"/>
+      <c r="BT36" s="114"/>
+      <c r="BU36" s="114"/>
+      <c r="BV36" s="114"/>
+      <c r="BW36" s="114"/>
+      <c r="BX36" s="114"/>
+      <c r="BY36" s="114"/>
+      <c r="BZ36" s="114"/>
+      <c r="CA36" s="114"/>
+      <c r="CB36" s="114"/>
+      <c r="CC36" s="114"/>
+      <c r="CD36" s="114"/>
+      <c r="CE36" s="114"/>
+      <c r="CF36" s="114"/>
+      <c r="CG36" s="114"/>
+      <c r="CH36" s="114"/>
+      <c r="CI36" s="114"/>
     </row>
     <row r="37" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="117">
-        <v>2</v>
-      </c>
-      <c r="C37" s="118">
-        <v>1</v>
-      </c>
-      <c r="D37" s="117">
-        <v>2</v>
-      </c>
-      <c r="E37" s="119">
+      <c r="B37" s="79">
+        <v>2</v>
+      </c>
+      <c r="C37" s="68">
+        <v>1</v>
+      </c>
+      <c r="D37" s="79">
+        <v>2</v>
+      </c>
+      <c r="E37" s="68">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F37" s="118">
+      <c r="F37" s="68">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="G37" s="117"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="117" t="s">
+      <c r="H37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="L37" s="118" t="s">
+      <c r="L37" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="M37" s="117"/>
-      <c r="N37" s="118"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="118"/>
-      <c r="Q37" s="120">
-        <v>2</v>
-      </c>
-      <c r="R37" s="128">
-        <v>3</v>
-      </c>
-      <c r="S37" s="117"/>
-      <c r="T37" s="118"/>
-      <c r="U37" s="117"/>
-      <c r="V37" s="118"/>
-      <c r="W37" s="117"/>
-      <c r="X37" s="118"/>
-      <c r="Y37" s="117"/>
-      <c r="Z37" s="118"/>
-      <c r="AA37" s="117"/>
-      <c r="AB37" s="118"/>
-      <c r="AC37" s="117"/>
-      <c r="AD37" s="119"/>
-      <c r="AE37" s="119"/>
-      <c r="AF37" s="119"/>
-      <c r="AG37" s="119"/>
-      <c r="AH37" s="119"/>
-      <c r="AI37" s="119"/>
-      <c r="AJ37" s="119"/>
-      <c r="AK37" s="119"/>
-      <c r="AL37" s="119"/>
-      <c r="AM37" s="119"/>
-      <c r="AN37" s="119"/>
-      <c r="AO37" s="119"/>
-      <c r="AP37" s="119"/>
-      <c r="AQ37" s="119"/>
-      <c r="AR37" s="119"/>
-      <c r="AS37" s="119"/>
-      <c r="AT37" s="119"/>
-      <c r="AU37" s="119"/>
-      <c r="AV37" s="119"/>
-      <c r="AW37" s="119"/>
-      <c r="AX37" s="119"/>
-      <c r="AY37" s="119"/>
-      <c r="AZ37" s="119"/>
-      <c r="BA37" s="119"/>
-      <c r="BB37" s="119"/>
-      <c r="BC37" s="119"/>
-      <c r="BD37" s="119"/>
-      <c r="BE37" s="119"/>
-      <c r="BF37" s="119"/>
-      <c r="BG37" s="119"/>
-      <c r="BH37" s="119"/>
-      <c r="BI37" s="119"/>
-      <c r="BJ37" s="119"/>
-      <c r="BK37" s="119"/>
-      <c r="BL37" s="119"/>
-      <c r="BM37" s="119"/>
-      <c r="BN37" s="119"/>
-      <c r="BO37" s="119"/>
-      <c r="BP37" s="119"/>
-      <c r="BQ37" s="119"/>
-      <c r="BR37" s="119"/>
-      <c r="BS37" s="119"/>
-      <c r="BT37" s="119"/>
-      <c r="BU37" s="119"/>
-      <c r="BV37" s="119"/>
-      <c r="BW37" s="119"/>
-      <c r="BX37" s="119"/>
-      <c r="BY37" s="119"/>
-      <c r="BZ37" s="119"/>
-      <c r="CA37" s="119"/>
-      <c r="CB37" s="119"/>
-      <c r="CC37" s="119"/>
-      <c r="CD37" s="119"/>
-      <c r="CE37" s="119"/>
-      <c r="CF37" s="119"/>
-      <c r="CG37" s="119"/>
-      <c r="CH37" s="119"/>
-      <c r="CI37" s="119"/>
+      <c r="N37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="5">
+        <v>2</v>
+      </c>
+      <c r="R37" s="4">
+        <v>3</v>
+      </c>
+      <c r="T37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="79"/>
     </row>
     <row r="38" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A38" s="122" t="s">
+      <c r="A38" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="122">
-        <v>2</v>
-      </c>
-      <c r="C38" s="123">
-        <v>1</v>
-      </c>
-      <c r="D38" s="122">
-        <v>2</v>
-      </c>
-      <c r="E38" s="124">
+      <c r="B38" s="113">
+        <v>2</v>
+      </c>
+      <c r="C38" s="114">
+        <v>1</v>
+      </c>
+      <c r="D38" s="113">
+        <v>2</v>
+      </c>
+      <c r="E38" s="114">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F38" s="123">
+      <c r="F38" s="114">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G38" s="122" t="s">
+      <c r="G38" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="H38" s="123" t="s">
+      <c r="H38" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="I38" s="122"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="122"/>
-      <c r="N38" s="123"/>
-      <c r="O38" s="122">
-        <v>3</v>
-      </c>
-      <c r="P38" s="123" t="s">
+      <c r="I38" s="113"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="113">
+        <v>3</v>
+      </c>
+      <c r="P38" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="124"/>
-      <c r="S38" s="122"/>
-      <c r="T38" s="123"/>
-      <c r="U38" s="122"/>
-      <c r="V38" s="123"/>
-      <c r="W38" s="122"/>
-      <c r="X38" s="123"/>
-      <c r="Y38" s="122"/>
-      <c r="Z38" s="123"/>
-      <c r="AA38" s="122"/>
-      <c r="AB38" s="123"/>
-      <c r="AC38" s="122"/>
-      <c r="AD38" s="124"/>
-      <c r="AE38" s="124"/>
-      <c r="AF38" s="124"/>
-      <c r="AG38" s="124"/>
-      <c r="AH38" s="124"/>
-      <c r="AI38" s="124"/>
-      <c r="AJ38" s="124"/>
-      <c r="AK38" s="124"/>
-      <c r="AL38" s="124"/>
-      <c r="AM38" s="124"/>
-      <c r="AN38" s="124"/>
-      <c r="AO38" s="124"/>
-      <c r="AP38" s="124"/>
-      <c r="AQ38" s="124"/>
-      <c r="AR38" s="124"/>
-      <c r="AS38" s="124"/>
-      <c r="AT38" s="124"/>
-      <c r="AU38" s="124"/>
-      <c r="AV38" s="124"/>
-      <c r="AW38" s="124"/>
-      <c r="AX38" s="124"/>
-      <c r="AY38" s="124"/>
-      <c r="AZ38" s="124"/>
-      <c r="BA38" s="124"/>
-      <c r="BB38" s="124"/>
-      <c r="BC38" s="124"/>
-      <c r="BD38" s="124"/>
-      <c r="BE38" s="124"/>
-      <c r="BF38" s="124"/>
-      <c r="BG38" s="124"/>
-      <c r="BH38" s="124"/>
-      <c r="BI38" s="124"/>
-      <c r="BJ38" s="124"/>
-      <c r="BK38" s="124"/>
-      <c r="BL38" s="124"/>
-      <c r="BM38" s="124"/>
-      <c r="BN38" s="124"/>
-      <c r="BO38" s="124"/>
-      <c r="BP38" s="124"/>
-      <c r="BQ38" s="124"/>
-      <c r="BR38" s="124"/>
-      <c r="BS38" s="124"/>
-      <c r="BT38" s="124"/>
-      <c r="BU38" s="124"/>
-      <c r="BV38" s="124"/>
-      <c r="BW38" s="124"/>
-      <c r="BX38" s="124"/>
-      <c r="BY38" s="124"/>
-      <c r="BZ38" s="124"/>
-      <c r="CA38" s="124"/>
-      <c r="CB38" s="124"/>
-      <c r="CC38" s="124"/>
-      <c r="CD38" s="124"/>
-      <c r="CE38" s="124"/>
-      <c r="CF38" s="124"/>
-      <c r="CG38" s="124"/>
-      <c r="CH38" s="124"/>
-      <c r="CI38" s="124"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="114"/>
+      <c r="S38" s="113"/>
+      <c r="T38" s="114"/>
+      <c r="U38" s="113"/>
+      <c r="V38" s="114"/>
+      <c r="W38" s="113"/>
+      <c r="X38" s="114"/>
+      <c r="Y38" s="113"/>
+      <c r="Z38" s="114"/>
+      <c r="AA38" s="113"/>
+      <c r="AB38" s="114"/>
+      <c r="AC38" s="113"/>
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="114"/>
+      <c r="AF38" s="114"/>
+      <c r="AG38" s="114"/>
+      <c r="AH38" s="114"/>
+      <c r="AI38" s="114"/>
+      <c r="AJ38" s="114"/>
+      <c r="AK38" s="114"/>
+      <c r="AL38" s="114"/>
+      <c r="AM38" s="114"/>
+      <c r="AN38" s="114"/>
+      <c r="AO38" s="114"/>
+      <c r="AP38" s="114"/>
+      <c r="AQ38" s="114"/>
+      <c r="AR38" s="114"/>
+      <c r="AS38" s="114"/>
+      <c r="AT38" s="114"/>
+      <c r="AU38" s="114"/>
+      <c r="AV38" s="114"/>
+      <c r="AW38" s="114"/>
+      <c r="AX38" s="114"/>
+      <c r="AY38" s="114"/>
+      <c r="AZ38" s="114"/>
+      <c r="BA38" s="114"/>
+      <c r="BB38" s="114"/>
+      <c r="BC38" s="114"/>
+      <c r="BD38" s="114"/>
+      <c r="BE38" s="114"/>
+      <c r="BF38" s="114"/>
+      <c r="BG38" s="114"/>
+      <c r="BH38" s="114"/>
+      <c r="BI38" s="114"/>
+      <c r="BJ38" s="114"/>
+      <c r="BK38" s="114"/>
+      <c r="BL38" s="114"/>
+      <c r="BM38" s="114"/>
+      <c r="BN38" s="114"/>
+      <c r="BO38" s="114"/>
+      <c r="BP38" s="114"/>
+      <c r="BQ38" s="114"/>
+      <c r="BR38" s="114"/>
+      <c r="BS38" s="114"/>
+      <c r="BT38" s="114"/>
+      <c r="BU38" s="114"/>
+      <c r="BV38" s="114"/>
+      <c r="BW38" s="114"/>
+      <c r="BX38" s="114"/>
+      <c r="BY38" s="114"/>
+      <c r="BZ38" s="114"/>
+      <c r="CA38" s="114"/>
+      <c r="CB38" s="114"/>
+      <c r="CC38" s="114"/>
+      <c r="CD38" s="114"/>
+      <c r="CE38" s="114"/>
+      <c r="CF38" s="114"/>
+      <c r="CG38" s="114"/>
+      <c r="CH38" s="114"/>
+      <c r="CI38" s="114"/>
     </row>
     <row r="39" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A39" s="117" t="s">
+      <c r="A39" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="B39" s="117">
-        <v>0</v>
-      </c>
-      <c r="C39" s="118">
-        <v>0</v>
-      </c>
-      <c r="D39" s="117">
-        <v>1</v>
-      </c>
-      <c r="E39" s="119">
+      <c r="B39" s="79">
+        <v>0</v>
+      </c>
+      <c r="C39" s="68">
+        <v>0</v>
+      </c>
+      <c r="D39" s="79">
+        <v>1</v>
+      </c>
+      <c r="E39" s="68">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F39" s="118">
+      <c r="F39" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G39" s="117"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="118"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="118"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="118"/>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="119"/>
-      <c r="S39" s="117"/>
-      <c r="T39" s="118"/>
-      <c r="U39" s="120">
-        <v>1</v>
-      </c>
-      <c r="V39" s="121">
-        <v>1</v>
-      </c>
-      <c r="W39" s="117"/>
-      <c r="X39" s="118"/>
-      <c r="Y39" s="117"/>
-      <c r="Z39" s="118"/>
-      <c r="AA39" s="117"/>
-      <c r="AB39" s="118"/>
-      <c r="AC39" s="117"/>
-      <c r="AD39" s="119"/>
-      <c r="AE39" s="119"/>
-      <c r="AF39" s="119"/>
-      <c r="AG39" s="119"/>
-      <c r="AH39" s="119"/>
-      <c r="AI39" s="119"/>
-      <c r="AJ39" s="119"/>
-      <c r="AK39" s="119"/>
-      <c r="AL39" s="119"/>
-      <c r="AM39" s="119"/>
-      <c r="AN39" s="119"/>
-      <c r="AO39" s="119"/>
-      <c r="AP39" s="119"/>
-      <c r="AQ39" s="119"/>
-      <c r="AR39" s="119"/>
-      <c r="AS39" s="119"/>
-      <c r="AT39" s="119"/>
-      <c r="AU39" s="119"/>
-      <c r="AV39" s="119"/>
-      <c r="AW39" s="119"/>
-      <c r="AX39" s="119"/>
-      <c r="AY39" s="119"/>
-      <c r="AZ39" s="119"/>
-      <c r="BA39" s="119"/>
-      <c r="BB39" s="119"/>
-      <c r="BC39" s="119"/>
-      <c r="BD39" s="119"/>
-      <c r="BE39" s="119"/>
-      <c r="BF39" s="119"/>
-      <c r="BG39" s="119"/>
-      <c r="BH39" s="119"/>
-      <c r="BI39" s="119"/>
-      <c r="BJ39" s="119"/>
-      <c r="BK39" s="119"/>
-      <c r="BL39" s="119"/>
-      <c r="BM39" s="119"/>
-      <c r="BN39" s="119"/>
-      <c r="BO39" s="119"/>
-      <c r="BP39" s="119"/>
-      <c r="BQ39" s="119"/>
-      <c r="BR39" s="119"/>
-      <c r="BS39" s="119"/>
-      <c r="BT39" s="119"/>
-      <c r="BU39" s="119"/>
-      <c r="BV39" s="119"/>
-      <c r="BW39" s="119"/>
-      <c r="BX39" s="119"/>
-      <c r="BY39" s="119"/>
-      <c r="BZ39" s="119"/>
-      <c r="CA39" s="119"/>
-      <c r="CB39" s="119"/>
-      <c r="CC39" s="119"/>
-      <c r="CD39" s="119"/>
-      <c r="CE39" s="119"/>
-      <c r="CF39" s="119"/>
-      <c r="CG39" s="119"/>
-      <c r="CH39" s="119"/>
-      <c r="CI39" s="119"/>
+      <c r="H39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="5">
+        <v>1</v>
+      </c>
+      <c r="V39" s="4">
+        <v>1</v>
+      </c>
+      <c r="X39" s="68"/>
+      <c r="Z39" s="68"/>
+      <c r="AB39" s="68"/>
+      <c r="AC39" s="79"/>
     </row>
     <row r="40" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A40" s="122" t="s">
+      <c r="A40" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="B40" s="122">
-        <v>0</v>
-      </c>
-      <c r="C40" s="123">
-        <v>0</v>
-      </c>
-      <c r="D40" s="122">
-        <v>1</v>
-      </c>
-      <c r="E40" s="124">
+      <c r="B40" s="113">
+        <v>0</v>
+      </c>
+      <c r="C40" s="114">
+        <v>0</v>
+      </c>
+      <c r="D40" s="113">
+        <v>1</v>
+      </c>
+      <c r="E40" s="114">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F40" s="123">
+      <c r="F40" s="114">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="G40" s="122"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="123"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="122"/>
-      <c r="N40" s="123"/>
-      <c r="O40" s="122"/>
-      <c r="P40" s="123"/>
-      <c r="Q40" s="122"/>
-      <c r="R40" s="124"/>
-      <c r="S40" s="122"/>
-      <c r="T40" s="123"/>
-      <c r="U40" s="125">
-        <v>3</v>
-      </c>
-      <c r="V40" s="126">
-        <v>2</v>
-      </c>
-      <c r="W40" s="122"/>
-      <c r="X40" s="123"/>
-      <c r="Y40" s="122"/>
-      <c r="Z40" s="123"/>
-      <c r="AA40" s="122"/>
-      <c r="AB40" s="123"/>
-      <c r="AC40" s="122"/>
-      <c r="AD40" s="124"/>
-      <c r="AE40" s="124"/>
-      <c r="AF40" s="124"/>
-      <c r="AG40" s="124"/>
-      <c r="AH40" s="124"/>
-      <c r="AI40" s="124"/>
-      <c r="AJ40" s="124"/>
-      <c r="AK40" s="124"/>
-      <c r="AL40" s="124"/>
-      <c r="AM40" s="124"/>
-      <c r="AN40" s="124"/>
-      <c r="AO40" s="124"/>
-      <c r="AP40" s="124"/>
-      <c r="AQ40" s="124"/>
-      <c r="AR40" s="124"/>
-      <c r="AS40" s="124"/>
-      <c r="AT40" s="124"/>
-      <c r="AU40" s="124"/>
-      <c r="AV40" s="124"/>
-      <c r="AW40" s="124"/>
-      <c r="AX40" s="124"/>
-      <c r="AY40" s="124"/>
-      <c r="AZ40" s="124"/>
-      <c r="BA40" s="124"/>
-      <c r="BB40" s="124"/>
-      <c r="BC40" s="124"/>
-      <c r="BD40" s="124"/>
-      <c r="BE40" s="124"/>
-      <c r="BF40" s="124"/>
-      <c r="BG40" s="124"/>
-      <c r="BH40" s="124"/>
-      <c r="BI40" s="124"/>
-      <c r="BJ40" s="124"/>
-      <c r="BK40" s="124"/>
-      <c r="BL40" s="124"/>
-      <c r="BM40" s="124"/>
-      <c r="BN40" s="124"/>
-      <c r="BO40" s="124"/>
-      <c r="BP40" s="124"/>
-      <c r="BQ40" s="124"/>
-      <c r="BR40" s="124"/>
-      <c r="BS40" s="124"/>
-      <c r="BT40" s="124"/>
-      <c r="BU40" s="124"/>
-      <c r="BV40" s="124"/>
-      <c r="BW40" s="124"/>
-      <c r="BX40" s="124"/>
-      <c r="BY40" s="124"/>
-      <c r="BZ40" s="124"/>
-      <c r="CA40" s="124"/>
-      <c r="CB40" s="124"/>
-      <c r="CC40" s="124"/>
-      <c r="CD40" s="124"/>
-      <c r="CE40" s="124"/>
-      <c r="CF40" s="124"/>
-      <c r="CG40" s="124"/>
-      <c r="CH40" s="124"/>
-      <c r="CI40" s="124"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="114"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="114"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="114"/>
+      <c r="S40" s="113"/>
+      <c r="T40" s="114"/>
+      <c r="U40" s="115">
+        <v>3</v>
+      </c>
+      <c r="V40" s="116">
+        <v>2</v>
+      </c>
+      <c r="W40" s="113"/>
+      <c r="X40" s="114"/>
+      <c r="Y40" s="113"/>
+      <c r="Z40" s="114"/>
+      <c r="AA40" s="113"/>
+      <c r="AB40" s="114"/>
+      <c r="AC40" s="113"/>
+      <c r="AD40" s="114"/>
+      <c r="AE40" s="114"/>
+      <c r="AF40" s="114"/>
+      <c r="AG40" s="114"/>
+      <c r="AH40" s="114"/>
+      <c r="AI40" s="114"/>
+      <c r="AJ40" s="114"/>
+      <c r="AK40" s="114"/>
+      <c r="AL40" s="114"/>
+      <c r="AM40" s="114"/>
+      <c r="AN40" s="114"/>
+      <c r="AO40" s="114"/>
+      <c r="AP40" s="114"/>
+      <c r="AQ40" s="114"/>
+      <c r="AR40" s="114"/>
+      <c r="AS40" s="114"/>
+      <c r="AT40" s="114"/>
+      <c r="AU40" s="114"/>
+      <c r="AV40" s="114"/>
+      <c r="AW40" s="114"/>
+      <c r="AX40" s="114"/>
+      <c r="AY40" s="114"/>
+      <c r="AZ40" s="114"/>
+      <c r="BA40" s="114"/>
+      <c r="BB40" s="114"/>
+      <c r="BC40" s="114"/>
+      <c r="BD40" s="114"/>
+      <c r="BE40" s="114"/>
+      <c r="BF40" s="114"/>
+      <c r="BG40" s="114"/>
+      <c r="BH40" s="114"/>
+      <c r="BI40" s="114"/>
+      <c r="BJ40" s="114"/>
+      <c r="BK40" s="114"/>
+      <c r="BL40" s="114"/>
+      <c r="BM40" s="114"/>
+      <c r="BN40" s="114"/>
+      <c r="BO40" s="114"/>
+      <c r="BP40" s="114"/>
+      <c r="BQ40" s="114"/>
+      <c r="BR40" s="114"/>
+      <c r="BS40" s="114"/>
+      <c r="BT40" s="114"/>
+      <c r="BU40" s="114"/>
+      <c r="BV40" s="114"/>
+      <c r="BW40" s="114"/>
+      <c r="BX40" s="114"/>
+      <c r="BY40" s="114"/>
+      <c r="BZ40" s="114"/>
+      <c r="CA40" s="114"/>
+      <c r="CB40" s="114"/>
+      <c r="CC40" s="114"/>
+      <c r="CD40" s="114"/>
+      <c r="CE40" s="114"/>
+      <c r="CF40" s="114"/>
+      <c r="CG40" s="114"/>
+      <c r="CH40" s="114"/>
+      <c r="CI40" s="114"/>
     </row>
     <row r="41" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="B41" s="117">
-        <v>0</v>
-      </c>
-      <c r="C41" s="118">
-        <v>0</v>
-      </c>
-      <c r="D41" s="117">
-        <v>0</v>
-      </c>
-      <c r="E41" s="119">
+      <c r="B41" s="79">
+        <v>0</v>
+      </c>
+      <c r="C41" s="68">
+        <v>0</v>
+      </c>
+      <c r="D41" s="79">
+        <v>0</v>
+      </c>
+      <c r="E41" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F41" s="118" t="e">
+      <c r="F41" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="117"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="117"/>
-      <c r="P41" s="118"/>
-      <c r="Q41" s="117"/>
-      <c r="R41" s="119"/>
-      <c r="S41" s="117"/>
-      <c r="T41" s="118"/>
-      <c r="U41" s="117"/>
-      <c r="V41" s="118"/>
-      <c r="W41" s="117"/>
-      <c r="X41" s="118"/>
-      <c r="Y41" s="117"/>
-      <c r="Z41" s="118"/>
-      <c r="AA41" s="117"/>
-      <c r="AB41" s="118"/>
-      <c r="AC41" s="117"/>
-      <c r="AD41" s="119"/>
-      <c r="AE41" s="119"/>
-      <c r="AF41" s="119"/>
-      <c r="AG41" s="119"/>
-      <c r="AH41" s="119"/>
-      <c r="AI41" s="119"/>
-      <c r="AJ41" s="119"/>
-      <c r="AK41" s="119"/>
-      <c r="AL41" s="119"/>
-      <c r="AM41" s="119"/>
-      <c r="AN41" s="119"/>
-      <c r="AO41" s="119"/>
-      <c r="AP41" s="119"/>
-      <c r="AQ41" s="119"/>
-      <c r="AR41" s="119"/>
-      <c r="AS41" s="119"/>
-      <c r="AT41" s="119"/>
-      <c r="AU41" s="119"/>
-      <c r="AV41" s="119"/>
-      <c r="AW41" s="119"/>
-      <c r="AX41" s="119"/>
-      <c r="AY41" s="119"/>
-      <c r="AZ41" s="119"/>
-      <c r="BA41" s="119"/>
-      <c r="BB41" s="119"/>
-      <c r="BC41" s="119"/>
-      <c r="BD41" s="119"/>
-      <c r="BE41" s="119"/>
-      <c r="BF41" s="119"/>
-      <c r="BG41" s="119"/>
-      <c r="BH41" s="119"/>
-      <c r="BI41" s="119"/>
-      <c r="BJ41" s="119"/>
-      <c r="BK41" s="119"/>
-      <c r="BL41" s="119"/>
-      <c r="BM41" s="119"/>
-      <c r="BN41" s="119"/>
-      <c r="BO41" s="119"/>
-      <c r="BP41" s="119"/>
-      <c r="BQ41" s="119"/>
-      <c r="BR41" s="119"/>
-      <c r="BS41" s="119"/>
-      <c r="BT41" s="119"/>
-      <c r="BU41" s="119"/>
-      <c r="BV41" s="119"/>
-      <c r="BW41" s="119"/>
-      <c r="BX41" s="119"/>
-      <c r="BY41" s="119"/>
-      <c r="BZ41" s="119"/>
-      <c r="CA41" s="119"/>
-      <c r="CB41" s="119"/>
-      <c r="CC41" s="119"/>
-      <c r="CD41" s="119"/>
-      <c r="CE41" s="119"/>
-      <c r="CF41" s="119"/>
-      <c r="CG41" s="119"/>
-      <c r="CH41" s="119"/>
-      <c r="CI41" s="119"/>
+      <c r="H41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AB41" s="68"/>
+      <c r="AC41" s="79"/>
     </row>
     <row r="42" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A42" s="122" t="s">
+      <c r="A42" s="113" t="s">
         <v>222</v>
       </c>
-      <c r="B42" s="122">
-        <v>0</v>
-      </c>
-      <c r="C42" s="123">
-        <v>0</v>
-      </c>
-      <c r="D42" s="122">
-        <v>0</v>
-      </c>
-      <c r="E42" s="124">
+      <c r="B42" s="113">
+        <v>0</v>
+      </c>
+      <c r="C42" s="114">
+        <v>0</v>
+      </c>
+      <c r="D42" s="113">
+        <v>0</v>
+      </c>
+      <c r="E42" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F42" s="123" t="e">
+      <c r="F42" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="122"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="123"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="123"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="123"/>
-      <c r="O42" s="122"/>
-      <c r="P42" s="123"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="124"/>
-      <c r="S42" s="122"/>
-      <c r="T42" s="123"/>
-      <c r="U42" s="122"/>
-      <c r="V42" s="123"/>
-      <c r="W42" s="122"/>
-      <c r="X42" s="123"/>
-      <c r="Y42" s="122"/>
-      <c r="Z42" s="123"/>
-      <c r="AA42" s="122"/>
-      <c r="AB42" s="123"/>
-      <c r="AC42" s="122"/>
-      <c r="AD42" s="124"/>
-      <c r="AE42" s="124"/>
-      <c r="AF42" s="124"/>
-      <c r="AG42" s="124"/>
-      <c r="AH42" s="124"/>
-      <c r="AI42" s="124"/>
-      <c r="AJ42" s="124"/>
-      <c r="AK42" s="124"/>
-      <c r="AL42" s="124"/>
-      <c r="AM42" s="124"/>
-      <c r="AN42" s="124"/>
-      <c r="AO42" s="124"/>
-      <c r="AP42" s="124"/>
-      <c r="AQ42" s="124"/>
-      <c r="AR42" s="124"/>
-      <c r="AS42" s="124"/>
-      <c r="AT42" s="124"/>
-      <c r="AU42" s="124"/>
-      <c r="AV42" s="124"/>
-      <c r="AW42" s="124"/>
-      <c r="AX42" s="124"/>
-      <c r="AY42" s="124"/>
-      <c r="AZ42" s="124"/>
-      <c r="BA42" s="124"/>
-      <c r="BB42" s="124"/>
-      <c r="BC42" s="124"/>
-      <c r="BD42" s="124"/>
-      <c r="BE42" s="124"/>
-      <c r="BF42" s="124"/>
-      <c r="BG42" s="124"/>
-      <c r="BH42" s="124"/>
-      <c r="BI42" s="124"/>
-      <c r="BJ42" s="124"/>
-      <c r="BK42" s="124"/>
-      <c r="BL42" s="124"/>
-      <c r="BM42" s="124"/>
-      <c r="BN42" s="124"/>
-      <c r="BO42" s="124"/>
-      <c r="BP42" s="124"/>
-      <c r="BQ42" s="124"/>
-      <c r="BR42" s="124"/>
-      <c r="BS42" s="124"/>
-      <c r="BT42" s="124"/>
-      <c r="BU42" s="124"/>
-      <c r="BV42" s="124"/>
-      <c r="BW42" s="124"/>
-      <c r="BX42" s="124"/>
-      <c r="BY42" s="124"/>
-      <c r="BZ42" s="124"/>
-      <c r="CA42" s="124"/>
-      <c r="CB42" s="124"/>
-      <c r="CC42" s="124"/>
-      <c r="CD42" s="124"/>
-      <c r="CE42" s="124"/>
-      <c r="CF42" s="124"/>
-      <c r="CG42" s="124"/>
-      <c r="CH42" s="124"/>
-      <c r="CI42" s="124"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="113"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="113"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="113"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="113"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="113"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="113"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="113"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="113"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="114"/>
+      <c r="AG42" s="114"/>
+      <c r="AH42" s="114"/>
+      <c r="AI42" s="114"/>
+      <c r="AJ42" s="114"/>
+      <c r="AK42" s="114"/>
+      <c r="AL42" s="114"/>
+      <c r="AM42" s="114"/>
+      <c r="AN42" s="114"/>
+      <c r="AO42" s="114"/>
+      <c r="AP42" s="114"/>
+      <c r="AQ42" s="114"/>
+      <c r="AR42" s="114"/>
+      <c r="AS42" s="114"/>
+      <c r="AT42" s="114"/>
+      <c r="AU42" s="114"/>
+      <c r="AV42" s="114"/>
+      <c r="AW42" s="114"/>
+      <c r="AX42" s="114"/>
+      <c r="AY42" s="114"/>
+      <c r="AZ42" s="114"/>
+      <c r="BA42" s="114"/>
+      <c r="BB42" s="114"/>
+      <c r="BC42" s="114"/>
+      <c r="BD42" s="114"/>
+      <c r="BE42" s="114"/>
+      <c r="BF42" s="114"/>
+      <c r="BG42" s="114"/>
+      <c r="BH42" s="114"/>
+      <c r="BI42" s="114"/>
+      <c r="BJ42" s="114"/>
+      <c r="BK42" s="114"/>
+      <c r="BL42" s="114"/>
+      <c r="BM42" s="114"/>
+      <c r="BN42" s="114"/>
+      <c r="BO42" s="114"/>
+      <c r="BP42" s="114"/>
+      <c r="BQ42" s="114"/>
+      <c r="BR42" s="114"/>
+      <c r="BS42" s="114"/>
+      <c r="BT42" s="114"/>
+      <c r="BU42" s="114"/>
+      <c r="BV42" s="114"/>
+      <c r="BW42" s="114"/>
+      <c r="BX42" s="114"/>
+      <c r="BY42" s="114"/>
+      <c r="BZ42" s="114"/>
+      <c r="CA42" s="114"/>
+      <c r="CB42" s="114"/>
+      <c r="CC42" s="114"/>
+      <c r="CD42" s="114"/>
+      <c r="CE42" s="114"/>
+      <c r="CF42" s="114"/>
+      <c r="CG42" s="114"/>
+      <c r="CH42" s="114"/>
+      <c r="CI42" s="114"/>
     </row>
     <row r="43" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="79" t="s">
         <v>223</v>
       </c>
-      <c r="B43" s="117">
-        <v>0</v>
-      </c>
-      <c r="C43" s="118">
-        <v>0</v>
-      </c>
-      <c r="D43" s="117">
-        <v>0</v>
-      </c>
-      <c r="E43" s="119">
+      <c r="B43" s="79">
+        <v>0</v>
+      </c>
+      <c r="C43" s="68">
+        <v>0</v>
+      </c>
+      <c r="D43" s="79">
+        <v>0</v>
+      </c>
+      <c r="E43" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F43" s="118" t="e">
+      <c r="F43" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G43" s="117"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="117"/>
-      <c r="N43" s="118"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="119"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="118"/>
-      <c r="U43" s="117"/>
-      <c r="V43" s="118"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="118"/>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="118"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="118"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="119"/>
-      <c r="AE43" s="119"/>
-      <c r="AF43" s="119"/>
-      <c r="AG43" s="119"/>
-      <c r="AH43" s="119"/>
-      <c r="AI43" s="119"/>
-      <c r="AJ43" s="119"/>
-      <c r="AK43" s="119"/>
-      <c r="AL43" s="119"/>
-      <c r="AM43" s="119"/>
-      <c r="AN43" s="119"/>
-      <c r="AO43" s="119"/>
-      <c r="AP43" s="119"/>
-      <c r="AQ43" s="119"/>
-      <c r="AR43" s="119"/>
-      <c r="AS43" s="119"/>
-      <c r="AT43" s="119"/>
-      <c r="AU43" s="119"/>
-      <c r="AV43" s="119"/>
-      <c r="AW43" s="119"/>
-      <c r="AX43" s="119"/>
-      <c r="AY43" s="119"/>
-      <c r="AZ43" s="119"/>
-      <c r="BA43" s="119"/>
-      <c r="BB43" s="119"/>
-      <c r="BC43" s="119"/>
-      <c r="BD43" s="119"/>
-      <c r="BE43" s="119"/>
-      <c r="BF43" s="119"/>
-      <c r="BG43" s="119"/>
-      <c r="BH43" s="119"/>
-      <c r="BI43" s="119"/>
-      <c r="BJ43" s="119"/>
-      <c r="BK43" s="119"/>
-      <c r="BL43" s="119"/>
-      <c r="BM43" s="119"/>
-      <c r="BN43" s="119"/>
-      <c r="BO43" s="119"/>
-      <c r="BP43" s="119"/>
-      <c r="BQ43" s="119"/>
-      <c r="BR43" s="119"/>
-      <c r="BS43" s="119"/>
-      <c r="BT43" s="119"/>
-      <c r="BU43" s="119"/>
-      <c r="BV43" s="119"/>
-      <c r="BW43" s="119"/>
-      <c r="BX43" s="119"/>
-      <c r="BY43" s="119"/>
-      <c r="BZ43" s="119"/>
-      <c r="CA43" s="119"/>
-      <c r="CB43" s="119"/>
-      <c r="CC43" s="119"/>
-      <c r="CD43" s="119"/>
-      <c r="CE43" s="119"/>
-      <c r="CF43" s="119"/>
-      <c r="CG43" s="119"/>
-      <c r="CH43" s="119"/>
-      <c r="CI43" s="119"/>
+      <c r="H43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AB43" s="68"/>
+      <c r="AC43" s="79"/>
     </row>
     <row r="44" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A44" s="122" t="s">
+      <c r="A44" s="113" t="s">
         <v>224</v>
       </c>
-      <c r="B44" s="122">
-        <v>0</v>
-      </c>
-      <c r="C44" s="123">
-        <v>0</v>
-      </c>
-      <c r="D44" s="122">
-        <v>0</v>
-      </c>
-      <c r="E44" s="124">
+      <c r="B44" s="113">
+        <v>0</v>
+      </c>
+      <c r="C44" s="114">
+        <v>0</v>
+      </c>
+      <c r="D44" s="113">
+        <v>0</v>
+      </c>
+      <c r="E44" s="114">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F44" s="123" t="e">
+      <c r="F44" s="114" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="122"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="123"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="123"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="123"/>
-      <c r="O44" s="122"/>
-      <c r="P44" s="123"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="124"/>
-      <c r="S44" s="122"/>
-      <c r="T44" s="123"/>
-      <c r="U44" s="122"/>
-      <c r="V44" s="123"/>
-      <c r="W44" s="122"/>
-      <c r="X44" s="123"/>
-      <c r="Y44" s="122"/>
-      <c r="Z44" s="123"/>
-      <c r="AA44" s="122"/>
-      <c r="AB44" s="123"/>
-      <c r="AC44" s="122"/>
-      <c r="AD44" s="124"/>
-      <c r="AE44" s="124"/>
-      <c r="AF44" s="124"/>
-      <c r="AG44" s="124"/>
-      <c r="AH44" s="124"/>
-      <c r="AI44" s="124"/>
-      <c r="AJ44" s="124"/>
-      <c r="AK44" s="124"/>
-      <c r="AL44" s="124"/>
-      <c r="AM44" s="124"/>
-      <c r="AN44" s="124"/>
-      <c r="AO44" s="124"/>
-      <c r="AP44" s="124"/>
-      <c r="AQ44" s="124"/>
-      <c r="AR44" s="124"/>
-      <c r="AS44" s="124"/>
-      <c r="AT44" s="124"/>
-      <c r="AU44" s="124"/>
-      <c r="AV44" s="124"/>
-      <c r="AW44" s="124"/>
-      <c r="AX44" s="124"/>
-      <c r="AY44" s="124"/>
-      <c r="AZ44" s="124"/>
-      <c r="BA44" s="124"/>
-      <c r="BB44" s="124"/>
-      <c r="BC44" s="124"/>
-      <c r="BD44" s="124"/>
-      <c r="BE44" s="124"/>
-      <c r="BF44" s="124"/>
-      <c r="BG44" s="124"/>
-      <c r="BH44" s="124"/>
-      <c r="BI44" s="124"/>
-      <c r="BJ44" s="124"/>
-      <c r="BK44" s="124"/>
-      <c r="BL44" s="124"/>
-      <c r="BM44" s="124"/>
-      <c r="BN44" s="124"/>
-      <c r="BO44" s="124"/>
-      <c r="BP44" s="124"/>
-      <c r="BQ44" s="124"/>
-      <c r="BR44" s="124"/>
-      <c r="BS44" s="124"/>
-      <c r="BT44" s="124"/>
-      <c r="BU44" s="124"/>
-      <c r="BV44" s="124"/>
-      <c r="BW44" s="124"/>
-      <c r="BX44" s="124"/>
-      <c r="BY44" s="124"/>
-      <c r="BZ44" s="124"/>
-      <c r="CA44" s="124"/>
-      <c r="CB44" s="124"/>
-      <c r="CC44" s="124"/>
-      <c r="CD44" s="124"/>
-      <c r="CE44" s="124"/>
-      <c r="CF44" s="124"/>
-      <c r="CG44" s="124"/>
-      <c r="CH44" s="124"/>
-      <c r="CI44" s="124"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="113"/>
+      <c r="T44" s="114"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="114"/>
+      <c r="W44" s="113"/>
+      <c r="X44" s="114"/>
+      <c r="Y44" s="113"/>
+      <c r="Z44" s="114"/>
+      <c r="AA44" s="113"/>
+      <c r="AB44" s="114"/>
+      <c r="AC44" s="113"/>
+      <c r="AD44" s="114"/>
+      <c r="AE44" s="114"/>
+      <c r="AF44" s="114"/>
+      <c r="AG44" s="114"/>
+      <c r="AH44" s="114"/>
+      <c r="AI44" s="114"/>
+      <c r="AJ44" s="114"/>
+      <c r="AK44" s="114"/>
+      <c r="AL44" s="114"/>
+      <c r="AM44" s="114"/>
+      <c r="AN44" s="114"/>
+      <c r="AO44" s="114"/>
+      <c r="AP44" s="114"/>
+      <c r="AQ44" s="114"/>
+      <c r="AR44" s="114"/>
+      <c r="AS44" s="114"/>
+      <c r="AT44" s="114"/>
+      <c r="AU44" s="114"/>
+      <c r="AV44" s="114"/>
+      <c r="AW44" s="114"/>
+      <c r="AX44" s="114"/>
+      <c r="AY44" s="114"/>
+      <c r="AZ44" s="114"/>
+      <c r="BA44" s="114"/>
+      <c r="BB44" s="114"/>
+      <c r="BC44" s="114"/>
+      <c r="BD44" s="114"/>
+      <c r="BE44" s="114"/>
+      <c r="BF44" s="114"/>
+      <c r="BG44" s="114"/>
+      <c r="BH44" s="114"/>
+      <c r="BI44" s="114"/>
+      <c r="BJ44" s="114"/>
+      <c r="BK44" s="114"/>
+      <c r="BL44" s="114"/>
+      <c r="BM44" s="114"/>
+      <c r="BN44" s="114"/>
+      <c r="BO44" s="114"/>
+      <c r="BP44" s="114"/>
+      <c r="BQ44" s="114"/>
+      <c r="BR44" s="114"/>
+      <c r="BS44" s="114"/>
+      <c r="BT44" s="114"/>
+      <c r="BU44" s="114"/>
+      <c r="BV44" s="114"/>
+      <c r="BW44" s="114"/>
+      <c r="BX44" s="114"/>
+      <c r="BY44" s="114"/>
+      <c r="BZ44" s="114"/>
+      <c r="CA44" s="114"/>
+      <c r="CB44" s="114"/>
+      <c r="CC44" s="114"/>
+      <c r="CD44" s="114"/>
+      <c r="CE44" s="114"/>
+      <c r="CF44" s="114"/>
+      <c r="CG44" s="114"/>
+      <c r="CH44" s="114"/>
+      <c r="CI44" s="114"/>
     </row>
     <row r="45" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A45" s="117" t="s">
+      <c r="A45" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="B45" s="117">
-        <v>0</v>
-      </c>
-      <c r="C45" s="118">
-        <v>0</v>
-      </c>
-      <c r="D45" s="117">
-        <v>0</v>
-      </c>
-      <c r="E45" s="119">
+      <c r="B45" s="79">
+        <v>0</v>
+      </c>
+      <c r="C45" s="68">
+        <v>0</v>
+      </c>
+      <c r="D45" s="79">
+        <v>0</v>
+      </c>
+      <c r="E45" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F45" s="118" t="e">
+      <c r="F45" s="68" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G45" s="117"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="117"/>
-      <c r="N45" s="118"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="117"/>
-      <c r="R45" s="119"/>
-      <c r="S45" s="117"/>
-      <c r="T45" s="118"/>
-      <c r="U45" s="117"/>
-      <c r="V45" s="118"/>
-      <c r="W45" s="117"/>
-      <c r="X45" s="118"/>
-      <c r="Y45" s="117"/>
-      <c r="Z45" s="118"/>
-      <c r="AA45" s="117"/>
-      <c r="AB45" s="118"/>
-      <c r="AC45" s="117"/>
-      <c r="AD45" s="119"/>
-      <c r="AE45" s="119"/>
-      <c r="AF45" s="119"/>
-      <c r="AG45" s="119"/>
-      <c r="AH45" s="119"/>
-      <c r="AI45" s="119"/>
-      <c r="AJ45" s="119"/>
-      <c r="AK45" s="119"/>
-      <c r="AL45" s="119"/>
-      <c r="AM45" s="119"/>
-      <c r="AN45" s="119"/>
-      <c r="AO45" s="119"/>
-      <c r="AP45" s="119"/>
-      <c r="AQ45" s="119"/>
-      <c r="AR45" s="119"/>
-      <c r="AS45" s="119"/>
-      <c r="AT45" s="119"/>
-      <c r="AU45" s="119"/>
-      <c r="AV45" s="119"/>
-      <c r="AW45" s="119"/>
-      <c r="AX45" s="119"/>
-      <c r="AY45" s="119"/>
-      <c r="AZ45" s="119"/>
-      <c r="BA45" s="119"/>
-      <c r="BB45" s="119"/>
-      <c r="BC45" s="119"/>
-      <c r="BD45" s="119"/>
-      <c r="BE45" s="119"/>
-      <c r="BF45" s="119"/>
-      <c r="BG45" s="119"/>
-      <c r="BH45" s="119"/>
-      <c r="BI45" s="119"/>
-      <c r="BJ45" s="119"/>
-      <c r="BK45" s="119"/>
-      <c r="BL45" s="119"/>
-      <c r="BM45" s="119"/>
-      <c r="BN45" s="119"/>
-      <c r="BO45" s="119"/>
-      <c r="BP45" s="119"/>
-      <c r="BQ45" s="119"/>
-      <c r="BR45" s="119"/>
-      <c r="BS45" s="119"/>
-      <c r="BT45" s="119"/>
-      <c r="BU45" s="119"/>
-      <c r="BV45" s="119"/>
-      <c r="BW45" s="119"/>
-      <c r="BX45" s="119"/>
-      <c r="BY45" s="119"/>
-      <c r="BZ45" s="119"/>
-      <c r="CA45" s="119"/>
-      <c r="CB45" s="119"/>
-      <c r="CC45" s="119"/>
-      <c r="CD45" s="119"/>
-      <c r="CE45" s="119"/>
-      <c r="CF45" s="119"/>
-      <c r="CG45" s="119"/>
-      <c r="CH45" s="119"/>
-      <c r="CI45" s="119"/>
-    </row>
-    <row r="46" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A46" s="122"/>
-      <c r="B46" s="122"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="123"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="123"/>
-      <c r="M46" s="122"/>
-      <c r="N46" s="123"/>
-      <c r="O46" s="122"/>
-      <c r="P46" s="123"/>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="123"/>
-      <c r="S46" s="122"/>
-      <c r="T46" s="123"/>
-      <c r="U46" s="122"/>
-      <c r="V46" s="123"/>
-      <c r="W46" s="122"/>
-      <c r="X46" s="123"/>
-      <c r="Y46" s="122"/>
-      <c r="Z46" s="123"/>
-      <c r="AA46" s="122"/>
-      <c r="AB46" s="123"/>
-      <c r="AC46" s="122"/>
-      <c r="AD46" s="124"/>
-      <c r="AE46" s="124"/>
-      <c r="AF46" s="124"/>
-      <c r="AG46" s="124"/>
-      <c r="AH46" s="124"/>
-      <c r="AI46" s="124"/>
-      <c r="AJ46" s="124"/>
-      <c r="AK46" s="124"/>
-      <c r="AL46" s="124"/>
-      <c r="AM46" s="124"/>
-      <c r="AN46" s="124"/>
-      <c r="AO46" s="124"/>
-      <c r="AP46" s="124"/>
-      <c r="AQ46" s="124"/>
-      <c r="AR46" s="124"/>
-      <c r="AS46" s="124"/>
-      <c r="AT46" s="124"/>
-      <c r="AU46" s="124"/>
-      <c r="AV46" s="124"/>
-      <c r="AW46" s="124"/>
-      <c r="AX46" s="124"/>
-      <c r="AY46" s="124"/>
-      <c r="AZ46" s="124"/>
-      <c r="BA46" s="124"/>
-      <c r="BB46" s="124"/>
-      <c r="BC46" s="124"/>
-      <c r="BD46" s="124"/>
-      <c r="BE46" s="124"/>
-      <c r="BF46" s="124"/>
-      <c r="BG46" s="124"/>
-      <c r="BH46" s="124"/>
-      <c r="BI46" s="124"/>
-      <c r="BJ46" s="124"/>
-      <c r="BK46" s="124"/>
-      <c r="BL46" s="124"/>
-      <c r="BM46" s="124"/>
-      <c r="BN46" s="124"/>
-      <c r="BO46" s="124"/>
-      <c r="BP46" s="124"/>
-      <c r="BQ46" s="124"/>
-      <c r="BR46" s="124"/>
-      <c r="BS46" s="124"/>
-      <c r="BT46" s="124"/>
-      <c r="BU46" s="124"/>
-      <c r="BV46" s="124"/>
-      <c r="BW46" s="124"/>
-      <c r="BX46" s="124"/>
-      <c r="BY46" s="124"/>
-      <c r="BZ46" s="124"/>
-      <c r="CA46" s="124"/>
-      <c r="CB46" s="124"/>
-      <c r="CC46" s="124"/>
-      <c r="CD46" s="124"/>
-      <c r="CE46" s="124"/>
-      <c r="CF46" s="124"/>
-      <c r="CG46" s="124"/>
-      <c r="CH46" s="124"/>
-      <c r="CI46" s="124"/>
-    </row>
-    <row r="47" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A47" s="117"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="117"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="117"/>
-      <c r="N47" s="118"/>
-      <c r="O47" s="117"/>
-      <c r="P47" s="118"/>
-      <c r="Q47" s="117"/>
-      <c r="R47" s="118"/>
-      <c r="S47" s="117"/>
-      <c r="T47" s="118"/>
-      <c r="U47" s="117"/>
-      <c r="V47" s="118"/>
-      <c r="W47" s="117"/>
-      <c r="X47" s="118"/>
-      <c r="Y47" s="117"/>
-      <c r="Z47" s="118"/>
-      <c r="AA47" s="117"/>
-      <c r="AB47" s="118"/>
-      <c r="AC47" s="117"/>
-      <c r="AD47" s="119"/>
-      <c r="AE47" s="119"/>
-      <c r="AF47" s="119"/>
-      <c r="AG47" s="119"/>
-      <c r="AH47" s="119"/>
-      <c r="AI47" s="119"/>
-      <c r="AJ47" s="119"/>
-      <c r="AK47" s="119"/>
-      <c r="AL47" s="119"/>
-      <c r="AM47" s="119"/>
-      <c r="AN47" s="119"/>
-      <c r="AO47" s="119"/>
-      <c r="AP47" s="119"/>
-      <c r="AQ47" s="119"/>
-      <c r="AR47" s="119"/>
-      <c r="AS47" s="119"/>
-      <c r="AT47" s="119"/>
-      <c r="AU47" s="119"/>
-      <c r="AV47" s="119"/>
-      <c r="AW47" s="119"/>
-      <c r="AX47" s="119"/>
-      <c r="AY47" s="119"/>
-      <c r="AZ47" s="119"/>
-      <c r="BA47" s="119"/>
-      <c r="BB47" s="119"/>
-      <c r="BC47" s="119"/>
-      <c r="BD47" s="119"/>
-      <c r="BE47" s="119"/>
-      <c r="BF47" s="119"/>
-      <c r="BG47" s="119"/>
-      <c r="BH47" s="119"/>
-      <c r="BI47" s="119"/>
-      <c r="BJ47" s="119"/>
-      <c r="BK47" s="119"/>
-      <c r="BL47" s="119"/>
-      <c r="BM47" s="119"/>
-      <c r="BN47" s="119"/>
-      <c r="BO47" s="119"/>
-      <c r="BP47" s="119"/>
-      <c r="BQ47" s="119"/>
-      <c r="BR47" s="119"/>
-      <c r="BS47" s="119"/>
-      <c r="BT47" s="119"/>
-      <c r="BU47" s="119"/>
-      <c r="BV47" s="119"/>
-      <c r="BW47" s="119"/>
-      <c r="BX47" s="119"/>
-      <c r="BY47" s="119"/>
-      <c r="BZ47" s="119"/>
-      <c r="CA47" s="119"/>
-      <c r="CB47" s="119"/>
-      <c r="CC47" s="119"/>
-      <c r="CD47" s="119"/>
-      <c r="CE47" s="119"/>
-      <c r="CF47" s="119"/>
-      <c r="CG47" s="119"/>
-      <c r="CH47" s="119"/>
-      <c r="CI47" s="119"/>
-    </row>
-    <row r="48" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A48" s="122"/>
-      <c r="B48" s="122"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="122"/>
-      <c r="J48" s="123"/>
-      <c r="K48" s="122"/>
-      <c r="L48" s="123"/>
-      <c r="M48" s="122"/>
-      <c r="N48" s="123"/>
-      <c r="O48" s="122"/>
-      <c r="P48" s="123"/>
-      <c r="Q48" s="122"/>
-      <c r="R48" s="123"/>
-      <c r="S48" s="122"/>
-      <c r="T48" s="123"/>
-      <c r="U48" s="122"/>
-      <c r="V48" s="123"/>
-      <c r="W48" s="122"/>
-      <c r="X48" s="123"/>
-      <c r="Y48" s="122"/>
-      <c r="Z48" s="123"/>
-      <c r="AA48" s="122"/>
-      <c r="AB48" s="123"/>
-      <c r="AC48" s="122"/>
-      <c r="AD48" s="124"/>
-      <c r="AE48" s="124"/>
-      <c r="AF48" s="124"/>
-      <c r="AG48" s="124"/>
-      <c r="AH48" s="124"/>
-      <c r="AI48" s="124"/>
-      <c r="AJ48" s="124"/>
-      <c r="AK48" s="124"/>
-      <c r="AL48" s="124"/>
-      <c r="AM48" s="124"/>
-      <c r="AN48" s="124"/>
-      <c r="AO48" s="124"/>
-      <c r="AP48" s="124"/>
-      <c r="AQ48" s="124"/>
-      <c r="AR48" s="124"/>
-      <c r="AS48" s="124"/>
-      <c r="AT48" s="124"/>
-      <c r="AU48" s="124"/>
-      <c r="AV48" s="124"/>
-      <c r="AW48" s="124"/>
-      <c r="AX48" s="124"/>
-      <c r="AY48" s="124"/>
-      <c r="AZ48" s="124"/>
-      <c r="BA48" s="124"/>
-      <c r="BB48" s="124"/>
-      <c r="BC48" s="124"/>
-      <c r="BD48" s="124"/>
-      <c r="BE48" s="124"/>
-      <c r="BF48" s="124"/>
-      <c r="BG48" s="124"/>
-      <c r="BH48" s="124"/>
-      <c r="BI48" s="124"/>
-      <c r="BJ48" s="124"/>
-      <c r="BK48" s="124"/>
-      <c r="BL48" s="124"/>
-      <c r="BM48" s="124"/>
-      <c r="BN48" s="124"/>
-      <c r="BO48" s="124"/>
-      <c r="BP48" s="124"/>
-      <c r="BQ48" s="124"/>
-      <c r="BR48" s="124"/>
-      <c r="BS48" s="124"/>
-      <c r="BT48" s="124"/>
-      <c r="BU48" s="124"/>
-      <c r="BV48" s="124"/>
-      <c r="BW48" s="124"/>
-      <c r="BX48" s="124"/>
-      <c r="BY48" s="124"/>
-      <c r="BZ48" s="124"/>
-      <c r="CA48" s="124"/>
-      <c r="CB48" s="124"/>
-      <c r="CC48" s="124"/>
-      <c r="CD48" s="124"/>
-      <c r="CE48" s="124"/>
-      <c r="CF48" s="124"/>
-      <c r="CG48" s="124"/>
-      <c r="CH48" s="124"/>
-      <c r="CI48" s="124"/>
-    </row>
-    <row r="49" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A49" s="117"/>
-      <c r="B49" s="117"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="118"/>
-      <c r="K49" s="117"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="117"/>
-      <c r="N49" s="118"/>
-      <c r="O49" s="117"/>
-      <c r="P49" s="118"/>
-      <c r="Q49" s="117"/>
-      <c r="R49" s="118"/>
-      <c r="S49" s="117"/>
-      <c r="T49" s="118"/>
-      <c r="U49" s="117"/>
-      <c r="V49" s="118"/>
-      <c r="W49" s="117"/>
-      <c r="X49" s="118"/>
-      <c r="Y49" s="117"/>
-      <c r="Z49" s="118"/>
-      <c r="AA49" s="117"/>
-      <c r="AB49" s="118"/>
-      <c r="AC49" s="117"/>
-      <c r="AD49" s="119"/>
-      <c r="AE49" s="119"/>
-      <c r="AF49" s="119"/>
-      <c r="AG49" s="119"/>
-      <c r="AH49" s="119"/>
-      <c r="AI49" s="119"/>
-      <c r="AJ49" s="119"/>
-      <c r="AK49" s="119"/>
-      <c r="AL49" s="119"/>
-      <c r="AM49" s="119"/>
-      <c r="AN49" s="119"/>
-      <c r="AO49" s="119"/>
-      <c r="AP49" s="119"/>
-      <c r="AQ49" s="119"/>
-      <c r="AR49" s="119"/>
-      <c r="AS49" s="119"/>
-      <c r="AT49" s="119"/>
-      <c r="AU49" s="119"/>
-      <c r="AV49" s="119"/>
-      <c r="AW49" s="119"/>
-      <c r="AX49" s="119"/>
-      <c r="AY49" s="119"/>
-      <c r="AZ49" s="119"/>
-      <c r="BA49" s="119"/>
-      <c r="BB49" s="119"/>
-      <c r="BC49" s="119"/>
-      <c r="BD49" s="119"/>
-      <c r="BE49" s="119"/>
-      <c r="BF49" s="119"/>
-      <c r="BG49" s="119"/>
-      <c r="BH49" s="119"/>
-      <c r="BI49" s="119"/>
-      <c r="BJ49" s="119"/>
-      <c r="BK49" s="119"/>
-      <c r="BL49" s="119"/>
-      <c r="BM49" s="119"/>
-      <c r="BN49" s="119"/>
-      <c r="BO49" s="119"/>
-      <c r="BP49" s="119"/>
-      <c r="BQ49" s="119"/>
-      <c r="BR49" s="119"/>
-      <c r="BS49" s="119"/>
-      <c r="BT49" s="119"/>
-      <c r="BU49" s="119"/>
-      <c r="BV49" s="119"/>
-      <c r="BW49" s="119"/>
-      <c r="BX49" s="119"/>
-      <c r="BY49" s="119"/>
-      <c r="BZ49" s="119"/>
-      <c r="CA49" s="119"/>
-      <c r="CB49" s="119"/>
-      <c r="CC49" s="119"/>
-      <c r="CD49" s="119"/>
-      <c r="CE49" s="119"/>
-      <c r="CF49" s="119"/>
-      <c r="CG49" s="119"/>
-      <c r="CH49" s="119"/>
-      <c r="CI49" s="119"/>
-    </row>
-    <row r="50" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A50" s="122"/>
-      <c r="B50" s="122"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="123"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="123"/>
-      <c r="M50" s="122"/>
-      <c r="N50" s="123"/>
-      <c r="O50" s="122"/>
-      <c r="P50" s="123"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="123"/>
-      <c r="S50" s="122"/>
-      <c r="T50" s="123"/>
-      <c r="U50" s="122"/>
-      <c r="V50" s="123"/>
-      <c r="W50" s="122"/>
-      <c r="X50" s="123"/>
-      <c r="Y50" s="122"/>
-      <c r="Z50" s="123"/>
-      <c r="AA50" s="122"/>
-      <c r="AB50" s="123"/>
-      <c r="AC50" s="122"/>
-      <c r="AD50" s="124"/>
-      <c r="AE50" s="124"/>
-      <c r="AF50" s="124"/>
-      <c r="AG50" s="124"/>
-      <c r="AH50" s="124"/>
-      <c r="AI50" s="124"/>
-      <c r="AJ50" s="124"/>
-      <c r="AK50" s="124"/>
-      <c r="AL50" s="124"/>
-      <c r="AM50" s="124"/>
-      <c r="AN50" s="124"/>
-      <c r="AO50" s="124"/>
-      <c r="AP50" s="124"/>
-      <c r="AQ50" s="124"/>
-      <c r="AR50" s="124"/>
-      <c r="AS50" s="124"/>
-      <c r="AT50" s="124"/>
-      <c r="AU50" s="124"/>
-      <c r="AV50" s="124"/>
-      <c r="AW50" s="124"/>
-      <c r="AX50" s="124"/>
-      <c r="AY50" s="124"/>
-      <c r="AZ50" s="124"/>
-      <c r="BA50" s="124"/>
-      <c r="BB50" s="124"/>
-      <c r="BC50" s="124"/>
-      <c r="BD50" s="124"/>
-      <c r="BE50" s="124"/>
-      <c r="BF50" s="124"/>
-      <c r="BG50" s="124"/>
-      <c r="BH50" s="124"/>
-      <c r="BI50" s="124"/>
-      <c r="BJ50" s="124"/>
-      <c r="BK50" s="124"/>
-      <c r="BL50" s="124"/>
-      <c r="BM50" s="124"/>
-      <c r="BN50" s="124"/>
-      <c r="BO50" s="124"/>
-      <c r="BP50" s="124"/>
-      <c r="BQ50" s="124"/>
-      <c r="BR50" s="124"/>
-      <c r="BS50" s="124"/>
-      <c r="BT50" s="124"/>
-      <c r="BU50" s="124"/>
-      <c r="BV50" s="124"/>
-      <c r="BW50" s="124"/>
-      <c r="BX50" s="124"/>
-      <c r="BY50" s="124"/>
-      <c r="BZ50" s="124"/>
-      <c r="CA50" s="124"/>
-      <c r="CB50" s="124"/>
-      <c r="CC50" s="124"/>
-      <c r="CD50" s="124"/>
-      <c r="CE50" s="124"/>
-      <c r="CF50" s="124"/>
-      <c r="CG50" s="124"/>
-      <c r="CH50" s="124"/>
-      <c r="CI50" s="124"/>
-    </row>
-    <row r="51" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A51" s="117"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="118"/>
-      <c r="K51" s="117"/>
-      <c r="L51" s="118"/>
-      <c r="M51" s="117"/>
-      <c r="N51" s="118"/>
-      <c r="O51" s="117"/>
-      <c r="P51" s="118"/>
-      <c r="Q51" s="117"/>
-      <c r="R51" s="118"/>
-      <c r="S51" s="117"/>
-      <c r="T51" s="118"/>
-      <c r="U51" s="117"/>
-      <c r="V51" s="118"/>
-      <c r="W51" s="117"/>
-      <c r="X51" s="118"/>
-      <c r="Y51" s="117"/>
-      <c r="Z51" s="118"/>
-      <c r="AA51" s="117"/>
-      <c r="AB51" s="118"/>
-      <c r="AC51" s="117"/>
-      <c r="AD51" s="119"/>
-      <c r="AE51" s="119"/>
-      <c r="AF51" s="119"/>
-      <c r="AG51" s="119"/>
-      <c r="AH51" s="119"/>
-      <c r="AI51" s="119"/>
-      <c r="AJ51" s="119"/>
-      <c r="AK51" s="119"/>
-      <c r="AL51" s="119"/>
-      <c r="AM51" s="119"/>
-      <c r="AN51" s="119"/>
-      <c r="AO51" s="119"/>
-      <c r="AP51" s="119"/>
-      <c r="AQ51" s="119"/>
-      <c r="AR51" s="119"/>
-      <c r="AS51" s="119"/>
-      <c r="AT51" s="119"/>
-      <c r="AU51" s="119"/>
-      <c r="AV51" s="119"/>
-      <c r="AW51" s="119"/>
-      <c r="AX51" s="119"/>
-      <c r="AY51" s="119"/>
-      <c r="AZ51" s="119"/>
-      <c r="BA51" s="119"/>
-      <c r="BB51" s="119"/>
-      <c r="BC51" s="119"/>
-      <c r="BD51" s="119"/>
-      <c r="BE51" s="119"/>
-      <c r="BF51" s="119"/>
-      <c r="BG51" s="119"/>
-      <c r="BH51" s="119"/>
-      <c r="BI51" s="119"/>
-      <c r="BJ51" s="119"/>
-      <c r="BK51" s="119"/>
-      <c r="BL51" s="119"/>
-      <c r="BM51" s="119"/>
-      <c r="BN51" s="119"/>
-      <c r="BO51" s="119"/>
-      <c r="BP51" s="119"/>
-      <c r="BQ51" s="119"/>
-      <c r="BR51" s="119"/>
-      <c r="BS51" s="119"/>
-      <c r="BT51" s="119"/>
-      <c r="BU51" s="119"/>
-      <c r="BV51" s="119"/>
-      <c r="BW51" s="119"/>
-      <c r="BX51" s="119"/>
-      <c r="BY51" s="119"/>
-      <c r="BZ51" s="119"/>
-      <c r="CA51" s="119"/>
-      <c r="CB51" s="119"/>
-      <c r="CC51" s="119"/>
-      <c r="CD51" s="119"/>
-      <c r="CE51" s="119"/>
-      <c r="CF51" s="119"/>
-      <c r="CG51" s="119"/>
-      <c r="CH51" s="119"/>
-      <c r="CI51" s="119"/>
-    </row>
-    <row r="52" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="129"/>
-      <c r="B52" s="129"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="130"/>
-      <c r="K52" s="129"/>
-      <c r="L52" s="130"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="130"/>
-      <c r="O52" s="129"/>
-      <c r="P52" s="130"/>
-      <c r="Q52" s="129"/>
-      <c r="R52" s="130"/>
-      <c r="S52" s="129"/>
-      <c r="T52" s="130"/>
-      <c r="U52" s="129"/>
-      <c r="V52" s="130"/>
-      <c r="W52" s="129"/>
-      <c r="X52" s="130"/>
-      <c r="Y52" s="129"/>
-      <c r="Z52" s="130"/>
-      <c r="AA52" s="129"/>
-      <c r="AB52" s="130"/>
-      <c r="AC52" s="129"/>
-      <c r="AD52" s="130"/>
-      <c r="AE52" s="130"/>
-      <c r="AF52" s="130"/>
-      <c r="AG52" s="130"/>
-      <c r="AH52" s="130"/>
-      <c r="AI52" s="130"/>
-      <c r="AJ52" s="130"/>
-      <c r="AK52" s="130"/>
-      <c r="AL52" s="130"/>
-      <c r="AM52" s="130"/>
-      <c r="AN52" s="130"/>
-      <c r="AO52" s="130"/>
-      <c r="AP52" s="130"/>
-      <c r="AQ52" s="130"/>
-      <c r="AR52" s="130"/>
-      <c r="AS52" s="130"/>
-      <c r="AT52" s="130"/>
-      <c r="AU52" s="130"/>
-      <c r="AV52" s="130"/>
-      <c r="AW52" s="130"/>
-      <c r="AX52" s="130"/>
-      <c r="AY52" s="130"/>
-      <c r="AZ52" s="130"/>
-      <c r="BA52" s="130"/>
-      <c r="BB52" s="130"/>
-      <c r="BC52" s="130"/>
-      <c r="BD52" s="130"/>
-      <c r="BE52" s="130"/>
-      <c r="BF52" s="130"/>
-      <c r="BG52" s="130"/>
-      <c r="BH52" s="130"/>
-      <c r="BI52" s="130"/>
-      <c r="BJ52" s="130"/>
-      <c r="BK52" s="130"/>
-      <c r="BL52" s="130"/>
-      <c r="BM52" s="130"/>
-      <c r="BN52" s="130"/>
-      <c r="BO52" s="130"/>
-      <c r="BP52" s="130"/>
-      <c r="BQ52" s="130"/>
-      <c r="BR52" s="130"/>
-      <c r="BS52" s="130"/>
-      <c r="BT52" s="130"/>
-      <c r="BU52" s="130"/>
-      <c r="BV52" s="130"/>
-      <c r="BW52" s="130"/>
-      <c r="BX52" s="130"/>
-      <c r="BY52" s="130"/>
-      <c r="BZ52" s="130"/>
-      <c r="CA52" s="130"/>
-      <c r="CB52" s="130"/>
-      <c r="CC52" s="130"/>
-      <c r="CD52" s="130"/>
-      <c r="CE52" s="130"/>
-      <c r="CF52" s="130"/>
-      <c r="CG52" s="130"/>
-      <c r="CH52" s="130"/>
-      <c r="CI52" s="130"/>
+      <c r="H45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Z45" s="68"/>
+      <c r="AB45" s="68"/>
+      <c r="AC45" s="79"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:CL1" xr:uid="{00000000-0001-0000-0500-000000000000}"/>

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -9768,7 +9768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI48"/>
+  <dimension ref="A1:CI49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
@@ -9932,12 +9932,12 @@
       </c>
       <c r="Y1" s="107" t="inlineStr">
         <is>
-          <t>Colonna25</t>
+          <t>WAR-10 (1)</t>
         </is>
       </c>
       <c r="Z1" s="108" t="inlineStr">
         <is>
-          <t>Colonna26</t>
+          <t>WAR-10 (2)</t>
         </is>
       </c>
       <c r="AA1" s="107" t="inlineStr">
@@ -10262,11 +10262,11 @@
         <v>3</v>
       </c>
       <c r="E2" s="122">
-        <f>SUM(G2:X2)</f>
+        <f>SUM(G2:Z2)</f>
         <v/>
       </c>
       <c r="F2" s="122">
-        <f>ROUND(AVERAGE(G2:X2),1)</f>
+        <f>ROUND(AVERAGE(G2:Z2),1)</f>
         <v/>
       </c>
       <c r="G2" s="121" t="n"/>
@@ -10382,14 +10382,14 @@
         <v>0</v>
       </c>
       <c r="D3" s="123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="124">
-        <f>SUM(G3:X3)</f>
+        <f>SUM(G3:Z3)</f>
         <v/>
       </c>
       <c r="F3" s="124">
-        <f>ROUND(AVERAGE(G3:X3),1)</f>
+        <f>ROUND(AVERAGE(G3:Z3),1)</f>
         <v/>
       </c>
       <c r="G3" s="125" t="n"/>
@@ -10420,8 +10420,12 @@
       </c>
       <c r="W3" s="125" t="n"/>
       <c r="X3" s="124" t="n"/>
-      <c r="Y3" s="125" t="n"/>
-      <c r="Z3" s="124" t="n"/>
+      <c r="Y3" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="124" t="n">
+        <v>0</v>
+      </c>
       <c r="AA3" s="125" t="n"/>
       <c r="AB3" s="124" t="n"/>
       <c r="AC3" s="123" t="n"/>
@@ -10497,14 +10501,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="128" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="129">
-        <f>SUM(G4:X4)</f>
+        <f>SUM(G4:Z4)</f>
         <v/>
       </c>
       <c r="F4" s="129">
-        <f>ROUND(AVERAGE(G4:X4),1)</f>
+        <f>ROUND(AVERAGE(G4:Z4),1)</f>
         <v/>
       </c>
       <c r="G4" s="128" t="n">
@@ -10557,8 +10561,12 @@
       <c r="X4" s="129" t="n">
         <v>3</v>
       </c>
-      <c r="Y4" s="128" t="n"/>
-      <c r="Z4" s="129" t="n"/>
+      <c r="Y4" s="128" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="129" t="n">
+        <v>1</v>
+      </c>
       <c r="AA4" s="128" t="n"/>
       <c r="AB4" s="129" t="n"/>
       <c r="AC4" s="128" t="n"/>
@@ -10634,14 +10642,14 @@
         <v>0</v>
       </c>
       <c r="D5" s="123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="124">
-        <f>SUM(G5:X5)</f>
+        <f>SUM(G5:Z5)</f>
         <v/>
       </c>
       <c r="F5" s="124">
-        <f>ROUND(AVERAGE(G5:X5),1)</f>
+        <f>ROUND(AVERAGE(G5:Z5),1)</f>
         <v/>
       </c>
       <c r="G5" s="125" t="n"/>
@@ -10670,8 +10678,12 @@
       <c r="X5" s="124" t="n">
         <v>2</v>
       </c>
-      <c r="Y5" s="125" t="n"/>
-      <c r="Z5" s="124" t="n"/>
+      <c r="Y5" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="124" t="n">
+        <v>3</v>
+      </c>
       <c r="AA5" s="125" t="n"/>
       <c r="AB5" s="124" t="n"/>
       <c r="AC5" s="123" t="n"/>
@@ -10750,11 +10762,11 @@
         <v>5</v>
       </c>
       <c r="E6" s="129">
-        <f>SUM(G6:X6)</f>
+        <f>SUM(G6:Z6)</f>
         <v/>
       </c>
       <c r="F6" s="129">
-        <f>ROUND(AVERAGE(G6:X6),1)</f>
+        <f>ROUND(AVERAGE(G6:Z6),1)</f>
         <v/>
       </c>
       <c r="G6" s="128" t="n">
@@ -10876,14 +10888,14 @@
         <v>1</v>
       </c>
       <c r="D7" s="123" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="124">
-        <f>SUM(G7:X7)</f>
+        <f>SUM(G7:Z7)</f>
         <v/>
       </c>
       <c r="F7" s="124">
-        <f>ROUND(AVERAGE(G7:X7),1)</f>
+        <f>ROUND(AVERAGE(G7:Z7),1)</f>
         <v/>
       </c>
       <c r="G7" s="123" t="n">
@@ -10936,8 +10948,12 @@
       <c r="X7" s="124" t="n">
         <v>3</v>
       </c>
-      <c r="Y7" s="125" t="n"/>
-      <c r="Z7" s="124" t="n"/>
+      <c r="Y7" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="124" t="n">
+        <v>3</v>
+      </c>
       <c r="AA7" s="125" t="n"/>
       <c r="AB7" s="124" t="n"/>
       <c r="AC7" s="123" t="n"/>
@@ -11016,11 +11032,11 @@
         <v>8</v>
       </c>
       <c r="E8" s="129">
-        <f>SUM(G8:X8)</f>
+        <f>SUM(G8:Z8)</f>
         <v/>
       </c>
       <c r="F8" s="129">
-        <f>ROUND(AVERAGE(G8:X8),1)</f>
+        <f>ROUND(AVERAGE(G8:Z8),1)</f>
         <v/>
       </c>
       <c r="G8" s="128" t="n">
@@ -11150,14 +11166,14 @@
         <v>1</v>
       </c>
       <c r="D9" s="123" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="124">
-        <f>SUM(G9:X9)</f>
+        <f>SUM(G9:Z9)</f>
         <v/>
       </c>
       <c r="F9" s="124">
-        <f>ROUND(AVERAGE(G9:X9),1)</f>
+        <f>ROUND(AVERAGE(G9:Z9),1)</f>
         <v/>
       </c>
       <c r="G9" s="125" t="n"/>
@@ -11194,8 +11210,12 @@
       <c r="X9" s="124" t="n">
         <v>3</v>
       </c>
-      <c r="Y9" s="125" t="n"/>
-      <c r="Z9" s="124" t="n"/>
+      <c r="Y9" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="124" t="n">
+        <v>3</v>
+      </c>
       <c r="AA9" s="125" t="n"/>
       <c r="AB9" s="124" t="n"/>
       <c r="AC9" s="123" t="n"/>
@@ -11271,14 +11291,14 @@
         <v>0</v>
       </c>
       <c r="D10" s="128" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="129">
-        <f>SUM(G10:X10)</f>
+        <f>SUM(G10:Z10)</f>
         <v/>
       </c>
       <c r="F10" s="129">
-        <f>ROUND(AVERAGE(G10:X10),1)</f>
+        <f>ROUND(AVERAGE(G10:Z10),1)</f>
         <v/>
       </c>
       <c r="G10" s="128" t="n">
@@ -11335,8 +11355,12 @@
       <c r="X10" s="129" t="n">
         <v>3</v>
       </c>
-      <c r="Y10" s="128" t="n"/>
-      <c r="Z10" s="129" t="n"/>
+      <c r="Y10" s="128" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="129" t="n">
+        <v>1</v>
+      </c>
       <c r="AA10" s="128" t="n"/>
       <c r="AB10" s="129" t="n"/>
       <c r="AC10" s="128" t="n"/>
@@ -11415,11 +11439,11 @@
         <v>2</v>
       </c>
       <c r="E11" s="124">
-        <f>SUM(G11:X11)</f>
+        <f>SUM(G11:Z11)</f>
         <v/>
       </c>
       <c r="F11" s="124">
-        <f>ROUND(AVERAGE(G11:X11),1)</f>
+        <f>ROUND(AVERAGE(G11:Z11),1)</f>
         <v/>
       </c>
       <c r="G11" s="125" t="n"/>
@@ -11528,11 +11552,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="129">
-        <f>SUM(G12:X12)</f>
+        <f>SUM(G12:Z12)</f>
         <v/>
       </c>
       <c r="F12" s="129">
-        <f>ROUND(AVERAGE(G12:X12),1)</f>
+        <f>ROUND(AVERAGE(G12:Z12),1)</f>
         <v/>
       </c>
       <c r="G12" s="128" t="n"/>
@@ -11630,14 +11654,14 @@
         <v>2</v>
       </c>
       <c r="D13" s="123" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="124">
-        <f>SUM(G13:X13)</f>
+        <f>SUM(G13:Z13)</f>
         <v/>
       </c>
       <c r="F13" s="124">
-        <f>ROUND(AVERAGE(G13:X13),1)</f>
+        <f>ROUND(AVERAGE(G13:Z13),1)</f>
         <v/>
       </c>
       <c r="G13" s="123" t="n">
@@ -11694,8 +11718,12 @@
           <t>SKIP</t>
         </is>
       </c>
-      <c r="Y13" s="125" t="n"/>
-      <c r="Z13" s="124" t="n"/>
+      <c r="Y13" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="124" t="n">
+        <v>3</v>
+      </c>
       <c r="AA13" s="125" t="n"/>
       <c r="AB13" s="124" t="n"/>
       <c r="AC13" s="123" t="n"/>
@@ -11774,11 +11802,11 @@
         <v>1</v>
       </c>
       <c r="E14" s="129">
-        <f>SUM(G14:X14)</f>
+        <f>SUM(G14:Z14)</f>
         <v/>
       </c>
       <c r="F14" s="129">
-        <f>ROUND(AVERAGE(G14:X14),1)</f>
+        <f>ROUND(AVERAGE(G14:Z14),1)</f>
         <v/>
       </c>
       <c r="G14" s="128" t="n">
@@ -11883,11 +11911,11 @@
         <v>3</v>
       </c>
       <c r="E15" s="124">
-        <f>SUM(G15:X15)</f>
+        <f>SUM(G15:Z15)</f>
         <v/>
       </c>
       <c r="F15" s="124">
-        <f>ROUND(AVERAGE(G15:X15),1)</f>
+        <f>ROUND(AVERAGE(G15:Z15),1)</f>
         <v/>
       </c>
       <c r="G15" s="125" t="n"/>
@@ -12000,11 +12028,11 @@
         <v>0</v>
       </c>
       <c r="E16" s="129">
-        <f>SUM(G16:X16)</f>
+        <f>SUM(G16:Z16)</f>
         <v/>
       </c>
       <c r="F16" s="129">
-        <f>ROUND(AVERAGE(G16:X16),1)</f>
+        <f>ROUND(AVERAGE(G16:Z16),1)</f>
         <v/>
       </c>
       <c r="G16" s="128" t="n"/>
@@ -12105,11 +12133,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="124">
-        <f>SUM(G17:X17)</f>
+        <f>SUM(G17:Z17)</f>
         <v/>
       </c>
       <c r="F17" s="124">
-        <f>ROUND(AVERAGE(G17:X17),1)</f>
+        <f>ROUND(AVERAGE(G17:Z17),1)</f>
         <v/>
       </c>
       <c r="G17" s="125" t="n"/>
@@ -12207,14 +12235,14 @@
         <v>0</v>
       </c>
       <c r="D18" s="128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="129">
-        <f>SUM(G18:X18)</f>
+        <f>SUM(G18:Z18)</f>
         <v/>
       </c>
       <c r="F18" s="129">
-        <f>ROUND(AVERAGE(G18:X18),1)</f>
+        <f>ROUND(AVERAGE(G18:Z18),1)</f>
         <v/>
       </c>
       <c r="G18" s="128" t="n"/>
@@ -12243,8 +12271,12 @@
       </c>
       <c r="W18" s="128" t="n"/>
       <c r="X18" s="129" t="n"/>
-      <c r="Y18" s="128" t="n"/>
-      <c r="Z18" s="129" t="n"/>
+      <c r="Y18" s="128" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="129" t="n">
+        <v>2</v>
+      </c>
       <c r="AA18" s="128" t="n"/>
       <c r="AB18" s="129" t="n"/>
       <c r="AC18" s="128" t="n"/>
@@ -12320,14 +12352,14 @@
         <v>0</v>
       </c>
       <c r="D19" s="123" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="124">
-        <f>SUM(G19:X19)</f>
+        <f>SUM(G19:Z19)</f>
         <v/>
       </c>
       <c r="F19" s="124">
-        <f>ROUND(AVERAGE(G19:X19),1)</f>
+        <f>ROUND(AVERAGE(G19:Z19),1)</f>
         <v/>
       </c>
       <c r="G19" s="123" t="n">
@@ -12372,8 +12404,12 @@
       <c r="X19" s="124" t="n">
         <v>2</v>
       </c>
-      <c r="Y19" s="125" t="n"/>
-      <c r="Z19" s="124" t="n"/>
+      <c r="Y19" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="124" t="n">
+        <v>0</v>
+      </c>
       <c r="AA19" s="125" t="n"/>
       <c r="AB19" s="124" t="n"/>
       <c r="AC19" s="123" t="n"/>
@@ -12452,11 +12488,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="129">
-        <f>SUM(G20:X20)</f>
+        <f>SUM(G20:Z20)</f>
         <v/>
       </c>
       <c r="F20" s="129">
-        <f>ROUND(AVERAGE(G20:X20),1)</f>
+        <f>ROUND(AVERAGE(G20:Z20),1)</f>
         <v/>
       </c>
       <c r="G20" s="128" t="n"/>
@@ -12557,11 +12593,11 @@
         <v>5</v>
       </c>
       <c r="E21" s="124">
-        <f>SUM(G21:X21)</f>
+        <f>SUM(G21:Z21)</f>
         <v/>
       </c>
       <c r="F21" s="124">
-        <f>ROUND(AVERAGE(G21:X21),1)</f>
+        <f>ROUND(AVERAGE(G21:Z21),1)</f>
         <v/>
       </c>
       <c r="G21" s="125" t="n"/>
@@ -12682,11 +12718,11 @@
         <v>4</v>
       </c>
       <c r="E22" s="129">
-        <f>SUM(G22:X22)</f>
+        <f>SUM(G22:Z22)</f>
         <v/>
       </c>
       <c r="F22" s="129">
-        <f>ROUND(AVERAGE(G22:X22),1)</f>
+        <f>ROUND(AVERAGE(G22:Z22),1)</f>
         <v/>
       </c>
       <c r="G22" s="128" t="n">
@@ -12800,14 +12836,14 @@
         <v>0</v>
       </c>
       <c r="D23" s="123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="124">
-        <f>SUM(G23:X23)</f>
+        <f>SUM(G23:Z23)</f>
         <v/>
       </c>
       <c r="F23" s="124">
-        <f>ROUND(AVERAGE(G23:X23),1)</f>
+        <f>ROUND(AVERAGE(G23:Z23),1)</f>
         <v/>
       </c>
       <c r="G23" s="123" t="n">
@@ -12836,8 +12872,12 @@
       <c r="V23" s="124" t="n"/>
       <c r="W23" s="125" t="n"/>
       <c r="X23" s="124" t="n"/>
-      <c r="Y23" s="125" t="n"/>
-      <c r="Z23" s="124" t="n"/>
+      <c r="Y23" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="124" t="n">
+        <v>3</v>
+      </c>
       <c r="AA23" s="125" t="n"/>
       <c r="AB23" s="124" t="n"/>
       <c r="AC23" s="123" t="n"/>
@@ -12916,11 +12956,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="129">
-        <f>SUM(G24:X24)</f>
+        <f>SUM(G24:Z24)</f>
         <v/>
       </c>
       <c r="F24" s="129">
-        <f>ROUND(AVERAGE(G24:X24),1)</f>
+        <f>ROUND(AVERAGE(G24:Z24),1)</f>
         <v/>
       </c>
       <c r="G24" s="128" t="n"/>
@@ -13021,11 +13061,11 @@
         <v>5</v>
       </c>
       <c r="E25" s="124">
-        <f>SUM(G25:X25)</f>
+        <f>SUM(G25:Z25)</f>
         <v/>
       </c>
       <c r="F25" s="124">
-        <f>ROUND(AVERAGE(G25:X25),1)</f>
+        <f>ROUND(AVERAGE(G25:Z25),1)</f>
         <v/>
       </c>
       <c r="G25" s="125" t="n"/>
@@ -13147,14 +13187,14 @@
         <v>1</v>
       </c>
       <c r="D26" s="128" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" s="129">
-        <f>SUM(G26:X26)</f>
+        <f>SUM(G26:Z26)</f>
         <v/>
       </c>
       <c r="F26" s="129">
-        <f>ROUND(AVERAGE(G26:X26),1)</f>
+        <f>ROUND(AVERAGE(G26:Z26),1)</f>
         <v/>
       </c>
       <c r="G26" s="128" t="inlineStr">
@@ -13201,8 +13241,12 @@
           <t>SKIP</t>
         </is>
       </c>
-      <c r="Y26" s="128" t="n"/>
-      <c r="Z26" s="129" t="n"/>
+      <c r="Y26" s="128" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="129" t="n">
+        <v>3</v>
+      </c>
       <c r="AA26" s="128" t="n"/>
       <c r="AB26" s="129" t="n"/>
       <c r="AC26" s="128" t="n"/>
@@ -13281,11 +13325,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="124">
-        <f>SUM(G27:X27)</f>
+        <f>SUM(G27:Z27)</f>
         <v/>
       </c>
       <c r="F27" s="124">
-        <f>ROUND(AVERAGE(G27:X27),1)</f>
+        <f>ROUND(AVERAGE(G27:Z27),1)</f>
         <v/>
       </c>
       <c r="G27" s="125" t="n"/>
@@ -13383,14 +13427,14 @@
         <v>0</v>
       </c>
       <c r="D28" s="128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="129">
-        <f>SUM(G28:X28)</f>
+        <f>SUM(G28:Z28)</f>
         <v/>
       </c>
       <c r="F28" s="129">
-        <f>ROUND(AVERAGE(G28:X28),1)</f>
+        <f>ROUND(AVERAGE(G28:Z28),1)</f>
         <v/>
       </c>
       <c r="G28" s="128" t="n"/>
@@ -13415,8 +13459,12 @@
       </c>
       <c r="W28" s="128" t="n"/>
       <c r="X28" s="129" t="n"/>
-      <c r="Y28" s="128" t="n"/>
-      <c r="Z28" s="129" t="n"/>
+      <c r="Y28" s="128" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="129" t="n">
+        <v>3</v>
+      </c>
       <c r="AA28" s="128" t="n"/>
       <c r="AB28" s="129" t="n"/>
       <c r="AC28" s="128" t="n"/>
@@ -13492,14 +13540,14 @@
         <v>0</v>
       </c>
       <c r="D29" s="123" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="124">
-        <f>SUM(G29:X29)</f>
+        <f>SUM(G29:Z29)</f>
         <v/>
       </c>
       <c r="F29" s="124">
-        <f>ROUND(AVERAGE(G29:X29),1)</f>
+        <f>ROUND(AVERAGE(G29:Z29),1)</f>
         <v/>
       </c>
       <c r="G29" s="125" t="n"/>
@@ -13540,8 +13588,12 @@
       <c r="X29" s="124" t="n">
         <v>3</v>
       </c>
-      <c r="Y29" s="125" t="n"/>
-      <c r="Z29" s="124" t="n"/>
+      <c r="Y29" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="124" t="n">
+        <v>3</v>
+      </c>
       <c r="AA29" s="125" t="n"/>
       <c r="AB29" s="124" t="n"/>
       <c r="AC29" s="123" t="n"/>
@@ -13617,14 +13669,14 @@
         <v>1</v>
       </c>
       <c r="D30" s="128" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" s="129">
-        <f>SUM(G30:X30)</f>
+        <f>SUM(G30:Z30)</f>
         <v/>
       </c>
       <c r="F30" s="129">
-        <f>ROUND(AVERAGE(G30:X30),1)</f>
+        <f>ROUND(AVERAGE(G30:Z30),1)</f>
         <v/>
       </c>
       <c r="G30" s="128" t="n"/>
@@ -13677,8 +13729,12 @@
       <c r="X30" s="129" t="n">
         <v>3</v>
       </c>
-      <c r="Y30" s="128" t="n"/>
-      <c r="Z30" s="129" t="n"/>
+      <c r="Y30" s="128" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="129" t="n">
+        <v>2</v>
+      </c>
       <c r="AA30" s="128" t="n"/>
       <c r="AB30" s="129" t="n"/>
       <c r="AC30" s="128" t="n"/>
@@ -13757,11 +13813,11 @@
         <v>0</v>
       </c>
       <c r="E31" s="124">
-        <f>SUM(G31:X31)</f>
+        <f>SUM(G31:Z31)</f>
         <v/>
       </c>
       <c r="F31" s="124">
-        <f>ROUND(AVERAGE(G31:X31),1)</f>
+        <f>ROUND(AVERAGE(G31:Z31),1)</f>
         <v/>
       </c>
       <c r="G31" s="125" t="n"/>
@@ -13862,11 +13918,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="129">
-        <f>SUM(G32:X32)</f>
+        <f>SUM(G32:Z32)</f>
         <v/>
       </c>
       <c r="F32" s="129">
-        <f>ROUND(AVERAGE(G32:X32),1)</f>
+        <f>ROUND(AVERAGE(G32:Z32),1)</f>
         <v/>
       </c>
       <c r="G32" s="128" t="n">
@@ -13991,11 +14047,11 @@
         <v>4</v>
       </c>
       <c r="E33" s="124">
-        <f>SUM(G33:X33)</f>
+        <f>SUM(G33:Z33)</f>
         <v/>
       </c>
       <c r="F33" s="124">
-        <f>ROUND(AVERAGE(G33:X33),1)</f>
+        <f>ROUND(AVERAGE(G33:Z33),1)</f>
         <v/>
       </c>
       <c r="G33" s="123" t="n">
@@ -14109,14 +14165,14 @@
         <v>0</v>
       </c>
       <c r="D34" s="128" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E34" s="129">
-        <f>SUM(G34:X34)</f>
+        <f>SUM(G34:Z34)</f>
         <v/>
       </c>
       <c r="F34" s="129">
-        <f>ROUND(AVERAGE(G34:X34),1)</f>
+        <f>ROUND(AVERAGE(G34:Z34),1)</f>
         <v/>
       </c>
       <c r="G34" s="128" t="n">
@@ -14165,8 +14221,12 @@
       </c>
       <c r="W34" s="128" t="n"/>
       <c r="X34" s="129" t="n"/>
-      <c r="Y34" s="128" t="n"/>
-      <c r="Z34" s="129" t="n"/>
+      <c r="Y34" s="128" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z34" s="129" t="n">
+        <v>2</v>
+      </c>
       <c r="AA34" s="128" t="n"/>
       <c r="AB34" s="129" t="n"/>
       <c r="AC34" s="128" t="n"/>
@@ -14245,11 +14305,11 @@
         <v>0</v>
       </c>
       <c r="E35" s="124">
-        <f>SUM(G35:X35)</f>
+        <f>SUM(G35:Z35)</f>
         <v/>
       </c>
       <c r="F35" s="124">
-        <f>ROUND(AVERAGE(G35:X35),1)</f>
+        <f>ROUND(AVERAGE(G35:Z35),1)</f>
         <v/>
       </c>
       <c r="G35" s="125" t="n"/>
@@ -14350,11 +14410,11 @@
         <v>3</v>
       </c>
       <c r="E36" s="129">
-        <f>SUM(G36:X36)</f>
+        <f>SUM(G36:Z36)</f>
         <v/>
       </c>
       <c r="F36" s="129">
-        <f>ROUND(AVERAGE(G36:X36),1)</f>
+        <f>ROUND(AVERAGE(G36:Z36),1)</f>
         <v/>
       </c>
       <c r="G36" s="128" t="n"/>
@@ -14467,11 +14527,11 @@
         <v>2</v>
       </c>
       <c r="E37" s="124">
-        <f>SUM(G37:X37)</f>
+        <f>SUM(G37:Z37)</f>
         <v/>
       </c>
       <c r="F37" s="124">
-        <f>ROUND(AVERAGE(G37:X37),1)</f>
+        <f>ROUND(AVERAGE(G37:Z37),1)</f>
         <v/>
       </c>
       <c r="G37" s="125" t="n"/>
@@ -14584,11 +14644,11 @@
         <v>2</v>
       </c>
       <c r="E38" s="129">
-        <f>SUM(G38:X38)</f>
+        <f>SUM(G38:Z38)</f>
         <v/>
       </c>
       <c r="F38" s="129">
-        <f>ROUND(AVERAGE(G38:X38),1)</f>
+        <f>ROUND(AVERAGE(G38:Z38),1)</f>
         <v/>
       </c>
       <c r="G38" s="128" t="inlineStr">
@@ -14700,14 +14760,14 @@
         <v>0</v>
       </c>
       <c r="D39" s="123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="124">
-        <f>SUM(G39:X39)</f>
+        <f>SUM(G39:Z39)</f>
         <v/>
       </c>
       <c r="F39" s="124">
-        <f>ROUND(AVERAGE(G39:X39),1)</f>
+        <f>ROUND(AVERAGE(G39:Z39),1)</f>
         <v/>
       </c>
       <c r="G39" s="125" t="n"/>
@@ -14732,8 +14792,12 @@
       </c>
       <c r="W39" s="125" t="n"/>
       <c r="X39" s="124" t="n"/>
-      <c r="Y39" s="125" t="n"/>
-      <c r="Z39" s="124" t="n"/>
+      <c r="Y39" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z39" s="124" t="n">
+        <v>2</v>
+      </c>
       <c r="AA39" s="125" t="n"/>
       <c r="AB39" s="124" t="n"/>
       <c r="AC39" s="123" t="n"/>
@@ -14809,14 +14873,14 @@
         <v>0</v>
       </c>
       <c r="D40" s="128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="129">
-        <f>SUM(G40:X40)</f>
+        <f>SUM(G40:Z40)</f>
         <v/>
       </c>
       <c r="F40" s="129">
-        <f>ROUND(AVERAGE(G40:X40),1)</f>
+        <f>ROUND(AVERAGE(G40:Z40),1)</f>
         <v/>
       </c>
       <c r="G40" s="128" t="n"/>
@@ -14847,8 +14911,12 @@
           <t>SKIP</t>
         </is>
       </c>
-      <c r="Y40" s="128" t="n"/>
-      <c r="Z40" s="129" t="n"/>
+      <c r="Y40" s="128" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="129" t="n">
+        <v>2</v>
+      </c>
       <c r="AA40" s="128" t="n"/>
       <c r="AB40" s="129" t="n"/>
       <c r="AC40" s="128" t="n"/>
@@ -14927,11 +14995,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="124">
-        <f>SUM(G41:X41)</f>
+        <f>SUM(G41:Z41)</f>
         <v/>
       </c>
       <c r="F41" s="124">
-        <f>ROUND(AVERAGE(G41:X41),1)</f>
+        <f>ROUND(AVERAGE(G41:Z41),1)</f>
         <v/>
       </c>
       <c r="G41" s="125" t="n"/>
@@ -15019,7 +15087,7 @@
     <row r="42">
       <c r="A42" s="128" t="inlineStr">
         <is>
-          <t>★deimon★</t>
+          <t>tazio</t>
         </is>
       </c>
       <c r="B42" s="128" t="n">
@@ -15032,11 +15100,11 @@
         <v>0</v>
       </c>
       <c r="E42" s="129">
-        <f>SUM(G42:X42)</f>
+        <f>SUM(G42:Z42)</f>
         <v/>
       </c>
       <c r="F42" s="129">
-        <f>ROUND(AVERAGE(G42:X42),1)</f>
+        <f>ROUND(AVERAGE(G42:Z42),1)</f>
         <v/>
       </c>
       <c r="G42" s="128" t="n"/>
@@ -15124,7 +15192,7 @@
     <row r="43">
       <c r="A43" s="123" t="inlineStr">
         <is>
-          <t>tazio</t>
+          <t>alhfmfh</t>
         </is>
       </c>
       <c r="B43" s="123" t="n">
@@ -15137,99 +15205,99 @@
         <v>0</v>
       </c>
       <c r="E43" s="124">
-        <f>SUM(G43:X43)</f>
+        <f>SUM(G43:Z43)</f>
         <v/>
       </c>
       <c r="F43" s="124">
-        <f>ROUND(AVERAGE(G43:X43),1)</f>
-        <v/>
-      </c>
-      <c r="G43" s="123" t="n"/>
+        <f>ROUND(AVERAGE(G43:Z43),1)</f>
+        <v/>
+      </c>
+      <c r="G43" s="125" t="n"/>
       <c r="H43" s="124" t="n"/>
-      <c r="I43" s="123" t="n"/>
+      <c r="I43" s="125" t="n"/>
       <c r="J43" s="124" t="n"/>
-      <c r="K43" s="123" t="n"/>
+      <c r="K43" s="125" t="n"/>
       <c r="L43" s="124" t="n"/>
-      <c r="M43" s="123" t="n"/>
+      <c r="M43" s="125" t="n"/>
       <c r="N43" s="124" t="n"/>
-      <c r="O43" s="123" t="n"/>
+      <c r="O43" s="125" t="n"/>
       <c r="P43" s="124" t="n"/>
-      <c r="Q43" s="123" t="n"/>
+      <c r="Q43" s="125" t="n"/>
       <c r="R43" s="124" t="n"/>
-      <c r="S43" s="123" t="n"/>
+      <c r="S43" s="125" t="n"/>
       <c r="T43" s="124" t="n"/>
-      <c r="U43" s="123" t="n"/>
+      <c r="U43" s="125" t="n"/>
       <c r="V43" s="124" t="n"/>
-      <c r="W43" s="123" t="n"/>
+      <c r="W43" s="125" t="n"/>
       <c r="X43" s="124" t="n"/>
-      <c r="Y43" s="123" t="n"/>
+      <c r="Y43" s="125" t="n"/>
       <c r="Z43" s="124" t="n"/>
-      <c r="AA43" s="123" t="n"/>
+      <c r="AA43" s="125" t="n"/>
       <c r="AB43" s="124" t="n"/>
       <c r="AC43" s="123" t="n"/>
-      <c r="AD43" s="124" t="n"/>
-      <c r="AE43" s="124" t="n"/>
-      <c r="AF43" s="124" t="n"/>
-      <c r="AG43" s="124" t="n"/>
-      <c r="AH43" s="124" t="n"/>
-      <c r="AI43" s="124" t="n"/>
-      <c r="AJ43" s="124" t="n"/>
-      <c r="AK43" s="124" t="n"/>
-      <c r="AL43" s="124" t="n"/>
-      <c r="AM43" s="124" t="n"/>
-      <c r="AN43" s="124" t="n"/>
-      <c r="AO43" s="124" t="n"/>
-      <c r="AP43" s="124" t="n"/>
-      <c r="AQ43" s="124" t="n"/>
-      <c r="AR43" s="124" t="n"/>
-      <c r="AS43" s="124" t="n"/>
-      <c r="AT43" s="124" t="n"/>
-      <c r="AU43" s="124" t="n"/>
-      <c r="AV43" s="124" t="n"/>
-      <c r="AW43" s="124" t="n"/>
-      <c r="AX43" s="124" t="n"/>
-      <c r="AY43" s="124" t="n"/>
-      <c r="AZ43" s="124" t="n"/>
-      <c r="BA43" s="124" t="n"/>
-      <c r="BB43" s="124" t="n"/>
-      <c r="BC43" s="124" t="n"/>
-      <c r="BD43" s="124" t="n"/>
-      <c r="BE43" s="124" t="n"/>
-      <c r="BF43" s="124" t="n"/>
-      <c r="BG43" s="124" t="n"/>
-      <c r="BH43" s="124" t="n"/>
-      <c r="BI43" s="124" t="n"/>
-      <c r="BJ43" s="124" t="n"/>
-      <c r="BK43" s="124" t="n"/>
-      <c r="BL43" s="124" t="n"/>
-      <c r="BM43" s="124" t="n"/>
-      <c r="BN43" s="124" t="n"/>
-      <c r="BO43" s="124" t="n"/>
-      <c r="BP43" s="124" t="n"/>
-      <c r="BQ43" s="124" t="n"/>
-      <c r="BR43" s="124" t="n"/>
-      <c r="BS43" s="124" t="n"/>
-      <c r="BT43" s="124" t="n"/>
-      <c r="BU43" s="124" t="n"/>
-      <c r="BV43" s="124" t="n"/>
-      <c r="BW43" s="124" t="n"/>
-      <c r="BX43" s="124" t="n"/>
-      <c r="BY43" s="124" t="n"/>
-      <c r="BZ43" s="124" t="n"/>
-      <c r="CA43" s="124" t="n"/>
-      <c r="CB43" s="124" t="n"/>
-      <c r="CC43" s="124" t="n"/>
-      <c r="CD43" s="124" t="n"/>
-      <c r="CE43" s="124" t="n"/>
-      <c r="CF43" s="124" t="n"/>
-      <c r="CG43" s="124" t="n"/>
-      <c r="CH43" s="124" t="n"/>
-      <c r="CI43" s="124" t="n"/>
+      <c r="AD43" s="125" t="n"/>
+      <c r="AE43" s="125" t="n"/>
+      <c r="AF43" s="125" t="n"/>
+      <c r="AG43" s="125" t="n"/>
+      <c r="AH43" s="125" t="n"/>
+      <c r="AI43" s="125" t="n"/>
+      <c r="AJ43" s="125" t="n"/>
+      <c r="AK43" s="125" t="n"/>
+      <c r="AL43" s="125" t="n"/>
+      <c r="AM43" s="125" t="n"/>
+      <c r="AN43" s="125" t="n"/>
+      <c r="AO43" s="125" t="n"/>
+      <c r="AP43" s="125" t="n"/>
+      <c r="AQ43" s="125" t="n"/>
+      <c r="AR43" s="125" t="n"/>
+      <c r="AS43" s="125" t="n"/>
+      <c r="AT43" s="125" t="n"/>
+      <c r="AU43" s="125" t="n"/>
+      <c r="AV43" s="125" t="n"/>
+      <c r="AW43" s="125" t="n"/>
+      <c r="AX43" s="125" t="n"/>
+      <c r="AY43" s="125" t="n"/>
+      <c r="AZ43" s="125" t="n"/>
+      <c r="BA43" s="125" t="n"/>
+      <c r="BB43" s="125" t="n"/>
+      <c r="BC43" s="125" t="n"/>
+      <c r="BD43" s="125" t="n"/>
+      <c r="BE43" s="125" t="n"/>
+      <c r="BF43" s="125" t="n"/>
+      <c r="BG43" s="125" t="n"/>
+      <c r="BH43" s="125" t="n"/>
+      <c r="BI43" s="125" t="n"/>
+      <c r="BJ43" s="125" t="n"/>
+      <c r="BK43" s="125" t="n"/>
+      <c r="BL43" s="125" t="n"/>
+      <c r="BM43" s="125" t="n"/>
+      <c r="BN43" s="125" t="n"/>
+      <c r="BO43" s="125" t="n"/>
+      <c r="BP43" s="125" t="n"/>
+      <c r="BQ43" s="125" t="n"/>
+      <c r="BR43" s="125" t="n"/>
+      <c r="BS43" s="125" t="n"/>
+      <c r="BT43" s="125" t="n"/>
+      <c r="BU43" s="125" t="n"/>
+      <c r="BV43" s="125" t="n"/>
+      <c r="BW43" s="125" t="n"/>
+      <c r="BX43" s="125" t="n"/>
+      <c r="BY43" s="125" t="n"/>
+      <c r="BZ43" s="125" t="n"/>
+      <c r="CA43" s="125" t="n"/>
+      <c r="CB43" s="125" t="n"/>
+      <c r="CC43" s="125" t="n"/>
+      <c r="CD43" s="125" t="n"/>
+      <c r="CE43" s="125" t="n"/>
+      <c r="CF43" s="125" t="n"/>
+      <c r="CG43" s="125" t="n"/>
+      <c r="CH43" s="125" t="n"/>
+      <c r="CI43" s="125" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="128" t="inlineStr">
         <is>
-          <t>alhfmfh</t>
+          <t>GioStyle</t>
         </is>
       </c>
       <c r="B44" s="128" t="n">
@@ -15242,11 +15310,11 @@
         <v>0</v>
       </c>
       <c r="E44" s="129">
-        <f>SUM(G44:X44)</f>
+        <f>SUM(G44:Z44)</f>
         <v/>
       </c>
       <c r="F44" s="129">
-        <f>ROUND(AVERAGE(G44:X44),1)</f>
+        <f>ROUND(AVERAGE(G44:Z44),1)</f>
         <v/>
       </c>
       <c r="G44" s="132" t="n"/>
@@ -15334,24 +15402,24 @@
     <row r="45">
       <c r="A45" s="123" t="inlineStr">
         <is>
-          <t>GioStyle</t>
+          <t>francesco</t>
         </is>
       </c>
       <c r="B45" s="123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="124" t="n">
         <v>0</v>
       </c>
       <c r="D45" s="123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="124">
-        <f>SUM(G45:X45)</f>
+        <f>SUM(G45:Z45)</f>
         <v/>
       </c>
       <c r="F45" s="124">
-        <f>ROUND(AVERAGE(G45:X45),1)</f>
+        <f>ROUND(AVERAGE(G45:Z45),1)</f>
         <v/>
       </c>
       <c r="G45" s="125" t="n"/>
@@ -15372,8 +15440,14 @@
       <c r="V45" s="124" t="n"/>
       <c r="W45" s="125" t="n"/>
       <c r="X45" s="124" t="n"/>
-      <c r="Y45" s="125" t="n"/>
-      <c r="Z45" s="124" t="n"/>
+      <c r="Y45" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="124" t="inlineStr">
+        <is>
+          <t>SKIP</t>
+        </is>
+      </c>
       <c r="AA45" s="125" t="n"/>
       <c r="AB45" s="124" t="n"/>
       <c r="AC45" s="123" t="n"/>
@@ -15439,24 +15513,24 @@
     <row r="46">
       <c r="A46" s="128" t="inlineStr">
         <is>
-          <t>francesco</t>
+          <t>PIPPII</t>
         </is>
       </c>
       <c r="B46" s="128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="129" t="n">
         <v>0</v>
       </c>
       <c r="D46" s="128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="129">
-        <f>SUM(G46:X46)</f>
+        <f>SUM(G46:Z46)</f>
         <v/>
       </c>
       <c r="F46" s="129">
-        <f>ROUND(AVERAGE(G46:X46),1)</f>
+        <f>ROUND(AVERAGE(G46:Z46),1)</f>
         <v/>
       </c>
       <c r="G46" s="132" t="n"/>
@@ -15477,8 +15551,14 @@
       <c r="V46" s="129" t="n"/>
       <c r="W46" s="132" t="n"/>
       <c r="X46" s="129" t="n"/>
-      <c r="Y46" s="132" t="n"/>
-      <c r="Z46" s="129" t="n"/>
+      <c r="Y46" s="132" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z46" s="129" t="inlineStr">
+        <is>
+          <t>SKIP</t>
+        </is>
+      </c>
       <c r="AA46" s="132" t="n"/>
       <c r="AB46" s="129" t="n"/>
       <c r="AC46" s="128" t="n"/>
@@ -15544,7 +15624,7 @@
     <row r="47">
       <c r="A47" s="123" t="inlineStr">
         <is>
-          <t>PIPPII</t>
+          <t>Fryck</t>
         </is>
       </c>
       <c r="B47" s="123" t="n">
@@ -15554,14 +15634,14 @@
         <v>0</v>
       </c>
       <c r="D47" s="123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="124">
-        <f>SUM(G47:X47)</f>
+        <f>SUM(G47:Z47)</f>
         <v/>
       </c>
       <c r="F47" s="124">
-        <f>ROUND(AVERAGE(G47:X47),1)</f>
+        <f>ROUND(AVERAGE(G47:Z47),1)</f>
         <v/>
       </c>
       <c r="G47" s="125" t="n"/>
@@ -15582,8 +15662,12 @@
       <c r="V47" s="124" t="n"/>
       <c r="W47" s="125" t="n"/>
       <c r="X47" s="124" t="n"/>
-      <c r="Y47" s="125" t="n"/>
-      <c r="Z47" s="124" t="n"/>
+      <c r="Y47" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z47" s="124" t="n">
+        <v>3</v>
+      </c>
       <c r="AA47" s="125" t="n"/>
       <c r="AB47" s="124" t="n"/>
       <c r="AC47" s="123" t="n"/>
@@ -15649,7 +15733,7 @@
     <row r="48">
       <c r="A48" s="128" t="inlineStr">
         <is>
-          <t>Fryck</t>
+          <t>alesofi</t>
         </is>
       </c>
       <c r="B48" s="128" t="n">
@@ -15662,11 +15746,11 @@
         <v>0</v>
       </c>
       <c r="E48" s="129">
-        <f>SUM(G48:X48)</f>
+        <f>SUM(G48:Z48)</f>
         <v/>
       </c>
       <c r="F48" s="129">
-        <f>ROUND(AVERAGE(G48:X48),1)</f>
+        <f>ROUND(AVERAGE(G48:Z48),1)</f>
         <v/>
       </c>
       <c r="G48" s="132" t="n"/>
@@ -15751,6 +15835,111 @@
       <c r="CH48" s="132" t="n"/>
       <c r="CI48" s="132" t="n"/>
     </row>
+    <row r="49">
+      <c r="A49" s="123" t="inlineStr">
+        <is>
+          <t>fabiovesco</t>
+        </is>
+      </c>
+      <c r="B49" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="124">
+        <f>SUM(G49:Z49)</f>
+        <v/>
+      </c>
+      <c r="F49" s="124">
+        <f>ROUND(AVERAGE(G49:Z49),1)</f>
+        <v/>
+      </c>
+      <c r="G49" s="125" t="n"/>
+      <c r="H49" s="124" t="n"/>
+      <c r="I49" s="125" t="n"/>
+      <c r="J49" s="124" t="n"/>
+      <c r="K49" s="125" t="n"/>
+      <c r="L49" s="124" t="n"/>
+      <c r="M49" s="125" t="n"/>
+      <c r="N49" s="124" t="n"/>
+      <c r="O49" s="125" t="n"/>
+      <c r="P49" s="124" t="n"/>
+      <c r="Q49" s="125" t="n"/>
+      <c r="R49" s="124" t="n"/>
+      <c r="S49" s="125" t="n"/>
+      <c r="T49" s="124" t="n"/>
+      <c r="U49" s="125" t="n"/>
+      <c r="V49" s="124" t="n"/>
+      <c r="W49" s="125" t="n"/>
+      <c r="X49" s="124" t="n"/>
+      <c r="Y49" s="125" t="n"/>
+      <c r="Z49" s="124" t="n"/>
+      <c r="AA49" s="125" t="n"/>
+      <c r="AB49" s="124" t="n"/>
+      <c r="AC49" s="123" t="n"/>
+      <c r="AD49" s="125" t="n"/>
+      <c r="AE49" s="125" t="n"/>
+      <c r="AF49" s="125" t="n"/>
+      <c r="AG49" s="125" t="n"/>
+      <c r="AH49" s="125" t="n"/>
+      <c r="AI49" s="125" t="n"/>
+      <c r="AJ49" s="125" t="n"/>
+      <c r="AK49" s="125" t="n"/>
+      <c r="AL49" s="125" t="n"/>
+      <c r="AM49" s="125" t="n"/>
+      <c r="AN49" s="125" t="n"/>
+      <c r="AO49" s="125" t="n"/>
+      <c r="AP49" s="125" t="n"/>
+      <c r="AQ49" s="125" t="n"/>
+      <c r="AR49" s="125" t="n"/>
+      <c r="AS49" s="125" t="n"/>
+      <c r="AT49" s="125" t="n"/>
+      <c r="AU49" s="125" t="n"/>
+      <c r="AV49" s="125" t="n"/>
+      <c r="AW49" s="125" t="n"/>
+      <c r="AX49" s="125" t="n"/>
+      <c r="AY49" s="125" t="n"/>
+      <c r="AZ49" s="125" t="n"/>
+      <c r="BA49" s="125" t="n"/>
+      <c r="BB49" s="125" t="n"/>
+      <c r="BC49" s="125" t="n"/>
+      <c r="BD49" s="125" t="n"/>
+      <c r="BE49" s="125" t="n"/>
+      <c r="BF49" s="125" t="n"/>
+      <c r="BG49" s="125" t="n"/>
+      <c r="BH49" s="125" t="n"/>
+      <c r="BI49" s="125" t="n"/>
+      <c r="BJ49" s="125" t="n"/>
+      <c r="BK49" s="125" t="n"/>
+      <c r="BL49" s="125" t="n"/>
+      <c r="BM49" s="125" t="n"/>
+      <c r="BN49" s="125" t="n"/>
+      <c r="BO49" s="125" t="n"/>
+      <c r="BP49" s="125" t="n"/>
+      <c r="BQ49" s="125" t="n"/>
+      <c r="BR49" s="125" t="n"/>
+      <c r="BS49" s="125" t="n"/>
+      <c r="BT49" s="125" t="n"/>
+      <c r="BU49" s="125" t="n"/>
+      <c r="BV49" s="125" t="n"/>
+      <c r="BW49" s="125" t="n"/>
+      <c r="BX49" s="125" t="n"/>
+      <c r="BY49" s="125" t="n"/>
+      <c r="BZ49" s="125" t="n"/>
+      <c r="CA49" s="125" t="n"/>
+      <c r="CB49" s="125" t="n"/>
+      <c r="CC49" s="125" t="n"/>
+      <c r="CD49" s="125" t="n"/>
+      <c r="CE49" s="125" t="n"/>
+      <c r="CF49" s="125" t="n"/>
+      <c r="CG49" s="125" t="n"/>
+      <c r="CH49" s="125" t="n"/>
+      <c r="CI49" s="125" t="n"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:CL1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rewards.xlsx
+++ b/rewards.xlsx
@@ -9768,7 +9768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI49"/>
+  <dimension ref="A1:CI51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
@@ -9942,12 +9942,12 @@
       </c>
       <c r="AA1" s="107" t="inlineStr">
         <is>
-          <t>Colonna27</t>
+          <t>WAR-11 (1)</t>
         </is>
       </c>
       <c r="AB1" s="108" t="inlineStr">
         <is>
-          <t>Colonna28</t>
+          <t>WAR-11 (2)</t>
         </is>
       </c>
       <c r="AC1" s="109" t="inlineStr">
@@ -10262,11 +10262,11 @@
         <v>3</v>
       </c>
       <c r="E2" s="122">
-        <f>SUM(G2:Z2)</f>
+        <f>SUM(G2:AB2)</f>
         <v/>
       </c>
       <c r="F2" s="122">
-        <f>ROUND(AVERAGE(G2:Z2),1)</f>
+        <f>ROUND(AVERAGE(G2:AB2),1)</f>
         <v/>
       </c>
       <c r="G2" s="121" t="n"/>
@@ -10385,11 +10385,11 @@
         <v>3</v>
       </c>
       <c r="E3" s="124">
-        <f>SUM(G3:Z3)</f>
+        <f>SUM(G3:AB3)</f>
         <v/>
       </c>
       <c r="F3" s="124">
-        <f>ROUND(AVERAGE(G3:Z3),1)</f>
+        <f>ROUND(AVERAGE(G3:AB3),1)</f>
         <v/>
       </c>
       <c r="G3" s="125" t="n"/>
@@ -10504,11 +10504,11 @@
         <v>9</v>
       </c>
       <c r="E4" s="129">
-        <f>SUM(G4:Z4)</f>
+        <f>SUM(G4:AB4)</f>
         <v/>
       </c>
       <c r="F4" s="129">
-        <f>ROUND(AVERAGE(G4:Z4),1)</f>
+        <f>ROUND(AVERAGE(G4:AB4),1)</f>
         <v/>
       </c>
       <c r="G4" s="128" t="n">
@@ -10645,11 +10645,11 @@
         <v>3</v>
       </c>
       <c r="E5" s="124">
-        <f>SUM(G5:Z5)</f>
+        <f>SUM(G5:AB5)</f>
         <v/>
       </c>
       <c r="F5" s="124">
-        <f>ROUND(AVERAGE(G5:Z5),1)</f>
+        <f>ROUND(AVERAGE(G5:AB5),1)</f>
         <v/>
       </c>
       <c r="G5" s="125" t="n"/>
@@ -10762,11 +10762,11 @@
         <v>5</v>
       </c>
       <c r="E6" s="129">
-        <f>SUM(G6:Z6)</f>
+        <f>SUM(G6:AB6)</f>
         <v/>
       </c>
       <c r="F6" s="129">
-        <f>ROUND(AVERAGE(G6:Z6),1)</f>
+        <f>ROUND(AVERAGE(G6:AB6),1)</f>
         <v/>
       </c>
       <c r="G6" s="128" t="n">
@@ -10891,11 +10891,11 @@
         <v>8</v>
       </c>
       <c r="E7" s="124">
-        <f>SUM(G7:Z7)</f>
+        <f>SUM(G7:AB7)</f>
         <v/>
       </c>
       <c r="F7" s="124">
-        <f>ROUND(AVERAGE(G7:Z7),1)</f>
+        <f>ROUND(AVERAGE(G7:AB7),1)</f>
         <v/>
       </c>
       <c r="G7" s="123" t="n">
@@ -11032,11 +11032,11 @@
         <v>8</v>
       </c>
       <c r="E8" s="129">
-        <f>SUM(G8:Z8)</f>
+        <f>SUM(G8:AB8)</f>
         <v/>
       </c>
       <c r="F8" s="129">
-        <f>ROUND(AVERAGE(G8:Z8),1)</f>
+        <f>ROUND(AVERAGE(G8:AB8),1)</f>
         <v/>
       </c>
       <c r="G8" s="128" t="n">
@@ -11169,11 +11169,11 @@
         <v>4</v>
       </c>
       <c r="E9" s="124">
-        <f>SUM(G9:Z9)</f>
+        <f>SUM(G9:AB9)</f>
         <v/>
       </c>
       <c r="F9" s="124">
-        <f>ROUND(AVERAGE(G9:Z9),1)</f>
+        <f>ROUND(AVERAGE(G9:AB9),1)</f>
         <v/>
       </c>
       <c r="G9" s="125" t="n"/>
@@ -11294,11 +11294,11 @@
         <v>10</v>
       </c>
       <c r="E10" s="129">
-        <f>SUM(G10:Z10)</f>
+        <f>SUM(G10:AB10)</f>
         <v/>
       </c>
       <c r="F10" s="129">
-        <f>ROUND(AVERAGE(G10:Z10),1)</f>
+        <f>ROUND(AVERAGE(G10:AB10),1)</f>
         <v/>
       </c>
       <c r="G10" s="128" t="n">
@@ -11439,11 +11439,11 @@
         <v>2</v>
       </c>
       <c r="E11" s="124">
-        <f>SUM(G11:Z11)</f>
+        <f>SUM(G11:AB11)</f>
         <v/>
       </c>
       <c r="F11" s="124">
-        <f>ROUND(AVERAGE(G11:Z11),1)</f>
+        <f>ROUND(AVERAGE(G11:AB11),1)</f>
         <v/>
       </c>
       <c r="G11" s="125" t="n"/>
@@ -11552,11 +11552,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="129">
-        <f>SUM(G12:Z12)</f>
+        <f>SUM(G12:AB12)</f>
         <v/>
       </c>
       <c r="F12" s="129">
-        <f>ROUND(AVERAGE(G12:Z12),1)</f>
+        <f>ROUND(AVERAGE(G12:AB12),1)</f>
         <v/>
       </c>
       <c r="G12" s="128" t="n"/>
@@ -11657,11 +11657,11 @@
         <v>8</v>
       </c>
       <c r="E13" s="124">
-        <f>SUM(G13:Z13)</f>
+        <f>SUM(G13:AB13)</f>
         <v/>
       </c>
       <c r="F13" s="124">
-        <f>ROUND(AVERAGE(G13:Z13),1)</f>
+        <f>ROUND(AVERAGE(G13:AB13),1)</f>
         <v/>
       </c>
       <c r="G13" s="123" t="n">
@@ -11789,7 +11789,7 @@
     <row r="14">
       <c r="A14" s="128" t="inlineStr">
         <is>
-          <t>Brazo</t>
+          <t>buff x-bow</t>
         </is>
       </c>
       <c r="B14" s="128" t="n">
@@ -11799,106 +11799,114 @@
         <v>0</v>
       </c>
       <c r="D14" s="128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="129">
-        <f>SUM(G14:Z14)</f>
+        <f>SUM(G14:AB14)</f>
         <v/>
       </c>
       <c r="F14" s="129">
-        <f>ROUND(AVERAGE(G14:Z14),1)</f>
-        <v/>
-      </c>
-      <c r="G14" s="128" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" s="129" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" s="128" t="n"/>
+        <f>ROUND(AVERAGE(G14:AB14),1)</f>
+        <v/>
+      </c>
+      <c r="G14" s="132" t="n"/>
+      <c r="H14" s="129" t="n"/>
+      <c r="I14" s="132" t="n"/>
       <c r="J14" s="129" t="n"/>
-      <c r="K14" s="128" t="n"/>
-      <c r="L14" s="129" t="n"/>
-      <c r="M14" s="128" t="n"/>
-      <c r="N14" s="129" t="n"/>
-      <c r="O14" s="128" t="n"/>
+      <c r="K14" s="128" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" s="129" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" s="128" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" s="129" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" s="132" t="n"/>
       <c r="P14" s="129" t="n"/>
-      <c r="Q14" s="128" t="n"/>
-      <c r="R14" s="129" t="n"/>
-      <c r="S14" s="128" t="n"/>
+      <c r="Q14" s="130" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" s="131" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" s="132" t="n"/>
       <c r="T14" s="129" t="n"/>
-      <c r="U14" s="128" t="n"/>
+      <c r="U14" s="132" t="n"/>
       <c r="V14" s="129" t="n"/>
-      <c r="W14" s="128" t="n"/>
+      <c r="W14" s="132" t="n"/>
       <c r="X14" s="129" t="n"/>
-      <c r="Y14" s="128" t="n"/>
+      <c r="Y14" s="132" t="n"/>
       <c r="Z14" s="129" t="n"/>
-      <c r="AA14" s="128" t="n"/>
+      <c r="AA14" s="132" t="n"/>
       <c r="AB14" s="129" t="n"/>
       <c r="AC14" s="128" t="n"/>
-      <c r="AD14" s="129" t="n"/>
-      <c r="AE14" s="129" t="n"/>
-      <c r="AF14" s="129" t="n"/>
-      <c r="AG14" s="129" t="n"/>
-      <c r="AH14" s="129" t="n"/>
-      <c r="AI14" s="129" t="n"/>
-      <c r="AJ14" s="129" t="n"/>
-      <c r="AK14" s="129" t="n"/>
-      <c r="AL14" s="129" t="n"/>
-      <c r="AM14" s="129" t="n"/>
-      <c r="AN14" s="129" t="n"/>
-      <c r="AO14" s="129" t="n"/>
-      <c r="AP14" s="129" t="n"/>
-      <c r="AQ14" s="129" t="n"/>
-      <c r="AR14" s="129" t="n"/>
-      <c r="AS14" s="129" t="n"/>
-      <c r="AT14" s="129" t="n"/>
-      <c r="AU14" s="129" t="n"/>
-      <c r="AV14" s="129" t="n"/>
-      <c r="AW14" s="129" t="n"/>
-      <c r="AX14" s="129" t="n"/>
-      <c r="AY14" s="129" t="n"/>
-      <c r="AZ14" s="129" t="n"/>
-      <c r="BA14" s="129" t="n"/>
-      <c r="BB14" s="129" t="n"/>
-      <c r="BC14" s="129" t="n"/>
-      <c r="BD14" s="129" t="n"/>
-      <c r="BE14" s="129" t="n"/>
-      <c r="BF14" s="129" t="n"/>
-      <c r="BG14" s="129" t="n"/>
-      <c r="BH14" s="129" t="n"/>
-      <c r="BI14" s="129" t="n"/>
-      <c r="BJ14" s="129" t="n"/>
-      <c r="BK14" s="129" t="n"/>
-      <c r="BL14" s="129" t="n"/>
-      <c r="BM14" s="129" t="n"/>
-      <c r="BN14" s="129" t="n"/>
-      <c r="BO14" s="129" t="n"/>
-      <c r="BP14" s="129" t="n"/>
-      <c r="BQ14" s="129" t="n"/>
-      <c r="BR14" s="129" t="n"/>
-      <c r="BS14" s="129" t="n"/>
-      <c r="BT14" s="129" t="n"/>
-      <c r="BU14" s="129" t="n"/>
-      <c r="BV14" s="129" t="n"/>
-      <c r="BW14" s="129" t="n"/>
-      <c r="BX14" s="129" t="n"/>
-      <c r="BY14" s="129" t="n"/>
-      <c r="BZ14" s="129" t="n"/>
-      <c r="CA14" s="129" t="n"/>
-      <c r="CB14" s="129" t="n"/>
-      <c r="CC14" s="129" t="n"/>
-      <c r="CD14" s="129" t="n"/>
-      <c r="CE14" s="129" t="n"/>
-      <c r="CF14" s="129" t="n"/>
-      <c r="CG14" s="129" t="n"/>
-      <c r="CH14" s="129" t="n"/>
-      <c r="CI14" s="129" t="n"/>
+      <c r="AD14" s="132" t="n"/>
+      <c r="AE14" s="132" t="n"/>
+      <c r="AF14" s="132" t="n"/>
+      <c r="AG14" s="132" t="n"/>
+      <c r="AH14" s="132" t="n"/>
+      <c r="AI14" s="132" t="n"/>
+      <c r="AJ14" s="132" t="n"/>
+      <c r="AK14" s="132" t="n"/>
+      <c r="AL14" s="132" t="n"/>
+      <c r="AM14" s="132" t="n"/>
+      <c r="AN14" s="132" t="n"/>
+      <c r="AO14" s="132" t="n"/>
+      <c r="AP14" s="132" t="n"/>
+      <c r="AQ14" s="132" t="n"/>
+      <c r="AR14" s="132" t="n"/>
+      <c r="AS14" s="132" t="n"/>
+      <c r="AT14" s="132" t="n"/>
+      <c r="AU14" s="132" t="n"/>
+      <c r="AV14" s="132" t="n"/>
+      <c r="AW14" s="132" t="n"/>
+      <c r="AX14" s="132" t="n"/>
+      <c r="AY14" s="132" t="n"/>
+      <c r="AZ14" s="132" t="n"/>
+      <c r="BA14" s="132" t="n"/>
+      <c r="BB14" s="132" t="n"/>
+      <c r="BC14" s="132" t="n"/>
+      <c r="BD14" s="132" t="n"/>
+      <c r="BE14" s="132" t="n"/>
+      <c r="BF14" s="132" t="n"/>
+      <c r="BG14" s="132" t="n"/>
+      <c r="BH14" s="132" t="n"/>
+      <c r="BI14" s="132" t="n"/>
+      <c r="BJ14" s="132" t="n"/>
+      <c r="BK14" s="132" t="n"/>
+      <c r="BL14" s="132" t="n"/>
+      <c r="BM14" s="132" t="n"/>
+      <c r="BN14" s="132" t="n"/>
+      <c r="BO14" s="132" t="n"/>
+      <c r="BP14" s="132" t="n"/>
+      <c r="BQ14" s="132" t="n"/>
+      <c r="BR14" s="132" t="n"/>
+      <c r="BS14" s="132" t="n"/>
+      <c r="BT14" s="132" t="n"/>
+      <c r="BU14" s="132" t="n"/>
+      <c r="BV14" s="132" t="n"/>
+      <c r="BW14" s="132" t="n"/>
+      <c r="BX14" s="132" t="n"/>
+      <c r="BY14" s="132" t="n"/>
+      <c r="BZ14" s="132" t="n"/>
+      <c r="CA14" s="132" t="n"/>
+      <c r="CB14" s="132" t="n"/>
+      <c r="CC14" s="132" t="n"/>
+      <c r="CD14" s="132" t="n"/>
+      <c r="CE14" s="132" t="n"/>
+      <c r="CF14" s="132" t="n"/>
+      <c r="CG14" s="132" t="n"/>
+      <c r="CH14" s="132" t="n"/>
+      <c r="CI14" s="132" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="123" t="inlineStr">
         <is>
-          <t>buff x-bow</t>
+          <t>Chabby</t>
         </is>
       </c>
       <c r="B15" s="123" t="n">
@@ -11908,114 +11916,102 @@
         <v>0</v>
       </c>
       <c r="D15" s="123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="124">
-        <f>SUM(G15:Z15)</f>
+        <f>SUM(G15:AB15)</f>
         <v/>
       </c>
       <c r="F15" s="124">
-        <f>ROUND(AVERAGE(G15:Z15),1)</f>
-        <v/>
-      </c>
-      <c r="G15" s="125" t="n"/>
+        <f>ROUND(AVERAGE(G15:AB15),1)</f>
+        <v/>
+      </c>
+      <c r="G15" s="123" t="n"/>
       <c r="H15" s="124" t="n"/>
-      <c r="I15" s="125" t="n"/>
+      <c r="I15" s="123" t="n"/>
       <c r="J15" s="124" t="n"/>
-      <c r="K15" s="123" t="n">
-        <v>3</v>
-      </c>
-      <c r="L15" s="124" t="n">
-        <v>3</v>
-      </c>
-      <c r="M15" s="123" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" s="124" t="n">
-        <v>3</v>
-      </c>
-      <c r="O15" s="125" t="n"/>
+      <c r="K15" s="123" t="n"/>
+      <c r="L15" s="124" t="n"/>
+      <c r="M15" s="123" t="n"/>
+      <c r="N15" s="124" t="n"/>
+      <c r="O15" s="123" t="n"/>
       <c r="P15" s="124" t="n"/>
-      <c r="Q15" s="126" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" s="127" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" s="125" t="n"/>
+      <c r="Q15" s="123" t="n"/>
+      <c r="R15" s="124" t="n"/>
+      <c r="S15" s="123" t="n"/>
       <c r="T15" s="124" t="n"/>
-      <c r="U15" s="125" t="n"/>
+      <c r="U15" s="123" t="n"/>
       <c r="V15" s="124" t="n"/>
-      <c r="W15" s="125" t="n"/>
+      <c r="W15" s="123" t="n"/>
       <c r="X15" s="124" t="n"/>
-      <c r="Y15" s="125" t="n"/>
+      <c r="Y15" s="123" t="n"/>
       <c r="Z15" s="124" t="n"/>
-      <c r="AA15" s="125" t="n"/>
+      <c r="AA15" s="123" t="n"/>
       <c r="AB15" s="124" t="n"/>
       <c r="AC15" s="123" t="n"/>
-      <c r="AD15" s="125" t="n"/>
-      <c r="AE15" s="125" t="n"/>
-      <c r="AF15" s="125" t="n"/>
-      <c r="AG15" s="125" t="n"/>
-      <c r="AH15" s="125" t="n"/>
-      <c r="AI15" s="125" t="n"/>
-      <c r="AJ15" s="125" t="n"/>
-      <c r="AK15" s="125" t="n"/>
-      <c r="AL15" s="125" t="n"/>
-      <c r="AM15" s="125" t="n"/>
-      <c r="AN15" s="125" t="n"/>
-      <c r="AO15" s="125" t="n"/>
-      <c r="AP15" s="125" t="n"/>
-      <c r="AQ15" s="125" t="n"/>
-      <c r="AR15" s="125" t="n"/>
-      <c r="AS15" s="125" t="n"/>
-      <c r="AT15" s="125" t="n"/>
-      <c r="AU15" s="125" t="n"/>
-      <c r="AV15" s="125" t="n"/>
-      <c r="AW15" s="125" t="n"/>
-      <c r="AX15" s="125" t="n"/>
-      <c r="AY15" s="125" t="n"/>
-      <c r="AZ15" s="125" t="n"/>
-      <c r="BA15" s="125" t="n"/>
-      <c r="BB15" s="125" t="n"/>
-      <c r="BC15" s="125" t="n"/>
-      <c r="BD15" s="125" t="n"/>
-      <c r="BE15" s="125" t="n"/>
-      <c r="BF15" s="125" t="n"/>
-      <c r="BG15" s="125" t="n"/>
-      <c r="BH15" s="125" t="n"/>
-      <c r="BI15" s="125" t="n"/>
-      <c r="BJ15" s="125" t="n"/>
-      <c r="BK15" s="125" t="n"/>
-      <c r="BL15" s="125" t="n"/>
-      <c r="BM15" s="125" t="n"/>
-      <c r="BN15" s="125" t="n"/>
-      <c r="BO15" s="125" t="n"/>
-      <c r="BP15" s="125" t="n"/>
-      <c r="BQ15" s="125" t="n"/>
-      <c r="BR15" s="125" t="n"/>
-      <c r="BS15" s="125" t="n"/>
-      <c r="BT15" s="125" t="n"/>
-      <c r="BU15" s="125" t="n"/>
-      <c r="BV15" s="125" t="n"/>
-      <c r="BW15" s="125" t="n"/>
-      <c r="BX15" s="125" t="n"/>
-      <c r="BY15" s="125" t="n"/>
-      <c r="BZ15" s="125" t="n"/>
-      <c r="CA15" s="125" t="n"/>
-      <c r="CB15" s="125" t="n"/>
-      <c r="CC15" s="125" t="n"/>
-      <c r="CD15" s="125" t="n"/>
-      <c r="CE15" s="125" t="n"/>
-      <c r="CF15" s="125" t="n"/>
-      <c r="CG15" s="125" t="n"/>
-      <c r="CH15" s="125" t="n"/>
-      <c r="CI15" s="125" t="n"/>
+      <c r="AD15" s="124" t="n"/>
+      <c r="AE15" s="124" t="n"/>
+      <c r="AF15" s="124" t="n"/>
+      <c r="AG15" s="124" t="n"/>
+      <c r="AH15" s="124" t="n"/>
+      <c r="AI15" s="124" t="n"/>
+      <c r="AJ15" s="124" t="n"/>
+      <c r="AK15" s="124" t="n"/>
+      <c r="AL15" s="124" t="n"/>
+      <c r="AM15" s="124" t="n"/>
+      <c r="AN15" s="124" t="n"/>
+      <c r="AO15" s="124" t="n"/>
+      <c r="AP15" s="124" t="n"/>
+      <c r="AQ15" s="124" t="n"/>
+      <c r="AR15" s="124" t="n"/>
+      <c r="AS15" s="124" t="n"/>
+      <c r="AT15" s="124" t="n"/>
+      <c r="AU15" s="124" t="n"/>
+      <c r="AV15" s="124" t="n"/>
+      <c r="AW15" s="124" t="n"/>
+      <c r="AX15" s="124" t="n"/>
+      <c r="AY15" s="124" t="n"/>
+      <c r="AZ15" s="124" t="n"/>
+      <c r="BA15" s="124" t="n"/>
+      <c r="BB15" s="124" t="n"/>
+      <c r="BC15" s="124" t="n"/>
+      <c r="BD15" s="124" t="n"/>
+      <c r="BE15" s="124" t="n"/>
+      <c r="BF15" s="124" t="n"/>
+      <c r="BG15" s="124" t="n"/>
+      <c r="BH15" s="124" t="n"/>
+      <c r="BI15" s="124" t="n"/>
+      <c r="BJ15" s="124" t="n"/>
+      <c r="BK15" s="124" t="n"/>
+      <c r="BL15" s="124" t="n"/>
+      <c r="BM15" s="124" t="n"/>
+      <c r="BN15" s="124" t="n"/>
+      <c r="BO15" s="124" t="n"/>
+      <c r="BP15" s="124" t="n"/>
+      <c r="BQ15" s="124" t="n"/>
+      <c r="BR15" s="124" t="n"/>
+      <c r="BS15" s="124" t="n"/>
+      <c r="BT15" s="124" t="n"/>
+      <c r="BU15" s="124" t="n"/>
+      <c r="BV15" s="124" t="n"/>
+      <c r="BW15" s="124" t="n"/>
+      <c r="BX15" s="124" t="n"/>
+      <c r="BY15" s="124" t="n"/>
+      <c r="BZ15" s="124" t="n"/>
+      <c r="CA15" s="124" t="n"/>
+      <c r="CB15" s="124" t="n"/>
+      <c r="CC15" s="124" t="n"/>
+      <c r="CD15" s="124" t="n"/>
+      <c r="CE15" s="124" t="n"/>
+      <c r="CF15" s="124" t="n"/>
+      <c r="CG15" s="124" t="n"/>
+      <c r="CH15" s="124" t="n"/>
+      <c r="CI15" s="124" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="128" t="inlineStr">
         <is>
-          <t>Chabby</t>
+          <t>EdoDodo</t>
         </is>
       </c>
       <c r="B16" s="128" t="n">
@@ -12028,99 +12024,99 @@
         <v>0</v>
       </c>
       <c r="E16" s="129">
-        <f>SUM(G16:Z16)</f>
+        <f>SUM(G16:AB16)</f>
         <v/>
       </c>
       <c r="F16" s="129">
-        <f>ROUND(AVERAGE(G16:Z16),1)</f>
-        <v/>
-      </c>
-      <c r="G16" s="128" t="n"/>
+        <f>ROUND(AVERAGE(G16:AB16),1)</f>
+        <v/>
+      </c>
+      <c r="G16" s="132" t="n"/>
       <c r="H16" s="129" t="n"/>
-      <c r="I16" s="128" t="n"/>
+      <c r="I16" s="132" t="n"/>
       <c r="J16" s="129" t="n"/>
-      <c r="K16" s="128" t="n"/>
+      <c r="K16" s="132" t="n"/>
       <c r="L16" s="129" t="n"/>
-      <c r="M16" s="128" t="n"/>
+      <c r="M16" s="132" t="n"/>
       <c r="N16" s="129" t="n"/>
-      <c r="O16" s="128" t="n"/>
+      <c r="O16" s="132" t="n"/>
       <c r="P16" s="129" t="n"/>
-      <c r="Q16" s="128" t="n"/>
+      <c r="Q16" s="132" t="n"/>
       <c r="R16" s="129" t="n"/>
-      <c r="S16" s="128" t="n"/>
+      <c r="S16" s="132" t="n"/>
       <c r="T16" s="129" t="n"/>
-      <c r="U16" s="128" t="n"/>
+      <c r="U16" s="132" t="n"/>
       <c r="V16" s="129" t="n"/>
-      <c r="W16" s="128" t="n"/>
+      <c r="W16" s="132" t="n"/>
       <c r="X16" s="129" t="n"/>
-      <c r="Y16" s="128" t="n"/>
+      <c r="Y16" s="132" t="n"/>
       <c r="Z16" s="129" t="n"/>
-      <c r="AA16" s="128" t="n"/>
+      <c r="AA16" s="132" t="n"/>
       <c r="AB16" s="129" t="n"/>
       <c r="AC16" s="128" t="n"/>
-      <c r="AD16" s="129" t="n"/>
-      <c r="AE16" s="129" t="n"/>
-      <c r="AF16" s="129" t="n"/>
-      <c r="AG16" s="129" t="n"/>
-      <c r="AH16" s="129" t="n"/>
-      <c r="AI16" s="129" t="n"/>
-      <c r="AJ16" s="129" t="n"/>
-      <c r="AK16" s="129" t="n"/>
-      <c r="AL16" s="129" t="n"/>
-      <c r="AM16" s="129" t="n"/>
-      <c r="AN16" s="129" t="n"/>
-      <c r="AO16" s="129" t="n"/>
-      <c r="AP16" s="129" t="n"/>
-      <c r="AQ16" s="129" t="n"/>
-      <c r="AR16" s="129" t="n"/>
-      <c r="AS16" s="129" t="n"/>
-      <c r="AT16" s="129" t="n"/>
-      <c r="AU16" s="129" t="n"/>
-      <c r="AV16" s="129" t="n"/>
-      <c r="AW16" s="129" t="n"/>
-      <c r="AX16" s="129" t="n"/>
-      <c r="AY16" s="129" t="n"/>
-      <c r="AZ16" s="129" t="n"/>
-      <c r="BA16" s="129" t="n"/>
-      <c r="BB16" s="129" t="n"/>
-      <c r="BC16" s="129" t="n"/>
-      <c r="BD16" s="129" t="n"/>
-      <c r="BE16" s="129" t="n"/>
-      <c r="BF16" s="129" t="n"/>
-      <c r="BG16" s="129" t="n"/>
-      <c r="BH16" s="129" t="n"/>
-      <c r="BI16" s="129" t="n"/>
-      <c r="BJ16" s="129" t="n"/>
-      <c r="BK16" s="129" t="n"/>
-      <c r="BL16" s="129" t="n"/>
-      <c r="BM16" s="129" t="n"/>
-      <c r="BN16" s="129" t="n"/>
-      <c r="BO16" s="129" t="n"/>
-      <c r="BP16" s="129" t="n"/>
-      <c r="BQ16" s="129" t="n"/>
-      <c r="BR16" s="129" t="n"/>
-      <c r="BS16" s="129" t="n"/>
-      <c r="BT16" s="129" t="n"/>
-      <c r="BU16" s="129" t="n"/>
-      <c r="BV16" s="129" t="n"/>
-      <c r="BW16" s="129" t="n"/>
-      <c r="BX16" s="129" t="n"/>
-      <c r="BY16" s="129" t="n"/>
-      <c r="BZ16" s="129" t="n"/>
-      <c r="CA16" s="129" t="n"/>
-      <c r="CB16" s="129" t="n"/>
-      <c r="CC16" s="129" t="n"/>
-      <c r="CD16" s="129" t="n"/>
-      <c r="CE16" s="129" t="n"/>
-      <c r="CF16" s="129" t="n"/>
-      <c r="CG16" s="129" t="n"/>
-      <c r="CH16" s="129" t="n"/>
-      <c r="CI16" s="129" t="n"/>
+      <c r="AD16" s="132" t="n"/>
+      <c r="AE16" s="132" t="n"/>
+      <c r="AF16" s="132" t="n"/>
+      <c r="AG16" s="132" t="n"/>
+      <c r="AH16" s="132" t="n"/>
+      <c r="AI16" s="132" t="n"/>
+      <c r="AJ16" s="132" t="n"/>
+      <c r="AK16" s="132" t="n"/>
+      <c r="AL16" s="132" t="n"/>
+      <c r="AM16" s="132" t="n"/>
+      <c r="AN16" s="132" t="n"/>
+      <c r="AO16" s="132" t="n"/>
+      <c r="AP16" s="132" t="n"/>
+      <c r="AQ16" s="132" t="n"/>
+      <c r="AR16" s="132" t="n"/>
+      <c r="AS16" s="132" t="n"/>
+      <c r="AT16" s="132" t="n"/>
+      <c r="AU16" s="132" t="n"/>
+      <c r="AV16" s="132" t="n"/>
+      <c r="AW16" s="132" t="n"/>
+      <c r="AX16" s="132" t="n"/>
+      <c r="AY16" s="132" t="n"/>
+      <c r="AZ16" s="132" t="n"/>
+      <c r="BA16" s="132" t="n"/>
+      <c r="BB16" s="132" t="n"/>
+      <c r="BC16" s="132" t="n"/>
+      <c r="BD16" s="132" t="n"/>
+      <c r="BE16" s="132" t="n"/>
+      <c r="BF16" s="132" t="n"/>
+      <c r="BG16" s="132" t="n"/>
+      <c r="BH16" s="132" t="n"/>
+      <c r="BI16" s="132" t="n"/>
+      <c r="BJ16" s="132" t="n"/>
+      <c r="BK16" s="132" t="n"/>
+      <c r="BL16" s="132" t="n"/>
+      <c r="BM16" s="132" t="n"/>
+      <c r="BN16" s="132" t="n"/>
+      <c r="BO16" s="132" t="n"/>
+      <c r="BP16" s="132" t="n"/>
+      <c r="BQ16" s="132" t="n"/>
+      <c r="BR16" s="132" t="n"/>
+      <c r="BS16" s="132" t="n"/>
+      <c r="BT16" s="132" t="n"/>
+      <c r="BU16" s="132" t="n"/>
+      <c r="BV16" s="132" t="n"/>
+      <c r="BW16" s="132" t="n"/>
+      <c r="BX16" s="132" t="n"/>
+      <c r="BY16" s="132" t="n"/>
+      <c r="BZ16" s="132" t="n"/>
+      <c r="CA16" s="132" t="n"/>
+      <c r="CB16" s="132" t="n"/>
+      <c r="CC16" s="132" t="n"/>
+      <c r="CD16" s="132" t="n"/>
+      <c r="CE16" s="132" t="n"/>
+      <c r="CF16" s="132" t="n"/>
+      <c r="CG16" s="132" t="n"/>
+      <c r="CH16" s="132" t="n"/>
+      <c r="CI16" s="132" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="123" t="inlineStr">
         <is>
-          <t>EdoDodo</t>
+          <t>Floky23</t>
         </is>
       </c>
       <c r="B17" s="123" t="n">
@@ -12130,102 +12126,114 @@
         <v>0</v>
       </c>
       <c r="D17" s="123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="124">
-        <f>SUM(G17:Z17)</f>
+        <f>SUM(G17:AB17)</f>
         <v/>
       </c>
       <c r="F17" s="124">
-        <f>ROUND(AVERAGE(G17:Z17),1)</f>
-        <v/>
-      </c>
-      <c r="G17" s="125" t="n"/>
+        <f>ROUND(AVERAGE(G17:AB17),1)</f>
+        <v/>
+      </c>
+      <c r="G17" s="123" t="n"/>
       <c r="H17" s="124" t="n"/>
-      <c r="I17" s="125" t="n"/>
+      <c r="I17" s="123" t="n"/>
       <c r="J17" s="124" t="n"/>
-      <c r="K17" s="125" t="n"/>
+      <c r="K17" s="123" t="n"/>
       <c r="L17" s="124" t="n"/>
-      <c r="M17" s="125" t="n"/>
+      <c r="M17" s="123" t="n"/>
       <c r="N17" s="124" t="n"/>
-      <c r="O17" s="125" t="n"/>
+      <c r="O17" s="123" t="n"/>
       <c r="P17" s="124" t="n"/>
-      <c r="Q17" s="125" t="n"/>
-      <c r="R17" s="124" t="n"/>
-      <c r="S17" s="125" t="n"/>
+      <c r="Q17" s="126" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="127" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" s="123" t="n"/>
       <c r="T17" s="124" t="n"/>
-      <c r="U17" s="125" t="n"/>
-      <c r="V17" s="124" t="n"/>
-      <c r="W17" s="125" t="n"/>
+      <c r="U17" s="126" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" s="127" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="123" t="n"/>
       <c r="X17" s="124" t="n"/>
-      <c r="Y17" s="125" t="n"/>
-      <c r="Z17" s="124" t="n"/>
-      <c r="AA17" s="125" t="n"/>
+      <c r="Y17" s="123" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="123" t="n"/>
       <c r="AB17" s="124" t="n"/>
       <c r="AC17" s="123" t="n"/>
-      <c r="AD17" s="125" t="n"/>
-      <c r="AE17" s="125" t="n"/>
-      <c r="AF17" s="125" t="n"/>
-      <c r="AG17" s="125" t="n"/>
-      <c r="AH17" s="125" t="n"/>
-      <c r="AI17" s="125" t="n"/>
-      <c r="AJ17" s="125" t="n"/>
-      <c r="AK17" s="125" t="n"/>
-      <c r="AL17" s="125" t="n"/>
-      <c r="AM17" s="125" t="n"/>
-      <c r="AN17" s="125" t="n"/>
-      <c r="AO17" s="125" t="n"/>
-      <c r="AP17" s="125" t="n"/>
-      <c r="AQ17" s="125" t="n"/>
-      <c r="AR17" s="125" t="n"/>
-      <c r="AS17" s="125" t="n"/>
-      <c r="AT17" s="125" t="n"/>
-      <c r="AU17" s="125" t="n"/>
-      <c r="AV17" s="125" t="n"/>
-      <c r="AW17" s="125" t="n"/>
-      <c r="AX17" s="125" t="n"/>
-      <c r="AY17" s="125" t="n"/>
-      <c r="AZ17" s="125" t="n"/>
-      <c r="BA17" s="125" t="n"/>
-      <c r="BB17" s="125" t="n"/>
-      <c r="BC17" s="125" t="n"/>
-      <c r="BD17" s="125" t="n"/>
-      <c r="BE17" s="125" t="n"/>
-      <c r="BF17" s="125" t="n"/>
-      <c r="BG17" s="125" t="n"/>
-      <c r="BH17" s="125" t="n"/>
-      <c r="BI17" s="125" t="n"/>
-      <c r="BJ17" s="125" t="n"/>
-      <c r="BK17" s="125" t="n"/>
-      <c r="BL17" s="125" t="n"/>
-      <c r="BM17" s="125" t="n"/>
-      <c r="BN17" s="125" t="n"/>
-      <c r="BO17" s="125" t="n"/>
-      <c r="BP17" s="125" t="n"/>
-      <c r="BQ17" s="125" t="n"/>
-      <c r="BR17" s="125" t="n"/>
-      <c r="BS17" s="125" t="n"/>
-      <c r="BT17" s="125" t="n"/>
-      <c r="BU17" s="125" t="n"/>
-      <c r="BV17" s="125" t="n"/>
-      <c r="BW17" s="125" t="n"/>
-      <c r="BX17" s="125" t="n"/>
-      <c r="BY17" s="125" t="n"/>
-      <c r="BZ17" s="125" t="n"/>
-      <c r="CA17" s="125" t="n"/>
-      <c r="CB17" s="125" t="n"/>
-      <c r="CC17" s="125" t="n"/>
-      <c r="CD17" s="125" t="n"/>
-      <c r="CE17" s="125" t="n"/>
-      <c r="CF17" s="125" t="n"/>
-      <c r="CG17" s="125" t="n"/>
-      <c r="CH17" s="125" t="n"/>
-      <c r="CI17" s="125" t="n"/>
+      <c r="AD17" s="124" t="n"/>
+      <c r="AE17" s="124" t="n"/>
+      <c r="AF17" s="124" t="n"/>
+      <c r="AG17" s="124" t="n"/>
+      <c r="AH17" s="124" t="n"/>
+      <c r="AI17" s="124" t="n"/>
+      <c r="AJ17" s="124" t="n"/>
+      <c r="AK17" s="124" t="n"/>
+      <c r="AL17" s="124" t="n"/>
+      <c r="AM17" s="124" t="n"/>
+      <c r="AN17" s="124" t="n"/>
+      <c r="AO17" s="124" t="n"/>
+      <c r="AP17" s="124" t="n"/>
+      <c r="AQ17" s="124" t="n"/>
+      <c r="AR17" s="124" t="n"/>
+      <c r="AS17" s="124" t="n"/>
+      <c r="AT17" s="124" t="n"/>
+      <c r="AU17" s="124" t="n"/>
+      <c r="AV17" s="124" t="n"/>
+      <c r="AW17" s="124" t="n"/>
+      <c r="AX17" s="124" t="n"/>
+      <c r="AY17" s="124" t="n"/>
+      <c r="AZ17" s="124" t="n"/>
+      <c r="BA17" s="124" t="n"/>
+      <c r="BB17" s="124" t="n"/>
+      <c r="BC17" s="124" t="n"/>
+      <c r="BD17" s="124" t="n"/>
+      <c r="BE17" s="124" t="n"/>
+      <c r="BF17" s="124" t="n"/>
+      <c r="BG17" s="124" t="n"/>
+      <c r="BH17" s="124" t="n"/>
+      <c r="BI17" s="124" t="n"/>
+      <c r="BJ17" s="124" t="n"/>
+      <c r="BK17" s="124" t="n"/>
+      <c r="BL17" s="124" t="n"/>
+      <c r="BM17" s="124" t="n"/>
+      <c r="BN17" s="124" t="n"/>
+      <c r="BO17" s="124" t="n"/>
+      <c r="BP17" s="124" t="n"/>
+      <c r="BQ17" s="124" t="n"/>
+      <c r="BR17" s="124" t="n"/>
+      <c r="BS17" s="124" t="n"/>
+      <c r="BT17" s="124" t="n"/>
+      <c r="BU17" s="124" t="n"/>
+      <c r="BV17" s="124" t="n"/>
+      <c r="BW17" s="124" t="n"/>
+      <c r="BX17" s="124" t="n"/>
+      <c r="BY17" s="124" t="n"/>
+      <c r="BZ17" s="124" t="n"/>
+      <c r="CA17" s="124" t="n"/>
+      <c r="CB17" s="124" t="n"/>
+      <c r="CC17" s="124" t="n"/>
+      <c r="CD17" s="124" t="n"/>
+      <c r="CE17" s="124" t="n"/>
+      <c r="CF17" s="124" t="n"/>
+      <c r="CG17" s="124" t="n"/>
+      <c r="CH17" s="124" t="n"/>
+      <c r="CI17" s="124" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="128" t="inlineStr">
         <is>
-          <t>Floky23</t>
+          <t>gionny</t>
         </is>
       </c>
       <c r="B18" s="128" t="n">
@@ -12235,114 +12243,130 @@
         <v>0</v>
       </c>
       <c r="D18" s="128" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E18" s="129">
-        <f>SUM(G18:Z18)</f>
+        <f>SUM(G18:AB18)</f>
         <v/>
       </c>
       <c r="F18" s="129">
-        <f>ROUND(AVERAGE(G18:Z18),1)</f>
-        <v/>
-      </c>
-      <c r="G18" s="128" t="n"/>
-      <c r="H18" s="129" t="n"/>
-      <c r="I18" s="128" t="n"/>
-      <c r="J18" s="129" t="n"/>
-      <c r="K18" s="128" t="n"/>
+        <f>ROUND(AVERAGE(G18:AB18),1)</f>
+        <v/>
+      </c>
+      <c r="G18" s="128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="129" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" s="132" t="n"/>
       <c r="L18" s="129" t="n"/>
-      <c r="M18" s="128" t="n"/>
-      <c r="N18" s="129" t="n"/>
-      <c r="O18" s="128" t="n"/>
-      <c r="P18" s="129" t="n"/>
-      <c r="Q18" s="130" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="131" t="n">
-        <v>2</v>
-      </c>
-      <c r="S18" s="128" t="n"/>
+      <c r="M18" s="128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="129" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" s="128" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" s="129" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="132" t="n"/>
+      <c r="R18" s="129" t="n"/>
+      <c r="S18" s="132" t="n"/>
       <c r="T18" s="129" t="n"/>
       <c r="U18" s="130" t="n">
         <v>3</v>
       </c>
       <c r="V18" s="131" t="n">
-        <v>1</v>
-      </c>
-      <c r="W18" s="128" t="n"/>
-      <c r="X18" s="129" t="n"/>
-      <c r="Y18" s="128" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="W18" s="132" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" s="129" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="132" t="n">
+        <v>3</v>
       </c>
       <c r="Z18" s="129" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="128" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="132" t="n"/>
       <c r="AB18" s="129" t="n"/>
       <c r="AC18" s="128" t="n"/>
-      <c r="AD18" s="129" t="n"/>
-      <c r="AE18" s="129" t="n"/>
-      <c r="AF18" s="129" t="n"/>
-      <c r="AG18" s="129" t="n"/>
-      <c r="AH18" s="129" t="n"/>
-      <c r="AI18" s="129" t="n"/>
-      <c r="AJ18" s="129" t="n"/>
-      <c r="AK18" s="129" t="n"/>
-      <c r="AL18" s="129" t="n"/>
-      <c r="AM18" s="129" t="n"/>
-      <c r="AN18" s="129" t="n"/>
-      <c r="AO18" s="129" t="n"/>
-      <c r="AP18" s="129" t="n"/>
-      <c r="AQ18" s="129" t="n"/>
-      <c r="AR18" s="129" t="n"/>
-      <c r="AS18" s="129" t="n"/>
-      <c r="AT18" s="129" t="n"/>
-      <c r="AU18" s="129" t="n"/>
-      <c r="AV18" s="129" t="n"/>
-      <c r="AW18" s="129" t="n"/>
-      <c r="AX18" s="129" t="n"/>
-      <c r="AY18" s="129" t="n"/>
-      <c r="AZ18" s="129" t="n"/>
-      <c r="BA18" s="129" t="n"/>
-      <c r="BB18" s="129" t="n"/>
-      <c r="BC18" s="129" t="n"/>
-      <c r="BD18" s="129" t="n"/>
-      <c r="BE18" s="129" t="n"/>
-      <c r="BF18" s="129" t="n"/>
-      <c r="BG18" s="129" t="n"/>
-      <c r="BH18" s="129" t="n"/>
-      <c r="BI18" s="129" t="n"/>
-      <c r="BJ18" s="129" t="n"/>
-      <c r="BK18" s="129" t="n"/>
-      <c r="BL18" s="129" t="n"/>
-      <c r="BM18" s="129" t="n"/>
-      <c r="BN18" s="129" t="n"/>
-      <c r="BO18" s="129" t="n"/>
-      <c r="BP18" s="129" t="n"/>
-      <c r="BQ18" s="129" t="n"/>
-      <c r="BR18" s="129" t="n"/>
-      <c r="BS18" s="129" t="n"/>
-      <c r="BT18" s="129" t="n"/>
-      <c r="BU18" s="129" t="n"/>
-      <c r="BV18" s="129" t="n"/>
-      <c r="BW18" s="129" t="n"/>
-      <c r="BX18" s="129" t="n"/>
-      <c r="BY18" s="129" t="n"/>
-      <c r="BZ18" s="129" t="n"/>
-      <c r="CA18" s="129" t="n"/>
-      <c r="CB18" s="129" t="n"/>
-      <c r="CC18" s="129" t="n"/>
-      <c r="CD18" s="129" t="n"/>
-      <c r="CE18" s="129" t="n"/>
-      <c r="CF18" s="129" t="n"/>
-      <c r="CG18" s="129" t="n"/>
-      <c r="CH18" s="129" t="n"/>
-      <c r="CI18" s="129" t="n"/>
+      <c r="AD18" s="132" t="n"/>
+      <c r="AE18" s="132" t="n"/>
+      <c r="AF18" s="132" t="n"/>
+      <c r="AG18" s="132" t="n"/>
+      <c r="AH18" s="132" t="n"/>
+      <c r="AI18" s="132" t="n"/>
+      <c r="AJ18" s="132" t="n"/>
+      <c r="AK18" s="132" t="n"/>
+      <c r="AL18" s="132" t="n"/>
+      <c r="AM18" s="132" t="n"/>
+      <c r="AN18" s="132" t="n"/>
+      <c r="AO18" s="132" t="n"/>
+      <c r="AP18" s="132" t="n"/>
+      <c r="AQ18" s="132" t="n"/>
+      <c r="AR18" s="132" t="n"/>
+      <c r="AS18" s="132" t="n"/>
+      <c r="AT18" s="132" t="n"/>
+      <c r="AU18" s="132" t="n"/>
+      <c r="AV18" s="132" t="n"/>
+      <c r="AW18" s="132" t="n"/>
+      <c r="AX18" s="132" t="n"/>
+      <c r="AY18" s="132" t="n"/>
+      <c r="AZ18" s="132" t="n"/>
+      <c r="BA18" s="132" t="n"/>
+      <c r="BB18" s="132" t="n"/>
+      <c r="BC18" s="132" t="n"/>
+      <c r="BD18" s="132" t="n"/>
+      <c r="BE18" s="132" t="n"/>
+      <c r="BF18" s="132" t="n"/>
+      <c r="BG18" s="132" t="n"/>
+      <c r="BH18" s="132" t="n"/>
+      <c r="BI18" s="132" t="n"/>
+      <c r="BJ18" s="132" t="n"/>
+      <c r="BK18" s="132" t="n"/>
+      <c r="BL18" s="132" t="n"/>
+      <c r="BM18" s="132" t="n"/>
+      <c r="BN18" s="132" t="n"/>
+      <c r="BO18" s="132" t="n"/>
+      <c r="BP18" s="132" t="n"/>
+      <c r="BQ18" s="132" t="n"/>
+      <c r="BR18" s="132" t="n"/>
+      <c r="BS18" s="132" t="n"/>
+      <c r="BT18" s="132" t="n"/>
+      <c r="BU18" s="132" t="n"/>
+      <c r="BV18" s="132" t="n"/>
+      <c r="BW18" s="132" t="n"/>
+      <c r="BX18" s="132" t="n"/>
+      <c r="BY18" s="132" t="n"/>
+      <c r="BZ18" s="132" t="n"/>
+      <c r="CA18" s="132" t="n"/>
+      <c r="CB18" s="132" t="n"/>
+      <c r="CC18" s="132" t="n"/>
+      <c r="CD18" s="132" t="n"/>
+      <c r="CE18" s="132" t="n"/>
+      <c r="CF18" s="132" t="n"/>
+      <c r="CG18" s="132" t="n"/>
+      <c r="CH18" s="132" t="n"/>
+      <c r="CI18" s="132" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="123" t="inlineStr">
         <is>
-          <t>gionny</t>
+          <t>Giorgio</t>
         </is>
       </c>
       <c r="B19" s="123" t="n">
@@ -12352,130 +12376,102 @@
         <v>0</v>
       </c>
       <c r="D19" s="123" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E19" s="124">
-        <f>SUM(G19:Z19)</f>
+        <f>SUM(G19:AB19)</f>
         <v/>
       </c>
       <c r="F19" s="124">
-        <f>ROUND(AVERAGE(G19:Z19),1)</f>
-        <v/>
-      </c>
-      <c r="G19" s="123" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="124" t="n">
-        <v>3</v>
-      </c>
-      <c r="K19" s="125" t="n"/>
+        <f>ROUND(AVERAGE(G19:AB19),1)</f>
+        <v/>
+      </c>
+      <c r="G19" s="123" t="n"/>
+      <c r="H19" s="124" t="n"/>
+      <c r="I19" s="123" t="n"/>
+      <c r="J19" s="124" t="n"/>
+      <c r="K19" s="123" t="n"/>
       <c r="L19" s="124" t="n"/>
-      <c r="M19" s="123" t="n">
-        <v>0</